--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs-Fix2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA3D2FC-0660-43BB-B44E-1598719A02F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C31BF7-13EB-4019-A3C0-9A8A6490F832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="292">
   <si>
     <t>English</t>
   </si>
@@ -451,9 +451,6 @@
     <t>HandcuffText</t>
   </si>
   <si>
-    <t>戴上手铐</t>
-  </si>
-  <si>
     <t>PlacePortalText</t>
   </si>
   <si>
@@ -479,9 +476,6 @@
   </si>
   <si>
     <t>PlaceTrapText</t>
-  </si>
-  <si>
-    <t>布下陷阱</t>
   </si>
   <si>
     <t>BrainwashText</t>
@@ -726,10 +720,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>罗望子色</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>黏液绿</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -833,9 +823,6 @@
     <t>鮭魚色</t>
   </si>
   <si>
-    <t>波爾多酒紅</t>
-  </si>
-  <si>
     <t>橄欖綠</t>
   </si>
   <si>
@@ -879,9 +866,6 @@
   </si>
   <si>
     <t>軍綠色</t>
-  </si>
-  <si>
-    <t>羅望子色</t>
   </si>
   <si>
     <t>紫紅色</t>
@@ -978,6 +962,34 @@
   </si>
   <si>
     <t>尝试击杀被保护玩家</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗望子</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>羅望子</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>波爾多</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>minerText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>挖洞</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>上铐</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>布下陷阱</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1577,8 +1589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1332"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="14.25"/>
@@ -1647,7 +1659,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>17</v>
@@ -1658,68 +1670,68 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>184</v>
-      </c>
       <c r="O3" s="5" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="28.5">
       <c r="A5" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="O5" s="5" t="s">
         <v>281</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="71.25">
@@ -1727,43 +1739,43 @@
         <v>19</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="71.25">
       <c r="A10" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B10" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="O10" s="6" t="s">
         <v>275</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="28.5">
       <c r="A11" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>181</v>
-      </c>
       <c r="O11" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="5" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -5748,7 +5760,7 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="18" customHeight="1"/>
@@ -5831,13 +5843,13 @@
         <v>25</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="O2" s="7" t="s">
         <v>26</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="14.25">
@@ -5848,13 +5860,13 @@
         <v>28</v>
       </c>
       <c r="M3" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="14.25">
@@ -5865,13 +5877,13 @@
         <v>30</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="14.25">
@@ -5882,13 +5894,13 @@
         <v>32</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>33</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="14.25">
@@ -5899,13 +5911,13 @@
         <v>35</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>36</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="14.25">
@@ -5916,13 +5928,13 @@
         <v>38</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="14.25">
@@ -5933,13 +5945,13 @@
         <v>41</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="14.25">
@@ -5950,13 +5962,13 @@
         <v>43</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>44</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="14.25">
@@ -5967,13 +5979,13 @@
         <v>46</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="14.25">
@@ -5984,13 +5996,13 @@
         <v>48</v>
       </c>
       <c r="M11" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>49</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="14.25">
@@ -6001,13 +6013,13 @@
         <v>51</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>52</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="14.25">
@@ -6018,13 +6030,13 @@
         <v>54</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>55</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="14.25">
@@ -6035,13 +6047,13 @@
         <v>57</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>58</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="14.25">
@@ -6052,13 +6064,13 @@
         <v>60</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>61</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="14.25">
@@ -6069,13 +6081,13 @@
         <v>63</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>64</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="14.25">
@@ -6086,13 +6098,13 @@
         <v>66</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>67</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="14.25">
@@ -6103,166 +6115,166 @@
         <v>69</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>70</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="14.25">
       <c r="A19" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="14.25">
       <c r="A20" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>216</v>
+        <v>285</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="14.25">
       <c r="A21" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="14.25">
       <c r="A22" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M22" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="14.25">
       <c r="A23" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M23" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="14.25">
       <c r="A24" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="14.25">
       <c r="A25" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="14.25">
       <c r="A26" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="14.25">
       <c r="A27" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -6274,10 +6286,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="O61" sqref="O61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -7185,46 +7197,46 @@
       <c r="B35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O35" s="4" t="s">
-        <v>137</v>
+      <c r="O35" s="7" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>21</v>
@@ -7235,7 +7247,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>21</v>
@@ -7246,189 +7258,200 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O41" s="4" t="s">
-        <v>147</v>
+      <c r="O41" s="7" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O57" s="1" t="s">
         <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O58" s="7" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs-Fix2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EF611F7-E0B1-4964-933D-378A188A7552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB864FCB-3695-4E10-ABAE-254FBF96E5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1592,7 +1592,7 @@
   <dimension ref="A1:Q1332"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="14.25"/>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs-Fix2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs-Beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB864FCB-3695-4E10-ABAE-254FBF96E5D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972696A9-5B58-4C02-9A9B-A481D0FBBEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -981,17 +981,17 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;size=75%&gt;Mod修改：&lt;color=#FFB793&gt;沫夏悠轩&lt;/color&gt;&amp;&lt;color=#FCCE03FF&gt;善良的好人&lt;/color&gt;
+&lt;color=#FCCE03FF&gt;天寸梦初&lt;/color&gt;&amp;&lt;color=#FCCE03FF&gt;Imp11&lt;/color&gt;
+美工: &lt;color=#00FFFFFF&gt;方块&lt;/color&gt;&lt;/size&gt;
+&lt;size=70%&gt;基于TheOtherUs&lt;/size&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;size=75%&gt;Mod修改: &lt;color=#FFB793&gt;沫夏悠轩&lt;/color&gt;&amp;&lt;color=#FCCE03FF&gt;善良的好人&lt;/color&gt;
 &lt;color=#FCCE03FF&gt;天寸梦初&lt;/color&gt;&amp;&lt;color=#FCCE03FF&gt;Imp11&lt;/color&gt;
-美工: &lt;color=#FCCE03FF&gt;方块&lt;/color&gt;&lt;/size&gt;
-&lt;size=70%&gt;基于TheotherUs&lt;/size&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=75%&gt;Mod修改：&lt;color=#FFB793&gt;沫夏悠轩&lt;/color&gt;&amp;&lt;color=#FCCE03FF&gt;善良的好人&lt;/color&gt;
-&lt;color=#FCCE03FF&gt;天寸梦初&lt;/color&gt;&amp;&lt;color=#FCCE03FF&gt;Imp11&lt;/color&gt;
-美工: &lt;color=#FCCE03FF&gt;方块&lt;/color&gt;&lt;/size&gt;
-&lt;size=70%&gt;基于TheotherUs&lt;/size&gt;</t>
+美工: &lt;color=#00FFFFFF&gt;方块&lt;/color&gt;&lt;/size&gt;
+&lt;size=70%&gt;基于TheOtherUs&lt;/size&gt;</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1010,25 +1010,28 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <charset val="128"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -1078,7 +1081,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1098,6 +1101,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1592,7 +1601,7 @@
   <dimension ref="A1:Q1332"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="14.25"/>
@@ -1699,7 +1708,7 @@
       <c r="B5" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="12" t="s">
         <v>279</v>
       </c>
     </row>
@@ -1743,8 +1752,8 @@
       <c r="B9" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="O9" s="7" t="s">
-        <v>290</v>
+      <c r="O9" s="11" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="71.25">
@@ -1754,8 +1763,8 @@
       <c r="B10" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="O10" s="7" t="s">
-        <v>291</v>
+      <c r="O10" s="11" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="28.5">

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs-Beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972696A9-5B58-4C02-9A9B-A481D0FBBEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05D1E0D-6737-46D2-BF79-8AA0CBB8C719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1710" yWindow="4095" windowWidth="21600" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="3" r:id="rId1"/>
@@ -920,14 +920,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;size=130%&gt;&lt;color=#ff351f&gt;我们的超多职业&lt;/color&gt;&lt;/size&gt; </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;size=110%&gt;&lt;color=#ff351f&gt;我们的超多职业&lt;/color&gt;&lt;/size&gt; </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;size=75%&gt;Modified by &lt;color=#FFB793&gt;mxyx.club&lt;/color&gt;
 Based on TheOtherUs&lt;/size&gt;</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -992,6 +984,14 @@
 &lt;color=#FCCE03FF&gt;天寸梦初&lt;/color&gt;&amp;&lt;color=#FCCE03FF&gt;Imp11&lt;/color&gt;
 美工: &lt;color=#00FFFFFF&gt;方块&lt;/color&gt;&lt;/size&gt;
 &lt;size=70%&gt;基于TheOtherUs&lt;/size&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;size=110%&gt;&lt;color=#ff351f&gt;我们的超多职业&lt;/color&gt;&lt;/size&gt; </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;size=130%&gt;&lt;color=#ff351f&gt;我们的超多职业&lt;/color&gt;&lt;/size&gt; </t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1600,8 +1600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="14.25"/>
@@ -1686,8 +1686,8 @@
       <c r="B3" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="O3" s="6" t="s">
-        <v>275</v>
+      <c r="O3" s="12" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1695,10 +1695,10 @@
         <v>183</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="O4" s="6" t="s">
         <v>276</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="28.5">
@@ -1706,10 +1706,10 @@
         <v>274</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="O5" s="12" t="s">
         <v>277</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1753,7 +1753,7 @@
         <v>273</v>
       </c>
       <c r="O9" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="71.25">
@@ -1764,7 +1764,7 @@
         <v>270</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="28.5">
@@ -1780,13 +1780,13 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="O12" s="6" t="s">
         <v>280</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3407,7 +3407,7 @@
         <v>219</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="14.25">
@@ -3693,10 +3693,10 @@
         <v>236</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="14.25">
@@ -4739,7 +4739,7 @@
         <v>21</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -4805,7 +4805,7 @@
         <v>21</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -4986,13 +4986,13 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="5" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O58" s="5" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs-Beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05D1E0D-6737-46D2-BF79-8AA0CBB8C719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBEA787-6BB6-4F41-934E-AFEE9A743F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1710" yWindow="4095" windowWidth="21600" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Button Text" sheetId="8" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Text!$O$1:$O$1035</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Text!$O$1:$O$1036</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="295">
   <si>
     <t>English</t>
   </si>
@@ -992,6 +992,18 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;size=130%&gt;&lt;color=#ff351f&gt;我们的超多职业&lt;/color&gt;&lt;/size&gt; </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Credits</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOU Credits</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作人员</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1598,10 +1610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1332"/>
+  <dimension ref="A1:Q1333"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="14.25"/>
@@ -1745,52 +1757,60 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="71.25">
-      <c r="A9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="O9" s="11" t="s">
-        <v>289</v>
+    <row r="9" spans="1:17">
+      <c r="A9" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="71.25">
       <c r="A10" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="71.25">
+      <c r="A11" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B11" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="O11" s="11" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="28.5">
-      <c r="A11" s="6" t="s">
+    <row r="12" spans="1:17" ht="28.5">
+      <c r="A12" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B12" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O12" s="7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="6" t="s">
+    <row r="13" spans="1:17">
+      <c r="A13" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B13" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="O12" s="6" t="s">
+      <c r="O13" s="6" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:17">
       <c r="O14" s="6"/>
@@ -1801,22 +1821,54 @@
     <row r="16" spans="1:17">
       <c r="O16" s="6"/>
     </row>
-    <row r="17" s="6" customFormat="1"/>
-    <row r="18" s="6" customFormat="1"/>
-    <row r="19" s="6" customFormat="1"/>
-    <row r="20" s="6" customFormat="1"/>
-    <row r="21" s="6" customFormat="1"/>
-    <row r="22" s="6" customFormat="1"/>
-    <row r="23" s="6" customFormat="1"/>
-    <row r="24" s="6" customFormat="1"/>
-    <row r="25" s="6" customFormat="1"/>
-    <row r="26" s="6" customFormat="1"/>
-    <row r="27" s="6" customFormat="1"/>
-    <row r="28" s="6" customFormat="1"/>
-    <row r="29" s="6" customFormat="1"/>
-    <row r="30" s="6" customFormat="1"/>
-    <row r="31" s="6" customFormat="1"/>
-    <row r="32" s="6" customFormat="1"/>
+    <row r="17" spans="15:15">
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="15:15">
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" spans="15:15">
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" spans="15:15">
+      <c r="O20" s="6"/>
+    </row>
+    <row r="21" spans="15:15">
+      <c r="O21" s="6"/>
+    </row>
+    <row r="22" spans="15:15">
+      <c r="O22" s="6"/>
+    </row>
+    <row r="23" spans="15:15">
+      <c r="O23" s="6"/>
+    </row>
+    <row r="24" spans="15:15">
+      <c r="O24" s="6"/>
+    </row>
+    <row r="25" spans="15:15">
+      <c r="O25" s="6"/>
+    </row>
+    <row r="26" spans="15:15">
+      <c r="O26" s="6"/>
+    </row>
+    <row r="27" spans="15:15">
+      <c r="O27" s="6"/>
+    </row>
+    <row r="28" spans="15:15">
+      <c r="O28" s="6"/>
+    </row>
+    <row r="29" spans="15:15">
+      <c r="O29" s="6"/>
+    </row>
+    <row r="30" spans="15:15">
+      <c r="O30" s="6"/>
+    </row>
+    <row r="31" spans="15:15">
+      <c r="O31" s="6"/>
+    </row>
+    <row r="32" spans="15:15">
+      <c r="O32" s="6"/>
+    </row>
     <row r="33" spans="15:15">
       <c r="O33" s="6"/>
     </row>
@@ -1854,16 +1906,16 @@
       <c r="O44" s="6"/>
     </row>
     <row r="45" spans="15:15">
-      <c r="O45" s="8"/>
+      <c r="O45" s="6"/>
     </row>
     <row r="46" spans="15:15">
-      <c r="O46" s="6"/>
+      <c r="O46" s="8"/>
     </row>
     <row r="47" spans="15:15">
       <c r="O47" s="6"/>
     </row>
     <row r="48" spans="15:15">
-      <c r="O48" s="8"/>
+      <c r="O48" s="6"/>
     </row>
     <row r="49" spans="15:15">
       <c r="O49" s="8"/>
@@ -1887,7 +1939,7 @@
       <c r="O55" s="8"/>
     </row>
     <row r="56" spans="15:15">
-      <c r="O56" s="6"/>
+      <c r="O56" s="8"/>
     </row>
     <row r="57" spans="15:15">
       <c r="O57" s="6"/>
@@ -1914,7 +1966,7 @@
       <c r="O64" s="6"/>
     </row>
     <row r="65" spans="15:15">
-      <c r="O65" s="8"/>
+      <c r="O65" s="6"/>
     </row>
     <row r="66" spans="15:15">
       <c r="O66" s="8"/>
@@ -1923,58 +1975,58 @@
       <c r="O67" s="8"/>
     </row>
     <row r="68" spans="15:15">
-      <c r="O68" s="6"/>
+      <c r="O68" s="8"/>
     </row>
     <row r="69" spans="15:15">
-      <c r="O69" s="8"/>
-    </row>
-    <row r="71" spans="15:15">
-      <c r="O71" s="8"/>
+      <c r="O69" s="6"/>
+    </row>
+    <row r="70" spans="15:15">
+      <c r="O70" s="8"/>
     </row>
     <row r="72" spans="15:15">
-      <c r="O72" s="6"/>
+      <c r="O72" s="8"/>
     </row>
     <row r="73" spans="15:15">
       <c r="O73" s="6"/>
     </row>
     <row r="74" spans="15:15">
-      <c r="O74" s="8"/>
+      <c r="O74" s="6"/>
     </row>
     <row r="75" spans="15:15">
       <c r="O75" s="8"/>
     </row>
     <row r="76" spans="15:15">
-      <c r="O76" s="6"/>
+      <c r="O76" s="8"/>
     </row>
     <row r="77" spans="15:15">
-      <c r="O77" s="8"/>
+      <c r="O77" s="6"/>
     </row>
     <row r="78" spans="15:15">
-      <c r="O78" s="6"/>
+      <c r="O78" s="8"/>
     </row>
     <row r="79" spans="15:15">
       <c r="O79" s="6"/>
     </row>
     <row r="80" spans="15:15">
-      <c r="O80" s="8"/>
+      <c r="O80" s="6"/>
     </row>
     <row r="81" spans="2:15">
-      <c r="O81" s="6"/>
+      <c r="O81" s="8"/>
     </row>
     <row r="82" spans="2:15">
-      <c r="O82" s="8"/>
+      <c r="O82" s="6"/>
     </row>
     <row r="83" spans="2:15">
-      <c r="O83" s="6"/>
+      <c r="O83" s="8"/>
     </row>
     <row r="84" spans="2:15">
-      <c r="O84" s="8"/>
+      <c r="O84" s="6"/>
     </row>
     <row r="85" spans="2:15">
       <c r="O85" s="8"/>
     </row>
     <row r="86" spans="2:15">
-      <c r="O86" s="6"/>
+      <c r="O86" s="8"/>
     </row>
     <row r="87" spans="2:15">
       <c r="O87" s="6"/>
@@ -1983,18 +2035,18 @@
       <c r="O88" s="6"/>
     </row>
     <row r="89" spans="2:15">
-      <c r="B89" s="7"/>
-      <c r="M89" s="7"/>
+      <c r="O89" s="6"/>
     </row>
     <row r="90" spans="2:15">
-      <c r="O90" s="6"/>
+      <c r="B90" s="7"/>
+      <c r="M90" s="7"/>
     </row>
     <row r="91" spans="2:15">
-      <c r="B91" s="7"/>
-      <c r="M91" s="7"/>
+      <c r="O91" s="6"/>
     </row>
     <row r="92" spans="2:15">
-      <c r="O92" s="6"/>
+      <c r="B92" s="7"/>
+      <c r="M92" s="7"/>
     </row>
     <row r="93" spans="2:15">
       <c r="O93" s="6"/>
@@ -2008,725 +2060,2163 @@
     <row r="96" spans="2:15">
       <c r="O96" s="6"/>
     </row>
-    <row r="97" s="6" customFormat="1"/>
-    <row r="98" s="6" customFormat="1"/>
-    <row r="99" s="6" customFormat="1"/>
-    <row r="100" s="6" customFormat="1"/>
-    <row r="101" s="6" customFormat="1"/>
-    <row r="102" s="6" customFormat="1"/>
-    <row r="103" s="6" customFormat="1"/>
-    <row r="104" s="6" customFormat="1"/>
-    <row r="105" s="6" customFormat="1"/>
-    <row r="106" s="6" customFormat="1"/>
-    <row r="107" s="6" customFormat="1"/>
-    <row r="108" s="6" customFormat="1"/>
-    <row r="109" s="6" customFormat="1"/>
-    <row r="110" s="6" customFormat="1"/>
-    <row r="111" s="6" customFormat="1"/>
-    <row r="112" s="6" customFormat="1"/>
-    <row r="113" s="6" customFormat="1"/>
-    <row r="114" s="6" customFormat="1"/>
-    <row r="115" s="6" customFormat="1"/>
-    <row r="116" s="6" customFormat="1"/>
-    <row r="117" s="6" customFormat="1"/>
-    <row r="118" s="6" customFormat="1"/>
-    <row r="119" s="6" customFormat="1"/>
-    <row r="120" s="6" customFormat="1"/>
-    <row r="121" s="6" customFormat="1"/>
-    <row r="122" s="6" customFormat="1"/>
-    <row r="123" s="6" customFormat="1"/>
-    <row r="124" s="6" customFormat="1"/>
-    <row r="125" s="6" customFormat="1"/>
-    <row r="126" s="6" customFormat="1"/>
-    <row r="127" s="6" customFormat="1"/>
-    <row r="128" s="6" customFormat="1"/>
-    <row r="129" s="6" customFormat="1"/>
-    <row r="130" s="6" customFormat="1"/>
-    <row r="131" s="6" customFormat="1"/>
-    <row r="132" s="6" customFormat="1"/>
-    <row r="133" s="6" customFormat="1"/>
-    <row r="134" s="6" customFormat="1"/>
-    <row r="135" s="6" customFormat="1"/>
-    <row r="136" s="6" customFormat="1"/>
-    <row r="137" s="6" customFormat="1"/>
-    <row r="138" s="6" customFormat="1"/>
-    <row r="139" s="6" customFormat="1"/>
-    <row r="140" s="6" customFormat="1"/>
-    <row r="141" s="6" customFormat="1"/>
-    <row r="142" s="6" customFormat="1"/>
-    <row r="143" s="6" customFormat="1"/>
-    <row r="144" s="6" customFormat="1"/>
-    <row r="145" s="6" customFormat="1"/>
-    <row r="146" s="6" customFormat="1"/>
-    <row r="147" s="6" customFormat="1"/>
-    <row r="148" s="6" customFormat="1"/>
-    <row r="149" s="6" customFormat="1"/>
-    <row r="150" s="6" customFormat="1"/>
-    <row r="151" s="6" customFormat="1"/>
-    <row r="152" s="6" customFormat="1"/>
-    <row r="153" s="6" customFormat="1"/>
-    <row r="154" s="6" customFormat="1"/>
-    <row r="155" s="6" customFormat="1"/>
-    <row r="156" s="6" customFormat="1"/>
-    <row r="157" s="6" customFormat="1"/>
-    <row r="158" s="6" customFormat="1"/>
-    <row r="159" s="6" customFormat="1"/>
-    <row r="160" s="6" customFormat="1"/>
-    <row r="161" s="6" customFormat="1"/>
-    <row r="162" s="6" customFormat="1"/>
-    <row r="163" s="6" customFormat="1"/>
-    <row r="164" s="6" customFormat="1"/>
-    <row r="165" s="6" customFormat="1"/>
-    <row r="166" s="6" customFormat="1"/>
-    <row r="167" s="6" customFormat="1"/>
-    <row r="168" s="6" customFormat="1"/>
-    <row r="169" s="6" customFormat="1"/>
-    <row r="170" s="6" customFormat="1"/>
-    <row r="171" s="6" customFormat="1"/>
-    <row r="172" s="6" customFormat="1"/>
-    <row r="173" s="6" customFormat="1"/>
-    <row r="174" s="6" customFormat="1"/>
-    <row r="175" s="6" customFormat="1"/>
-    <row r="176" s="6" customFormat="1"/>
-    <row r="177" s="6" customFormat="1"/>
-    <row r="178" s="6" customFormat="1"/>
-    <row r="179" s="6" customFormat="1"/>
-    <row r="180" s="6" customFormat="1"/>
-    <row r="181" s="6" customFormat="1"/>
-    <row r="182" s="6" customFormat="1"/>
-    <row r="183" s="6" customFormat="1"/>
-    <row r="184" s="6" customFormat="1"/>
-    <row r="185" s="6" customFormat="1"/>
-    <row r="186" s="6" customFormat="1"/>
-    <row r="187" s="6" customFormat="1"/>
-    <row r="188" s="6" customFormat="1"/>
-    <row r="189" s="6" customFormat="1"/>
-    <row r="190" s="6" customFormat="1"/>
-    <row r="191" s="6" customFormat="1"/>
-    <row r="192" s="6" customFormat="1"/>
-    <row r="193" s="6" customFormat="1"/>
-    <row r="194" s="6" customFormat="1"/>
-    <row r="195" s="6" customFormat="1"/>
-    <row r="196" s="6" customFormat="1"/>
-    <row r="197" s="6" customFormat="1"/>
-    <row r="198" s="6" customFormat="1"/>
-    <row r="199" s="6" customFormat="1"/>
-    <row r="200" s="6" customFormat="1"/>
-    <row r="201" s="6" customFormat="1"/>
-    <row r="202" s="6" customFormat="1"/>
-    <row r="203" s="6" customFormat="1"/>
-    <row r="204" s="6" customFormat="1"/>
-    <row r="205" s="6" customFormat="1"/>
-    <row r="206" s="6" customFormat="1"/>
-    <row r="207" s="6" customFormat="1"/>
-    <row r="208" s="6" customFormat="1"/>
-    <row r="209" s="6" customFormat="1"/>
-    <row r="210" s="6" customFormat="1"/>
-    <row r="211" s="6" customFormat="1"/>
-    <row r="212" s="6" customFormat="1"/>
-    <row r="213" s="6" customFormat="1"/>
-    <row r="214" s="6" customFormat="1"/>
-    <row r="215" s="6" customFormat="1"/>
-    <row r="216" s="6" customFormat="1"/>
-    <row r="217" s="6" customFormat="1"/>
-    <row r="218" s="6" customFormat="1"/>
-    <row r="219" s="6" customFormat="1"/>
-    <row r="220" s="6" customFormat="1"/>
-    <row r="221" s="6" customFormat="1"/>
-    <row r="222" s="6" customFormat="1"/>
-    <row r="223" s="6" customFormat="1"/>
-    <row r="224" s="6" customFormat="1"/>
-    <row r="225" s="6" customFormat="1"/>
-    <row r="226" s="6" customFormat="1"/>
-    <row r="227" s="6" customFormat="1"/>
-    <row r="228" s="6" customFormat="1"/>
-    <row r="229" s="6" customFormat="1"/>
-    <row r="230" s="6" customFormat="1"/>
-    <row r="231" s="6" customFormat="1"/>
-    <row r="232" s="6" customFormat="1"/>
-    <row r="233" s="6" customFormat="1"/>
-    <row r="234" s="6" customFormat="1"/>
-    <row r="235" s="6" customFormat="1"/>
-    <row r="236" s="6" customFormat="1"/>
-    <row r="237" s="6" customFormat="1"/>
-    <row r="238" s="6" customFormat="1"/>
-    <row r="239" s="6" customFormat="1"/>
-    <row r="240" s="6" customFormat="1"/>
-    <row r="241" s="6" customFormat="1"/>
-    <row r="242" s="6" customFormat="1"/>
-    <row r="243" s="6" customFormat="1"/>
-    <row r="244" s="6" customFormat="1"/>
-    <row r="245" s="6" customFormat="1"/>
-    <row r="246" s="6" customFormat="1"/>
-    <row r="247" s="6" customFormat="1"/>
-    <row r="248" s="6" customFormat="1"/>
-    <row r="249" s="6" customFormat="1"/>
-    <row r="250" s="6" customFormat="1"/>
-    <row r="251" s="6" customFormat="1"/>
-    <row r="252" s="6" customFormat="1"/>
-    <row r="253" s="6" customFormat="1"/>
-    <row r="254" s="6" customFormat="1"/>
-    <row r="255" s="6" customFormat="1"/>
-    <row r="256" s="6" customFormat="1"/>
-    <row r="257" s="6" customFormat="1"/>
-    <row r="258" s="6" customFormat="1"/>
-    <row r="259" s="6" customFormat="1"/>
-    <row r="260" s="6" customFormat="1"/>
-    <row r="261" s="6" customFormat="1"/>
-    <row r="262" s="6" customFormat="1"/>
-    <row r="263" s="6" customFormat="1"/>
-    <row r="264" s="6" customFormat="1"/>
-    <row r="265" s="6" customFormat="1"/>
-    <row r="266" s="6" customFormat="1"/>
-    <row r="267" s="6" customFormat="1"/>
-    <row r="268" s="6" customFormat="1"/>
-    <row r="269" s="6" customFormat="1"/>
-    <row r="270" s="6" customFormat="1"/>
-    <row r="271" s="6" customFormat="1"/>
-    <row r="272" s="6" customFormat="1"/>
-    <row r="273" s="6" customFormat="1"/>
-    <row r="274" s="6" customFormat="1"/>
-    <row r="275" s="6" customFormat="1"/>
-    <row r="276" s="6" customFormat="1"/>
-    <row r="277" s="6" customFormat="1"/>
-    <row r="278" s="6" customFormat="1"/>
-    <row r="279" s="6" customFormat="1"/>
-    <row r="280" s="6" customFormat="1"/>
-    <row r="281" s="6" customFormat="1"/>
-    <row r="282" s="6" customFormat="1"/>
-    <row r="283" s="6" customFormat="1"/>
-    <row r="284" s="6" customFormat="1"/>
-    <row r="285" s="6" customFormat="1"/>
-    <row r="286" s="6" customFormat="1"/>
-    <row r="287" s="6" customFormat="1"/>
-    <row r="288" s="6" customFormat="1"/>
-    <row r="289" s="6" customFormat="1"/>
-    <row r="290" s="6" customFormat="1"/>
-    <row r="291" s="6" customFormat="1"/>
-    <row r="292" s="6" customFormat="1"/>
-    <row r="293" s="6" customFormat="1"/>
-    <row r="294" s="6" customFormat="1"/>
-    <row r="295" s="6" customFormat="1"/>
-    <row r="296" s="6" customFormat="1"/>
-    <row r="297" s="6" customFormat="1"/>
-    <row r="298" s="6" customFormat="1"/>
-    <row r="299" s="6" customFormat="1"/>
-    <row r="300" s="6" customFormat="1"/>
-    <row r="301" s="6" customFormat="1"/>
-    <row r="302" s="6" customFormat="1"/>
-    <row r="303" s="6" customFormat="1"/>
-    <row r="304" s="6" customFormat="1"/>
-    <row r="305" s="6" customFormat="1"/>
-    <row r="306" s="6" customFormat="1"/>
-    <row r="307" s="6" customFormat="1"/>
-    <row r="308" s="6" customFormat="1"/>
-    <row r="309" s="6" customFormat="1"/>
-    <row r="310" s="6" customFormat="1"/>
-    <row r="311" s="6" customFormat="1"/>
-    <row r="312" s="6" customFormat="1"/>
-    <row r="313" s="6" customFormat="1"/>
-    <row r="314" s="6" customFormat="1"/>
-    <row r="315" s="6" customFormat="1"/>
-    <row r="316" s="6" customFormat="1"/>
-    <row r="317" s="6" customFormat="1"/>
-    <row r="318" s="6" customFormat="1"/>
-    <row r="319" s="6" customFormat="1"/>
-    <row r="320" s="6" customFormat="1"/>
-    <row r="321" s="6" customFormat="1"/>
-    <row r="322" s="6" customFormat="1"/>
-    <row r="323" s="6" customFormat="1"/>
-    <row r="324" s="6" customFormat="1"/>
-    <row r="325" s="6" customFormat="1"/>
-    <row r="326" s="6" customFormat="1"/>
-    <row r="327" s="6" customFormat="1"/>
-    <row r="328" s="6" customFormat="1"/>
-    <row r="329" s="6" customFormat="1"/>
-    <row r="330" s="6" customFormat="1"/>
-    <row r="331" s="6" customFormat="1"/>
-    <row r="332" s="6" customFormat="1"/>
-    <row r="333" s="6" customFormat="1"/>
-    <row r="334" s="6" customFormat="1"/>
-    <row r="335" s="6" customFormat="1"/>
-    <row r="336" s="6" customFormat="1"/>
-    <row r="337" s="6" customFormat="1"/>
-    <row r="338" s="6" customFormat="1"/>
-    <row r="339" s="6" customFormat="1"/>
-    <row r="340" s="6" customFormat="1"/>
-    <row r="341" s="6" customFormat="1"/>
-    <row r="342" s="6" customFormat="1"/>
-    <row r="343" s="6" customFormat="1"/>
-    <row r="344" s="6" customFormat="1"/>
-    <row r="345" s="6" customFormat="1"/>
-    <row r="346" s="6" customFormat="1"/>
-    <row r="347" s="6" customFormat="1"/>
-    <row r="348" s="6" customFormat="1"/>
-    <row r="349" s="6" customFormat="1"/>
-    <row r="350" s="6" customFormat="1"/>
-    <row r="351" s="6" customFormat="1"/>
-    <row r="352" s="6" customFormat="1"/>
-    <row r="353" s="6" customFormat="1"/>
-    <row r="354" s="6" customFormat="1"/>
-    <row r="355" s="6" customFormat="1"/>
-    <row r="356" s="6" customFormat="1"/>
-    <row r="357" s="6" customFormat="1"/>
-    <row r="358" s="6" customFormat="1"/>
-    <row r="359" s="6" customFormat="1"/>
-    <row r="360" s="6" customFormat="1"/>
-    <row r="361" s="6" customFormat="1"/>
-    <row r="362" s="6" customFormat="1"/>
-    <row r="363" s="6" customFormat="1"/>
-    <row r="364" s="6" customFormat="1"/>
-    <row r="365" s="6" customFormat="1"/>
-    <row r="366" s="6" customFormat="1"/>
-    <row r="367" s="6" customFormat="1"/>
-    <row r="368" s="6" customFormat="1"/>
-    <row r="369" s="6" customFormat="1"/>
-    <row r="370" s="6" customFormat="1"/>
-    <row r="371" s="6" customFormat="1"/>
-    <row r="372" s="6" customFormat="1"/>
-    <row r="373" s="6" customFormat="1"/>
-    <row r="374" s="6" customFormat="1"/>
-    <row r="375" s="6" customFormat="1"/>
-    <row r="376" s="6" customFormat="1"/>
-    <row r="377" s="6" customFormat="1"/>
-    <row r="378" s="6" customFormat="1"/>
-    <row r="379" s="6" customFormat="1"/>
-    <row r="380" s="6" customFormat="1"/>
-    <row r="381" s="6" customFormat="1"/>
-    <row r="382" s="6" customFormat="1"/>
-    <row r="383" s="6" customFormat="1"/>
-    <row r="384" s="6" customFormat="1"/>
-    <row r="385" s="6" customFormat="1"/>
-    <row r="386" s="6" customFormat="1"/>
-    <row r="387" s="6" customFormat="1"/>
-    <row r="388" s="6" customFormat="1"/>
-    <row r="389" s="6" customFormat="1"/>
-    <row r="390" s="6" customFormat="1"/>
-    <row r="391" s="6" customFormat="1"/>
-    <row r="392" s="6" customFormat="1"/>
-    <row r="393" s="6" customFormat="1"/>
-    <row r="394" s="6" customFormat="1"/>
-    <row r="395" s="6" customFormat="1"/>
-    <row r="396" s="6" customFormat="1"/>
-    <row r="397" s="6" customFormat="1"/>
-    <row r="398" s="6" customFormat="1"/>
-    <row r="399" s="6" customFormat="1"/>
-    <row r="400" s="6" customFormat="1"/>
-    <row r="401" s="6" customFormat="1"/>
-    <row r="402" s="6" customFormat="1"/>
-    <row r="403" s="6" customFormat="1"/>
-    <row r="404" s="6" customFormat="1"/>
-    <row r="405" s="6" customFormat="1"/>
-    <row r="406" s="6" customFormat="1"/>
-    <row r="407" s="6" customFormat="1"/>
-    <row r="408" s="6" customFormat="1"/>
-    <row r="409" s="6" customFormat="1"/>
-    <row r="410" s="6" customFormat="1"/>
-    <row r="411" s="6" customFormat="1"/>
-    <row r="412" s="6" customFormat="1"/>
-    <row r="413" s="6" customFormat="1"/>
-    <row r="414" s="6" customFormat="1"/>
-    <row r="415" s="6" customFormat="1"/>
-    <row r="416" s="6" customFormat="1"/>
-    <row r="417" s="6" customFormat="1"/>
-    <row r="418" s="6" customFormat="1"/>
-    <row r="419" s="6" customFormat="1"/>
-    <row r="420" s="6" customFormat="1"/>
-    <row r="421" s="6" customFormat="1"/>
-    <row r="422" s="6" customFormat="1"/>
-    <row r="423" s="6" customFormat="1"/>
-    <row r="424" s="6" customFormat="1"/>
-    <row r="425" s="6" customFormat="1"/>
-    <row r="426" s="6" customFormat="1"/>
-    <row r="427" s="6" customFormat="1"/>
-    <row r="428" s="6" customFormat="1"/>
-    <row r="429" s="6" customFormat="1"/>
-    <row r="430" s="6" customFormat="1"/>
-    <row r="431" s="6" customFormat="1"/>
-    <row r="432" s="6" customFormat="1"/>
-    <row r="434" s="6" customFormat="1"/>
-    <row r="435" s="6" customFormat="1"/>
-    <row r="436" s="6" customFormat="1"/>
-    <row r="437" s="6" customFormat="1"/>
-    <row r="438" s="6" customFormat="1"/>
-    <row r="439" s="6" customFormat="1"/>
-    <row r="440" s="6" customFormat="1"/>
-    <row r="441" s="6" customFormat="1"/>
-    <row r="442" s="6" customFormat="1"/>
-    <row r="443" s="6" customFormat="1"/>
-    <row r="444" s="6" customFormat="1"/>
-    <row r="445" s="6" customFormat="1"/>
-    <row r="446" s="6" customFormat="1"/>
-    <row r="447" s="6" customFormat="1"/>
-    <row r="448" s="6" customFormat="1"/>
-    <row r="449" s="6" customFormat="1"/>
-    <row r="450" s="6" customFormat="1"/>
-    <row r="451" s="6" customFormat="1"/>
-    <row r="452" s="6" customFormat="1"/>
-    <row r="453" s="6" customFormat="1"/>
-    <row r="454" s="6" customFormat="1"/>
-    <row r="455" s="6" customFormat="1"/>
-    <row r="456" s="6" customFormat="1"/>
-    <row r="457" s="6" customFormat="1"/>
-    <row r="458" s="6" customFormat="1"/>
-    <row r="459" s="6" customFormat="1"/>
-    <row r="460" s="6" customFormat="1"/>
-    <row r="461" s="6" customFormat="1"/>
-    <row r="462" s="6" customFormat="1"/>
-    <row r="463" s="6" customFormat="1"/>
-    <row r="464" s="6" customFormat="1"/>
-    <row r="465" s="6" customFormat="1"/>
-    <row r="466" s="6" customFormat="1"/>
-    <row r="467" s="6" customFormat="1"/>
-    <row r="468" s="6" customFormat="1"/>
-    <row r="469" s="6" customFormat="1"/>
-    <row r="470" s="6" customFormat="1"/>
-    <row r="471" s="6" customFormat="1"/>
-    <row r="472" s="6" customFormat="1"/>
-    <row r="473" s="6" customFormat="1"/>
-    <row r="474" s="6" customFormat="1"/>
-    <row r="475" s="6" customFormat="1"/>
-    <row r="476" s="6" customFormat="1"/>
-    <row r="477" s="6" customFormat="1"/>
-    <row r="478" s="6" customFormat="1"/>
-    <row r="479" s="6" customFormat="1"/>
-    <row r="480" s="6" customFormat="1"/>
-    <row r="481" s="6" customFormat="1"/>
-    <row r="482" s="6" customFormat="1"/>
-    <row r="483" s="6" customFormat="1"/>
-    <row r="484" s="6" customFormat="1"/>
-    <row r="485" s="6" customFormat="1"/>
-    <row r="486" s="6" customFormat="1"/>
-    <row r="487" s="6" customFormat="1"/>
-    <row r="488" s="6" customFormat="1"/>
-    <row r="489" s="6" customFormat="1"/>
-    <row r="490" s="6" customFormat="1"/>
-    <row r="491" s="6" customFormat="1"/>
-    <row r="492" s="6" customFormat="1"/>
-    <row r="493" s="6" customFormat="1"/>
-    <row r="494" s="6" customFormat="1"/>
-    <row r="495" s="6" customFormat="1"/>
-    <row r="496" s="6" customFormat="1"/>
-    <row r="497" s="6" customFormat="1"/>
-    <row r="498" s="6" customFormat="1"/>
-    <row r="499" s="6" customFormat="1"/>
-    <row r="500" s="6" customFormat="1"/>
-    <row r="501" s="6" customFormat="1"/>
-    <row r="502" s="6" customFormat="1"/>
-    <row r="503" s="6" customFormat="1"/>
-    <row r="504" s="6" customFormat="1"/>
-    <row r="505" s="6" customFormat="1"/>
-    <row r="506" s="6" customFormat="1"/>
-    <row r="507" s="6" customFormat="1"/>
-    <row r="508" s="6" customFormat="1"/>
-    <row r="509" s="6" customFormat="1"/>
-    <row r="510" s="6" customFormat="1"/>
-    <row r="511" s="6" customFormat="1"/>
-    <row r="512" s="6" customFormat="1"/>
-    <row r="513" s="6" customFormat="1"/>
-    <row r="514" s="6" customFormat="1"/>
-    <row r="515" s="6" customFormat="1"/>
-    <row r="516" s="6" customFormat="1"/>
-    <row r="517" s="6" customFormat="1"/>
-    <row r="518" s="6" customFormat="1"/>
-    <row r="519" s="6" customFormat="1"/>
-    <row r="520" s="6" customFormat="1"/>
-    <row r="521" s="6" customFormat="1"/>
-    <row r="522" s="6" customFormat="1"/>
-    <row r="523" s="6" customFormat="1"/>
-    <row r="524" s="6" customFormat="1"/>
-    <row r="525" s="6" customFormat="1"/>
-    <row r="526" s="6" customFormat="1"/>
-    <row r="527" s="6" customFormat="1"/>
-    <row r="528" s="6" customFormat="1"/>
-    <row r="529" s="6" customFormat="1"/>
-    <row r="530" s="6" customFormat="1"/>
-    <row r="531" s="6" customFormat="1"/>
-    <row r="532" s="6" customFormat="1"/>
-    <row r="533" s="6" customFormat="1"/>
-    <row r="534" s="6" customFormat="1"/>
-    <row r="535" s="6" customFormat="1"/>
-    <row r="536" s="6" customFormat="1"/>
-    <row r="537" s="6" customFormat="1"/>
-    <row r="538" s="6" customFormat="1"/>
-    <row r="539" s="6" customFormat="1"/>
-    <row r="540" s="6" customFormat="1"/>
-    <row r="541" s="6" customFormat="1"/>
-    <row r="542" s="6" customFormat="1"/>
-    <row r="543" s="6" customFormat="1"/>
-    <row r="544" s="6" customFormat="1"/>
-    <row r="545" s="6" customFormat="1"/>
-    <row r="546" s="6" customFormat="1"/>
-    <row r="547" s="6" customFormat="1"/>
-    <row r="548" s="6" customFormat="1"/>
-    <row r="549" s="6" customFormat="1"/>
-    <row r="550" s="6" customFormat="1"/>
-    <row r="551" s="6" customFormat="1"/>
-    <row r="552" s="6" customFormat="1"/>
-    <row r="553" s="6" customFormat="1"/>
-    <row r="554" s="6" customFormat="1"/>
-    <row r="555" s="6" customFormat="1"/>
-    <row r="556" s="6" customFormat="1"/>
-    <row r="557" s="6" customFormat="1"/>
-    <row r="558" s="6" customFormat="1"/>
-    <row r="559" s="6" customFormat="1"/>
-    <row r="560" s="6" customFormat="1"/>
-    <row r="561" s="6" customFormat="1"/>
-    <row r="562" s="6" customFormat="1"/>
-    <row r="563" s="6" customFormat="1"/>
-    <row r="564" s="6" customFormat="1"/>
-    <row r="565" s="6" customFormat="1"/>
-    <row r="566" s="6" customFormat="1"/>
-    <row r="567" s="6" customFormat="1"/>
-    <row r="568" s="6" customFormat="1"/>
-    <row r="569" s="6" customFormat="1"/>
-    <row r="570" s="6" customFormat="1"/>
-    <row r="571" s="6" customFormat="1"/>
-    <row r="572" s="6" customFormat="1"/>
-    <row r="573" s="6" customFormat="1"/>
-    <row r="574" s="6" customFormat="1"/>
-    <row r="575" s="6" customFormat="1"/>
-    <row r="576" s="6" customFormat="1"/>
-    <row r="577" s="6" customFormat="1"/>
-    <row r="578" s="6" customFormat="1"/>
-    <row r="579" s="6" customFormat="1"/>
-    <row r="580" s="6" customFormat="1"/>
-    <row r="581" s="6" customFormat="1"/>
-    <row r="582" s="6" customFormat="1"/>
-    <row r="583" s="6" customFormat="1"/>
-    <row r="584" s="6" customFormat="1"/>
-    <row r="585" s="6" customFormat="1"/>
-    <row r="586" s="6" customFormat="1"/>
-    <row r="587" s="6" customFormat="1"/>
-    <row r="588" s="6" customFormat="1"/>
-    <row r="589" s="6" customFormat="1"/>
-    <row r="590" s="6" customFormat="1"/>
-    <row r="591" s="6" customFormat="1"/>
-    <row r="592" s="6" customFormat="1"/>
-    <row r="593" s="6" customFormat="1"/>
-    <row r="594" s="6" customFormat="1"/>
-    <row r="595" s="6" customFormat="1"/>
-    <row r="596" s="6" customFormat="1"/>
-    <row r="597" s="6" customFormat="1"/>
-    <row r="598" s="6" customFormat="1"/>
-    <row r="599" s="6" customFormat="1"/>
-    <row r="600" s="6" customFormat="1"/>
-    <row r="601" s="6" customFormat="1"/>
-    <row r="602" s="6" customFormat="1"/>
-    <row r="603" s="6" customFormat="1"/>
-    <row r="604" s="6" customFormat="1"/>
-    <row r="605" s="6" customFormat="1"/>
-    <row r="606" s="6" customFormat="1"/>
-    <row r="607" s="6" customFormat="1"/>
-    <row r="608" s="6" customFormat="1"/>
-    <row r="609" s="6" customFormat="1"/>
-    <row r="610" s="6" customFormat="1"/>
-    <row r="611" s="6" customFormat="1"/>
-    <row r="612" s="6" customFormat="1"/>
-    <row r="613" s="6" customFormat="1"/>
-    <row r="614" s="6" customFormat="1"/>
-    <row r="615" s="6" customFormat="1"/>
-    <row r="616" s="6" customFormat="1"/>
-    <row r="617" s="6" customFormat="1"/>
-    <row r="618" s="6" customFormat="1"/>
-    <row r="619" s="6" customFormat="1"/>
-    <row r="620" s="6" customFormat="1"/>
-    <row r="621" s="6" customFormat="1"/>
-    <row r="622" s="6" customFormat="1"/>
-    <row r="623" s="6" customFormat="1"/>
-    <row r="624" s="6" customFormat="1"/>
-    <row r="625" s="6" customFormat="1"/>
-    <row r="626" s="6" customFormat="1"/>
-    <row r="627" s="6" customFormat="1"/>
-    <row r="628" s="6" customFormat="1"/>
-    <row r="629" s="6" customFormat="1"/>
-    <row r="630" s="6" customFormat="1"/>
-    <row r="631" s="6" customFormat="1"/>
-    <row r="632" s="6" customFormat="1"/>
-    <row r="633" s="6" customFormat="1"/>
-    <row r="634" s="6" customFormat="1"/>
-    <row r="635" s="6" customFormat="1"/>
-    <row r="636" s="6" customFormat="1"/>
-    <row r="637" s="6" customFormat="1"/>
-    <row r="638" s="6" customFormat="1"/>
-    <row r="639" s="6" customFormat="1"/>
-    <row r="640" s="6" customFormat="1"/>
-    <row r="641" s="6" customFormat="1"/>
-    <row r="642" s="6" customFormat="1"/>
-    <row r="643" s="6" customFormat="1"/>
-    <row r="644" s="6" customFormat="1"/>
-    <row r="645" s="6" customFormat="1"/>
-    <row r="646" s="6" customFormat="1"/>
-    <row r="647" s="6" customFormat="1"/>
-    <row r="648" s="6" customFormat="1"/>
-    <row r="649" s="6" customFormat="1"/>
-    <row r="650" s="6" customFormat="1"/>
-    <row r="651" s="6" customFormat="1"/>
-    <row r="652" s="6" customFormat="1"/>
-    <row r="653" s="6" customFormat="1"/>
-    <row r="654" s="6" customFormat="1"/>
-    <row r="655" s="6" customFormat="1"/>
-    <row r="656" s="6" customFormat="1"/>
-    <row r="657" s="6" customFormat="1"/>
-    <row r="658" s="6" customFormat="1"/>
-    <row r="659" s="6" customFormat="1"/>
-    <row r="660" s="6" customFormat="1"/>
-    <row r="661" s="6" customFormat="1"/>
-    <row r="662" s="6" customFormat="1"/>
-    <row r="663" s="6" customFormat="1"/>
-    <row r="664" s="6" customFormat="1"/>
-    <row r="665" s="6" customFormat="1"/>
-    <row r="666" s="6" customFormat="1"/>
-    <row r="667" s="6" customFormat="1"/>
-    <row r="668" s="6" customFormat="1"/>
-    <row r="669" s="6" customFormat="1"/>
-    <row r="670" s="6" customFormat="1"/>
-    <row r="671" s="6" customFormat="1"/>
-    <row r="672" s="6" customFormat="1"/>
-    <row r="673" s="6" customFormat="1"/>
-    <row r="674" s="6" customFormat="1"/>
-    <row r="675" s="6" customFormat="1"/>
-    <row r="676" s="6" customFormat="1"/>
-    <row r="677" s="6" customFormat="1"/>
-    <row r="678" s="6" customFormat="1"/>
-    <row r="679" s="6" customFormat="1"/>
-    <row r="680" s="6" customFormat="1"/>
-    <row r="681" s="6" customFormat="1"/>
-    <row r="682" s="6" customFormat="1"/>
-    <row r="683" s="6" customFormat="1"/>
-    <row r="684" s="6" customFormat="1"/>
-    <row r="685" s="6" customFormat="1"/>
-    <row r="686" s="6" customFormat="1"/>
-    <row r="687" s="6" customFormat="1"/>
-    <row r="688" s="6" customFormat="1"/>
-    <row r="689" s="6" customFormat="1"/>
-    <row r="690" s="6" customFormat="1"/>
-    <row r="691" s="6" customFormat="1"/>
-    <row r="692" s="6" customFormat="1"/>
-    <row r="693" s="6" customFormat="1"/>
-    <row r="694" s="6" customFormat="1"/>
-    <row r="695" s="6" customFormat="1"/>
-    <row r="696" s="6" customFormat="1"/>
-    <row r="697" s="6" customFormat="1"/>
-    <row r="698" s="6" customFormat="1"/>
-    <row r="699" s="6" customFormat="1"/>
-    <row r="700" s="6" customFormat="1"/>
-    <row r="701" s="6" customFormat="1"/>
-    <row r="702" s="6" customFormat="1"/>
-    <row r="703" s="6" customFormat="1"/>
-    <row r="704" s="6" customFormat="1"/>
-    <row r="705" s="6" customFormat="1"/>
-    <row r="706" s="6" customFormat="1"/>
-    <row r="707" s="6" customFormat="1"/>
-    <row r="708" s="6" customFormat="1"/>
-    <row r="709" s="6" customFormat="1"/>
-    <row r="710" s="6" customFormat="1"/>
-    <row r="711" s="6" customFormat="1"/>
-    <row r="712" s="6" customFormat="1"/>
-    <row r="713" s="6" customFormat="1"/>
-    <row r="714" s="6" customFormat="1"/>
-    <row r="715" s="6" customFormat="1"/>
-    <row r="716" s="6" customFormat="1"/>
-    <row r="717" s="6" customFormat="1"/>
-    <row r="718" s="6" customFormat="1"/>
-    <row r="719" s="6" customFormat="1"/>
-    <row r="720" s="6" customFormat="1"/>
-    <row r="721" s="6" customFormat="1"/>
-    <row r="722" s="6" customFormat="1"/>
-    <row r="723" s="6" customFormat="1"/>
-    <row r="724" s="6" customFormat="1"/>
-    <row r="725" s="6" customFormat="1"/>
-    <row r="726" s="6" customFormat="1"/>
-    <row r="727" s="6" customFormat="1"/>
-    <row r="728" s="6" customFormat="1"/>
-    <row r="729" s="6" customFormat="1"/>
-    <row r="730" s="6" customFormat="1"/>
-    <row r="731" s="6" customFormat="1"/>
-    <row r="732" s="6" customFormat="1"/>
-    <row r="733" s="6" customFormat="1"/>
-    <row r="734" s="6" customFormat="1"/>
-    <row r="735" s="6" customFormat="1"/>
-    <row r="736" s="6" customFormat="1"/>
-    <row r="737" s="6" customFormat="1"/>
-    <row r="738" s="6" customFormat="1"/>
-    <row r="739" s="6" customFormat="1"/>
-    <row r="740" s="6" customFormat="1"/>
-    <row r="741" s="6" customFormat="1"/>
-    <row r="742" s="6" customFormat="1"/>
-    <row r="743" s="6" customFormat="1"/>
-    <row r="744" s="6" customFormat="1"/>
-    <row r="745" s="6" customFormat="1"/>
-    <row r="746" s="6" customFormat="1"/>
-    <row r="747" s="6" customFormat="1"/>
-    <row r="748" s="6" customFormat="1"/>
-    <row r="749" s="6" customFormat="1"/>
-    <row r="750" s="6" customFormat="1"/>
-    <row r="751" s="6" customFormat="1"/>
-    <row r="752" s="6" customFormat="1"/>
-    <row r="753" s="6" customFormat="1"/>
-    <row r="754" s="6" customFormat="1"/>
-    <row r="755" s="6" customFormat="1"/>
-    <row r="756" s="6" customFormat="1"/>
-    <row r="757" s="6" customFormat="1"/>
-    <row r="758" s="6" customFormat="1"/>
-    <row r="759" s="6" customFormat="1"/>
-    <row r="760" s="6" customFormat="1"/>
-    <row r="761" s="6" customFormat="1"/>
-    <row r="762" s="6" customFormat="1"/>
-    <row r="763" s="6" customFormat="1"/>
-    <row r="764" s="6" customFormat="1"/>
-    <row r="765" s="6" customFormat="1"/>
-    <row r="766" s="6" customFormat="1"/>
-    <row r="767" s="6" customFormat="1"/>
-    <row r="768" s="6" customFormat="1"/>
-    <row r="769" s="6" customFormat="1"/>
-    <row r="770" s="6" customFormat="1"/>
-    <row r="771" s="6" customFormat="1"/>
-    <row r="772" s="6" customFormat="1"/>
-    <row r="773" s="6" customFormat="1"/>
-    <row r="774" s="6" customFormat="1"/>
-    <row r="775" s="6" customFormat="1"/>
-    <row r="776" s="6" customFormat="1"/>
-    <row r="777" s="6" customFormat="1"/>
-    <row r="778" s="6" customFormat="1"/>
-    <row r="779" s="6" customFormat="1"/>
-    <row r="780" s="6" customFormat="1"/>
-    <row r="781" s="6" customFormat="1"/>
-    <row r="782" s="6" customFormat="1"/>
-    <row r="783" s="6" customFormat="1"/>
-    <row r="784" s="6" customFormat="1"/>
-    <row r="785" s="6" customFormat="1"/>
-    <row r="786" s="6" customFormat="1"/>
-    <row r="787" s="6" customFormat="1"/>
-    <row r="788" s="6" customFormat="1"/>
-    <row r="789" s="6" customFormat="1"/>
-    <row r="790" s="6" customFormat="1"/>
-    <row r="791" s="6" customFormat="1"/>
-    <row r="792" s="6" customFormat="1"/>
-    <row r="793" s="6" customFormat="1"/>
-    <row r="794" s="6" customFormat="1"/>
-    <row r="795" s="6" customFormat="1"/>
-    <row r="796" s="6" customFormat="1"/>
-    <row r="797" s="6" customFormat="1"/>
-    <row r="798" s="6" customFormat="1"/>
-    <row r="799" s="6" customFormat="1"/>
-    <row r="800" s="6" customFormat="1"/>
-    <row r="801" s="6" customFormat="1"/>
-    <row r="802" s="6" customFormat="1"/>
-    <row r="803" s="6" customFormat="1"/>
-    <row r="804" s="6" customFormat="1"/>
-    <row r="805" s="6" customFormat="1"/>
-    <row r="806" s="6" customFormat="1"/>
-    <row r="807" s="6" customFormat="1"/>
-    <row r="808" s="6" customFormat="1"/>
-    <row r="809" s="6" customFormat="1"/>
-    <row r="810" s="6" customFormat="1"/>
-    <row r="811" s="6" customFormat="1"/>
-    <row r="812" s="6" customFormat="1"/>
-    <row r="813" s="6" customFormat="1"/>
-    <row r="814" s="6" customFormat="1"/>
-    <row r="815" s="6" customFormat="1"/>
-    <row r="816" s="6" customFormat="1"/>
+    <row r="97" spans="15:15">
+      <c r="O97" s="6"/>
+    </row>
+    <row r="98" spans="15:15">
+      <c r="O98" s="6"/>
+    </row>
+    <row r="99" spans="15:15">
+      <c r="O99" s="6"/>
+    </row>
+    <row r="100" spans="15:15">
+      <c r="O100" s="6"/>
+    </row>
+    <row r="101" spans="15:15">
+      <c r="O101" s="6"/>
+    </row>
+    <row r="102" spans="15:15">
+      <c r="O102" s="6"/>
+    </row>
+    <row r="103" spans="15:15">
+      <c r="O103" s="6"/>
+    </row>
+    <row r="104" spans="15:15">
+      <c r="O104" s="6"/>
+    </row>
+    <row r="105" spans="15:15">
+      <c r="O105" s="6"/>
+    </row>
+    <row r="106" spans="15:15">
+      <c r="O106" s="6"/>
+    </row>
+    <row r="107" spans="15:15">
+      <c r="O107" s="6"/>
+    </row>
+    <row r="108" spans="15:15">
+      <c r="O108" s="6"/>
+    </row>
+    <row r="109" spans="15:15">
+      <c r="O109" s="6"/>
+    </row>
+    <row r="110" spans="15:15">
+      <c r="O110" s="6"/>
+    </row>
+    <row r="111" spans="15:15">
+      <c r="O111" s="6"/>
+    </row>
+    <row r="112" spans="15:15">
+      <c r="O112" s="6"/>
+    </row>
+    <row r="113" spans="15:15">
+      <c r="O113" s="6"/>
+    </row>
+    <row r="114" spans="15:15">
+      <c r="O114" s="6"/>
+    </row>
+    <row r="115" spans="15:15">
+      <c r="O115" s="6"/>
+    </row>
+    <row r="116" spans="15:15">
+      <c r="O116" s="6"/>
+    </row>
+    <row r="117" spans="15:15">
+      <c r="O117" s="6"/>
+    </row>
+    <row r="118" spans="15:15">
+      <c r="O118" s="6"/>
+    </row>
+    <row r="119" spans="15:15">
+      <c r="O119" s="6"/>
+    </row>
+    <row r="120" spans="15:15">
+      <c r="O120" s="6"/>
+    </row>
+    <row r="121" spans="15:15">
+      <c r="O121" s="6"/>
+    </row>
+    <row r="122" spans="15:15">
+      <c r="O122" s="6"/>
+    </row>
+    <row r="123" spans="15:15">
+      <c r="O123" s="6"/>
+    </row>
+    <row r="124" spans="15:15">
+      <c r="O124" s="6"/>
+    </row>
+    <row r="125" spans="15:15">
+      <c r="O125" s="6"/>
+    </row>
+    <row r="126" spans="15:15">
+      <c r="O126" s="6"/>
+    </row>
+    <row r="127" spans="15:15">
+      <c r="O127" s="6"/>
+    </row>
+    <row r="128" spans="15:15">
+      <c r="O128" s="6"/>
+    </row>
+    <row r="129" spans="15:15">
+      <c r="O129" s="6"/>
+    </row>
+    <row r="130" spans="15:15">
+      <c r="O130" s="6"/>
+    </row>
+    <row r="131" spans="15:15">
+      <c r="O131" s="6"/>
+    </row>
+    <row r="132" spans="15:15">
+      <c r="O132" s="6"/>
+    </row>
+    <row r="133" spans="15:15">
+      <c r="O133" s="6"/>
+    </row>
+    <row r="134" spans="15:15">
+      <c r="O134" s="6"/>
+    </row>
+    <row r="135" spans="15:15">
+      <c r="O135" s="6"/>
+    </row>
+    <row r="136" spans="15:15">
+      <c r="O136" s="6"/>
+    </row>
+    <row r="137" spans="15:15">
+      <c r="O137" s="6"/>
+    </row>
+    <row r="138" spans="15:15">
+      <c r="O138" s="6"/>
+    </row>
+    <row r="139" spans="15:15">
+      <c r="O139" s="6"/>
+    </row>
+    <row r="140" spans="15:15">
+      <c r="O140" s="6"/>
+    </row>
+    <row r="141" spans="15:15">
+      <c r="O141" s="6"/>
+    </row>
+    <row r="142" spans="15:15">
+      <c r="O142" s="6"/>
+    </row>
+    <row r="143" spans="15:15">
+      <c r="O143" s="6"/>
+    </row>
+    <row r="144" spans="15:15">
+      <c r="O144" s="6"/>
+    </row>
+    <row r="145" spans="15:15">
+      <c r="O145" s="6"/>
+    </row>
+    <row r="146" spans="15:15">
+      <c r="O146" s="6"/>
+    </row>
+    <row r="147" spans="15:15">
+      <c r="O147" s="6"/>
+    </row>
+    <row r="148" spans="15:15">
+      <c r="O148" s="6"/>
+    </row>
+    <row r="149" spans="15:15">
+      <c r="O149" s="6"/>
+    </row>
+    <row r="150" spans="15:15">
+      <c r="O150" s="6"/>
+    </row>
+    <row r="151" spans="15:15">
+      <c r="O151" s="6"/>
+    </row>
+    <row r="152" spans="15:15">
+      <c r="O152" s="6"/>
+    </row>
+    <row r="153" spans="15:15">
+      <c r="O153" s="6"/>
+    </row>
+    <row r="154" spans="15:15">
+      <c r="O154" s="6"/>
+    </row>
+    <row r="155" spans="15:15">
+      <c r="O155" s="6"/>
+    </row>
+    <row r="156" spans="15:15">
+      <c r="O156" s="6"/>
+    </row>
+    <row r="157" spans="15:15">
+      <c r="O157" s="6"/>
+    </row>
+    <row r="158" spans="15:15">
+      <c r="O158" s="6"/>
+    </row>
+    <row r="159" spans="15:15">
+      <c r="O159" s="6"/>
+    </row>
+    <row r="160" spans="15:15">
+      <c r="O160" s="6"/>
+    </row>
+    <row r="161" spans="15:15">
+      <c r="O161" s="6"/>
+    </row>
+    <row r="162" spans="15:15">
+      <c r="O162" s="6"/>
+    </row>
+    <row r="163" spans="15:15">
+      <c r="O163" s="6"/>
+    </row>
+    <row r="164" spans="15:15">
+      <c r="O164" s="6"/>
+    </row>
+    <row r="165" spans="15:15">
+      <c r="O165" s="6"/>
+    </row>
+    <row r="166" spans="15:15">
+      <c r="O166" s="6"/>
+    </row>
+    <row r="167" spans="15:15">
+      <c r="O167" s="6"/>
+    </row>
+    <row r="168" spans="15:15">
+      <c r="O168" s="6"/>
+    </row>
+    <row r="169" spans="15:15">
+      <c r="O169" s="6"/>
+    </row>
+    <row r="170" spans="15:15">
+      <c r="O170" s="6"/>
+    </row>
+    <row r="171" spans="15:15">
+      <c r="O171" s="6"/>
+    </row>
+    <row r="172" spans="15:15">
+      <c r="O172" s="6"/>
+    </row>
+    <row r="173" spans="15:15">
+      <c r="O173" s="6"/>
+    </row>
+    <row r="174" spans="15:15">
+      <c r="O174" s="6"/>
+    </row>
+    <row r="175" spans="15:15">
+      <c r="O175" s="6"/>
+    </row>
+    <row r="176" spans="15:15">
+      <c r="O176" s="6"/>
+    </row>
+    <row r="177" spans="15:15">
+      <c r="O177" s="6"/>
+    </row>
+    <row r="178" spans="15:15">
+      <c r="O178" s="6"/>
+    </row>
+    <row r="179" spans="15:15">
+      <c r="O179" s="6"/>
+    </row>
+    <row r="180" spans="15:15">
+      <c r="O180" s="6"/>
+    </row>
+    <row r="181" spans="15:15">
+      <c r="O181" s="6"/>
+    </row>
+    <row r="182" spans="15:15">
+      <c r="O182" s="6"/>
+    </row>
+    <row r="183" spans="15:15">
+      <c r="O183" s="6"/>
+    </row>
+    <row r="184" spans="15:15">
+      <c r="O184" s="6"/>
+    </row>
+    <row r="185" spans="15:15">
+      <c r="O185" s="6"/>
+    </row>
+    <row r="186" spans="15:15">
+      <c r="O186" s="6"/>
+    </row>
+    <row r="187" spans="15:15">
+      <c r="O187" s="6"/>
+    </row>
+    <row r="188" spans="15:15">
+      <c r="O188" s="6"/>
+    </row>
+    <row r="189" spans="15:15">
+      <c r="O189" s="6"/>
+    </row>
+    <row r="190" spans="15:15">
+      <c r="O190" s="6"/>
+    </row>
+    <row r="191" spans="15:15">
+      <c r="O191" s="6"/>
+    </row>
+    <row r="192" spans="15:15">
+      <c r="O192" s="6"/>
+    </row>
+    <row r="193" spans="15:15">
+      <c r="O193" s="6"/>
+    </row>
+    <row r="194" spans="15:15">
+      <c r="O194" s="6"/>
+    </row>
+    <row r="195" spans="15:15">
+      <c r="O195" s="6"/>
+    </row>
+    <row r="196" spans="15:15">
+      <c r="O196" s="6"/>
+    </row>
+    <row r="197" spans="15:15">
+      <c r="O197" s="6"/>
+    </row>
+    <row r="198" spans="15:15">
+      <c r="O198" s="6"/>
+    </row>
+    <row r="199" spans="15:15">
+      <c r="O199" s="6"/>
+    </row>
+    <row r="200" spans="15:15">
+      <c r="O200" s="6"/>
+    </row>
+    <row r="201" spans="15:15">
+      <c r="O201" s="6"/>
+    </row>
+    <row r="202" spans="15:15">
+      <c r="O202" s="6"/>
+    </row>
+    <row r="203" spans="15:15">
+      <c r="O203" s="6"/>
+    </row>
+    <row r="204" spans="15:15">
+      <c r="O204" s="6"/>
+    </row>
+    <row r="205" spans="15:15">
+      <c r="O205" s="6"/>
+    </row>
+    <row r="206" spans="15:15">
+      <c r="O206" s="6"/>
+    </row>
+    <row r="207" spans="15:15">
+      <c r="O207" s="6"/>
+    </row>
+    <row r="208" spans="15:15">
+      <c r="O208" s="6"/>
+    </row>
+    <row r="209" spans="15:15">
+      <c r="O209" s="6"/>
+    </row>
+    <row r="210" spans="15:15">
+      <c r="O210" s="6"/>
+    </row>
+    <row r="211" spans="15:15">
+      <c r="O211" s="6"/>
+    </row>
+    <row r="212" spans="15:15">
+      <c r="O212" s="6"/>
+    </row>
+    <row r="213" spans="15:15">
+      <c r="O213" s="6"/>
+    </row>
+    <row r="214" spans="15:15">
+      <c r="O214" s="6"/>
+    </row>
+    <row r="215" spans="15:15">
+      <c r="O215" s="6"/>
+    </row>
+    <row r="216" spans="15:15">
+      <c r="O216" s="6"/>
+    </row>
+    <row r="217" spans="15:15">
+      <c r="O217" s="6"/>
+    </row>
+    <row r="218" spans="15:15">
+      <c r="O218" s="6"/>
+    </row>
+    <row r="219" spans="15:15">
+      <c r="O219" s="6"/>
+    </row>
+    <row r="220" spans="15:15">
+      <c r="O220" s="6"/>
+    </row>
+    <row r="221" spans="15:15">
+      <c r="O221" s="6"/>
+    </row>
+    <row r="222" spans="15:15">
+      <c r="O222" s="6"/>
+    </row>
+    <row r="223" spans="15:15">
+      <c r="O223" s="6"/>
+    </row>
+    <row r="224" spans="15:15">
+      <c r="O224" s="6"/>
+    </row>
+    <row r="225" spans="15:15">
+      <c r="O225" s="6"/>
+    </row>
+    <row r="226" spans="15:15">
+      <c r="O226" s="6"/>
+    </row>
+    <row r="227" spans="15:15">
+      <c r="O227" s="6"/>
+    </row>
+    <row r="228" spans="15:15">
+      <c r="O228" s="6"/>
+    </row>
+    <row r="229" spans="15:15">
+      <c r="O229" s="6"/>
+    </row>
+    <row r="230" spans="15:15">
+      <c r="O230" s="6"/>
+    </row>
+    <row r="231" spans="15:15">
+      <c r="O231" s="6"/>
+    </row>
+    <row r="232" spans="15:15">
+      <c r="O232" s="6"/>
+    </row>
+    <row r="233" spans="15:15">
+      <c r="O233" s="6"/>
+    </row>
+    <row r="234" spans="15:15">
+      <c r="O234" s="6"/>
+    </row>
+    <row r="235" spans="15:15">
+      <c r="O235" s="6"/>
+    </row>
+    <row r="236" spans="15:15">
+      <c r="O236" s="6"/>
+    </row>
+    <row r="237" spans="15:15">
+      <c r="O237" s="6"/>
+    </row>
+    <row r="238" spans="15:15">
+      <c r="O238" s="6"/>
+    </row>
+    <row r="239" spans="15:15">
+      <c r="O239" s="6"/>
+    </row>
+    <row r="240" spans="15:15">
+      <c r="O240" s="6"/>
+    </row>
+    <row r="241" spans="15:15">
+      <c r="O241" s="6"/>
+    </row>
+    <row r="242" spans="15:15">
+      <c r="O242" s="6"/>
+    </row>
+    <row r="243" spans="15:15">
+      <c r="O243" s="6"/>
+    </row>
+    <row r="244" spans="15:15">
+      <c r="O244" s="6"/>
+    </row>
+    <row r="245" spans="15:15">
+      <c r="O245" s="6"/>
+    </row>
+    <row r="246" spans="15:15">
+      <c r="O246" s="6"/>
+    </row>
+    <row r="247" spans="15:15">
+      <c r="O247" s="6"/>
+    </row>
+    <row r="248" spans="15:15">
+      <c r="O248" s="6"/>
+    </row>
+    <row r="249" spans="15:15">
+      <c r="O249" s="6"/>
+    </row>
+    <row r="250" spans="15:15">
+      <c r="O250" s="6"/>
+    </row>
+    <row r="251" spans="15:15">
+      <c r="O251" s="6"/>
+    </row>
+    <row r="252" spans="15:15">
+      <c r="O252" s="6"/>
+    </row>
+    <row r="253" spans="15:15">
+      <c r="O253" s="6"/>
+    </row>
+    <row r="254" spans="15:15">
+      <c r="O254" s="6"/>
+    </row>
+    <row r="255" spans="15:15">
+      <c r="O255" s="6"/>
+    </row>
+    <row r="256" spans="15:15">
+      <c r="O256" s="6"/>
+    </row>
+    <row r="257" spans="15:15">
+      <c r="O257" s="6"/>
+    </row>
+    <row r="258" spans="15:15">
+      <c r="O258" s="6"/>
+    </row>
+    <row r="259" spans="15:15">
+      <c r="O259" s="6"/>
+    </row>
+    <row r="260" spans="15:15">
+      <c r="O260" s="6"/>
+    </row>
+    <row r="261" spans="15:15">
+      <c r="O261" s="6"/>
+    </row>
+    <row r="262" spans="15:15">
+      <c r="O262" s="6"/>
+    </row>
+    <row r="263" spans="15:15">
+      <c r="O263" s="6"/>
+    </row>
+    <row r="264" spans="15:15">
+      <c r="O264" s="6"/>
+    </row>
+    <row r="265" spans="15:15">
+      <c r="O265" s="6"/>
+    </row>
+    <row r="266" spans="15:15">
+      <c r="O266" s="6"/>
+    </row>
+    <row r="267" spans="15:15">
+      <c r="O267" s="6"/>
+    </row>
+    <row r="268" spans="15:15">
+      <c r="O268" s="6"/>
+    </row>
+    <row r="269" spans="15:15">
+      <c r="O269" s="6"/>
+    </row>
+    <row r="270" spans="15:15">
+      <c r="O270" s="6"/>
+    </row>
+    <row r="271" spans="15:15">
+      <c r="O271" s="6"/>
+    </row>
+    <row r="272" spans="15:15">
+      <c r="O272" s="6"/>
+    </row>
+    <row r="273" spans="15:15">
+      <c r="O273" s="6"/>
+    </row>
+    <row r="274" spans="15:15">
+      <c r="O274" s="6"/>
+    </row>
+    <row r="275" spans="15:15">
+      <c r="O275" s="6"/>
+    </row>
+    <row r="276" spans="15:15">
+      <c r="O276" s="6"/>
+    </row>
+    <row r="277" spans="15:15">
+      <c r="O277" s="6"/>
+    </row>
+    <row r="278" spans="15:15">
+      <c r="O278" s="6"/>
+    </row>
+    <row r="279" spans="15:15">
+      <c r="O279" s="6"/>
+    </row>
+    <row r="280" spans="15:15">
+      <c r="O280" s="6"/>
+    </row>
+    <row r="281" spans="15:15">
+      <c r="O281" s="6"/>
+    </row>
+    <row r="282" spans="15:15">
+      <c r="O282" s="6"/>
+    </row>
+    <row r="283" spans="15:15">
+      <c r="O283" s="6"/>
+    </row>
+    <row r="284" spans="15:15">
+      <c r="O284" s="6"/>
+    </row>
+    <row r="285" spans="15:15">
+      <c r="O285" s="6"/>
+    </row>
+    <row r="286" spans="15:15">
+      <c r="O286" s="6"/>
+    </row>
+    <row r="287" spans="15:15">
+      <c r="O287" s="6"/>
+    </row>
+    <row r="288" spans="15:15">
+      <c r="O288" s="6"/>
+    </row>
+    <row r="289" spans="15:15">
+      <c r="O289" s="6"/>
+    </row>
+    <row r="290" spans="15:15">
+      <c r="O290" s="6"/>
+    </row>
+    <row r="291" spans="15:15">
+      <c r="O291" s="6"/>
+    </row>
+    <row r="292" spans="15:15">
+      <c r="O292" s="6"/>
+    </row>
+    <row r="293" spans="15:15">
+      <c r="O293" s="6"/>
+    </row>
+    <row r="294" spans="15:15">
+      <c r="O294" s="6"/>
+    </row>
+    <row r="295" spans="15:15">
+      <c r="O295" s="6"/>
+    </row>
+    <row r="296" spans="15:15">
+      <c r="O296" s="6"/>
+    </row>
+    <row r="297" spans="15:15">
+      <c r="O297" s="6"/>
+    </row>
+    <row r="298" spans="15:15">
+      <c r="O298" s="6"/>
+    </row>
+    <row r="299" spans="15:15">
+      <c r="O299" s="6"/>
+    </row>
+    <row r="300" spans="15:15">
+      <c r="O300" s="6"/>
+    </row>
+    <row r="301" spans="15:15">
+      <c r="O301" s="6"/>
+    </row>
+    <row r="302" spans="15:15">
+      <c r="O302" s="6"/>
+    </row>
+    <row r="303" spans="15:15">
+      <c r="O303" s="6"/>
+    </row>
+    <row r="304" spans="15:15">
+      <c r="O304" s="6"/>
+    </row>
+    <row r="305" spans="15:15">
+      <c r="O305" s="6"/>
+    </row>
+    <row r="306" spans="15:15">
+      <c r="O306" s="6"/>
+    </row>
+    <row r="307" spans="15:15">
+      <c r="O307" s="6"/>
+    </row>
+    <row r="308" spans="15:15">
+      <c r="O308" s="6"/>
+    </row>
+    <row r="309" spans="15:15">
+      <c r="O309" s="6"/>
+    </row>
+    <row r="310" spans="15:15">
+      <c r="O310" s="6"/>
+    </row>
+    <row r="311" spans="15:15">
+      <c r="O311" s="6"/>
+    </row>
+    <row r="312" spans="15:15">
+      <c r="O312" s="6"/>
+    </row>
+    <row r="313" spans="15:15">
+      <c r="O313" s="6"/>
+    </row>
+    <row r="314" spans="15:15">
+      <c r="O314" s="6"/>
+    </row>
+    <row r="315" spans="15:15">
+      <c r="O315" s="6"/>
+    </row>
+    <row r="316" spans="15:15">
+      <c r="O316" s="6"/>
+    </row>
+    <row r="317" spans="15:15">
+      <c r="O317" s="6"/>
+    </row>
+    <row r="318" spans="15:15">
+      <c r="O318" s="6"/>
+    </row>
+    <row r="319" spans="15:15">
+      <c r="O319" s="6"/>
+    </row>
+    <row r="320" spans="15:15">
+      <c r="O320" s="6"/>
+    </row>
+    <row r="321" spans="15:15">
+      <c r="O321" s="6"/>
+    </row>
+    <row r="322" spans="15:15">
+      <c r="O322" s="6"/>
+    </row>
+    <row r="323" spans="15:15">
+      <c r="O323" s="6"/>
+    </row>
+    <row r="324" spans="15:15">
+      <c r="O324" s="6"/>
+    </row>
+    <row r="325" spans="15:15">
+      <c r="O325" s="6"/>
+    </row>
+    <row r="326" spans="15:15">
+      <c r="O326" s="6"/>
+    </row>
+    <row r="327" spans="15:15">
+      <c r="O327" s="6"/>
+    </row>
+    <row r="328" spans="15:15">
+      <c r="O328" s="6"/>
+    </row>
+    <row r="329" spans="15:15">
+      <c r="O329" s="6"/>
+    </row>
+    <row r="330" spans="15:15">
+      <c r="O330" s="6"/>
+    </row>
+    <row r="331" spans="15:15">
+      <c r="O331" s="6"/>
+    </row>
+    <row r="332" spans="15:15">
+      <c r="O332" s="6"/>
+    </row>
+    <row r="333" spans="15:15">
+      <c r="O333" s="6"/>
+    </row>
+    <row r="334" spans="15:15">
+      <c r="O334" s="6"/>
+    </row>
+    <row r="335" spans="15:15">
+      <c r="O335" s="6"/>
+    </row>
+    <row r="336" spans="15:15">
+      <c r="O336" s="6"/>
+    </row>
+    <row r="337" spans="15:15">
+      <c r="O337" s="6"/>
+    </row>
+    <row r="338" spans="15:15">
+      <c r="O338" s="6"/>
+    </row>
+    <row r="339" spans="15:15">
+      <c r="O339" s="6"/>
+    </row>
+    <row r="340" spans="15:15">
+      <c r="O340" s="6"/>
+    </row>
+    <row r="341" spans="15:15">
+      <c r="O341" s="6"/>
+    </row>
+    <row r="342" spans="15:15">
+      <c r="O342" s="6"/>
+    </row>
+    <row r="343" spans="15:15">
+      <c r="O343" s="6"/>
+    </row>
+    <row r="344" spans="15:15">
+      <c r="O344" s="6"/>
+    </row>
+    <row r="345" spans="15:15">
+      <c r="O345" s="6"/>
+    </row>
+    <row r="346" spans="15:15">
+      <c r="O346" s="6"/>
+    </row>
+    <row r="347" spans="15:15">
+      <c r="O347" s="6"/>
+    </row>
+    <row r="348" spans="15:15">
+      <c r="O348" s="6"/>
+    </row>
+    <row r="349" spans="15:15">
+      <c r="O349" s="6"/>
+    </row>
+    <row r="350" spans="15:15">
+      <c r="O350" s="6"/>
+    </row>
+    <row r="351" spans="15:15">
+      <c r="O351" s="6"/>
+    </row>
+    <row r="352" spans="15:15">
+      <c r="O352" s="6"/>
+    </row>
+    <row r="353" spans="15:15">
+      <c r="O353" s="6"/>
+    </row>
+    <row r="354" spans="15:15">
+      <c r="O354" s="6"/>
+    </row>
+    <row r="355" spans="15:15">
+      <c r="O355" s="6"/>
+    </row>
+    <row r="356" spans="15:15">
+      <c r="O356" s="6"/>
+    </row>
+    <row r="357" spans="15:15">
+      <c r="O357" s="6"/>
+    </row>
+    <row r="358" spans="15:15">
+      <c r="O358" s="6"/>
+    </row>
+    <row r="359" spans="15:15">
+      <c r="O359" s="6"/>
+    </row>
+    <row r="360" spans="15:15">
+      <c r="O360" s="6"/>
+    </row>
+    <row r="361" spans="15:15">
+      <c r="O361" s="6"/>
+    </row>
+    <row r="362" spans="15:15">
+      <c r="O362" s="6"/>
+    </row>
+    <row r="363" spans="15:15">
+      <c r="O363" s="6"/>
+    </row>
+    <row r="364" spans="15:15">
+      <c r="O364" s="6"/>
+    </row>
+    <row r="365" spans="15:15">
+      <c r="O365" s="6"/>
+    </row>
+    <row r="366" spans="15:15">
+      <c r="O366" s="6"/>
+    </row>
+    <row r="367" spans="15:15">
+      <c r="O367" s="6"/>
+    </row>
+    <row r="368" spans="15:15">
+      <c r="O368" s="6"/>
+    </row>
+    <row r="369" spans="15:15">
+      <c r="O369" s="6"/>
+    </row>
+    <row r="370" spans="15:15">
+      <c r="O370" s="6"/>
+    </row>
+    <row r="371" spans="15:15">
+      <c r="O371" s="6"/>
+    </row>
+    <row r="372" spans="15:15">
+      <c r="O372" s="6"/>
+    </row>
+    <row r="373" spans="15:15">
+      <c r="O373" s="6"/>
+    </row>
+    <row r="374" spans="15:15">
+      <c r="O374" s="6"/>
+    </row>
+    <row r="375" spans="15:15">
+      <c r="O375" s="6"/>
+    </row>
+    <row r="376" spans="15:15">
+      <c r="O376" s="6"/>
+    </row>
+    <row r="377" spans="15:15">
+      <c r="O377" s="6"/>
+    </row>
+    <row r="378" spans="15:15">
+      <c r="O378" s="6"/>
+    </row>
+    <row r="379" spans="15:15">
+      <c r="O379" s="6"/>
+    </row>
+    <row r="380" spans="15:15">
+      <c r="O380" s="6"/>
+    </row>
+    <row r="381" spans="15:15">
+      <c r="O381" s="6"/>
+    </row>
+    <row r="382" spans="15:15">
+      <c r="O382" s="6"/>
+    </row>
+    <row r="383" spans="15:15">
+      <c r="O383" s="6"/>
+    </row>
+    <row r="384" spans="15:15">
+      <c r="O384" s="6"/>
+    </row>
+    <row r="385" spans="15:15">
+      <c r="O385" s="6"/>
+    </row>
+    <row r="386" spans="15:15">
+      <c r="O386" s="6"/>
+    </row>
+    <row r="387" spans="15:15">
+      <c r="O387" s="6"/>
+    </row>
+    <row r="388" spans="15:15">
+      <c r="O388" s="6"/>
+    </row>
+    <row r="389" spans="15:15">
+      <c r="O389" s="6"/>
+    </row>
+    <row r="390" spans="15:15">
+      <c r="O390" s="6"/>
+    </row>
+    <row r="391" spans="15:15">
+      <c r="O391" s="6"/>
+    </row>
+    <row r="392" spans="15:15">
+      <c r="O392" s="6"/>
+    </row>
+    <row r="393" spans="15:15">
+      <c r="O393" s="6"/>
+    </row>
+    <row r="394" spans="15:15">
+      <c r="O394" s="6"/>
+    </row>
+    <row r="395" spans="15:15">
+      <c r="O395" s="6"/>
+    </row>
+    <row r="396" spans="15:15">
+      <c r="O396" s="6"/>
+    </row>
+    <row r="397" spans="15:15">
+      <c r="O397" s="6"/>
+    </row>
+    <row r="398" spans="15:15">
+      <c r="O398" s="6"/>
+    </row>
+    <row r="399" spans="15:15">
+      <c r="O399" s="6"/>
+    </row>
+    <row r="400" spans="15:15">
+      <c r="O400" s="6"/>
+    </row>
+    <row r="401" spans="15:15">
+      <c r="O401" s="6"/>
+    </row>
+    <row r="402" spans="15:15">
+      <c r="O402" s="6"/>
+    </row>
+    <row r="403" spans="15:15">
+      <c r="O403" s="6"/>
+    </row>
+    <row r="404" spans="15:15">
+      <c r="O404" s="6"/>
+    </row>
+    <row r="405" spans="15:15">
+      <c r="O405" s="6"/>
+    </row>
+    <row r="406" spans="15:15">
+      <c r="O406" s="6"/>
+    </row>
+    <row r="407" spans="15:15">
+      <c r="O407" s="6"/>
+    </row>
+    <row r="408" spans="15:15">
+      <c r="O408" s="6"/>
+    </row>
+    <row r="409" spans="15:15">
+      <c r="O409" s="6"/>
+    </row>
+    <row r="410" spans="15:15">
+      <c r="O410" s="6"/>
+    </row>
+    <row r="411" spans="15:15">
+      <c r="O411" s="6"/>
+    </row>
+    <row r="412" spans="15:15">
+      <c r="O412" s="6"/>
+    </row>
+    <row r="413" spans="15:15">
+      <c r="O413" s="6"/>
+    </row>
+    <row r="414" spans="15:15">
+      <c r="O414" s="6"/>
+    </row>
+    <row r="415" spans="15:15">
+      <c r="O415" s="6"/>
+    </row>
+    <row r="416" spans="15:15">
+      <c r="O416" s="6"/>
+    </row>
+    <row r="417" spans="15:15">
+      <c r="O417" s="6"/>
+    </row>
+    <row r="418" spans="15:15">
+      <c r="O418" s="6"/>
+    </row>
+    <row r="419" spans="15:15">
+      <c r="O419" s="6"/>
+    </row>
+    <row r="420" spans="15:15">
+      <c r="O420" s="6"/>
+    </row>
+    <row r="421" spans="15:15">
+      <c r="O421" s="6"/>
+    </row>
+    <row r="422" spans="15:15">
+      <c r="O422" s="6"/>
+    </row>
+    <row r="423" spans="15:15">
+      <c r="O423" s="6"/>
+    </row>
+    <row r="424" spans="15:15">
+      <c r="O424" s="6"/>
+    </row>
+    <row r="425" spans="15:15">
+      <c r="O425" s="6"/>
+    </row>
+    <row r="426" spans="15:15">
+      <c r="O426" s="6"/>
+    </row>
+    <row r="427" spans="15:15">
+      <c r="O427" s="6"/>
+    </row>
+    <row r="428" spans="15:15">
+      <c r="O428" s="6"/>
+    </row>
+    <row r="429" spans="15:15">
+      <c r="O429" s="6"/>
+    </row>
+    <row r="430" spans="15:15">
+      <c r="O430" s="6"/>
+    </row>
+    <row r="431" spans="15:15">
+      <c r="O431" s="6"/>
+    </row>
+    <row r="432" spans="15:15">
+      <c r="O432" s="6"/>
+    </row>
+    <row r="433" spans="15:15">
+      <c r="O433" s="6"/>
+    </row>
+    <row r="435" spans="15:15">
+      <c r="O435" s="6"/>
+    </row>
+    <row r="436" spans="15:15">
+      <c r="O436" s="6"/>
+    </row>
+    <row r="437" spans="15:15">
+      <c r="O437" s="6"/>
+    </row>
+    <row r="438" spans="15:15">
+      <c r="O438" s="6"/>
+    </row>
+    <row r="439" spans="15:15">
+      <c r="O439" s="6"/>
+    </row>
+    <row r="440" spans="15:15">
+      <c r="O440" s="6"/>
+    </row>
+    <row r="441" spans="15:15">
+      <c r="O441" s="6"/>
+    </row>
+    <row r="442" spans="15:15">
+      <c r="O442" s="6"/>
+    </row>
+    <row r="443" spans="15:15">
+      <c r="O443" s="6"/>
+    </row>
+    <row r="444" spans="15:15">
+      <c r="O444" s="6"/>
+    </row>
+    <row r="445" spans="15:15">
+      <c r="O445" s="6"/>
+    </row>
+    <row r="446" spans="15:15">
+      <c r="O446" s="6"/>
+    </row>
+    <row r="447" spans="15:15">
+      <c r="O447" s="6"/>
+    </row>
+    <row r="448" spans="15:15">
+      <c r="O448" s="6"/>
+    </row>
+    <row r="449" spans="15:15">
+      <c r="O449" s="6"/>
+    </row>
+    <row r="450" spans="15:15">
+      <c r="O450" s="6"/>
+    </row>
+    <row r="451" spans="15:15">
+      <c r="O451" s="6"/>
+    </row>
+    <row r="452" spans="15:15">
+      <c r="O452" s="6"/>
+    </row>
+    <row r="453" spans="15:15">
+      <c r="O453" s="6"/>
+    </row>
+    <row r="454" spans="15:15">
+      <c r="O454" s="6"/>
+    </row>
+    <row r="455" spans="15:15">
+      <c r="O455" s="6"/>
+    </row>
+    <row r="456" spans="15:15">
+      <c r="O456" s="6"/>
+    </row>
+    <row r="457" spans="15:15">
+      <c r="O457" s="6"/>
+    </row>
+    <row r="458" spans="15:15">
+      <c r="O458" s="6"/>
+    </row>
+    <row r="459" spans="15:15">
+      <c r="O459" s="6"/>
+    </row>
+    <row r="460" spans="15:15">
+      <c r="O460" s="6"/>
+    </row>
+    <row r="461" spans="15:15">
+      <c r="O461" s="6"/>
+    </row>
+    <row r="462" spans="15:15">
+      <c r="O462" s="6"/>
+    </row>
+    <row r="463" spans="15:15">
+      <c r="O463" s="6"/>
+    </row>
+    <row r="464" spans="15:15">
+      <c r="O464" s="6"/>
+    </row>
+    <row r="465" spans="15:15">
+      <c r="O465" s="6"/>
+    </row>
+    <row r="466" spans="15:15">
+      <c r="O466" s="6"/>
+    </row>
+    <row r="467" spans="15:15">
+      <c r="O467" s="6"/>
+    </row>
+    <row r="468" spans="15:15">
+      <c r="O468" s="6"/>
+    </row>
+    <row r="469" spans="15:15">
+      <c r="O469" s="6"/>
+    </row>
+    <row r="470" spans="15:15">
+      <c r="O470" s="6"/>
+    </row>
+    <row r="471" spans="15:15">
+      <c r="O471" s="6"/>
+    </row>
+    <row r="472" spans="15:15">
+      <c r="O472" s="6"/>
+    </row>
+    <row r="473" spans="15:15">
+      <c r="O473" s="6"/>
+    </row>
+    <row r="474" spans="15:15">
+      <c r="O474" s="6"/>
+    </row>
+    <row r="475" spans="15:15">
+      <c r="O475" s="6"/>
+    </row>
+    <row r="476" spans="15:15">
+      <c r="O476" s="6"/>
+    </row>
+    <row r="477" spans="15:15">
+      <c r="O477" s="6"/>
+    </row>
+    <row r="478" spans="15:15">
+      <c r="O478" s="6"/>
+    </row>
+    <row r="479" spans="15:15">
+      <c r="O479" s="6"/>
+    </row>
+    <row r="480" spans="15:15">
+      <c r="O480" s="6"/>
+    </row>
+    <row r="481" spans="15:15">
+      <c r="O481" s="6"/>
+    </row>
+    <row r="482" spans="15:15">
+      <c r="O482" s="6"/>
+    </row>
+    <row r="483" spans="15:15">
+      <c r="O483" s="6"/>
+    </row>
+    <row r="484" spans="15:15">
+      <c r="O484" s="6"/>
+    </row>
+    <row r="485" spans="15:15">
+      <c r="O485" s="6"/>
+    </row>
+    <row r="486" spans="15:15">
+      <c r="O486" s="6"/>
+    </row>
+    <row r="487" spans="15:15">
+      <c r="O487" s="6"/>
+    </row>
+    <row r="488" spans="15:15">
+      <c r="O488" s="6"/>
+    </row>
+    <row r="489" spans="15:15">
+      <c r="O489" s="6"/>
+    </row>
+    <row r="490" spans="15:15">
+      <c r="O490" s="6"/>
+    </row>
+    <row r="491" spans="15:15">
+      <c r="O491" s="6"/>
+    </row>
+    <row r="492" spans="15:15">
+      <c r="O492" s="6"/>
+    </row>
+    <row r="493" spans="15:15">
+      <c r="O493" s="6"/>
+    </row>
+    <row r="494" spans="15:15">
+      <c r="O494" s="6"/>
+    </row>
+    <row r="495" spans="15:15">
+      <c r="O495" s="6"/>
+    </row>
+    <row r="496" spans="15:15">
+      <c r="O496" s="6"/>
+    </row>
+    <row r="497" spans="15:15">
+      <c r="O497" s="6"/>
+    </row>
+    <row r="498" spans="15:15">
+      <c r="O498" s="6"/>
+    </row>
+    <row r="499" spans="15:15">
+      <c r="O499" s="6"/>
+    </row>
+    <row r="500" spans="15:15">
+      <c r="O500" s="6"/>
+    </row>
+    <row r="501" spans="15:15">
+      <c r="O501" s="6"/>
+    </row>
+    <row r="502" spans="15:15">
+      <c r="O502" s="6"/>
+    </row>
+    <row r="503" spans="15:15">
+      <c r="O503" s="6"/>
+    </row>
+    <row r="504" spans="15:15">
+      <c r="O504" s="6"/>
+    </row>
+    <row r="505" spans="15:15">
+      <c r="O505" s="6"/>
+    </row>
+    <row r="506" spans="15:15">
+      <c r="O506" s="6"/>
+    </row>
+    <row r="507" spans="15:15">
+      <c r="O507" s="6"/>
+    </row>
+    <row r="508" spans="15:15">
+      <c r="O508" s="6"/>
+    </row>
+    <row r="509" spans="15:15">
+      <c r="O509" s="6"/>
+    </row>
+    <row r="510" spans="15:15">
+      <c r="O510" s="6"/>
+    </row>
+    <row r="511" spans="15:15">
+      <c r="O511" s="6"/>
+    </row>
+    <row r="512" spans="15:15">
+      <c r="O512" s="6"/>
+    </row>
+    <row r="513" spans="15:15">
+      <c r="O513" s="6"/>
+    </row>
+    <row r="514" spans="15:15">
+      <c r="O514" s="6"/>
+    </row>
+    <row r="515" spans="15:15">
+      <c r="O515" s="6"/>
+    </row>
+    <row r="516" spans="15:15">
+      <c r="O516" s="6"/>
+    </row>
+    <row r="517" spans="15:15">
+      <c r="O517" s="6"/>
+    </row>
+    <row r="518" spans="15:15">
+      <c r="O518" s="6"/>
+    </row>
+    <row r="519" spans="15:15">
+      <c r="O519" s="6"/>
+    </row>
+    <row r="520" spans="15:15">
+      <c r="O520" s="6"/>
+    </row>
+    <row r="521" spans="15:15">
+      <c r="O521" s="6"/>
+    </row>
+    <row r="522" spans="15:15">
+      <c r="O522" s="6"/>
+    </row>
+    <row r="523" spans="15:15">
+      <c r="O523" s="6"/>
+    </row>
+    <row r="524" spans="15:15">
+      <c r="O524" s="6"/>
+    </row>
+    <row r="525" spans="15:15">
+      <c r="O525" s="6"/>
+    </row>
+    <row r="526" spans="15:15">
+      <c r="O526" s="6"/>
+    </row>
+    <row r="527" spans="15:15">
+      <c r="O527" s="6"/>
+    </row>
+    <row r="528" spans="15:15">
+      <c r="O528" s="6"/>
+    </row>
+    <row r="529" spans="15:15">
+      <c r="O529" s="6"/>
+    </row>
+    <row r="530" spans="15:15">
+      <c r="O530" s="6"/>
+    </row>
+    <row r="531" spans="15:15">
+      <c r="O531" s="6"/>
+    </row>
+    <row r="532" spans="15:15">
+      <c r="O532" s="6"/>
+    </row>
+    <row r="533" spans="15:15">
+      <c r="O533" s="6"/>
+    </row>
+    <row r="534" spans="15:15">
+      <c r="O534" s="6"/>
+    </row>
+    <row r="535" spans="15:15">
+      <c r="O535" s="6"/>
+    </row>
+    <row r="536" spans="15:15">
+      <c r="O536" s="6"/>
+    </row>
+    <row r="537" spans="15:15">
+      <c r="O537" s="6"/>
+    </row>
+    <row r="538" spans="15:15">
+      <c r="O538" s="6"/>
+    </row>
+    <row r="539" spans="15:15">
+      <c r="O539" s="6"/>
+    </row>
+    <row r="540" spans="15:15">
+      <c r="O540" s="6"/>
+    </row>
+    <row r="541" spans="15:15">
+      <c r="O541" s="6"/>
+    </row>
+    <row r="542" spans="15:15">
+      <c r="O542" s="6"/>
+    </row>
+    <row r="543" spans="15:15">
+      <c r="O543" s="6"/>
+    </row>
+    <row r="544" spans="15:15">
+      <c r="O544" s="6"/>
+    </row>
+    <row r="545" spans="15:15">
+      <c r="O545" s="6"/>
+    </row>
+    <row r="546" spans="15:15">
+      <c r="O546" s="6"/>
+    </row>
+    <row r="547" spans="15:15">
+      <c r="O547" s="6"/>
+    </row>
+    <row r="548" spans="15:15">
+      <c r="O548" s="6"/>
+    </row>
+    <row r="549" spans="15:15">
+      <c r="O549" s="6"/>
+    </row>
+    <row r="550" spans="15:15">
+      <c r="O550" s="6"/>
+    </row>
+    <row r="551" spans="15:15">
+      <c r="O551" s="6"/>
+    </row>
+    <row r="552" spans="15:15">
+      <c r="O552" s="6"/>
+    </row>
+    <row r="553" spans="15:15">
+      <c r="O553" s="6"/>
+    </row>
+    <row r="554" spans="15:15">
+      <c r="O554" s="6"/>
+    </row>
+    <row r="555" spans="15:15">
+      <c r="O555" s="6"/>
+    </row>
+    <row r="556" spans="15:15">
+      <c r="O556" s="6"/>
+    </row>
+    <row r="557" spans="15:15">
+      <c r="O557" s="6"/>
+    </row>
+    <row r="558" spans="15:15">
+      <c r="O558" s="6"/>
+    </row>
+    <row r="559" spans="15:15">
+      <c r="O559" s="6"/>
+    </row>
+    <row r="560" spans="15:15">
+      <c r="O560" s="6"/>
+    </row>
+    <row r="561" spans="15:15">
+      <c r="O561" s="6"/>
+    </row>
+    <row r="562" spans="15:15">
+      <c r="O562" s="6"/>
+    </row>
+    <row r="563" spans="15:15">
+      <c r="O563" s="6"/>
+    </row>
+    <row r="564" spans="15:15">
+      <c r="O564" s="6"/>
+    </row>
+    <row r="565" spans="15:15">
+      <c r="O565" s="6"/>
+    </row>
+    <row r="566" spans="15:15">
+      <c r="O566" s="6"/>
+    </row>
+    <row r="567" spans="15:15">
+      <c r="O567" s="6"/>
+    </row>
+    <row r="568" spans="15:15">
+      <c r="O568" s="6"/>
+    </row>
+    <row r="569" spans="15:15">
+      <c r="O569" s="6"/>
+    </row>
+    <row r="570" spans="15:15">
+      <c r="O570" s="6"/>
+    </row>
+    <row r="571" spans="15:15">
+      <c r="O571" s="6"/>
+    </row>
+    <row r="572" spans="15:15">
+      <c r="O572" s="6"/>
+    </row>
+    <row r="573" spans="15:15">
+      <c r="O573" s="6"/>
+    </row>
+    <row r="574" spans="15:15">
+      <c r="O574" s="6"/>
+    </row>
+    <row r="575" spans="15:15">
+      <c r="O575" s="6"/>
+    </row>
+    <row r="576" spans="15:15">
+      <c r="O576" s="6"/>
+    </row>
+    <row r="577" spans="15:15">
+      <c r="O577" s="6"/>
+    </row>
+    <row r="578" spans="15:15">
+      <c r="O578" s="6"/>
+    </row>
+    <row r="579" spans="15:15">
+      <c r="O579" s="6"/>
+    </row>
+    <row r="580" spans="15:15">
+      <c r="O580" s="6"/>
+    </row>
+    <row r="581" spans="15:15">
+      <c r="O581" s="6"/>
+    </row>
+    <row r="582" spans="15:15">
+      <c r="O582" s="6"/>
+    </row>
+    <row r="583" spans="15:15">
+      <c r="O583" s="6"/>
+    </row>
+    <row r="584" spans="15:15">
+      <c r="O584" s="6"/>
+    </row>
+    <row r="585" spans="15:15">
+      <c r="O585" s="6"/>
+    </row>
+    <row r="586" spans="15:15">
+      <c r="O586" s="6"/>
+    </row>
+    <row r="587" spans="15:15">
+      <c r="O587" s="6"/>
+    </row>
+    <row r="588" spans="15:15">
+      <c r="O588" s="6"/>
+    </row>
+    <row r="589" spans="15:15">
+      <c r="O589" s="6"/>
+    </row>
+    <row r="590" spans="15:15">
+      <c r="O590" s="6"/>
+    </row>
+    <row r="591" spans="15:15">
+      <c r="O591" s="6"/>
+    </row>
+    <row r="592" spans="15:15">
+      <c r="O592" s="6"/>
+    </row>
+    <row r="593" spans="15:15">
+      <c r="O593" s="6"/>
+    </row>
+    <row r="594" spans="15:15">
+      <c r="O594" s="6"/>
+    </row>
+    <row r="595" spans="15:15">
+      <c r="O595" s="6"/>
+    </row>
+    <row r="596" spans="15:15">
+      <c r="O596" s="6"/>
+    </row>
+    <row r="597" spans="15:15">
+      <c r="O597" s="6"/>
+    </row>
+    <row r="598" spans="15:15">
+      <c r="O598" s="6"/>
+    </row>
+    <row r="599" spans="15:15">
+      <c r="O599" s="6"/>
+    </row>
+    <row r="600" spans="15:15">
+      <c r="O600" s="6"/>
+    </row>
+    <row r="601" spans="15:15">
+      <c r="O601" s="6"/>
+    </row>
+    <row r="602" spans="15:15">
+      <c r="O602" s="6"/>
+    </row>
+    <row r="603" spans="15:15">
+      <c r="O603" s="6"/>
+    </row>
+    <row r="604" spans="15:15">
+      <c r="O604" s="6"/>
+    </row>
+    <row r="605" spans="15:15">
+      <c r="O605" s="6"/>
+    </row>
+    <row r="606" spans="15:15">
+      <c r="O606" s="6"/>
+    </row>
+    <row r="607" spans="15:15">
+      <c r="O607" s="6"/>
+    </row>
+    <row r="608" spans="15:15">
+      <c r="O608" s="6"/>
+    </row>
+    <row r="609" spans="15:15">
+      <c r="O609" s="6"/>
+    </row>
+    <row r="610" spans="15:15">
+      <c r="O610" s="6"/>
+    </row>
+    <row r="611" spans="15:15">
+      <c r="O611" s="6"/>
+    </row>
+    <row r="612" spans="15:15">
+      <c r="O612" s="6"/>
+    </row>
+    <row r="613" spans="15:15">
+      <c r="O613" s="6"/>
+    </row>
+    <row r="614" spans="15:15">
+      <c r="O614" s="6"/>
+    </row>
+    <row r="615" spans="15:15">
+      <c r="O615" s="6"/>
+    </row>
+    <row r="616" spans="15:15">
+      <c r="O616" s="6"/>
+    </row>
+    <row r="617" spans="15:15">
+      <c r="O617" s="6"/>
+    </row>
+    <row r="618" spans="15:15">
+      <c r="O618" s="6"/>
+    </row>
+    <row r="619" spans="15:15">
+      <c r="O619" s="6"/>
+    </row>
+    <row r="620" spans="15:15">
+      <c r="O620" s="6"/>
+    </row>
+    <row r="621" spans="15:15">
+      <c r="O621" s="6"/>
+    </row>
+    <row r="622" spans="15:15">
+      <c r="O622" s="6"/>
+    </row>
+    <row r="623" spans="15:15">
+      <c r="O623" s="6"/>
+    </row>
+    <row r="624" spans="15:15">
+      <c r="O624" s="6"/>
+    </row>
+    <row r="625" spans="15:15">
+      <c r="O625" s="6"/>
+    </row>
+    <row r="626" spans="15:15">
+      <c r="O626" s="6"/>
+    </row>
+    <row r="627" spans="15:15">
+      <c r="O627" s="6"/>
+    </row>
+    <row r="628" spans="15:15">
+      <c r="O628" s="6"/>
+    </row>
+    <row r="629" spans="15:15">
+      <c r="O629" s="6"/>
+    </row>
+    <row r="630" spans="15:15">
+      <c r="O630" s="6"/>
+    </row>
+    <row r="631" spans="15:15">
+      <c r="O631" s="6"/>
+    </row>
+    <row r="632" spans="15:15">
+      <c r="O632" s="6"/>
+    </row>
+    <row r="633" spans="15:15">
+      <c r="O633" s="6"/>
+    </row>
+    <row r="634" spans="15:15">
+      <c r="O634" s="6"/>
+    </row>
+    <row r="635" spans="15:15">
+      <c r="O635" s="6"/>
+    </row>
+    <row r="636" spans="15:15">
+      <c r="O636" s="6"/>
+    </row>
+    <row r="637" spans="15:15">
+      <c r="O637" s="6"/>
+    </row>
+    <row r="638" spans="15:15">
+      <c r="O638" s="6"/>
+    </row>
+    <row r="639" spans="15:15">
+      <c r="O639" s="6"/>
+    </row>
+    <row r="640" spans="15:15">
+      <c r="O640" s="6"/>
+    </row>
+    <row r="641" spans="15:15">
+      <c r="O641" s="6"/>
+    </row>
+    <row r="642" spans="15:15">
+      <c r="O642" s="6"/>
+    </row>
+    <row r="643" spans="15:15">
+      <c r="O643" s="6"/>
+    </row>
+    <row r="644" spans="15:15">
+      <c r="O644" s="6"/>
+    </row>
+    <row r="645" spans="15:15">
+      <c r="O645" s="6"/>
+    </row>
+    <row r="646" spans="15:15">
+      <c r="O646" s="6"/>
+    </row>
+    <row r="647" spans="15:15">
+      <c r="O647" s="6"/>
+    </row>
+    <row r="648" spans="15:15">
+      <c r="O648" s="6"/>
+    </row>
+    <row r="649" spans="15:15">
+      <c r="O649" s="6"/>
+    </row>
+    <row r="650" spans="15:15">
+      <c r="O650" s="6"/>
+    </row>
+    <row r="651" spans="15:15">
+      <c r="O651" s="6"/>
+    </row>
+    <row r="652" spans="15:15">
+      <c r="O652" s="6"/>
+    </row>
+    <row r="653" spans="15:15">
+      <c r="O653" s="6"/>
+    </row>
+    <row r="654" spans="15:15">
+      <c r="O654" s="6"/>
+    </row>
+    <row r="655" spans="15:15">
+      <c r="O655" s="6"/>
+    </row>
+    <row r="656" spans="15:15">
+      <c r="O656" s="6"/>
+    </row>
+    <row r="657" spans="15:15">
+      <c r="O657" s="6"/>
+    </row>
+    <row r="658" spans="15:15">
+      <c r="O658" s="6"/>
+    </row>
+    <row r="659" spans="15:15">
+      <c r="O659" s="6"/>
+    </row>
+    <row r="660" spans="15:15">
+      <c r="O660" s="6"/>
+    </row>
+    <row r="661" spans="15:15">
+      <c r="O661" s="6"/>
+    </row>
+    <row r="662" spans="15:15">
+      <c r="O662" s="6"/>
+    </row>
+    <row r="663" spans="15:15">
+      <c r="O663" s="6"/>
+    </row>
+    <row r="664" spans="15:15">
+      <c r="O664" s="6"/>
+    </row>
+    <row r="665" spans="15:15">
+      <c r="O665" s="6"/>
+    </row>
+    <row r="666" spans="15:15">
+      <c r="O666" s="6"/>
+    </row>
+    <row r="667" spans="15:15">
+      <c r="O667" s="6"/>
+    </row>
+    <row r="668" spans="15:15">
+      <c r="O668" s="6"/>
+    </row>
+    <row r="669" spans="15:15">
+      <c r="O669" s="6"/>
+    </row>
+    <row r="670" spans="15:15">
+      <c r="O670" s="6"/>
+    </row>
+    <row r="671" spans="15:15">
+      <c r="O671" s="6"/>
+    </row>
+    <row r="672" spans="15:15">
+      <c r="O672" s="6"/>
+    </row>
+    <row r="673" spans="15:15">
+      <c r="O673" s="6"/>
+    </row>
+    <row r="674" spans="15:15">
+      <c r="O674" s="6"/>
+    </row>
+    <row r="675" spans="15:15">
+      <c r="O675" s="6"/>
+    </row>
+    <row r="676" spans="15:15">
+      <c r="O676" s="6"/>
+    </row>
+    <row r="677" spans="15:15">
+      <c r="O677" s="6"/>
+    </row>
+    <row r="678" spans="15:15">
+      <c r="O678" s="6"/>
+    </row>
+    <row r="679" spans="15:15">
+      <c r="O679" s="6"/>
+    </row>
+    <row r="680" spans="15:15">
+      <c r="O680" s="6"/>
+    </row>
+    <row r="681" spans="15:15">
+      <c r="O681" s="6"/>
+    </row>
+    <row r="682" spans="15:15">
+      <c r="O682" s="6"/>
+    </row>
+    <row r="683" spans="15:15">
+      <c r="O683" s="6"/>
+    </row>
+    <row r="684" spans="15:15">
+      <c r="O684" s="6"/>
+    </row>
+    <row r="685" spans="15:15">
+      <c r="O685" s="6"/>
+    </row>
+    <row r="686" spans="15:15">
+      <c r="O686" s="6"/>
+    </row>
+    <row r="687" spans="15:15">
+      <c r="O687" s="6"/>
+    </row>
+    <row r="688" spans="15:15">
+      <c r="O688" s="6"/>
+    </row>
+    <row r="689" spans="15:15">
+      <c r="O689" s="6"/>
+    </row>
+    <row r="690" spans="15:15">
+      <c r="O690" s="6"/>
+    </row>
+    <row r="691" spans="15:15">
+      <c r="O691" s="6"/>
+    </row>
+    <row r="692" spans="15:15">
+      <c r="O692" s="6"/>
+    </row>
+    <row r="693" spans="15:15">
+      <c r="O693" s="6"/>
+    </row>
+    <row r="694" spans="15:15">
+      <c r="O694" s="6"/>
+    </row>
+    <row r="695" spans="15:15">
+      <c r="O695" s="6"/>
+    </row>
+    <row r="696" spans="15:15">
+      <c r="O696" s="6"/>
+    </row>
+    <row r="697" spans="15:15">
+      <c r="O697" s="6"/>
+    </row>
+    <row r="698" spans="15:15">
+      <c r="O698" s="6"/>
+    </row>
+    <row r="699" spans="15:15">
+      <c r="O699" s="6"/>
+    </row>
+    <row r="700" spans="15:15">
+      <c r="O700" s="6"/>
+    </row>
+    <row r="701" spans="15:15">
+      <c r="O701" s="6"/>
+    </row>
+    <row r="702" spans="15:15">
+      <c r="O702" s="6"/>
+    </row>
+    <row r="703" spans="15:15">
+      <c r="O703" s="6"/>
+    </row>
+    <row r="704" spans="15:15">
+      <c r="O704" s="6"/>
+    </row>
+    <row r="705" spans="15:15">
+      <c r="O705" s="6"/>
+    </row>
+    <row r="706" spans="15:15">
+      <c r="O706" s="6"/>
+    </row>
+    <row r="707" spans="15:15">
+      <c r="O707" s="6"/>
+    </row>
+    <row r="708" spans="15:15">
+      <c r="O708" s="6"/>
+    </row>
+    <row r="709" spans="15:15">
+      <c r="O709" s="6"/>
+    </row>
+    <row r="710" spans="15:15">
+      <c r="O710" s="6"/>
+    </row>
+    <row r="711" spans="15:15">
+      <c r="O711" s="6"/>
+    </row>
+    <row r="712" spans="15:15">
+      <c r="O712" s="6"/>
+    </row>
+    <row r="713" spans="15:15">
+      <c r="O713" s="6"/>
+    </row>
+    <row r="714" spans="15:15">
+      <c r="O714" s="6"/>
+    </row>
+    <row r="715" spans="15:15">
+      <c r="O715" s="6"/>
+    </row>
+    <row r="716" spans="15:15">
+      <c r="O716" s="6"/>
+    </row>
+    <row r="717" spans="15:15">
+      <c r="O717" s="6"/>
+    </row>
+    <row r="718" spans="15:15">
+      <c r="O718" s="6"/>
+    </row>
+    <row r="719" spans="15:15">
+      <c r="O719" s="6"/>
+    </row>
+    <row r="720" spans="15:15">
+      <c r="O720" s="6"/>
+    </row>
+    <row r="721" spans="15:15">
+      <c r="O721" s="6"/>
+    </row>
+    <row r="722" spans="15:15">
+      <c r="O722" s="6"/>
+    </row>
+    <row r="723" spans="15:15">
+      <c r="O723" s="6"/>
+    </row>
+    <row r="724" spans="15:15">
+      <c r="O724" s="6"/>
+    </row>
+    <row r="725" spans="15:15">
+      <c r="O725" s="6"/>
+    </row>
+    <row r="726" spans="15:15">
+      <c r="O726" s="6"/>
+    </row>
+    <row r="727" spans="15:15">
+      <c r="O727" s="6"/>
+    </row>
+    <row r="728" spans="15:15">
+      <c r="O728" s="6"/>
+    </row>
+    <row r="729" spans="15:15">
+      <c r="O729" s="6"/>
+    </row>
+    <row r="730" spans="15:15">
+      <c r="O730" s="6"/>
+    </row>
+    <row r="731" spans="15:15">
+      <c r="O731" s="6"/>
+    </row>
+    <row r="732" spans="15:15">
+      <c r="O732" s="6"/>
+    </row>
+    <row r="733" spans="15:15">
+      <c r="O733" s="6"/>
+    </row>
+    <row r="734" spans="15:15">
+      <c r="O734" s="6"/>
+    </row>
+    <row r="735" spans="15:15">
+      <c r="O735" s="6"/>
+    </row>
+    <row r="736" spans="15:15">
+      <c r="O736" s="6"/>
+    </row>
+    <row r="737" spans="15:15">
+      <c r="O737" s="6"/>
+    </row>
+    <row r="738" spans="15:15">
+      <c r="O738" s="6"/>
+    </row>
+    <row r="739" spans="15:15">
+      <c r="O739" s="6"/>
+    </row>
+    <row r="740" spans="15:15">
+      <c r="O740" s="6"/>
+    </row>
+    <row r="741" spans="15:15">
+      <c r="O741" s="6"/>
+    </row>
+    <row r="742" spans="15:15">
+      <c r="O742" s="6"/>
+    </row>
+    <row r="743" spans="15:15">
+      <c r="O743" s="6"/>
+    </row>
+    <row r="744" spans="15:15">
+      <c r="O744" s="6"/>
+    </row>
+    <row r="745" spans="15:15">
+      <c r="O745" s="6"/>
+    </row>
+    <row r="746" spans="15:15">
+      <c r="O746" s="6"/>
+    </row>
+    <row r="747" spans="15:15">
+      <c r="O747" s="6"/>
+    </row>
+    <row r="748" spans="15:15">
+      <c r="O748" s="6"/>
+    </row>
+    <row r="749" spans="15:15">
+      <c r="O749" s="6"/>
+    </row>
+    <row r="750" spans="15:15">
+      <c r="O750" s="6"/>
+    </row>
+    <row r="751" spans="15:15">
+      <c r="O751" s="6"/>
+    </row>
+    <row r="752" spans="15:15">
+      <c r="O752" s="6"/>
+    </row>
+    <row r="753" spans="15:15">
+      <c r="O753" s="6"/>
+    </row>
+    <row r="754" spans="15:15">
+      <c r="O754" s="6"/>
+    </row>
+    <row r="755" spans="15:15">
+      <c r="O755" s="6"/>
+    </row>
+    <row r="756" spans="15:15">
+      <c r="O756" s="6"/>
+    </row>
+    <row r="757" spans="15:15">
+      <c r="O757" s="6"/>
+    </row>
+    <row r="758" spans="15:15">
+      <c r="O758" s="6"/>
+    </row>
+    <row r="759" spans="15:15">
+      <c r="O759" s="6"/>
+    </row>
+    <row r="760" spans="15:15">
+      <c r="O760" s="6"/>
+    </row>
+    <row r="761" spans="15:15">
+      <c r="O761" s="6"/>
+    </row>
+    <row r="762" spans="15:15">
+      <c r="O762" s="6"/>
+    </row>
+    <row r="763" spans="15:15">
+      <c r="O763" s="6"/>
+    </row>
+    <row r="764" spans="15:15">
+      <c r="O764" s="6"/>
+    </row>
+    <row r="765" spans="15:15">
+      <c r="O765" s="6"/>
+    </row>
+    <row r="766" spans="15:15">
+      <c r="O766" s="6"/>
+    </row>
+    <row r="767" spans="15:15">
+      <c r="O767" s="6"/>
+    </row>
+    <row r="768" spans="15:15">
+      <c r="O768" s="6"/>
+    </row>
+    <row r="769" spans="15:15">
+      <c r="O769" s="6"/>
+    </row>
+    <row r="770" spans="15:15">
+      <c r="O770" s="6"/>
+    </row>
+    <row r="771" spans="15:15">
+      <c r="O771" s="6"/>
+    </row>
+    <row r="772" spans="15:15">
+      <c r="O772" s="6"/>
+    </row>
+    <row r="773" spans="15:15">
+      <c r="O773" s="6"/>
+    </row>
+    <row r="774" spans="15:15">
+      <c r="O774" s="6"/>
+    </row>
+    <row r="775" spans="15:15">
+      <c r="O775" s="6"/>
+    </row>
+    <row r="776" spans="15:15">
+      <c r="O776" s="6"/>
+    </row>
+    <row r="777" spans="15:15">
+      <c r="O777" s="6"/>
+    </row>
+    <row r="778" spans="15:15">
+      <c r="O778" s="6"/>
+    </row>
+    <row r="779" spans="15:15">
+      <c r="O779" s="6"/>
+    </row>
+    <row r="780" spans="15:15">
+      <c r="O780" s="6"/>
+    </row>
+    <row r="781" spans="15:15">
+      <c r="O781" s="6"/>
+    </row>
+    <row r="782" spans="15:15">
+      <c r="O782" s="6"/>
+    </row>
+    <row r="783" spans="15:15">
+      <c r="O783" s="6"/>
+    </row>
+    <row r="784" spans="15:15">
+      <c r="O784" s="6"/>
+    </row>
+    <row r="785" spans="15:15">
+      <c r="O785" s="6"/>
+    </row>
+    <row r="786" spans="15:15">
+      <c r="O786" s="6"/>
+    </row>
+    <row r="787" spans="15:15">
+      <c r="O787" s="6"/>
+    </row>
+    <row r="788" spans="15:15">
+      <c r="O788" s="6"/>
+    </row>
+    <row r="789" spans="15:15">
+      <c r="O789" s="6"/>
+    </row>
+    <row r="790" spans="15:15">
+      <c r="O790" s="6"/>
+    </row>
+    <row r="791" spans="15:15">
+      <c r="O791" s="6"/>
+    </row>
+    <row r="792" spans="15:15">
+      <c r="O792" s="6"/>
+    </row>
+    <row r="793" spans="15:15">
+      <c r="O793" s="6"/>
+    </row>
+    <row r="794" spans="15:15">
+      <c r="O794" s="6"/>
+    </row>
+    <row r="795" spans="15:15">
+      <c r="O795" s="6"/>
+    </row>
+    <row r="796" spans="15:15">
+      <c r="O796" s="6"/>
+    </row>
+    <row r="797" spans="15:15">
+      <c r="O797" s="6"/>
+    </row>
+    <row r="798" spans="15:15">
+      <c r="O798" s="6"/>
+    </row>
+    <row r="799" spans="15:15">
+      <c r="O799" s="6"/>
+    </row>
+    <row r="800" spans="15:15">
+      <c r="O800" s="6"/>
+    </row>
+    <row r="801" spans="15:15">
+      <c r="O801" s="6"/>
+    </row>
+    <row r="802" spans="15:15">
+      <c r="O802" s="6"/>
+    </row>
+    <row r="803" spans="15:15">
+      <c r="O803" s="6"/>
+    </row>
+    <row r="804" spans="15:15">
+      <c r="O804" s="6"/>
+    </row>
+    <row r="805" spans="15:15">
+      <c r="O805" s="6"/>
+    </row>
+    <row r="806" spans="15:15">
+      <c r="O806" s="6"/>
+    </row>
+    <row r="807" spans="15:15">
+      <c r="O807" s="6"/>
+    </row>
+    <row r="808" spans="15:15">
+      <c r="O808" s="6"/>
+    </row>
+    <row r="809" spans="15:15">
+      <c r="O809" s="6"/>
+    </row>
+    <row r="810" spans="15:15">
+      <c r="O810" s="6"/>
+    </row>
+    <row r="811" spans="15:15">
+      <c r="O811" s="6"/>
+    </row>
+    <row r="812" spans="15:15">
+      <c r="O812" s="6"/>
+    </row>
+    <row r="813" spans="15:15">
+      <c r="O813" s="6"/>
+    </row>
+    <row r="814" spans="15:15">
+      <c r="O814" s="6"/>
+    </row>
+    <row r="815" spans="15:15">
+      <c r="O815" s="6"/>
+    </row>
+    <row r="816" spans="15:15">
+      <c r="O816" s="6"/>
+    </row>
     <row r="817" spans="1:15">
       <c r="O817" s="6"/>
     </row>
@@ -2758,23 +4248,23 @@
       <c r="O826" s="6"/>
     </row>
     <row r="827" spans="1:15">
-      <c r="A827" s="9"/>
-      <c r="B827" s="9"/>
-      <c r="D827" s="9"/>
-      <c r="E827" s="9"/>
-      <c r="F827" s="9"/>
-      <c r="G827" s="9"/>
-      <c r="H827" s="9"/>
-      <c r="I827" s="9"/>
-      <c r="J827" s="9"/>
-      <c r="K827" s="9"/>
-      <c r="L827" s="9"/>
-      <c r="M827" s="9"/>
-      <c r="N827" s="9"/>
-      <c r="O827" s="10"/>
+      <c r="O827" s="6"/>
     </row>
     <row r="828" spans="1:15">
-      <c r="O828" s="6"/>
+      <c r="A828" s="9"/>
+      <c r="B828" s="9"/>
+      <c r="D828" s="9"/>
+      <c r="E828" s="9"/>
+      <c r="F828" s="9"/>
+      <c r="G828" s="9"/>
+      <c r="H828" s="9"/>
+      <c r="I828" s="9"/>
+      <c r="J828" s="9"/>
+      <c r="K828" s="9"/>
+      <c r="L828" s="9"/>
+      <c r="M828" s="9"/>
+      <c r="N828" s="9"/>
+      <c r="O828" s="10"/>
     </row>
     <row r="829" spans="1:15">
       <c r="O829" s="6"/>
@@ -2788,508 +4278,1511 @@
     <row r="832" spans="1:15">
       <c r="O832" s="6"/>
     </row>
-    <row r="833" s="6" customFormat="1"/>
-    <row r="834" s="6" customFormat="1"/>
-    <row r="835" s="6" customFormat="1"/>
-    <row r="836" s="6" customFormat="1"/>
-    <row r="837" s="6" customFormat="1"/>
-    <row r="838" s="6" customFormat="1"/>
-    <row r="839" s="6" customFormat="1"/>
-    <row r="840" s="6" customFormat="1"/>
-    <row r="841" s="6" customFormat="1"/>
-    <row r="842" s="6" customFormat="1"/>
-    <row r="843" s="6" customFormat="1"/>
-    <row r="844" s="6" customFormat="1"/>
-    <row r="845" s="6" customFormat="1"/>
-    <row r="846" s="6" customFormat="1"/>
-    <row r="847" s="6" customFormat="1"/>
-    <row r="848" s="6" customFormat="1"/>
-    <row r="849" s="6" customFormat="1"/>
-    <row r="850" s="6" customFormat="1"/>
-    <row r="851" s="6" customFormat="1"/>
-    <row r="852" s="6" customFormat="1"/>
-    <row r="853" s="6" customFormat="1"/>
-    <row r="854" s="6" customFormat="1"/>
-    <row r="855" s="6" customFormat="1"/>
-    <row r="856" s="6" customFormat="1"/>
-    <row r="857" s="6" customFormat="1"/>
-    <row r="858" s="6" customFormat="1"/>
-    <row r="859" s="6" customFormat="1"/>
-    <row r="860" s="6" customFormat="1"/>
-    <row r="861" s="6" customFormat="1"/>
-    <row r="862" s="6" customFormat="1"/>
-    <row r="863" s="6" customFormat="1"/>
-    <row r="864" s="6" customFormat="1"/>
-    <row r="865" s="6" customFormat="1"/>
-    <row r="866" s="6" customFormat="1"/>
-    <row r="867" s="6" customFormat="1"/>
-    <row r="868" s="6" customFormat="1"/>
-    <row r="869" s="6" customFormat="1"/>
-    <row r="870" s="6" customFormat="1"/>
-    <row r="871" s="6" customFormat="1"/>
-    <row r="872" s="6" customFormat="1"/>
-    <row r="873" s="6" customFormat="1"/>
-    <row r="874" s="6" customFormat="1"/>
-    <row r="875" s="6" customFormat="1"/>
-    <row r="876" s="6" customFormat="1"/>
-    <row r="877" s="6" customFormat="1"/>
-    <row r="878" s="6" customFormat="1"/>
-    <row r="879" s="6" customFormat="1"/>
-    <row r="880" s="6" customFormat="1"/>
-    <row r="881" s="6" customFormat="1"/>
-    <row r="882" s="6" customFormat="1"/>
-    <row r="883" s="6" customFormat="1"/>
-    <row r="884" s="6" customFormat="1"/>
-    <row r="885" s="6" customFormat="1"/>
-    <row r="886" s="6" customFormat="1"/>
-    <row r="887" s="6" customFormat="1"/>
-    <row r="888" s="6" customFormat="1"/>
-    <row r="889" s="6" customFormat="1"/>
-    <row r="890" s="6" customFormat="1"/>
-    <row r="891" s="6" customFormat="1"/>
-    <row r="892" s="6" customFormat="1"/>
-    <row r="893" s="6" customFormat="1"/>
-    <row r="894" s="6" customFormat="1"/>
-    <row r="895" s="6" customFormat="1"/>
-    <row r="896" s="6" customFormat="1"/>
-    <row r="897" s="6" customFormat="1"/>
-    <row r="898" s="6" customFormat="1"/>
-    <row r="899" s="6" customFormat="1"/>
-    <row r="900" s="6" customFormat="1"/>
-    <row r="901" s="6" customFormat="1"/>
-    <row r="902" s="6" customFormat="1"/>
-    <row r="903" s="6" customFormat="1"/>
-    <row r="904" s="6" customFormat="1"/>
-    <row r="905" s="6" customFormat="1"/>
-    <row r="906" s="6" customFormat="1"/>
-    <row r="907" s="6" customFormat="1"/>
-    <row r="908" s="6" customFormat="1"/>
-    <row r="909" s="6" customFormat="1"/>
-    <row r="910" s="6" customFormat="1"/>
-    <row r="911" s="6" customFormat="1"/>
-    <row r="912" s="6" customFormat="1"/>
-    <row r="913" s="6" customFormat="1"/>
-    <row r="914" s="6" customFormat="1"/>
-    <row r="915" s="6" customFormat="1"/>
-    <row r="916" s="6" customFormat="1"/>
-    <row r="917" s="6" customFormat="1"/>
-    <row r="918" s="6" customFormat="1"/>
-    <row r="919" s="6" customFormat="1"/>
-    <row r="920" s="6" customFormat="1"/>
-    <row r="921" s="6" customFormat="1"/>
-    <row r="922" s="6" customFormat="1"/>
-    <row r="923" s="6" customFormat="1"/>
-    <row r="924" s="6" customFormat="1"/>
-    <row r="925" s="6" customFormat="1"/>
-    <row r="926" s="6" customFormat="1"/>
-    <row r="927" s="6" customFormat="1"/>
-    <row r="928" s="6" customFormat="1"/>
-    <row r="929" s="6" customFormat="1"/>
-    <row r="930" s="6" customFormat="1"/>
-    <row r="931" s="6" customFormat="1"/>
-    <row r="932" s="6" customFormat="1"/>
-    <row r="933" s="6" customFormat="1"/>
-    <row r="934" s="6" customFormat="1"/>
-    <row r="935" s="6" customFormat="1"/>
-    <row r="936" s="6" customFormat="1"/>
-    <row r="937" s="6" customFormat="1"/>
-    <row r="938" s="6" customFormat="1"/>
-    <row r="939" s="6" customFormat="1"/>
-    <row r="940" s="6" customFormat="1"/>
-    <row r="941" s="6" customFormat="1"/>
-    <row r="942" s="6" customFormat="1"/>
-    <row r="943" s="6" customFormat="1"/>
-    <row r="944" s="6" customFormat="1"/>
-    <row r="945" s="6" customFormat="1"/>
-    <row r="946" s="6" customFormat="1"/>
-    <row r="947" s="6" customFormat="1"/>
-    <row r="948" s="6" customFormat="1"/>
-    <row r="949" s="6" customFormat="1"/>
-    <row r="950" s="6" customFormat="1"/>
-    <row r="951" s="6" customFormat="1"/>
-    <row r="952" s="6" customFormat="1"/>
-    <row r="953" s="6" customFormat="1"/>
-    <row r="954" s="6" customFormat="1"/>
-    <row r="955" s="6" customFormat="1"/>
-    <row r="956" s="6" customFormat="1"/>
-    <row r="957" s="6" customFormat="1"/>
-    <row r="958" s="6" customFormat="1"/>
-    <row r="959" s="6" customFormat="1"/>
-    <row r="960" s="6" customFormat="1"/>
-    <row r="961" s="6" customFormat="1"/>
-    <row r="962" s="6" customFormat="1"/>
-    <row r="963" s="6" customFormat="1"/>
-    <row r="964" s="6" customFormat="1"/>
-    <row r="965" s="6" customFormat="1"/>
-    <row r="966" s="6" customFormat="1"/>
-    <row r="967" s="6" customFormat="1"/>
-    <row r="968" s="6" customFormat="1"/>
-    <row r="969" s="6" customFormat="1"/>
-    <row r="970" s="6" customFormat="1"/>
-    <row r="971" s="6" customFormat="1"/>
-    <row r="972" s="6" customFormat="1"/>
-    <row r="973" s="6" customFormat="1"/>
-    <row r="974" s="6" customFormat="1"/>
-    <row r="975" s="6" customFormat="1"/>
-    <row r="976" s="6" customFormat="1"/>
-    <row r="977" s="6" customFormat="1"/>
-    <row r="978" s="6" customFormat="1"/>
-    <row r="979" s="6" customFormat="1"/>
-    <row r="980" s="6" customFormat="1"/>
-    <row r="981" s="6" customFormat="1"/>
-    <row r="982" s="6" customFormat="1"/>
-    <row r="983" s="6" customFormat="1"/>
-    <row r="984" s="6" customFormat="1"/>
-    <row r="985" s="6" customFormat="1"/>
-    <row r="986" s="6" customFormat="1"/>
-    <row r="987" s="6" customFormat="1"/>
-    <row r="988" s="6" customFormat="1"/>
-    <row r="989" s="6" customFormat="1"/>
-    <row r="990" s="6" customFormat="1"/>
-    <row r="991" s="6" customFormat="1"/>
-    <row r="992" s="6" customFormat="1"/>
-    <row r="993" s="6" customFormat="1"/>
-    <row r="994" s="6" customFormat="1"/>
-    <row r="995" s="6" customFormat="1"/>
-    <row r="996" s="6" customFormat="1"/>
-    <row r="997" s="6" customFormat="1"/>
-    <row r="998" s="6" customFormat="1"/>
-    <row r="999" s="6" customFormat="1"/>
-    <row r="1000" s="6" customFormat="1"/>
-    <row r="1001" s="6" customFormat="1"/>
-    <row r="1002" s="6" customFormat="1"/>
-    <row r="1003" s="6" customFormat="1"/>
-    <row r="1004" s="6" customFormat="1"/>
-    <row r="1005" s="6" customFormat="1"/>
-    <row r="1006" s="6" customFormat="1"/>
-    <row r="1007" s="6" customFormat="1"/>
-    <row r="1008" s="6" customFormat="1"/>
-    <row r="1009" s="6" customFormat="1"/>
-    <row r="1010" s="6" customFormat="1"/>
-    <row r="1011" s="6" customFormat="1"/>
-    <row r="1012" s="6" customFormat="1"/>
-    <row r="1013" s="6" customFormat="1"/>
-    <row r="1014" s="6" customFormat="1"/>
-    <row r="1015" s="6" customFormat="1"/>
-    <row r="1016" s="6" customFormat="1"/>
-    <row r="1017" s="6" customFormat="1"/>
-    <row r="1018" s="6" customFormat="1"/>
-    <row r="1019" s="6" customFormat="1"/>
-    <row r="1020" s="6" customFormat="1"/>
-    <row r="1021" s="6" customFormat="1"/>
-    <row r="1022" s="6" customFormat="1"/>
-    <row r="1023" s="6" customFormat="1"/>
-    <row r="1024" s="6" customFormat="1"/>
-    <row r="1025" s="6" customFormat="1"/>
-    <row r="1026" s="6" customFormat="1"/>
-    <row r="1027" s="6" customFormat="1"/>
-    <row r="1028" s="6" customFormat="1"/>
-    <row r="1029" s="6" customFormat="1"/>
-    <row r="1030" s="6" customFormat="1"/>
-    <row r="1031" s="6" customFormat="1"/>
-    <row r="1032" s="6" customFormat="1"/>
-    <row r="1033" s="6" customFormat="1"/>
-    <row r="1034" s="6" customFormat="1"/>
-    <row r="1035" s="6" customFormat="1"/>
-    <row r="1036" s="6" customFormat="1"/>
-    <row r="1037" s="6" customFormat="1"/>
-    <row r="1038" s="6" customFormat="1"/>
-    <row r="1039" s="6" customFormat="1"/>
-    <row r="1040" s="6" customFormat="1"/>
-    <row r="1041" s="6" customFormat="1"/>
-    <row r="1042" s="6" customFormat="1"/>
-    <row r="1043" s="6" customFormat="1"/>
-    <row r="1044" s="6" customFormat="1"/>
-    <row r="1045" s="6" customFormat="1"/>
-    <row r="1046" s="6" customFormat="1"/>
-    <row r="1047" s="6" customFormat="1"/>
-    <row r="1048" s="6" customFormat="1"/>
-    <row r="1049" s="6" customFormat="1"/>
-    <row r="1050" s="6" customFormat="1"/>
-    <row r="1051" s="6" customFormat="1"/>
-    <row r="1052" s="6" customFormat="1"/>
-    <row r="1053" s="6" customFormat="1"/>
-    <row r="1054" s="6" customFormat="1"/>
-    <row r="1055" s="6" customFormat="1"/>
-    <row r="1056" s="6" customFormat="1"/>
-    <row r="1057" s="6" customFormat="1"/>
-    <row r="1058" s="6" customFormat="1"/>
-    <row r="1059" s="6" customFormat="1"/>
-    <row r="1060" s="6" customFormat="1"/>
-    <row r="1061" s="6" customFormat="1"/>
-    <row r="1062" s="6" customFormat="1"/>
-    <row r="1063" s="6" customFormat="1"/>
-    <row r="1064" s="6" customFormat="1"/>
-    <row r="1065" s="6" customFormat="1"/>
-    <row r="1066" s="6" customFormat="1"/>
-    <row r="1067" s="6" customFormat="1"/>
-    <row r="1068" s="6" customFormat="1"/>
-    <row r="1069" s="6" customFormat="1"/>
-    <row r="1070" s="6" customFormat="1"/>
-    <row r="1071" s="6" customFormat="1"/>
-    <row r="1072" s="6" customFormat="1"/>
-    <row r="1073" s="6" customFormat="1"/>
-    <row r="1074" s="6" customFormat="1"/>
-    <row r="1075" s="6" customFormat="1"/>
-    <row r="1076" s="6" customFormat="1"/>
-    <row r="1077" s="6" customFormat="1"/>
-    <row r="1078" s="6" customFormat="1"/>
-    <row r="1079" s="6" customFormat="1"/>
-    <row r="1080" s="6" customFormat="1"/>
-    <row r="1081" s="6" customFormat="1"/>
-    <row r="1082" s="6" customFormat="1"/>
-    <row r="1083" s="6" customFormat="1"/>
-    <row r="1084" s="6" customFormat="1"/>
-    <row r="1085" s="6" customFormat="1"/>
-    <row r="1086" s="6" customFormat="1"/>
-    <row r="1087" s="6" customFormat="1"/>
-    <row r="1088" s="6" customFormat="1"/>
-    <row r="1089" s="6" customFormat="1"/>
-    <row r="1090" s="6" customFormat="1"/>
-    <row r="1091" s="6" customFormat="1"/>
-    <row r="1092" s="6" customFormat="1"/>
-    <row r="1093" s="6" customFormat="1"/>
-    <row r="1094" s="6" customFormat="1"/>
-    <row r="1095" s="6" customFormat="1"/>
-    <row r="1096" s="6" customFormat="1"/>
-    <row r="1097" s="6" customFormat="1"/>
-    <row r="1098" s="6" customFormat="1"/>
-    <row r="1099" s="6" customFormat="1"/>
-    <row r="1100" s="6" customFormat="1"/>
-    <row r="1101" s="6" customFormat="1"/>
-    <row r="1102" s="6" customFormat="1"/>
-    <row r="1103" s="6" customFormat="1"/>
-    <row r="1104" s="6" customFormat="1"/>
-    <row r="1105" s="6" customFormat="1"/>
-    <row r="1106" s="6" customFormat="1"/>
-    <row r="1107" s="6" customFormat="1"/>
-    <row r="1108" s="6" customFormat="1"/>
-    <row r="1109" s="6" customFormat="1"/>
-    <row r="1110" s="6" customFormat="1"/>
-    <row r="1111" s="6" customFormat="1"/>
-    <row r="1112" s="6" customFormat="1"/>
-    <row r="1113" s="6" customFormat="1"/>
-    <row r="1114" s="6" customFormat="1"/>
-    <row r="1115" s="6" customFormat="1"/>
-    <row r="1116" s="6" customFormat="1"/>
-    <row r="1117" s="6" customFormat="1"/>
-    <row r="1118" s="6" customFormat="1"/>
-    <row r="1119" s="6" customFormat="1"/>
-    <row r="1120" s="6" customFormat="1"/>
-    <row r="1121" s="6" customFormat="1"/>
-    <row r="1122" s="6" customFormat="1"/>
-    <row r="1123" s="6" customFormat="1"/>
-    <row r="1124" s="6" customFormat="1"/>
-    <row r="1125" s="6" customFormat="1"/>
-    <row r="1126" s="6" customFormat="1"/>
-    <row r="1127" s="6" customFormat="1"/>
-    <row r="1128" s="6" customFormat="1"/>
-    <row r="1129" s="6" customFormat="1"/>
-    <row r="1130" s="6" customFormat="1"/>
-    <row r="1131" s="6" customFormat="1"/>
-    <row r="1132" s="6" customFormat="1"/>
-    <row r="1133" s="6" customFormat="1"/>
-    <row r="1134" s="6" customFormat="1"/>
-    <row r="1135" s="6" customFormat="1"/>
-    <row r="1136" s="6" customFormat="1"/>
-    <row r="1137" s="6" customFormat="1"/>
-    <row r="1138" s="6" customFormat="1"/>
-    <row r="1139" s="6" customFormat="1"/>
-    <row r="1140" s="6" customFormat="1"/>
-    <row r="1141" s="6" customFormat="1"/>
-    <row r="1142" s="6" customFormat="1"/>
-    <row r="1143" s="6" customFormat="1"/>
-    <row r="1144" s="6" customFormat="1"/>
-    <row r="1145" s="6" customFormat="1"/>
-    <row r="1146" s="6" customFormat="1"/>
-    <row r="1147" s="6" customFormat="1"/>
-    <row r="1148" s="6" customFormat="1"/>
-    <row r="1149" s="6" customFormat="1"/>
-    <row r="1150" s="6" customFormat="1"/>
-    <row r="1151" s="6" customFormat="1"/>
-    <row r="1152" s="6" customFormat="1"/>
-    <row r="1153" s="6" customFormat="1"/>
-    <row r="1154" s="6" customFormat="1"/>
-    <row r="1155" s="6" customFormat="1"/>
-    <row r="1156" s="6" customFormat="1"/>
-    <row r="1157" s="6" customFormat="1"/>
-    <row r="1158" s="6" customFormat="1"/>
-    <row r="1159" s="6" customFormat="1"/>
-    <row r="1160" s="6" customFormat="1"/>
-    <row r="1161" s="6" customFormat="1"/>
-    <row r="1162" s="6" customFormat="1"/>
-    <row r="1163" s="6" customFormat="1"/>
-    <row r="1164" s="6" customFormat="1"/>
-    <row r="1165" s="6" customFormat="1"/>
-    <row r="1166" s="6" customFormat="1"/>
-    <row r="1167" s="6" customFormat="1"/>
-    <row r="1168" s="6" customFormat="1"/>
-    <row r="1169" s="6" customFormat="1"/>
-    <row r="1170" s="6" customFormat="1"/>
-    <row r="1171" s="6" customFormat="1"/>
-    <row r="1172" s="6" customFormat="1"/>
-    <row r="1173" s="6" customFormat="1"/>
-    <row r="1174" s="6" customFormat="1"/>
-    <row r="1175" s="6" customFormat="1"/>
-    <row r="1176" s="6" customFormat="1"/>
-    <row r="1177" s="6" customFormat="1"/>
-    <row r="1178" s="6" customFormat="1"/>
-    <row r="1179" s="6" customFormat="1"/>
-    <row r="1180" s="6" customFormat="1"/>
-    <row r="1181" s="6" customFormat="1"/>
-    <row r="1182" s="6" customFormat="1"/>
-    <row r="1183" s="6" customFormat="1"/>
-    <row r="1184" s="6" customFormat="1"/>
-    <row r="1185" s="6" customFormat="1"/>
-    <row r="1186" s="6" customFormat="1"/>
-    <row r="1187" s="6" customFormat="1"/>
-    <row r="1188" s="6" customFormat="1"/>
-    <row r="1189" s="6" customFormat="1"/>
-    <row r="1190" s="6" customFormat="1"/>
-    <row r="1191" s="6" customFormat="1"/>
-    <row r="1192" s="6" customFormat="1"/>
-    <row r="1193" s="6" customFormat="1"/>
-    <row r="1194" s="6" customFormat="1"/>
-    <row r="1195" s="6" customFormat="1"/>
-    <row r="1196" s="6" customFormat="1"/>
-    <row r="1197" s="6" customFormat="1"/>
-    <row r="1198" s="6" customFormat="1"/>
-    <row r="1199" s="6" customFormat="1"/>
-    <row r="1200" s="6" customFormat="1"/>
-    <row r="1201" s="6" customFormat="1"/>
-    <row r="1202" s="6" customFormat="1"/>
-    <row r="1203" s="6" customFormat="1"/>
-    <row r="1204" s="6" customFormat="1"/>
-    <row r="1205" s="6" customFormat="1"/>
-    <row r="1206" s="6" customFormat="1"/>
-    <row r="1207" s="6" customFormat="1"/>
-    <row r="1208" s="6" customFormat="1"/>
-    <row r="1209" s="6" customFormat="1"/>
-    <row r="1210" s="6" customFormat="1"/>
-    <row r="1211" s="6" customFormat="1"/>
-    <row r="1212" s="6" customFormat="1"/>
-    <row r="1213" s="6" customFormat="1"/>
-    <row r="1214" s="6" customFormat="1"/>
-    <row r="1215" s="6" customFormat="1"/>
-    <row r="1216" s="6" customFormat="1"/>
-    <row r="1217" s="6" customFormat="1"/>
-    <row r="1218" s="6" customFormat="1"/>
-    <row r="1219" s="6" customFormat="1"/>
-    <row r="1220" s="6" customFormat="1"/>
-    <row r="1221" s="6" customFormat="1"/>
-    <row r="1222" s="6" customFormat="1"/>
-    <row r="1223" s="6" customFormat="1"/>
-    <row r="1224" s="6" customFormat="1"/>
-    <row r="1225" s="6" customFormat="1"/>
-    <row r="1226" s="6" customFormat="1"/>
-    <row r="1227" s="6" customFormat="1"/>
-    <row r="1228" s="6" customFormat="1"/>
-    <row r="1229" s="6" customFormat="1"/>
-    <row r="1230" s="6" customFormat="1"/>
-    <row r="1231" s="6" customFormat="1"/>
-    <row r="1232" s="6" customFormat="1"/>
-    <row r="1233" s="6" customFormat="1"/>
-    <row r="1234" s="6" customFormat="1"/>
-    <row r="1235" s="6" customFormat="1"/>
-    <row r="1236" s="6" customFormat="1"/>
-    <row r="1237" s="6" customFormat="1"/>
-    <row r="1238" s="6" customFormat="1"/>
-    <row r="1239" s="6" customFormat="1"/>
-    <row r="1240" s="6" customFormat="1"/>
-    <row r="1241" s="6" customFormat="1"/>
-    <row r="1242" s="6" customFormat="1"/>
-    <row r="1243" s="6" customFormat="1"/>
-    <row r="1244" s="6" customFormat="1"/>
-    <row r="1245" s="6" customFormat="1"/>
-    <row r="1246" s="6" customFormat="1"/>
-    <row r="1247" s="6" customFormat="1"/>
-    <row r="1248" s="6" customFormat="1"/>
-    <row r="1249" s="6" customFormat="1"/>
-    <row r="1250" s="6" customFormat="1"/>
-    <row r="1251" s="6" customFormat="1"/>
-    <row r="1252" s="6" customFormat="1"/>
-    <row r="1253" s="6" customFormat="1"/>
-    <row r="1254" s="6" customFormat="1"/>
-    <row r="1255" s="6" customFormat="1"/>
-    <row r="1256" s="6" customFormat="1"/>
-    <row r="1257" s="6" customFormat="1"/>
-    <row r="1258" s="6" customFormat="1"/>
-    <row r="1259" s="6" customFormat="1"/>
-    <row r="1260" s="6" customFormat="1"/>
-    <row r="1261" s="6" customFormat="1"/>
-    <row r="1262" s="6" customFormat="1"/>
-    <row r="1263" s="6" customFormat="1"/>
-    <row r="1264" s="6" customFormat="1"/>
-    <row r="1265" s="6" customFormat="1"/>
-    <row r="1266" s="6" customFormat="1"/>
-    <row r="1267" s="6" customFormat="1"/>
-    <row r="1268" s="6" customFormat="1"/>
-    <row r="1269" s="6" customFormat="1"/>
-    <row r="1270" s="6" customFormat="1"/>
-    <row r="1271" s="6" customFormat="1"/>
-    <row r="1272" s="6" customFormat="1"/>
-    <row r="1273" s="6" customFormat="1"/>
-    <row r="1274" s="6" customFormat="1"/>
-    <row r="1275" s="6" customFormat="1"/>
-    <row r="1276" s="6" customFormat="1"/>
-    <row r="1277" s="6" customFormat="1"/>
-    <row r="1278" s="6" customFormat="1"/>
-    <row r="1279" s="6" customFormat="1"/>
-    <row r="1280" s="6" customFormat="1"/>
-    <row r="1281" s="6" customFormat="1"/>
-    <row r="1282" s="6" customFormat="1"/>
-    <row r="1283" s="6" customFormat="1"/>
-    <row r="1284" s="6" customFormat="1"/>
-    <row r="1285" s="6" customFormat="1"/>
-    <row r="1286" s="6" customFormat="1"/>
-    <row r="1287" s="6" customFormat="1"/>
-    <row r="1288" s="6" customFormat="1"/>
-    <row r="1289" s="6" customFormat="1"/>
-    <row r="1290" s="6" customFormat="1"/>
-    <row r="1291" s="6" customFormat="1"/>
-    <row r="1292" s="6" customFormat="1"/>
-    <row r="1293" s="6" customFormat="1"/>
-    <row r="1294" s="6" customFormat="1"/>
-    <row r="1295" s="6" customFormat="1"/>
-    <row r="1296" s="6" customFormat="1"/>
-    <row r="1297" s="6" customFormat="1"/>
-    <row r="1298" s="6" customFormat="1"/>
-    <row r="1299" s="6" customFormat="1"/>
-    <row r="1300" s="6" customFormat="1"/>
-    <row r="1301" s="6" customFormat="1"/>
-    <row r="1302" s="6" customFormat="1"/>
-    <row r="1303" s="6" customFormat="1"/>
-    <row r="1304" s="6" customFormat="1"/>
-    <row r="1305" s="6" customFormat="1"/>
-    <row r="1306" s="6" customFormat="1"/>
-    <row r="1307" s="6" customFormat="1"/>
-    <row r="1308" s="6" customFormat="1"/>
-    <row r="1309" s="6" customFormat="1"/>
-    <row r="1310" s="6" customFormat="1"/>
-    <row r="1311" s="6" customFormat="1"/>
-    <row r="1312" s="6" customFormat="1"/>
-    <row r="1313" s="6" customFormat="1"/>
-    <row r="1314" s="6" customFormat="1"/>
-    <row r="1315" s="6" customFormat="1"/>
-    <row r="1316" s="6" customFormat="1"/>
-    <row r="1317" s="6" customFormat="1"/>
-    <row r="1318" s="6" customFormat="1"/>
-    <row r="1319" s="6" customFormat="1"/>
-    <row r="1320" s="6" customFormat="1"/>
-    <row r="1321" s="6" customFormat="1"/>
-    <row r="1322" s="6" customFormat="1"/>
-    <row r="1323" s="6" customFormat="1"/>
-    <row r="1324" s="6" customFormat="1"/>
-    <row r="1325" s="6" customFormat="1"/>
-    <row r="1326" s="6" customFormat="1"/>
-    <row r="1327" s="6" customFormat="1"/>
-    <row r="1328" s="6" customFormat="1"/>
-    <row r="1329" s="6" customFormat="1"/>
-    <row r="1330" s="6" customFormat="1"/>
-    <row r="1331" s="6" customFormat="1"/>
-    <row r="1332" s="6" customFormat="1"/>
+    <row r="833" spans="15:15">
+      <c r="O833" s="6"/>
+    </row>
+    <row r="834" spans="15:15">
+      <c r="O834" s="6"/>
+    </row>
+    <row r="835" spans="15:15">
+      <c r="O835" s="6"/>
+    </row>
+    <row r="836" spans="15:15">
+      <c r="O836" s="6"/>
+    </row>
+    <row r="837" spans="15:15">
+      <c r="O837" s="6"/>
+    </row>
+    <row r="838" spans="15:15">
+      <c r="O838" s="6"/>
+    </row>
+    <row r="839" spans="15:15">
+      <c r="O839" s="6"/>
+    </row>
+    <row r="840" spans="15:15">
+      <c r="O840" s="6"/>
+    </row>
+    <row r="841" spans="15:15">
+      <c r="O841" s="6"/>
+    </row>
+    <row r="842" spans="15:15">
+      <c r="O842" s="6"/>
+    </row>
+    <row r="843" spans="15:15">
+      <c r="O843" s="6"/>
+    </row>
+    <row r="844" spans="15:15">
+      <c r="O844" s="6"/>
+    </row>
+    <row r="845" spans="15:15">
+      <c r="O845" s="6"/>
+    </row>
+    <row r="846" spans="15:15">
+      <c r="O846" s="6"/>
+    </row>
+    <row r="847" spans="15:15">
+      <c r="O847" s="6"/>
+    </row>
+    <row r="848" spans="15:15">
+      <c r="O848" s="6"/>
+    </row>
+    <row r="849" spans="15:15">
+      <c r="O849" s="6"/>
+    </row>
+    <row r="850" spans="15:15">
+      <c r="O850" s="6"/>
+    </row>
+    <row r="851" spans="15:15">
+      <c r="O851" s="6"/>
+    </row>
+    <row r="852" spans="15:15">
+      <c r="O852" s="6"/>
+    </row>
+    <row r="853" spans="15:15">
+      <c r="O853" s="6"/>
+    </row>
+    <row r="854" spans="15:15">
+      <c r="O854" s="6"/>
+    </row>
+    <row r="855" spans="15:15">
+      <c r="O855" s="6"/>
+    </row>
+    <row r="856" spans="15:15">
+      <c r="O856" s="6"/>
+    </row>
+    <row r="857" spans="15:15">
+      <c r="O857" s="6"/>
+    </row>
+    <row r="858" spans="15:15">
+      <c r="O858" s="6"/>
+    </row>
+    <row r="859" spans="15:15">
+      <c r="O859" s="6"/>
+    </row>
+    <row r="860" spans="15:15">
+      <c r="O860" s="6"/>
+    </row>
+    <row r="861" spans="15:15">
+      <c r="O861" s="6"/>
+    </row>
+    <row r="862" spans="15:15">
+      <c r="O862" s="6"/>
+    </row>
+    <row r="863" spans="15:15">
+      <c r="O863" s="6"/>
+    </row>
+    <row r="864" spans="15:15">
+      <c r="O864" s="6"/>
+    </row>
+    <row r="865" spans="15:15">
+      <c r="O865" s="6"/>
+    </row>
+    <row r="866" spans="15:15">
+      <c r="O866" s="6"/>
+    </row>
+    <row r="867" spans="15:15">
+      <c r="O867" s="6"/>
+    </row>
+    <row r="868" spans="15:15">
+      <c r="O868" s="6"/>
+    </row>
+    <row r="869" spans="15:15">
+      <c r="O869" s="6"/>
+    </row>
+    <row r="870" spans="15:15">
+      <c r="O870" s="6"/>
+    </row>
+    <row r="871" spans="15:15">
+      <c r="O871" s="6"/>
+    </row>
+    <row r="872" spans="15:15">
+      <c r="O872" s="6"/>
+    </row>
+    <row r="873" spans="15:15">
+      <c r="O873" s="6"/>
+    </row>
+    <row r="874" spans="15:15">
+      <c r="O874" s="6"/>
+    </row>
+    <row r="875" spans="15:15">
+      <c r="O875" s="6"/>
+    </row>
+    <row r="876" spans="15:15">
+      <c r="O876" s="6"/>
+    </row>
+    <row r="877" spans="15:15">
+      <c r="O877" s="6"/>
+    </row>
+    <row r="878" spans="15:15">
+      <c r="O878" s="6"/>
+    </row>
+    <row r="879" spans="15:15">
+      <c r="O879" s="6"/>
+    </row>
+    <row r="880" spans="15:15">
+      <c r="O880" s="6"/>
+    </row>
+    <row r="881" spans="15:15">
+      <c r="O881" s="6"/>
+    </row>
+    <row r="882" spans="15:15">
+      <c r="O882" s="6"/>
+    </row>
+    <row r="883" spans="15:15">
+      <c r="O883" s="6"/>
+    </row>
+    <row r="884" spans="15:15">
+      <c r="O884" s="6"/>
+    </row>
+    <row r="885" spans="15:15">
+      <c r="O885" s="6"/>
+    </row>
+    <row r="886" spans="15:15">
+      <c r="O886" s="6"/>
+    </row>
+    <row r="887" spans="15:15">
+      <c r="O887" s="6"/>
+    </row>
+    <row r="888" spans="15:15">
+      <c r="O888" s="6"/>
+    </row>
+    <row r="889" spans="15:15">
+      <c r="O889" s="6"/>
+    </row>
+    <row r="890" spans="15:15">
+      <c r="O890" s="6"/>
+    </row>
+    <row r="891" spans="15:15">
+      <c r="O891" s="6"/>
+    </row>
+    <row r="892" spans="15:15">
+      <c r="O892" s="6"/>
+    </row>
+    <row r="893" spans="15:15">
+      <c r="O893" s="6"/>
+    </row>
+    <row r="894" spans="15:15">
+      <c r="O894" s="6"/>
+    </row>
+    <row r="895" spans="15:15">
+      <c r="O895" s="6"/>
+    </row>
+    <row r="896" spans="15:15">
+      <c r="O896" s="6"/>
+    </row>
+    <row r="897" spans="15:15">
+      <c r="O897" s="6"/>
+    </row>
+    <row r="898" spans="15:15">
+      <c r="O898" s="6"/>
+    </row>
+    <row r="899" spans="15:15">
+      <c r="O899" s="6"/>
+    </row>
+    <row r="900" spans="15:15">
+      <c r="O900" s="6"/>
+    </row>
+    <row r="901" spans="15:15">
+      <c r="O901" s="6"/>
+    </row>
+    <row r="902" spans="15:15">
+      <c r="O902" s="6"/>
+    </row>
+    <row r="903" spans="15:15">
+      <c r="O903" s="6"/>
+    </row>
+    <row r="904" spans="15:15">
+      <c r="O904" s="6"/>
+    </row>
+    <row r="905" spans="15:15">
+      <c r="O905" s="6"/>
+    </row>
+    <row r="906" spans="15:15">
+      <c r="O906" s="6"/>
+    </row>
+    <row r="907" spans="15:15">
+      <c r="O907" s="6"/>
+    </row>
+    <row r="908" spans="15:15">
+      <c r="O908" s="6"/>
+    </row>
+    <row r="909" spans="15:15">
+      <c r="O909" s="6"/>
+    </row>
+    <row r="910" spans="15:15">
+      <c r="O910" s="6"/>
+    </row>
+    <row r="911" spans="15:15">
+      <c r="O911" s="6"/>
+    </row>
+    <row r="912" spans="15:15">
+      <c r="O912" s="6"/>
+    </row>
+    <row r="913" spans="15:15">
+      <c r="O913" s="6"/>
+    </row>
+    <row r="914" spans="15:15">
+      <c r="O914" s="6"/>
+    </row>
+    <row r="915" spans="15:15">
+      <c r="O915" s="6"/>
+    </row>
+    <row r="916" spans="15:15">
+      <c r="O916" s="6"/>
+    </row>
+    <row r="917" spans="15:15">
+      <c r="O917" s="6"/>
+    </row>
+    <row r="918" spans="15:15">
+      <c r="O918" s="6"/>
+    </row>
+    <row r="919" spans="15:15">
+      <c r="O919" s="6"/>
+    </row>
+    <row r="920" spans="15:15">
+      <c r="O920" s="6"/>
+    </row>
+    <row r="921" spans="15:15">
+      <c r="O921" s="6"/>
+    </row>
+    <row r="922" spans="15:15">
+      <c r="O922" s="6"/>
+    </row>
+    <row r="923" spans="15:15">
+      <c r="O923" s="6"/>
+    </row>
+    <row r="924" spans="15:15">
+      <c r="O924" s="6"/>
+    </row>
+    <row r="925" spans="15:15">
+      <c r="O925" s="6"/>
+    </row>
+    <row r="926" spans="15:15">
+      <c r="O926" s="6"/>
+    </row>
+    <row r="927" spans="15:15">
+      <c r="O927" s="6"/>
+    </row>
+    <row r="928" spans="15:15">
+      <c r="O928" s="6"/>
+    </row>
+    <row r="929" spans="15:15">
+      <c r="O929" s="6"/>
+    </row>
+    <row r="930" spans="15:15">
+      <c r="O930" s="6"/>
+    </row>
+    <row r="931" spans="15:15">
+      <c r="O931" s="6"/>
+    </row>
+    <row r="932" spans="15:15">
+      <c r="O932" s="6"/>
+    </row>
+    <row r="933" spans="15:15">
+      <c r="O933" s="6"/>
+    </row>
+    <row r="934" spans="15:15">
+      <c r="O934" s="6"/>
+    </row>
+    <row r="935" spans="15:15">
+      <c r="O935" s="6"/>
+    </row>
+    <row r="936" spans="15:15">
+      <c r="O936" s="6"/>
+    </row>
+    <row r="937" spans="15:15">
+      <c r="O937" s="6"/>
+    </row>
+    <row r="938" spans="15:15">
+      <c r="O938" s="6"/>
+    </row>
+    <row r="939" spans="15:15">
+      <c r="O939" s="6"/>
+    </row>
+    <row r="940" spans="15:15">
+      <c r="O940" s="6"/>
+    </row>
+    <row r="941" spans="15:15">
+      <c r="O941" s="6"/>
+    </row>
+    <row r="942" spans="15:15">
+      <c r="O942" s="6"/>
+    </row>
+    <row r="943" spans="15:15">
+      <c r="O943" s="6"/>
+    </row>
+    <row r="944" spans="15:15">
+      <c r="O944" s="6"/>
+    </row>
+    <row r="945" spans="15:15">
+      <c r="O945" s="6"/>
+    </row>
+    <row r="946" spans="15:15">
+      <c r="O946" s="6"/>
+    </row>
+    <row r="947" spans="15:15">
+      <c r="O947" s="6"/>
+    </row>
+    <row r="948" spans="15:15">
+      <c r="O948" s="6"/>
+    </row>
+    <row r="949" spans="15:15">
+      <c r="O949" s="6"/>
+    </row>
+    <row r="950" spans="15:15">
+      <c r="O950" s="6"/>
+    </row>
+    <row r="951" spans="15:15">
+      <c r="O951" s="6"/>
+    </row>
+    <row r="952" spans="15:15">
+      <c r="O952" s="6"/>
+    </row>
+    <row r="953" spans="15:15">
+      <c r="O953" s="6"/>
+    </row>
+    <row r="954" spans="15:15">
+      <c r="O954" s="6"/>
+    </row>
+    <row r="955" spans="15:15">
+      <c r="O955" s="6"/>
+    </row>
+    <row r="956" spans="15:15">
+      <c r="O956" s="6"/>
+    </row>
+    <row r="957" spans="15:15">
+      <c r="O957" s="6"/>
+    </row>
+    <row r="958" spans="15:15">
+      <c r="O958" s="6"/>
+    </row>
+    <row r="959" spans="15:15">
+      <c r="O959" s="6"/>
+    </row>
+    <row r="960" spans="15:15">
+      <c r="O960" s="6"/>
+    </row>
+    <row r="961" spans="15:15">
+      <c r="O961" s="6"/>
+    </row>
+    <row r="962" spans="15:15">
+      <c r="O962" s="6"/>
+    </row>
+    <row r="963" spans="15:15">
+      <c r="O963" s="6"/>
+    </row>
+    <row r="964" spans="15:15">
+      <c r="O964" s="6"/>
+    </row>
+    <row r="965" spans="15:15">
+      <c r="O965" s="6"/>
+    </row>
+    <row r="966" spans="15:15">
+      <c r="O966" s="6"/>
+    </row>
+    <row r="967" spans="15:15">
+      <c r="O967" s="6"/>
+    </row>
+    <row r="968" spans="15:15">
+      <c r="O968" s="6"/>
+    </row>
+    <row r="969" spans="15:15">
+      <c r="O969" s="6"/>
+    </row>
+    <row r="970" spans="15:15">
+      <c r="O970" s="6"/>
+    </row>
+    <row r="971" spans="15:15">
+      <c r="O971" s="6"/>
+    </row>
+    <row r="972" spans="15:15">
+      <c r="O972" s="6"/>
+    </row>
+    <row r="973" spans="15:15">
+      <c r="O973" s="6"/>
+    </row>
+    <row r="974" spans="15:15">
+      <c r="O974" s="6"/>
+    </row>
+    <row r="975" spans="15:15">
+      <c r="O975" s="6"/>
+    </row>
+    <row r="976" spans="15:15">
+      <c r="O976" s="6"/>
+    </row>
+    <row r="977" spans="15:15">
+      <c r="O977" s="6"/>
+    </row>
+    <row r="978" spans="15:15">
+      <c r="O978" s="6"/>
+    </row>
+    <row r="979" spans="15:15">
+      <c r="O979" s="6"/>
+    </row>
+    <row r="980" spans="15:15">
+      <c r="O980" s="6"/>
+    </row>
+    <row r="981" spans="15:15">
+      <c r="O981" s="6"/>
+    </row>
+    <row r="982" spans="15:15">
+      <c r="O982" s="6"/>
+    </row>
+    <row r="983" spans="15:15">
+      <c r="O983" s="6"/>
+    </row>
+    <row r="984" spans="15:15">
+      <c r="O984" s="6"/>
+    </row>
+    <row r="985" spans="15:15">
+      <c r="O985" s="6"/>
+    </row>
+    <row r="986" spans="15:15">
+      <c r="O986" s="6"/>
+    </row>
+    <row r="987" spans="15:15">
+      <c r="O987" s="6"/>
+    </row>
+    <row r="988" spans="15:15">
+      <c r="O988" s="6"/>
+    </row>
+    <row r="989" spans="15:15">
+      <c r="O989" s="6"/>
+    </row>
+    <row r="990" spans="15:15">
+      <c r="O990" s="6"/>
+    </row>
+    <row r="991" spans="15:15">
+      <c r="O991" s="6"/>
+    </row>
+    <row r="992" spans="15:15">
+      <c r="O992" s="6"/>
+    </row>
+    <row r="993" spans="15:15">
+      <c r="O993" s="6"/>
+    </row>
+    <row r="994" spans="15:15">
+      <c r="O994" s="6"/>
+    </row>
+    <row r="995" spans="15:15">
+      <c r="O995" s="6"/>
+    </row>
+    <row r="996" spans="15:15">
+      <c r="O996" s="6"/>
+    </row>
+    <row r="997" spans="15:15">
+      <c r="O997" s="6"/>
+    </row>
+    <row r="998" spans="15:15">
+      <c r="O998" s="6"/>
+    </row>
+    <row r="999" spans="15:15">
+      <c r="O999" s="6"/>
+    </row>
+    <row r="1000" spans="15:15">
+      <c r="O1000" s="6"/>
+    </row>
+    <row r="1001" spans="15:15">
+      <c r="O1001" s="6"/>
+    </row>
+    <row r="1002" spans="15:15">
+      <c r="O1002" s="6"/>
+    </row>
+    <row r="1003" spans="15:15">
+      <c r="O1003" s="6"/>
+    </row>
+    <row r="1004" spans="15:15">
+      <c r="O1004" s="6"/>
+    </row>
+    <row r="1005" spans="15:15">
+      <c r="O1005" s="6"/>
+    </row>
+    <row r="1006" spans="15:15">
+      <c r="O1006" s="6"/>
+    </row>
+    <row r="1007" spans="15:15">
+      <c r="O1007" s="6"/>
+    </row>
+    <row r="1008" spans="15:15">
+      <c r="O1008" s="6"/>
+    </row>
+    <row r="1009" spans="15:15">
+      <c r="O1009" s="6"/>
+    </row>
+    <row r="1010" spans="15:15">
+      <c r="O1010" s="6"/>
+    </row>
+    <row r="1011" spans="15:15">
+      <c r="O1011" s="6"/>
+    </row>
+    <row r="1012" spans="15:15">
+      <c r="O1012" s="6"/>
+    </row>
+    <row r="1013" spans="15:15">
+      <c r="O1013" s="6"/>
+    </row>
+    <row r="1014" spans="15:15">
+      <c r="O1014" s="6"/>
+    </row>
+    <row r="1015" spans="15:15">
+      <c r="O1015" s="6"/>
+    </row>
+    <row r="1016" spans="15:15">
+      <c r="O1016" s="6"/>
+    </row>
+    <row r="1017" spans="15:15">
+      <c r="O1017" s="6"/>
+    </row>
+    <row r="1018" spans="15:15">
+      <c r="O1018" s="6"/>
+    </row>
+    <row r="1019" spans="15:15">
+      <c r="O1019" s="6"/>
+    </row>
+    <row r="1020" spans="15:15">
+      <c r="O1020" s="6"/>
+    </row>
+    <row r="1021" spans="15:15">
+      <c r="O1021" s="6"/>
+    </row>
+    <row r="1022" spans="15:15">
+      <c r="O1022" s="6"/>
+    </row>
+    <row r="1023" spans="15:15">
+      <c r="O1023" s="6"/>
+    </row>
+    <row r="1024" spans="15:15">
+      <c r="O1024" s="6"/>
+    </row>
+    <row r="1025" spans="15:15">
+      <c r="O1025" s="6"/>
+    </row>
+    <row r="1026" spans="15:15">
+      <c r="O1026" s="6"/>
+    </row>
+    <row r="1027" spans="15:15">
+      <c r="O1027" s="6"/>
+    </row>
+    <row r="1028" spans="15:15">
+      <c r="O1028" s="6"/>
+    </row>
+    <row r="1029" spans="15:15">
+      <c r="O1029" s="6"/>
+    </row>
+    <row r="1030" spans="15:15">
+      <c r="O1030" s="6"/>
+    </row>
+    <row r="1031" spans="15:15">
+      <c r="O1031" s="6"/>
+    </row>
+    <row r="1032" spans="15:15">
+      <c r="O1032" s="6"/>
+    </row>
+    <row r="1033" spans="15:15">
+      <c r="O1033" s="6"/>
+    </row>
+    <row r="1034" spans="15:15">
+      <c r="O1034" s="6"/>
+    </row>
+    <row r="1035" spans="15:15">
+      <c r="O1035" s="6"/>
+    </row>
+    <row r="1036" spans="15:15">
+      <c r="O1036" s="6"/>
+    </row>
+    <row r="1037" spans="15:15">
+      <c r="O1037" s="6"/>
+    </row>
+    <row r="1038" spans="15:15">
+      <c r="O1038" s="6"/>
+    </row>
+    <row r="1039" spans="15:15">
+      <c r="O1039" s="6"/>
+    </row>
+    <row r="1040" spans="15:15">
+      <c r="O1040" s="6"/>
+    </row>
+    <row r="1041" spans="15:15">
+      <c r="O1041" s="6"/>
+    </row>
+    <row r="1042" spans="15:15">
+      <c r="O1042" s="6"/>
+    </row>
+    <row r="1043" spans="15:15">
+      <c r="O1043" s="6"/>
+    </row>
+    <row r="1044" spans="15:15">
+      <c r="O1044" s="6"/>
+    </row>
+    <row r="1045" spans="15:15">
+      <c r="O1045" s="6"/>
+    </row>
+    <row r="1046" spans="15:15">
+      <c r="O1046" s="6"/>
+    </row>
+    <row r="1047" spans="15:15">
+      <c r="O1047" s="6"/>
+    </row>
+    <row r="1048" spans="15:15">
+      <c r="O1048" s="6"/>
+    </row>
+    <row r="1049" spans="15:15">
+      <c r="O1049" s="6"/>
+    </row>
+    <row r="1050" spans="15:15">
+      <c r="O1050" s="6"/>
+    </row>
+    <row r="1051" spans="15:15">
+      <c r="O1051" s="6"/>
+    </row>
+    <row r="1052" spans="15:15">
+      <c r="O1052" s="6"/>
+    </row>
+    <row r="1053" spans="15:15">
+      <c r="O1053" s="6"/>
+    </row>
+    <row r="1054" spans="15:15">
+      <c r="O1054" s="6"/>
+    </row>
+    <row r="1055" spans="15:15">
+      <c r="O1055" s="6"/>
+    </row>
+    <row r="1056" spans="15:15">
+      <c r="O1056" s="6"/>
+    </row>
+    <row r="1057" spans="15:15">
+      <c r="O1057" s="6"/>
+    </row>
+    <row r="1058" spans="15:15">
+      <c r="O1058" s="6"/>
+    </row>
+    <row r="1059" spans="15:15">
+      <c r="O1059" s="6"/>
+    </row>
+    <row r="1060" spans="15:15">
+      <c r="O1060" s="6"/>
+    </row>
+    <row r="1061" spans="15:15">
+      <c r="O1061" s="6"/>
+    </row>
+    <row r="1062" spans="15:15">
+      <c r="O1062" s="6"/>
+    </row>
+    <row r="1063" spans="15:15">
+      <c r="O1063" s="6"/>
+    </row>
+    <row r="1064" spans="15:15">
+      <c r="O1064" s="6"/>
+    </row>
+    <row r="1065" spans="15:15">
+      <c r="O1065" s="6"/>
+    </row>
+    <row r="1066" spans="15:15">
+      <c r="O1066" s="6"/>
+    </row>
+    <row r="1067" spans="15:15">
+      <c r="O1067" s="6"/>
+    </row>
+    <row r="1068" spans="15:15">
+      <c r="O1068" s="6"/>
+    </row>
+    <row r="1069" spans="15:15">
+      <c r="O1069" s="6"/>
+    </row>
+    <row r="1070" spans="15:15">
+      <c r="O1070" s="6"/>
+    </row>
+    <row r="1071" spans="15:15">
+      <c r="O1071" s="6"/>
+    </row>
+    <row r="1072" spans="15:15">
+      <c r="O1072" s="6"/>
+    </row>
+    <row r="1073" spans="15:15">
+      <c r="O1073" s="6"/>
+    </row>
+    <row r="1074" spans="15:15">
+      <c r="O1074" s="6"/>
+    </row>
+    <row r="1075" spans="15:15">
+      <c r="O1075" s="6"/>
+    </row>
+    <row r="1076" spans="15:15">
+      <c r="O1076" s="6"/>
+    </row>
+    <row r="1077" spans="15:15">
+      <c r="O1077" s="6"/>
+    </row>
+    <row r="1078" spans="15:15">
+      <c r="O1078" s="6"/>
+    </row>
+    <row r="1079" spans="15:15">
+      <c r="O1079" s="6"/>
+    </row>
+    <row r="1080" spans="15:15">
+      <c r="O1080" s="6"/>
+    </row>
+    <row r="1081" spans="15:15">
+      <c r="O1081" s="6"/>
+    </row>
+    <row r="1082" spans="15:15">
+      <c r="O1082" s="6"/>
+    </row>
+    <row r="1083" spans="15:15">
+      <c r="O1083" s="6"/>
+    </row>
+    <row r="1084" spans="15:15">
+      <c r="O1084" s="6"/>
+    </row>
+    <row r="1085" spans="15:15">
+      <c r="O1085" s="6"/>
+    </row>
+    <row r="1086" spans="15:15">
+      <c r="O1086" s="6"/>
+    </row>
+    <row r="1087" spans="15:15">
+      <c r="O1087" s="6"/>
+    </row>
+    <row r="1088" spans="15:15">
+      <c r="O1088" s="6"/>
+    </row>
+    <row r="1089" spans="15:15">
+      <c r="O1089" s="6"/>
+    </row>
+    <row r="1090" spans="15:15">
+      <c r="O1090" s="6"/>
+    </row>
+    <row r="1091" spans="15:15">
+      <c r="O1091" s="6"/>
+    </row>
+    <row r="1092" spans="15:15">
+      <c r="O1092" s="6"/>
+    </row>
+    <row r="1093" spans="15:15">
+      <c r="O1093" s="6"/>
+    </row>
+    <row r="1094" spans="15:15">
+      <c r="O1094" s="6"/>
+    </row>
+    <row r="1095" spans="15:15">
+      <c r="O1095" s="6"/>
+    </row>
+    <row r="1096" spans="15:15">
+      <c r="O1096" s="6"/>
+    </row>
+    <row r="1097" spans="15:15">
+      <c r="O1097" s="6"/>
+    </row>
+    <row r="1098" spans="15:15">
+      <c r="O1098" s="6"/>
+    </row>
+    <row r="1099" spans="15:15">
+      <c r="O1099" s="6"/>
+    </row>
+    <row r="1100" spans="15:15">
+      <c r="O1100" s="6"/>
+    </row>
+    <row r="1101" spans="15:15">
+      <c r="O1101" s="6"/>
+    </row>
+    <row r="1102" spans="15:15">
+      <c r="O1102" s="6"/>
+    </row>
+    <row r="1103" spans="15:15">
+      <c r="O1103" s="6"/>
+    </row>
+    <row r="1104" spans="15:15">
+      <c r="O1104" s="6"/>
+    </row>
+    <row r="1105" spans="15:15">
+      <c r="O1105" s="6"/>
+    </row>
+    <row r="1106" spans="15:15">
+      <c r="O1106" s="6"/>
+    </row>
+    <row r="1107" spans="15:15">
+      <c r="O1107" s="6"/>
+    </row>
+    <row r="1108" spans="15:15">
+      <c r="O1108" s="6"/>
+    </row>
+    <row r="1109" spans="15:15">
+      <c r="O1109" s="6"/>
+    </row>
+    <row r="1110" spans="15:15">
+      <c r="O1110" s="6"/>
+    </row>
+    <row r="1111" spans="15:15">
+      <c r="O1111" s="6"/>
+    </row>
+    <row r="1112" spans="15:15">
+      <c r="O1112" s="6"/>
+    </row>
+    <row r="1113" spans="15:15">
+      <c r="O1113" s="6"/>
+    </row>
+    <row r="1114" spans="15:15">
+      <c r="O1114" s="6"/>
+    </row>
+    <row r="1115" spans="15:15">
+      <c r="O1115" s="6"/>
+    </row>
+    <row r="1116" spans="15:15">
+      <c r="O1116" s="6"/>
+    </row>
+    <row r="1117" spans="15:15">
+      <c r="O1117" s="6"/>
+    </row>
+    <row r="1118" spans="15:15">
+      <c r="O1118" s="6"/>
+    </row>
+    <row r="1119" spans="15:15">
+      <c r="O1119" s="6"/>
+    </row>
+    <row r="1120" spans="15:15">
+      <c r="O1120" s="6"/>
+    </row>
+    <row r="1121" spans="15:15">
+      <c r="O1121" s="6"/>
+    </row>
+    <row r="1122" spans="15:15">
+      <c r="O1122" s="6"/>
+    </row>
+    <row r="1123" spans="15:15">
+      <c r="O1123" s="6"/>
+    </row>
+    <row r="1124" spans="15:15">
+      <c r="O1124" s="6"/>
+    </row>
+    <row r="1125" spans="15:15">
+      <c r="O1125" s="6"/>
+    </row>
+    <row r="1126" spans="15:15">
+      <c r="O1126" s="6"/>
+    </row>
+    <row r="1127" spans="15:15">
+      <c r="O1127" s="6"/>
+    </row>
+    <row r="1128" spans="15:15">
+      <c r="O1128" s="6"/>
+    </row>
+    <row r="1129" spans="15:15">
+      <c r="O1129" s="6"/>
+    </row>
+    <row r="1130" spans="15:15">
+      <c r="O1130" s="6"/>
+    </row>
+    <row r="1131" spans="15:15">
+      <c r="O1131" s="6"/>
+    </row>
+    <row r="1132" spans="15:15">
+      <c r="O1132" s="6"/>
+    </row>
+    <row r="1133" spans="15:15">
+      <c r="O1133" s="6"/>
+    </row>
+    <row r="1134" spans="15:15">
+      <c r="O1134" s="6"/>
+    </row>
+    <row r="1135" spans="15:15">
+      <c r="O1135" s="6"/>
+    </row>
+    <row r="1136" spans="15:15">
+      <c r="O1136" s="6"/>
+    </row>
+    <row r="1137" spans="15:15">
+      <c r="O1137" s="6"/>
+    </row>
+    <row r="1138" spans="15:15">
+      <c r="O1138" s="6"/>
+    </row>
+    <row r="1139" spans="15:15">
+      <c r="O1139" s="6"/>
+    </row>
+    <row r="1140" spans="15:15">
+      <c r="O1140" s="6"/>
+    </row>
+    <row r="1141" spans="15:15">
+      <c r="O1141" s="6"/>
+    </row>
+    <row r="1142" spans="15:15">
+      <c r="O1142" s="6"/>
+    </row>
+    <row r="1143" spans="15:15">
+      <c r="O1143" s="6"/>
+    </row>
+    <row r="1144" spans="15:15">
+      <c r="O1144" s="6"/>
+    </row>
+    <row r="1145" spans="15:15">
+      <c r="O1145" s="6"/>
+    </row>
+    <row r="1146" spans="15:15">
+      <c r="O1146" s="6"/>
+    </row>
+    <row r="1147" spans="15:15">
+      <c r="O1147" s="6"/>
+    </row>
+    <row r="1148" spans="15:15">
+      <c r="O1148" s="6"/>
+    </row>
+    <row r="1149" spans="15:15">
+      <c r="O1149" s="6"/>
+    </row>
+    <row r="1150" spans="15:15">
+      <c r="O1150" s="6"/>
+    </row>
+    <row r="1151" spans="15:15">
+      <c r="O1151" s="6"/>
+    </row>
+    <row r="1152" spans="15:15">
+      <c r="O1152" s="6"/>
+    </row>
+    <row r="1153" spans="15:15">
+      <c r="O1153" s="6"/>
+    </row>
+    <row r="1154" spans="15:15">
+      <c r="O1154" s="6"/>
+    </row>
+    <row r="1155" spans="15:15">
+      <c r="O1155" s="6"/>
+    </row>
+    <row r="1156" spans="15:15">
+      <c r="O1156" s="6"/>
+    </row>
+    <row r="1157" spans="15:15">
+      <c r="O1157" s="6"/>
+    </row>
+    <row r="1158" spans="15:15">
+      <c r="O1158" s="6"/>
+    </row>
+    <row r="1159" spans="15:15">
+      <c r="O1159" s="6"/>
+    </row>
+    <row r="1160" spans="15:15">
+      <c r="O1160" s="6"/>
+    </row>
+    <row r="1161" spans="15:15">
+      <c r="O1161" s="6"/>
+    </row>
+    <row r="1162" spans="15:15">
+      <c r="O1162" s="6"/>
+    </row>
+    <row r="1163" spans="15:15">
+      <c r="O1163" s="6"/>
+    </row>
+    <row r="1164" spans="15:15">
+      <c r="O1164" s="6"/>
+    </row>
+    <row r="1165" spans="15:15">
+      <c r="O1165" s="6"/>
+    </row>
+    <row r="1166" spans="15:15">
+      <c r="O1166" s="6"/>
+    </row>
+    <row r="1167" spans="15:15">
+      <c r="O1167" s="6"/>
+    </row>
+    <row r="1168" spans="15:15">
+      <c r="O1168" s="6"/>
+    </row>
+    <row r="1169" spans="15:15">
+      <c r="O1169" s="6"/>
+    </row>
+    <row r="1170" spans="15:15">
+      <c r="O1170" s="6"/>
+    </row>
+    <row r="1171" spans="15:15">
+      <c r="O1171" s="6"/>
+    </row>
+    <row r="1172" spans="15:15">
+      <c r="O1172" s="6"/>
+    </row>
+    <row r="1173" spans="15:15">
+      <c r="O1173" s="6"/>
+    </row>
+    <row r="1174" spans="15:15">
+      <c r="O1174" s="6"/>
+    </row>
+    <row r="1175" spans="15:15">
+      <c r="O1175" s="6"/>
+    </row>
+    <row r="1176" spans="15:15">
+      <c r="O1176" s="6"/>
+    </row>
+    <row r="1177" spans="15:15">
+      <c r="O1177" s="6"/>
+    </row>
+    <row r="1178" spans="15:15">
+      <c r="O1178" s="6"/>
+    </row>
+    <row r="1179" spans="15:15">
+      <c r="O1179" s="6"/>
+    </row>
+    <row r="1180" spans="15:15">
+      <c r="O1180" s="6"/>
+    </row>
+    <row r="1181" spans="15:15">
+      <c r="O1181" s="6"/>
+    </row>
+    <row r="1182" spans="15:15">
+      <c r="O1182" s="6"/>
+    </row>
+    <row r="1183" spans="15:15">
+      <c r="O1183" s="6"/>
+    </row>
+    <row r="1184" spans="15:15">
+      <c r="O1184" s="6"/>
+    </row>
+    <row r="1185" spans="15:15">
+      <c r="O1185" s="6"/>
+    </row>
+    <row r="1186" spans="15:15">
+      <c r="O1186" s="6"/>
+    </row>
+    <row r="1187" spans="15:15">
+      <c r="O1187" s="6"/>
+    </row>
+    <row r="1188" spans="15:15">
+      <c r="O1188" s="6"/>
+    </row>
+    <row r="1189" spans="15:15">
+      <c r="O1189" s="6"/>
+    </row>
+    <row r="1190" spans="15:15">
+      <c r="O1190" s="6"/>
+    </row>
+    <row r="1191" spans="15:15">
+      <c r="O1191" s="6"/>
+    </row>
+    <row r="1192" spans="15:15">
+      <c r="O1192" s="6"/>
+    </row>
+    <row r="1193" spans="15:15">
+      <c r="O1193" s="6"/>
+    </row>
+    <row r="1194" spans="15:15">
+      <c r="O1194" s="6"/>
+    </row>
+    <row r="1195" spans="15:15">
+      <c r="O1195" s="6"/>
+    </row>
+    <row r="1196" spans="15:15">
+      <c r="O1196" s="6"/>
+    </row>
+    <row r="1197" spans="15:15">
+      <c r="O1197" s="6"/>
+    </row>
+    <row r="1198" spans="15:15">
+      <c r="O1198" s="6"/>
+    </row>
+    <row r="1199" spans="15:15">
+      <c r="O1199" s="6"/>
+    </row>
+    <row r="1200" spans="15:15">
+      <c r="O1200" s="6"/>
+    </row>
+    <row r="1201" spans="15:15">
+      <c r="O1201" s="6"/>
+    </row>
+    <row r="1202" spans="15:15">
+      <c r="O1202" s="6"/>
+    </row>
+    <row r="1203" spans="15:15">
+      <c r="O1203" s="6"/>
+    </row>
+    <row r="1204" spans="15:15">
+      <c r="O1204" s="6"/>
+    </row>
+    <row r="1205" spans="15:15">
+      <c r="O1205" s="6"/>
+    </row>
+    <row r="1206" spans="15:15">
+      <c r="O1206" s="6"/>
+    </row>
+    <row r="1207" spans="15:15">
+      <c r="O1207" s="6"/>
+    </row>
+    <row r="1208" spans="15:15">
+      <c r="O1208" s="6"/>
+    </row>
+    <row r="1209" spans="15:15">
+      <c r="O1209" s="6"/>
+    </row>
+    <row r="1210" spans="15:15">
+      <c r="O1210" s="6"/>
+    </row>
+    <row r="1211" spans="15:15">
+      <c r="O1211" s="6"/>
+    </row>
+    <row r="1212" spans="15:15">
+      <c r="O1212" s="6"/>
+    </row>
+    <row r="1213" spans="15:15">
+      <c r="O1213" s="6"/>
+    </row>
+    <row r="1214" spans="15:15">
+      <c r="O1214" s="6"/>
+    </row>
+    <row r="1215" spans="15:15">
+      <c r="O1215" s="6"/>
+    </row>
+    <row r="1216" spans="15:15">
+      <c r="O1216" s="6"/>
+    </row>
+    <row r="1217" spans="15:15">
+      <c r="O1217" s="6"/>
+    </row>
+    <row r="1218" spans="15:15">
+      <c r="O1218" s="6"/>
+    </row>
+    <row r="1219" spans="15:15">
+      <c r="O1219" s="6"/>
+    </row>
+    <row r="1220" spans="15:15">
+      <c r="O1220" s="6"/>
+    </row>
+    <row r="1221" spans="15:15">
+      <c r="O1221" s="6"/>
+    </row>
+    <row r="1222" spans="15:15">
+      <c r="O1222" s="6"/>
+    </row>
+    <row r="1223" spans="15:15">
+      <c r="O1223" s="6"/>
+    </row>
+    <row r="1224" spans="15:15">
+      <c r="O1224" s="6"/>
+    </row>
+    <row r="1225" spans="15:15">
+      <c r="O1225" s="6"/>
+    </row>
+    <row r="1226" spans="15:15">
+      <c r="O1226" s="6"/>
+    </row>
+    <row r="1227" spans="15:15">
+      <c r="O1227" s="6"/>
+    </row>
+    <row r="1228" spans="15:15">
+      <c r="O1228" s="6"/>
+    </row>
+    <row r="1229" spans="15:15">
+      <c r="O1229" s="6"/>
+    </row>
+    <row r="1230" spans="15:15">
+      <c r="O1230" s="6"/>
+    </row>
+    <row r="1231" spans="15:15">
+      <c r="O1231" s="6"/>
+    </row>
+    <row r="1232" spans="15:15">
+      <c r="O1232" s="6"/>
+    </row>
+    <row r="1233" spans="15:15">
+      <c r="O1233" s="6"/>
+    </row>
+    <row r="1234" spans="15:15">
+      <c r="O1234" s="6"/>
+    </row>
+    <row r="1235" spans="15:15">
+      <c r="O1235" s="6"/>
+    </row>
+    <row r="1236" spans="15:15">
+      <c r="O1236" s="6"/>
+    </row>
+    <row r="1237" spans="15:15">
+      <c r="O1237" s="6"/>
+    </row>
+    <row r="1238" spans="15:15">
+      <c r="O1238" s="6"/>
+    </row>
+    <row r="1239" spans="15:15">
+      <c r="O1239" s="6"/>
+    </row>
+    <row r="1240" spans="15:15">
+      <c r="O1240" s="6"/>
+    </row>
+    <row r="1241" spans="15:15">
+      <c r="O1241" s="6"/>
+    </row>
+    <row r="1242" spans="15:15">
+      <c r="O1242" s="6"/>
+    </row>
+    <row r="1243" spans="15:15">
+      <c r="O1243" s="6"/>
+    </row>
+    <row r="1244" spans="15:15">
+      <c r="O1244" s="6"/>
+    </row>
+    <row r="1245" spans="15:15">
+      <c r="O1245" s="6"/>
+    </row>
+    <row r="1246" spans="15:15">
+      <c r="O1246" s="6"/>
+    </row>
+    <row r="1247" spans="15:15">
+      <c r="O1247" s="6"/>
+    </row>
+    <row r="1248" spans="15:15">
+      <c r="O1248" s="6"/>
+    </row>
+    <row r="1249" spans="15:15">
+      <c r="O1249" s="6"/>
+    </row>
+    <row r="1250" spans="15:15">
+      <c r="O1250" s="6"/>
+    </row>
+    <row r="1251" spans="15:15">
+      <c r="O1251" s="6"/>
+    </row>
+    <row r="1252" spans="15:15">
+      <c r="O1252" s="6"/>
+    </row>
+    <row r="1253" spans="15:15">
+      <c r="O1253" s="6"/>
+    </row>
+    <row r="1254" spans="15:15">
+      <c r="O1254" s="6"/>
+    </row>
+    <row r="1255" spans="15:15">
+      <c r="O1255" s="6"/>
+    </row>
+    <row r="1256" spans="15:15">
+      <c r="O1256" s="6"/>
+    </row>
+    <row r="1257" spans="15:15">
+      <c r="O1257" s="6"/>
+    </row>
+    <row r="1258" spans="15:15">
+      <c r="O1258" s="6"/>
+    </row>
+    <row r="1259" spans="15:15">
+      <c r="O1259" s="6"/>
+    </row>
+    <row r="1260" spans="15:15">
+      <c r="O1260" s="6"/>
+    </row>
+    <row r="1261" spans="15:15">
+      <c r="O1261" s="6"/>
+    </row>
+    <row r="1262" spans="15:15">
+      <c r="O1262" s="6"/>
+    </row>
+    <row r="1263" spans="15:15">
+      <c r="O1263" s="6"/>
+    </row>
+    <row r="1264" spans="15:15">
+      <c r="O1264" s="6"/>
+    </row>
+    <row r="1265" spans="15:15">
+      <c r="O1265" s="6"/>
+    </row>
+    <row r="1266" spans="15:15">
+      <c r="O1266" s="6"/>
+    </row>
+    <row r="1267" spans="15:15">
+      <c r="O1267" s="6"/>
+    </row>
+    <row r="1268" spans="15:15">
+      <c r="O1268" s="6"/>
+    </row>
+    <row r="1269" spans="15:15">
+      <c r="O1269" s="6"/>
+    </row>
+    <row r="1270" spans="15:15">
+      <c r="O1270" s="6"/>
+    </row>
+    <row r="1271" spans="15:15">
+      <c r="O1271" s="6"/>
+    </row>
+    <row r="1272" spans="15:15">
+      <c r="O1272" s="6"/>
+    </row>
+    <row r="1273" spans="15:15">
+      <c r="O1273" s="6"/>
+    </row>
+    <row r="1274" spans="15:15">
+      <c r="O1274" s="6"/>
+    </row>
+    <row r="1275" spans="15:15">
+      <c r="O1275" s="6"/>
+    </row>
+    <row r="1276" spans="15:15">
+      <c r="O1276" s="6"/>
+    </row>
+    <row r="1277" spans="15:15">
+      <c r="O1277" s="6"/>
+    </row>
+    <row r="1278" spans="15:15">
+      <c r="O1278" s="6"/>
+    </row>
+    <row r="1279" spans="15:15">
+      <c r="O1279" s="6"/>
+    </row>
+    <row r="1280" spans="15:15">
+      <c r="O1280" s="6"/>
+    </row>
+    <row r="1281" spans="15:15">
+      <c r="O1281" s="6"/>
+    </row>
+    <row r="1282" spans="15:15">
+      <c r="O1282" s="6"/>
+    </row>
+    <row r="1283" spans="15:15">
+      <c r="O1283" s="6"/>
+    </row>
+    <row r="1284" spans="15:15">
+      <c r="O1284" s="6"/>
+    </row>
+    <row r="1285" spans="15:15">
+      <c r="O1285" s="6"/>
+    </row>
+    <row r="1286" spans="15:15">
+      <c r="O1286" s="6"/>
+    </row>
+    <row r="1287" spans="15:15">
+      <c r="O1287" s="6"/>
+    </row>
+    <row r="1288" spans="15:15">
+      <c r="O1288" s="6"/>
+    </row>
+    <row r="1289" spans="15:15">
+      <c r="O1289" s="6"/>
+    </row>
+    <row r="1290" spans="15:15">
+      <c r="O1290" s="6"/>
+    </row>
+    <row r="1291" spans="15:15">
+      <c r="O1291" s="6"/>
+    </row>
+    <row r="1292" spans="15:15">
+      <c r="O1292" s="6"/>
+    </row>
+    <row r="1293" spans="15:15">
+      <c r="O1293" s="6"/>
+    </row>
+    <row r="1294" spans="15:15">
+      <c r="O1294" s="6"/>
+    </row>
+    <row r="1295" spans="15:15">
+      <c r="O1295" s="6"/>
+    </row>
+    <row r="1296" spans="15:15">
+      <c r="O1296" s="6"/>
+    </row>
+    <row r="1297" spans="15:15">
+      <c r="O1297" s="6"/>
+    </row>
+    <row r="1298" spans="15:15">
+      <c r="O1298" s="6"/>
+    </row>
+    <row r="1299" spans="15:15">
+      <c r="O1299" s="6"/>
+    </row>
+    <row r="1300" spans="15:15">
+      <c r="O1300" s="6"/>
+    </row>
+    <row r="1301" spans="15:15">
+      <c r="O1301" s="6"/>
+    </row>
+    <row r="1302" spans="15:15">
+      <c r="O1302" s="6"/>
+    </row>
+    <row r="1303" spans="15:15">
+      <c r="O1303" s="6"/>
+    </row>
+    <row r="1304" spans="15:15">
+      <c r="O1304" s="6"/>
+    </row>
+    <row r="1305" spans="15:15">
+      <c r="O1305" s="6"/>
+    </row>
+    <row r="1306" spans="15:15">
+      <c r="O1306" s="6"/>
+    </row>
+    <row r="1307" spans="15:15">
+      <c r="O1307" s="6"/>
+    </row>
+    <row r="1308" spans="15:15">
+      <c r="O1308" s="6"/>
+    </row>
+    <row r="1309" spans="15:15">
+      <c r="O1309" s="6"/>
+    </row>
+    <row r="1310" spans="15:15">
+      <c r="O1310" s="6"/>
+    </row>
+    <row r="1311" spans="15:15">
+      <c r="O1311" s="6"/>
+    </row>
+    <row r="1312" spans="15:15">
+      <c r="O1312" s="6"/>
+    </row>
+    <row r="1313" spans="15:15">
+      <c r="O1313" s="6"/>
+    </row>
+    <row r="1314" spans="15:15">
+      <c r="O1314" s="6"/>
+    </row>
+    <row r="1315" spans="15:15">
+      <c r="O1315" s="6"/>
+    </row>
+    <row r="1316" spans="15:15">
+      <c r="O1316" s="6"/>
+    </row>
+    <row r="1317" spans="15:15">
+      <c r="O1317" s="6"/>
+    </row>
+    <row r="1318" spans="15:15">
+      <c r="O1318" s="6"/>
+    </row>
+    <row r="1319" spans="15:15">
+      <c r="O1319" s="6"/>
+    </row>
+    <row r="1320" spans="15:15">
+      <c r="O1320" s="6"/>
+    </row>
+    <row r="1321" spans="15:15">
+      <c r="O1321" s="6"/>
+    </row>
+    <row r="1322" spans="15:15">
+      <c r="O1322" s="6"/>
+    </row>
+    <row r="1323" spans="15:15">
+      <c r="O1323" s="6"/>
+    </row>
+    <row r="1324" spans="15:15">
+      <c r="O1324" s="6"/>
+    </row>
+    <row r="1325" spans="15:15">
+      <c r="O1325" s="6"/>
+    </row>
+    <row r="1326" spans="15:15">
+      <c r="O1326" s="6"/>
+    </row>
+    <row r="1327" spans="15:15">
+      <c r="O1327" s="6"/>
+    </row>
+    <row r="1328" spans="15:15">
+      <c r="O1328" s="6"/>
+    </row>
+    <row r="1329" spans="15:15">
+      <c r="O1329" s="6"/>
+    </row>
+    <row r="1330" spans="15:15">
+      <c r="O1330" s="6"/>
+    </row>
+    <row r="1331" spans="15:15">
+      <c r="O1331" s="6"/>
+    </row>
+    <row r="1332" spans="15:15">
+      <c r="O1332" s="6"/>
+    </row>
+    <row r="1333" spans="15:15">
+      <c r="O1333" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="O1:O1035" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="O1:O1036" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs-Beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FBEA787-6BB6-4F41-934E-AFEE9A743F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6946E9-DDE5-4C3C-AD0C-4F937F2E32E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1710" yWindow="4095" windowWidth="21600" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="296">
   <si>
     <t>English</t>
   </si>
@@ -1003,7 +1003,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>制作人员</t>
+    <t>English</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>模组贡献者</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1612,8 +1616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="14.25"/>
@@ -1628,8 +1632,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
-      <c r="B1" s="6" t="s">
-        <v>0</v>
+      <c r="B1" s="12" t="s">
+        <v>294</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -1681,7 +1685,7 @@
       <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="12" t="s">
         <v>181</v>
       </c>
       <c r="M2" s="6" t="s">
@@ -1695,7 +1699,7 @@
       <c r="A3" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="12" t="s">
         <v>182</v>
       </c>
       <c r="O3" s="12" t="s">
@@ -1706,7 +1710,7 @@
       <c r="A4" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="12" t="s">
         <v>276</v>
       </c>
       <c r="O4" s="12" t="s">
@@ -1765,7 +1769,7 @@
         <v>293</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="71.25">
@@ -1805,7 +1809,7 @@
       <c r="A13" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="12" t="s">
         <v>278</v>
       </c>
       <c r="O13" s="6" t="s">

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs-Beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6946E9-DDE5-4C3C-AD0C-4F937F2E32E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF0A448-ACD8-43EF-B1DC-C7936631C900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1710" yWindow="4095" windowWidth="21600" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5220" yWindow="3255" windowWidth="21600" windowHeight="11835" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="330">
   <si>
     <t>English</t>
   </si>
@@ -259,9 +259,6 @@
     <t>隐蔽</t>
   </si>
   <si>
-    <t>CleanText</t>
-  </si>
-  <si>
     <t>清理</t>
   </si>
   <si>
@@ -271,36 +268,15 @@
     <t>封锁</t>
   </si>
   <si>
-    <t>CurseText</t>
-  </si>
-  <si>
-    <t>诅咒</t>
-  </si>
-  <si>
-    <t>CurseKillText</t>
-  </si>
-  <si>
     <t>咒杀</t>
   </si>
   <si>
-    <t>DouseText</t>
-  </si>
-  <si>
     <t>浇油</t>
   </si>
   <si>
-    <t>EraserText</t>
-  </si>
-  <si>
     <t>抹除</t>
   </si>
   <si>
-    <t>GarlicText</t>
-  </si>
-  <si>
-    <t>大蒜</t>
-  </si>
-  <si>
     <t>HackerText</t>
   </si>
   <si>
@@ -337,12 +313,6 @@
     <t>安装</t>
   </si>
   <si>
-    <t>PlaceJackInTheBoxText</t>
-  </si>
-  <si>
-    <t>放置</t>
-  </si>
-  <si>
     <t>RepairText</t>
   </si>
   <si>
@@ -355,9 +325,6 @@
     <t>回溯</t>
   </si>
   <si>
-    <t>SampleText</t>
-  </si>
-  <si>
     <t>取样</t>
   </si>
   <si>
@@ -367,15 +334,9 @@
     <t>揭示</t>
   </si>
   <si>
-    <t>ShieldText</t>
-  </si>
-  <si>
     <t>护盾</t>
   </si>
   <si>
-    <t>ShiftText</t>
-  </si>
-  <si>
     <t>SidekickText</t>
   </si>
   <si>
@@ -400,15 +361,9 @@
     <t>骗术盒子</t>
   </si>
   <si>
-    <t>VampireText</t>
-  </si>
-  <si>
     <t>吸血</t>
   </si>
   <si>
-    <t>VultureText</t>
-  </si>
-  <si>
     <t>吞噬</t>
   </si>
   <si>
@@ -424,33 +379,15 @@
     <t>寻找</t>
   </si>
   <si>
-    <t>PursuerText</t>
-  </si>
-  <si>
     <t>空包弹</t>
   </si>
   <si>
-    <t>WitchText</t>
-  </si>
-  <si>
-    <t>下咒</t>
-  </si>
-  <si>
-    <t>NinjaText</t>
-  </si>
-  <si>
-    <t>隐身</t>
-  </si>
-  <si>
     <t>NinjaUnstealthText</t>
   </si>
   <si>
     <t>解除</t>
   </si>
   <si>
-    <t>HandcuffText</t>
-  </si>
-  <si>
     <t>PlacePortalText</t>
   </si>
   <si>
@@ -478,9 +415,6 @@
     <t>PlaceTrapText</t>
   </si>
   <si>
-    <t>BrainwashText</t>
-  </si>
-  <si>
     <t>洗脑</t>
   </si>
   <si>
@@ -502,9 +436,6 @@
     <t>引爆</t>
   </si>
   <si>
-    <t>DragBodyText</t>
-  </si>
-  <si>
     <t>拖拽</t>
   </si>
   <si>
@@ -520,15 +451,9 @@
     <t>调查</t>
   </si>
   <si>
-    <t>AkujoHonmeiText</t>
-  </si>
-  <si>
     <t>选为真爱</t>
   </si>
   <si>
-    <t>AkujoBackupText</t>
-  </si>
-  <si>
     <t>选为备胎</t>
   </si>
   <si>
@@ -542,24 +467,6 @@
   </si>
   <si>
     <t>停下</t>
-  </si>
-  <si>
-    <t>TeleporterSampleText</t>
-  </si>
-  <si>
-    <t>选择对象</t>
-  </si>
-  <si>
-    <t>TeleporterTeleportText</t>
-  </si>
-  <si>
-    <t>CupidArrowText</t>
-  </si>
-  <si>
-    <t>爱之箭</t>
-  </si>
-  <si>
-    <t>BlackmailerText</t>
   </si>
   <si>
     <t>勒索</t>
@@ -1008,6 +915,266 @@
   </si>
   <si>
     <t>模组贡献者</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装星门</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceJackInTheBoxText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jackalSidekickText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>killButtonText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VampireText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>HandcuffText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShieldText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>doomsayerText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>揭示</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AkujoHonmeiText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AkujoBackupText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShiftText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SampleText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>hackerVitalText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命检测仪</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>hackerDoorLogText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bodyGuardText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>观察</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrivateInvestigatorWatchText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GarlicText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>放置大蒜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>usePortalText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwoopText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐身</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurseText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EraserText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点灯</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CleanText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DragBodyText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VultureText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RememberText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>回忆</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>监控</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CamButtonText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DouseText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PursuerText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>WitchText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>诅咒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">下咒 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurseKillText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>标记/传送</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jumperText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jumperJumpText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NinjaText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺杀</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlackmailerText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MayorButtonText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急会议</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConvertText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>放置陷阱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>trapperTrapText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TerroristBombText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>放置炸弹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdminMapText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理地图</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LighterText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>hackerButtonText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑入</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1616,7 +1783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
@@ -1633,7 +1800,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="B1" s="12" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -1686,7 +1853,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>17</v>
@@ -1697,79 +1864,79 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="6" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="6" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="28.5">
       <c r="A5" s="6" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="6" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="6" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="6" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="12" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="71.25">
@@ -1777,43 +1944,43 @@
         <v>19</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="71.25">
       <c r="A11" s="6" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="28.5">
       <c r="A12" s="6" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="6" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -5881,13 +6048,13 @@
         <v>25</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="O2" s="5" t="s">
         <v>26</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="14.25">
@@ -5898,13 +6065,13 @@
         <v>28</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="14.25">
@@ -5915,13 +6082,13 @@
         <v>30</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="14.25">
@@ -5932,13 +6099,13 @@
         <v>32</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="O5" s="5" t="s">
         <v>33</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="14.25">
@@ -5949,13 +6116,13 @@
         <v>35</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="O6" s="5" t="s">
         <v>36</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="14.25">
@@ -5966,13 +6133,13 @@
         <v>38</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="O7" s="5" t="s">
         <v>39</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="14.25">
@@ -5983,13 +6150,13 @@
         <v>41</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="14.25">
@@ -6000,13 +6167,13 @@
         <v>43</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="O9" s="5" t="s">
         <v>44</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="14.25">
@@ -6017,13 +6184,13 @@
         <v>46</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="14.25">
@@ -6034,13 +6201,13 @@
         <v>48</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="O11" s="5" t="s">
         <v>49</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="14.25">
@@ -6051,13 +6218,13 @@
         <v>51</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="O12" s="5" t="s">
         <v>52</v>
       </c>
       <c r="P12" s="5" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="14.25">
@@ -6068,13 +6235,13 @@
         <v>54</v>
       </c>
       <c r="M13" s="5" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="O13" s="5" t="s">
         <v>55</v>
       </c>
       <c r="P13" s="5" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="14.25">
@@ -6085,13 +6252,13 @@
         <v>57</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>58</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="14.25">
@@ -6102,13 +6269,13 @@
         <v>60</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="O15" s="5" t="s">
         <v>61</v>
       </c>
       <c r="P15" s="5" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="14.25">
@@ -6119,13 +6286,13 @@
         <v>63</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="O16" s="5" t="s">
         <v>64</v>
       </c>
       <c r="P16" s="5" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="14.25">
@@ -6136,13 +6303,13 @@
         <v>66</v>
       </c>
       <c r="M17" s="5" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="O17" s="5" t="s">
         <v>67</v>
       </c>
       <c r="P17" s="5" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="14.25">
@@ -6153,166 +6320,166 @@
         <v>69</v>
       </c>
       <c r="M18" s="5" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="O18" s="5" t="s">
         <v>70</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="14.25">
       <c r="A19" s="5" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="P19" s="5" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="14.25">
       <c r="A20" s="5" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="P20" s="5" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="14.25">
       <c r="A21" s="5" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="M21" s="5" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="P21" s="5" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="14.25">
       <c r="A22" s="5" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="M22" s="5" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="P22" s="5" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="14.25">
       <c r="A23" s="5" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="M23" s="5" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="P23" s="5" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="14.25">
       <c r="A24" s="5" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="M24" s="5" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="P24" s="5" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="14.25">
       <c r="A25" s="5" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="14.25">
       <c r="A26" s="5" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="M26" s="5" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="P26" s="5" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="14.25">
       <c r="A27" s="5" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="M27" s="5" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="P27" s="5" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -6324,28 +6491,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:Q74"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="O61" sqref="O61"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P78" sqref="P78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.625" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.875" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.25" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="6.25" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="7.125" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="6.875" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="6.375" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="9" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="7.75" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.75" style="1"/>
     <col min="17" max="17" width="4.75" style="1" bestFit="1" customWidth="1"/>
@@ -6430,7 +6597,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>73</v>
+        <v>298</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>21</v>
@@ -6448,14 +6615,14 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>21</v>
@@ -6473,14 +6640,14 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>295</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>21</v>
@@ -6498,14 +6665,14 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="3" t="s">
-        <v>78</v>
+        <v>309</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
-        <v>79</v>
+        <v>310</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>21</v>
@@ -6523,14 +6690,14 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2" t="s">
-        <v>81</v>
+        <v>305</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
@@ -6548,14 +6715,14 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2" t="s">
-        <v>83</v>
+        <v>296</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
@@ -6573,14 +6740,14 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2" t="s">
-        <v>85</v>
+        <v>288</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>21</v>
@@ -6598,14 +6765,14 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="3" t="s">
-        <v>86</v>
+        <v>289</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>21</v>
@@ -6623,14 +6790,14 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>21</v>
@@ -6648,14 +6815,14 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="3" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>21</v>
@@ -6673,14 +6840,16 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="3" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
+      <c r="Q12" s="2" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>21</v>
@@ -6698,14 +6867,14 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="3" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>21</v>
@@ -6723,14 +6892,14 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>21</v>
@@ -6748,14 +6917,14 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="3" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2" t="s">
-        <v>99</v>
+        <v>266</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>21</v>
@@ -6773,14 +6942,14 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="3" t="s">
-        <v>100</v>
+        <v>265</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>21</v>
@@ -6798,14 +6967,14 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="3" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>21</v>
@@ -6823,14 +6992,14 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="3" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2" t="s">
-        <v>105</v>
+        <v>279</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>21</v>
@@ -6848,14 +7017,14 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="3" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>21</v>
@@ -6873,14 +7042,14 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="3" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2" t="s">
-        <v>109</v>
+        <v>273</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>21</v>
@@ -6898,14 +7067,14 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="3" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2" t="s">
-        <v>111</v>
+        <v>278</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>21</v>
@@ -6930,7 +7099,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>21</v>
@@ -6948,14 +7117,14 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="3" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>21</v>
@@ -6973,14 +7142,14 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="3" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>21</v>
@@ -6998,14 +7167,14 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="3" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>21</v>
@@ -7023,14 +7192,14 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="3" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2" t="s">
-        <v>120</v>
+        <v>271</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>21</v>
@@ -7048,14 +7217,14 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="3" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2" t="s">
-        <v>122</v>
+        <v>300</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>21</v>
@@ -7073,14 +7242,14 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="3" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>21</v>
@@ -7098,14 +7267,14 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="3" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>21</v>
@@ -7123,14 +7292,14 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="3" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2" t="s">
-        <v>128</v>
+        <v>306</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>21</v>
@@ -7148,14 +7317,14 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="3" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2" t="s">
-        <v>130</v>
+        <v>307</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>21</v>
@@ -7173,14 +7342,14 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="3" t="s">
-        <v>131</v>
+        <v>308</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2" t="s">
-        <v>132</v>
+        <v>315</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>21</v>
@@ -7198,14 +7367,14 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="3" t="s">
-        <v>133</v>
+        <v>316</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>21</v>
@@ -7223,58 +7392,58 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="3" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="1" t="s">
-        <v>136</v>
+        <v>272</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="1" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="1" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="1" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="1" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>21</v>
@@ -7285,7 +7454,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="1" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>21</v>
@@ -7296,200 +7465,379 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="1" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="1" t="s">
-        <v>146</v>
+        <v>320</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="1" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="1" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="1" t="s">
-        <v>154</v>
+        <v>299</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="1" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="1" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="1" t="s">
-        <v>160</v>
+        <v>276</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
-        <v>162</v>
+        <v>277</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="1" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>165</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
-        <v>166</v>
+        <v>141</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
-        <v>168</v>
+        <v>313</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>169</v>
+        <v>311</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
-        <v>170</v>
+        <v>314</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>140</v>
+        <v>312</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="1" t="s">
-        <v>171</v>
+        <v>317</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="1" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>174</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
-        <v>175</v>
+        <v>253</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O57" s="1" t="s">
-        <v>108</v>
+      <c r="O57" s="5" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="5" t="s">
-        <v>284</v>
+      <c r="A58" s="1" t="s">
+        <v>267</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O58" s="5" t="s">
+      <c r="O58" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O59" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O61" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O62" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O63" s="1" t="s">
         <v>285</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O64" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O65" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O66" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O67" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17">
+      <c r="A70" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O70" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
+      <c r="A71" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O71" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17">
+      <c r="A72" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O72" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17">
+      <c r="A73" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O73" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17">
+      <c r="A74" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs-Beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF0A448-ACD8-43EF-B1DC-C7936631C900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3D0F13-FAE6-493C-9C5D-EAEB7D74F32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5220" yWindow="3255" windowWidth="21600" windowHeight="11835" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="332">
   <si>
     <t>English</t>
   </si>
@@ -1175,6 +1175,13 @@
   </si>
   <si>
     <t>黑入</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>defuseBombText</t>
+  </si>
+  <si>
+    <t>拆弹</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -6491,10 +6498,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q74"/>
+  <dimension ref="A1:Q75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P78" sqref="P78"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O75" sqref="O75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -7840,6 +7847,17 @@
         <v>329</v>
       </c>
     </row>
+    <row r="75" spans="1:17">
+      <c r="A75" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs-Beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3D0F13-FAE6-493C-9C5D-EAEB7D74F32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA6D7DB-06C5-4528-91C3-6C85B76108AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="3255" windowWidth="21600" windowHeight="11835" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5220" yWindow="3255" windowWidth="21600" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="284">
   <si>
     <t>English</t>
   </si>
@@ -328,9 +328,6 @@
     <t>取样</t>
   </si>
   <si>
-    <t>SeerText</t>
-  </si>
-  <si>
     <t>揭示</t>
   </si>
   <si>
@@ -343,9 +340,6 @@
     <t>招募</t>
   </si>
   <si>
-    <t>TimeShieldText</t>
-  </si>
-  <si>
     <t>时间之盾</t>
   </si>
   <si>
@@ -418,9 +412,6 @@
     <t>洗脑</t>
   </si>
   <si>
-    <t>AlertText</t>
-  </si>
-  <si>
     <t>警戒</t>
   </si>
   <si>
@@ -648,156 +639,6 @@
   </si>
   <si>
     <t>枣红</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ボルドー</t>
-  </si>
-  <si>
-    <t>オリーブ</t>
-  </si>
-  <si>
-    <t>ミント</t>
-  </si>
-  <si>
-    <t>ラベンダー</t>
-  </si>
-  <si>
-    <t>ヌガー</t>
-  </si>
-  <si>
-    <t>ピーチ</t>
-  </si>
-  <si>
-    <t>ワサビ色</t>
-  </si>
-  <si>
-    <t>ホットピンク</t>
-  </si>
-  <si>
-    <t>ペトロールブルー</t>
-  </si>
-  <si>
-    <t>レモン色</t>
-  </si>
-  <si>
-    <t>シグナルオレンジ</t>
-  </si>
-  <si>
-    <t>ティール</t>
-  </si>
-  <si>
-    <t>ブラープル</t>
-  </si>
-  <si>
-    <t>日の出</t>
-  </si>
-  <si>
-    <t>アイスカラー</t>
-  </si>
-  <si>
-    <t>アーミーグリーン</t>
-  </si>
-  <si>
-    <t>タマリンド</t>
-  </si>
-  <si>
-    <t>フクシャ</t>
-  </si>
-  <si>
-    <t>スライムグリーン</t>
-  </si>
-  <si>
-    <t>ロイヤルグリーン</t>
-  </si>
-  <si>
-    <t>ネイビー</t>
-  </si>
-  <si>
-    <t>ダークネス</t>
-  </si>
-  <si>
-    <t>オーシャンブルー</t>
-  </si>
-  <si>
-    <t>サンダウン</t>
-  </si>
-  <si>
-    <t>サーモンピンク</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>鮭魚色</t>
-  </si>
-  <si>
-    <t>橄欖綠</t>
-  </si>
-  <si>
-    <t>綠松石藍</t>
-  </si>
-  <si>
-    <t>薄荷綠</t>
-  </si>
-  <si>
-    <t>牛軋糖色</t>
-  </si>
-  <si>
-    <t>桃紅</t>
-  </si>
-  <si>
-    <t>山葵綠</t>
-  </si>
-  <si>
-    <t>熱粉紅</t>
-  </si>
-  <si>
-    <t>石油藍</t>
-  </si>
-  <si>
-    <t>檸檬黃</t>
-  </si>
-  <si>
-    <t>信號橙</t>
-  </si>
-  <si>
-    <t>水鴨綠</t>
-  </si>
-  <si>
-    <t>藍紫色</t>
-  </si>
-  <si>
-    <t>日出</t>
-  </si>
-  <si>
-    <t>冰色</t>
-  </si>
-  <si>
-    <t>軍綠色</t>
-  </si>
-  <si>
-    <t>紫紅色</t>
-  </si>
-  <si>
-    <t>黏液綠</t>
-  </si>
-  <si>
-    <t>皇家綠</t>
-  </si>
-  <si>
-    <t>海軍藍</t>
-  </si>
-  <si>
-    <t>海洋藍</t>
-  </si>
-  <si>
-    <t>日落橙</t>
-  </si>
-  <si>
-    <t>ターコイズ</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>薰衣草紫</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -853,14 +694,6 @@
   </si>
   <si>
     <t>罗望子</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>羅望子</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>波爾多</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1182,6 +1015,30 @@
   </si>
   <si>
     <t>拆弹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeShieldText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AlertText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SeerText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>buttonBarryText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisperseText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>分散</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1790,8 +1647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1333"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="14.25"/>
@@ -1799,7 +1656,7 @@
     <col min="1" max="1" width="40.375" style="6" customWidth="1"/>
     <col min="2" max="2" width="71.5" style="6" customWidth="1"/>
     <col min="3" max="12" width="7.875" style="6" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="53.375" style="6" customWidth="1"/>
+    <col min="13" max="13" width="53.375" style="6" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="0" style="6" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="69.25" style="7" customWidth="1"/>
     <col min="16" max="16384" width="7.875" style="6"/>
@@ -1807,7 +1664,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="B1" s="12" t="s">
-        <v>263</v>
+        <v>209</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -1860,7 +1717,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>17</v>
@@ -1871,79 +1728,79 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>260</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>245</v>
+        <v>193</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>259</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="28.5">
       <c r="A5" s="6" t="s">
-        <v>243</v>
+        <v>191</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>246</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="O7" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="12" t="s">
-        <v>261</v>
+        <v>207</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>262</v>
+        <v>208</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>264</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="71.25">
@@ -1951,43 +1808,43 @@
         <v>19</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>242</v>
+        <v>190</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>258</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="71.25">
       <c r="A11" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>239</v>
+        <v>187</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>257</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="28.5">
       <c r="A12" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="6" t="s">
-        <v>248</v>
+        <v>196</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>249</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -5972,25 +5829,25 @@
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="19.625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.125" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.25" style="5" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="5" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="5" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.25" style="5" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="5" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="7.125" style="5" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.375" style="5" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="7.875" style="5" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.875" style="5" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="7.125" style="5" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5" style="5" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="8.75" style="5" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="10" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.25" style="5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5.5" style="5" bestFit="1" customWidth="1"/>
@@ -6054,14 +5911,8 @@
       <c r="B2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>213</v>
-      </c>
       <c r="O2" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="14.25">
@@ -6071,14 +5922,8 @@
       <c r="B3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="5" t="s">
-        <v>189</v>
-      </c>
       <c r="O3" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>252</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="14.25">
@@ -6088,14 +5933,8 @@
       <c r="B4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="5" t="s">
-        <v>190</v>
-      </c>
       <c r="O4" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="14.25">
@@ -6105,14 +5944,8 @@
       <c r="B5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M5" s="5" t="s">
-        <v>236</v>
-      </c>
       <c r="O5" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="14.25">
@@ -6122,14 +5955,8 @@
       <c r="B6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>191</v>
-      </c>
       <c r="O6" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="14.25">
@@ -6139,14 +5966,8 @@
       <c r="B7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="5" t="s">
-        <v>192</v>
-      </c>
       <c r="O7" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="14.25">
@@ -6156,14 +5977,8 @@
       <c r="B8" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M8" s="5" t="s">
-        <v>193</v>
-      </c>
       <c r="O8" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>218</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="14.25">
@@ -6173,14 +5988,8 @@
       <c r="B9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="M9" s="5" t="s">
-        <v>194</v>
-      </c>
       <c r="O9" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="P9" s="5" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="14.25">
@@ -6190,14 +5999,8 @@
       <c r="B10" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="5" t="s">
-        <v>195</v>
-      </c>
       <c r="O10" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="14.25">
@@ -6207,14 +6010,8 @@
       <c r="B11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="M11" s="5" t="s">
-        <v>196</v>
-      </c>
       <c r="O11" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="P11" s="5" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="14.25">
@@ -6224,14 +6021,8 @@
       <c r="B12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="M12" s="5" t="s">
-        <v>197</v>
-      </c>
       <c r="O12" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="14.25">
@@ -6241,14 +6032,8 @@
       <c r="B13" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="M13" s="5" t="s">
-        <v>198</v>
-      </c>
       <c r="O13" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="14.25">
@@ -6258,14 +6043,8 @@
       <c r="B14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="M14" s="5" t="s">
-        <v>199</v>
-      </c>
       <c r="O14" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="14.25">
@@ -6275,14 +6054,8 @@
       <c r="B15" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="M15" s="5" t="s">
-        <v>200</v>
-      </c>
       <c r="O15" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="14.25">
@@ -6292,201 +6065,129 @@
       <c r="B16" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="M16" s="5" t="s">
-        <v>201</v>
-      </c>
       <c r="O16" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="P16" s="5" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="14.25">
+    </row>
+    <row r="17" spans="1:15" ht="14.25">
       <c r="A17" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="M17" s="5" t="s">
-        <v>202</v>
-      </c>
       <c r="O17" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="P17" s="5" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="14.25">
+    </row>
+    <row r="18" spans="1:15" ht="14.25">
       <c r="A18" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="M18" s="5" t="s">
-        <v>203</v>
-      </c>
       <c r="O18" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="P18" s="5" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="14.25">
+    </row>
+    <row r="19" spans="1:15" ht="14.25">
       <c r="A19" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="14.25">
+      <c r="A20" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="14.25">
+      <c r="A21" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="M19" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="O19" s="5" t="s">
+      <c r="O21" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="14.25">
+      <c r="A22" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="14.25">
+      <c r="A23" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="14.25">
+      <c r="A24" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="O24" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="P19" s="5" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="14.25">
-      <c r="A20" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="14.25">
-      <c r="A21" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="14.25">
-      <c r="A22" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="O22" s="5" t="s">
+    </row>
+    <row r="25" spans="1:15" ht="14.25">
+      <c r="A25" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="14.25">
+      <c r="A26" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="O26" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="P22" s="5" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" ht="14.25">
-      <c r="A23" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="P23" s="5" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" ht="14.25">
-      <c r="A24" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="O24" s="5" t="s">
+    </row>
+    <row r="27" spans="1:15" ht="14.25">
+      <c r="A27" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="O27" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="P24" s="5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" ht="14.25">
-      <c r="A25" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="O25" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="P25" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" ht="14.25">
-      <c r="A26" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="O26" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="P26" s="5" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="14.25">
-      <c r="A27" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="P27" s="5" t="s">
-        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -6498,10 +6199,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q75"/>
+  <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O75" sqref="O75"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -6604,7 +6305,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>21</v>
@@ -6654,7 +6355,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
-        <v>295</v>
+        <v>241</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>21</v>
@@ -6672,14 +6373,14 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="3" t="s">
-        <v>309</v>
+        <v>255</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
-        <v>310</v>
+        <v>256</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>21</v>
@@ -6704,7 +6405,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2" t="s">
-        <v>305</v>
+        <v>251</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
@@ -6729,7 +6430,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2" t="s">
-        <v>296</v>
+        <v>242</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
@@ -6754,7 +6455,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2" t="s">
-        <v>288</v>
+        <v>234</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>21</v>
@@ -6772,7 +6473,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="3" t="s">
-        <v>289</v>
+        <v>235</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -6851,7 +6552,7 @@
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2" t="s">
-        <v>290</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -6931,7 +6632,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2" t="s">
-        <v>266</v>
+        <v>212</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>21</v>
@@ -6949,7 +6650,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="3" t="s">
-        <v>265</v>
+        <v>211</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -7006,7 +6707,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2" t="s">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>21</v>
@@ -7031,7 +6732,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2" t="s">
-        <v>96</v>
+        <v>280</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>21</v>
@@ -7049,14 +6750,14 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2" t="s">
-        <v>273</v>
+        <v>219</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>21</v>
@@ -7074,14 +6775,14 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2" t="s">
-        <v>278</v>
+        <v>224</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>21</v>
@@ -7106,7 +6807,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>21</v>
@@ -7124,14 +6825,14 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2" t="s">
-        <v>101</v>
+        <v>278</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>21</v>
@@ -7149,14 +6850,14 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>21</v>
@@ -7174,14 +6875,14 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>21</v>
@@ -7199,14 +6900,14 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2" t="s">
-        <v>271</v>
+        <v>217</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>21</v>
@@ -7224,14 +6925,14 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>21</v>
@@ -7249,14 +6950,14 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>21</v>
@@ -7274,14 +6975,14 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>21</v>
@@ -7299,14 +7000,14 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2" t="s">
-        <v>306</v>
+        <v>252</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>21</v>
@@ -7324,14 +7025,14 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2" t="s">
-        <v>307</v>
+        <v>253</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>21</v>
@@ -7349,14 +7050,14 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="3" t="s">
-        <v>308</v>
+        <v>254</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2" t="s">
-        <v>315</v>
+        <v>261</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>21</v>
@@ -7374,14 +7075,14 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="3" t="s">
-        <v>316</v>
+        <v>262</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>21</v>
@@ -7399,58 +7100,58 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="1" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>255</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>21</v>
@@ -7461,7 +7162,7 @@
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>21</v>
@@ -7472,390 +7173,412 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>256</v>
+        <v>202</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="1" t="s">
-        <v>320</v>
+        <v>266</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O42" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
-        <v>126</v>
+        <v>279</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="1" t="s">
-        <v>299</v>
+        <v>245</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="1" t="s">
-        <v>276</v>
+        <v>222</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
-        <v>277</v>
+        <v>223</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
-        <v>313</v>
+        <v>259</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>311</v>
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
-        <v>314</v>
+        <v>260</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>312</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="1" t="s">
-        <v>317</v>
+        <v>263</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>254</v>
+        <v>200</v>
       </c>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="1" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>268</v>
+        <v>214</v>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
-        <v>269</v>
+        <v>215</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>270</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="1" t="s">
-        <v>274</v>
+        <v>220</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>275</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="1" t="s">
-        <v>280</v>
+        <v>226</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>281</v>
+        <v>227</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="1" t="s">
-        <v>282</v>
+        <v>228</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>283</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="1" t="s">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>285</v>
+        <v>231</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="1" t="s">
-        <v>287</v>
+        <v>233</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>286</v>
+        <v>232</v>
       </c>
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="1" t="s">
-        <v>292</v>
+        <v>238</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>291</v>
+        <v>237</v>
       </c>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="1" t="s">
-        <v>293</v>
+        <v>239</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="1" t="s">
-        <v>327</v>
+        <v>273</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>297</v>
+        <v>243</v>
       </c>
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="1" t="s">
-        <v>301</v>
+        <v>247</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>302</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="1" t="s">
-        <v>304</v>
+        <v>250</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>303</v>
+        <v>249</v>
       </c>
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="1" t="s">
-        <v>318</v>
+        <v>264</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>319</v>
+        <v>265</v>
       </c>
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="1" t="s">
-        <v>322</v>
+        <v>268</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>321</v>
+        <v>267</v>
       </c>
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="1" t="s">
-        <v>323</v>
+        <v>269</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>324</v>
+        <v>270</v>
       </c>
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="1" t="s">
-        <v>325</v>
+        <v>271</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>326</v>
+        <v>272</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>290</v>
+        <v>236</v>
       </c>
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="1" t="s">
-        <v>328</v>
+        <v>274</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>329</v>
+        <v>275</v>
       </c>
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="1" t="s">
-        <v>330</v>
+        <v>276</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>331</v>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17">
+      <c r="A76" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17">
+      <c r="A77" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs-Beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DA6D7DB-06C5-4528-91C3-6C85B76108AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D818B83-BC16-42AA-B62C-92833344DA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="3255" windowWidth="21600" windowHeight="11835" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="316">
   <si>
     <t>English</t>
   </si>
@@ -1039,6 +1039,111 @@
   </si>
   <si>
     <t>分散</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prophetMeetingButton</t>
+  </si>
+  <si>
+    <t>The Prophet can't start an emergency meeting</t>
+  </si>
+  <si>
+    <t>预言家不可以发起紧急会议</t>
+  </si>
+  <si>
+    <t>swapperMeetingButton</t>
+  </si>
+  <si>
+    <t>The Swapper can't start an emergency meeting</t>
+  </si>
+  <si>
+    <t>スワッパーはミーティングを招集できない</t>
+  </si>
+  <si>
+    <t>换票师不可以发起紧急会议</t>
+  </si>
+  <si>
+    <t>jesterMeetingButton</t>
+  </si>
+  <si>
+    <t>The Jester can't start an emergency meeting</t>
+  </si>
+  <si>
+    <t>ジェスターはミーティングを招集できない</t>
+  </si>
+  <si>
+    <t>小丑不可以发起紧急会议</t>
+  </si>
+  <si>
+    <t>lawyerMeetingButton</t>
+  </si>
+  <si>
+    <t>The Lawyer can't start an emergency meeting</t>
+  </si>
+  <si>
+    <t>弁護士はミーティングを招集できない</t>
+  </si>
+  <si>
+    <t>律师不可以发起紧急会议</t>
+  </si>
+  <si>
+    <t>fortuneTellerMeetingButton</t>
+  </si>
+  <si>
+    <t>The Fortune Teller can't start an emergency meeting</t>
+  </si>
+  <si>
+    <t>占卜师不可以发起紧急会议</t>
+  </si>
+  <si>
+    <t>ProsecutorMeetingButton</t>
+  </si>
+  <si>
+    <t>The Prosecutor can't start an emergency meeting</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>处刑者不可以发起紧急会议</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>meetingCount</t>
+  </si>
+  <si>
+    <t>{0} and the ship has {1}</t>
+  </si>
+  <si>
+    <t>{0}と船に{1}がいます</t>
+  </si>
+  <si>
+    <t>{0}次，全船剩余{1}次</t>
+  </si>
+  <si>
+    <t>放置</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TricksterPlaceText1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自爆</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TricksterPlaceText2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>YOU ARE BLACKMAILED</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlackmailShhhText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘘！不许说话！</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1128,7 +1233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1155,6 +1260,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1647,8 +1755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="14.25"/>
@@ -1837,71 +1945,241 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="6" t="s">
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B14" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="O13" s="6" t="s">
+      <c r="O14" s="6" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
-      <c r="O14" s="6"/>
-    </row>
     <row r="15" spans="1:17">
-      <c r="O15" s="6"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="O16" s="6"/>
-    </row>
-    <row r="17" spans="15:15">
-      <c r="O17" s="6"/>
-    </row>
-    <row r="18" spans="15:15">
-      <c r="O18" s="6"/>
-    </row>
-    <row r="19" spans="15:15">
-      <c r="O19" s="6"/>
-    </row>
-    <row r="20" spans="15:15">
-      <c r="O20" s="6"/>
-    </row>
-    <row r="21" spans="15:15">
-      <c r="O21" s="6"/>
-    </row>
-    <row r="22" spans="15:15">
+      <c r="A16" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="O22" s="6"/>
     </row>
-    <row r="23" spans="15:15">
-      <c r="O23" s="6"/>
-    </row>
-    <row r="24" spans="15:15">
+    <row r="23" spans="1:15">
+      <c r="A23" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="O24" s="6"/>
     </row>
-    <row r="25" spans="15:15">
-      <c r="O25" s="6"/>
-    </row>
-    <row r="26" spans="15:15">
+    <row r="25" spans="1:15">
+      <c r="A25" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="O25" s="12" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="O26" s="6"/>
     </row>
-    <row r="27" spans="15:15">
+    <row r="27" spans="1:15">
       <c r="O27" s="6"/>
     </row>
-    <row r="28" spans="15:15">
+    <row r="28" spans="1:15">
       <c r="O28" s="6"/>
     </row>
-    <row r="29" spans="15:15">
+    <row r="29" spans="1:15">
       <c r="O29" s="6"/>
     </row>
-    <row r="30" spans="15:15">
+    <row r="30" spans="1:15">
       <c r="O30" s="6"/>
     </row>
-    <row r="31" spans="15:15">
+    <row r="31" spans="1:15">
       <c r="O31" s="6"/>
     </row>
-    <row r="32" spans="15:15">
+    <row r="32" spans="1:15">
       <c r="O32" s="6"/>
     </row>
     <row r="33" spans="15:15">
@@ -6199,10 +6477,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q77"/>
+  <dimension ref="A1:S82"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -7581,6 +7859,44 @@
         <v>283</v>
       </c>
     </row>
+    <row r="78" spans="1:17">
+      <c r="A78" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17">
+      <c r="A79" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="82" spans="19:19">
+      <c r="S82" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs-Beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D818B83-BC16-42AA-B62C-92833344DA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A446AA3A-6B59-4D6D-BA75-166115F0D29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -713,437 +713,437 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;size=75%&gt;Mod修改：&lt;color=#FFB793&gt;沫夏悠轩&lt;/color&gt;&amp;&lt;color=#FCCE03FF&gt;善良的好人&lt;/color&gt;
-&lt;color=#FCCE03FF&gt;天寸梦初&lt;/color&gt;&amp;&lt;color=#FCCE03FF&gt;Imp11&lt;/color&gt;
+    <t xml:space="preserve">&lt;size=110%&gt;&lt;color=#ff351f&gt;我们的超多职业&lt;/color&gt;&lt;/size&gt; </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;size=130%&gt;&lt;color=#ff351f&gt;我们的超多职业&lt;/color&gt;&lt;/size&gt; </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Credits</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOU Credits</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>English</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>模组贡献者</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>安装星门</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceJackInTheBoxText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jackalSidekickText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>killButtonText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>击杀</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VampireText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>HandcuffText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShieldText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>doomsayerText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>揭示</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AkujoHonmeiText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AkujoBackupText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShiftText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SampleText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>hackerVitalText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命检测仪</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>hackerDoorLogText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>日志</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bodyGuardText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>观察</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrivateInvestigatorWatchText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GarlicText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>放置大蒜</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>usePortalText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SwoopText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐身</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurseText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EraserText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>点灯</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CleanText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DragBodyText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VultureText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RememberText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>回忆</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>监控</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CamButtonText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DouseText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PursuerText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>WitchText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>诅咒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">下咒 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CurseKillText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>标记/传送</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>传送</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jumperText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>jumperJumpText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NinjaText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺杀</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlackmailerText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MayorButtonText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急会议</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConvertText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>放置陷阱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>trapperTrapText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TerroristBombText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>放置炸弹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdminMapText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理地图</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LighterText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>hackerButtonText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑入</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>defuseBombText</t>
+  </si>
+  <si>
+    <t>拆弹</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeShieldText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AlertText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SeerText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>buttonBarryText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DisperseText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>分散</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prophetMeetingButton</t>
+  </si>
+  <si>
+    <t>The Prophet can't start an emergency meeting</t>
+  </si>
+  <si>
+    <t>预言家不可以发起紧急会议</t>
+  </si>
+  <si>
+    <t>swapperMeetingButton</t>
+  </si>
+  <si>
+    <t>The Swapper can't start an emergency meeting</t>
+  </si>
+  <si>
+    <t>スワッパーはミーティングを招集できない</t>
+  </si>
+  <si>
+    <t>换票师不可以发起紧急会议</t>
+  </si>
+  <si>
+    <t>jesterMeetingButton</t>
+  </si>
+  <si>
+    <t>The Jester can't start an emergency meeting</t>
+  </si>
+  <si>
+    <t>ジェスターはミーティングを招集できない</t>
+  </si>
+  <si>
+    <t>小丑不可以发起紧急会议</t>
+  </si>
+  <si>
+    <t>lawyerMeetingButton</t>
+  </si>
+  <si>
+    <t>The Lawyer can't start an emergency meeting</t>
+  </si>
+  <si>
+    <t>弁護士はミーティングを招集できない</t>
+  </si>
+  <si>
+    <t>律师不可以发起紧急会议</t>
+  </si>
+  <si>
+    <t>fortuneTellerMeetingButton</t>
+  </si>
+  <si>
+    <t>The Fortune Teller can't start an emergency meeting</t>
+  </si>
+  <si>
+    <t>占卜师不可以发起紧急会议</t>
+  </si>
+  <si>
+    <t>ProsecutorMeetingButton</t>
+  </si>
+  <si>
+    <t>The Prosecutor can't start an emergency meeting</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>处刑者不可以发起紧急会议</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>meetingCount</t>
+  </si>
+  <si>
+    <t>{0} and the ship has {1}</t>
+  </si>
+  <si>
+    <t>{0}と船に{1}がいます</t>
+  </si>
+  <si>
+    <t>{0}次，全船剩余{1}次</t>
+  </si>
+  <si>
+    <t>放置</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TricksterPlaceText1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>自爆</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TricksterPlaceText2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>YOU ARE BLACKMAILED</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlackmailShhhText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘘！不许说话！</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=75%&gt;Mod修改：&lt;color=#FFB793&gt;沫夏悠轩&lt;/color&gt; &amp; &lt;color=#FCCE03FF&gt;善良的好人&lt;/color&gt;
+&lt;color=#FCCE03FF&gt;天寸梦初&lt;/color&gt; &amp; &lt;color=#FCCE03FF&gt;Imp11&lt;/color&gt;
 美工: &lt;color=#00FFFFFF&gt;方块&lt;/color&gt;&lt;/size&gt;
 &lt;size=70%&gt;基于TheOtherUs&lt;/size&gt;</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;size=75%&gt;Mod修改: &lt;color=#FFB793&gt;沫夏悠轩&lt;/color&gt;&amp;&lt;color=#FCCE03FF&gt;善良的好人&lt;/color&gt;
-&lt;color=#FCCE03FF&gt;天寸梦初&lt;/color&gt;&amp;&lt;color=#FCCE03FF&gt;Imp11&lt;/color&gt;
+    <t>&lt;size=75%&gt;Mod修改: &lt;color=#FFB793&gt;沫夏悠轩&lt;/color&gt; &amp; &lt;color=#FCCE03FF&gt;善良的好人&lt;/color&gt;
+&lt;color=#FCCE03FF&gt;天寸梦初&lt;/color&gt; &amp; &lt;color=#FCCE03FF&gt;Imp11&lt;/color&gt;
 美工: &lt;color=#00FFFFFF&gt;方块&lt;/color&gt;&lt;/size&gt;
 &lt;size=70%&gt;基于TheOtherUs&lt;/size&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;size=110%&gt;&lt;color=#ff351f&gt;我们的超多职业&lt;/color&gt;&lt;/size&gt; </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;size=130%&gt;&lt;color=#ff351f&gt;我们的超多职业&lt;/color&gt;&lt;/size&gt; </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Credits</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOU Credits</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>English</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>模组贡献者</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>安装星门</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlaceJackInTheBoxText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>jackalSidekickText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>killButtonText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>击杀</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>VampireText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>HandcuffText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShieldText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>doomsayerText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>揭示</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AkujoHonmeiText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AkujoBackupText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShiftText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SampleText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>hackerVitalText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命检测仪</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>hackerDoorLogText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>日志</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>bodyGuardText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>保护</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>观察</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>PrivateInvestigatorWatchText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>GarlicText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>放置大蒜</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>usePortalText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SwoopText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>隐身</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CurseText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>EraserText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>点灯</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CleanText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DragBodyText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>VultureText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RememberText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>回忆</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>监控</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CamButtonText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DouseText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>PursuerText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>WitchText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>诅咒</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">下咒 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CurseKillText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>标记/传送</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>传送</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>jumperText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>jumperJumpText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>NinjaText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>刺杀</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlackmailerText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>MayorButtonText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>紧急会议</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ConvertText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>放置陷阱</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>trapperTrapText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TerroristBombText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>放置炸弹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdminMapText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理地图</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>LighterText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>hackerButtonText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑入</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>defuseBombText</t>
-  </si>
-  <si>
-    <t>拆弹</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TimeShieldText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>AlertText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SeerText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>buttonBarryText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>DisperseText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>分散</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>prophetMeetingButton</t>
-  </si>
-  <si>
-    <t>The Prophet can't start an emergency meeting</t>
-  </si>
-  <si>
-    <t>预言家不可以发起紧急会议</t>
-  </si>
-  <si>
-    <t>swapperMeetingButton</t>
-  </si>
-  <si>
-    <t>The Swapper can't start an emergency meeting</t>
-  </si>
-  <si>
-    <t>スワッパーはミーティングを招集できない</t>
-  </si>
-  <si>
-    <t>换票师不可以发起紧急会议</t>
-  </si>
-  <si>
-    <t>jesterMeetingButton</t>
-  </si>
-  <si>
-    <t>The Jester can't start an emergency meeting</t>
-  </si>
-  <si>
-    <t>ジェスターはミーティングを招集できない</t>
-  </si>
-  <si>
-    <t>小丑不可以发起紧急会议</t>
-  </si>
-  <si>
-    <t>lawyerMeetingButton</t>
-  </si>
-  <si>
-    <t>The Lawyer can't start an emergency meeting</t>
-  </si>
-  <si>
-    <t>弁護士はミーティングを招集できない</t>
-  </si>
-  <si>
-    <t>律师不可以发起紧急会议</t>
-  </si>
-  <si>
-    <t>fortuneTellerMeetingButton</t>
-  </si>
-  <si>
-    <t>The Fortune Teller can't start an emergency meeting</t>
-  </si>
-  <si>
-    <t>占卜师不可以发起紧急会议</t>
-  </si>
-  <si>
-    <t>ProsecutorMeetingButton</t>
-  </si>
-  <si>
-    <t>The Prosecutor can't start an emergency meeting</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>处刑者不可以发起紧急会议</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>meetingCount</t>
-  </si>
-  <si>
-    <t>{0} and the ship has {1}</t>
-  </si>
-  <si>
-    <t>{0}と船に{1}がいます</t>
-  </si>
-  <si>
-    <t>{0}次，全船剩余{1}次</t>
-  </si>
-  <si>
-    <t>放置</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TricksterPlaceText1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>自爆</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TricksterPlaceText2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>YOU ARE BLACKMAILED</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlackmailShhhText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘘！不许说话！</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1756,7 +1756,7 @@
   <dimension ref="A1:Q1333"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="14.25"/>
@@ -1772,7 +1772,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="B1" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -1842,7 +1842,7 @@
         <v>148</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1853,7 +1853,7 @@
         <v>193</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="28.5">
@@ -1902,13 +1902,13 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="O9" s="12" t="s">
         <v>208</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="71.25">
@@ -1919,7 +1919,7 @@
         <v>190</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>204</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="71.25">
@@ -1930,7 +1930,7 @@
         <v>187</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>203</v>
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="28.5">
@@ -1977,10 +1977,10 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="13" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1993,19 +1993,19 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="13" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2018,19 +2018,19 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="13" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2043,19 +2043,19 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="13" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2070,15 +2070,15 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2093,15 +2093,15 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="13" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2116,7 +2116,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -2124,10 +2124,10 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="13" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2140,11 +2140,11 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -2152,13 +2152,13 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B25" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="O25" s="12" t="s">
         <v>313</v>
-      </c>
-      <c r="O25" s="12" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -6479,8 +6479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S82"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X39" sqref="X39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -6583,7 +6583,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>21</v>
@@ -6633,7 +6633,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>21</v>
@@ -6651,14 +6651,14 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>21</v>
@@ -6683,7 +6683,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
@@ -6708,7 +6708,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
@@ -6733,7 +6733,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>21</v>
@@ -6751,7 +6751,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -6830,7 +6830,7 @@
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -6910,7 +6910,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>21</v>
@@ -6928,7 +6928,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -6985,7 +6985,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>21</v>
@@ -7010,7 +7010,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>21</v>
@@ -7035,7 +7035,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>21</v>
@@ -7060,7 +7060,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>21</v>
@@ -7110,7 +7110,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>21</v>
@@ -7185,7 +7185,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>21</v>
@@ -7210,7 +7210,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>21</v>
@@ -7285,7 +7285,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>21</v>
@@ -7310,7 +7310,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>21</v>
@@ -7328,14 +7328,14 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>21</v>
@@ -7353,7 +7353,7 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
@@ -7385,7 +7385,7 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>21</v>
@@ -7462,7 +7462,7 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>21</v>
@@ -7473,7 +7473,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>21</v>
@@ -7506,7 +7506,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>21</v>
@@ -7539,7 +7539,7 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>21</v>
@@ -7550,7 +7550,7 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>21</v>
@@ -7583,29 +7583,29 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>21</v>
@@ -7638,225 +7638,225 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -7872,29 +7872,29 @@
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="82" spans="19:19">
       <c r="S82" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs-Beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A446AA3A-6B59-4D6D-BA75-166115F0D29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A730A0F5-22AD-49F1-815F-1AF310B4D85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3975" yWindow="4140" windowWidth="21600" windowHeight="12060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="3" r:id="rId1"/>
@@ -474,14 +474,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;size=70%&gt; &lt;color=#FCCE03FF&gt;特别感谢 Smeggy, Scoom, Xer, and Mr_Fluuff&lt;/color&gt;&lt;/size&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=70%&gt; &lt;color=#FCCE03FF&gt;Special thanks to Smeggy, Scoom, Xer, and Mr_Fluuff&lt;/color&gt;&lt;/size&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>fullCredentialsVersion</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -643,11 +635,6 @@
   </si>
   <si>
     <t>棕褐色</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=80%&gt;Modified by &lt;color=#FFB793&gt;mxyx-club&lt;/color&gt;
-&lt;size=75%&gt;Based on TheOtherUs&lt;/size&gt;</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1133,15 +1120,26 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;size=75%&gt;Mod修改：&lt;color=#FFB793&gt;沫夏悠轩&lt;/color&gt; &amp; &lt;color=#FCCE03FF&gt;善良的好人&lt;/color&gt;
-&lt;color=#FCCE03FF&gt;天寸梦初&lt;/color&gt; &amp; &lt;color=#FCCE03FF&gt;Imp11&lt;/color&gt;
+    <t>&lt;size=80%&gt; &lt;color=#FCCE03FF&gt;特别感谢：&lt;color=#FCCE03FF&gt;善良的好人&lt;/color&gt; &amp; &lt;color=#FCCE03FF&gt;天寸梦初&lt;/color&gt; &amp; &lt;color=#FCCE03FF&gt;Imp11&lt;/color&gt;&lt;/color&gt;&lt;/size&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=80%&gt; &lt;color=#FCCE03FF&gt;Special thanks to Smeggy, Scoom, Xer, and Mr_Fluuff&lt;/color&gt;&lt;/size&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=90%&gt;Modified by &lt;color=#FFB793&gt;mxyx-club&lt;/color&gt;
+&lt;size=80%&gt;Based on TheOtherUs&lt;/size&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=80%&gt;Mod修改：&lt;color=#FFB793&gt;沫夏悠轩&lt;/color&gt; 
 美工: &lt;color=#00FFFFFF&gt;方块&lt;/color&gt;&lt;/size&gt;
 &lt;size=70%&gt;基于TheOtherUs&lt;/size&gt;</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;size=75%&gt;Mod修改: &lt;color=#FFB793&gt;沫夏悠轩&lt;/color&gt; &amp; &lt;color=#FCCE03FF&gt;善良的好人&lt;/color&gt;
-&lt;color=#FCCE03FF&gt;天寸梦初&lt;/color&gt; &amp; &lt;color=#FCCE03FF&gt;Imp11&lt;/color&gt;
+    <t>&lt;size=75%&gt;Mod修改: &lt;color=#FFB793&gt;沫夏悠轩&lt;/color&gt; 
 美工: &lt;color=#00FFFFFF&gt;方块&lt;/color&gt;&lt;/size&gt;
 &lt;size=70%&gt;基于TheOtherUs&lt;/size&gt;</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -1755,8 +1753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1333"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="14.25"/>
@@ -1772,7 +1770,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="B1" s="12" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -1825,7 +1823,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>17</v>
@@ -1836,112 +1834,112 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>148</v>
-      </c>
       <c r="O3" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="28.5">
       <c r="A5" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="O5" s="12" t="s">
         <v>191</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="O9" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="71.25">
+    </row>
+    <row r="10" spans="1:17" ht="42.75">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="O10" s="11" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="71.25">
+    <row r="11" spans="1:17" ht="42.75">
       <c r="A11" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>187</v>
+      <c r="B11" s="11" t="s">
+        <v>313</v>
       </c>
       <c r="O11" s="11" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="28.5">
+    <row r="12" spans="1:17" ht="42.75">
       <c r="A12" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>144</v>
+      <c r="B12" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1949,13 +1947,13 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="O14" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1977,10 +1975,10 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="13" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1993,19 +1991,19 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="13" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2018,19 +2016,19 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="13" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2043,19 +2041,19 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="13" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2070,15 +2068,15 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="13" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2093,15 +2091,15 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="13" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2116,7 +2114,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -2124,10 +2122,10 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="13" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2140,11 +2138,11 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -2152,13 +2150,13 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="12" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="O25" s="12" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -6201,7 +6199,7 @@
         <v>28</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="14.25">
@@ -6212,7 +6210,7 @@
         <v>30</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="14.25">
@@ -6256,7 +6254,7 @@
         <v>41</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="14.25">
@@ -6278,7 +6276,7 @@
         <v>46</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="14.25">
@@ -6371,101 +6369,101 @@
     </row>
     <row r="19" spans="1:15" ht="14.25">
       <c r="A19" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="14.25">
       <c r="A20" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="14.25">
       <c r="A21" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="14.25">
       <c r="A22" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="14.25">
       <c r="A23" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="14.25">
       <c r="A24" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="14.25">
       <c r="A25" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="14.25">
       <c r="A26" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="14.25">
       <c r="A27" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -6583,7 +6581,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>21</v>
@@ -6633,7 +6631,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>21</v>
@@ -6651,14 +6649,14 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="3" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>21</v>
@@ -6683,7 +6681,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
@@ -6708,7 +6706,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
@@ -6733,7 +6731,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>21</v>
@@ -6751,7 +6749,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -6830,7 +6828,7 @@
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -6910,7 +6908,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>21</v>
@@ -6928,7 +6926,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -6985,7 +6983,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>21</v>
@@ -7010,7 +7008,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>21</v>
@@ -7035,7 +7033,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>21</v>
@@ -7060,7 +7058,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>21</v>
@@ -7110,7 +7108,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>21</v>
@@ -7185,7 +7183,7 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>21</v>
@@ -7210,7 +7208,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>21</v>
@@ -7285,7 +7283,7 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>21</v>
@@ -7310,7 +7308,7 @@
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>21</v>
@@ -7328,14 +7326,14 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>21</v>
@@ -7353,7 +7351,7 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
@@ -7385,13 +7383,13 @@
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O35" s="5" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -7457,12 +7455,12 @@
         <v>21</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>21</v>
@@ -7473,7 +7471,7 @@
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>21</v>
@@ -7506,7 +7504,7 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>21</v>
@@ -7539,7 +7537,7 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>21</v>
@@ -7550,7 +7548,7 @@
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>21</v>
@@ -7583,29 +7581,29 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>21</v>
@@ -7627,236 +7625,236 @@
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O57" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O58" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -7872,29 +7870,29 @@
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="82" spans="19:19">
       <c r="S82" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs-Beta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs-mxyx\TheOtherUs-Beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A730A0F5-22AD-49F1-815F-1AF310B4D85D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E790ECE0-3D77-4C4E-8A5F-31ADC4442E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="4140" windowWidth="21600" windowHeight="12060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="318">
   <si>
     <t>English</t>
   </si>
@@ -341,9 +341,6 @@
   </si>
   <si>
     <t>时间之盾</t>
-  </si>
-  <si>
-    <t>TrackerText</t>
   </si>
   <si>
     <t>追踪</t>
@@ -1142,6 +1139,18 @@
     <t>&lt;size=75%&gt;Mod修改: &lt;color=#FFB793&gt;沫夏悠轩&lt;/color&gt; 
 美工: &lt;color=#00FFFFFF&gt;方块&lt;/color&gt;&lt;/size&gt;
 &lt;size=70%&gt;基于TheOtherUs&lt;/size&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrackerText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrackerDeadBodyText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找尸体</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1753,8 +1762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1333"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="14.25"/>
@@ -1770,7 +1779,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="B1" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -1823,7 +1832,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>17</v>
@@ -1834,79 +1843,79 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="28.5">
       <c r="A5" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>189</v>
-      </c>
       <c r="O5" s="12" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="O6" s="6" t="s">
         <v>153</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>151</v>
-      </c>
       <c r="O8" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>203</v>
-      </c>
       <c r="O9" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="42.75">
@@ -1914,32 +1923,32 @@
         <v>19</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="42.75">
       <c r="A11" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="O11" s="11" t="s">
         <v>313</v>
-      </c>
-      <c r="O11" s="11" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="42.75">
       <c r="A12" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1947,13 +1956,13 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="O14" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1975,10 +1984,10 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>282</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>283</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1991,19 +2000,19 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>287</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -2016,19 +2025,19 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>291</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -2041,19 +2050,19 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>294</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>295</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -2068,15 +2077,15 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -2091,15 +2100,15 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>297</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>298</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2114,7 +2123,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -2122,10 +2131,10 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2138,11 +2147,11 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -2150,13 +2159,13 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="O25" s="12" t="s">
         <v>309</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="O25" s="12" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -6199,7 +6208,7 @@
         <v>28</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="14.25">
@@ -6210,7 +6219,7 @@
         <v>30</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="14.25">
@@ -6254,7 +6263,7 @@
         <v>41</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="14.25">
@@ -6276,7 +6285,7 @@
         <v>46</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="14.25">
@@ -6369,101 +6378,101 @@
     </row>
     <row r="19" spans="1:15" ht="14.25">
       <c r="A19" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>158</v>
-      </c>
       <c r="O19" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="14.25">
       <c r="A20" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="14.25">
       <c r="A21" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="14.25">
       <c r="A22" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="14.25">
       <c r="A23" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="14.25">
       <c r="A24" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="14.25">
       <c r="A25" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="14.25">
       <c r="A26" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="14.25">
       <c r="A27" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -6475,10 +6484,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S82"/>
+  <dimension ref="A1:S83"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X39" sqref="X39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -6581,7 +6590,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>21</v>
@@ -6631,7 +6640,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>21</v>
@@ -6649,14 +6658,14 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>21</v>
@@ -6681,7 +6690,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
@@ -6706,7 +6715,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
@@ -6731,7 +6740,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>21</v>
@@ -6749,7 +6758,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -6828,7 +6837,7 @@
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -6908,7 +6917,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>21</v>
@@ -6926,7 +6935,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -6983,7 +6992,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>21</v>
@@ -7008,7 +7017,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>21</v>
@@ -7033,7 +7042,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>21</v>
@@ -7058,7 +7067,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>21</v>
@@ -7108,7 +7117,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>21</v>
@@ -7133,7 +7142,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2" t="s">
-        <v>101</v>
+        <v>315</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>21</v>
@@ -7151,14 +7160,14 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2" t="s">
-        <v>103</v>
+        <v>316</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>21</v>
@@ -7176,14 +7185,14 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="3" t="s">
-        <v>104</v>
+        <v>317</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2" t="s">
-        <v>212</v>
+        <v>102</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>21</v>
@@ -7201,14 +7210,14 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>21</v>
@@ -7226,14 +7235,14 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2" t="s">
-        <v>107</v>
+        <v>240</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>21</v>
@@ -7251,14 +7260,14 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>21</v>
@@ -7276,14 +7285,14 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2" t="s">
-        <v>247</v>
+        <v>108</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>21</v>
@@ -7301,14 +7310,14 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>21</v>
@@ -7326,14 +7335,14 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="3" t="s">
-        <v>249</v>
+        <v>110</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>21</v>
@@ -7351,14 +7360,14 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="3" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2" t="s">
-        <v>112</v>
+        <v>255</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>21</v>
@@ -7376,523 +7385,548 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="3" t="s">
-        <v>113</v>
+        <v>256</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B35" s="1" t="s">
+      <c r="A35" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O35" s="5" t="s">
-        <v>198</v>
-      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="1" t="s">
-        <v>114</v>
+        <v>212</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O36" s="4" t="s">
-        <v>115</v>
+      <c r="O36" s="5" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O40" s="1" t="s">
-        <v>20</v>
+      <c r="O40" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O41" s="5" t="s">
-        <v>199</v>
+      <c r="O41" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="1" t="s">
-        <v>261</v>
+        <v>121</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O42" s="4" t="s">
-        <v>123</v>
+      <c r="O42" s="5" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O43" s="1" t="s">
-        <v>124</v>
+      <c r="O43" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="1" t="s">
-        <v>125</v>
+        <v>273</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="1" t="s">
-        <v>240</v>
+        <v>126</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="1" t="s">
-        <v>130</v>
+        <v>239</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="1" t="s">
-        <v>217</v>
+        <v>131</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="1" t="s">
-        <v>136</v>
+        <v>217</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
-        <v>254</v>
+        <v>137</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>252</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>140</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="1" t="s">
-        <v>141</v>
+        <v>257</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O57" s="5" t="s">
-        <v>197</v>
+      <c r="O57" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="1" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O58" s="1" t="s">
-        <v>209</v>
+      <c r="O58" s="5" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="1" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="1" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="1" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q73" s="1" t="s">
-        <v>231</v>
+        <v>264</v>
       </c>
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
+      </c>
+      <c r="Q74" s="1" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="1" t="s">
-        <v>141</v>
+        <v>276</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>96</v>
+        <v>277</v>
       </c>
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="1" t="s">
-        <v>305</v>
+        <v>140</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>304</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O80" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19">
+      <c r="A81" s="1" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="82" spans="19:19">
-      <c r="S82" s="1" t="s">
-        <v>231</v>
+      <c r="B81" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19">
+      <c r="S83" s="1" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs-mxyx\TheOtherUs-Beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E790ECE0-3D77-4C4E-8A5F-31ADC4442E6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566E05E1-400E-4DFD-8C2A-7700BAB12CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="2640" windowWidth="24570" windowHeight="12060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Button Text" sheetId="8" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Text!$O$1:$O$1036</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Text!$O$1:$O$1093</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="551">
   <si>
     <t>English</t>
   </si>
@@ -343,6 +343,9 @@
     <t>时间之盾</t>
   </si>
   <si>
+    <t>TrackerText</t>
+  </si>
+  <si>
     <t>追踪</t>
   </si>
   <si>
@@ -476,10 +479,6 @@
   </si>
   <si>
     <t>The Other Roles Settings</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;size=130%&gt;&lt;color=#ff351f&gt;TheOtherUs&lt;/color&gt;&lt;/size&gt; </t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -657,10 +656,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;size=110%&gt;&lt;color=#ff351f&gt;TheOtherUs&lt;/color&gt;&lt;/size&gt; </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;size=80%&gt;&lt;color=#FFB793&gt;沫夏悠轩&lt;/color&gt; - &lt;color=#FFB793&gt;mxyx.club&lt;/color&gt;&lt;/size&gt;</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -694,14 +689,6 @@
   </si>
   <si>
     <t>布下陷阱</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;size=110%&gt;&lt;color=#ff351f&gt;我们的超多职业&lt;/color&gt;&lt;/size&gt; </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;size=130%&gt;&lt;color=#ff351f&gt;我们的超多职业&lt;/color&gt;&lt;/size&gt; </t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1130,27 +1117,965 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;size=80%&gt;Mod修改：&lt;color=#FFB793&gt;沫夏悠轩&lt;/color&gt; 
+    <t>preset1</t>
+  </si>
+  <si>
+    <t>preset2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>preset3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>preset 1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>preset 2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>preset 3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>预设 1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>预设 2</t>
+  </si>
+  <si>
+    <t>预设 3</t>
+  </si>
+  <si>
+    <t>RandomPresetSkeld</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random Preset Skeld</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skeld预设</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RandomPresetMira</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random Preset Mira HQ</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random Preset Polus</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random Preset Airship</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random Preset Submerged</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RandomPresetPolus</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RandomPresetAirship</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RandomPresetSubmerged</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mira预设</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polus预设</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Airship预设</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fungle预设</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Submerged预设</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RandomPresetFungle</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random Preset Fungle</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>preset0</t>
+  </si>
+  <si>
+    <t>preset 0</t>
+  </si>
+  <si>
+    <t>预设 0</t>
+  </si>
+  <si>
+    <t>Preset</t>
+  </si>
+  <si>
+    <t>プリセット</t>
+  </si>
+  <si>
+    <t>预设</t>
+  </si>
+  <si>
+    <t>启用模组职业并禁用原版职业</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable Mod Roles And Block Vanilla Roles</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>anyPlayerCanStopStart</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>任何玩家都可以阻止游戏开始</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Any Player Can Stop The Start</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>enableEventMode</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>activateRoles</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用特殊模式</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>crewmateRolesCountMin</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>crewmateRolesCountMax</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>crewmateRolesFill</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>neutralRolesCountMin</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>neutralRolesCountMax</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>impostorRolesCountMin</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>impostorRolesCountMax</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifiersCountMin</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifiersCountMax</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable Special Mode</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>resteButtonCooldown</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimum Crewmate Roles</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Crewmate Roles</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crewmate Roles\n(Ignores Min/Max)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimum Neutral Roles</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Neutral Roles</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimum Impostor Roles</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Impostor Roles</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Minimum Modifiers</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maximum Modifiers</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifierAssassin</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assassin</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifierAssassinQuantity</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assassin Quantity</t>
+  </si>
+  <si>
+    <t>刺客</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺客数量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏开局时重置CD</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxNumberOfMeetings</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>会议总次数(不计入市长会议次数)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>blockSkippingInEmergencyMeetings</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急会议禁止跳过</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>noVoteIsSelfVote</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不投票默认投自己</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>shieldFirstKill</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>首刀保护</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>hidePlayerNames</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏玩家名字</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>hideOutOfSightNametags</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏受阻碍的玩家名称</t>
+  </si>
+  <si>
+    <t>hideVentAnimOnShadows</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>隐藏视野外管道动画</t>
+  </si>
+  <si>
+    <t>showButtonTarget</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能按钮显示目标</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>impostorSeeRoles</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>内鬼可见队友职业</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>blockGameEnd</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>强力职业在场不结束游戏</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowModGuess</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许猜测部分附加职业</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>transparentTasks</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务界面透明</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>disableMedbayWalk</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务动画不可见</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowParallelMedBayScans</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许同时进行扫描任务</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>finishTasksBeforeHauntingOrZoomingOut</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>未完成任务前不能使用跟随及千里眼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>preventTaskEnd</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>阻止任务结束游戏</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>randomGameStartPosition</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机出生点</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>randomGameStartToVents</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机出生在通风口上</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>enableMiraModify</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mira</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>miraVitals</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加生命检测装置</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>enableBetterPolus</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polus</t>
+  </si>
+  <si>
+    <t>Polus</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>movePolusVents</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>改变管道布局</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>addPolusVents</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加新管道\n (样本室-办公室-运输船)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>movePolusVitals</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>将生命检测仪移动到实验室</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>swapNavWifi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>重启WIFI与导航任务位置交换</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveColdTemp</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度调节任务移动至配电室下方</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>enableAirShipModify</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirShip</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>airshipOptimize</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化地图</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>addAirShipVents</t>
+  </si>
+  <si>
+    <t>添加新管道\n (会议室-配电室)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>airshipLadder</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加额外梯子\n (会议室-间隙室)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>enableFungleModify</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fungle</t>
+  </si>
+  <si>
+    <t>Fungle</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加电力系统\n (食堂-实验室-上引擎)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fungleElectrical</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>enableCamoComms</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信破坏开启小黑人</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>restrictDevices</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>限制信息设备使用</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一回合</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每局游戏</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小船员阵营职业数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大船员阵营职业数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有船员必定拥有职业\n(无视最小/最大数量)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小独立阵营职业数</t>
+  </si>
+  <si>
+    <t>最大独立阵营职业数</t>
+  </si>
+  <si>
+    <t>最小内鬼阵营职业数</t>
+  </si>
+  <si>
+    <t>最大内鬼阵营职业数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小附加职业数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大附加职业数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFF</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Off</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ON</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>On</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>presetSelection</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Per Round</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Per Game</t>
+  </si>
+  <si>
+    <t>restrictDevices2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>restrictDevices3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Restrict Map Information</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable Camouflage Comms</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adjust Vents</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move Vitals To Labs</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Swap Reboot And Chart Course</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move Cold Temp To Death Valley</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>restrictAdmin</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>restrictCameras</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>restrictVents</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>disableCamsRound1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>camsNightVision</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>camsNoNightVisionIfImpVision</t>
+  </si>
+  <si>
+    <t>限制使用管理室地图时长</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>限制使用监控时长</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>限制使用心电图时长</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一回合无法使用监控</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>熄灯时监控开启夜视模式</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>内鬼无视监控的夜视模式</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Restrict Admin Table</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Restrict Cameras</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Restrict Vitals</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Cameras First Round</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Show Button Target</t>
+  </si>
+  <si>
+    <t>Impostor Vision Ignores Night Vision Cams</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cams Switch To Night Vision If Lights Are Off</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number Of Meetings (excluding Mayor meeting)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block Skipping In Emergency Meetings</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Vote Is Self Vote</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hide Player Names</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shield Last Game First Kill</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hide Obstructed Player Names</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hide Vent Animation Out Of Vision</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finish Tasks Before Haunting Or Zooming Out</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Impostors Can See The Roles Of Their Team</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tasks Are Transparent</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Disable MedBay Animations</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Allow Parallel MedBay Scans</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Allow Guessing Some Modifiers</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block Game End If Power Crew Is Alive</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Random Spawn Location</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spawn Location to vent</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dynamicMap</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>dynamicMapSeparateSettings</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用随机地图设置预设</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机地图玩法</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Play On A Random Map</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use Random Map Setting Presets</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifierAssassinNumberOfShots</t>
+  </si>
+  <si>
+    <t>modifierAssassinMultipleShotsPerMeeting</t>
+  </si>
+  <si>
+    <t>guesserEvilCanKillSpy</t>
+  </si>
+  <si>
+    <t>guesserEvilCanKillCrewmate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>guesserCantGuessSnitchIfTaksDone</t>
+  </si>
+  <si>
+    <t>modifierAssassinKillsThroughShield</t>
+  </si>
+  <si>
+    <t>modifierAssassinCultist</t>
+  </si>
+  <si>
+    <t>Number Of Shots</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can Shoot Multiple Times Per Meeting</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can Guess The Spy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can Guess Crewmate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Can't Guess Snitch When Revealed</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Guesses Ignore The Medic Shield</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cultist Follower Gets Ability</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>mafiaSpawnRate</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>janitorCooldown</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑手党</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>清洁工清理冷却</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mafia</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Janitor Cooldown</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>creditsString1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;align="center"&gt;&lt;b&gt;TheOtherUs-Edited 开发者:&lt;/b&gt;
+沫夏悠轩    天寸梦初    善良的好人    Imp11
+&lt;b&gt;美工:&lt;/b&gt;
+方块
+&lt;b&gt;翻译:&lt;/b&gt;
+EN：九头蛇
+CN：沫夏悠轩
+&lt;b&gt;GitHub贡献者:&lt;/b&gt;
+沫夏悠轩    天寸梦初    Imp11
+&lt;b&gt;前 TheOtherUs 开发者:&lt;/b&gt;
+SpexGH    Xer    方块    沫夏悠轩    天寸梦初
+本模组使用了部分[https://github.com/dabao40/TheOtherRolesGMIA]TheOtherRolesGMIA[]的代码，感谢Imp11的支持！
+Thanks to The Other Roles, The Other Roles CE, The Other Roles GM IA, Town of Us, Stellar Roles!
+Thanks to miniduikboot &amp; GD for hosting modded servers (and so much more)
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;align="center"&gt;&lt;b&gt;TheOtherUs-Edited Team:&lt;/b&gt;
+mxyx    Huier-Huang    haoren
+Imp2    FangKuaiYa
+&lt;b&gt;Former TheOtherUs Team Members:&lt;/b&gt;
+SpexGH    Xer    FangKuaiYa    mxyx    Huier-Huang
+Thanks to The Other Roles, The Other Roles CE, The Other Roles GM IA, Town of Us, Stellar Roles!
+Thanks to miniduikboot &amp; GD for hosting modded servers (and so much more)
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=80%&gt;模组修改：&lt;color=#FFB793&gt;沫夏悠轩&lt;/color&gt; 
 美工: &lt;color=#00FFFFFF&gt;方块&lt;/color&gt;&lt;/size&gt;
 &lt;size=70%&gt;基于TheOtherUs&lt;/size&gt;</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;size=75%&gt;Mod修改: &lt;color=#FFB793&gt;沫夏悠轩&lt;/color&gt; 
+    <t>&lt;size=75%&gt;模组修改: &lt;color=#FFB793&gt;沫夏悠轩&lt;/color&gt; 
 美工: &lt;color=#00FFFFFF&gt;方块&lt;/color&gt;&lt;/size&gt;
 &lt;size=70%&gt;基于TheOtherUs&lt;/size&gt;</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>TrackerText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TrackerDeadBodyText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>寻找尸体</t>
+    <t>猜测次数（刺客共享）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一轮会议可多次猜测</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以猜测职业“卧底”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以猜测职业“船员”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可猜测完成任务的告密者</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>猜测无视法医护盾保护</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新信徒可成为刺客</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;size=110%&gt;&lt;color=#ff351f&gt;TheOtherUs-Edited&lt;/color&gt;&lt;/size&gt; </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;size=130%&gt;&lt;color=#ff351f&gt;TheOtherUs-Edited&lt;/color&gt;&lt;/size&gt; </t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1158,7 +2083,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1218,6 +2143,12 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1236,11 +2167,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1268,13 +2200,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2" xr:uid="{196E098E-F72A-42AC-A3E9-A9AB2530FBA0}"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -1760,26 +2690,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1333"/>
+  <dimension ref="A1:Q1390"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="40.375" style="6" customWidth="1"/>
     <col min="2" max="2" width="71.5" style="6" customWidth="1"/>
     <col min="3" max="12" width="7.875" style="6" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="53.375" style="6" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="0" style="6" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="7.875" style="6" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="69.25" style="7" customWidth="1"/>
     <col min="16" max="16384" width="7.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="B1" s="12" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -1827,12 +2757,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>17</v>
@@ -1841,40 +2771,40 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>145</v>
+        <v>550</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>146</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>189</v>
+        <v>549</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>199</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="28.5">
       <c r="A5" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="O5" s="12" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="O5" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>147</v>
       </c>
@@ -1885,7 +2815,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="6" t="s">
         <v>148</v>
       </c>
@@ -1896,7 +2826,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="6" t="s">
         <v>149</v>
       </c>
@@ -1907,4202 +2837,5164 @@
         <v>155</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="O9" s="12" t="s">
         <v>201</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="42.75">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="11" t="s">
         <v>186</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>314</v>
+        <v>541</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="42.75">
       <c r="A11" s="6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>313</v>
+        <v>540</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="42.75">
       <c r="A12" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B12" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="176.25" customHeight="1">
+      <c r="A13" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+    </row>
+    <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A22" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="O23" s="6"/>
+    </row>
+    <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A24" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+    </row>
+    <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A26" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A27" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12" t="s">
+        <v>341</v>
+      </c>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A29" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="O29" s="12" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A30" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="O30" s="12" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A31" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="O12" s="11" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="B13" s="7"/>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="13"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="O22" s="6"/>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="O24" s="6"/>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>307</v>
-      </c>
-      <c r="O25" s="12" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="O26" s="6"/>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="O27" s="6"/>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="O28" s="6"/>
-    </row>
-    <row r="29" spans="1:15">
-      <c r="O29" s="6"/>
-    </row>
-    <row r="30" spans="1:15">
-      <c r="O30" s="6"/>
-    </row>
-    <row r="31" spans="1:15">
-      <c r="O31" s="6"/>
-    </row>
-    <row r="32" spans="1:15">
-      <c r="O32" s="6"/>
-    </row>
-    <row r="33" spans="15:15">
-      <c r="O33" s="6"/>
-    </row>
-    <row r="34" spans="15:15">
-      <c r="O34" s="6"/>
-    </row>
-    <row r="35" spans="15:15">
-      <c r="O35" s="6"/>
-    </row>
-    <row r="36" spans="15:15">
-      <c r="O36" s="6"/>
-    </row>
-    <row r="37" spans="15:15">
-      <c r="O37" s="6"/>
-    </row>
-    <row r="38" spans="15:15">
-      <c r="O38" s="6"/>
-    </row>
-    <row r="39" spans="15:15">
+      <c r="B31" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A32" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A33" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A34" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A35" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A36" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A37" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A38" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O39" s="6"/>
     </row>
-    <row r="40" spans="15:15">
-      <c r="O40" s="6"/>
-    </row>
-    <row r="41" spans="15:15">
-      <c r="O41" s="6"/>
-    </row>
-    <row r="42" spans="15:15">
-      <c r="O42" s="6"/>
-    </row>
-    <row r="43" spans="15:15">
-      <c r="O43" s="6"/>
-    </row>
-    <row r="44" spans="15:15">
-      <c r="O44" s="6"/>
-    </row>
-    <row r="45" spans="15:15">
-      <c r="O45" s="6"/>
-    </row>
-    <row r="46" spans="15:15">
-      <c r="O46" s="8"/>
-    </row>
-    <row r="47" spans="15:15">
-      <c r="O47" s="6"/>
-    </row>
-    <row r="48" spans="15:15">
-      <c r="O48" s="6"/>
-    </row>
-    <row r="49" spans="15:15">
-      <c r="O49" s="8"/>
-    </row>
-    <row r="50" spans="15:15">
-      <c r="O50" s="8"/>
-    </row>
-    <row r="51" spans="15:15">
-      <c r="O51" s="8"/>
-    </row>
-    <row r="52" spans="15:15">
-      <c r="O52" s="8"/>
-    </row>
-    <row r="53" spans="15:15">
-      <c r="O53" s="8"/>
-    </row>
-    <row r="54" spans="15:15">
-      <c r="O54" s="8"/>
-    </row>
-    <row r="55" spans="15:15">
-      <c r="O55" s="8"/>
-    </row>
-    <row r="56" spans="15:15">
-      <c r="O56" s="8"/>
-    </row>
-    <row r="57" spans="15:15">
-      <c r="O57" s="6"/>
-    </row>
-    <row r="58" spans="15:15">
-      <c r="O58" s="6"/>
-    </row>
-    <row r="59" spans="15:15">
-      <c r="O59" s="6"/>
-    </row>
-    <row r="60" spans="15:15">
-      <c r="O60" s="6"/>
-    </row>
-    <row r="61" spans="15:15">
-      <c r="O61" s="6"/>
-    </row>
-    <row r="62" spans="15:15">
-      <c r="O62" s="6"/>
-    </row>
-    <row r="63" spans="15:15">
-      <c r="O63" s="6"/>
-    </row>
-    <row r="64" spans="15:15">
-      <c r="O64" s="6"/>
-    </row>
-    <row r="65" spans="15:15">
-      <c r="O65" s="6"/>
-    </row>
-    <row r="66" spans="15:15">
-      <c r="O66" s="8"/>
-    </row>
-    <row r="67" spans="15:15">
-      <c r="O67" s="8"/>
-    </row>
-    <row r="68" spans="15:15">
-      <c r="O68" s="8"/>
-    </row>
-    <row r="69" spans="15:15">
-      <c r="O69" s="6"/>
-    </row>
-    <row r="70" spans="15:15">
-      <c r="O70" s="8"/>
-    </row>
-    <row r="72" spans="15:15">
-      <c r="O72" s="8"/>
-    </row>
-    <row r="73" spans="15:15">
-      <c r="O73" s="6"/>
-    </row>
-    <row r="74" spans="15:15">
-      <c r="O74" s="6"/>
-    </row>
-    <row r="75" spans="15:15">
-      <c r="O75" s="8"/>
-    </row>
-    <row r="76" spans="15:15">
-      <c r="O76" s="8"/>
-    </row>
-    <row r="77" spans="15:15">
-      <c r="O77" s="6"/>
-    </row>
-    <row r="78" spans="15:15">
-      <c r="O78" s="8"/>
-    </row>
-    <row r="79" spans="15:15">
-      <c r="O79" s="6"/>
-    </row>
-    <row r="80" spans="15:15">
-      <c r="O80" s="6"/>
-    </row>
-    <row r="81" spans="2:15">
-      <c r="O81" s="8"/>
-    </row>
-    <row r="82" spans="2:15">
-      <c r="O82" s="6"/>
-    </row>
-    <row r="83" spans="2:15">
-      <c r="O83" s="8"/>
-    </row>
-    <row r="84" spans="2:15">
-      <c r="O84" s="6"/>
-    </row>
-    <row r="85" spans="2:15">
-      <c r="O85" s="8"/>
-    </row>
-    <row r="86" spans="2:15">
-      <c r="O86" s="8"/>
-    </row>
-    <row r="87" spans="2:15">
-      <c r="O87" s="6"/>
-    </row>
-    <row r="88" spans="2:15">
-      <c r="O88" s="6"/>
-    </row>
-    <row r="89" spans="2:15">
-      <c r="O89" s="6"/>
-    </row>
-    <row r="90" spans="2:15">
-      <c r="B90" s="7"/>
-      <c r="M90" s="7"/>
-    </row>
-    <row r="91" spans="2:15">
-      <c r="O91" s="6"/>
-    </row>
-    <row r="92" spans="2:15">
-      <c r="B92" s="7"/>
-      <c r="M92" s="7"/>
-    </row>
-    <row r="93" spans="2:15">
-      <c r="O93" s="6"/>
-    </row>
-    <row r="94" spans="2:15">
-      <c r="O94" s="6"/>
-    </row>
-    <row r="95" spans="2:15">
-      <c r="O95" s="6"/>
-    </row>
-    <row r="96" spans="2:15">
-      <c r="O96" s="6"/>
-    </row>
-    <row r="97" spans="15:15">
-      <c r="O97" s="6"/>
-    </row>
-    <row r="98" spans="15:15">
-      <c r="O98" s="6"/>
-    </row>
-    <row r="99" spans="15:15">
-      <c r="O99" s="6"/>
-    </row>
-    <row r="100" spans="15:15">
-      <c r="O100" s="6"/>
-    </row>
-    <row r="101" spans="15:15">
-      <c r="O101" s="6"/>
-    </row>
-    <row r="102" spans="15:15">
-      <c r="O102" s="6"/>
-    </row>
-    <row r="103" spans="15:15">
-      <c r="O103" s="6"/>
-    </row>
-    <row r="104" spans="15:15">
-      <c r="O104" s="6"/>
-    </row>
-    <row r="105" spans="15:15">
-      <c r="O105" s="6"/>
-    </row>
-    <row r="106" spans="15:15">
-      <c r="O106" s="6"/>
-    </row>
-    <row r="107" spans="15:15">
-      <c r="O107" s="6"/>
-    </row>
-    <row r="108" spans="15:15">
-      <c r="O108" s="6"/>
-    </row>
-    <row r="109" spans="15:15">
-      <c r="O109" s="6"/>
-    </row>
-    <row r="110" spans="15:15">
-      <c r="O110" s="6"/>
-    </row>
-    <row r="111" spans="15:15">
-      <c r="O111" s="6"/>
-    </row>
-    <row r="112" spans="15:15">
-      <c r="O112" s="6"/>
-    </row>
-    <row r="113" spans="15:15">
-      <c r="O113" s="6"/>
-    </row>
-    <row r="114" spans="15:15">
+    <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A40" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="O40" s="12" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A41" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="O41" s="12" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A42" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="O42" s="12" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A43" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="O43" s="12" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A44" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="O44" s="12" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A45" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="O45" s="12" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A46" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>365</v>
+      </c>
+      <c r="O46" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A47" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="O47" s="6" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A48" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="O48" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A49" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="O49" s="12" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A50" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="O50" s="12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A51" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="O51" s="12" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="O52" s="6"/>
+    </row>
+    <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A53" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="O53" s="12" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A54" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="O54" s="12" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A55" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="O55" s="12" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A56" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="O56" s="12" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A57" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="O57" s="12" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A58" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="O58" s="12" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A59" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="O59" s="6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A60" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="O60" s="6" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A61" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="O61" s="12" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A62" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="O62" s="12" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A63" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>508</v>
+      </c>
+      <c r="O63" s="12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A64" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="O64" s="12" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A65" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="O65" s="12" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A66" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="O66" s="12" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A67" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="O67" s="12" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A68" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="O68" s="12" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A69" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="O69" s="12" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A70" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="O70" s="12" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A71" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="O71" s="12" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A72" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="O72" s="12" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A73" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="B73" s="12"/>
+      <c r="O73" s="12" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A74" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="O74" s="12" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A75" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="O75" s="12" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A76" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="B76" s="12"/>
+      <c r="O76" s="12" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A77" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="O77" s="12" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A78" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="O78" s="12" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A79" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="O79" s="12" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A80" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="O80" s="12" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A81" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="O81" s="12" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A82" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="O82" s="12" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A83" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="O83" s="12" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A84" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="O84" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A85" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="O85" s="12" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A86" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="O86" s="12" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A87" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="O87" s="12" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A88" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="O88" s="12" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A89" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="O89" s="12" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A90" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="O90" s="11" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A91" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="O91" s="12" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A92" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="O92" s="12" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A93" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="O93" s="12" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A94" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="O94" s="12" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A95" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="O95" s="12" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A96" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="O96" s="12" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A97" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="O97" s="12" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A99" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="O99" s="12" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A100" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="O100" s="12" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A101" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="O101" s="12" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A102" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="O102" s="12" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A103" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>526</v>
+      </c>
+      <c r="O103" s="8" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A104" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="O104" s="12" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A105" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="O105" s="12" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A106" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>529</v>
+      </c>
+      <c r="O106" s="8" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A107" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>530</v>
+      </c>
+      <c r="O107" s="8" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="O108" s="8"/>
+    </row>
+    <row r="109" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A109" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="O109" s="8" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A110" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="O110" s="8" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="O111" s="8"/>
+    </row>
+    <row r="112" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="O112" s="8"/>
+    </row>
+    <row r="113" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O113" s="8"/>
+    </row>
+    <row r="114" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O114" s="6"/>
     </row>
-    <row r="115" spans="15:15">
+    <row r="115" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O115" s="6"/>
     </row>
-    <row r="116" spans="15:15">
+    <row r="116" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O116" s="6"/>
     </row>
-    <row r="117" spans="15:15">
+    <row r="117" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O117" s="6"/>
     </row>
-    <row r="118" spans="15:15">
+    <row r="118" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O118" s="6"/>
     </row>
-    <row r="119" spans="15:15">
+    <row r="119" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O119" s="6"/>
     </row>
-    <row r="120" spans="15:15">
+    <row r="120" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O120" s="6"/>
     </row>
-    <row r="121" spans="15:15">
+    <row r="121" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O121" s="6"/>
     </row>
-    <row r="122" spans="15:15">
+    <row r="122" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O122" s="6"/>
     </row>
-    <row r="123" spans="15:15">
-      <c r="O123" s="6"/>
-    </row>
-    <row r="124" spans="15:15">
-      <c r="O124" s="6"/>
-    </row>
-    <row r="125" spans="15:15">
-      <c r="O125" s="6"/>
-    </row>
-    <row r="126" spans="15:15">
+    <row r="123" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O123" s="8"/>
+    </row>
+    <row r="124" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O124" s="8"/>
+    </row>
+    <row r="125" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O125" s="8"/>
+    </row>
+    <row r="126" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O126" s="6"/>
     </row>
-    <row r="127" spans="15:15">
-      <c r="O127" s="6"/>
-    </row>
-    <row r="128" spans="15:15">
-      <c r="O128" s="6"/>
-    </row>
-    <row r="129" spans="15:15">
-      <c r="O129" s="6"/>
-    </row>
-    <row r="130" spans="15:15">
+    <row r="127" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O127" s="8"/>
+    </row>
+    <row r="129" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="O129" s="8"/>
+    </row>
+    <row r="130" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O130" s="6"/>
     </row>
-    <row r="131" spans="15:15">
+    <row r="131" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O131" s="6"/>
     </row>
-    <row r="132" spans="15:15">
-      <c r="O132" s="6"/>
-    </row>
-    <row r="133" spans="15:15">
-      <c r="O133" s="6"/>
-    </row>
-    <row r="134" spans="15:15">
+    <row r="132" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="O132" s="8"/>
+    </row>
+    <row r="133" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="O133" s="8"/>
+    </row>
+    <row r="134" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O134" s="6"/>
     </row>
-    <row r="135" spans="15:15">
-      <c r="O135" s="6"/>
-    </row>
-    <row r="136" spans="15:15">
+    <row r="135" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="O135" s="8"/>
+    </row>
+    <row r="136" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O136" s="6"/>
     </row>
-    <row r="137" spans="15:15">
+    <row r="137" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O137" s="6"/>
     </row>
-    <row r="138" spans="15:15">
-      <c r="O138" s="6"/>
-    </row>
-    <row r="139" spans="15:15">
+    <row r="138" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="O138" s="8"/>
+    </row>
+    <row r="139" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O139" s="6"/>
     </row>
-    <row r="140" spans="15:15">
-      <c r="O140" s="6"/>
-    </row>
-    <row r="141" spans="15:15">
-      <c r="O141" s="6"/>
-    </row>
-    <row r="142" spans="15:15">
-      <c r="O142" s="6"/>
-    </row>
-    <row r="143" spans="15:15">
-      <c r="O143" s="6"/>
-    </row>
-    <row r="144" spans="15:15">
+    <row r="140" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="O140" s="8"/>
+    </row>
+    <row r="141" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A141" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="O141" s="12" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="O142" s="8"/>
+    </row>
+    <row r="143" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="O143" s="8"/>
+    </row>
+    <row r="144" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O144" s="6"/>
     </row>
-    <row r="145" spans="15:15">
+    <row r="145" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="O145" s="6"/>
     </row>
-    <row r="146" spans="15:15">
+    <row r="146" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="O146" s="6"/>
     </row>
-    <row r="147" spans="15:15">
-      <c r="O147" s="6"/>
-    </row>
-    <row r="148" spans="15:15">
+    <row r="147" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="B147" s="7"/>
+      <c r="M147" s="7"/>
+    </row>
+    <row r="148" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="O148" s="6"/>
     </row>
-    <row r="149" spans="15:15">
-      <c r="O149" s="6"/>
-    </row>
-    <row r="150" spans="15:15">
+    <row r="149" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="B149" s="7"/>
+      <c r="M149" s="7"/>
+    </row>
+    <row r="150" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="O150" s="6"/>
     </row>
-    <row r="151" spans="15:15">
+    <row r="151" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="O151" s="6"/>
     </row>
-    <row r="152" spans="15:15">
+    <row r="152" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="O152" s="6"/>
     </row>
-    <row r="153" spans="15:15">
+    <row r="153" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="O153" s="6"/>
     </row>
-    <row r="154" spans="15:15">
+    <row r="154" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="O154" s="6"/>
     </row>
-    <row r="155" spans="15:15">
+    <row r="155" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="O155" s="6"/>
     </row>
-    <row r="156" spans="15:15">
+    <row r="156" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="O156" s="6"/>
     </row>
-    <row r="157" spans="15:15">
+    <row r="157" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="O157" s="6"/>
     </row>
-    <row r="158" spans="15:15">
+    <row r="158" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="O158" s="6"/>
     </row>
-    <row r="159" spans="15:15">
+    <row r="159" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="O159" s="6"/>
     </row>
-    <row r="160" spans="15:15">
+    <row r="160" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="O160" s="6"/>
     </row>
-    <row r="161" spans="15:15">
+    <row r="161" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O161" s="6"/>
     </row>
-    <row r="162" spans="15:15">
+    <row r="162" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O162" s="6"/>
     </row>
-    <row r="163" spans="15:15">
+    <row r="163" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O163" s="6"/>
     </row>
-    <row r="164" spans="15:15">
+    <row r="164" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O164" s="6"/>
     </row>
-    <row r="165" spans="15:15">
+    <row r="165" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O165" s="6"/>
     </row>
-    <row r="166" spans="15:15">
+    <row r="166" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O166" s="6"/>
     </row>
-    <row r="167" spans="15:15">
+    <row r="167" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O167" s="6"/>
     </row>
-    <row r="168" spans="15:15">
+    <row r="168" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O168" s="6"/>
     </row>
-    <row r="169" spans="15:15">
+    <row r="169" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O169" s="6"/>
     </row>
-    <row r="170" spans="15:15">
+    <row r="170" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O170" s="6"/>
     </row>
-    <row r="171" spans="15:15">
+    <row r="171" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O171" s="6"/>
     </row>
-    <row r="172" spans="15:15">
+    <row r="172" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O172" s="6"/>
     </row>
-    <row r="173" spans="15:15">
+    <row r="173" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O173" s="6"/>
     </row>
-    <row r="174" spans="15:15">
+    <row r="174" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O174" s="6"/>
     </row>
-    <row r="175" spans="15:15">
+    <row r="175" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O175" s="6"/>
     </row>
-    <row r="176" spans="15:15">
+    <row r="176" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O176" s="6"/>
     </row>
-    <row r="177" spans="15:15">
+    <row r="177" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O177" s="6"/>
     </row>
-    <row r="178" spans="15:15">
+    <row r="178" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O178" s="6"/>
     </row>
-    <row r="179" spans="15:15">
+    <row r="179" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O179" s="6"/>
     </row>
-    <row r="180" spans="15:15">
+    <row r="180" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O180" s="6"/>
     </row>
-    <row r="181" spans="15:15">
+    <row r="181" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O181" s="6"/>
     </row>
-    <row r="182" spans="15:15">
+    <row r="182" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O182" s="6"/>
     </row>
-    <row r="183" spans="15:15">
+    <row r="183" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O183" s="6"/>
     </row>
-    <row r="184" spans="15:15">
+    <row r="184" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O184" s="6"/>
     </row>
-    <row r="185" spans="15:15">
+    <row r="185" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O185" s="6"/>
     </row>
-    <row r="186" spans="15:15">
+    <row r="186" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O186" s="6"/>
     </row>
-    <row r="187" spans="15:15">
+    <row r="187" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O187" s="6"/>
     </row>
-    <row r="188" spans="15:15">
+    <row r="188" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O188" s="6"/>
     </row>
-    <row r="189" spans="15:15">
+    <row r="189" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O189" s="6"/>
     </row>
-    <row r="190" spans="15:15">
+    <row r="190" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O190" s="6"/>
     </row>
-    <row r="191" spans="15:15">
+    <row r="191" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O191" s="6"/>
     </row>
-    <row r="192" spans="15:15">
+    <row r="192" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O192" s="6"/>
     </row>
-    <row r="193" spans="15:15">
+    <row r="193" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O193" s="6"/>
     </row>
-    <row r="194" spans="15:15">
+    <row r="194" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O194" s="6"/>
     </row>
-    <row r="195" spans="15:15">
+    <row r="195" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O195" s="6"/>
     </row>
-    <row r="196" spans="15:15">
+    <row r="196" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O196" s="6"/>
     </row>
-    <row r="197" spans="15:15">
+    <row r="197" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O197" s="6"/>
     </row>
-    <row r="198" spans="15:15">
+    <row r="198" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O198" s="6"/>
     </row>
-    <row r="199" spans="15:15">
+    <row r="199" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O199" s="6"/>
     </row>
-    <row r="200" spans="15:15">
+    <row r="200" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O200" s="6"/>
     </row>
-    <row r="201" spans="15:15">
+    <row r="201" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O201" s="6"/>
     </row>
-    <row r="202" spans="15:15">
+    <row r="202" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O202" s="6"/>
     </row>
-    <row r="203" spans="15:15">
+    <row r="203" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O203" s="6"/>
     </row>
-    <row r="204" spans="15:15">
+    <row r="204" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O204" s="6"/>
     </row>
-    <row r="205" spans="15:15">
+    <row r="205" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O205" s="6"/>
     </row>
-    <row r="206" spans="15:15">
+    <row r="206" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O206" s="6"/>
     </row>
-    <row r="207" spans="15:15">
+    <row r="207" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O207" s="6"/>
     </row>
-    <row r="208" spans="15:15">
+    <row r="208" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O208" s="6"/>
     </row>
-    <row r="209" spans="15:15">
+    <row r="209" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O209" s="6"/>
     </row>
-    <row r="210" spans="15:15">
+    <row r="210" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O210" s="6"/>
     </row>
-    <row r="211" spans="15:15">
+    <row r="211" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O211" s="6"/>
     </row>
-    <row r="212" spans="15:15">
+    <row r="212" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O212" s="6"/>
     </row>
-    <row r="213" spans="15:15">
+    <row r="213" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O213" s="6"/>
     </row>
-    <row r="214" spans="15:15">
+    <row r="214" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O214" s="6"/>
     </row>
-    <row r="215" spans="15:15">
+    <row r="215" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O215" s="6"/>
     </row>
-    <row r="216" spans="15:15">
+    <row r="216" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O216" s="6"/>
     </row>
-    <row r="217" spans="15:15">
+    <row r="217" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O217" s="6"/>
     </row>
-    <row r="218" spans="15:15">
+    <row r="218" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O218" s="6"/>
     </row>
-    <row r="219" spans="15:15">
+    <row r="219" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O219" s="6"/>
     </row>
-    <row r="220" spans="15:15">
+    <row r="220" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O220" s="6"/>
     </row>
-    <row r="221" spans="15:15">
+    <row r="221" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O221" s="6"/>
     </row>
-    <row r="222" spans="15:15">
+    <row r="222" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O222" s="6"/>
     </row>
-    <row r="223" spans="15:15">
+    <row r="223" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O223" s="6"/>
     </row>
-    <row r="224" spans="15:15">
+    <row r="224" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O224" s="6"/>
     </row>
-    <row r="225" spans="15:15">
+    <row r="225" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O225" s="6"/>
     </row>
-    <row r="226" spans="15:15">
+    <row r="226" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O226" s="6"/>
     </row>
-    <row r="227" spans="15:15">
+    <row r="227" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O227" s="6"/>
     </row>
-    <row r="228" spans="15:15">
+    <row r="228" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O228" s="6"/>
     </row>
-    <row r="229" spans="15:15">
+    <row r="229" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O229" s="6"/>
     </row>
-    <row r="230" spans="15:15">
+    <row r="230" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O230" s="6"/>
     </row>
-    <row r="231" spans="15:15">
+    <row r="231" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O231" s="6"/>
     </row>
-    <row r="232" spans="15:15">
+    <row r="232" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O232" s="6"/>
     </row>
-    <row r="233" spans="15:15">
+    <row r="233" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O233" s="6"/>
     </row>
-    <row r="234" spans="15:15">
+    <row r="234" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O234" s="6"/>
     </row>
-    <row r="235" spans="15:15">
+    <row r="235" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O235" s="6"/>
     </row>
-    <row r="236" spans="15:15">
+    <row r="236" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O236" s="6"/>
     </row>
-    <row r="237" spans="15:15">
+    <row r="237" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O237" s="6"/>
     </row>
-    <row r="238" spans="15:15">
+    <row r="238" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O238" s="6"/>
     </row>
-    <row r="239" spans="15:15">
+    <row r="239" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O239" s="6"/>
     </row>
-    <row r="240" spans="15:15">
+    <row r="240" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O240" s="6"/>
     </row>
-    <row r="241" spans="15:15">
+    <row r="241" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O241" s="6"/>
     </row>
-    <row r="242" spans="15:15">
+    <row r="242" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O242" s="6"/>
     </row>
-    <row r="243" spans="15:15">
+    <row r="243" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O243" s="6"/>
     </row>
-    <row r="244" spans="15:15">
+    <row r="244" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O244" s="6"/>
     </row>
-    <row r="245" spans="15:15">
+    <row r="245" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O245" s="6"/>
     </row>
-    <row r="246" spans="15:15">
+    <row r="246" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O246" s="6"/>
     </row>
-    <row r="247" spans="15:15">
+    <row r="247" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O247" s="6"/>
     </row>
-    <row r="248" spans="15:15">
+    <row r="248" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O248" s="6"/>
     </row>
-    <row r="249" spans="15:15">
+    <row r="249" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O249" s="6"/>
     </row>
-    <row r="250" spans="15:15">
+    <row r="250" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O250" s="6"/>
     </row>
-    <row r="251" spans="15:15">
+    <row r="251" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O251" s="6"/>
     </row>
-    <row r="252" spans="15:15">
+    <row r="252" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O252" s="6"/>
     </row>
-    <row r="253" spans="15:15">
+    <row r="253" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O253" s="6"/>
     </row>
-    <row r="254" spans="15:15">
+    <row r="254" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O254" s="6"/>
     </row>
-    <row r="255" spans="15:15">
+    <row r="255" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O255" s="6"/>
     </row>
-    <row r="256" spans="15:15">
+    <row r="256" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O256" s="6"/>
     </row>
-    <row r="257" spans="15:15">
+    <row r="257" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O257" s="6"/>
     </row>
-    <row r="258" spans="15:15">
+    <row r="258" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O258" s="6"/>
     </row>
-    <row r="259" spans="15:15">
+    <row r="259" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O259" s="6"/>
     </row>
-    <row r="260" spans="15:15">
+    <row r="260" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O260" s="6"/>
     </row>
-    <row r="261" spans="15:15">
+    <row r="261" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O261" s="6"/>
     </row>
-    <row r="262" spans="15:15">
+    <row r="262" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O262" s="6"/>
     </row>
-    <row r="263" spans="15:15">
+    <row r="263" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O263" s="6"/>
     </row>
-    <row r="264" spans="15:15">
+    <row r="264" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O264" s="6"/>
     </row>
-    <row r="265" spans="15:15">
+    <row r="265" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O265" s="6"/>
     </row>
-    <row r="266" spans="15:15">
+    <row r="266" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O266" s="6"/>
     </row>
-    <row r="267" spans="15:15">
+    <row r="267" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O267" s="6"/>
     </row>
-    <row r="268" spans="15:15">
+    <row r="268" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O268" s="6"/>
     </row>
-    <row r="269" spans="15:15">
+    <row r="269" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O269" s="6"/>
     </row>
-    <row r="270" spans="15:15">
+    <row r="270" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O270" s="6"/>
     </row>
-    <row r="271" spans="15:15">
+    <row r="271" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O271" s="6"/>
     </row>
-    <row r="272" spans="15:15">
+    <row r="272" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O272" s="6"/>
     </row>
-    <row r="273" spans="15:15">
+    <row r="273" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O273" s="6"/>
     </row>
-    <row r="274" spans="15:15">
+    <row r="274" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O274" s="6"/>
     </row>
-    <row r="275" spans="15:15">
+    <row r="275" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O275" s="6"/>
     </row>
-    <row r="276" spans="15:15">
+    <row r="276" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O276" s="6"/>
     </row>
-    <row r="277" spans="15:15">
+    <row r="277" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O277" s="6"/>
     </row>
-    <row r="278" spans="15:15">
+    <row r="278" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O278" s="6"/>
     </row>
-    <row r="279" spans="15:15">
+    <row r="279" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O279" s="6"/>
     </row>
-    <row r="280" spans="15:15">
+    <row r="280" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O280" s="6"/>
     </row>
-    <row r="281" spans="15:15">
+    <row r="281" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O281" s="6"/>
     </row>
-    <row r="282" spans="15:15">
+    <row r="282" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O282" s="6"/>
     </row>
-    <row r="283" spans="15:15">
+    <row r="283" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O283" s="6"/>
     </row>
-    <row r="284" spans="15:15">
+    <row r="284" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O284" s="6"/>
     </row>
-    <row r="285" spans="15:15">
+    <row r="285" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O285" s="6"/>
     </row>
-    <row r="286" spans="15:15">
+    <row r="286" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O286" s="6"/>
     </row>
-    <row r="287" spans="15:15">
+    <row r="287" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O287" s="6"/>
     </row>
-    <row r="288" spans="15:15">
+    <row r="288" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O288" s="6"/>
     </row>
-    <row r="289" spans="15:15">
+    <row r="289" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O289" s="6"/>
     </row>
-    <row r="290" spans="15:15">
+    <row r="290" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O290" s="6"/>
     </row>
-    <row r="291" spans="15:15">
+    <row r="291" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O291" s="6"/>
     </row>
-    <row r="292" spans="15:15">
+    <row r="292" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O292" s="6"/>
     </row>
-    <row r="293" spans="15:15">
+    <row r="293" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O293" s="6"/>
     </row>
-    <row r="294" spans="15:15">
+    <row r="294" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O294" s="6"/>
     </row>
-    <row r="295" spans="15:15">
+    <row r="295" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O295" s="6"/>
     </row>
-    <row r="296" spans="15:15">
+    <row r="296" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O296" s="6"/>
     </row>
-    <row r="297" spans="15:15">
+    <row r="297" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O297" s="6"/>
     </row>
-    <row r="298" spans="15:15">
+    <row r="298" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O298" s="6"/>
     </row>
-    <row r="299" spans="15:15">
+    <row r="299" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O299" s="6"/>
     </row>
-    <row r="300" spans="15:15">
+    <row r="300" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O300" s="6"/>
     </row>
-    <row r="301" spans="15:15">
+    <row r="301" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O301" s="6"/>
     </row>
-    <row r="302" spans="15:15">
+    <row r="302" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O302" s="6"/>
     </row>
-    <row r="303" spans="15:15">
+    <row r="303" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O303" s="6"/>
     </row>
-    <row r="304" spans="15:15">
+    <row r="304" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O304" s="6"/>
     </row>
-    <row r="305" spans="15:15">
+    <row r="305" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O305" s="6"/>
     </row>
-    <row r="306" spans="15:15">
+    <row r="306" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O306" s="6"/>
     </row>
-    <row r="307" spans="15:15">
+    <row r="307" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O307" s="6"/>
     </row>
-    <row r="308" spans="15:15">
+    <row r="308" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O308" s="6"/>
     </row>
-    <row r="309" spans="15:15">
+    <row r="309" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O309" s="6"/>
     </row>
-    <row r="310" spans="15:15">
+    <row r="310" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O310" s="6"/>
     </row>
-    <row r="311" spans="15:15">
+    <row r="311" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O311" s="6"/>
     </row>
-    <row r="312" spans="15:15">
+    <row r="312" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O312" s="6"/>
     </row>
-    <row r="313" spans="15:15">
+    <row r="313" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O313" s="6"/>
     </row>
-    <row r="314" spans="15:15">
+    <row r="314" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O314" s="6"/>
     </row>
-    <row r="315" spans="15:15">
+    <row r="315" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O315" s="6"/>
     </row>
-    <row r="316" spans="15:15">
+    <row r="316" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O316" s="6"/>
     </row>
-    <row r="317" spans="15:15">
+    <row r="317" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O317" s="6"/>
     </row>
-    <row r="318" spans="15:15">
+    <row r="318" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O318" s="6"/>
     </row>
-    <row r="319" spans="15:15">
+    <row r="319" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O319" s="6"/>
     </row>
-    <row r="320" spans="15:15">
+    <row r="320" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O320" s="6"/>
     </row>
-    <row r="321" spans="15:15">
+    <row r="321" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O321" s="6"/>
     </row>
-    <row r="322" spans="15:15">
+    <row r="322" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O322" s="6"/>
     </row>
-    <row r="323" spans="15:15">
+    <row r="323" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O323" s="6"/>
     </row>
-    <row r="324" spans="15:15">
+    <row r="324" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O324" s="6"/>
     </row>
-    <row r="325" spans="15:15">
+    <row r="325" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O325" s="6"/>
     </row>
-    <row r="326" spans="15:15">
+    <row r="326" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O326" s="6"/>
     </row>
-    <row r="327" spans="15:15">
+    <row r="327" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O327" s="6"/>
     </row>
-    <row r="328" spans="15:15">
+    <row r="328" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O328" s="6"/>
     </row>
-    <row r="329" spans="15:15">
+    <row r="329" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O329" s="6"/>
     </row>
-    <row r="330" spans="15:15">
+    <row r="330" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O330" s="6"/>
     </row>
-    <row r="331" spans="15:15">
+    <row r="331" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O331" s="6"/>
     </row>
-    <row r="332" spans="15:15">
+    <row r="332" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O332" s="6"/>
     </row>
-    <row r="333" spans="15:15">
+    <row r="333" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O333" s="6"/>
     </row>
-    <row r="334" spans="15:15">
+    <row r="334" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O334" s="6"/>
     </row>
-    <row r="335" spans="15:15">
+    <row r="335" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O335" s="6"/>
     </row>
-    <row r="336" spans="15:15">
+    <row r="336" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O336" s="6"/>
     </row>
-    <row r="337" spans="15:15">
+    <row r="337" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O337" s="6"/>
     </row>
-    <row r="338" spans="15:15">
+    <row r="338" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O338" s="6"/>
     </row>
-    <row r="339" spans="15:15">
+    <row r="339" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O339" s="6"/>
     </row>
-    <row r="340" spans="15:15">
+    <row r="340" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O340" s="6"/>
     </row>
-    <row r="341" spans="15:15">
+    <row r="341" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O341" s="6"/>
     </row>
-    <row r="342" spans="15:15">
+    <row r="342" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O342" s="6"/>
     </row>
-    <row r="343" spans="15:15">
+    <row r="343" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O343" s="6"/>
     </row>
-    <row r="344" spans="15:15">
+    <row r="344" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O344" s="6"/>
     </row>
-    <row r="345" spans="15:15">
+    <row r="345" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O345" s="6"/>
     </row>
-    <row r="346" spans="15:15">
+    <row r="346" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O346" s="6"/>
     </row>
-    <row r="347" spans="15:15">
+    <row r="347" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O347" s="6"/>
     </row>
-    <row r="348" spans="15:15">
+    <row r="348" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O348" s="6"/>
     </row>
-    <row r="349" spans="15:15">
+    <row r="349" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O349" s="6"/>
     </row>
-    <row r="350" spans="15:15">
+    <row r="350" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O350" s="6"/>
     </row>
-    <row r="351" spans="15:15">
+    <row r="351" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O351" s="6"/>
     </row>
-    <row r="352" spans="15:15">
+    <row r="352" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O352" s="6"/>
     </row>
-    <row r="353" spans="15:15">
+    <row r="353" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O353" s="6"/>
     </row>
-    <row r="354" spans="15:15">
+    <row r="354" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O354" s="6"/>
     </row>
-    <row r="355" spans="15:15">
+    <row r="355" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O355" s="6"/>
     </row>
-    <row r="356" spans="15:15">
+    <row r="356" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O356" s="6"/>
     </row>
-    <row r="357" spans="15:15">
+    <row r="357" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O357" s="6"/>
     </row>
-    <row r="358" spans="15:15">
+    <row r="358" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O358" s="6"/>
     </row>
-    <row r="359" spans="15:15">
+    <row r="359" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O359" s="6"/>
     </row>
-    <row r="360" spans="15:15">
+    <row r="360" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O360" s="6"/>
     </row>
-    <row r="361" spans="15:15">
+    <row r="361" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O361" s="6"/>
     </row>
-    <row r="362" spans="15:15">
+    <row r="362" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O362" s="6"/>
     </row>
-    <row r="363" spans="15:15">
+    <row r="363" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O363" s="6"/>
     </row>
-    <row r="364" spans="15:15">
+    <row r="364" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O364" s="6"/>
     </row>
-    <row r="365" spans="15:15">
+    <row r="365" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O365" s="6"/>
     </row>
-    <row r="366" spans="15:15">
+    <row r="366" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O366" s="6"/>
     </row>
-    <row r="367" spans="15:15">
+    <row r="367" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O367" s="6"/>
     </row>
-    <row r="368" spans="15:15">
+    <row r="368" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O368" s="6"/>
     </row>
-    <row r="369" spans="15:15">
+    <row r="369" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O369" s="6"/>
     </row>
-    <row r="370" spans="15:15">
+    <row r="370" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O370" s="6"/>
     </row>
-    <row r="371" spans="15:15">
+    <row r="371" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O371" s="6"/>
     </row>
-    <row r="372" spans="15:15">
+    <row r="372" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O372" s="6"/>
     </row>
-    <row r="373" spans="15:15">
+    <row r="373" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O373" s="6"/>
     </row>
-    <row r="374" spans="15:15">
+    <row r="374" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O374" s="6"/>
     </row>
-    <row r="375" spans="15:15">
+    <row r="375" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O375" s="6"/>
     </row>
-    <row r="376" spans="15:15">
+    <row r="376" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O376" s="6"/>
     </row>
-    <row r="377" spans="15:15">
+    <row r="377" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O377" s="6"/>
     </row>
-    <row r="378" spans="15:15">
+    <row r="378" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O378" s="6"/>
     </row>
-    <row r="379" spans="15:15">
+    <row r="379" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O379" s="6"/>
     </row>
-    <row r="380" spans="15:15">
+    <row r="380" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O380" s="6"/>
     </row>
-    <row r="381" spans="15:15">
+    <row r="381" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O381" s="6"/>
     </row>
-    <row r="382" spans="15:15">
+    <row r="382" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O382" s="6"/>
     </row>
-    <row r="383" spans="15:15">
+    <row r="383" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O383" s="6"/>
     </row>
-    <row r="384" spans="15:15">
+    <row r="384" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O384" s="6"/>
     </row>
-    <row r="385" spans="15:15">
+    <row r="385" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O385" s="6"/>
     </row>
-    <row r="386" spans="15:15">
+    <row r="386" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O386" s="6"/>
     </row>
-    <row r="387" spans="15:15">
+    <row r="387" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O387" s="6"/>
     </row>
-    <row r="388" spans="15:15">
+    <row r="388" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O388" s="6"/>
     </row>
-    <row r="389" spans="15:15">
+    <row r="389" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O389" s="6"/>
     </row>
-    <row r="390" spans="15:15">
+    <row r="390" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O390" s="6"/>
     </row>
-    <row r="391" spans="15:15">
+    <row r="391" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O391" s="6"/>
     </row>
-    <row r="392" spans="15:15">
+    <row r="392" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O392" s="6"/>
     </row>
-    <row r="393" spans="15:15">
+    <row r="393" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O393" s="6"/>
     </row>
-    <row r="394" spans="15:15">
+    <row r="394" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O394" s="6"/>
     </row>
-    <row r="395" spans="15:15">
+    <row r="395" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O395" s="6"/>
     </row>
-    <row r="396" spans="15:15">
+    <row r="396" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O396" s="6"/>
     </row>
-    <row r="397" spans="15:15">
+    <row r="397" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O397" s="6"/>
     </row>
-    <row r="398" spans="15:15">
+    <row r="398" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O398" s="6"/>
     </row>
-    <row r="399" spans="15:15">
+    <row r="399" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O399" s="6"/>
     </row>
-    <row r="400" spans="15:15">
+    <row r="400" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O400" s="6"/>
     </row>
-    <row r="401" spans="15:15">
+    <row r="401" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O401" s="6"/>
     </row>
-    <row r="402" spans="15:15">
+    <row r="402" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O402" s="6"/>
     </row>
-    <row r="403" spans="15:15">
+    <row r="403" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O403" s="6"/>
     </row>
-    <row r="404" spans="15:15">
+    <row r="404" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O404" s="6"/>
     </row>
-    <row r="405" spans="15:15">
+    <row r="405" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O405" s="6"/>
     </row>
-    <row r="406" spans="15:15">
+    <row r="406" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O406" s="6"/>
     </row>
-    <row r="407" spans="15:15">
+    <row r="407" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O407" s="6"/>
     </row>
-    <row r="408" spans="15:15">
+    <row r="408" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O408" s="6"/>
     </row>
-    <row r="409" spans="15:15">
+    <row r="409" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O409" s="6"/>
     </row>
-    <row r="410" spans="15:15">
+    <row r="410" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O410" s="6"/>
     </row>
-    <row r="411" spans="15:15">
+    <row r="411" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O411" s="6"/>
     </row>
-    <row r="412" spans="15:15">
+    <row r="412" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O412" s="6"/>
     </row>
-    <row r="413" spans="15:15">
+    <row r="413" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O413" s="6"/>
     </row>
-    <row r="414" spans="15:15">
+    <row r="414" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O414" s="6"/>
     </row>
-    <row r="415" spans="15:15">
+    <row r="415" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O415" s="6"/>
     </row>
-    <row r="416" spans="15:15">
+    <row r="416" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O416" s="6"/>
     </row>
-    <row r="417" spans="15:15">
+    <row r="417" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O417" s="6"/>
     </row>
-    <row r="418" spans="15:15">
+    <row r="418" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O418" s="6"/>
     </row>
-    <row r="419" spans="15:15">
+    <row r="419" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O419" s="6"/>
     </row>
-    <row r="420" spans="15:15">
+    <row r="420" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O420" s="6"/>
     </row>
-    <row r="421" spans="15:15">
+    <row r="421" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O421" s="6"/>
     </row>
-    <row r="422" spans="15:15">
+    <row r="422" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O422" s="6"/>
     </row>
-    <row r="423" spans="15:15">
+    <row r="423" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O423" s="6"/>
     </row>
-    <row r="424" spans="15:15">
+    <row r="424" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O424" s="6"/>
     </row>
-    <row r="425" spans="15:15">
+    <row r="425" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O425" s="6"/>
     </row>
-    <row r="426" spans="15:15">
+    <row r="426" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O426" s="6"/>
     </row>
-    <row r="427" spans="15:15">
+    <row r="427" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O427" s="6"/>
     </row>
-    <row r="428" spans="15:15">
+    <row r="428" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O428" s="6"/>
     </row>
-    <row r="429" spans="15:15">
+    <row r="429" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O429" s="6"/>
     </row>
-    <row r="430" spans="15:15">
+    <row r="430" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O430" s="6"/>
     </row>
-    <row r="431" spans="15:15">
+    <row r="431" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O431" s="6"/>
     </row>
-    <row r="432" spans="15:15">
+    <row r="432" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O432" s="6"/>
     </row>
-    <row r="433" spans="15:15">
+    <row r="433" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O433" s="6"/>
     </row>
-    <row r="435" spans="15:15">
+    <row r="434" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O434" s="6"/>
+    </row>
+    <row r="435" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O435" s="6"/>
     </row>
-    <row r="436" spans="15:15">
+    <row r="436" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O436" s="6"/>
     </row>
-    <row r="437" spans="15:15">
+    <row r="437" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O437" s="6"/>
     </row>
-    <row r="438" spans="15:15">
+    <row r="438" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O438" s="6"/>
     </row>
-    <row r="439" spans="15:15">
+    <row r="439" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O439" s="6"/>
     </row>
-    <row r="440" spans="15:15">
+    <row r="440" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O440" s="6"/>
     </row>
-    <row r="441" spans="15:15">
+    <row r="441" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O441" s="6"/>
     </row>
-    <row r="442" spans="15:15">
+    <row r="442" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O442" s="6"/>
     </row>
-    <row r="443" spans="15:15">
+    <row r="443" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O443" s="6"/>
     </row>
-    <row r="444" spans="15:15">
+    <row r="444" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O444" s="6"/>
     </row>
-    <row r="445" spans="15:15">
+    <row r="445" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O445" s="6"/>
     </row>
-    <row r="446" spans="15:15">
+    <row r="446" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O446" s="6"/>
     </row>
-    <row r="447" spans="15:15">
+    <row r="447" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O447" s="6"/>
     </row>
-    <row r="448" spans="15:15">
+    <row r="448" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O448" s="6"/>
     </row>
-    <row r="449" spans="15:15">
+    <row r="449" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O449" s="6"/>
     </row>
-    <row r="450" spans="15:15">
+    <row r="450" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O450" s="6"/>
     </row>
-    <row r="451" spans="15:15">
+    <row r="451" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O451" s="6"/>
     </row>
-    <row r="452" spans="15:15">
+    <row r="452" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O452" s="6"/>
     </row>
-    <row r="453" spans="15:15">
+    <row r="453" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O453" s="6"/>
     </row>
-    <row r="454" spans="15:15">
+    <row r="454" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O454" s="6"/>
     </row>
-    <row r="455" spans="15:15">
+    <row r="455" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O455" s="6"/>
     </row>
-    <row r="456" spans="15:15">
+    <row r="456" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O456" s="6"/>
     </row>
-    <row r="457" spans="15:15">
+    <row r="457" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O457" s="6"/>
     </row>
-    <row r="458" spans="15:15">
+    <row r="458" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O458" s="6"/>
     </row>
-    <row r="459" spans="15:15">
+    <row r="459" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O459" s="6"/>
     </row>
-    <row r="460" spans="15:15">
+    <row r="460" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O460" s="6"/>
     </row>
-    <row r="461" spans="15:15">
+    <row r="461" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O461" s="6"/>
     </row>
-    <row r="462" spans="15:15">
+    <row r="462" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O462" s="6"/>
     </row>
-    <row r="463" spans="15:15">
+    <row r="463" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O463" s="6"/>
     </row>
-    <row r="464" spans="15:15">
+    <row r="464" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O464" s="6"/>
     </row>
-    <row r="465" spans="15:15">
+    <row r="465" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O465" s="6"/>
     </row>
-    <row r="466" spans="15:15">
+    <row r="466" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O466" s="6"/>
     </row>
-    <row r="467" spans="15:15">
+    <row r="467" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O467" s="6"/>
     </row>
-    <row r="468" spans="15:15">
+    <row r="468" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O468" s="6"/>
     </row>
-    <row r="469" spans="15:15">
+    <row r="469" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O469" s="6"/>
     </row>
-    <row r="470" spans="15:15">
+    <row r="470" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O470" s="6"/>
     </row>
-    <row r="471" spans="15:15">
+    <row r="471" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O471" s="6"/>
     </row>
-    <row r="472" spans="15:15">
+    <row r="472" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O472" s="6"/>
     </row>
-    <row r="473" spans="15:15">
+    <row r="473" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O473" s="6"/>
     </row>
-    <row r="474" spans="15:15">
+    <row r="474" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O474" s="6"/>
     </row>
-    <row r="475" spans="15:15">
+    <row r="475" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O475" s="6"/>
     </row>
-    <row r="476" spans="15:15">
+    <row r="476" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O476" s="6"/>
     </row>
-    <row r="477" spans="15:15">
+    <row r="477" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O477" s="6"/>
     </row>
-    <row r="478" spans="15:15">
+    <row r="478" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O478" s="6"/>
     </row>
-    <row r="479" spans="15:15">
+    <row r="479" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O479" s="6"/>
     </row>
-    <row r="480" spans="15:15">
+    <row r="480" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O480" s="6"/>
     </row>
-    <row r="481" spans="15:15">
+    <row r="481" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O481" s="6"/>
     </row>
-    <row r="482" spans="15:15">
+    <row r="482" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O482" s="6"/>
     </row>
-    <row r="483" spans="15:15">
+    <row r="483" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O483" s="6"/>
     </row>
-    <row r="484" spans="15:15">
+    <row r="484" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O484" s="6"/>
     </row>
-    <row r="485" spans="15:15">
+    <row r="485" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O485" s="6"/>
     </row>
-    <row r="486" spans="15:15">
+    <row r="486" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O486" s="6"/>
     </row>
-    <row r="487" spans="15:15">
+    <row r="487" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O487" s="6"/>
     </row>
-    <row r="488" spans="15:15">
+    <row r="488" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O488" s="6"/>
     </row>
-    <row r="489" spans="15:15">
+    <row r="489" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O489" s="6"/>
     </row>
-    <row r="490" spans="15:15">
+    <row r="490" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O490" s="6"/>
     </row>
-    <row r="491" spans="15:15">
-      <c r="O491" s="6"/>
-    </row>
-    <row r="492" spans="15:15">
+    <row r="492" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O492" s="6"/>
     </row>
-    <row r="493" spans="15:15">
+    <row r="493" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O493" s="6"/>
     </row>
-    <row r="494" spans="15:15">
+    <row r="494" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O494" s="6"/>
     </row>
-    <row r="495" spans="15:15">
+    <row r="495" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O495" s="6"/>
     </row>
-    <row r="496" spans="15:15">
+    <row r="496" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O496" s="6"/>
     </row>
-    <row r="497" spans="15:15">
+    <row r="497" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O497" s="6"/>
     </row>
-    <row r="498" spans="15:15">
+    <row r="498" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O498" s="6"/>
     </row>
-    <row r="499" spans="15:15">
+    <row r="499" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O499" s="6"/>
     </row>
-    <row r="500" spans="15:15">
+    <row r="500" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O500" s="6"/>
     </row>
-    <row r="501" spans="15:15">
+    <row r="501" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O501" s="6"/>
     </row>
-    <row r="502" spans="15:15">
+    <row r="502" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O502" s="6"/>
     </row>
-    <row r="503" spans="15:15">
+    <row r="503" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O503" s="6"/>
     </row>
-    <row r="504" spans="15:15">
+    <row r="504" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O504" s="6"/>
     </row>
-    <row r="505" spans="15:15">
+    <row r="505" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O505" s="6"/>
     </row>
-    <row r="506" spans="15:15">
+    <row r="506" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O506" s="6"/>
     </row>
-    <row r="507" spans="15:15">
+    <row r="507" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O507" s="6"/>
     </row>
-    <row r="508" spans="15:15">
+    <row r="508" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O508" s="6"/>
     </row>
-    <row r="509" spans="15:15">
+    <row r="509" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O509" s="6"/>
     </row>
-    <row r="510" spans="15:15">
+    <row r="510" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O510" s="6"/>
     </row>
-    <row r="511" spans="15:15">
+    <row r="511" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O511" s="6"/>
     </row>
-    <row r="512" spans="15:15">
+    <row r="512" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O512" s="6"/>
     </row>
-    <row r="513" spans="15:15">
+    <row r="513" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O513" s="6"/>
     </row>
-    <row r="514" spans="15:15">
+    <row r="514" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O514" s="6"/>
     </row>
-    <row r="515" spans="15:15">
+    <row r="515" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O515" s="6"/>
     </row>
-    <row r="516" spans="15:15">
+    <row r="516" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O516" s="6"/>
     </row>
-    <row r="517" spans="15:15">
+    <row r="517" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O517" s="6"/>
     </row>
-    <row r="518" spans="15:15">
+    <row r="518" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O518" s="6"/>
     </row>
-    <row r="519" spans="15:15">
+    <row r="519" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O519" s="6"/>
     </row>
-    <row r="520" spans="15:15">
+    <row r="520" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O520" s="6"/>
     </row>
-    <row r="521" spans="15:15">
+    <row r="521" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O521" s="6"/>
     </row>
-    <row r="522" spans="15:15">
+    <row r="522" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O522" s="6"/>
     </row>
-    <row r="523" spans="15:15">
+    <row r="523" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O523" s="6"/>
     </row>
-    <row r="524" spans="15:15">
+    <row r="524" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O524" s="6"/>
     </row>
-    <row r="525" spans="15:15">
+    <row r="525" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O525" s="6"/>
     </row>
-    <row r="526" spans="15:15">
+    <row r="526" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O526" s="6"/>
     </row>
-    <row r="527" spans="15:15">
+    <row r="527" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O527" s="6"/>
     </row>
-    <row r="528" spans="15:15">
+    <row r="528" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O528" s="6"/>
     </row>
-    <row r="529" spans="15:15">
+    <row r="529" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O529" s="6"/>
     </row>
-    <row r="530" spans="15:15">
+    <row r="530" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O530" s="6"/>
     </row>
-    <row r="531" spans="15:15">
+    <row r="531" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O531" s="6"/>
     </row>
-    <row r="532" spans="15:15">
+    <row r="532" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O532" s="6"/>
     </row>
-    <row r="533" spans="15:15">
+    <row r="533" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O533" s="6"/>
     </row>
-    <row r="534" spans="15:15">
+    <row r="534" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O534" s="6"/>
     </row>
-    <row r="535" spans="15:15">
+    <row r="535" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O535" s="6"/>
     </row>
-    <row r="536" spans="15:15">
+    <row r="536" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O536" s="6"/>
     </row>
-    <row r="537" spans="15:15">
+    <row r="537" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O537" s="6"/>
     </row>
-    <row r="538" spans="15:15">
+    <row r="538" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O538" s="6"/>
     </row>
-    <row r="539" spans="15:15">
+    <row r="539" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O539" s="6"/>
     </row>
-    <row r="540" spans="15:15">
+    <row r="540" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O540" s="6"/>
     </row>
-    <row r="541" spans="15:15">
+    <row r="541" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O541" s="6"/>
     </row>
-    <row r="542" spans="15:15">
+    <row r="542" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O542" s="6"/>
     </row>
-    <row r="543" spans="15:15">
+    <row r="543" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O543" s="6"/>
     </row>
-    <row r="544" spans="15:15">
+    <row r="544" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O544" s="6"/>
     </row>
-    <row r="545" spans="15:15">
+    <row r="545" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O545" s="6"/>
     </row>
-    <row r="546" spans="15:15">
+    <row r="546" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O546" s="6"/>
     </row>
-    <row r="547" spans="15:15">
+    <row r="547" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O547" s="6"/>
     </row>
-    <row r="548" spans="15:15">
+    <row r="548" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O548" s="6"/>
     </row>
-    <row r="549" spans="15:15">
+    <row r="549" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O549" s="6"/>
     </row>
-    <row r="550" spans="15:15">
+    <row r="550" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O550" s="6"/>
     </row>
-    <row r="551" spans="15:15">
+    <row r="551" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O551" s="6"/>
     </row>
-    <row r="552" spans="15:15">
+    <row r="552" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O552" s="6"/>
     </row>
-    <row r="553" spans="15:15">
+    <row r="553" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O553" s="6"/>
     </row>
-    <row r="554" spans="15:15">
+    <row r="554" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O554" s="6"/>
     </row>
-    <row r="555" spans="15:15">
+    <row r="555" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O555" s="6"/>
     </row>
-    <row r="556" spans="15:15">
+    <row r="556" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O556" s="6"/>
     </row>
-    <row r="557" spans="15:15">
+    <row r="557" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O557" s="6"/>
     </row>
-    <row r="558" spans="15:15">
+    <row r="558" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O558" s="6"/>
     </row>
-    <row r="559" spans="15:15">
+    <row r="559" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O559" s="6"/>
     </row>
-    <row r="560" spans="15:15">
+    <row r="560" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O560" s="6"/>
     </row>
-    <row r="561" spans="15:15">
+    <row r="561" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O561" s="6"/>
     </row>
-    <row r="562" spans="15:15">
+    <row r="562" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O562" s="6"/>
     </row>
-    <row r="563" spans="15:15">
+    <row r="563" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O563" s="6"/>
     </row>
-    <row r="564" spans="15:15">
+    <row r="564" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O564" s="6"/>
     </row>
-    <row r="565" spans="15:15">
+    <row r="565" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O565" s="6"/>
     </row>
-    <row r="566" spans="15:15">
+    <row r="566" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O566" s="6"/>
     </row>
-    <row r="567" spans="15:15">
+    <row r="567" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O567" s="6"/>
     </row>
-    <row r="568" spans="15:15">
+    <row r="568" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O568" s="6"/>
     </row>
-    <row r="569" spans="15:15">
+    <row r="569" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O569" s="6"/>
     </row>
-    <row r="570" spans="15:15">
+    <row r="570" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O570" s="6"/>
     </row>
-    <row r="571" spans="15:15">
+    <row r="571" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O571" s="6"/>
     </row>
-    <row r="572" spans="15:15">
+    <row r="572" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O572" s="6"/>
     </row>
-    <row r="573" spans="15:15">
+    <row r="573" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O573" s="6"/>
     </row>
-    <row r="574" spans="15:15">
+    <row r="574" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O574" s="6"/>
     </row>
-    <row r="575" spans="15:15">
+    <row r="575" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O575" s="6"/>
     </row>
-    <row r="576" spans="15:15">
+    <row r="576" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O576" s="6"/>
     </row>
-    <row r="577" spans="15:15">
+    <row r="577" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O577" s="6"/>
     </row>
-    <row r="578" spans="15:15">
+    <row r="578" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O578" s="6"/>
     </row>
-    <row r="579" spans="15:15">
+    <row r="579" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O579" s="6"/>
     </row>
-    <row r="580" spans="15:15">
+    <row r="580" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O580" s="6"/>
     </row>
-    <row r="581" spans="15:15">
+    <row r="581" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O581" s="6"/>
     </row>
-    <row r="582" spans="15:15">
+    <row r="582" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O582" s="6"/>
     </row>
-    <row r="583" spans="15:15">
+    <row r="583" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O583" s="6"/>
     </row>
-    <row r="584" spans="15:15">
+    <row r="584" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O584" s="6"/>
     </row>
-    <row r="585" spans="15:15">
+    <row r="585" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O585" s="6"/>
     </row>
-    <row r="586" spans="15:15">
+    <row r="586" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O586" s="6"/>
     </row>
-    <row r="587" spans="15:15">
+    <row r="587" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O587" s="6"/>
     </row>
-    <row r="588" spans="15:15">
+    <row r="588" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O588" s="6"/>
     </row>
-    <row r="589" spans="15:15">
+    <row r="589" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O589" s="6"/>
     </row>
-    <row r="590" spans="15:15">
+    <row r="590" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O590" s="6"/>
     </row>
-    <row r="591" spans="15:15">
+    <row r="591" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O591" s="6"/>
     </row>
-    <row r="592" spans="15:15">
+    <row r="592" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O592" s="6"/>
     </row>
-    <row r="593" spans="15:15">
+    <row r="593" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O593" s="6"/>
     </row>
-    <row r="594" spans="15:15">
+    <row r="594" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O594" s="6"/>
     </row>
-    <row r="595" spans="15:15">
+    <row r="595" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O595" s="6"/>
     </row>
-    <row r="596" spans="15:15">
+    <row r="596" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O596" s="6"/>
     </row>
-    <row r="597" spans="15:15">
+    <row r="597" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O597" s="6"/>
     </row>
-    <row r="598" spans="15:15">
+    <row r="598" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O598" s="6"/>
     </row>
-    <row r="599" spans="15:15">
+    <row r="599" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O599" s="6"/>
     </row>
-    <row r="600" spans="15:15">
+    <row r="600" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O600" s="6"/>
     </row>
-    <row r="601" spans="15:15">
+    <row r="601" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O601" s="6"/>
     </row>
-    <row r="602" spans="15:15">
+    <row r="602" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O602" s="6"/>
     </row>
-    <row r="603" spans="15:15">
+    <row r="603" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O603" s="6"/>
     </row>
-    <row r="604" spans="15:15">
+    <row r="604" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O604" s="6"/>
     </row>
-    <row r="605" spans="15:15">
+    <row r="605" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O605" s="6"/>
     </row>
-    <row r="606" spans="15:15">
+    <row r="606" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O606" s="6"/>
     </row>
-    <row r="607" spans="15:15">
+    <row r="607" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O607" s="6"/>
     </row>
-    <row r="608" spans="15:15">
+    <row r="608" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O608" s="6"/>
     </row>
-    <row r="609" spans="15:15">
+    <row r="609" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O609" s="6"/>
     </row>
-    <row r="610" spans="15:15">
+    <row r="610" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O610" s="6"/>
     </row>
-    <row r="611" spans="15:15">
+    <row r="611" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O611" s="6"/>
     </row>
-    <row r="612" spans="15:15">
+    <row r="612" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O612" s="6"/>
     </row>
-    <row r="613" spans="15:15">
+    <row r="613" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O613" s="6"/>
     </row>
-    <row r="614" spans="15:15">
+    <row r="614" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O614" s="6"/>
     </row>
-    <row r="615" spans="15:15">
+    <row r="615" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O615" s="6"/>
     </row>
-    <row r="616" spans="15:15">
+    <row r="616" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O616" s="6"/>
     </row>
-    <row r="617" spans="15:15">
+    <row r="617" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O617" s="6"/>
     </row>
-    <row r="618" spans="15:15">
+    <row r="618" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O618" s="6"/>
     </row>
-    <row r="619" spans="15:15">
+    <row r="619" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O619" s="6"/>
     </row>
-    <row r="620" spans="15:15">
+    <row r="620" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O620" s="6"/>
     </row>
-    <row r="621" spans="15:15">
+    <row r="621" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O621" s="6"/>
     </row>
-    <row r="622" spans="15:15">
+    <row r="622" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O622" s="6"/>
     </row>
-    <row r="623" spans="15:15">
+    <row r="623" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O623" s="6"/>
     </row>
-    <row r="624" spans="15:15">
+    <row r="624" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O624" s="6"/>
     </row>
-    <row r="625" spans="15:15">
+    <row r="625" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O625" s="6"/>
     </row>
-    <row r="626" spans="15:15">
+    <row r="626" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O626" s="6"/>
     </row>
-    <row r="627" spans="15:15">
+    <row r="627" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O627" s="6"/>
     </row>
-    <row r="628" spans="15:15">
+    <row r="628" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O628" s="6"/>
     </row>
-    <row r="629" spans="15:15">
+    <row r="629" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O629" s="6"/>
     </row>
-    <row r="630" spans="15:15">
+    <row r="630" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O630" s="6"/>
     </row>
-    <row r="631" spans="15:15">
+    <row r="631" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O631" s="6"/>
     </row>
-    <row r="632" spans="15:15">
+    <row r="632" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O632" s="6"/>
     </row>
-    <row r="633" spans="15:15">
+    <row r="633" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O633" s="6"/>
     </row>
-    <row r="634" spans="15:15">
+    <row r="634" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O634" s="6"/>
     </row>
-    <row r="635" spans="15:15">
+    <row r="635" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O635" s="6"/>
     </row>
-    <row r="636" spans="15:15">
+    <row r="636" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O636" s="6"/>
     </row>
-    <row r="637" spans="15:15">
+    <row r="637" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O637" s="6"/>
     </row>
-    <row r="638" spans="15:15">
+    <row r="638" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O638" s="6"/>
     </row>
-    <row r="639" spans="15:15">
+    <row r="639" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O639" s="6"/>
     </row>
-    <row r="640" spans="15:15">
+    <row r="640" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O640" s="6"/>
     </row>
-    <row r="641" spans="15:15">
+    <row r="641" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O641" s="6"/>
     </row>
-    <row r="642" spans="15:15">
+    <row r="642" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O642" s="6"/>
     </row>
-    <row r="643" spans="15:15">
+    <row r="643" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O643" s="6"/>
     </row>
-    <row r="644" spans="15:15">
+    <row r="644" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O644" s="6"/>
     </row>
-    <row r="645" spans="15:15">
+    <row r="645" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O645" s="6"/>
     </row>
-    <row r="646" spans="15:15">
+    <row r="646" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O646" s="6"/>
     </row>
-    <row r="647" spans="15:15">
+    <row r="647" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O647" s="6"/>
     </row>
-    <row r="648" spans="15:15">
+    <row r="648" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O648" s="6"/>
     </row>
-    <row r="649" spans="15:15">
+    <row r="649" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O649" s="6"/>
     </row>
-    <row r="650" spans="15:15">
+    <row r="650" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O650" s="6"/>
     </row>
-    <row r="651" spans="15:15">
+    <row r="651" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O651" s="6"/>
     </row>
-    <row r="652" spans="15:15">
+    <row r="652" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O652" s="6"/>
     </row>
-    <row r="653" spans="15:15">
+    <row r="653" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O653" s="6"/>
     </row>
-    <row r="654" spans="15:15">
+    <row r="654" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O654" s="6"/>
     </row>
-    <row r="655" spans="15:15">
+    <row r="655" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O655" s="6"/>
     </row>
-    <row r="656" spans="15:15">
+    <row r="656" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O656" s="6"/>
     </row>
-    <row r="657" spans="15:15">
+    <row r="657" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O657" s="6"/>
     </row>
-    <row r="658" spans="15:15">
+    <row r="658" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O658" s="6"/>
     </row>
-    <row r="659" spans="15:15">
+    <row r="659" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O659" s="6"/>
     </row>
-    <row r="660" spans="15:15">
+    <row r="660" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O660" s="6"/>
     </row>
-    <row r="661" spans="15:15">
+    <row r="661" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O661" s="6"/>
     </row>
-    <row r="662" spans="15:15">
+    <row r="662" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O662" s="6"/>
     </row>
-    <row r="663" spans="15:15">
+    <row r="663" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O663" s="6"/>
     </row>
-    <row r="664" spans="15:15">
+    <row r="664" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O664" s="6"/>
     </row>
-    <row r="665" spans="15:15">
+    <row r="665" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O665" s="6"/>
     </row>
-    <row r="666" spans="15:15">
+    <row r="666" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O666" s="6"/>
     </row>
-    <row r="667" spans="15:15">
+    <row r="667" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O667" s="6"/>
     </row>
-    <row r="668" spans="15:15">
+    <row r="668" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O668" s="6"/>
     </row>
-    <row r="669" spans="15:15">
+    <row r="669" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O669" s="6"/>
     </row>
-    <row r="670" spans="15:15">
+    <row r="670" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O670" s="6"/>
     </row>
-    <row r="671" spans="15:15">
+    <row r="671" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O671" s="6"/>
     </row>
-    <row r="672" spans="15:15">
+    <row r="672" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O672" s="6"/>
     </row>
-    <row r="673" spans="15:15">
+    <row r="673" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O673" s="6"/>
     </row>
-    <row r="674" spans="15:15">
+    <row r="674" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O674" s="6"/>
     </row>
-    <row r="675" spans="15:15">
+    <row r="675" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O675" s="6"/>
     </row>
-    <row r="676" spans="15:15">
+    <row r="676" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O676" s="6"/>
     </row>
-    <row r="677" spans="15:15">
+    <row r="677" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O677" s="6"/>
     </row>
-    <row r="678" spans="15:15">
+    <row r="678" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O678" s="6"/>
     </row>
-    <row r="679" spans="15:15">
+    <row r="679" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O679" s="6"/>
     </row>
-    <row r="680" spans="15:15">
+    <row r="680" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O680" s="6"/>
     </row>
-    <row r="681" spans="15:15">
+    <row r="681" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O681" s="6"/>
     </row>
-    <row r="682" spans="15:15">
+    <row r="682" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O682" s="6"/>
     </row>
-    <row r="683" spans="15:15">
+    <row r="683" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O683" s="6"/>
     </row>
-    <row r="684" spans="15:15">
+    <row r="684" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O684" s="6"/>
     </row>
-    <row r="685" spans="15:15">
+    <row r="685" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O685" s="6"/>
     </row>
-    <row r="686" spans="15:15">
+    <row r="686" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O686" s="6"/>
     </row>
-    <row r="687" spans="15:15">
+    <row r="687" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O687" s="6"/>
     </row>
-    <row r="688" spans="15:15">
+    <row r="688" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O688" s="6"/>
     </row>
-    <row r="689" spans="15:15">
+    <row r="689" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O689" s="6"/>
     </row>
-    <row r="690" spans="15:15">
+    <row r="690" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O690" s="6"/>
     </row>
-    <row r="691" spans="15:15">
+    <row r="691" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O691" s="6"/>
     </row>
-    <row r="692" spans="15:15">
+    <row r="692" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O692" s="6"/>
     </row>
-    <row r="693" spans="15:15">
+    <row r="693" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O693" s="6"/>
     </row>
-    <row r="694" spans="15:15">
+    <row r="694" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O694" s="6"/>
     </row>
-    <row r="695" spans="15:15">
+    <row r="695" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O695" s="6"/>
     </row>
-    <row r="696" spans="15:15">
+    <row r="696" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O696" s="6"/>
     </row>
-    <row r="697" spans="15:15">
+    <row r="697" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O697" s="6"/>
     </row>
-    <row r="698" spans="15:15">
+    <row r="698" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O698" s="6"/>
     </row>
-    <row r="699" spans="15:15">
+    <row r="699" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O699" s="6"/>
     </row>
-    <row r="700" spans="15:15">
+    <row r="700" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O700" s="6"/>
     </row>
-    <row r="701" spans="15:15">
+    <row r="701" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O701" s="6"/>
     </row>
-    <row r="702" spans="15:15">
+    <row r="702" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O702" s="6"/>
     </row>
-    <row r="703" spans="15:15">
+    <row r="703" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O703" s="6"/>
     </row>
-    <row r="704" spans="15:15">
+    <row r="704" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O704" s="6"/>
     </row>
-    <row r="705" spans="15:15">
+    <row r="705" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O705" s="6"/>
     </row>
-    <row r="706" spans="15:15">
+    <row r="706" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O706" s="6"/>
     </row>
-    <row r="707" spans="15:15">
+    <row r="707" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O707" s="6"/>
     </row>
-    <row r="708" spans="15:15">
+    <row r="708" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O708" s="6"/>
     </row>
-    <row r="709" spans="15:15">
+    <row r="709" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O709" s="6"/>
     </row>
-    <row r="710" spans="15:15">
+    <row r="710" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O710" s="6"/>
     </row>
-    <row r="711" spans="15:15">
+    <row r="711" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O711" s="6"/>
     </row>
-    <row r="712" spans="15:15">
+    <row r="712" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O712" s="6"/>
     </row>
-    <row r="713" spans="15:15">
+    <row r="713" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O713" s="6"/>
     </row>
-    <row r="714" spans="15:15">
+    <row r="714" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O714" s="6"/>
     </row>
-    <row r="715" spans="15:15">
+    <row r="715" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O715" s="6"/>
     </row>
-    <row r="716" spans="15:15">
+    <row r="716" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O716" s="6"/>
     </row>
-    <row r="717" spans="15:15">
+    <row r="717" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O717" s="6"/>
     </row>
-    <row r="718" spans="15:15">
+    <row r="718" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O718" s="6"/>
     </row>
-    <row r="719" spans="15:15">
+    <row r="719" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O719" s="6"/>
     </row>
-    <row r="720" spans="15:15">
+    <row r="720" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O720" s="6"/>
     </row>
-    <row r="721" spans="15:15">
+    <row r="721" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O721" s="6"/>
     </row>
-    <row r="722" spans="15:15">
+    <row r="722" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O722" s="6"/>
     </row>
-    <row r="723" spans="15:15">
+    <row r="723" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O723" s="6"/>
     </row>
-    <row r="724" spans="15:15">
+    <row r="724" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O724" s="6"/>
     </row>
-    <row r="725" spans="15:15">
+    <row r="725" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O725" s="6"/>
     </row>
-    <row r="726" spans="15:15">
+    <row r="726" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O726" s="6"/>
     </row>
-    <row r="727" spans="15:15">
+    <row r="727" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O727" s="6"/>
     </row>
-    <row r="728" spans="15:15">
+    <row r="728" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O728" s="6"/>
     </row>
-    <row r="729" spans="15:15">
+    <row r="729" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O729" s="6"/>
     </row>
-    <row r="730" spans="15:15">
+    <row r="730" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O730" s="6"/>
     </row>
-    <row r="731" spans="15:15">
+    <row r="731" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O731" s="6"/>
     </row>
-    <row r="732" spans="15:15">
+    <row r="732" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O732" s="6"/>
     </row>
-    <row r="733" spans="15:15">
+    <row r="733" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O733" s="6"/>
     </row>
-    <row r="734" spans="15:15">
+    <row r="734" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O734" s="6"/>
     </row>
-    <row r="735" spans="15:15">
+    <row r="735" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O735" s="6"/>
     </row>
-    <row r="736" spans="15:15">
+    <row r="736" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O736" s="6"/>
     </row>
-    <row r="737" spans="15:15">
+    <row r="737" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O737" s="6"/>
     </row>
-    <row r="738" spans="15:15">
+    <row r="738" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O738" s="6"/>
     </row>
-    <row r="739" spans="15:15">
+    <row r="739" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O739" s="6"/>
     </row>
-    <row r="740" spans="15:15">
+    <row r="740" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O740" s="6"/>
     </row>
-    <row r="741" spans="15:15">
+    <row r="741" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O741" s="6"/>
     </row>
-    <row r="742" spans="15:15">
+    <row r="742" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O742" s="6"/>
     </row>
-    <row r="743" spans="15:15">
+    <row r="743" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O743" s="6"/>
     </row>
-    <row r="744" spans="15:15">
+    <row r="744" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O744" s="6"/>
     </row>
-    <row r="745" spans="15:15">
+    <row r="745" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O745" s="6"/>
     </row>
-    <row r="746" spans="15:15">
+    <row r="746" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O746" s="6"/>
     </row>
-    <row r="747" spans="15:15">
+    <row r="747" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O747" s="6"/>
     </row>
-    <row r="748" spans="15:15">
+    <row r="748" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O748" s="6"/>
     </row>
-    <row r="749" spans="15:15">
+    <row r="749" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O749" s="6"/>
     </row>
-    <row r="750" spans="15:15">
+    <row r="750" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O750" s="6"/>
     </row>
-    <row r="751" spans="15:15">
+    <row r="751" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O751" s="6"/>
     </row>
-    <row r="752" spans="15:15">
+    <row r="752" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O752" s="6"/>
     </row>
-    <row r="753" spans="15:15">
+    <row r="753" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O753" s="6"/>
     </row>
-    <row r="754" spans="15:15">
+    <row r="754" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O754" s="6"/>
     </row>
-    <row r="755" spans="15:15">
+    <row r="755" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O755" s="6"/>
     </row>
-    <row r="756" spans="15:15">
+    <row r="756" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O756" s="6"/>
     </row>
-    <row r="757" spans="15:15">
+    <row r="757" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O757" s="6"/>
     </row>
-    <row r="758" spans="15:15">
+    <row r="758" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O758" s="6"/>
     </row>
-    <row r="759" spans="15:15">
+    <row r="759" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O759" s="6"/>
     </row>
-    <row r="760" spans="15:15">
+    <row r="760" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O760" s="6"/>
     </row>
-    <row r="761" spans="15:15">
+    <row r="761" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O761" s="6"/>
     </row>
-    <row r="762" spans="15:15">
+    <row r="762" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O762" s="6"/>
     </row>
-    <row r="763" spans="15:15">
+    <row r="763" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O763" s="6"/>
     </row>
-    <row r="764" spans="15:15">
+    <row r="764" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O764" s="6"/>
     </row>
-    <row r="765" spans="15:15">
+    <row r="765" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O765" s="6"/>
     </row>
-    <row r="766" spans="15:15">
+    <row r="766" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O766" s="6"/>
     </row>
-    <row r="767" spans="15:15">
+    <row r="767" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O767" s="6"/>
     </row>
-    <row r="768" spans="15:15">
+    <row r="768" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O768" s="6"/>
     </row>
-    <row r="769" spans="15:15">
+    <row r="769" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O769" s="6"/>
     </row>
-    <row r="770" spans="15:15">
+    <row r="770" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O770" s="6"/>
     </row>
-    <row r="771" spans="15:15">
+    <row r="771" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O771" s="6"/>
     </row>
-    <row r="772" spans="15:15">
+    <row r="772" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O772" s="6"/>
     </row>
-    <row r="773" spans="15:15">
+    <row r="773" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O773" s="6"/>
     </row>
-    <row r="774" spans="15:15">
+    <row r="774" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O774" s="6"/>
     </row>
-    <row r="775" spans="15:15">
+    <row r="775" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O775" s="6"/>
     </row>
-    <row r="776" spans="15:15">
+    <row r="776" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O776" s="6"/>
     </row>
-    <row r="777" spans="15:15">
+    <row r="777" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O777" s="6"/>
     </row>
-    <row r="778" spans="15:15">
+    <row r="778" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O778" s="6"/>
     </row>
-    <row r="779" spans="15:15">
+    <row r="779" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O779" s="6"/>
     </row>
-    <row r="780" spans="15:15">
+    <row r="780" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O780" s="6"/>
     </row>
-    <row r="781" spans="15:15">
+    <row r="781" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O781" s="6"/>
     </row>
-    <row r="782" spans="15:15">
+    <row r="782" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O782" s="6"/>
     </row>
-    <row r="783" spans="15:15">
+    <row r="783" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O783" s="6"/>
     </row>
-    <row r="784" spans="15:15">
+    <row r="784" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O784" s="6"/>
     </row>
-    <row r="785" spans="15:15">
+    <row r="785" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O785" s="6"/>
     </row>
-    <row r="786" spans="15:15">
+    <row r="786" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O786" s="6"/>
     </row>
-    <row r="787" spans="15:15">
+    <row r="787" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O787" s="6"/>
     </row>
-    <row r="788" spans="15:15">
+    <row r="788" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O788" s="6"/>
     </row>
-    <row r="789" spans="15:15">
+    <row r="789" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O789" s="6"/>
     </row>
-    <row r="790" spans="15:15">
+    <row r="790" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O790" s="6"/>
     </row>
-    <row r="791" spans="15:15">
+    <row r="791" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O791" s="6"/>
     </row>
-    <row r="792" spans="15:15">
+    <row r="792" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O792" s="6"/>
     </row>
-    <row r="793" spans="15:15">
+    <row r="793" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O793" s="6"/>
     </row>
-    <row r="794" spans="15:15">
+    <row r="794" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O794" s="6"/>
     </row>
-    <row r="795" spans="15:15">
+    <row r="795" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O795" s="6"/>
     </row>
-    <row r="796" spans="15:15">
+    <row r="796" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O796" s="6"/>
     </row>
-    <row r="797" spans="15:15">
+    <row r="797" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O797" s="6"/>
     </row>
-    <row r="798" spans="15:15">
+    <row r="798" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O798" s="6"/>
     </row>
-    <row r="799" spans="15:15">
+    <row r="799" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O799" s="6"/>
     </row>
-    <row r="800" spans="15:15">
+    <row r="800" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O800" s="6"/>
     </row>
-    <row r="801" spans="15:15">
+    <row r="801" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O801" s="6"/>
     </row>
-    <row r="802" spans="15:15">
+    <row r="802" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O802" s="6"/>
     </row>
-    <row r="803" spans="15:15">
+    <row r="803" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O803" s="6"/>
     </row>
-    <row r="804" spans="15:15">
+    <row r="804" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O804" s="6"/>
     </row>
-    <row r="805" spans="15:15">
+    <row r="805" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O805" s="6"/>
     </row>
-    <row r="806" spans="15:15">
+    <row r="806" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O806" s="6"/>
     </row>
-    <row r="807" spans="15:15">
+    <row r="807" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O807" s="6"/>
     </row>
-    <row r="808" spans="15:15">
+    <row r="808" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O808" s="6"/>
     </row>
-    <row r="809" spans="15:15">
+    <row r="809" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O809" s="6"/>
     </row>
-    <row r="810" spans="15:15">
+    <row r="810" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O810" s="6"/>
     </row>
-    <row r="811" spans="15:15">
+    <row r="811" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O811" s="6"/>
     </row>
-    <row r="812" spans="15:15">
+    <row r="812" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O812" s="6"/>
     </row>
-    <row r="813" spans="15:15">
+    <row r="813" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O813" s="6"/>
     </row>
-    <row r="814" spans="15:15">
+    <row r="814" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O814" s="6"/>
     </row>
-    <row r="815" spans="15:15">
+    <row r="815" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O815" s="6"/>
     </row>
-    <row r="816" spans="15:15">
+    <row r="816" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O816" s="6"/>
     </row>
-    <row r="817" spans="1:15">
+    <row r="817" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O817" s="6"/>
     </row>
-    <row r="818" spans="1:15">
+    <row r="818" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O818" s="6"/>
     </row>
-    <row r="819" spans="1:15">
+    <row r="819" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O819" s="6"/>
     </row>
-    <row r="820" spans="1:15">
+    <row r="820" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O820" s="6"/>
     </row>
-    <row r="821" spans="1:15">
+    <row r="821" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O821" s="6"/>
     </row>
-    <row r="822" spans="1:15">
+    <row r="822" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O822" s="6"/>
     </row>
-    <row r="823" spans="1:15">
+    <row r="823" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O823" s="6"/>
     </row>
-    <row r="824" spans="1:15">
+    <row r="824" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O824" s="6"/>
     </row>
-    <row r="825" spans="1:15">
+    <row r="825" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O825" s="6"/>
     </row>
-    <row r="826" spans="1:15">
+    <row r="826" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O826" s="6"/>
     </row>
-    <row r="827" spans="1:15">
+    <row r="827" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O827" s="6"/>
     </row>
-    <row r="828" spans="1:15">
-      <c r="A828" s="9"/>
-      <c r="B828" s="9"/>
-      <c r="D828" s="9"/>
-      <c r="E828" s="9"/>
-      <c r="F828" s="9"/>
-      <c r="G828" s="9"/>
-      <c r="H828" s="9"/>
-      <c r="I828" s="9"/>
-      <c r="J828" s="9"/>
-      <c r="K828" s="9"/>
-      <c r="L828" s="9"/>
-      <c r="M828" s="9"/>
-      <c r="N828" s="9"/>
-      <c r="O828" s="10"/>
-    </row>
-    <row r="829" spans="1:15">
+    <row r="828" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O828" s="6"/>
+    </row>
+    <row r="829" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O829" s="6"/>
     </row>
-    <row r="830" spans="1:15">
+    <row r="830" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O830" s="6"/>
     </row>
-    <row r="831" spans="1:15">
+    <row r="831" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O831" s="6"/>
     </row>
-    <row r="832" spans="1:15">
+    <row r="832" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O832" s="6"/>
     </row>
-    <row r="833" spans="15:15">
+    <row r="833" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O833" s="6"/>
     </row>
-    <row r="834" spans="15:15">
+    <row r="834" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O834" s="6"/>
     </row>
-    <row r="835" spans="15:15">
+    <row r="835" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O835" s="6"/>
     </row>
-    <row r="836" spans="15:15">
+    <row r="836" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O836" s="6"/>
     </row>
-    <row r="837" spans="15:15">
+    <row r="837" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O837" s="6"/>
     </row>
-    <row r="838" spans="15:15">
+    <row r="838" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O838" s="6"/>
     </row>
-    <row r="839" spans="15:15">
+    <row r="839" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O839" s="6"/>
     </row>
-    <row r="840" spans="15:15">
+    <row r="840" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O840" s="6"/>
     </row>
-    <row r="841" spans="15:15">
+    <row r="841" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O841" s="6"/>
     </row>
-    <row r="842" spans="15:15">
+    <row r="842" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O842" s="6"/>
     </row>
-    <row r="843" spans="15:15">
+    <row r="843" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O843" s="6"/>
     </row>
-    <row r="844" spans="15:15">
+    <row r="844" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O844" s="6"/>
     </row>
-    <row r="845" spans="15:15">
+    <row r="845" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O845" s="6"/>
     </row>
-    <row r="846" spans="15:15">
+    <row r="846" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O846" s="6"/>
     </row>
-    <row r="847" spans="15:15">
+    <row r="847" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O847" s="6"/>
     </row>
-    <row r="848" spans="15:15">
+    <row r="848" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O848" s="6"/>
     </row>
-    <row r="849" spans="15:15">
+    <row r="849" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O849" s="6"/>
     </row>
-    <row r="850" spans="15:15">
+    <row r="850" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O850" s="6"/>
     </row>
-    <row r="851" spans="15:15">
+    <row r="851" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O851" s="6"/>
     </row>
-    <row r="852" spans="15:15">
+    <row r="852" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O852" s="6"/>
     </row>
-    <row r="853" spans="15:15">
+    <row r="853" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O853" s="6"/>
     </row>
-    <row r="854" spans="15:15">
+    <row r="854" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O854" s="6"/>
     </row>
-    <row r="855" spans="15:15">
+    <row r="855" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O855" s="6"/>
     </row>
-    <row r="856" spans="15:15">
+    <row r="856" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O856" s="6"/>
     </row>
-    <row r="857" spans="15:15">
+    <row r="857" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O857" s="6"/>
     </row>
-    <row r="858" spans="15:15">
+    <row r="858" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O858" s="6"/>
     </row>
-    <row r="859" spans="15:15">
+    <row r="859" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O859" s="6"/>
     </row>
-    <row r="860" spans="15:15">
+    <row r="860" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O860" s="6"/>
     </row>
-    <row r="861" spans="15:15">
+    <row r="861" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O861" s="6"/>
     </row>
-    <row r="862" spans="15:15">
+    <row r="862" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O862" s="6"/>
     </row>
-    <row r="863" spans="15:15">
+    <row r="863" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O863" s="6"/>
     </row>
-    <row r="864" spans="15:15">
+    <row r="864" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O864" s="6"/>
     </row>
-    <row r="865" spans="15:15">
+    <row r="865" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O865" s="6"/>
     </row>
-    <row r="866" spans="15:15">
+    <row r="866" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O866" s="6"/>
     </row>
-    <row r="867" spans="15:15">
+    <row r="867" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O867" s="6"/>
     </row>
-    <row r="868" spans="15:15">
+    <row r="868" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O868" s="6"/>
     </row>
-    <row r="869" spans="15:15">
+    <row r="869" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O869" s="6"/>
     </row>
-    <row r="870" spans="15:15">
+    <row r="870" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O870" s="6"/>
     </row>
-    <row r="871" spans="15:15">
+    <row r="871" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O871" s="6"/>
     </row>
-    <row r="872" spans="15:15">
+    <row r="872" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O872" s="6"/>
     </row>
-    <row r="873" spans="15:15">
+    <row r="873" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O873" s="6"/>
     </row>
-    <row r="874" spans="15:15">
+    <row r="874" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O874" s="6"/>
     </row>
-    <row r="875" spans="15:15">
+    <row r="875" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O875" s="6"/>
     </row>
-    <row r="876" spans="15:15">
+    <row r="876" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O876" s="6"/>
     </row>
-    <row r="877" spans="15:15">
+    <row r="877" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O877" s="6"/>
     </row>
-    <row r="878" spans="15:15">
+    <row r="878" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O878" s="6"/>
     </row>
-    <row r="879" spans="15:15">
+    <row r="879" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O879" s="6"/>
     </row>
-    <row r="880" spans="15:15">
+    <row r="880" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O880" s="6"/>
     </row>
-    <row r="881" spans="15:15">
+    <row r="881" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O881" s="6"/>
     </row>
-    <row r="882" spans="15:15">
+    <row r="882" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O882" s="6"/>
     </row>
-    <row r="883" spans="15:15">
+    <row r="883" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O883" s="6"/>
     </row>
-    <row r="884" spans="15:15">
+    <row r="884" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O884" s="6"/>
     </row>
-    <row r="885" spans="15:15">
-      <c r="O885" s="6"/>
-    </row>
-    <row r="886" spans="15:15">
+    <row r="885" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A885" s="9"/>
+      <c r="B885" s="9"/>
+      <c r="D885" s="9"/>
+      <c r="E885" s="9"/>
+      <c r="F885" s="9"/>
+      <c r="G885" s="9"/>
+      <c r="H885" s="9"/>
+      <c r="I885" s="9"/>
+      <c r="J885" s="9"/>
+      <c r="K885" s="9"/>
+      <c r="L885" s="9"/>
+      <c r="M885" s="9"/>
+      <c r="N885" s="9"/>
+      <c r="O885" s="10"/>
+    </row>
+    <row r="886" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O886" s="6"/>
     </row>
-    <row r="887" spans="15:15">
+    <row r="887" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O887" s="6"/>
     </row>
-    <row r="888" spans="15:15">
+    <row r="888" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O888" s="6"/>
     </row>
-    <row r="889" spans="15:15">
+    <row r="889" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O889" s="6"/>
     </row>
-    <row r="890" spans="15:15">
+    <row r="890" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O890" s="6"/>
     </row>
-    <row r="891" spans="15:15">
+    <row r="891" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O891" s="6"/>
     </row>
-    <row r="892" spans="15:15">
+    <row r="892" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O892" s="6"/>
     </row>
-    <row r="893" spans="15:15">
+    <row r="893" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O893" s="6"/>
     </row>
-    <row r="894" spans="15:15">
+    <row r="894" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O894" s="6"/>
     </row>
-    <row r="895" spans="15:15">
+    <row r="895" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O895" s="6"/>
     </row>
-    <row r="896" spans="15:15">
+    <row r="896" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O896" s="6"/>
     </row>
-    <row r="897" spans="15:15">
+    <row r="897" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O897" s="6"/>
     </row>
-    <row r="898" spans="15:15">
+    <row r="898" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O898" s="6"/>
     </row>
-    <row r="899" spans="15:15">
+    <row r="899" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O899" s="6"/>
     </row>
-    <row r="900" spans="15:15">
+    <row r="900" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O900" s="6"/>
     </row>
-    <row r="901" spans="15:15">
+    <row r="901" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O901" s="6"/>
     </row>
-    <row r="902" spans="15:15">
+    <row r="902" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O902" s="6"/>
     </row>
-    <row r="903" spans="15:15">
+    <row r="903" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O903" s="6"/>
     </row>
-    <row r="904" spans="15:15">
+    <row r="904" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O904" s="6"/>
     </row>
-    <row r="905" spans="15:15">
+    <row r="905" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O905" s="6"/>
     </row>
-    <row r="906" spans="15:15">
+    <row r="906" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O906" s="6"/>
     </row>
-    <row r="907" spans="15:15">
+    <row r="907" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O907" s="6"/>
     </row>
-    <row r="908" spans="15:15">
+    <row r="908" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O908" s="6"/>
     </row>
-    <row r="909" spans="15:15">
+    <row r="909" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O909" s="6"/>
     </row>
-    <row r="910" spans="15:15">
+    <row r="910" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O910" s="6"/>
     </row>
-    <row r="911" spans="15:15">
+    <row r="911" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O911" s="6"/>
     </row>
-    <row r="912" spans="15:15">
+    <row r="912" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O912" s="6"/>
     </row>
-    <row r="913" spans="15:15">
+    <row r="913" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O913" s="6"/>
     </row>
-    <row r="914" spans="15:15">
+    <row r="914" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O914" s="6"/>
     </row>
-    <row r="915" spans="15:15">
+    <row r="915" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O915" s="6"/>
     </row>
-    <row r="916" spans="15:15">
+    <row r="916" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O916" s="6"/>
     </row>
-    <row r="917" spans="15:15">
+    <row r="917" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O917" s="6"/>
     </row>
-    <row r="918" spans="15:15">
+    <row r="918" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O918" s="6"/>
     </row>
-    <row r="919" spans="15:15">
+    <row r="919" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O919" s="6"/>
     </row>
-    <row r="920" spans="15:15">
+    <row r="920" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O920" s="6"/>
     </row>
-    <row r="921" spans="15:15">
+    <row r="921" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O921" s="6"/>
     </row>
-    <row r="922" spans="15:15">
+    <row r="922" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O922" s="6"/>
     </row>
-    <row r="923" spans="15:15">
+    <row r="923" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O923" s="6"/>
     </row>
-    <row r="924" spans="15:15">
+    <row r="924" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O924" s="6"/>
     </row>
-    <row r="925" spans="15:15">
+    <row r="925" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O925" s="6"/>
     </row>
-    <row r="926" spans="15:15">
+    <row r="926" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O926" s="6"/>
     </row>
-    <row r="927" spans="15:15">
+    <row r="927" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O927" s="6"/>
     </row>
-    <row r="928" spans="15:15">
+    <row r="928" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O928" s="6"/>
     </row>
-    <row r="929" spans="15:15">
+    <row r="929" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O929" s="6"/>
     </row>
-    <row r="930" spans="15:15">
+    <row r="930" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O930" s="6"/>
     </row>
-    <row r="931" spans="15:15">
+    <row r="931" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O931" s="6"/>
     </row>
-    <row r="932" spans="15:15">
+    <row r="932" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O932" s="6"/>
     </row>
-    <row r="933" spans="15:15">
+    <row r="933" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O933" s="6"/>
     </row>
-    <row r="934" spans="15:15">
+    <row r="934" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O934" s="6"/>
     </row>
-    <row r="935" spans="15:15">
+    <row r="935" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O935" s="6"/>
     </row>
-    <row r="936" spans="15:15">
+    <row r="936" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O936" s="6"/>
     </row>
-    <row r="937" spans="15:15">
+    <row r="937" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O937" s="6"/>
     </row>
-    <row r="938" spans="15:15">
+    <row r="938" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O938" s="6"/>
     </row>
-    <row r="939" spans="15:15">
+    <row r="939" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O939" s="6"/>
     </row>
-    <row r="940" spans="15:15">
+    <row r="940" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O940" s="6"/>
     </row>
-    <row r="941" spans="15:15">
+    <row r="941" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O941" s="6"/>
     </row>
-    <row r="942" spans="15:15">
+    <row r="942" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O942" s="6"/>
     </row>
-    <row r="943" spans="15:15">
+    <row r="943" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O943" s="6"/>
     </row>
-    <row r="944" spans="15:15">
+    <row r="944" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O944" s="6"/>
     </row>
-    <row r="945" spans="15:15">
+    <row r="945" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O945" s="6"/>
     </row>
-    <row r="946" spans="15:15">
+    <row r="946" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O946" s="6"/>
     </row>
-    <row r="947" spans="15:15">
+    <row r="947" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O947" s="6"/>
     </row>
-    <row r="948" spans="15:15">
+    <row r="948" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O948" s="6"/>
     </row>
-    <row r="949" spans="15:15">
+    <row r="949" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O949" s="6"/>
     </row>
-    <row r="950" spans="15:15">
+    <row r="950" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O950" s="6"/>
     </row>
-    <row r="951" spans="15:15">
+    <row r="951" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O951" s="6"/>
     </row>
-    <row r="952" spans="15:15">
+    <row r="952" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O952" s="6"/>
     </row>
-    <row r="953" spans="15:15">
+    <row r="953" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O953" s="6"/>
     </row>
-    <row r="954" spans="15:15">
+    <row r="954" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O954" s="6"/>
     </row>
-    <row r="955" spans="15:15">
+    <row r="955" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O955" s="6"/>
     </row>
-    <row r="956" spans="15:15">
+    <row r="956" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O956" s="6"/>
     </row>
-    <row r="957" spans="15:15">
+    <row r="957" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O957" s="6"/>
     </row>
-    <row r="958" spans="15:15">
+    <row r="958" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O958" s="6"/>
     </row>
-    <row r="959" spans="15:15">
+    <row r="959" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O959" s="6"/>
     </row>
-    <row r="960" spans="15:15">
+    <row r="960" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O960" s="6"/>
     </row>
-    <row r="961" spans="15:15">
+    <row r="961" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O961" s="6"/>
     </row>
-    <row r="962" spans="15:15">
+    <row r="962" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O962" s="6"/>
     </row>
-    <row r="963" spans="15:15">
+    <row r="963" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O963" s="6"/>
     </row>
-    <row r="964" spans="15:15">
+    <row r="964" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O964" s="6"/>
     </row>
-    <row r="965" spans="15:15">
+    <row r="965" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O965" s="6"/>
     </row>
-    <row r="966" spans="15:15">
+    <row r="966" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O966" s="6"/>
     </row>
-    <row r="967" spans="15:15">
+    <row r="967" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O967" s="6"/>
     </row>
-    <row r="968" spans="15:15">
+    <row r="968" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O968" s="6"/>
     </row>
-    <row r="969" spans="15:15">
+    <row r="969" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O969" s="6"/>
     </row>
-    <row r="970" spans="15:15">
+    <row r="970" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O970" s="6"/>
     </row>
-    <row r="971" spans="15:15">
+    <row r="971" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O971" s="6"/>
     </row>
-    <row r="972" spans="15:15">
+    <row r="972" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O972" s="6"/>
     </row>
-    <row r="973" spans="15:15">
+    <row r="973" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O973" s="6"/>
     </row>
-    <row r="974" spans="15:15">
+    <row r="974" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O974" s="6"/>
     </row>
-    <row r="975" spans="15:15">
+    <row r="975" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O975" s="6"/>
     </row>
-    <row r="976" spans="15:15">
+    <row r="976" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O976" s="6"/>
     </row>
-    <row r="977" spans="15:15">
+    <row r="977" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O977" s="6"/>
     </row>
-    <row r="978" spans="15:15">
+    <row r="978" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O978" s="6"/>
     </row>
-    <row r="979" spans="15:15">
+    <row r="979" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O979" s="6"/>
     </row>
-    <row r="980" spans="15:15">
+    <row r="980" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O980" s="6"/>
     </row>
-    <row r="981" spans="15:15">
+    <row r="981" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O981" s="6"/>
     </row>
-    <row r="982" spans="15:15">
+    <row r="982" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O982" s="6"/>
     </row>
-    <row r="983" spans="15:15">
+    <row r="983" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O983" s="6"/>
     </row>
-    <row r="984" spans="15:15">
+    <row r="984" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O984" s="6"/>
     </row>
-    <row r="985" spans="15:15">
+    <row r="985" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O985" s="6"/>
     </row>
-    <row r="986" spans="15:15">
+    <row r="986" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O986" s="6"/>
     </row>
-    <row r="987" spans="15:15">
+    <row r="987" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O987" s="6"/>
     </row>
-    <row r="988" spans="15:15">
+    <row r="988" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O988" s="6"/>
     </row>
-    <row r="989" spans="15:15">
+    <row r="989" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O989" s="6"/>
     </row>
-    <row r="990" spans="15:15">
+    <row r="990" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O990" s="6"/>
     </row>
-    <row r="991" spans="15:15">
+    <row r="991" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O991" s="6"/>
     </row>
-    <row r="992" spans="15:15">
+    <row r="992" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O992" s="6"/>
     </row>
-    <row r="993" spans="15:15">
+    <row r="993" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O993" s="6"/>
     </row>
-    <row r="994" spans="15:15">
+    <row r="994" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O994" s="6"/>
     </row>
-    <row r="995" spans="15:15">
+    <row r="995" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O995" s="6"/>
     </row>
-    <row r="996" spans="15:15">
+    <row r="996" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O996" s="6"/>
     </row>
-    <row r="997" spans="15:15">
+    <row r="997" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O997" s="6"/>
     </row>
-    <row r="998" spans="15:15">
+    <row r="998" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O998" s="6"/>
     </row>
-    <row r="999" spans="15:15">
+    <row r="999" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O999" s="6"/>
     </row>
-    <row r="1000" spans="15:15">
+    <row r="1000" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1000" s="6"/>
     </row>
-    <row r="1001" spans="15:15">
+    <row r="1001" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1001" s="6"/>
     </row>
-    <row r="1002" spans="15:15">
+    <row r="1002" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1002" s="6"/>
     </row>
-    <row r="1003" spans="15:15">
+    <row r="1003" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1003" s="6"/>
     </row>
-    <row r="1004" spans="15:15">
+    <row r="1004" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1004" s="6"/>
     </row>
-    <row r="1005" spans="15:15">
+    <row r="1005" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1005" s="6"/>
     </row>
-    <row r="1006" spans="15:15">
+    <row r="1006" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1006" s="6"/>
     </row>
-    <row r="1007" spans="15:15">
+    <row r="1007" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1007" s="6"/>
     </row>
-    <row r="1008" spans="15:15">
+    <row r="1008" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1008" s="6"/>
     </row>
-    <row r="1009" spans="15:15">
+    <row r="1009" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1009" s="6"/>
     </row>
-    <row r="1010" spans="15:15">
+    <row r="1010" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1010" s="6"/>
     </row>
-    <row r="1011" spans="15:15">
+    <row r="1011" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1011" s="6"/>
     </row>
-    <row r="1012" spans="15:15">
+    <row r="1012" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1012" s="6"/>
     </row>
-    <row r="1013" spans="15:15">
+    <row r="1013" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1013" s="6"/>
     </row>
-    <row r="1014" spans="15:15">
+    <row r="1014" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1014" s="6"/>
     </row>
-    <row r="1015" spans="15:15">
+    <row r="1015" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1015" s="6"/>
     </row>
-    <row r="1016" spans="15:15">
+    <row r="1016" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1016" s="6"/>
     </row>
-    <row r="1017" spans="15:15">
+    <row r="1017" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1017" s="6"/>
     </row>
-    <row r="1018" spans="15:15">
+    <row r="1018" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1018" s="6"/>
     </row>
-    <row r="1019" spans="15:15">
+    <row r="1019" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1019" s="6"/>
     </row>
-    <row r="1020" spans="15:15">
+    <row r="1020" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1020" s="6"/>
     </row>
-    <row r="1021" spans="15:15">
+    <row r="1021" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1021" s="6"/>
     </row>
-    <row r="1022" spans="15:15">
+    <row r="1022" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1022" s="6"/>
     </row>
-    <row r="1023" spans="15:15">
+    <row r="1023" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1023" s="6"/>
     </row>
-    <row r="1024" spans="15:15">
+    <row r="1024" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1024" s="6"/>
     </row>
-    <row r="1025" spans="15:15">
+    <row r="1025" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1025" s="6"/>
     </row>
-    <row r="1026" spans="15:15">
+    <row r="1026" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1026" s="6"/>
     </row>
-    <row r="1027" spans="15:15">
+    <row r="1027" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1027" s="6"/>
     </row>
-    <row r="1028" spans="15:15">
+    <row r="1028" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1028" s="6"/>
     </row>
-    <row r="1029" spans="15:15">
+    <row r="1029" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1029" s="6"/>
     </row>
-    <row r="1030" spans="15:15">
+    <row r="1030" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1030" s="6"/>
     </row>
-    <row r="1031" spans="15:15">
+    <row r="1031" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1031" s="6"/>
     </row>
-    <row r="1032" spans="15:15">
+    <row r="1032" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1032" s="6"/>
     </row>
-    <row r="1033" spans="15:15">
+    <row r="1033" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1033" s="6"/>
     </row>
-    <row r="1034" spans="15:15">
+    <row r="1034" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1034" s="6"/>
     </row>
-    <row r="1035" spans="15:15">
+    <row r="1035" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1035" s="6"/>
     </row>
-    <row r="1036" spans="15:15">
+    <row r="1036" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1036" s="6"/>
     </row>
-    <row r="1037" spans="15:15">
+    <row r="1037" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1037" s="6"/>
     </row>
-    <row r="1038" spans="15:15">
+    <row r="1038" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1038" s="6"/>
     </row>
-    <row r="1039" spans="15:15">
+    <row r="1039" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1039" s="6"/>
     </row>
-    <row r="1040" spans="15:15">
+    <row r="1040" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1040" s="6"/>
     </row>
-    <row r="1041" spans="15:15">
+    <row r="1041" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1041" s="6"/>
     </row>
-    <row r="1042" spans="15:15">
+    <row r="1042" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1042" s="6"/>
     </row>
-    <row r="1043" spans="15:15">
+    <row r="1043" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1043" s="6"/>
     </row>
-    <row r="1044" spans="15:15">
+    <row r="1044" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1044" s="6"/>
     </row>
-    <row r="1045" spans="15:15">
+    <row r="1045" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1045" s="6"/>
     </row>
-    <row r="1046" spans="15:15">
+    <row r="1046" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1046" s="6"/>
     </row>
-    <row r="1047" spans="15:15">
+    <row r="1047" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1047" s="6"/>
     </row>
-    <row r="1048" spans="15:15">
+    <row r="1048" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1048" s="6"/>
     </row>
-    <row r="1049" spans="15:15">
+    <row r="1049" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1049" s="6"/>
     </row>
-    <row r="1050" spans="15:15">
+    <row r="1050" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1050" s="6"/>
     </row>
-    <row r="1051" spans="15:15">
+    <row r="1051" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1051" s="6"/>
     </row>
-    <row r="1052" spans="15:15">
+    <row r="1052" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1052" s="6"/>
     </row>
-    <row r="1053" spans="15:15">
+    <row r="1053" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1053" s="6"/>
     </row>
-    <row r="1054" spans="15:15">
+    <row r="1054" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1054" s="6"/>
     </row>
-    <row r="1055" spans="15:15">
+    <row r="1055" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1055" s="6"/>
     </row>
-    <row r="1056" spans="15:15">
+    <row r="1056" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1056" s="6"/>
     </row>
-    <row r="1057" spans="15:15">
+    <row r="1057" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1057" s="6"/>
     </row>
-    <row r="1058" spans="15:15">
+    <row r="1058" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1058" s="6"/>
     </row>
-    <row r="1059" spans="15:15">
+    <row r="1059" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1059" s="6"/>
     </row>
-    <row r="1060" spans="15:15">
+    <row r="1060" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1060" s="6"/>
     </row>
-    <row r="1061" spans="15:15">
+    <row r="1061" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1061" s="6"/>
     </row>
-    <row r="1062" spans="15:15">
+    <row r="1062" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1062" s="6"/>
     </row>
-    <row r="1063" spans="15:15">
+    <row r="1063" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1063" s="6"/>
     </row>
-    <row r="1064" spans="15:15">
+    <row r="1064" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1064" s="6"/>
     </row>
-    <row r="1065" spans="15:15">
+    <row r="1065" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1065" s="6"/>
     </row>
-    <row r="1066" spans="15:15">
+    <row r="1066" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1066" s="6"/>
     </row>
-    <row r="1067" spans="15:15">
+    <row r="1067" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1067" s="6"/>
     </row>
-    <row r="1068" spans="15:15">
+    <row r="1068" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1068" s="6"/>
     </row>
-    <row r="1069" spans="15:15">
+    <row r="1069" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1069" s="6"/>
     </row>
-    <row r="1070" spans="15:15">
+    <row r="1070" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1070" s="6"/>
     </row>
-    <row r="1071" spans="15:15">
+    <row r="1071" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1071" s="6"/>
     </row>
-    <row r="1072" spans="15:15">
+    <row r="1072" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1072" s="6"/>
     </row>
-    <row r="1073" spans="15:15">
+    <row r="1073" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1073" s="6"/>
     </row>
-    <row r="1074" spans="15:15">
+    <row r="1074" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1074" s="6"/>
     </row>
-    <row r="1075" spans="15:15">
+    <row r="1075" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1075" s="6"/>
     </row>
-    <row r="1076" spans="15:15">
+    <row r="1076" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1076" s="6"/>
     </row>
-    <row r="1077" spans="15:15">
+    <row r="1077" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1077" s="6"/>
     </row>
-    <row r="1078" spans="15:15">
+    <row r="1078" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1078" s="6"/>
     </row>
-    <row r="1079" spans="15:15">
+    <row r="1079" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1079" s="6"/>
     </row>
-    <row r="1080" spans="15:15">
+    <row r="1080" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1080" s="6"/>
     </row>
-    <row r="1081" spans="15:15">
+    <row r="1081" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1081" s="6"/>
     </row>
-    <row r="1082" spans="15:15">
+    <row r="1082" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1082" s="6"/>
     </row>
-    <row r="1083" spans="15:15">
+    <row r="1083" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1083" s="6"/>
     </row>
-    <row r="1084" spans="15:15">
+    <row r="1084" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1084" s="6"/>
     </row>
-    <row r="1085" spans="15:15">
+    <row r="1085" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1085" s="6"/>
     </row>
-    <row r="1086" spans="15:15">
+    <row r="1086" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1086" s="6"/>
     </row>
-    <row r="1087" spans="15:15">
+    <row r="1087" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1087" s="6"/>
     </row>
-    <row r="1088" spans="15:15">
+    <row r="1088" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1088" s="6"/>
     </row>
-    <row r="1089" spans="15:15">
+    <row r="1089" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1089" s="6"/>
     </row>
-    <row r="1090" spans="15:15">
+    <row r="1090" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1090" s="6"/>
     </row>
-    <row r="1091" spans="15:15">
+    <row r="1091" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1091" s="6"/>
     </row>
-    <row r="1092" spans="15:15">
+    <row r="1092" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1092" s="6"/>
     </row>
-    <row r="1093" spans="15:15">
+    <row r="1093" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1093" s="6"/>
     </row>
-    <row r="1094" spans="15:15">
+    <row r="1094" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1094" s="6"/>
     </row>
-    <row r="1095" spans="15:15">
+    <row r="1095" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1095" s="6"/>
     </row>
-    <row r="1096" spans="15:15">
+    <row r="1096" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1096" s="6"/>
     </row>
-    <row r="1097" spans="15:15">
+    <row r="1097" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1097" s="6"/>
     </row>
-    <row r="1098" spans="15:15">
+    <row r="1098" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1098" s="6"/>
     </row>
-    <row r="1099" spans="15:15">
+    <row r="1099" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1099" s="6"/>
     </row>
-    <row r="1100" spans="15:15">
+    <row r="1100" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1100" s="6"/>
     </row>
-    <row r="1101" spans="15:15">
+    <row r="1101" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1101" s="6"/>
     </row>
-    <row r="1102" spans="15:15">
+    <row r="1102" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1102" s="6"/>
     </row>
-    <row r="1103" spans="15:15">
+    <row r="1103" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1103" s="6"/>
     </row>
-    <row r="1104" spans="15:15">
+    <row r="1104" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1104" s="6"/>
     </row>
-    <row r="1105" spans="15:15">
+    <row r="1105" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1105" s="6"/>
     </row>
-    <row r="1106" spans="15:15">
+    <row r="1106" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1106" s="6"/>
     </row>
-    <row r="1107" spans="15:15">
+    <row r="1107" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1107" s="6"/>
     </row>
-    <row r="1108" spans="15:15">
+    <row r="1108" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1108" s="6"/>
     </row>
-    <row r="1109" spans="15:15">
+    <row r="1109" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1109" s="6"/>
     </row>
-    <row r="1110" spans="15:15">
+    <row r="1110" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1110" s="6"/>
     </row>
-    <row r="1111" spans="15:15">
+    <row r="1111" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1111" s="6"/>
     </row>
-    <row r="1112" spans="15:15">
+    <row r="1112" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1112" s="6"/>
     </row>
-    <row r="1113" spans="15:15">
+    <row r="1113" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1113" s="6"/>
     </row>
-    <row r="1114" spans="15:15">
+    <row r="1114" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1114" s="6"/>
     </row>
-    <row r="1115" spans="15:15">
+    <row r="1115" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1115" s="6"/>
     </row>
-    <row r="1116" spans="15:15">
+    <row r="1116" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1116" s="6"/>
     </row>
-    <row r="1117" spans="15:15">
+    <row r="1117" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1117" s="6"/>
     </row>
-    <row r="1118" spans="15:15">
+    <row r="1118" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1118" s="6"/>
     </row>
-    <row r="1119" spans="15:15">
+    <row r="1119" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1119" s="6"/>
     </row>
-    <row r="1120" spans="15:15">
+    <row r="1120" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1120" s="6"/>
     </row>
-    <row r="1121" spans="15:15">
+    <row r="1121" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1121" s="6"/>
     </row>
-    <row r="1122" spans="15:15">
+    <row r="1122" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1122" s="6"/>
     </row>
-    <row r="1123" spans="15:15">
+    <row r="1123" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1123" s="6"/>
     </row>
-    <row r="1124" spans="15:15">
+    <row r="1124" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1124" s="6"/>
     </row>
-    <row r="1125" spans="15:15">
+    <row r="1125" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1125" s="6"/>
     </row>
-    <row r="1126" spans="15:15">
+    <row r="1126" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1126" s="6"/>
     </row>
-    <row r="1127" spans="15:15">
+    <row r="1127" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1127" s="6"/>
     </row>
-    <row r="1128" spans="15:15">
+    <row r="1128" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1128" s="6"/>
     </row>
-    <row r="1129" spans="15:15">
+    <row r="1129" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1129" s="6"/>
     </row>
-    <row r="1130" spans="15:15">
+    <row r="1130" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1130" s="6"/>
     </row>
-    <row r="1131" spans="15:15">
+    <row r="1131" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1131" s="6"/>
     </row>
-    <row r="1132" spans="15:15">
+    <row r="1132" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1132" s="6"/>
     </row>
-    <row r="1133" spans="15:15">
+    <row r="1133" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1133" s="6"/>
     </row>
-    <row r="1134" spans="15:15">
+    <row r="1134" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1134" s="6"/>
     </row>
-    <row r="1135" spans="15:15">
+    <row r="1135" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1135" s="6"/>
     </row>
-    <row r="1136" spans="15:15">
+    <row r="1136" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1136" s="6"/>
     </row>
-    <row r="1137" spans="15:15">
+    <row r="1137" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1137" s="6"/>
     </row>
-    <row r="1138" spans="15:15">
+    <row r="1138" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1138" s="6"/>
     </row>
-    <row r="1139" spans="15:15">
+    <row r="1139" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1139" s="6"/>
     </row>
-    <row r="1140" spans="15:15">
+    <row r="1140" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1140" s="6"/>
     </row>
-    <row r="1141" spans="15:15">
+    <row r="1141" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1141" s="6"/>
     </row>
-    <row r="1142" spans="15:15">
+    <row r="1142" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1142" s="6"/>
     </row>
-    <row r="1143" spans="15:15">
+    <row r="1143" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1143" s="6"/>
     </row>
-    <row r="1144" spans="15:15">
+    <row r="1144" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1144" s="6"/>
     </row>
-    <row r="1145" spans="15:15">
+    <row r="1145" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1145" s="6"/>
     </row>
-    <row r="1146" spans="15:15">
+    <row r="1146" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1146" s="6"/>
     </row>
-    <row r="1147" spans="15:15">
+    <row r="1147" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1147" s="6"/>
     </row>
-    <row r="1148" spans="15:15">
+    <row r="1148" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1148" s="6"/>
     </row>
-    <row r="1149" spans="15:15">
+    <row r="1149" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1149" s="6"/>
     </row>
-    <row r="1150" spans="15:15">
+    <row r="1150" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1150" s="6"/>
     </row>
-    <row r="1151" spans="15:15">
+    <row r="1151" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1151" s="6"/>
     </row>
-    <row r="1152" spans="15:15">
+    <row r="1152" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1152" s="6"/>
     </row>
-    <row r="1153" spans="15:15">
+    <row r="1153" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1153" s="6"/>
     </row>
-    <row r="1154" spans="15:15">
+    <row r="1154" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1154" s="6"/>
     </row>
-    <row r="1155" spans="15:15">
+    <row r="1155" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1155" s="6"/>
     </row>
-    <row r="1156" spans="15:15">
+    <row r="1156" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1156" s="6"/>
     </row>
-    <row r="1157" spans="15:15">
+    <row r="1157" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1157" s="6"/>
     </row>
-    <row r="1158" spans="15:15">
+    <row r="1158" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1158" s="6"/>
     </row>
-    <row r="1159" spans="15:15">
+    <row r="1159" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1159" s="6"/>
     </row>
-    <row r="1160" spans="15:15">
+    <row r="1160" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1160" s="6"/>
     </row>
-    <row r="1161" spans="15:15">
+    <row r="1161" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1161" s="6"/>
     </row>
-    <row r="1162" spans="15:15">
+    <row r="1162" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1162" s="6"/>
     </row>
-    <row r="1163" spans="15:15">
+    <row r="1163" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1163" s="6"/>
     </row>
-    <row r="1164" spans="15:15">
+    <row r="1164" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1164" s="6"/>
     </row>
-    <row r="1165" spans="15:15">
+    <row r="1165" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1165" s="6"/>
     </row>
-    <row r="1166" spans="15:15">
+    <row r="1166" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1166" s="6"/>
     </row>
-    <row r="1167" spans="15:15">
+    <row r="1167" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1167" s="6"/>
     </row>
-    <row r="1168" spans="15:15">
+    <row r="1168" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1168" s="6"/>
     </row>
-    <row r="1169" spans="15:15">
+    <row r="1169" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1169" s="6"/>
     </row>
-    <row r="1170" spans="15:15">
+    <row r="1170" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1170" s="6"/>
     </row>
-    <row r="1171" spans="15:15">
+    <row r="1171" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1171" s="6"/>
     </row>
-    <row r="1172" spans="15:15">
+    <row r="1172" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1172" s="6"/>
     </row>
-    <row r="1173" spans="15:15">
+    <row r="1173" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1173" s="6"/>
     </row>
-    <row r="1174" spans="15:15">
+    <row r="1174" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1174" s="6"/>
     </row>
-    <row r="1175" spans="15:15">
+    <row r="1175" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1175" s="6"/>
     </row>
-    <row r="1176" spans="15:15">
+    <row r="1176" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1176" s="6"/>
     </row>
-    <row r="1177" spans="15:15">
+    <row r="1177" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1177" s="6"/>
     </row>
-    <row r="1178" spans="15:15">
+    <row r="1178" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1178" s="6"/>
     </row>
-    <row r="1179" spans="15:15">
+    <row r="1179" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1179" s="6"/>
     </row>
-    <row r="1180" spans="15:15">
+    <row r="1180" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1180" s="6"/>
     </row>
-    <row r="1181" spans="15:15">
+    <row r="1181" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1181" s="6"/>
     </row>
-    <row r="1182" spans="15:15">
+    <row r="1182" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1182" s="6"/>
     </row>
-    <row r="1183" spans="15:15">
+    <row r="1183" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1183" s="6"/>
     </row>
-    <row r="1184" spans="15:15">
+    <row r="1184" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1184" s="6"/>
     </row>
-    <row r="1185" spans="15:15">
+    <row r="1185" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1185" s="6"/>
     </row>
-    <row r="1186" spans="15:15">
+    <row r="1186" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1186" s="6"/>
     </row>
-    <row r="1187" spans="15:15">
+    <row r="1187" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1187" s="6"/>
     </row>
-    <row r="1188" spans="15:15">
+    <row r="1188" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1188" s="6"/>
     </row>
-    <row r="1189" spans="15:15">
+    <row r="1189" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1189" s="6"/>
     </row>
-    <row r="1190" spans="15:15">
+    <row r="1190" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1190" s="6"/>
     </row>
-    <row r="1191" spans="15:15">
+    <row r="1191" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1191" s="6"/>
     </row>
-    <row r="1192" spans="15:15">
+    <row r="1192" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1192" s="6"/>
     </row>
-    <row r="1193" spans="15:15">
+    <row r="1193" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1193" s="6"/>
     </row>
-    <row r="1194" spans="15:15">
+    <row r="1194" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1194" s="6"/>
     </row>
-    <row r="1195" spans="15:15">
+    <row r="1195" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1195" s="6"/>
     </row>
-    <row r="1196" spans="15:15">
+    <row r="1196" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1196" s="6"/>
     </row>
-    <row r="1197" spans="15:15">
+    <row r="1197" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1197" s="6"/>
     </row>
-    <row r="1198" spans="15:15">
+    <row r="1198" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1198" s="6"/>
     </row>
-    <row r="1199" spans="15:15">
+    <row r="1199" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1199" s="6"/>
     </row>
-    <row r="1200" spans="15:15">
+    <row r="1200" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1200" s="6"/>
     </row>
-    <row r="1201" spans="15:15">
+    <row r="1201" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1201" s="6"/>
     </row>
-    <row r="1202" spans="15:15">
+    <row r="1202" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1202" s="6"/>
     </row>
-    <row r="1203" spans="15:15">
+    <row r="1203" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1203" s="6"/>
     </row>
-    <row r="1204" spans="15:15">
+    <row r="1204" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1204" s="6"/>
     </row>
-    <row r="1205" spans="15:15">
+    <row r="1205" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1205" s="6"/>
     </row>
-    <row r="1206" spans="15:15">
+    <row r="1206" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1206" s="6"/>
     </row>
-    <row r="1207" spans="15:15">
+    <row r="1207" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1207" s="6"/>
     </row>
-    <row r="1208" spans="15:15">
+    <row r="1208" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1208" s="6"/>
     </row>
-    <row r="1209" spans="15:15">
+    <row r="1209" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1209" s="6"/>
     </row>
-    <row r="1210" spans="15:15">
+    <row r="1210" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1210" s="6"/>
     </row>
-    <row r="1211" spans="15:15">
+    <row r="1211" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1211" s="6"/>
     </row>
-    <row r="1212" spans="15:15">
+    <row r="1212" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1212" s="6"/>
     </row>
-    <row r="1213" spans="15:15">
+    <row r="1213" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1213" s="6"/>
     </row>
-    <row r="1214" spans="15:15">
+    <row r="1214" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1214" s="6"/>
     </row>
-    <row r="1215" spans="15:15">
+    <row r="1215" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1215" s="6"/>
     </row>
-    <row r="1216" spans="15:15">
+    <row r="1216" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1216" s="6"/>
     </row>
-    <row r="1217" spans="15:15">
+    <row r="1217" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1217" s="6"/>
     </row>
-    <row r="1218" spans="15:15">
+    <row r="1218" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1218" s="6"/>
     </row>
-    <row r="1219" spans="15:15">
+    <row r="1219" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1219" s="6"/>
     </row>
-    <row r="1220" spans="15:15">
+    <row r="1220" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1220" s="6"/>
     </row>
-    <row r="1221" spans="15:15">
+    <row r="1221" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1221" s="6"/>
     </row>
-    <row r="1222" spans="15:15">
+    <row r="1222" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1222" s="6"/>
     </row>
-    <row r="1223" spans="15:15">
+    <row r="1223" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1223" s="6"/>
     </row>
-    <row r="1224" spans="15:15">
+    <row r="1224" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1224" s="6"/>
     </row>
-    <row r="1225" spans="15:15">
+    <row r="1225" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1225" s="6"/>
     </row>
-    <row r="1226" spans="15:15">
+    <row r="1226" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1226" s="6"/>
     </row>
-    <row r="1227" spans="15:15">
+    <row r="1227" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1227" s="6"/>
     </row>
-    <row r="1228" spans="15:15">
+    <row r="1228" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1228" s="6"/>
     </row>
-    <row r="1229" spans="15:15">
+    <row r="1229" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1229" s="6"/>
     </row>
-    <row r="1230" spans="15:15">
+    <row r="1230" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1230" s="6"/>
     </row>
-    <row r="1231" spans="15:15">
+    <row r="1231" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1231" s="6"/>
     </row>
-    <row r="1232" spans="15:15">
+    <row r="1232" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1232" s="6"/>
     </row>
-    <row r="1233" spans="15:15">
+    <row r="1233" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1233" s="6"/>
     </row>
-    <row r="1234" spans="15:15">
+    <row r="1234" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1234" s="6"/>
     </row>
-    <row r="1235" spans="15:15">
+    <row r="1235" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1235" s="6"/>
     </row>
-    <row r="1236" spans="15:15">
+    <row r="1236" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1236" s="6"/>
     </row>
-    <row r="1237" spans="15:15">
+    <row r="1237" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1237" s="6"/>
     </row>
-    <row r="1238" spans="15:15">
+    <row r="1238" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1238" s="6"/>
     </row>
-    <row r="1239" spans="15:15">
+    <row r="1239" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1239" s="6"/>
     </row>
-    <row r="1240" spans="15:15">
+    <row r="1240" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1240" s="6"/>
     </row>
-    <row r="1241" spans="15:15">
+    <row r="1241" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1241" s="6"/>
     </row>
-    <row r="1242" spans="15:15">
+    <row r="1242" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1242" s="6"/>
     </row>
-    <row r="1243" spans="15:15">
+    <row r="1243" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1243" s="6"/>
     </row>
-    <row r="1244" spans="15:15">
+    <row r="1244" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1244" s="6"/>
     </row>
-    <row r="1245" spans="15:15">
+    <row r="1245" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1245" s="6"/>
     </row>
-    <row r="1246" spans="15:15">
+    <row r="1246" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1246" s="6"/>
     </row>
-    <row r="1247" spans="15:15">
+    <row r="1247" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1247" s="6"/>
     </row>
-    <row r="1248" spans="15:15">
+    <row r="1248" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1248" s="6"/>
     </row>
-    <row r="1249" spans="15:15">
+    <row r="1249" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1249" s="6"/>
     </row>
-    <row r="1250" spans="15:15">
+    <row r="1250" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1250" s="6"/>
     </row>
-    <row r="1251" spans="15:15">
+    <row r="1251" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1251" s="6"/>
     </row>
-    <row r="1252" spans="15:15">
+    <row r="1252" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1252" s="6"/>
     </row>
-    <row r="1253" spans="15:15">
+    <row r="1253" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1253" s="6"/>
     </row>
-    <row r="1254" spans="15:15">
+    <row r="1254" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1254" s="6"/>
     </row>
-    <row r="1255" spans="15:15">
+    <row r="1255" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1255" s="6"/>
     </row>
-    <row r="1256" spans="15:15">
+    <row r="1256" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1256" s="6"/>
     </row>
-    <row r="1257" spans="15:15">
+    <row r="1257" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1257" s="6"/>
     </row>
-    <row r="1258" spans="15:15">
+    <row r="1258" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1258" s="6"/>
     </row>
-    <row r="1259" spans="15:15">
+    <row r="1259" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1259" s="6"/>
     </row>
-    <row r="1260" spans="15:15">
+    <row r="1260" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1260" s="6"/>
     </row>
-    <row r="1261" spans="15:15">
+    <row r="1261" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1261" s="6"/>
     </row>
-    <row r="1262" spans="15:15">
+    <row r="1262" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1262" s="6"/>
     </row>
-    <row r="1263" spans="15:15">
+    <row r="1263" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1263" s="6"/>
     </row>
-    <row r="1264" spans="15:15">
+    <row r="1264" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1264" s="6"/>
     </row>
-    <row r="1265" spans="15:15">
+    <row r="1265" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1265" s="6"/>
     </row>
-    <row r="1266" spans="15:15">
+    <row r="1266" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1266" s="6"/>
     </row>
-    <row r="1267" spans="15:15">
+    <row r="1267" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1267" s="6"/>
     </row>
-    <row r="1268" spans="15:15">
+    <row r="1268" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1268" s="6"/>
     </row>
-    <row r="1269" spans="15:15">
+    <row r="1269" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1269" s="6"/>
     </row>
-    <row r="1270" spans="15:15">
+    <row r="1270" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1270" s="6"/>
     </row>
-    <row r="1271" spans="15:15">
+    <row r="1271" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1271" s="6"/>
     </row>
-    <row r="1272" spans="15:15">
+    <row r="1272" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1272" s="6"/>
     </row>
-    <row r="1273" spans="15:15">
+    <row r="1273" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1273" s="6"/>
     </row>
-    <row r="1274" spans="15:15">
+    <row r="1274" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1274" s="6"/>
     </row>
-    <row r="1275" spans="15:15">
+    <row r="1275" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1275" s="6"/>
     </row>
-    <row r="1276" spans="15:15">
+    <row r="1276" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1276" s="6"/>
     </row>
-    <row r="1277" spans="15:15">
+    <row r="1277" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1277" s="6"/>
     </row>
-    <row r="1278" spans="15:15">
+    <row r="1278" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1278" s="6"/>
     </row>
-    <row r="1279" spans="15:15">
+    <row r="1279" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1279" s="6"/>
     </row>
-    <row r="1280" spans="15:15">
+    <row r="1280" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1280" s="6"/>
     </row>
-    <row r="1281" spans="15:15">
+    <row r="1281" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1281" s="6"/>
     </row>
-    <row r="1282" spans="15:15">
+    <row r="1282" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1282" s="6"/>
     </row>
-    <row r="1283" spans="15:15">
+    <row r="1283" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1283" s="6"/>
     </row>
-    <row r="1284" spans="15:15">
+    <row r="1284" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1284" s="6"/>
     </row>
-    <row r="1285" spans="15:15">
+    <row r="1285" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1285" s="6"/>
     </row>
-    <row r="1286" spans="15:15">
+    <row r="1286" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1286" s="6"/>
     </row>
-    <row r="1287" spans="15:15">
+    <row r="1287" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1287" s="6"/>
     </row>
-    <row r="1288" spans="15:15">
+    <row r="1288" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1288" s="6"/>
     </row>
-    <row r="1289" spans="15:15">
+    <row r="1289" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1289" s="6"/>
     </row>
-    <row r="1290" spans="15:15">
+    <row r="1290" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1290" s="6"/>
     </row>
-    <row r="1291" spans="15:15">
+    <row r="1291" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1291" s="6"/>
     </row>
-    <row r="1292" spans="15:15">
+    <row r="1292" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1292" s="6"/>
     </row>
-    <row r="1293" spans="15:15">
+    <row r="1293" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1293" s="6"/>
     </row>
-    <row r="1294" spans="15:15">
+    <row r="1294" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1294" s="6"/>
     </row>
-    <row r="1295" spans="15:15">
+    <row r="1295" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1295" s="6"/>
     </row>
-    <row r="1296" spans="15:15">
+    <row r="1296" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1296" s="6"/>
     </row>
-    <row r="1297" spans="15:15">
+    <row r="1297" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1297" s="6"/>
     </row>
-    <row r="1298" spans="15:15">
+    <row r="1298" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1298" s="6"/>
     </row>
-    <row r="1299" spans="15:15">
+    <row r="1299" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1299" s="6"/>
     </row>
-    <row r="1300" spans="15:15">
+    <row r="1300" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1300" s="6"/>
     </row>
-    <row r="1301" spans="15:15">
+    <row r="1301" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1301" s="6"/>
     </row>
-    <row r="1302" spans="15:15">
+    <row r="1302" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1302" s="6"/>
     </row>
-    <row r="1303" spans="15:15">
+    <row r="1303" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1303" s="6"/>
     </row>
-    <row r="1304" spans="15:15">
+    <row r="1304" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1304" s="6"/>
     </row>
-    <row r="1305" spans="15:15">
+    <row r="1305" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1305" s="6"/>
     </row>
-    <row r="1306" spans="15:15">
+    <row r="1306" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1306" s="6"/>
     </row>
-    <row r="1307" spans="15:15">
+    <row r="1307" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1307" s="6"/>
     </row>
-    <row r="1308" spans="15:15">
+    <row r="1308" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1308" s="6"/>
     </row>
-    <row r="1309" spans="15:15">
+    <row r="1309" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1309" s="6"/>
     </row>
-    <row r="1310" spans="15:15">
+    <row r="1310" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1310" s="6"/>
     </row>
-    <row r="1311" spans="15:15">
+    <row r="1311" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1311" s="6"/>
     </row>
-    <row r="1312" spans="15:15">
+    <row r="1312" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1312" s="6"/>
     </row>
-    <row r="1313" spans="15:15">
+    <row r="1313" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1313" s="6"/>
     </row>
-    <row r="1314" spans="15:15">
+    <row r="1314" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1314" s="6"/>
     </row>
-    <row r="1315" spans="15:15">
+    <row r="1315" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1315" s="6"/>
     </row>
-    <row r="1316" spans="15:15">
+    <row r="1316" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1316" s="6"/>
     </row>
-    <row r="1317" spans="15:15">
+    <row r="1317" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1317" s="6"/>
     </row>
-    <row r="1318" spans="15:15">
+    <row r="1318" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1318" s="6"/>
     </row>
-    <row r="1319" spans="15:15">
+    <row r="1319" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1319" s="6"/>
     </row>
-    <row r="1320" spans="15:15">
+    <row r="1320" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1320" s="6"/>
     </row>
-    <row r="1321" spans="15:15">
+    <row r="1321" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1321" s="6"/>
     </row>
-    <row r="1322" spans="15:15">
+    <row r="1322" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1322" s="6"/>
     </row>
-    <row r="1323" spans="15:15">
+    <row r="1323" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1323" s="6"/>
     </row>
-    <row r="1324" spans="15:15">
+    <row r="1324" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1324" s="6"/>
     </row>
-    <row r="1325" spans="15:15">
+    <row r="1325" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1325" s="6"/>
     </row>
-    <row r="1326" spans="15:15">
+    <row r="1326" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1326" s="6"/>
     </row>
-    <row r="1327" spans="15:15">
+    <row r="1327" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1327" s="6"/>
     </row>
-    <row r="1328" spans="15:15">
+    <row r="1328" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1328" s="6"/>
     </row>
-    <row r="1329" spans="15:15">
+    <row r="1329" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1329" s="6"/>
     </row>
-    <row r="1330" spans="15:15">
+    <row r="1330" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1330" s="6"/>
     </row>
-    <row r="1331" spans="15:15">
+    <row r="1331" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1331" s="6"/>
     </row>
-    <row r="1332" spans="15:15">
+    <row r="1332" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1332" s="6"/>
     </row>
-    <row r="1333" spans="15:15">
+    <row r="1333" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1333" s="6"/>
     </row>
+    <row r="1334" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1334" s="6"/>
+    </row>
+    <row r="1335" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1335" s="6"/>
+    </row>
+    <row r="1336" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1336" s="6"/>
+    </row>
+    <row r="1337" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1337" s="6"/>
+    </row>
+    <row r="1338" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1338" s="6"/>
+    </row>
+    <row r="1339" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1339" s="6"/>
+    </row>
+    <row r="1340" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1340" s="6"/>
+    </row>
+    <row r="1341" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1341" s="6"/>
+    </row>
+    <row r="1342" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1342" s="6"/>
+    </row>
+    <row r="1343" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1343" s="6"/>
+    </row>
+    <row r="1344" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1344" s="6"/>
+    </row>
+    <row r="1345" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1345" s="6"/>
+    </row>
+    <row r="1346" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1346" s="6"/>
+    </row>
+    <row r="1347" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1347" s="6"/>
+    </row>
+    <row r="1348" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1348" s="6"/>
+    </row>
+    <row r="1349" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1349" s="6"/>
+    </row>
+    <row r="1350" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1350" s="6"/>
+    </row>
+    <row r="1351" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1351" s="6"/>
+    </row>
+    <row r="1352" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1352" s="6"/>
+    </row>
+    <row r="1353" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1353" s="6"/>
+    </row>
+    <row r="1354" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1354" s="6"/>
+    </row>
+    <row r="1355" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1355" s="6"/>
+    </row>
+    <row r="1356" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1356" s="6"/>
+    </row>
+    <row r="1357" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1357" s="6"/>
+    </row>
+    <row r="1358" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1358" s="6"/>
+    </row>
+    <row r="1359" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1359" s="6"/>
+    </row>
+    <row r="1360" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1360" s="6"/>
+    </row>
+    <row r="1361" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1361" s="6"/>
+    </row>
+    <row r="1362" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1362" s="6"/>
+    </row>
+    <row r="1363" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1363" s="6"/>
+    </row>
+    <row r="1364" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1364" s="6"/>
+    </row>
+    <row r="1365" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1365" s="6"/>
+    </row>
+    <row r="1366" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1366" s="6"/>
+    </row>
+    <row r="1367" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1367" s="6"/>
+    </row>
+    <row r="1368" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1368" s="6"/>
+    </row>
+    <row r="1369" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1369" s="6"/>
+    </row>
+    <row r="1370" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1370" s="6"/>
+    </row>
+    <row r="1371" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1371" s="6"/>
+    </row>
+    <row r="1372" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1372" s="6"/>
+    </row>
+    <row r="1373" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1373" s="6"/>
+    </row>
+    <row r="1374" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1374" s="6"/>
+    </row>
+    <row r="1375" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1375" s="6"/>
+    </row>
+    <row r="1376" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1376" s="6"/>
+    </row>
+    <row r="1377" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1377" s="6"/>
+    </row>
+    <row r="1378" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1378" s="6"/>
+    </row>
+    <row r="1379" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1379" s="6"/>
+    </row>
+    <row r="1380" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1380" s="6"/>
+    </row>
+    <row r="1381" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1381" s="6"/>
+    </row>
+    <row r="1382" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1382" s="6"/>
+    </row>
+    <row r="1383" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1383" s="6"/>
+    </row>
+    <row r="1384" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1384" s="6"/>
+    </row>
+    <row r="1385" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1385" s="6"/>
+    </row>
+    <row r="1386" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1386" s="6"/>
+    </row>
+    <row r="1387" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1387" s="6"/>
+    </row>
+    <row r="1388" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1388" s="6"/>
+    </row>
+    <row r="1389" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1389" s="6"/>
+    </row>
+    <row r="1390" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1390" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="O1:O1036" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="O1:O1093" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6395,7 +8287,7 @@
         <v>158</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="14.25">
@@ -6484,10 +8376,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S83"/>
+  <dimension ref="A1:S82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X39" sqref="X39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -6590,7 +8482,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>21</v>
@@ -6640,7 +8532,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>21</v>
@@ -6658,14 +8550,14 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>21</v>
@@ -6690,7 +8582,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
@@ -6715,7 +8607,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
@@ -6740,7 +8632,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>21</v>
@@ -6758,7 +8650,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -6837,7 +8729,7 @@
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -6917,7 +8809,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>21</v>
@@ -6935,7 +8827,7 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
@@ -6992,7 +8884,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>21</v>
@@ -7017,7 +8909,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>21</v>
@@ -7042,7 +8934,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>21</v>
@@ -7067,7 +8959,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>21</v>
@@ -7117,7 +9009,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>21</v>
@@ -7142,7 +9034,7 @@
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2" t="s">
-        <v>315</v>
+        <v>101</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>21</v>
@@ -7160,14 +9052,14 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2" t="s">
-        <v>316</v>
+        <v>103</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>21</v>
@@ -7185,14 +9077,14 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="3" t="s">
-        <v>317</v>
+        <v>104</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2" t="s">
-        <v>102</v>
+        <v>208</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>21</v>
@@ -7210,14 +9102,14 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>21</v>
@@ -7235,14 +9127,14 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2" t="s">
-        <v>240</v>
+        <v>107</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>21</v>
@@ -7260,14 +9152,14 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>21</v>
@@ -7285,14 +9177,14 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="3" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2" t="s">
-        <v>108</v>
+        <v>243</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>21</v>
@@ -7310,14 +9202,14 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>21</v>
@@ -7335,14 +9227,14 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="3" t="s">
-        <v>110</v>
+        <v>245</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>21</v>
@@ -7360,14 +9252,14 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="3" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2" t="s">
-        <v>255</v>
+        <v>112</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>21</v>
@@ -7385,243 +9277,229 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="3" t="s">
-        <v>256</v>
+        <v>113</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B35" s="2" t="s">
+      <c r="A35" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
+      <c r="O35" s="5" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="1" t="s">
-        <v>212</v>
+        <v>114</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O36" s="5" t="s">
-        <v>197</v>
+      <c r="O36" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O40" s="4" t="s">
-        <v>22</v>
+      <c r="O40" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O41" s="1" t="s">
-        <v>20</v>
+      <c r="O41" s="5" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="1" t="s">
-        <v>121</v>
+        <v>257</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O42" s="5" t="s">
-        <v>198</v>
+      <c r="O42" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O43" s="4" t="s">
-        <v>122</v>
+      <c r="O43" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="1" t="s">
-        <v>273</v>
+        <v>125</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="1" t="s">
-        <v>126</v>
+        <v>236</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="1" t="s">
-        <v>239</v>
+        <v>130</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="1" t="s">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="1" t="s">
-        <v>217</v>
+        <v>136</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
-        <v>137</v>
+        <v>250</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>138</v>
+        <v>248</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="55" spans="1:15">
@@ -7632,95 +9510,95 @@
         <v>21</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>252</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="1" t="s">
-        <v>257</v>
+        <v>141</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>139</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O57" s="1" t="s">
-        <v>96</v>
+      <c r="O57" s="5" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="1" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O58" s="5" t="s">
-        <v>196</v>
+      <c r="O58" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="64" spans="1:15">
@@ -7731,23 +9609,23 @@
         <v>21</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>21</v>
@@ -7758,7 +9636,7 @@
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="1" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>21</v>
@@ -7769,13 +9647,13 @@
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="1" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -7786,34 +9664,34 @@
         <v>21</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="1" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>21</v>
@@ -7824,13 +9702,16 @@
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
+      </c>
+      <c r="Q73" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -7843,90 +9724,76 @@
       <c r="O74" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="Q74" s="1" t="s">
-        <v>230</v>
-      </c>
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>259</v>
+        <v>274</v>
       </c>
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="1" t="s">
-        <v>276</v>
+        <v>141</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>277</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="1" t="s">
-        <v>140</v>
+        <v>301</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>96</v>
+        <v>300</v>
       </c>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19">
-      <c r="A81" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O81" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19">
-      <c r="S83" s="1" t="s">
-        <v>230</v>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="82" spans="19:19">
+      <c r="S82" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs-mxyx\TheOtherUs-Beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{566E05E1-400E-4DFD-8C2A-7700BAB12CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10C0DA5-6DDB-4732-9310-E0E6F97070E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2460" yWindow="2640" windowWidth="24570" windowHeight="12060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2002,6 +2002,65 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">&lt;align="center"&gt;&lt;b&gt;TheOtherUs-Edited Team:&lt;/b&gt;
+mxyx    Huier-Huang    haoren
+Imp2    FangKuaiYa
+&lt;b&gt;Former TheOtherUs Team Members:&lt;/b&gt;
+SpexGH    Xer    FangKuaiYa    mxyx    Huier-Huang
+Thanks to The Other Roles, The Other Roles CE, The Other Roles GM IA, Town of Us, Stellar Roles!
+Thanks to miniduikboot &amp; GD for hosting modded servers (and so much more)
+</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=80%&gt;模组修改：&lt;color=#FFB793&gt;沫夏悠轩&lt;/color&gt; 
+美工: &lt;color=#00FFFFFF&gt;方块&lt;/color&gt;&lt;/size&gt;
+&lt;size=70%&gt;基于TheOtherUs&lt;/size&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;size=75%&gt;模组修改: &lt;color=#FFB793&gt;沫夏悠轩&lt;/color&gt; 
+美工: &lt;color=#00FFFFFF&gt;方块&lt;/color&gt;&lt;/size&gt;
+&lt;size=70%&gt;基于TheOtherUs&lt;/size&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>猜测次数（刺客共享）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>同一轮会议可多次猜测</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以猜测职业“卧底”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以猜测职业“船员”</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可猜测完成任务的告密者</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>猜测无视法医护盾保护</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>新信徒可成为刺客</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;size=110%&gt;&lt;color=#ff351f&gt;TheOtherUs-Edited&lt;/color&gt;&lt;/size&gt; </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;size=130%&gt;&lt;color=#ff351f&gt;TheOtherUs-Edited&lt;/color&gt;&lt;/size&gt; </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;align="center"&gt;&lt;b&gt;TheOtherUs-Edited 开发者:&lt;/b&gt;
 沫夏悠轩    天寸梦初    善良的好人    Imp11
 &lt;b&gt;美工:&lt;/b&gt;
@@ -2017,65 +2076,6 @@
 Thanks to The Other Roles, The Other Roles CE, The Other Roles GM IA, Town of Us, Stellar Roles!
 Thanks to miniduikboot &amp; GD for hosting modded servers (and so much more)
 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;align="center"&gt;&lt;b&gt;TheOtherUs-Edited Team:&lt;/b&gt;
-mxyx    Huier-Huang    haoren
-Imp2    FangKuaiYa
-&lt;b&gt;Former TheOtherUs Team Members:&lt;/b&gt;
-SpexGH    Xer    FangKuaiYa    mxyx    Huier-Huang
-Thanks to The Other Roles, The Other Roles CE, The Other Roles GM IA, Town of Us, Stellar Roles!
-Thanks to miniduikboot &amp; GD for hosting modded servers (and so much more)
-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=80%&gt;模组修改：&lt;color=#FFB793&gt;沫夏悠轩&lt;/color&gt; 
-美工: &lt;color=#00FFFFFF&gt;方块&lt;/color&gt;&lt;/size&gt;
-&lt;size=70%&gt;基于TheOtherUs&lt;/size&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;size=75%&gt;模组修改: &lt;color=#FFB793&gt;沫夏悠轩&lt;/color&gt; 
-美工: &lt;color=#00FFFFFF&gt;方块&lt;/color&gt;&lt;/size&gt;
-&lt;size=70%&gt;基于TheOtherUs&lt;/size&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>猜测次数（刺客共享）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>同一轮会议可多次猜测</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以猜测职业“卧底”</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以猜测职业“船员”</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>不可猜测完成任务的告密者</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>猜测无视法医护盾保护</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>新信徒可成为刺客</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;size=110%&gt;&lt;color=#ff351f&gt;TheOtherUs-Edited&lt;/color&gt;&lt;/size&gt; </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;size=130%&gt;&lt;color=#ff351f&gt;TheOtherUs-Edited&lt;/color&gt;&lt;/size&gt; </t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2692,8 +2692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1390"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2776,10 +2776,10 @@
         <v>144</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1">
@@ -2787,10 +2787,10 @@
         <v>146</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="28.5">
@@ -2856,7 +2856,7 @@
         <v>186</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="42.75">
@@ -2867,7 +2867,7 @@
         <v>309</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="42.75">
@@ -2886,7 +2886,7 @@
         <v>537</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -2901,7 +2901,7 @@
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1">
@@ -4042,7 +4042,7 @@
         <v>524</v>
       </c>
       <c r="O101" s="12" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4053,7 +4053,7 @@
         <v>525</v>
       </c>
       <c r="O102" s="12" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4064,7 +4064,7 @@
         <v>526</v>
       </c>
       <c r="O103" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4075,7 +4075,7 @@
         <v>527</v>
       </c>
       <c r="O104" s="12" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="105" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4086,7 +4086,7 @@
         <v>528</v>
       </c>
       <c r="O105" s="12" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4097,7 +4097,7 @@
         <v>529</v>
       </c>
       <c r="O106" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4108,7 +4108,7 @@
         <v>530</v>
       </c>
       <c r="O107" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="20.100000000000001" customHeight="1">

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs-mxyx\TheOtherUs-Beta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs\TheOtherUs-Beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10C0DA5-6DDB-4732-9310-E0E6F97070E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06947B75-CAFA-422D-9B3E-2481326F81D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="2640" windowWidth="24570" windowHeight="12060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="2640" windowWidth="24570" windowHeight="12060" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="552">
   <si>
     <t>English</t>
   </si>
@@ -293,9 +293,6 @@
   </si>
   <si>
     <t>点灯</t>
-  </si>
-  <si>
-    <t>LightsOutText</t>
   </si>
   <si>
     <t>关灯</t>
@@ -712,10 +709,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceJackInTheBoxText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>jackalSidekickText</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -836,10 +829,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>点灯</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>CleanText</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -956,10 +945,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>LighterText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>hackerButtonText</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1080,15 +1065,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>TricksterPlaceText1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>自爆</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TricksterPlaceText2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2076,6 +2053,34 @@
 Thanks to The Other Roles, The Other Roles CE, The Other Roles GM IA, Town of Us, Stellar Roles!
 Thanks to miniduikboot &amp; GD for hosting modded servers (and so much more)
 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找尸体</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrackerCorpsesText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlacePortalText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TricksterPlaceText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LightsOutText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TerroristBombText1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TerroristBombText2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2692,7 +2697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A102" workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
@@ -2709,7 +2714,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="B1" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -2762,7 +2767,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>17</v>
@@ -2773,79 +2778,79 @@
     </row>
     <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="28.5">
       <c r="A5" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="O5" s="11" t="s">
         <v>188</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B6" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="O6" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>150</v>
-      </c>
       <c r="O8" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>199</v>
-      </c>
       <c r="O9" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="42.75">
@@ -2853,40 +2858,40 @@
         <v>19</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="42.75">
       <c r="A11" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="42.75">
       <c r="A12" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="176.25" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -2901,7 +2906,7 @@
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1">
@@ -2909,13 +2914,13 @@
     </row>
     <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="O15" s="6" t="s">
         <v>191</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1">
@@ -2937,10 +2942,10 @@
     </row>
     <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="12" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -2953,19 +2958,19 @@
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="12" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="N17" s="12"/>
       <c r="O17" s="12" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -2978,19 +2983,19 @@
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
       <c r="M18" s="12" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="N18" s="12"/>
       <c r="O18" s="12" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -3003,19 +3008,19 @@
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
       <c r="M19" s="12" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="N19" s="12"/>
       <c r="O19" s="12" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="12" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -3030,15 +3035,15 @@
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
       <c r="O20" s="12" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -3053,15 +3058,15 @@
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
       <c r="O21" s="12" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="12" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -3076,7 +3081,7 @@
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
       <c r="O22" s="12" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3084,10 +3089,10 @@
     </row>
     <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="12" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -3100,11 +3105,11 @@
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
       <c r="M24" s="12" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="N24" s="12"/>
       <c r="O24" s="12" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3126,10 +3131,10 @@
     </row>
     <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -3144,15 +3149,15 @@
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
       <c r="O26" s="12" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -3167,15 +3172,15 @@
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="12" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -3188,41 +3193,41 @@
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
       <c r="M28" s="12" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="N28" s="12"/>
       <c r="O28" s="12" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="O29" s="12" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="O30" s="12" t="s">
         <v>310</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>313</v>
-      </c>
-      <c r="O30" s="12" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="12" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
@@ -3237,15 +3242,15 @@
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
       <c r="O31" s="12" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="12" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
@@ -3260,15 +3265,15 @@
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
       <c r="O32" s="12" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="12" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
@@ -3283,15 +3288,15 @@
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
       <c r="O33" s="12" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
@@ -3306,15 +3311,15 @@
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
       <c r="O34" s="12" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="12" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
@@ -3329,15 +3334,15 @@
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
       <c r="O35" s="12" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="12" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -3352,15 +3357,15 @@
       <c r="M36" s="12"/>
       <c r="N36" s="12"/>
       <c r="O36" s="12" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="12" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
@@ -3375,15 +3380,15 @@
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
       <c r="O37" s="12" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="12" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -3398,7 +3403,7 @@
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
       <c r="O38" s="12" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3406,134 +3411,134 @@
     </row>
     <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="12" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="O40" s="12" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="12" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="O41" s="12" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="12" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="O42" s="12" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="O43" s="12" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="12" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="O44" s="12" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="12" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="O45" s="12" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="12" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="12" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="12" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="12" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="O49" s="12" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="12" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="O50" s="12" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="O51" s="12" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3541,574 +3546,574 @@
     </row>
     <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="12" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="O53" s="12" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="12" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="O54" s="12" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="12" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="O55" s="12" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="12" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="O56" s="12" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="12" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="O57" s="12" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="O58" s="12" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="O59" s="6" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="12" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="O60" s="6" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="O61" s="12" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="O62" s="12" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="12" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="O63" s="12" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="12" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="O64" s="12" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="12" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="O65" s="12" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="12" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="O66" s="12" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="12" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="O67" s="12" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="O68" s="12" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="12" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="O69" s="12" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="12" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="O70" s="12" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="12" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="O71" s="12" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="12" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="O72" s="12" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A73" s="12" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B73" s="12"/>
       <c r="O73" s="12" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="12" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="O74" s="12" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="12" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="O75" s="12" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="12" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B76" s="12"/>
       <c r="O76" s="12" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A77" s="12" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="O77" s="12" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A78" s="12" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="O78" s="12" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A79" s="12" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="O79" s="12" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A80" s="12" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="O80" s="12" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A81" s="12" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="O81" s="12" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A82" s="6" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="O82" s="12" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A83" s="12" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="O83" s="12" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A84" s="12" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="O84" s="12" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A85" s="12" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="O85" s="12" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A86" s="12" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="O86" s="12" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A87" s="12" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="O87" s="12" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A88" s="12" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="O88" s="12" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A89" s="12" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="O89" s="12" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A90" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="O90" s="11" t="s">
         <v>476</v>
-      </c>
-      <c r="B90" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="O90" s="11" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A91" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="O91" s="12" t="s">
         <v>477</v>
-      </c>
-      <c r="B91" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="O91" s="12" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A92" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="O92" s="12" t="s">
         <v>478</v>
-      </c>
-      <c r="B92" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="O92" s="12" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A93" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="O93" s="12" t="s">
         <v>479</v>
-      </c>
-      <c r="B93" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="O93" s="12" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A94" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="O94" s="12" t="s">
         <v>480</v>
-      </c>
-      <c r="B94" s="12" t="s">
-        <v>494</v>
-      </c>
-      <c r="O94" s="12" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A95" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="O95" s="12" t="s">
         <v>481</v>
-      </c>
-      <c r="B95" s="12" t="s">
-        <v>493</v>
-      </c>
-      <c r="O95" s="12" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A96" s="12" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="O96" s="12" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A97" s="12" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="O97" s="12" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A99" s="12" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="O99" s="12" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A100" s="12" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="O100" s="12" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A101" s="6" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="O101" s="12" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A102" s="6" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="O102" s="12" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A103" s="6" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="O103" s="8" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A104" s="12" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="O104" s="12" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="105" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A105" s="6" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="O105" s="12" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A106" s="6" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="O106" s="8" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A107" s="6" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="O107" s="8" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4116,24 +4121,24 @@
     </row>
     <row r="109" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A109" s="12" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="O109" s="8" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A110" s="12" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="O110" s="8" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4225,13 +4230,13 @@
     </row>
     <row r="141" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A141" s="12" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="O141" s="12" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
     </row>
     <row r="142" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -8100,7 +8105,7 @@
         <v>28</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="14.25">
@@ -8111,7 +8116,7 @@
         <v>30</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="14.25">
@@ -8155,7 +8160,7 @@
         <v>41</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="14.25">
@@ -8177,7 +8182,7 @@
         <v>46</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="14.25">
@@ -8270,101 +8275,101 @@
     </row>
     <row r="19" spans="1:15" ht="14.25">
       <c r="A19" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="O19" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="14.25">
       <c r="A20" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="14.25">
       <c r="A21" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="14.25">
       <c r="A22" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="14.25">
       <c r="A23" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="14.25">
       <c r="A24" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="14.25">
       <c r="A25" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="14.25">
       <c r="A26" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="14.25">
       <c r="A27" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -8376,10 +8381,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S82"/>
+  <dimension ref="A1:S83"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X39" sqref="X39"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -8482,7 +8487,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>21</v>
@@ -8532,7 +8537,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>21</v>
@@ -8550,14 +8555,14 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>21</v>
@@ -8582,7 +8587,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
@@ -8607,7 +8612,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
@@ -8632,7 +8637,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>21</v>
@@ -8650,7 +8655,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -8729,12 +8734,12 @@
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2" t="s">
-        <v>85</v>
+        <v>549</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>21</v>
@@ -8752,14 +8757,14 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>21</v>
@@ -8777,14 +8782,14 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>21</v>
@@ -8802,14 +8807,14 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2" t="s">
-        <v>203</v>
+        <v>547</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>21</v>
@@ -8827,14 +8832,14 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>21</v>
@@ -8852,14 +8857,14 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>21</v>
@@ -8877,14 +8882,14 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>21</v>
@@ -8902,14 +8907,14 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>21</v>
@@ -8927,14 +8932,14 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>21</v>
@@ -8952,14 +8957,14 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>21</v>
@@ -8984,7 +8989,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>21</v>
@@ -9002,14 +9007,14 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>21</v>
@@ -9027,14 +9032,14 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>21</v>
@@ -9052,14 +9057,14 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2" t="s">
-        <v>103</v>
+        <v>546</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>21</v>
@@ -9077,14 +9082,14 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="3" t="s">
-        <v>104</v>
+        <v>545</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2" t="s">
-        <v>208</v>
+        <v>102</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>21</v>
@@ -9102,14 +9107,14 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>21</v>
@@ -9127,14 +9132,14 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2" t="s">
-        <v>107</v>
+        <v>234</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>21</v>
@@ -9152,14 +9157,14 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>21</v>
@@ -9177,14 +9182,14 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2" t="s">
-        <v>243</v>
+        <v>108</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>21</v>
@@ -9202,14 +9207,14 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>21</v>
@@ -9227,14 +9232,14 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="3" t="s">
-        <v>245</v>
+        <v>110</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>21</v>
@@ -9252,14 +9257,14 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="3" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2" t="s">
-        <v>112</v>
+        <v>249</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>21</v>
@@ -9277,523 +9282,548 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="3" t="s">
-        <v>113</v>
+        <v>250</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B35" s="1" t="s">
+      <c r="A35" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="O35" s="5" t="s">
-        <v>196</v>
-      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="1" t="s">
-        <v>114</v>
+        <v>207</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O36" s="4" t="s">
-        <v>115</v>
+      <c r="O36" s="5" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O40" s="1" t="s">
-        <v>20</v>
+      <c r="O40" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O41" s="5" t="s">
-        <v>197</v>
+      <c r="O41" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="1" t="s">
-        <v>257</v>
+        <v>121</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O42" s="4" t="s">
-        <v>123</v>
+      <c r="O42" s="5" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O43" s="1" t="s">
-        <v>124</v>
+      <c r="O43" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="1" t="s">
-        <v>125</v>
+        <v>266</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="1" t="s">
-        <v>236</v>
+        <v>126</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="1" t="s">
-        <v>130</v>
+        <v>233</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="1" t="s">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="1" t="s">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
-        <v>250</v>
+        <v>137</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>248</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>140</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="1" t="s">
-        <v>141</v>
+        <v>251</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
-        <v>194</v>
+        <v>140</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O57" s="5" t="s">
-        <v>195</v>
+      <c r="O57" s="1" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="1" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O58" s="1" t="s">
-        <v>205</v>
+      <c r="O58" s="5" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="1" t="s">
-        <v>264</v>
+        <v>228</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="1" t="s">
-        <v>301</v>
+        <v>548</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="1" t="s">
-        <v>303</v>
+        <v>550</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="82" spans="19:19">
-      <c r="S82" s="1" t="s">
-        <v>227</v>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19">
+      <c r="A81" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O81" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19">
+      <c r="S83" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs\TheOtherUs-Beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06947B75-CAFA-422D-9B3E-2481326F81D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49942BA-F31E-49AE-9F15-EB6C3A747D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="2640" windowWidth="24570" windowHeight="12060" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3600" yWindow="3585" windowWidth="24570" windowHeight="12060" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="3" r:id="rId1"/>
@@ -298,9 +298,6 @@
     <t>关灯</t>
   </si>
   <si>
-    <t>MorphText</t>
-  </si>
-  <si>
     <t>化形</t>
   </si>
   <si>
@@ -308,9 +305,6 @@
   </si>
   <si>
     <t>安装</t>
-  </si>
-  <si>
-    <t>RepairText</t>
   </si>
   <si>
     <t>修理</t>
@@ -2081,6 +2075,14 @@
   </si>
   <si>
     <t>TerroristBombText2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepairText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MorphText</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2714,7 +2716,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="B1" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -2767,7 +2769,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>17</v>
@@ -2778,79 +2780,79 @@
     </row>
     <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="28.5">
       <c r="A5" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="O5" s="11" t="s">
         <v>186</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="O9" s="12" t="s">
         <v>198</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="42.75">
@@ -2858,40 +2860,40 @@
         <v>19</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="42.75">
       <c r="A11" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="42.75">
       <c r="A12" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="O12" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="176.25" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -2906,7 +2908,7 @@
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1">
@@ -2914,13 +2916,13 @@
     </row>
     <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B15" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="O15" s="6" t="s">
         <v>189</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1">
@@ -2942,10 +2944,10 @@
     </row>
     <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="12" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -2958,19 +2960,19 @@
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="N17" s="12"/>
       <c r="O17" s="12" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -2983,19 +2985,19 @@
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
       <c r="M18" s="12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="N18" s="12"/>
       <c r="O18" s="12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -3008,19 +3010,19 @@
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
       <c r="M19" s="12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="N19" s="12"/>
       <c r="O19" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -3035,15 +3037,15 @@
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
       <c r="O20" s="12" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="12" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -3058,15 +3060,15 @@
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
       <c r="O21" s="12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="12" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -3081,7 +3083,7 @@
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
       <c r="O22" s="12" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3089,10 +3091,10 @@
     </row>
     <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -3105,11 +3107,11 @@
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
       <c r="M24" s="12" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="N24" s="12"/>
       <c r="O24" s="12" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3131,10 +3133,10 @@
     </row>
     <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -3149,15 +3151,15 @@
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
       <c r="O26" s="12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -3172,15 +3174,15 @@
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="12" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -3193,41 +3195,41 @@
       <c r="K28" s="12"/>
       <c r="L28" s="12"/>
       <c r="M28" s="12" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N28" s="12"/>
       <c r="O28" s="12" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="O29" s="12" t="s">
         <v>331</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="O29" s="12" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="O30" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
@@ -3242,15 +3244,15 @@
       <c r="M31" s="12"/>
       <c r="N31" s="12"/>
       <c r="O31" s="12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
@@ -3265,15 +3267,15 @@
       <c r="M32" s="12"/>
       <c r="N32" s="12"/>
       <c r="O32" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="12" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
@@ -3288,15 +3290,15 @@
       <c r="M33" s="12"/>
       <c r="N33" s="12"/>
       <c r="O33" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
@@ -3311,15 +3313,15 @@
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
       <c r="O34" s="12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="12" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
@@ -3334,15 +3336,15 @@
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
       <c r="O35" s="12" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -3357,15 +3359,15 @@
       <c r="M36" s="12"/>
       <c r="N36" s="12"/>
       <c r="O36" s="12" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A37" s="12" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
@@ -3380,15 +3382,15 @@
       <c r="M37" s="12"/>
       <c r="N37" s="12"/>
       <c r="O37" s="12" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="12" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -3403,7 +3405,7 @@
       <c r="M38" s="12"/>
       <c r="N38" s="12"/>
       <c r="O38" s="12" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3411,134 +3413,134 @@
     </row>
     <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="12" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="O40" s="12" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="B41" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>341</v>
-      </c>
       <c r="O41" s="12" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="O42" s="12" t="s">
         <v>342</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="O42" s="12" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="O43" s="12" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="12" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="O44" s="12" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="O45" s="12" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="12" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="12" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="O49" s="12" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="12" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O50" s="12" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="O51" s="12" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3546,574 +3548,574 @@
     </row>
     <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="12" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="O53" s="12" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="12" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="O54" s="12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="12" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="O55" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="O56" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="12" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="O57" s="12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="O58" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="O59" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="12" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="O60" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="O61" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="O62" s="12" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="12" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="O63" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="O64" s="12" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="O65" s="12" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="O66" s="12" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="O67" s="12" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="O68" s="12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="12" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="O69" s="12" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="O70" s="12" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="12" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="O71" s="12" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="12" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="O72" s="12" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A73" s="12" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B73" s="12"/>
       <c r="O73" s="12" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="O74" s="12" t="s">
         <v>412</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="O74" s="12" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="O75" s="12" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="12" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B76" s="12"/>
       <c r="O76" s="12" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A77" s="12" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="O77" s="12" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A78" s="12" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="O78" s="12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A79" s="12" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="O79" s="12" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A80" s="12" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="O80" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A81" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="O81" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A82" s="6" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="O82" s="12" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A83" s="12" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="O83" s="12" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A84" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="O84" s="12" t="s">
         <v>433</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="O84" s="12" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A85" s="12" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="O85" s="12" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A86" s="12" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="O86" s="12" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A87" s="12" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="O87" s="12" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A88" s="12" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="O88" s="12" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A89" s="12" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="O89" s="12" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A90" s="12" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="O90" s="11" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A91" s="12" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="O91" s="12" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A92" s="12" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="O92" s="12" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A93" s="12" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="O93" s="12" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A94" s="12" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="O94" s="12" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A95" s="12" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="O95" s="12" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A96" s="12" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="O96" s="12" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A97" s="12" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="O97" s="12" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A99" s="12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="O99" s="12" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A100" s="12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B100" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="O100" s="12" t="s">
         <v>368</v>
-      </c>
-      <c r="O100" s="12" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A101" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="O101" s="12" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A102" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="O102" s="12" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A103" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="O103" s="8" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A104" s="12" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="O104" s="12" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="105" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A105" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="O105" s="12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A106" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="O106" s="8" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A107" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="O107" s="8" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4121,24 +4123,24 @@
     </row>
     <row r="109" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A109" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>527</v>
+      </c>
+      <c r="O109" s="8" t="s">
         <v>525</v>
-      </c>
-      <c r="B109" s="12" t="s">
-        <v>529</v>
-      </c>
-      <c r="O109" s="8" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A110" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="O110" s="8" t="s">
         <v>526</v>
-      </c>
-      <c r="B110" s="12" t="s">
-        <v>530</v>
-      </c>
-      <c r="O110" s="8" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4230,13 +4232,13 @@
     </row>
     <row r="141" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A141" s="12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B141" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="O141" s="12" t="s">
         <v>298</v>
-      </c>
-      <c r="O141" s="12" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="142" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -8105,7 +8107,7 @@
         <v>28</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="14.25">
@@ -8116,7 +8118,7 @@
         <v>30</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="14.25">
@@ -8160,7 +8162,7 @@
         <v>41</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="14.25">
@@ -8182,7 +8184,7 @@
         <v>46</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="14.25">
@@ -8275,101 +8277,101 @@
     </row>
     <row r="19" spans="1:15" ht="14.25">
       <c r="A19" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="14.25">
       <c r="A20" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="14.25">
       <c r="A21" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="14.25">
       <c r="A22" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="14.25">
       <c r="A23" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="14.25">
       <c r="A24" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="14.25">
       <c r="A25" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="14.25">
       <c r="A26" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="14.25">
       <c r="A27" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -8383,8 +8385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q86" sqref="Q86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -8487,7 +8489,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>21</v>
@@ -8537,7 +8539,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>21</v>
@@ -8555,14 +8557,14 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>21</v>
@@ -8587,7 +8589,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
@@ -8612,7 +8614,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
@@ -8637,7 +8639,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>21</v>
@@ -8655,7 +8657,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -8734,12 +8736,12 @@
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>21</v>
@@ -8764,7 +8766,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2" t="s">
-        <v>86</v>
+        <v>551</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>21</v>
@@ -8782,14 +8784,14 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>21</v>
@@ -8807,14 +8809,14 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>21</v>
@@ -8832,14 +8834,14 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2" t="s">
-        <v>90</v>
+        <v>550</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>21</v>
@@ -8857,14 +8859,14 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>21</v>
@@ -8882,14 +8884,14 @@
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>21</v>
@@ -8907,14 +8909,14 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>21</v>
@@ -8932,14 +8934,14 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>21</v>
@@ -8957,14 +8959,14 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>21</v>
@@ -8989,7 +8991,7 @@
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>21</v>
@@ -9007,14 +9009,14 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>21</v>
@@ -9032,14 +9034,14 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>21</v>
@@ -9057,14 +9059,14 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>21</v>
@@ -9082,14 +9084,14 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>21</v>
@@ -9107,14 +9109,14 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>21</v>
@@ -9132,14 +9134,14 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>21</v>
@@ -9157,14 +9159,14 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>21</v>
@@ -9182,14 +9184,14 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>21</v>
@@ -9207,14 +9209,14 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>21</v>
@@ -9232,14 +9234,14 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>21</v>
@@ -9257,14 +9259,14 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>21</v>
@@ -9282,14 +9284,14 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>21</v>
@@ -9307,58 +9309,58 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>21</v>
@@ -9369,7 +9371,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>21</v>
@@ -9380,450 +9382,450 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O57" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O58" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="1" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="81" spans="1:19">
       <c r="A81" s="1" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="83" spans="1:19">
       <c r="S83" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs\TheOtherUs-Beta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49942BA-F31E-49AE-9F15-EB6C3A747D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908A719F-76BC-4C87-A0C8-20C3C631E0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3600" yWindow="3585" windowWidth="24570" windowHeight="12060" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8385,7 +8385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q86" sqref="Q86"/>
     </sheetView>
   </sheetViews>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs\TheOtherUs-Beta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs\TheOtherUs-Edited\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908A719F-76BC-4C87-A0C8-20C3C631E0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B04CD6-59C1-4ADB-B330-557E6F4DCDA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="3585" windowWidth="24570" windowHeight="12060" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3600" yWindow="3585" windowWidth="24570" windowHeight="12060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="3" r:id="rId1"/>
@@ -1208,9 +1208,6 @@
     <t>プリセット</t>
   </si>
   <si>
-    <t>预设</t>
-  </si>
-  <si>
     <t>启用模组职业并禁用原版职业</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1674,19 +1671,11 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>关闭</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>ON</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>On</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>开启</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2083,6 +2072,18 @@
   </si>
   <si>
     <t>MorphText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>预设</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#CCCCCC&gt;关闭&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00&gt;开启&lt;/color&gt;</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2699,8 +2700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1390"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2783,10 +2784,10 @@
         <v>141</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1">
@@ -2794,10 +2795,10 @@
         <v>143</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="28.5">
@@ -2863,7 +2864,7 @@
         <v>183</v>
       </c>
       <c r="O10" s="11" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="42.75">
@@ -2874,7 +2875,7 @@
         <v>301</v>
       </c>
       <c r="O11" s="11" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="42.75">
@@ -2890,10 +2891,10 @@
     </row>
     <row r="13" spans="1:17" ht="176.25" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -2908,7 +2909,7 @@
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1">
@@ -3133,10 +3134,10 @@
     </row>
     <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>451</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>452</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -3151,15 +3152,15 @@
       <c r="M26" s="12"/>
       <c r="N26" s="12"/>
       <c r="O26" s="12" t="s">
-        <v>453</v>
+        <v>550</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="12" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -3174,12 +3175,12 @@
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12" t="s">
-        <v>456</v>
+        <v>551</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="12" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>332</v>
@@ -3199,7 +3200,7 @@
       </c>
       <c r="N28" s="12"/>
       <c r="O28" s="12" t="s">
-        <v>334</v>
+        <v>549</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3413,134 +3414,134 @@
     </row>
     <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O40" s="12" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="O41" s="12" t="s">
         <v>337</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="O41" s="12" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O42" s="12" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A43" s="12" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="O43" s="12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A44" s="12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O44" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="12" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O45" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="12" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="O46" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="12" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="O47" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O49" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="12" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O50" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O51" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3548,574 +3549,574 @@
     </row>
     <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A53" s="12" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O53" s="12" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="O54" s="12" t="s">
         <v>370</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>487</v>
-      </c>
-      <c r="O54" s="12" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="O55" s="12" t="s">
         <v>372</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>488</v>
-      </c>
-      <c r="O55" s="12" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="O56" s="12" t="s">
         <v>374</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="O56" s="12" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="O57" s="12" t="s">
         <v>376</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>491</v>
-      </c>
-      <c r="O57" s="12" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="O58" s="12" t="s">
         <v>378</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>490</v>
-      </c>
-      <c r="O58" s="12" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="O59" s="6" t="s">
         <v>380</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="O59" s="6" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="O60" s="6" t="s">
         <v>382</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>493</v>
-      </c>
-      <c r="O60" s="6" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="O61" s="12" t="s">
         <v>384</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="O61" s="12" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="O62" s="12" t="s">
         <v>386</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>495</v>
-      </c>
-      <c r="O62" s="12" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="O63" s="12" t="s">
         <v>388</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="O63" s="12" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>496</v>
+      </c>
+      <c r="O64" s="12" t="s">
         <v>390</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>499</v>
-      </c>
-      <c r="O64" s="12" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="O65" s="12" t="s">
         <v>392</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>496</v>
-      </c>
-      <c r="O65" s="12" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A66" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="O66" s="12" t="s">
         <v>394</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>497</v>
-      </c>
-      <c r="O66" s="12" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="O67" s="12" t="s">
         <v>396</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>498</v>
-      </c>
-      <c r="O67" s="12" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="O68" s="12" t="s">
         <v>398</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>494</v>
-      </c>
-      <c r="O68" s="12" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="O69" s="12" t="s">
         <v>400</v>
-      </c>
-      <c r="O69" s="12" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="O70" s="12" t="s">
         <v>402</v>
-      </c>
-      <c r="B70" s="12" t="s">
-        <v>501</v>
-      </c>
-      <c r="O70" s="12" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="O71" s="12" t="s">
         <v>404</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>502</v>
-      </c>
-      <c r="O71" s="12" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="B72" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="B72" s="12" t="s">
-        <v>407</v>
-      </c>
       <c r="O72" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A73" s="12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B73" s="12"/>
       <c r="O73" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="B74" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="O74" s="12" t="s">
         <v>411</v>
-      </c>
-      <c r="O74" s="12" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="O75" s="12" t="s">
         <v>413</v>
-      </c>
-      <c r="B75" s="12" t="s">
-        <v>464</v>
-      </c>
-      <c r="O75" s="12" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B76" s="12"/>
       <c r="O76" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A77" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="O77" s="12" t="s">
         <v>417</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="O77" s="12" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A78" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="O78" s="12" t="s">
         <v>419</v>
-      </c>
-      <c r="B78" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="O78" s="12" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A79" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="O79" s="12" t="s">
         <v>421</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>467</v>
-      </c>
-      <c r="O79" s="12" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A80" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="B80" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="B80" s="12" t="s">
-        <v>424</v>
-      </c>
       <c r="O80" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A81" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="O81" s="12" t="s">
         <v>425</v>
-      </c>
-      <c r="O81" s="12" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A82" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="O82" s="12" t="s">
         <v>427</v>
-      </c>
-      <c r="O82" s="12" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A83" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="O83" s="12" t="s">
         <v>429</v>
-      </c>
-      <c r="O83" s="12" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A84" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="O84" s="12" t="s">
         <v>432</v>
-      </c>
-      <c r="O84" s="12" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A85" s="12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="O85" s="12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A86" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="O86" s="12" t="s">
         <v>436</v>
-      </c>
-      <c r="B86" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="O86" s="12" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A87" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="O87" s="12" t="s">
         <v>438</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>462</v>
-      </c>
-      <c r="O87" s="12" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A88" s="12" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="O88" s="12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A89" s="12" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="O89" s="12" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A90" s="12" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="O90" s="11" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A91" s="12" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="O91" s="12" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A92" s="12" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="O92" s="12" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A93" s="12" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="O93" s="12" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A94" s="12" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="O94" s="12" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A95" s="12" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="O95" s="12" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A96" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="O96" s="12" t="s">
         <v>503</v>
-      </c>
-      <c r="B96" s="12" t="s">
-        <v>507</v>
-      </c>
-      <c r="O96" s="12" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A97" s="12" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="O97" s="12" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A99" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="B99" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="B99" s="12" t="s">
-        <v>364</v>
-      </c>
       <c r="O99" s="12" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A100" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="B100" s="6" t="s">
-        <v>366</v>
-      </c>
       <c r="O100" s="12" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A101" s="6" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="O101" s="12" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A102" s="6" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="O102" s="12" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A103" s="6" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="O103" s="8" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A104" s="12" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="O104" s="12" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="105" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A105" s="6" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="O105" s="12" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A106" s="6" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="O106" s="8" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A107" s="6" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="O107" s="8" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4123,24 +4124,24 @@
     </row>
     <row r="109" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A109" s="12" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="O109" s="8" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A110" s="12" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="O110" s="8" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -8385,8 +8386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q86" sqref="Q86"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -8741,7 +8742,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>21</v>
@@ -8766,7 +8767,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>21</v>
@@ -8816,7 +8817,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>21</v>
@@ -8841,7 +8842,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>21</v>
@@ -9066,7 +9067,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>21</v>
@@ -9084,7 +9085,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="3" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
@@ -9792,7 +9793,7 @@
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>21</v>
@@ -9803,7 +9804,7 @@
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="1" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>21</v>
@@ -9814,7 +9815,7 @@
     </row>
     <row r="81" spans="1:19">
       <c r="A81" s="1" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>21</v>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs\TheOtherUs-Edited\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B04CD6-59C1-4ADB-B330-557E6F4DCDA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAFFB1D-F590-479A-AE70-5B3F2629B63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3600" yWindow="3585" windowWidth="24570" windowHeight="12060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Button Text" sheetId="8" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Text!$O$1:$O$1093</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Text!$O$1:$O$1107</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="586">
   <si>
     <t>English</t>
   </si>
@@ -2084,6 +2084,141 @@
   </si>
   <si>
     <t>&lt;color=#FFFF00&gt;开启&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵魂可见任务&amp;其他信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵魂可见投票</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵魂可以看到职业</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵魂可见附加职业</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示职业总结</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示颜色深浅</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用模组光标</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用模组音效</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在地图上显示管道</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集Debug日志</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghosts See Tasks &amp; Other Info</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghosts Can See Votes</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghosts Can See Roles</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghosts Can Additionally See Modifier</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Show Role Summary</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Show Lighter / Darker</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Better Cursor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable Sound Effects</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GhostsSeeInformationText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GhostsSeeVotesText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GhostsSeeRolesText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GhostsSeeModifierText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowRoleSummaryText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowLighterDarkerText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToggleCursorText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnableSoundEffectsText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowVentsOnMapText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnableDebugLogModeText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable Debug Log Mode</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>More Options…</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>模组选项</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mod Options...</t>
+  </si>
+  <si>
+    <t>TORMapOptionsButtonText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TORMapOptionsTitleText</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2698,10 +2833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1390"/>
+  <dimension ref="A1:Q1404"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2916,321 +3051,174 @@
       <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>189</v>
+      <c r="A15" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>583</v>
+      </c>
+      <c r="O15" s="11" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
+      <c r="A16" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="O16" s="11" t="s">
+        <v>582</v>
+      </c>
     </row>
     <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="12" t="s">
-        <v>272</v>
+        <v>570</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12" t="s">
-        <v>274</v>
-      </c>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12" t="s">
-        <v>275</v>
+        <v>562</v>
+      </c>
+      <c r="O17" s="11" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12" t="s">
-        <v>278</v>
-      </c>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12" t="s">
-        <v>279</v>
+        <v>571</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="O18" s="11" t="s">
+        <v>553</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12" t="s">
-        <v>283</v>
+        <v>572</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="O19" s="11" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="12" t="s">
-        <v>284</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12" t="s">
-        <v>286</v>
+        <v>573</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="O20" s="11" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="12" t="s">
-        <v>271</v>
+        <v>574</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="O21" s="11" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12" t="s">
-        <v>289</v>
+        <v>575</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="O22" s="11" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O23" s="6"/>
+      <c r="A23" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="O23" s="11" t="s">
+        <v>558</v>
+      </c>
     </row>
     <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12" t="s">
-        <v>292</v>
-      </c>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12" t="s">
-        <v>293</v>
+        <v>577</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="O24" s="11" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
+      <c r="A25" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="O25" s="11" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>451</v>
-      </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="12"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="12" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="12" t="s">
-        <v>452</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>453</v>
-      </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12" t="s">
-        <v>551</v>
+        <v>579</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="O26" s="11" t="s">
+        <v>561</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12" t="s">
-        <v>333</v>
-      </c>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12" t="s">
-        <v>549</v>
-      </c>
+      <c r="B28" s="7"/>
     </row>
     <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A29" s="6" t="s">
-        <v>329</v>
+        <v>188</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="O29" s="12" t="s">
-        <v>331</v>
+        <v>187</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="O30" s="12" t="s">
-        <v>308</v>
-      </c>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="12"/>
     </row>
     <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="12" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
@@ -3242,18 +3230,20 @@
       <c r="J31" s="12"/>
       <c r="K31" s="12"/>
       <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
+      <c r="M31" s="12" t="s">
+        <v>274</v>
+      </c>
       <c r="N31" s="12"/>
       <c r="O31" s="12" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A32" s="12" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>307</v>
+        <v>277</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
@@ -3265,18 +3255,20 @@
       <c r="J32" s="12"/>
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
+      <c r="M32" s="12" t="s">
+        <v>278</v>
+      </c>
       <c r="N32" s="12"/>
       <c r="O32" s="12" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A33" s="12" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
@@ -3288,18 +3280,20 @@
       <c r="J33" s="12"/>
       <c r="K33" s="12"/>
       <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
+      <c r="M33" s="12" t="s">
+        <v>282</v>
+      </c>
       <c r="N33" s="12"/>
       <c r="O33" s="12" t="s">
-        <v>313</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="12" t="s">
-        <v>314</v>
+        <v>284</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
@@ -3314,15 +3308,15 @@
       <c r="M34" s="12"/>
       <c r="N34" s="12"/>
       <c r="O34" s="12" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A35" s="12" t="s">
-        <v>319</v>
+        <v>269</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>316</v>
+        <v>270</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
@@ -3337,15 +3331,15 @@
       <c r="M35" s="12"/>
       <c r="N35" s="12"/>
       <c r="O35" s="12" t="s">
-        <v>323</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A36" s="12" t="s">
-        <v>320</v>
+        <v>287</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -3360,38 +3354,18 @@
       <c r="M36" s="12"/>
       <c r="N36" s="12"/>
       <c r="O36" s="12" t="s">
-        <v>324</v>
+        <v>289</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12" t="s">
-        <v>325</v>
-      </c>
+      <c r="O37" s="6"/>
     </row>
     <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A38" s="12" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -3403,950 +3377,1204 @@
       <c r="J38" s="12"/>
       <c r="K38" s="12"/>
       <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
+      <c r="M38" s="12" t="s">
+        <v>292</v>
+      </c>
       <c r="N38" s="12"/>
       <c r="O38" s="12" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O39" s="6"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="12"/>
     </row>
     <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A40" s="12" t="s">
-        <v>340</v>
+        <v>450</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>335</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
       <c r="O40" s="12" t="s">
-        <v>334</v>
+        <v>550</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A41" s="12" t="s">
-        <v>336</v>
+        <v>452</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>338</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
       <c r="O41" s="12" t="s">
-        <v>337</v>
+        <v>551</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A42" s="12" t="s">
-        <v>339</v>
+        <v>454</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>351</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="N42" s="12"/>
       <c r="O42" s="12" t="s">
-        <v>341</v>
+        <v>549</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="12" t="s">
-        <v>342</v>
+      <c r="A43" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="O43" s="12" t="s">
-        <v>441</v>
+        <v>331</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="12" t="s">
-        <v>343</v>
+      <c r="A44" s="6" t="s">
+        <v>302</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>354</v>
+        <v>305</v>
       </c>
       <c r="O44" s="12" t="s">
-        <v>442</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A45" s="12" t="s">
-        <v>344</v>
+        <v>303</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>355</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
       <c r="O45" s="12" t="s">
-        <v>443</v>
+        <v>309</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A46" s="12" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="O46" s="6" t="s">
-        <v>444</v>
+        <v>307</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="12"/>
+      <c r="O46" s="12" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A47" s="12" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="O47" s="6" t="s">
-        <v>445</v>
+        <v>312</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A48" s="12" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="O48" s="6" t="s">
-        <v>446</v>
+        <v>315</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="12" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A49" s="12" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>359</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="12"/>
       <c r="O49" s="12" t="s">
-        <v>447</v>
+        <v>323</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A50" s="12" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>360</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="12"/>
       <c r="O50" s="12" t="s">
-        <v>448</v>
+        <v>324</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A51" s="12" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>361</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="12"/>
       <c r="O51" s="12" t="s">
-        <v>449</v>
+        <v>325</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O52" s="6"/>
+      <c r="A52" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A53" s="12" t="s">
-        <v>352</v>
-      </c>
-      <c r="O53" s="12" t="s">
-        <v>368</v>
-      </c>
+      <c r="O53" s="6"/>
     </row>
     <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A54" s="12" t="s">
-        <v>369</v>
+        <v>340</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>484</v>
+        <v>335</v>
       </c>
       <c r="O54" s="12" t="s">
-        <v>370</v>
+        <v>334</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A55" s="12" t="s">
-        <v>371</v>
+        <v>336</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>485</v>
+        <v>338</v>
       </c>
       <c r="O55" s="12" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A56" s="12" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>486</v>
+        <v>351</v>
       </c>
       <c r="O56" s="12" t="s">
-        <v>374</v>
+        <v>341</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A57" s="12" t="s">
-        <v>375</v>
+        <v>342</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>488</v>
+        <v>353</v>
       </c>
       <c r="O57" s="12" t="s">
-        <v>376</v>
+        <v>441</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A58" s="12" t="s">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>487</v>
+        <v>354</v>
       </c>
       <c r="O58" s="12" t="s">
-        <v>378</v>
+        <v>442</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A59" s="12" t="s">
-        <v>379</v>
+        <v>344</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="O59" s="6" t="s">
-        <v>380</v>
+        <v>355</v>
+      </c>
+      <c r="O59" s="12" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A60" s="12" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>490</v>
+        <v>356</v>
       </c>
       <c r="O60" s="6" t="s">
-        <v>382</v>
+        <v>444</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A61" s="12" t="s">
-        <v>383</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="O61" s="12" t="s">
-        <v>384</v>
+        <v>346</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="O61" s="6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A62" s="12" t="s">
-        <v>385</v>
+        <v>347</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>492</v>
-      </c>
-      <c r="O62" s="12" t="s">
-        <v>386</v>
+        <v>358</v>
+      </c>
+      <c r="O62" s="6" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A63" s="12" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>497</v>
+        <v>359</v>
       </c>
       <c r="O63" s="12" t="s">
-        <v>388</v>
+        <v>447</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A64" s="12" t="s">
-        <v>389</v>
+        <v>349</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>496</v>
+        <v>360</v>
       </c>
       <c r="O64" s="12" t="s">
-        <v>390</v>
+        <v>448</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A65" s="12" t="s">
-        <v>391</v>
+        <v>350</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>493</v>
+        <v>361</v>
       </c>
       <c r="O65" s="12" t="s">
-        <v>392</v>
+        <v>449</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A66" s="12" t="s">
-        <v>393</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>494</v>
-      </c>
-      <c r="O66" s="12" t="s">
-        <v>394</v>
-      </c>
+      <c r="O66" s="6"/>
     </row>
     <row r="67" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A67" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>495</v>
+        <v>352</v>
       </c>
       <c r="O67" s="12" t="s">
-        <v>396</v>
+        <v>368</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A68" s="12" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="O68" s="12" t="s">
-        <v>398</v>
+        <v>370</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A69" s="12" t="s">
-        <v>399</v>
+        <v>371</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>485</v>
       </c>
       <c r="O69" s="12" t="s">
-        <v>400</v>
+        <v>372</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A70" s="12" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="O70" s="12" t="s">
-        <v>402</v>
+        <v>374</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A71" s="12" t="s">
-        <v>403</v>
+        <v>375</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="O71" s="12" t="s">
-        <v>404</v>
+        <v>376</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A72" s="12" t="s">
-        <v>405</v>
+        <v>377</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>406</v>
+        <v>487</v>
       </c>
       <c r="O72" s="12" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A73" s="12" t="s">
-        <v>407</v>
-      </c>
-      <c r="B73" s="12"/>
-      <c r="O73" s="12" t="s">
-        <v>408</v>
+        <v>379</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="O73" s="6" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A74" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="O74" s="12" t="s">
-        <v>411</v>
+        <v>381</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="O74" s="6" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A75" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="B75" s="12" t="s">
-        <v>461</v>
+        <v>383</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>481</v>
       </c>
       <c r="O75" s="12" t="s">
-        <v>413</v>
+        <v>384</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A76" s="12" t="s">
-        <v>414</v>
-      </c>
-      <c r="B76" s="12"/>
+        <v>385</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>492</v>
+      </c>
       <c r="O76" s="12" t="s">
-        <v>415</v>
+        <v>386</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A77" s="12" t="s">
-        <v>416</v>
+        <v>387</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="O77" s="12" t="s">
-        <v>417</v>
+        <v>388</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A78" s="12" t="s">
-        <v>418</v>
+        <v>389</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>463</v>
+        <v>496</v>
       </c>
       <c r="O78" s="12" t="s">
-        <v>419</v>
+        <v>390</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A79" s="12" t="s">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>464</v>
+        <v>493</v>
       </c>
       <c r="O79" s="12" t="s">
-        <v>421</v>
+        <v>392</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A80" s="12" t="s">
-        <v>422</v>
+        <v>393</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>423</v>
+        <v>494</v>
       </c>
       <c r="O80" s="12" t="s">
-        <v>423</v>
+        <v>394</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A81" s="12" t="s">
-        <v>424</v>
+        <v>395</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>495</v>
       </c>
       <c r="O81" s="12" t="s">
-        <v>425</v>
+        <v>396</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A82" s="6" t="s">
-        <v>426</v>
+      <c r="A82" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>491</v>
       </c>
       <c r="O82" s="12" t="s">
-        <v>427</v>
+        <v>398</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A83" s="12" t="s">
-        <v>428</v>
+        <v>399</v>
       </c>
       <c r="O83" s="12" t="s">
-        <v>429</v>
+        <v>400</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A84" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>431</v>
+        <v>401</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>498</v>
       </c>
       <c r="O84" s="12" t="s">
-        <v>432</v>
+        <v>402</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A85" s="12" t="s">
-        <v>434</v>
+        <v>403</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>499</v>
       </c>
       <c r="O85" s="12" t="s">
-        <v>433</v>
+        <v>404</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A86" s="12" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>460</v>
+        <v>406</v>
       </c>
       <c r="O86" s="12" t="s">
-        <v>436</v>
+        <v>406</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A87" s="12" t="s">
-        <v>437</v>
-      </c>
-      <c r="B87" s="12" t="s">
-        <v>459</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="B87" s="12"/>
       <c r="O87" s="12" t="s">
-        <v>438</v>
+        <v>408</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A88" s="12" t="s">
-        <v>457</v>
-      </c>
-      <c r="B88" s="12" t="s">
-        <v>455</v>
+        <v>409</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>410</v>
       </c>
       <c r="O88" s="12" t="s">
-        <v>439</v>
+        <v>411</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A89" s="12" t="s">
-        <v>458</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>456</v>
+        <v>412</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>461</v>
       </c>
       <c r="O89" s="12" t="s">
-        <v>440</v>
+        <v>413</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A90" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="B90" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="O90" s="11" t="s">
-        <v>471</v>
+        <v>414</v>
+      </c>
+      <c r="B90" s="12"/>
+      <c r="O90" s="12" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A91" s="12" t="s">
-        <v>466</v>
+        <v>416</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="O91" s="12" t="s">
-        <v>472</v>
+        <v>417</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A92" s="12" t="s">
-        <v>467</v>
+        <v>418</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="O92" s="12" t="s">
-        <v>473</v>
+        <v>419</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A93" s="12" t="s">
-        <v>468</v>
+        <v>420</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
       <c r="O93" s="12" t="s">
-        <v>474</v>
+        <v>421</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A94" s="12" t="s">
-        <v>469</v>
+        <v>422</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>483</v>
+        <v>423</v>
       </c>
       <c r="O94" s="12" t="s">
-        <v>475</v>
+        <v>423</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A95" s="12" t="s">
-        <v>470</v>
-      </c>
-      <c r="B95" s="12" t="s">
-        <v>482</v>
+        <v>424</v>
       </c>
       <c r="O95" s="12" t="s">
-        <v>476</v>
+        <v>425</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A96" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="B96" s="12" t="s">
-        <v>504</v>
+      <c r="A96" s="6" t="s">
+        <v>426</v>
       </c>
       <c r="O96" s="12" t="s">
-        <v>503</v>
+        <v>427</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A97" s="12" t="s">
-        <v>501</v>
-      </c>
-      <c r="B97" s="12" t="s">
-        <v>505</v>
+        <v>428</v>
       </c>
       <c r="O97" s="12" t="s">
-        <v>502</v>
+        <v>429</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A98" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="O98" s="12" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A99" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="B99" s="12" t="s">
-        <v>363</v>
+        <v>434</v>
       </c>
       <c r="O99" s="12" t="s">
-        <v>366</v>
+        <v>433</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A100" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>365</v>
+        <v>435</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>460</v>
       </c>
       <c r="O100" s="12" t="s">
-        <v>367</v>
+        <v>436</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A101" s="6" t="s">
-        <v>506</v>
+      <c r="A101" s="12" t="s">
+        <v>437</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>513</v>
+        <v>459</v>
       </c>
       <c r="O101" s="12" t="s">
-        <v>530</v>
+        <v>438</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A102" s="6" t="s">
-        <v>507</v>
+      <c r="A102" s="12" t="s">
+        <v>457</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>514</v>
+        <v>455</v>
       </c>
       <c r="O102" s="12" t="s">
-        <v>531</v>
+        <v>439</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A103" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="B103" s="12" t="s">
-        <v>515</v>
-      </c>
-      <c r="O103" s="8" t="s">
-        <v>532</v>
+      <c r="A103" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="O103" s="12" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A104" s="12" t="s">
-        <v>509</v>
+        <v>465</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>516</v>
-      </c>
-      <c r="O104" s="12" t="s">
-        <v>533</v>
+        <v>477</v>
+      </c>
+      <c r="O104" s="11" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="105" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A105" s="6" t="s">
-        <v>510</v>
+      <c r="A105" s="12" t="s">
+        <v>466</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>517</v>
+        <v>478</v>
       </c>
       <c r="O105" s="12" t="s">
-        <v>534</v>
+        <v>472</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A106" s="6" t="s">
-        <v>511</v>
+      <c r="A106" s="12" t="s">
+        <v>467</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>518</v>
-      </c>
-      <c r="O106" s="8" t="s">
-        <v>535</v>
+        <v>479</v>
+      </c>
+      <c r="O106" s="12" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A107" s="6" t="s">
-        <v>512</v>
+      <c r="A107" s="12" t="s">
+        <v>468</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>519</v>
-      </c>
-      <c r="O107" s="8" t="s">
-        <v>536</v>
+        <v>480</v>
+      </c>
+      <c r="O107" s="12" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O108" s="8"/>
+      <c r="A108" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="O108" s="12" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="109" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A109" s="12" t="s">
-        <v>520</v>
+        <v>470</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>524</v>
-      </c>
-      <c r="O109" s="8" t="s">
-        <v>522</v>
+        <v>482</v>
+      </c>
+      <c r="O109" s="12" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A110" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="O110" s="12" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A111" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="O111" s="12" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A113" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="O113" s="12" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A114" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="O114" s="12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A115" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="O115" s="12" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A116" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>514</v>
+      </c>
+      <c r="O116" s="12" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A117" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="O117" s="8" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A118" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>516</v>
+      </c>
+      <c r="O118" s="12" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A119" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="O119" s="12" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A120" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="O120" s="8" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A121" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="O121" s="8" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="O122" s="8"/>
+    </row>
+    <row r="123" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A123" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="O123" s="8" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A124" s="12" t="s">
         <v>521</v>
       </c>
-      <c r="B110" s="12" t="s">
+      <c r="B124" s="12" t="s">
         <v>525</v>
       </c>
-      <c r="O110" s="8" t="s">
+      <c r="O124" s="8" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O111" s="8"/>
-    </row>
-    <row r="112" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O112" s="8"/>
-    </row>
-    <row r="113" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O113" s="8"/>
-    </row>
-    <row r="114" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O114" s="6"/>
-    </row>
-    <row r="115" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O115" s="6"/>
-    </row>
-    <row r="116" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O116" s="6"/>
-    </row>
-    <row r="117" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O117" s="6"/>
-    </row>
-    <row r="118" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O118" s="6"/>
-    </row>
-    <row r="119" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O119" s="6"/>
-    </row>
-    <row r="120" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O120" s="6"/>
-    </row>
-    <row r="121" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O121" s="6"/>
-    </row>
-    <row r="122" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O122" s="6"/>
-    </row>
-    <row r="123" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O123" s="8"/>
-    </row>
-    <row r="124" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O124" s="8"/>
-    </row>
-    <row r="125" spans="15:15" ht="20.100000000000001" customHeight="1">
+    <row r="125" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O125" s="8"/>
     </row>
-    <row r="126" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O126" s="6"/>
-    </row>
-    <row r="127" spans="15:15" ht="20.100000000000001" customHeight="1">
+    <row r="126" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="O126" s="8"/>
+    </row>
+    <row r="127" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O127" s="8"/>
     </row>
-    <row r="129" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O129" s="8"/>
-    </row>
-    <row r="130" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="128" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="O128" s="6"/>
+    </row>
+    <row r="129" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O129" s="6"/>
+    </row>
+    <row r="130" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O130" s="6"/>
     </row>
-    <row r="131" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="131" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O131" s="6"/>
     </row>
-    <row r="132" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O132" s="8"/>
-    </row>
-    <row r="133" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O133" s="8"/>
-    </row>
-    <row r="134" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="132" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O132" s="6"/>
+    </row>
+    <row r="133" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O133" s="6"/>
+    </row>
+    <row r="134" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O134" s="6"/>
     </row>
-    <row r="135" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O135" s="8"/>
-    </row>
-    <row r="136" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="135" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O135" s="6"/>
+    </row>
+    <row r="136" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O136" s="6"/>
     </row>
-    <row r="137" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O137" s="6"/>
-    </row>
-    <row r="138" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="137" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O137" s="8"/>
+    </row>
+    <row r="138" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O138" s="8"/>
     </row>
-    <row r="139" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O139" s="6"/>
-    </row>
-    <row r="140" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O140" s="8"/>
-    </row>
-    <row r="141" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A141" s="12" t="s">
+    <row r="139" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O139" s="8"/>
+    </row>
+    <row r="140" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O140" s="6"/>
+    </row>
+    <row r="141" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O141" s="8"/>
+    </row>
+    <row r="143" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O143" s="8"/>
+    </row>
+    <row r="144" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O144" s="6"/>
+    </row>
+    <row r="145" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="O145" s="6"/>
+    </row>
+    <row r="146" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="O146" s="8"/>
+    </row>
+    <row r="147" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="O147" s="8"/>
+    </row>
+    <row r="148" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="O148" s="6"/>
+    </row>
+    <row r="149" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="O149" s="8"/>
+    </row>
+    <row r="150" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="O150" s="6"/>
+    </row>
+    <row r="151" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="O151" s="6"/>
+    </row>
+    <row r="152" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="O152" s="8"/>
+    </row>
+    <row r="153" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="O153" s="6"/>
+    </row>
+    <row r="154" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="O154" s="8"/>
+    </row>
+    <row r="155" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A155" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="B141" s="12" t="s">
+      <c r="B155" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="O141" s="12" t="s">
+      <c r="O155" s="12" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O142" s="8"/>
-    </row>
-    <row r="143" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O143" s="8"/>
-    </row>
-    <row r="144" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O144" s="6"/>
-    </row>
-    <row r="145" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="O145" s="6"/>
-    </row>
-    <row r="146" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="O146" s="6"/>
-    </row>
-    <row r="147" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B147" s="7"/>
-      <c r="M147" s="7"/>
-    </row>
-    <row r="148" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="O148" s="6"/>
-    </row>
-    <row r="149" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B149" s="7"/>
-      <c r="M149" s="7"/>
-    </row>
-    <row r="150" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="O150" s="6"/>
-    </row>
-    <row r="151" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="O151" s="6"/>
-    </row>
-    <row r="152" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="O152" s="6"/>
-    </row>
-    <row r="153" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="O153" s="6"/>
-    </row>
-    <row r="154" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="O154" s="6"/>
-    </row>
-    <row r="155" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="O155" s="6"/>
-    </row>
-    <row r="156" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="O156" s="6"/>
-    </row>
-    <row r="157" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="O157" s="6"/>
-    </row>
-    <row r="158" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="156" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="O156" s="8"/>
+    </row>
+    <row r="157" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="O157" s="8"/>
+    </row>
+    <row r="158" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O158" s="6"/>
     </row>
-    <row r="159" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="159" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O159" s="6"/>
     </row>
-    <row r="160" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="160" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O160" s="6"/>
     </row>
-    <row r="161" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O161" s="6"/>
-    </row>
-    <row r="162" spans="15:15" ht="20.100000000000001" customHeight="1">
+    <row r="161" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="B161" s="7"/>
+      <c r="M161" s="7"/>
+    </row>
+    <row r="162" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="O162" s="6"/>
     </row>
-    <row r="163" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O163" s="6"/>
-    </row>
-    <row r="164" spans="15:15" ht="20.100000000000001" customHeight="1">
+    <row r="163" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="B163" s="7"/>
+      <c r="M163" s="7"/>
+    </row>
+    <row r="164" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="O164" s="6"/>
     </row>
-    <row r="165" spans="15:15" ht="20.100000000000001" customHeight="1">
+    <row r="165" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="O165" s="6"/>
     </row>
-    <row r="166" spans="15:15" ht="20.100000000000001" customHeight="1">
+    <row r="166" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="O166" s="6"/>
     </row>
-    <row r="167" spans="15:15" ht="20.100000000000001" customHeight="1">
+    <row r="167" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="O167" s="6"/>
     </row>
-    <row r="168" spans="15:15" ht="20.100000000000001" customHeight="1">
+    <row r="168" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="O168" s="6"/>
     </row>
-    <row r="169" spans="15:15" ht="20.100000000000001" customHeight="1">
+    <row r="169" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="O169" s="6"/>
     </row>
-    <row r="170" spans="15:15" ht="20.100000000000001" customHeight="1">
+    <row r="170" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="O170" s="6"/>
     </row>
-    <row r="171" spans="15:15" ht="20.100000000000001" customHeight="1">
+    <row r="171" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="O171" s="6"/>
     </row>
-    <row r="172" spans="15:15" ht="20.100000000000001" customHeight="1">
+    <row r="172" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="O172" s="6"/>
     </row>
-    <row r="173" spans="15:15" ht="20.100000000000001" customHeight="1">
+    <row r="173" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="O173" s="6"/>
     </row>
-    <row r="174" spans="15:15" ht="20.100000000000001" customHeight="1">
+    <row r="174" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="O174" s="6"/>
     </row>
-    <row r="175" spans="15:15" ht="20.100000000000001" customHeight="1">
+    <row r="175" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="O175" s="6"/>
     </row>
-    <row r="176" spans="15:15" ht="20.100000000000001" customHeight="1">
+    <row r="176" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="O176" s="6"/>
     </row>
     <row r="177" spans="15:15" ht="20.100000000000001" customHeight="1">
@@ -5291,6 +5519,9 @@
     <row r="490" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O490" s="6"/>
     </row>
+    <row r="491" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O491" s="6"/>
+    </row>
     <row r="492" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O492" s="6"/>
     </row>
@@ -5330,9 +5561,6 @@
     <row r="504" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O504" s="6"/>
     </row>
-    <row r="505" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O505" s="6"/>
-    </row>
     <row r="506" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O506" s="6"/>
     </row>
@@ -6458,113 +6686,113 @@
     <row r="880" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O880" s="6"/>
     </row>
-    <row r="881" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="881" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O881" s="6"/>
     </row>
-    <row r="882" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="882" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O882" s="6"/>
     </row>
-    <row r="883" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="883" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O883" s="6"/>
     </row>
-    <row r="884" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="884" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O884" s="6"/>
     </row>
-    <row r="885" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A885" s="9"/>
-      <c r="B885" s="9"/>
-      <c r="D885" s="9"/>
-      <c r="E885" s="9"/>
-      <c r="F885" s="9"/>
-      <c r="G885" s="9"/>
-      <c r="H885" s="9"/>
-      <c r="I885" s="9"/>
-      <c r="J885" s="9"/>
-      <c r="K885" s="9"/>
-      <c r="L885" s="9"/>
-      <c r="M885" s="9"/>
-      <c r="N885" s="9"/>
-      <c r="O885" s="10"/>
-    </row>
-    <row r="886" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="885" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O885" s="6"/>
+    </row>
+    <row r="886" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O886" s="6"/>
     </row>
-    <row r="887" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="887" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O887" s="6"/>
     </row>
-    <row r="888" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="888" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O888" s="6"/>
     </row>
-    <row r="889" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="889" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O889" s="6"/>
     </row>
-    <row r="890" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="890" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O890" s="6"/>
     </row>
-    <row r="891" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="891" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O891" s="6"/>
     </row>
-    <row r="892" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="892" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O892" s="6"/>
     </row>
-    <row r="893" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="893" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O893" s="6"/>
     </row>
-    <row r="894" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="894" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O894" s="6"/>
     </row>
-    <row r="895" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="895" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O895" s="6"/>
     </row>
-    <row r="896" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="896" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O896" s="6"/>
     </row>
-    <row r="897" spans="15:15" ht="20.100000000000001" customHeight="1">
+    <row r="897" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O897" s="6"/>
     </row>
-    <row r="898" spans="15:15" ht="20.100000000000001" customHeight="1">
+    <row r="898" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O898" s="6"/>
     </row>
-    <row r="899" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O899" s="6"/>
-    </row>
-    <row r="900" spans="15:15" ht="20.100000000000001" customHeight="1">
+    <row r="899" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="A899" s="9"/>
+      <c r="B899" s="9"/>
+      <c r="D899" s="9"/>
+      <c r="E899" s="9"/>
+      <c r="F899" s="9"/>
+      <c r="G899" s="9"/>
+      <c r="H899" s="9"/>
+      <c r="I899" s="9"/>
+      <c r="J899" s="9"/>
+      <c r="K899" s="9"/>
+      <c r="L899" s="9"/>
+      <c r="M899" s="9"/>
+      <c r="N899" s="9"/>
+      <c r="O899" s="10"/>
+    </row>
+    <row r="900" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O900" s="6"/>
     </row>
-    <row r="901" spans="15:15" ht="20.100000000000001" customHeight="1">
+    <row r="901" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O901" s="6"/>
     </row>
-    <row r="902" spans="15:15" ht="20.100000000000001" customHeight="1">
+    <row r="902" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O902" s="6"/>
     </row>
-    <row r="903" spans="15:15" ht="20.100000000000001" customHeight="1">
+    <row r="903" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O903" s="6"/>
     </row>
-    <row r="904" spans="15:15" ht="20.100000000000001" customHeight="1">
+    <row r="904" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O904" s="6"/>
     </row>
-    <row r="905" spans="15:15" ht="20.100000000000001" customHeight="1">
+    <row r="905" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O905" s="6"/>
     </row>
-    <row r="906" spans="15:15" ht="20.100000000000001" customHeight="1">
+    <row r="906" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O906" s="6"/>
     </row>
-    <row r="907" spans="15:15" ht="20.100000000000001" customHeight="1">
+    <row r="907" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O907" s="6"/>
     </row>
-    <row r="908" spans="15:15" ht="20.100000000000001" customHeight="1">
+    <row r="908" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O908" s="6"/>
     </row>
-    <row r="909" spans="15:15" ht="20.100000000000001" customHeight="1">
+    <row r="909" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O909" s="6"/>
     </row>
-    <row r="910" spans="15:15" ht="20.100000000000001" customHeight="1">
+    <row r="910" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O910" s="6"/>
     </row>
-    <row r="911" spans="15:15" ht="20.100000000000001" customHeight="1">
+    <row r="911" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O911" s="6"/>
     </row>
-    <row r="912" spans="15:15" ht="20.100000000000001" customHeight="1">
+    <row r="912" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O912" s="6"/>
     </row>
     <row r="913" spans="15:15" ht="20.100000000000001" customHeight="1">
@@ -8001,8 +8229,50 @@
     <row r="1390" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O1390" s="6"/>
     </row>
+    <row r="1391" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1391" s="6"/>
+    </row>
+    <row r="1392" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1392" s="6"/>
+    </row>
+    <row r="1393" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1393" s="6"/>
+    </row>
+    <row r="1394" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1394" s="6"/>
+    </row>
+    <row r="1395" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1395" s="6"/>
+    </row>
+    <row r="1396" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1396" s="6"/>
+    </row>
+    <row r="1397" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1397" s="6"/>
+    </row>
+    <row r="1398" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1398" s="6"/>
+    </row>
+    <row r="1399" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1399" s="6"/>
+    </row>
+    <row r="1400" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1400" s="6"/>
+    </row>
+    <row r="1401" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1401" s="6"/>
+    </row>
+    <row r="1402" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1402" s="6"/>
+    </row>
+    <row r="1403" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1403" s="6"/>
+    </row>
+    <row r="1404" spans="15:15" ht="20.100000000000001" customHeight="1">
+      <c r="O1404" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="O1:O1093" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="O1:O1107" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs\TheOtherUs-Edited\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AAFFB1D-F590-479A-AE70-5B3F2629B63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E15F8B-AB10-4E46-92C2-34C85B09D4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3600" yWindow="3585" windowWidth="24570" windowHeight="12060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="589">
   <si>
     <t>English</t>
   </si>
@@ -2203,15 +2203,12 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>More Options…</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>模组选项</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Mod Options...</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>TORMapOptionsButtonText</t>
@@ -2219,6 +2216,22 @@
   </si>
   <si>
     <t>TORMapOptionsTitleText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>More Options...</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵媒信息: 有人死亡</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seer Info: Someone Died</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>seerShowInfoText</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2322,25 +2335,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2835,8 +2848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1404"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2846,12 +2859,12 @@
     <col min="3" max="12" width="7.875" style="6" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="53.375" style="6" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="7.875" style="6" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="69.25" style="7" customWidth="1"/>
+    <col min="15" max="15" width="69.25" style="9" customWidth="1"/>
     <col min="16" max="16384" width="7.875" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="7" t="s">
         <v>197</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -2904,7 +2917,7 @@
       <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="7" t="s">
         <v>142</v>
       </c>
       <c r="M2" s="6" t="s">
@@ -2918,10 +2931,10 @@
       <c r="A3" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="7" t="s">
         <v>538</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="7" t="s">
         <v>538</v>
       </c>
     </row>
@@ -2929,10 +2942,10 @@
       <c r="A4" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="O4" s="12" t="s">
+      <c r="O4" s="7" t="s">
         <v>537</v>
       </c>
     </row>
@@ -2940,10 +2953,10 @@
       <c r="A5" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="O5" s="11" t="s">
+      <c r="O5" s="8" t="s">
         <v>186</v>
       </c>
     </row>
@@ -2981,13 +2994,13 @@
       </c>
     </row>
     <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="O9" s="7" t="s">
         <v>198</v>
       </c>
     </row>
@@ -2995,10 +3008,10 @@
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="O10" s="11" t="s">
+      <c r="O10" s="8" t="s">
         <v>529</v>
       </c>
     </row>
@@ -3006,10 +3019,10 @@
       <c r="A11" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="O11" s="11" t="s">
+      <c r="O11" s="8" t="s">
         <v>528</v>
       </c>
     </row>
@@ -3017,179 +3030,187 @@
       <c r="A12" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="O12" s="11" t="s">
+      <c r="O12" s="8" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="176.25" customHeight="1">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="7" t="s">
         <v>526</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="8" t="s">
         <v>527</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11" t="s">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="7"/>
+      <c r="B14" s="9"/>
     </row>
     <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="7" t="s">
         <v>584</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>583</v>
-      </c>
-      <c r="O15" s="11" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="12" t="s">
+      <c r="B16" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="O16" s="8" t="s">
         <v>581</v>
       </c>
-      <c r="O16" s="11" t="s">
-        <v>582</v>
-      </c>
     </row>
     <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="7" t="s">
         <v>570</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="7" t="s">
         <v>562</v>
       </c>
-      <c r="O17" s="11" t="s">
+      <c r="O17" s="8" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="7" t="s">
         <v>571</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="O18" s="11" t="s">
+      <c r="O18" s="8" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="7" t="s">
         <v>572</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="O19" s="11" t="s">
+      <c r="O19" s="8" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="7" t="s">
         <v>573</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="O20" s="11" t="s">
+      <c r="O20" s="8" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="8" t="s">
         <v>566</v>
       </c>
-      <c r="O21" s="11" t="s">
+      <c r="O21" s="8" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="O22" s="11" t="s">
+      <c r="O22" s="8" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="7" t="s">
         <v>576</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="O23" s="11" t="s">
+      <c r="O23" s="8" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="7" t="s">
         <v>577</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="O24" s="11" t="s">
+      <c r="O24" s="8" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="O25" s="11" t="s">
+      <c r="O25" s="8" t="s">
         <v>560</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="O26" s="11" t="s">
+      <c r="O26" s="8" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="B28" s="7"/>
+      <c r="A28" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="7" t="s">
         <v>187</v>
       </c>
       <c r="O29" s="6" t="s">
@@ -3197,163 +3218,163 @@
       </c>
     </row>
     <row r="30" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="12"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
     </row>
     <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12" t="s">
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="N31" s="12"/>
-      <c r="O31" s="12" t="s">
+      <c r="N31" s="7"/>
+      <c r="O31" s="7" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12" t="s">
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12" t="s">
+      <c r="N32" s="7"/>
+      <c r="O32" s="7" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12" t="s">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="N33" s="12"/>
-      <c r="O33" s="12" t="s">
+      <c r="N33" s="7"/>
+      <c r="O33" s="7" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12" t="s">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="12"/>
-      <c r="O35" s="12" t="s">
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12" t="s">
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7" t="s">
         <v>289</v>
       </c>
     </row>
@@ -3361,115 +3382,115 @@
       <c r="O37" s="6"/>
     </row>
     <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12" t="s">
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="N38" s="12"/>
-      <c r="O38" s="12" t="s">
+      <c r="N38" s="7"/>
+      <c r="O38" s="7" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
     </row>
     <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12" t="s">
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="12"/>
-      <c r="O41" s="12" t="s">
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12" t="s">
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12" t="s">
+      <c r="N42" s="7"/>
+      <c r="O42" s="7" t="s">
         <v>549</v>
       </c>
     </row>
@@ -3477,10 +3498,10 @@
       <c r="A43" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="O43" s="12" t="s">
+      <c r="O43" s="7" t="s">
         <v>331</v>
       </c>
     </row>
@@ -3488,194 +3509,194 @@
       <c r="A44" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="O44" s="12" t="s">
+      <c r="O44" s="7" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12" t="s">
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="12" t="s">
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="12" t="s">
+      <c r="A47" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="12" t="s">
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="12" t="s">
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="12"/>
-      <c r="O49" s="12" t="s">
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="12"/>
-      <c r="O50" s="12" t="s">
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="12"/>
-      <c r="O51" s="12" t="s">
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A52" s="12" t="s">
+      <c r="A52" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12" t="s">
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7" t="s">
         <v>326</v>
       </c>
     </row>
@@ -3683,76 +3704,76 @@
       <c r="O53" s="6"/>
     </row>
     <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="O54" s="12" t="s">
+      <c r="O54" s="7" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="O55" s="12" t="s">
+      <c r="O55" s="7" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A56" s="12" t="s">
+      <c r="A56" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="O56" s="12" t="s">
+      <c r="O56" s="7" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="O57" s="12" t="s">
+      <c r="O57" s="7" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="O58" s="12" t="s">
+      <c r="O58" s="7" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="O59" s="12" t="s">
+      <c r="O59" s="7" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="7" t="s">
         <v>356</v>
       </c>
       <c r="O60" s="6" t="s">
@@ -3760,10 +3781,10 @@
       </c>
     </row>
     <row r="61" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="7" t="s">
         <v>357</v>
       </c>
       <c r="O61" s="6" t="s">
@@ -3771,10 +3792,10 @@
       </c>
     </row>
     <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="7" t="s">
         <v>358</v>
       </c>
       <c r="O62" s="6" t="s">
@@ -3782,35 +3803,35 @@
       </c>
     </row>
     <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="O63" s="12" t="s">
+      <c r="O63" s="7" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="O64" s="12" t="s">
+      <c r="O64" s="7" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A65" s="12" t="s">
+      <c r="A65" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="O65" s="12" t="s">
+      <c r="O65" s="7" t="s">
         <v>449</v>
       </c>
     </row>
@@ -3818,73 +3839,73 @@
       <c r="O66" s="6"/>
     </row>
     <row r="67" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A67" s="12" t="s">
+      <c r="A67" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="O67" s="12" t="s">
+      <c r="O67" s="7" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="O68" s="12" t="s">
+      <c r="O68" s="7" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="O69" s="12" t="s">
+      <c r="O69" s="7" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="O70" s="12" t="s">
+      <c r="O70" s="7" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A71" s="12" t="s">
+      <c r="A71" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="7" t="s">
         <v>488</v>
       </c>
-      <c r="O71" s="12" t="s">
+      <c r="O71" s="7" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A72" s="12" t="s">
+      <c r="A72" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="7" t="s">
         <v>487</v>
       </c>
-      <c r="O72" s="12" t="s">
+      <c r="O72" s="7" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A73" s="12" t="s">
+      <c r="A73" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="7" t="s">
         <v>489</v>
       </c>
       <c r="O73" s="6" t="s">
@@ -3892,10 +3913,10 @@
       </c>
     </row>
     <row r="74" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="B74" s="7" t="s">
         <v>490</v>
       </c>
       <c r="O74" s="6" t="s">
@@ -3903,223 +3924,223 @@
       </c>
     </row>
     <row r="75" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A75" s="12" t="s">
+      <c r="A75" s="7" t="s">
         <v>383</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="O75" s="12" t="s">
+      <c r="O75" s="7" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="O76" s="12" t="s">
+      <c r="O76" s="7" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A77" s="12" t="s">
+      <c r="A77" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="7" t="s">
         <v>497</v>
       </c>
-      <c r="O77" s="12" t="s">
+      <c r="O77" s="7" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A78" s="12" t="s">
+      <c r="A78" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="7" t="s">
         <v>496</v>
       </c>
-      <c r="O78" s="12" t="s">
+      <c r="O78" s="7" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A79" s="12" t="s">
+      <c r="A79" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="O79" s="12" t="s">
+      <c r="O79" s="7" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A80" s="12" t="s">
+      <c r="A80" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="O80" s="12" t="s">
+      <c r="O80" s="7" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A81" s="12" t="s">
+      <c r="A81" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="O81" s="12" t="s">
+      <c r="O81" s="7" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A82" s="12" t="s">
+      <c r="A82" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="B82" s="12" t="s">
+      <c r="B82" s="7" t="s">
         <v>491</v>
       </c>
-      <c r="O82" s="12" t="s">
+      <c r="O82" s="7" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A83" s="12" t="s">
+      <c r="A83" s="7" t="s">
         <v>399</v>
       </c>
-      <c r="O83" s="12" t="s">
+      <c r="O83" s="7" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A84" s="12" t="s">
+      <c r="A84" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="O84" s="12" t="s">
+      <c r="O84" s="7" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A85" s="12" t="s">
+      <c r="A85" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="O85" s="12" t="s">
+      <c r="O85" s="7" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A86" s="12" t="s">
+      <c r="A86" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="O86" s="12" t="s">
+      <c r="O86" s="7" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A87" s="12" t="s">
+      <c r="A87" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="B87" s="12"/>
-      <c r="O87" s="12" t="s">
+      <c r="B87" s="7"/>
+      <c r="O87" s="7" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A88" s="12" t="s">
+      <c r="A88" s="7" t="s">
         <v>409</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="O88" s="12" t="s">
+      <c r="O88" s="7" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A89" s="12" t="s">
+      <c r="A89" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="O89" s="12" t="s">
+      <c r="O89" s="7" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A90" s="12" t="s">
+      <c r="A90" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="B90" s="12"/>
-      <c r="O90" s="12" t="s">
+      <c r="B90" s="7"/>
+      <c r="O90" s="7" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A91" s="12" t="s">
+      <c r="A91" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="B91" s="12" t="s">
+      <c r="B91" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="O91" s="12" t="s">
+      <c r="O91" s="7" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="92" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A92" s="12" t="s">
+      <c r="A92" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="B92" s="12" t="s">
+      <c r="B92" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="O92" s="12" t="s">
+      <c r="O92" s="7" t="s">
         <v>419</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A93" s="12" t="s">
+      <c r="A93" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="O93" s="12" t="s">
+      <c r="O93" s="7" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A94" s="12" t="s">
+      <c r="A94" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="B94" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="O94" s="12" t="s">
+      <c r="O94" s="7" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A95" s="12" t="s">
+      <c r="A95" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="O95" s="12" t="s">
+      <c r="O95" s="7" t="s">
         <v>425</v>
       </c>
     </row>
@@ -4127,188 +4148,188 @@
       <c r="A96" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="O96" s="12" t="s">
+      <c r="O96" s="7" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A97" s="12" t="s">
+      <c r="A97" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="O97" s="12" t="s">
+      <c r="O97" s="7" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A98" s="12" t="s">
+      <c r="A98" s="7" t="s">
         <v>430</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="O98" s="12" t="s">
+      <c r="O98" s="7" t="s">
         <v>432</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A99" s="12" t="s">
+      <c r="A99" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="O99" s="12" t="s">
+      <c r="O99" s="7" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A100" s="12" t="s">
+      <c r="A100" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="B100" s="12" t="s">
+      <c r="B100" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="O100" s="12" t="s">
+      <c r="O100" s="7" t="s">
         <v>436</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A101" s="12" t="s">
+      <c r="A101" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="B101" s="12" t="s">
+      <c r="B101" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="O101" s="12" t="s">
+      <c r="O101" s="7" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A102" s="12" t="s">
+      <c r="A102" s="7" t="s">
         <v>457</v>
       </c>
-      <c r="B102" s="12" t="s">
+      <c r="B102" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="O102" s="12" t="s">
+      <c r="O102" s="7" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A103" s="12" t="s">
+      <c r="A103" s="7" t="s">
         <v>458</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="O103" s="12" t="s">
+      <c r="O103" s="7" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A104" s="12" t="s">
+      <c r="A104" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="B104" s="12" t="s">
+      <c r="B104" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="O104" s="11" t="s">
+      <c r="O104" s="8" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="105" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A105" s="12" t="s">
+      <c r="A105" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="B105" s="12" t="s">
+      <c r="B105" s="7" t="s">
         <v>478</v>
       </c>
-      <c r="O105" s="12" t="s">
+      <c r="O105" s="7" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A106" s="12" t="s">
+      <c r="A106" s="7" t="s">
         <v>467</v>
       </c>
-      <c r="B106" s="12" t="s">
+      <c r="B106" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="O106" s="12" t="s">
+      <c r="O106" s="7" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A107" s="12" t="s">
+      <c r="A107" s="7" t="s">
         <v>468</v>
       </c>
-      <c r="B107" s="12" t="s">
+      <c r="B107" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="O107" s="12" t="s">
+      <c r="O107" s="7" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A108" s="12" t="s">
+      <c r="A108" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="B108" s="12" t="s">
+      <c r="B108" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="O108" s="12" t="s">
+      <c r="O108" s="7" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A109" s="12" t="s">
+      <c r="A109" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="B109" s="12" t="s">
+      <c r="B109" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="O109" s="12" t="s">
+      <c r="O109" s="7" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A110" s="12" t="s">
+      <c r="A110" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="B110" s="12" t="s">
+      <c r="B110" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="O110" s="12" t="s">
+      <c r="O110" s="7" t="s">
         <v>503</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A111" s="12" t="s">
+      <c r="A111" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="B111" s="12" t="s">
+      <c r="B111" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="O111" s="12" t="s">
+      <c r="O111" s="7" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="113" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A113" s="12" t="s">
+      <c r="A113" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="B113" s="12" t="s">
+      <c r="B113" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="O113" s="12" t="s">
+      <c r="O113" s="7" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="114" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A114" s="12" t="s">
+      <c r="A114" s="7" t="s">
         <v>364</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="O114" s="12" t="s">
+      <c r="O114" s="7" t="s">
         <v>367</v>
       </c>
     </row>
@@ -4316,10 +4337,10 @@
       <c r="A115" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="B115" s="12" t="s">
+      <c r="B115" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="O115" s="12" t="s">
+      <c r="O115" s="7" t="s">
         <v>530</v>
       </c>
     </row>
@@ -4327,10 +4348,10 @@
       <c r="A116" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="B116" s="12" t="s">
+      <c r="B116" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="O116" s="12" t="s">
+      <c r="O116" s="7" t="s">
         <v>531</v>
       </c>
     </row>
@@ -4338,21 +4359,21 @@
       <c r="A117" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="B117" s="12" t="s">
+      <c r="B117" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="O117" s="8" t="s">
+      <c r="O117" s="10" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="118" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A118" s="12" t="s">
+      <c r="A118" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="B118" s="12" t="s">
+      <c r="B118" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="O118" s="12" t="s">
+      <c r="O118" s="7" t="s">
         <v>533</v>
       </c>
     </row>
@@ -4360,10 +4381,10 @@
       <c r="A119" s="6" t="s">
         <v>510</v>
       </c>
-      <c r="B119" s="12" t="s">
+      <c r="B119" s="7" t="s">
         <v>517</v>
       </c>
-      <c r="O119" s="12" t="s">
+      <c r="O119" s="7" t="s">
         <v>534</v>
       </c>
     </row>
@@ -4371,10 +4392,10 @@
       <c r="A120" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="B120" s="12" t="s">
+      <c r="B120" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="O120" s="8" t="s">
+      <c r="O120" s="10" t="s">
         <v>535</v>
       </c>
     </row>
@@ -4382,46 +4403,46 @@
       <c r="A121" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="B121" s="12" t="s">
+      <c r="B121" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="O121" s="8" t="s">
+      <c r="O121" s="10" t="s">
         <v>536</v>
       </c>
     </row>
     <row r="122" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O122" s="8"/>
+      <c r="O122" s="10"/>
     </row>
     <row r="123" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A123" s="12" t="s">
+      <c r="A123" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="B123" s="12" t="s">
+      <c r="B123" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="O123" s="8" t="s">
+      <c r="O123" s="10" t="s">
         <v>522</v>
       </c>
     </row>
     <row r="124" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A124" s="12" t="s">
+      <c r="A124" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="B124" s="12" t="s">
+      <c r="B124" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="O124" s="8" t="s">
+      <c r="O124" s="10" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="125" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O125" s="8"/>
+      <c r="O125" s="10"/>
     </row>
     <row r="126" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O126" s="8"/>
+      <c r="O126" s="10"/>
     </row>
     <row r="127" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O127" s="8"/>
+      <c r="O127" s="10"/>
     </row>
     <row r="128" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O128" s="6"/>
@@ -4451,22 +4472,22 @@
       <c r="O136" s="6"/>
     </row>
     <row r="137" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O137" s="8"/>
+      <c r="O137" s="10"/>
     </row>
     <row r="138" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O138" s="8"/>
+      <c r="O138" s="10"/>
     </row>
     <row r="139" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O139" s="8"/>
+      <c r="O139" s="10"/>
     </row>
     <row r="140" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O140" s="6"/>
     </row>
     <row r="141" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O141" s="8"/>
+      <c r="O141" s="10"/>
     </row>
     <row r="143" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O143" s="8"/>
+      <c r="O143" s="10"/>
     </row>
     <row r="144" spans="15:15" ht="20.100000000000001" customHeight="1">
       <c r="O144" s="6"/>
@@ -4475,16 +4496,16 @@
       <c r="O145" s="6"/>
     </row>
     <row r="146" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O146" s="8"/>
+      <c r="O146" s="10"/>
     </row>
     <row r="147" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O147" s="8"/>
+      <c r="O147" s="10"/>
     </row>
     <row r="148" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O148" s="6"/>
     </row>
     <row r="149" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O149" s="8"/>
+      <c r="O149" s="10"/>
     </row>
     <row r="150" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O150" s="6"/>
@@ -4493,30 +4514,30 @@
       <c r="O151" s="6"/>
     </row>
     <row r="152" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O152" s="8"/>
+      <c r="O152" s="10"/>
     </row>
     <row r="153" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O153" s="6"/>
     </row>
     <row r="154" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O154" s="8"/>
+      <c r="O154" s="10"/>
     </row>
     <row r="155" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A155" s="12" t="s">
+      <c r="A155" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="B155" s="12" t="s">
+      <c r="B155" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="O155" s="12" t="s">
+      <c r="O155" s="7" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="156" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O156" s="8"/>
+      <c r="O156" s="10"/>
     </row>
     <row r="157" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O157" s="8"/>
+      <c r="O157" s="10"/>
     </row>
     <row r="158" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O158" s="6"/>
@@ -4528,15 +4549,15 @@
       <c r="O160" s="6"/>
     </row>
     <row r="161" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B161" s="7"/>
-      <c r="M161" s="7"/>
+      <c r="B161" s="9"/>
+      <c r="M161" s="9"/>
     </row>
     <row r="162" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="O162" s="6"/>
     </row>
     <row r="163" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B163" s="7"/>
-      <c r="M163" s="7"/>
+      <c r="B163" s="9"/>
+      <c r="M163" s="9"/>
     </row>
     <row r="164" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="O164" s="6"/>
@@ -4577,2163 +4598,725 @@
     <row r="176" spans="2:15" ht="20.100000000000001" customHeight="1">
       <c r="O176" s="6"/>
     </row>
-    <row r="177" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O177" s="6"/>
-    </row>
-    <row r="178" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O178" s="6"/>
-    </row>
-    <row r="179" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O179" s="6"/>
-    </row>
-    <row r="180" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O180" s="6"/>
-    </row>
-    <row r="181" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O181" s="6"/>
-    </row>
-    <row r="182" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O182" s="6"/>
-    </row>
-    <row r="183" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O183" s="6"/>
-    </row>
-    <row r="184" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O184" s="6"/>
-    </row>
-    <row r="185" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O185" s="6"/>
-    </row>
-    <row r="186" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O186" s="6"/>
-    </row>
-    <row r="187" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O187" s="6"/>
-    </row>
-    <row r="188" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O188" s="6"/>
-    </row>
-    <row r="189" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O189" s="6"/>
-    </row>
-    <row r="190" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O190" s="6"/>
-    </row>
-    <row r="191" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O191" s="6"/>
-    </row>
-    <row r="192" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O192" s="6"/>
-    </row>
-    <row r="193" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O193" s="6"/>
-    </row>
-    <row r="194" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O194" s="6"/>
-    </row>
-    <row r="195" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O195" s="6"/>
-    </row>
-    <row r="196" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O196" s="6"/>
-    </row>
-    <row r="197" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O197" s="6"/>
-    </row>
-    <row r="198" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O198" s="6"/>
-    </row>
-    <row r="199" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O199" s="6"/>
-    </row>
-    <row r="200" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O200" s="6"/>
-    </row>
-    <row r="201" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O201" s="6"/>
-    </row>
-    <row r="202" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O202" s="6"/>
-    </row>
-    <row r="203" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O203" s="6"/>
-    </row>
-    <row r="204" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O204" s="6"/>
-    </row>
-    <row r="205" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O205" s="6"/>
-    </row>
-    <row r="206" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O206" s="6"/>
-    </row>
-    <row r="207" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O207" s="6"/>
-    </row>
-    <row r="208" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O208" s="6"/>
-    </row>
-    <row r="209" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O209" s="6"/>
-    </row>
-    <row r="210" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O210" s="6"/>
-    </row>
-    <row r="211" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O211" s="6"/>
-    </row>
-    <row r="212" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O212" s="6"/>
-    </row>
-    <row r="213" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O213" s="6"/>
-    </row>
-    <row r="214" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O214" s="6"/>
-    </row>
-    <row r="215" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O215" s="6"/>
-    </row>
-    <row r="216" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O216" s="6"/>
-    </row>
-    <row r="217" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O217" s="6"/>
-    </row>
-    <row r="218" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O218" s="6"/>
-    </row>
-    <row r="219" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O219" s="6"/>
-    </row>
-    <row r="220" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O220" s="6"/>
-    </row>
-    <row r="221" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O221" s="6"/>
-    </row>
-    <row r="222" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O222" s="6"/>
-    </row>
-    <row r="223" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O223" s="6"/>
-    </row>
-    <row r="224" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O224" s="6"/>
-    </row>
-    <row r="225" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O225" s="6"/>
-    </row>
-    <row r="226" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O226" s="6"/>
-    </row>
-    <row r="227" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O227" s="6"/>
-    </row>
-    <row r="228" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O228" s="6"/>
-    </row>
-    <row r="229" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O229" s="6"/>
-    </row>
-    <row r="230" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O230" s="6"/>
-    </row>
-    <row r="231" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O231" s="6"/>
-    </row>
-    <row r="232" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O232" s="6"/>
-    </row>
-    <row r="233" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O233" s="6"/>
-    </row>
-    <row r="234" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O234" s="6"/>
-    </row>
-    <row r="235" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O235" s="6"/>
-    </row>
-    <row r="236" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O236" s="6"/>
-    </row>
-    <row r="237" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O237" s="6"/>
-    </row>
-    <row r="238" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O238" s="6"/>
-    </row>
-    <row r="239" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O239" s="6"/>
-    </row>
-    <row r="240" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O240" s="6"/>
-    </row>
-    <row r="241" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O241" s="6"/>
-    </row>
-    <row r="242" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O242" s="6"/>
-    </row>
-    <row r="243" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O243" s="6"/>
-    </row>
-    <row r="244" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O244" s="6"/>
-    </row>
-    <row r="245" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O245" s="6"/>
-    </row>
-    <row r="246" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O246" s="6"/>
-    </row>
-    <row r="247" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O247" s="6"/>
-    </row>
-    <row r="248" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O248" s="6"/>
-    </row>
-    <row r="249" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O249" s="6"/>
-    </row>
-    <row r="250" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O250" s="6"/>
-    </row>
-    <row r="251" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O251" s="6"/>
-    </row>
-    <row r="252" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O252" s="6"/>
-    </row>
-    <row r="253" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O253" s="6"/>
-    </row>
-    <row r="254" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O254" s="6"/>
-    </row>
-    <row r="255" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O255" s="6"/>
-    </row>
-    <row r="256" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O256" s="6"/>
-    </row>
-    <row r="257" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O257" s="6"/>
-    </row>
-    <row r="258" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O258" s="6"/>
-    </row>
-    <row r="259" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O259" s="6"/>
-    </row>
-    <row r="260" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O260" s="6"/>
-    </row>
-    <row r="261" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O261" s="6"/>
-    </row>
-    <row r="262" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O262" s="6"/>
-    </row>
-    <row r="263" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O263" s="6"/>
-    </row>
-    <row r="264" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O264" s="6"/>
-    </row>
-    <row r="265" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O265" s="6"/>
-    </row>
-    <row r="266" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O266" s="6"/>
-    </row>
-    <row r="267" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O267" s="6"/>
-    </row>
-    <row r="268" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O268" s="6"/>
-    </row>
-    <row r="269" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O269" s="6"/>
-    </row>
-    <row r="270" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O270" s="6"/>
-    </row>
-    <row r="271" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O271" s="6"/>
-    </row>
-    <row r="272" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O272" s="6"/>
-    </row>
-    <row r="273" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O273" s="6"/>
-    </row>
-    <row r="274" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O274" s="6"/>
-    </row>
-    <row r="275" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O275" s="6"/>
-    </row>
-    <row r="276" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O276" s="6"/>
-    </row>
-    <row r="277" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O277" s="6"/>
-    </row>
-    <row r="278" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O278" s="6"/>
-    </row>
-    <row r="279" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O279" s="6"/>
-    </row>
-    <row r="280" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O280" s="6"/>
-    </row>
-    <row r="281" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O281" s="6"/>
-    </row>
-    <row r="282" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O282" s="6"/>
-    </row>
-    <row r="283" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O283" s="6"/>
-    </row>
-    <row r="284" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O284" s="6"/>
-    </row>
-    <row r="285" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O285" s="6"/>
-    </row>
-    <row r="286" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O286" s="6"/>
-    </row>
-    <row r="287" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O287" s="6"/>
-    </row>
-    <row r="288" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O288" s="6"/>
-    </row>
-    <row r="289" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O289" s="6"/>
-    </row>
-    <row r="290" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O290" s="6"/>
-    </row>
-    <row r="291" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O291" s="6"/>
-    </row>
-    <row r="292" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O292" s="6"/>
-    </row>
-    <row r="293" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O293" s="6"/>
-    </row>
-    <row r="294" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O294" s="6"/>
-    </row>
-    <row r="295" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O295" s="6"/>
-    </row>
-    <row r="296" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O296" s="6"/>
-    </row>
-    <row r="297" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O297" s="6"/>
-    </row>
-    <row r="298" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O298" s="6"/>
-    </row>
-    <row r="299" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O299" s="6"/>
-    </row>
-    <row r="300" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O300" s="6"/>
-    </row>
-    <row r="301" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O301" s="6"/>
-    </row>
-    <row r="302" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O302" s="6"/>
-    </row>
-    <row r="303" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O303" s="6"/>
-    </row>
-    <row r="304" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O304" s="6"/>
-    </row>
-    <row r="305" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O305" s="6"/>
-    </row>
-    <row r="306" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O306" s="6"/>
-    </row>
-    <row r="307" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O307" s="6"/>
-    </row>
-    <row r="308" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O308" s="6"/>
-    </row>
-    <row r="309" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O309" s="6"/>
-    </row>
-    <row r="310" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O310" s="6"/>
-    </row>
-    <row r="311" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O311" s="6"/>
-    </row>
-    <row r="312" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O312" s="6"/>
-    </row>
-    <row r="313" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O313" s="6"/>
-    </row>
-    <row r="314" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O314" s="6"/>
-    </row>
-    <row r="315" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O315" s="6"/>
-    </row>
-    <row r="316" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O316" s="6"/>
-    </row>
-    <row r="317" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O317" s="6"/>
-    </row>
-    <row r="318" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O318" s="6"/>
-    </row>
-    <row r="319" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O319" s="6"/>
-    </row>
-    <row r="320" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O320" s="6"/>
-    </row>
-    <row r="321" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O321" s="6"/>
-    </row>
-    <row r="322" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O322" s="6"/>
-    </row>
-    <row r="323" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O323" s="6"/>
-    </row>
-    <row r="324" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O324" s="6"/>
-    </row>
-    <row r="325" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O325" s="6"/>
-    </row>
-    <row r="326" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O326" s="6"/>
-    </row>
-    <row r="327" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O327" s="6"/>
-    </row>
-    <row r="328" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O328" s="6"/>
-    </row>
-    <row r="329" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O329" s="6"/>
-    </row>
-    <row r="330" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O330" s="6"/>
-    </row>
-    <row r="331" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O331" s="6"/>
-    </row>
-    <row r="332" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O332" s="6"/>
-    </row>
-    <row r="333" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O333" s="6"/>
-    </row>
-    <row r="334" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O334" s="6"/>
-    </row>
-    <row r="335" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O335" s="6"/>
-    </row>
-    <row r="336" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O336" s="6"/>
-    </row>
-    <row r="337" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O337" s="6"/>
-    </row>
-    <row r="338" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O338" s="6"/>
-    </row>
-    <row r="339" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O339" s="6"/>
-    </row>
-    <row r="340" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O340" s="6"/>
-    </row>
-    <row r="341" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O341" s="6"/>
-    </row>
-    <row r="342" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O342" s="6"/>
-    </row>
-    <row r="343" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O343" s="6"/>
-    </row>
-    <row r="344" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O344" s="6"/>
-    </row>
-    <row r="345" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O345" s="6"/>
-    </row>
-    <row r="346" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O346" s="6"/>
-    </row>
-    <row r="347" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O347" s="6"/>
-    </row>
-    <row r="348" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O348" s="6"/>
-    </row>
-    <row r="349" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O349" s="6"/>
-    </row>
-    <row r="350" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O350" s="6"/>
-    </row>
-    <row r="351" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O351" s="6"/>
-    </row>
-    <row r="352" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O352" s="6"/>
-    </row>
-    <row r="353" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O353" s="6"/>
-    </row>
-    <row r="354" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O354" s="6"/>
-    </row>
-    <row r="355" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O355" s="6"/>
-    </row>
-    <row r="356" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O356" s="6"/>
-    </row>
-    <row r="357" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O357" s="6"/>
-    </row>
-    <row r="358" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O358" s="6"/>
-    </row>
-    <row r="359" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O359" s="6"/>
-    </row>
-    <row r="360" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O360" s="6"/>
-    </row>
-    <row r="361" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O361" s="6"/>
-    </row>
-    <row r="362" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O362" s="6"/>
-    </row>
-    <row r="363" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O363" s="6"/>
-    </row>
-    <row r="364" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O364" s="6"/>
-    </row>
-    <row r="365" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O365" s="6"/>
-    </row>
-    <row r="366" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O366" s="6"/>
-    </row>
-    <row r="367" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O367" s="6"/>
-    </row>
-    <row r="368" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O368" s="6"/>
-    </row>
-    <row r="369" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O369" s="6"/>
-    </row>
-    <row r="370" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O370" s="6"/>
-    </row>
-    <row r="371" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O371" s="6"/>
-    </row>
-    <row r="372" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O372" s="6"/>
-    </row>
-    <row r="373" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O373" s="6"/>
-    </row>
-    <row r="374" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O374" s="6"/>
-    </row>
-    <row r="375" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O375" s="6"/>
-    </row>
-    <row r="376" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O376" s="6"/>
-    </row>
-    <row r="377" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O377" s="6"/>
-    </row>
-    <row r="378" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O378" s="6"/>
-    </row>
-    <row r="379" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O379" s="6"/>
-    </row>
-    <row r="380" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O380" s="6"/>
-    </row>
-    <row r="381" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O381" s="6"/>
-    </row>
-    <row r="382" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O382" s="6"/>
-    </row>
-    <row r="383" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O383" s="6"/>
-    </row>
-    <row r="384" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O384" s="6"/>
-    </row>
-    <row r="385" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O385" s="6"/>
-    </row>
-    <row r="386" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O386" s="6"/>
-    </row>
-    <row r="387" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O387" s="6"/>
-    </row>
-    <row r="388" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O388" s="6"/>
-    </row>
-    <row r="389" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O389" s="6"/>
-    </row>
-    <row r="390" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O390" s="6"/>
-    </row>
-    <row r="391" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O391" s="6"/>
-    </row>
-    <row r="392" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O392" s="6"/>
-    </row>
-    <row r="393" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O393" s="6"/>
-    </row>
-    <row r="394" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O394" s="6"/>
-    </row>
-    <row r="395" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O395" s="6"/>
-    </row>
-    <row r="396" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O396" s="6"/>
-    </row>
-    <row r="397" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O397" s="6"/>
-    </row>
-    <row r="398" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O398" s="6"/>
-    </row>
-    <row r="399" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O399" s="6"/>
-    </row>
-    <row r="400" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O400" s="6"/>
-    </row>
-    <row r="401" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O401" s="6"/>
-    </row>
-    <row r="402" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O402" s="6"/>
-    </row>
-    <row r="403" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O403" s="6"/>
-    </row>
-    <row r="404" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O404" s="6"/>
-    </row>
-    <row r="405" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O405" s="6"/>
-    </row>
-    <row r="406" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O406" s="6"/>
-    </row>
-    <row r="407" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O407" s="6"/>
-    </row>
-    <row r="408" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O408" s="6"/>
-    </row>
-    <row r="409" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O409" s="6"/>
-    </row>
-    <row r="410" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O410" s="6"/>
-    </row>
-    <row r="411" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O411" s="6"/>
-    </row>
-    <row r="412" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O412" s="6"/>
-    </row>
-    <row r="413" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O413" s="6"/>
-    </row>
-    <row r="414" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O414" s="6"/>
-    </row>
-    <row r="415" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O415" s="6"/>
-    </row>
-    <row r="416" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O416" s="6"/>
-    </row>
-    <row r="417" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O417" s="6"/>
-    </row>
-    <row r="418" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O418" s="6"/>
-    </row>
-    <row r="419" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O419" s="6"/>
-    </row>
-    <row r="420" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O420" s="6"/>
-    </row>
-    <row r="421" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O421" s="6"/>
-    </row>
-    <row r="422" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O422" s="6"/>
-    </row>
-    <row r="423" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O423" s="6"/>
-    </row>
-    <row r="424" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O424" s="6"/>
-    </row>
-    <row r="425" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O425" s="6"/>
-    </row>
-    <row r="426" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O426" s="6"/>
-    </row>
-    <row r="427" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O427" s="6"/>
-    </row>
-    <row r="428" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O428" s="6"/>
-    </row>
-    <row r="429" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O429" s="6"/>
-    </row>
-    <row r="430" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O430" s="6"/>
-    </row>
-    <row r="431" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O431" s="6"/>
-    </row>
-    <row r="432" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O432" s="6"/>
-    </row>
-    <row r="433" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O433" s="6"/>
-    </row>
-    <row r="434" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O434" s="6"/>
-    </row>
-    <row r="435" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O435" s="6"/>
-    </row>
-    <row r="436" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O436" s="6"/>
-    </row>
-    <row r="437" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O437" s="6"/>
-    </row>
-    <row r="438" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O438" s="6"/>
-    </row>
-    <row r="439" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O439" s="6"/>
-    </row>
-    <row r="440" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O440" s="6"/>
-    </row>
-    <row r="441" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O441" s="6"/>
-    </row>
-    <row r="442" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O442" s="6"/>
-    </row>
-    <row r="443" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O443" s="6"/>
-    </row>
-    <row r="444" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O444" s="6"/>
-    </row>
-    <row r="445" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O445" s="6"/>
-    </row>
-    <row r="446" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O446" s="6"/>
-    </row>
-    <row r="447" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O447" s="6"/>
-    </row>
-    <row r="448" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O448" s="6"/>
-    </row>
-    <row r="449" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O449" s="6"/>
-    </row>
-    <row r="450" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O450" s="6"/>
-    </row>
-    <row r="451" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O451" s="6"/>
-    </row>
-    <row r="452" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O452" s="6"/>
-    </row>
-    <row r="453" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O453" s="6"/>
-    </row>
-    <row r="454" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O454" s="6"/>
-    </row>
-    <row r="455" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O455" s="6"/>
-    </row>
-    <row r="456" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O456" s="6"/>
-    </row>
-    <row r="457" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O457" s="6"/>
-    </row>
-    <row r="458" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O458" s="6"/>
-    </row>
-    <row r="459" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O459" s="6"/>
-    </row>
-    <row r="460" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O460" s="6"/>
-    </row>
-    <row r="461" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O461" s="6"/>
-    </row>
-    <row r="462" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O462" s="6"/>
-    </row>
-    <row r="463" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O463" s="6"/>
-    </row>
-    <row r="464" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O464" s="6"/>
-    </row>
-    <row r="465" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O465" s="6"/>
-    </row>
-    <row r="466" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O466" s="6"/>
-    </row>
-    <row r="467" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O467" s="6"/>
-    </row>
-    <row r="468" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O468" s="6"/>
-    </row>
-    <row r="469" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O469" s="6"/>
-    </row>
-    <row r="470" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O470" s="6"/>
-    </row>
-    <row r="471" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O471" s="6"/>
-    </row>
-    <row r="472" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O472" s="6"/>
-    </row>
-    <row r="473" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O473" s="6"/>
-    </row>
-    <row r="474" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O474" s="6"/>
-    </row>
-    <row r="475" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O475" s="6"/>
-    </row>
-    <row r="476" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O476" s="6"/>
-    </row>
-    <row r="477" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O477" s="6"/>
-    </row>
-    <row r="478" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O478" s="6"/>
-    </row>
-    <row r="479" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O479" s="6"/>
-    </row>
-    <row r="480" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O480" s="6"/>
-    </row>
-    <row r="481" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O481" s="6"/>
-    </row>
-    <row r="482" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O482" s="6"/>
-    </row>
-    <row r="483" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O483" s="6"/>
-    </row>
-    <row r="484" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O484" s="6"/>
-    </row>
-    <row r="485" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O485" s="6"/>
-    </row>
-    <row r="486" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O486" s="6"/>
-    </row>
-    <row r="487" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O487" s="6"/>
-    </row>
-    <row r="488" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O488" s="6"/>
-    </row>
-    <row r="489" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O489" s="6"/>
-    </row>
-    <row r="490" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O490" s="6"/>
-    </row>
-    <row r="491" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O491" s="6"/>
-    </row>
-    <row r="492" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O492" s="6"/>
-    </row>
-    <row r="493" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O493" s="6"/>
-    </row>
-    <row r="494" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O494" s="6"/>
-    </row>
-    <row r="495" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O495" s="6"/>
-    </row>
-    <row r="496" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O496" s="6"/>
-    </row>
-    <row r="497" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O497" s="6"/>
-    </row>
-    <row r="498" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O498" s="6"/>
-    </row>
-    <row r="499" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O499" s="6"/>
-    </row>
-    <row r="500" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O500" s="6"/>
-    </row>
-    <row r="501" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O501" s="6"/>
-    </row>
-    <row r="502" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O502" s="6"/>
-    </row>
-    <row r="503" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O503" s="6"/>
-    </row>
-    <row r="504" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O504" s="6"/>
-    </row>
-    <row r="506" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O506" s="6"/>
-    </row>
-    <row r="507" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O507" s="6"/>
-    </row>
-    <row r="508" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O508" s="6"/>
-    </row>
-    <row r="509" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O509" s="6"/>
-    </row>
-    <row r="510" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O510" s="6"/>
-    </row>
-    <row r="511" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O511" s="6"/>
-    </row>
-    <row r="512" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O512" s="6"/>
-    </row>
-    <row r="513" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O513" s="6"/>
-    </row>
-    <row r="514" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O514" s="6"/>
-    </row>
-    <row r="515" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O515" s="6"/>
-    </row>
-    <row r="516" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O516" s="6"/>
-    </row>
-    <row r="517" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O517" s="6"/>
-    </row>
-    <row r="518" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O518" s="6"/>
-    </row>
-    <row r="519" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O519" s="6"/>
-    </row>
-    <row r="520" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O520" s="6"/>
-    </row>
-    <row r="521" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O521" s="6"/>
-    </row>
-    <row r="522" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O522" s="6"/>
-    </row>
-    <row r="523" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O523" s="6"/>
-    </row>
-    <row r="524" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O524" s="6"/>
-    </row>
-    <row r="525" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O525" s="6"/>
-    </row>
-    <row r="526" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O526" s="6"/>
-    </row>
-    <row r="527" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O527" s="6"/>
-    </row>
-    <row r="528" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O528" s="6"/>
-    </row>
-    <row r="529" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O529" s="6"/>
-    </row>
-    <row r="530" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O530" s="6"/>
-    </row>
-    <row r="531" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O531" s="6"/>
-    </row>
-    <row r="532" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O532" s="6"/>
-    </row>
-    <row r="533" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O533" s="6"/>
-    </row>
-    <row r="534" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O534" s="6"/>
-    </row>
-    <row r="535" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O535" s="6"/>
-    </row>
-    <row r="536" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O536" s="6"/>
-    </row>
-    <row r="537" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O537" s="6"/>
-    </row>
-    <row r="538" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O538" s="6"/>
-    </row>
-    <row r="539" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O539" s="6"/>
-    </row>
-    <row r="540" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O540" s="6"/>
-    </row>
-    <row r="541" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O541" s="6"/>
-    </row>
-    <row r="542" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O542" s="6"/>
-    </row>
-    <row r="543" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O543" s="6"/>
-    </row>
-    <row r="544" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O544" s="6"/>
-    </row>
-    <row r="545" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O545" s="6"/>
-    </row>
-    <row r="546" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O546" s="6"/>
-    </row>
-    <row r="547" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O547" s="6"/>
-    </row>
-    <row r="548" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O548" s="6"/>
-    </row>
-    <row r="549" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O549" s="6"/>
-    </row>
-    <row r="550" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O550" s="6"/>
-    </row>
-    <row r="551" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O551" s="6"/>
-    </row>
-    <row r="552" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O552" s="6"/>
-    </row>
-    <row r="553" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O553" s="6"/>
-    </row>
-    <row r="554" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O554" s="6"/>
-    </row>
-    <row r="555" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O555" s="6"/>
-    </row>
-    <row r="556" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O556" s="6"/>
-    </row>
-    <row r="557" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O557" s="6"/>
-    </row>
-    <row r="558" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O558" s="6"/>
-    </row>
-    <row r="559" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O559" s="6"/>
-    </row>
-    <row r="560" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O560" s="6"/>
-    </row>
-    <row r="561" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O561" s="6"/>
-    </row>
-    <row r="562" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O562" s="6"/>
-    </row>
-    <row r="563" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O563" s="6"/>
-    </row>
-    <row r="564" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O564" s="6"/>
-    </row>
-    <row r="565" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O565" s="6"/>
-    </row>
-    <row r="566" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O566" s="6"/>
-    </row>
-    <row r="567" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O567" s="6"/>
-    </row>
-    <row r="568" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O568" s="6"/>
-    </row>
-    <row r="569" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O569" s="6"/>
-    </row>
-    <row r="570" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O570" s="6"/>
-    </row>
-    <row r="571" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O571" s="6"/>
-    </row>
-    <row r="572" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O572" s="6"/>
-    </row>
-    <row r="573" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O573" s="6"/>
-    </row>
-    <row r="574" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O574" s="6"/>
-    </row>
-    <row r="575" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O575" s="6"/>
-    </row>
-    <row r="576" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O576" s="6"/>
-    </row>
-    <row r="577" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O577" s="6"/>
-    </row>
-    <row r="578" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O578" s="6"/>
-    </row>
-    <row r="579" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O579" s="6"/>
-    </row>
-    <row r="580" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O580" s="6"/>
-    </row>
-    <row r="581" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O581" s="6"/>
-    </row>
-    <row r="582" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O582" s="6"/>
-    </row>
-    <row r="583" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O583" s="6"/>
-    </row>
-    <row r="584" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O584" s="6"/>
-    </row>
-    <row r="585" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O585" s="6"/>
-    </row>
-    <row r="586" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O586" s="6"/>
-    </row>
-    <row r="587" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O587" s="6"/>
-    </row>
-    <row r="588" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O588" s="6"/>
-    </row>
-    <row r="589" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O589" s="6"/>
-    </row>
-    <row r="590" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O590" s="6"/>
-    </row>
-    <row r="591" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O591" s="6"/>
-    </row>
-    <row r="592" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O592" s="6"/>
-    </row>
-    <row r="593" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O593" s="6"/>
-    </row>
-    <row r="594" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O594" s="6"/>
-    </row>
-    <row r="595" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O595" s="6"/>
-    </row>
-    <row r="596" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O596" s="6"/>
-    </row>
-    <row r="597" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O597" s="6"/>
-    </row>
-    <row r="598" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O598" s="6"/>
-    </row>
-    <row r="599" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O599" s="6"/>
-    </row>
-    <row r="600" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O600" s="6"/>
-    </row>
-    <row r="601" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O601" s="6"/>
-    </row>
-    <row r="602" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O602" s="6"/>
-    </row>
-    <row r="603" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O603" s="6"/>
-    </row>
-    <row r="604" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O604" s="6"/>
-    </row>
-    <row r="605" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O605" s="6"/>
-    </row>
-    <row r="606" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O606" s="6"/>
-    </row>
-    <row r="607" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O607" s="6"/>
-    </row>
-    <row r="608" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O608" s="6"/>
-    </row>
-    <row r="609" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O609" s="6"/>
-    </row>
-    <row r="610" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O610" s="6"/>
-    </row>
-    <row r="611" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O611" s="6"/>
-    </row>
-    <row r="612" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O612" s="6"/>
-    </row>
-    <row r="613" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O613" s="6"/>
-    </row>
-    <row r="614" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O614" s="6"/>
-    </row>
-    <row r="615" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O615" s="6"/>
-    </row>
-    <row r="616" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O616" s="6"/>
-    </row>
-    <row r="617" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O617" s="6"/>
-    </row>
-    <row r="618" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O618" s="6"/>
-    </row>
-    <row r="619" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O619" s="6"/>
-    </row>
-    <row r="620" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O620" s="6"/>
-    </row>
-    <row r="621" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O621" s="6"/>
-    </row>
-    <row r="622" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O622" s="6"/>
-    </row>
-    <row r="623" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O623" s="6"/>
-    </row>
-    <row r="624" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O624" s="6"/>
-    </row>
-    <row r="625" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O625" s="6"/>
-    </row>
-    <row r="626" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O626" s="6"/>
-    </row>
-    <row r="627" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O627" s="6"/>
-    </row>
-    <row r="628" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O628" s="6"/>
-    </row>
-    <row r="629" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O629" s="6"/>
-    </row>
-    <row r="630" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O630" s="6"/>
-    </row>
-    <row r="631" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O631" s="6"/>
-    </row>
-    <row r="632" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O632" s="6"/>
-    </row>
-    <row r="633" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O633" s="6"/>
-    </row>
-    <row r="634" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O634" s="6"/>
-    </row>
-    <row r="635" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O635" s="6"/>
-    </row>
-    <row r="636" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O636" s="6"/>
-    </row>
-    <row r="637" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O637" s="6"/>
-    </row>
-    <row r="638" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O638" s="6"/>
-    </row>
-    <row r="639" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O639" s="6"/>
-    </row>
-    <row r="640" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O640" s="6"/>
-    </row>
-    <row r="641" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O641" s="6"/>
-    </row>
-    <row r="642" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O642" s="6"/>
-    </row>
-    <row r="643" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O643" s="6"/>
-    </row>
-    <row r="644" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O644" s="6"/>
-    </row>
-    <row r="645" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O645" s="6"/>
-    </row>
-    <row r="646" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O646" s="6"/>
-    </row>
-    <row r="647" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O647" s="6"/>
-    </row>
-    <row r="648" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O648" s="6"/>
-    </row>
-    <row r="649" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O649" s="6"/>
-    </row>
-    <row r="650" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O650" s="6"/>
-    </row>
-    <row r="651" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O651" s="6"/>
-    </row>
-    <row r="652" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O652" s="6"/>
-    </row>
-    <row r="653" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O653" s="6"/>
-    </row>
-    <row r="654" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O654" s="6"/>
-    </row>
-    <row r="655" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O655" s="6"/>
-    </row>
-    <row r="656" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O656" s="6"/>
-    </row>
-    <row r="657" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O657" s="6"/>
-    </row>
-    <row r="658" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O658" s="6"/>
-    </row>
-    <row r="659" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O659" s="6"/>
-    </row>
-    <row r="660" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O660" s="6"/>
-    </row>
-    <row r="661" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O661" s="6"/>
-    </row>
-    <row r="662" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O662" s="6"/>
-    </row>
-    <row r="663" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O663" s="6"/>
-    </row>
-    <row r="664" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O664" s="6"/>
-    </row>
-    <row r="665" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O665" s="6"/>
-    </row>
-    <row r="666" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O666" s="6"/>
-    </row>
-    <row r="667" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O667" s="6"/>
-    </row>
-    <row r="668" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O668" s="6"/>
-    </row>
-    <row r="669" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O669" s="6"/>
-    </row>
-    <row r="670" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O670" s="6"/>
-    </row>
-    <row r="671" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O671" s="6"/>
-    </row>
-    <row r="672" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O672" s="6"/>
-    </row>
-    <row r="673" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O673" s="6"/>
-    </row>
-    <row r="674" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O674" s="6"/>
-    </row>
-    <row r="675" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O675" s="6"/>
-    </row>
-    <row r="676" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O676" s="6"/>
-    </row>
-    <row r="677" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O677" s="6"/>
-    </row>
-    <row r="678" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O678" s="6"/>
-    </row>
-    <row r="679" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O679" s="6"/>
-    </row>
-    <row r="680" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O680" s="6"/>
-    </row>
-    <row r="681" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O681" s="6"/>
-    </row>
-    <row r="682" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O682" s="6"/>
-    </row>
-    <row r="683" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O683" s="6"/>
-    </row>
-    <row r="684" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O684" s="6"/>
-    </row>
-    <row r="685" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O685" s="6"/>
-    </row>
-    <row r="686" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O686" s="6"/>
-    </row>
-    <row r="687" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O687" s="6"/>
-    </row>
-    <row r="688" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O688" s="6"/>
-    </row>
-    <row r="689" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O689" s="6"/>
-    </row>
-    <row r="690" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O690" s="6"/>
-    </row>
-    <row r="691" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O691" s="6"/>
-    </row>
-    <row r="692" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O692" s="6"/>
-    </row>
-    <row r="693" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O693" s="6"/>
-    </row>
-    <row r="694" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O694" s="6"/>
-    </row>
-    <row r="695" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O695" s="6"/>
-    </row>
-    <row r="696" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O696" s="6"/>
-    </row>
-    <row r="697" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O697" s="6"/>
-    </row>
-    <row r="698" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O698" s="6"/>
-    </row>
-    <row r="699" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O699" s="6"/>
-    </row>
-    <row r="700" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O700" s="6"/>
-    </row>
-    <row r="701" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O701" s="6"/>
-    </row>
-    <row r="702" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O702" s="6"/>
-    </row>
-    <row r="703" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O703" s="6"/>
-    </row>
-    <row r="704" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O704" s="6"/>
-    </row>
-    <row r="705" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O705" s="6"/>
-    </row>
-    <row r="706" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O706" s="6"/>
-    </row>
-    <row r="707" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O707" s="6"/>
-    </row>
-    <row r="708" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O708" s="6"/>
-    </row>
-    <row r="709" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O709" s="6"/>
-    </row>
-    <row r="710" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O710" s="6"/>
-    </row>
-    <row r="711" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O711" s="6"/>
-    </row>
-    <row r="712" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O712" s="6"/>
-    </row>
-    <row r="713" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O713" s="6"/>
-    </row>
-    <row r="714" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O714" s="6"/>
-    </row>
-    <row r="715" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O715" s="6"/>
-    </row>
-    <row r="716" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O716" s="6"/>
-    </row>
-    <row r="717" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O717" s="6"/>
-    </row>
-    <row r="718" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O718" s="6"/>
-    </row>
-    <row r="719" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O719" s="6"/>
-    </row>
-    <row r="720" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O720" s="6"/>
-    </row>
-    <row r="721" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O721" s="6"/>
-    </row>
-    <row r="722" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O722" s="6"/>
-    </row>
-    <row r="723" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O723" s="6"/>
-    </row>
-    <row r="724" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O724" s="6"/>
-    </row>
-    <row r="725" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O725" s="6"/>
-    </row>
-    <row r="726" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O726" s="6"/>
-    </row>
-    <row r="727" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O727" s="6"/>
-    </row>
-    <row r="728" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O728" s="6"/>
-    </row>
-    <row r="729" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O729" s="6"/>
-    </row>
-    <row r="730" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O730" s="6"/>
-    </row>
-    <row r="731" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O731" s="6"/>
-    </row>
-    <row r="732" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O732" s="6"/>
-    </row>
-    <row r="733" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O733" s="6"/>
-    </row>
-    <row r="734" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O734" s="6"/>
-    </row>
-    <row r="735" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O735" s="6"/>
-    </row>
-    <row r="736" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O736" s="6"/>
-    </row>
-    <row r="737" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O737" s="6"/>
-    </row>
-    <row r="738" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O738" s="6"/>
-    </row>
-    <row r="739" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O739" s="6"/>
-    </row>
-    <row r="740" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O740" s="6"/>
-    </row>
-    <row r="741" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O741" s="6"/>
-    </row>
-    <row r="742" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O742" s="6"/>
-    </row>
-    <row r="743" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O743" s="6"/>
-    </row>
-    <row r="744" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O744" s="6"/>
-    </row>
-    <row r="745" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O745" s="6"/>
-    </row>
-    <row r="746" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O746" s="6"/>
-    </row>
-    <row r="747" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O747" s="6"/>
-    </row>
-    <row r="748" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O748" s="6"/>
-    </row>
-    <row r="749" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O749" s="6"/>
-    </row>
-    <row r="750" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O750" s="6"/>
-    </row>
-    <row r="751" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O751" s="6"/>
-    </row>
-    <row r="752" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O752" s="6"/>
-    </row>
-    <row r="753" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O753" s="6"/>
-    </row>
-    <row r="754" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O754" s="6"/>
-    </row>
-    <row r="755" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O755" s="6"/>
-    </row>
-    <row r="756" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O756" s="6"/>
-    </row>
-    <row r="757" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O757" s="6"/>
-    </row>
-    <row r="758" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O758" s="6"/>
-    </row>
-    <row r="759" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O759" s="6"/>
-    </row>
-    <row r="760" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O760" s="6"/>
-    </row>
-    <row r="761" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O761" s="6"/>
-    </row>
-    <row r="762" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O762" s="6"/>
-    </row>
-    <row r="763" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O763" s="6"/>
-    </row>
-    <row r="764" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O764" s="6"/>
-    </row>
-    <row r="765" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O765" s="6"/>
-    </row>
-    <row r="766" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O766" s="6"/>
-    </row>
-    <row r="767" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O767" s="6"/>
-    </row>
-    <row r="768" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O768" s="6"/>
-    </row>
-    <row r="769" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O769" s="6"/>
-    </row>
-    <row r="770" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O770" s="6"/>
-    </row>
-    <row r="771" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O771" s="6"/>
-    </row>
-    <row r="772" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O772" s="6"/>
-    </row>
-    <row r="773" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O773" s="6"/>
-    </row>
-    <row r="774" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O774" s="6"/>
-    </row>
-    <row r="775" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O775" s="6"/>
-    </row>
-    <row r="776" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O776" s="6"/>
-    </row>
-    <row r="777" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O777" s="6"/>
-    </row>
-    <row r="778" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O778" s="6"/>
-    </row>
-    <row r="779" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O779" s="6"/>
-    </row>
-    <row r="780" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O780" s="6"/>
-    </row>
-    <row r="781" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O781" s="6"/>
-    </row>
-    <row r="782" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O782" s="6"/>
-    </row>
-    <row r="783" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O783" s="6"/>
-    </row>
-    <row r="784" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O784" s="6"/>
-    </row>
-    <row r="785" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O785" s="6"/>
-    </row>
-    <row r="786" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O786" s="6"/>
-    </row>
-    <row r="787" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O787" s="6"/>
-    </row>
-    <row r="788" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O788" s="6"/>
-    </row>
-    <row r="789" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O789" s="6"/>
-    </row>
-    <row r="790" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O790" s="6"/>
-    </row>
-    <row r="791" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O791" s="6"/>
-    </row>
-    <row r="792" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O792" s="6"/>
-    </row>
-    <row r="793" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O793" s="6"/>
-    </row>
-    <row r="794" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O794" s="6"/>
-    </row>
-    <row r="795" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O795" s="6"/>
-    </row>
-    <row r="796" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O796" s="6"/>
-    </row>
-    <row r="797" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O797" s="6"/>
-    </row>
-    <row r="798" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O798" s="6"/>
-    </row>
-    <row r="799" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O799" s="6"/>
-    </row>
-    <row r="800" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O800" s="6"/>
-    </row>
-    <row r="801" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O801" s="6"/>
-    </row>
-    <row r="802" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O802" s="6"/>
-    </row>
-    <row r="803" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O803" s="6"/>
-    </row>
-    <row r="804" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O804" s="6"/>
-    </row>
-    <row r="805" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O805" s="6"/>
-    </row>
-    <row r="806" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O806" s="6"/>
-    </row>
-    <row r="807" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O807" s="6"/>
-    </row>
-    <row r="808" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O808" s="6"/>
-    </row>
-    <row r="809" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O809" s="6"/>
-    </row>
-    <row r="810" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O810" s="6"/>
-    </row>
-    <row r="811" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O811" s="6"/>
-    </row>
-    <row r="812" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O812" s="6"/>
-    </row>
-    <row r="813" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O813" s="6"/>
-    </row>
-    <row r="814" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O814" s="6"/>
-    </row>
-    <row r="815" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O815" s="6"/>
-    </row>
-    <row r="816" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O816" s="6"/>
-    </row>
-    <row r="817" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O817" s="6"/>
-    </row>
-    <row r="818" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O818" s="6"/>
-    </row>
-    <row r="819" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O819" s="6"/>
-    </row>
-    <row r="820" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O820" s="6"/>
-    </row>
-    <row r="821" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O821" s="6"/>
-    </row>
-    <row r="822" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O822" s="6"/>
-    </row>
-    <row r="823" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O823" s="6"/>
-    </row>
-    <row r="824" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O824" s="6"/>
-    </row>
-    <row r="825" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O825" s="6"/>
-    </row>
-    <row r="826" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O826" s="6"/>
-    </row>
-    <row r="827" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O827" s="6"/>
-    </row>
-    <row r="828" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O828" s="6"/>
-    </row>
-    <row r="829" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O829" s="6"/>
-    </row>
-    <row r="830" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O830" s="6"/>
-    </row>
-    <row r="831" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O831" s="6"/>
-    </row>
-    <row r="832" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O832" s="6"/>
-    </row>
-    <row r="833" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O833" s="6"/>
-    </row>
-    <row r="834" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O834" s="6"/>
-    </row>
-    <row r="835" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O835" s="6"/>
-    </row>
-    <row r="836" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O836" s="6"/>
-    </row>
-    <row r="837" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O837" s="6"/>
-    </row>
-    <row r="838" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O838" s="6"/>
-    </row>
-    <row r="839" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O839" s="6"/>
-    </row>
-    <row r="840" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O840" s="6"/>
-    </row>
-    <row r="841" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O841" s="6"/>
-    </row>
-    <row r="842" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O842" s="6"/>
-    </row>
-    <row r="843" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O843" s="6"/>
-    </row>
-    <row r="844" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O844" s="6"/>
-    </row>
-    <row r="845" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O845" s="6"/>
-    </row>
-    <row r="846" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O846" s="6"/>
-    </row>
-    <row r="847" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O847" s="6"/>
-    </row>
-    <row r="848" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O848" s="6"/>
-    </row>
-    <row r="849" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O849" s="6"/>
-    </row>
-    <row r="850" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O850" s="6"/>
-    </row>
-    <row r="851" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O851" s="6"/>
-    </row>
-    <row r="852" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O852" s="6"/>
-    </row>
-    <row r="853" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O853" s="6"/>
-    </row>
-    <row r="854" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O854" s="6"/>
-    </row>
-    <row r="855" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O855" s="6"/>
-    </row>
-    <row r="856" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O856" s="6"/>
-    </row>
-    <row r="857" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O857" s="6"/>
-    </row>
-    <row r="858" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O858" s="6"/>
-    </row>
-    <row r="859" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O859" s="6"/>
-    </row>
-    <row r="860" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O860" s="6"/>
-    </row>
-    <row r="861" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O861" s="6"/>
-    </row>
-    <row r="862" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O862" s="6"/>
-    </row>
-    <row r="863" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O863" s="6"/>
-    </row>
-    <row r="864" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O864" s="6"/>
-    </row>
-    <row r="865" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O865" s="6"/>
-    </row>
-    <row r="866" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O866" s="6"/>
-    </row>
-    <row r="867" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O867" s="6"/>
-    </row>
-    <row r="868" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O868" s="6"/>
-    </row>
-    <row r="869" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O869" s="6"/>
-    </row>
-    <row r="870" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O870" s="6"/>
-    </row>
-    <row r="871" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O871" s="6"/>
-    </row>
-    <row r="872" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O872" s="6"/>
-    </row>
-    <row r="873" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O873" s="6"/>
-    </row>
-    <row r="874" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O874" s="6"/>
-    </row>
-    <row r="875" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O875" s="6"/>
-    </row>
-    <row r="876" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O876" s="6"/>
-    </row>
-    <row r="877" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O877" s="6"/>
-    </row>
-    <row r="878" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O878" s="6"/>
-    </row>
-    <row r="879" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O879" s="6"/>
-    </row>
-    <row r="880" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O880" s="6"/>
-    </row>
-    <row r="881" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O881" s="6"/>
-    </row>
-    <row r="882" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O882" s="6"/>
-    </row>
-    <row r="883" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O883" s="6"/>
-    </row>
-    <row r="884" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O884" s="6"/>
-    </row>
-    <row r="885" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O885" s="6"/>
-    </row>
-    <row r="886" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O886" s="6"/>
-    </row>
-    <row r="887" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O887" s="6"/>
-    </row>
-    <row r="888" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O888" s="6"/>
-    </row>
-    <row r="889" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O889" s="6"/>
-    </row>
-    <row r="890" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O890" s="6"/>
-    </row>
-    <row r="891" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O891" s="6"/>
-    </row>
-    <row r="892" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O892" s="6"/>
-    </row>
-    <row r="893" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O893" s="6"/>
-    </row>
-    <row r="894" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O894" s="6"/>
-    </row>
-    <row r="895" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O895" s="6"/>
-    </row>
-    <row r="896" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O896" s="6"/>
-    </row>
+    <row r="177" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="178" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="179" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="180" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="181" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="182" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="183" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="184" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="185" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="186" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="187" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="188" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="189" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="190" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="191" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="192" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="193" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="194" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="195" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="196" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="197" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="198" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="199" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="200" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="201" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="202" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="203" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="204" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="205" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="206" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="207" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="208" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="209" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="210" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="211" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="212" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="213" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="214" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="215" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="216" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="217" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="218" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="219" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="220" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="221" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="222" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="223" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="224" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="225" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="226" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="227" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="228" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="229" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="230" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="231" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="232" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="233" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="234" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="235" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="236" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="237" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="238" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="239" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="240" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="241" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="242" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="243" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="244" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="245" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="246" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="247" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="248" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="249" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="250" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="251" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="252" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="253" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="254" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="255" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="256" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="257" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="258" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="259" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="260" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="261" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="262" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="263" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="264" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="265" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="266" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="267" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="268" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="269" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="270" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="271" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="272" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="273" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="274" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="275" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="276" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="277" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="278" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="279" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="280" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="281" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="282" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="283" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="284" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="285" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="286" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="287" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="288" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="289" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="290" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="291" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="292" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="293" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="294" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="295" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="296" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="297" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="298" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="299" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="300" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="301" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="302" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="303" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="304" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="305" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="306" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="307" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="308" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="309" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="310" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="311" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="312" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="313" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="314" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="315" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="316" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="317" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="318" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="319" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="320" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="321" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="322" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="323" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="324" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="325" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="326" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="327" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="328" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="329" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="330" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="331" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="332" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="333" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="334" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="335" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="336" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="337" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="338" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="339" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="340" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="341" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="342" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="343" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="344" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="345" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="346" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="347" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="348" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="349" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="350" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="351" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="352" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="353" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="354" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="355" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="356" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="357" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="358" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="359" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="360" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="361" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="362" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="363" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="364" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="365" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="366" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="367" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="368" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="369" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="370" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="371" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="372" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="373" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="374" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="375" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="376" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="377" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="378" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="379" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="380" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="381" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="382" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="383" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="384" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="385" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="386" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="387" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="388" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="389" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="390" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="391" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="392" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="393" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="394" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="395" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="396" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="397" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="398" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="399" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="400" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="401" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="402" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="403" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="404" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="405" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="406" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="407" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="408" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="409" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="410" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="411" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="412" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="413" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="414" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="415" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="416" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="417" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="418" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="419" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="420" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="421" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="422" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="423" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="424" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="425" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="426" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="427" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="428" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="429" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="430" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="431" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="432" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="433" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="434" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="435" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="436" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="437" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="438" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="439" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="440" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="441" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="442" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="443" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="444" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="445" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="446" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="447" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="448" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="449" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="450" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="451" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="452" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="453" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="454" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="455" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="456" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="457" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="458" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="459" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="460" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="461" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="462" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="463" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="464" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="465" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="466" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="467" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="468" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="469" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="470" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="471" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="472" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="473" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="474" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="475" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="476" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="477" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="478" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="479" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="480" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="481" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="482" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="483" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="484" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="485" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="486" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="487" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="488" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="489" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="490" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="491" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="492" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="493" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="494" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="495" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="496" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="497" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="498" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="499" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="500" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="501" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="502" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="503" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="504" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="506" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="507" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="508" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="509" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="510" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="511" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="512" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="513" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="514" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="515" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="516" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="517" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="518" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="519" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="520" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="521" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="522" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="523" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="524" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="525" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="526" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="527" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="528" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="529" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="530" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="531" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="532" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="533" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="534" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="535" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="536" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="537" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="538" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="539" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="540" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="541" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="542" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="543" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="544" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="545" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="546" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="547" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="548" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="549" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="550" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="551" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="552" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="553" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="554" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="555" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="556" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="557" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="558" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="559" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="560" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="561" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="562" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="563" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="564" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="565" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="566" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="567" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="568" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="569" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="570" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="571" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="572" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="573" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="574" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="575" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="576" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="577" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="578" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="579" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="580" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="581" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="582" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="583" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="584" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="585" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="586" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="587" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="588" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="589" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="590" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="591" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="592" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="593" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="594" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="595" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="596" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="597" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="598" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="599" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="600" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="601" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="602" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="603" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="604" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="605" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="606" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="607" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="608" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="609" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="610" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="611" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="612" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="613" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="614" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="615" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="616" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="617" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="618" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="619" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="620" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="621" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="622" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="623" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="624" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="625" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="626" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="627" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="628" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="629" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="630" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="631" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="632" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="633" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="634" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="635" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="636" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="637" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="638" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="639" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="640" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="641" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="642" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="643" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="644" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="645" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="646" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="647" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="648" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="649" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="650" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="651" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="652" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="653" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="654" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="655" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="656" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="657" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="658" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="659" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="660" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="661" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="662" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="663" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="664" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="665" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="666" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="667" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="668" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="669" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="670" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="671" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="672" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="673" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="674" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="675" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="676" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="677" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="678" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="679" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="680" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="681" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="682" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="683" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="684" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="685" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="686" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="687" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="688" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="689" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="690" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="691" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="692" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="693" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="694" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="695" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="696" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="697" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="698" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="699" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="700" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="701" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="702" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="703" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="704" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="705" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="706" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="707" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="708" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="709" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="710" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="711" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="712" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="713" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="714" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="715" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="716" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="717" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="718" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="719" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="720" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="721" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="722" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="723" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="724" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="725" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="726" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="727" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="728" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="729" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="730" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="731" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="732" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="733" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="734" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="735" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="736" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="737" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="738" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="739" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="740" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="741" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="742" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="743" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="744" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="745" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="746" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="747" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="748" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="749" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="750" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="751" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="752" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="753" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="754" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="755" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="756" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="757" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="758" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="759" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="760" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="761" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="762" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="763" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="764" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="765" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="766" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="767" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="768" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="769" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="770" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="771" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="772" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="773" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="774" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="775" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="776" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="777" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="778" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="779" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="780" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="781" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="782" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="783" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="784" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="785" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="786" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="787" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="788" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="789" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="790" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="791" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="792" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="793" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="794" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="795" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="796" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="797" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="798" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="799" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="800" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="801" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="802" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="803" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="804" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="805" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="806" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="807" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="808" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="809" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="810" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="811" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="812" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="813" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="814" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="815" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="816" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="817" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="818" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="819" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="820" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="821" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="822" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="823" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="824" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="825" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="826" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="827" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="828" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="829" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="830" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="831" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="832" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="833" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="834" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="835" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="836" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="837" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="838" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="839" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="840" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="841" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="842" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="843" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="844" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="845" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="846" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="847" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="848" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="849" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="850" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="851" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="852" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="853" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="854" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="855" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="856" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="857" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="858" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="859" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="860" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="861" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="862" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="863" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="864" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="865" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="866" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="867" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="868" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="869" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="870" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="871" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="872" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="873" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="874" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="875" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="876" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="877" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="878" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="879" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="880" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="881" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="882" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="883" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="884" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="885" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="886" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="887" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="888" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="889" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="890" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="891" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="892" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="893" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="894" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="895" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="896" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
     <row r="897" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O897" s="6"/>
     </row>
@@ -6741,20 +5324,20 @@
       <c r="O898" s="6"/>
     </row>
     <row r="899" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A899" s="9"/>
-      <c r="B899" s="9"/>
-      <c r="D899" s="9"/>
-      <c r="E899" s="9"/>
-      <c r="F899" s="9"/>
-      <c r="G899" s="9"/>
-      <c r="H899" s="9"/>
-      <c r="I899" s="9"/>
-      <c r="J899" s="9"/>
-      <c r="K899" s="9"/>
-      <c r="L899" s="9"/>
-      <c r="M899" s="9"/>
-      <c r="N899" s="9"/>
-      <c r="O899" s="10"/>
+      <c r="A899" s="11"/>
+      <c r="B899" s="11"/>
+      <c r="D899" s="11"/>
+      <c r="E899" s="11"/>
+      <c r="F899" s="11"/>
+      <c r="G899" s="11"/>
+      <c r="H899" s="11"/>
+      <c r="I899" s="11"/>
+      <c r="J899" s="11"/>
+      <c r="K899" s="11"/>
+      <c r="L899" s="11"/>
+      <c r="M899" s="11"/>
+      <c r="N899" s="11"/>
+      <c r="O899" s="12"/>
     </row>
     <row r="900" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O900" s="6"/>
@@ -6795,1482 +5378,498 @@
     <row r="912" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="O912" s="6"/>
     </row>
-    <row r="913" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O913" s="6"/>
-    </row>
-    <row r="914" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O914" s="6"/>
-    </row>
-    <row r="915" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O915" s="6"/>
-    </row>
-    <row r="916" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O916" s="6"/>
-    </row>
-    <row r="917" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O917" s="6"/>
-    </row>
-    <row r="918" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O918" s="6"/>
-    </row>
-    <row r="919" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O919" s="6"/>
-    </row>
-    <row r="920" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O920" s="6"/>
-    </row>
-    <row r="921" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O921" s="6"/>
-    </row>
-    <row r="922" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O922" s="6"/>
-    </row>
-    <row r="923" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O923" s="6"/>
-    </row>
-    <row r="924" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O924" s="6"/>
-    </row>
-    <row r="925" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O925" s="6"/>
-    </row>
-    <row r="926" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O926" s="6"/>
-    </row>
-    <row r="927" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O927" s="6"/>
-    </row>
-    <row r="928" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O928" s="6"/>
-    </row>
-    <row r="929" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O929" s="6"/>
-    </row>
-    <row r="930" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O930" s="6"/>
-    </row>
-    <row r="931" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O931" s="6"/>
-    </row>
-    <row r="932" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O932" s="6"/>
-    </row>
-    <row r="933" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O933" s="6"/>
-    </row>
-    <row r="934" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O934" s="6"/>
-    </row>
-    <row r="935" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O935" s="6"/>
-    </row>
-    <row r="936" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O936" s="6"/>
-    </row>
-    <row r="937" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O937" s="6"/>
-    </row>
-    <row r="938" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O938" s="6"/>
-    </row>
-    <row r="939" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O939" s="6"/>
-    </row>
-    <row r="940" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O940" s="6"/>
-    </row>
-    <row r="941" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O941" s="6"/>
-    </row>
-    <row r="942" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O942" s="6"/>
-    </row>
-    <row r="943" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O943" s="6"/>
-    </row>
-    <row r="944" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O944" s="6"/>
-    </row>
-    <row r="945" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O945" s="6"/>
-    </row>
-    <row r="946" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O946" s="6"/>
-    </row>
-    <row r="947" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O947" s="6"/>
-    </row>
-    <row r="948" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O948" s="6"/>
-    </row>
-    <row r="949" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O949" s="6"/>
-    </row>
-    <row r="950" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O950" s="6"/>
-    </row>
-    <row r="951" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O951" s="6"/>
-    </row>
-    <row r="952" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O952" s="6"/>
-    </row>
-    <row r="953" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O953" s="6"/>
-    </row>
-    <row r="954" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O954" s="6"/>
-    </row>
-    <row r="955" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O955" s="6"/>
-    </row>
-    <row r="956" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O956" s="6"/>
-    </row>
-    <row r="957" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O957" s="6"/>
-    </row>
-    <row r="958" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O958" s="6"/>
-    </row>
-    <row r="959" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O959" s="6"/>
-    </row>
-    <row r="960" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O960" s="6"/>
-    </row>
-    <row r="961" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O961" s="6"/>
-    </row>
-    <row r="962" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O962" s="6"/>
-    </row>
-    <row r="963" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O963" s="6"/>
-    </row>
-    <row r="964" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O964" s="6"/>
-    </row>
-    <row r="965" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O965" s="6"/>
-    </row>
-    <row r="966" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O966" s="6"/>
-    </row>
-    <row r="967" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O967" s="6"/>
-    </row>
-    <row r="968" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O968" s="6"/>
-    </row>
-    <row r="969" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O969" s="6"/>
-    </row>
-    <row r="970" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O970" s="6"/>
-    </row>
-    <row r="971" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O971" s="6"/>
-    </row>
-    <row r="972" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O972" s="6"/>
-    </row>
-    <row r="973" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O973" s="6"/>
-    </row>
-    <row r="974" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O974" s="6"/>
-    </row>
-    <row r="975" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O975" s="6"/>
-    </row>
-    <row r="976" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O976" s="6"/>
-    </row>
-    <row r="977" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O977" s="6"/>
-    </row>
-    <row r="978" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O978" s="6"/>
-    </row>
-    <row r="979" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O979" s="6"/>
-    </row>
-    <row r="980" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O980" s="6"/>
-    </row>
-    <row r="981" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O981" s="6"/>
-    </row>
-    <row r="982" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O982" s="6"/>
-    </row>
-    <row r="983" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O983" s="6"/>
-    </row>
-    <row r="984" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O984" s="6"/>
-    </row>
-    <row r="985" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O985" s="6"/>
-    </row>
-    <row r="986" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O986" s="6"/>
-    </row>
-    <row r="987" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O987" s="6"/>
-    </row>
-    <row r="988" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O988" s="6"/>
-    </row>
-    <row r="989" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O989" s="6"/>
-    </row>
-    <row r="990" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O990" s="6"/>
-    </row>
-    <row r="991" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O991" s="6"/>
-    </row>
-    <row r="992" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O992" s="6"/>
-    </row>
-    <row r="993" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O993" s="6"/>
-    </row>
-    <row r="994" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O994" s="6"/>
-    </row>
-    <row r="995" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O995" s="6"/>
-    </row>
-    <row r="996" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O996" s="6"/>
-    </row>
-    <row r="997" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O997" s="6"/>
-    </row>
-    <row r="998" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O998" s="6"/>
-    </row>
-    <row r="999" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O999" s="6"/>
-    </row>
-    <row r="1000" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1000" s="6"/>
-    </row>
-    <row r="1001" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1001" s="6"/>
-    </row>
-    <row r="1002" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1002" s="6"/>
-    </row>
-    <row r="1003" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1003" s="6"/>
-    </row>
-    <row r="1004" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1004" s="6"/>
-    </row>
-    <row r="1005" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1005" s="6"/>
-    </row>
-    <row r="1006" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1006" s="6"/>
-    </row>
-    <row r="1007" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1007" s="6"/>
-    </row>
-    <row r="1008" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1008" s="6"/>
-    </row>
-    <row r="1009" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1009" s="6"/>
-    </row>
-    <row r="1010" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1010" s="6"/>
-    </row>
-    <row r="1011" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1011" s="6"/>
-    </row>
-    <row r="1012" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1012" s="6"/>
-    </row>
-    <row r="1013" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1013" s="6"/>
-    </row>
-    <row r="1014" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1014" s="6"/>
-    </row>
-    <row r="1015" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1015" s="6"/>
-    </row>
-    <row r="1016" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1016" s="6"/>
-    </row>
-    <row r="1017" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1017" s="6"/>
-    </row>
-    <row r="1018" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1018" s="6"/>
-    </row>
-    <row r="1019" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1019" s="6"/>
-    </row>
-    <row r="1020" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1020" s="6"/>
-    </row>
-    <row r="1021" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1021" s="6"/>
-    </row>
-    <row r="1022" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1022" s="6"/>
-    </row>
-    <row r="1023" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1023" s="6"/>
-    </row>
-    <row r="1024" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1024" s="6"/>
-    </row>
-    <row r="1025" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1025" s="6"/>
-    </row>
-    <row r="1026" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1026" s="6"/>
-    </row>
-    <row r="1027" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1027" s="6"/>
-    </row>
-    <row r="1028" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1028" s="6"/>
-    </row>
-    <row r="1029" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1029" s="6"/>
-    </row>
-    <row r="1030" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1030" s="6"/>
-    </row>
-    <row r="1031" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1031" s="6"/>
-    </row>
-    <row r="1032" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1032" s="6"/>
-    </row>
-    <row r="1033" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1033" s="6"/>
-    </row>
-    <row r="1034" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1034" s="6"/>
-    </row>
-    <row r="1035" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1035" s="6"/>
-    </row>
-    <row r="1036" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1036" s="6"/>
-    </row>
-    <row r="1037" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1037" s="6"/>
-    </row>
-    <row r="1038" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1038" s="6"/>
-    </row>
-    <row r="1039" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1039" s="6"/>
-    </row>
-    <row r="1040" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1040" s="6"/>
-    </row>
-    <row r="1041" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1041" s="6"/>
-    </row>
-    <row r="1042" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1042" s="6"/>
-    </row>
-    <row r="1043" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1043" s="6"/>
-    </row>
-    <row r="1044" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1044" s="6"/>
-    </row>
-    <row r="1045" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1045" s="6"/>
-    </row>
-    <row r="1046" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1046" s="6"/>
-    </row>
-    <row r="1047" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1047" s="6"/>
-    </row>
-    <row r="1048" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1048" s="6"/>
-    </row>
-    <row r="1049" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1049" s="6"/>
-    </row>
-    <row r="1050" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1050" s="6"/>
-    </row>
-    <row r="1051" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1051" s="6"/>
-    </row>
-    <row r="1052" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1052" s="6"/>
-    </row>
-    <row r="1053" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1053" s="6"/>
-    </row>
-    <row r="1054" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1054" s="6"/>
-    </row>
-    <row r="1055" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1055" s="6"/>
-    </row>
-    <row r="1056" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1056" s="6"/>
-    </row>
-    <row r="1057" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1057" s="6"/>
-    </row>
-    <row r="1058" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1058" s="6"/>
-    </row>
-    <row r="1059" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1059" s="6"/>
-    </row>
-    <row r="1060" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1060" s="6"/>
-    </row>
-    <row r="1061" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1061" s="6"/>
-    </row>
-    <row r="1062" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1062" s="6"/>
-    </row>
-    <row r="1063" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1063" s="6"/>
-    </row>
-    <row r="1064" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1064" s="6"/>
-    </row>
-    <row r="1065" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1065" s="6"/>
-    </row>
-    <row r="1066" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1066" s="6"/>
-    </row>
-    <row r="1067" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1067" s="6"/>
-    </row>
-    <row r="1068" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1068" s="6"/>
-    </row>
-    <row r="1069" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1069" s="6"/>
-    </row>
-    <row r="1070" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1070" s="6"/>
-    </row>
-    <row r="1071" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1071" s="6"/>
-    </row>
-    <row r="1072" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1072" s="6"/>
-    </row>
-    <row r="1073" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1073" s="6"/>
-    </row>
-    <row r="1074" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1074" s="6"/>
-    </row>
-    <row r="1075" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1075" s="6"/>
-    </row>
-    <row r="1076" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1076" s="6"/>
-    </row>
-    <row r="1077" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1077" s="6"/>
-    </row>
-    <row r="1078" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1078" s="6"/>
-    </row>
-    <row r="1079" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1079" s="6"/>
-    </row>
-    <row r="1080" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1080" s="6"/>
-    </row>
-    <row r="1081" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1081" s="6"/>
-    </row>
-    <row r="1082" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1082" s="6"/>
-    </row>
-    <row r="1083" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1083" s="6"/>
-    </row>
-    <row r="1084" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1084" s="6"/>
-    </row>
-    <row r="1085" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1085" s="6"/>
-    </row>
-    <row r="1086" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1086" s="6"/>
-    </row>
-    <row r="1087" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1087" s="6"/>
-    </row>
-    <row r="1088" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1088" s="6"/>
-    </row>
-    <row r="1089" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1089" s="6"/>
-    </row>
-    <row r="1090" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1090" s="6"/>
-    </row>
-    <row r="1091" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1091" s="6"/>
-    </row>
-    <row r="1092" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1092" s="6"/>
-    </row>
-    <row r="1093" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1093" s="6"/>
-    </row>
-    <row r="1094" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1094" s="6"/>
-    </row>
-    <row r="1095" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1095" s="6"/>
-    </row>
-    <row r="1096" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1096" s="6"/>
-    </row>
-    <row r="1097" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1097" s="6"/>
-    </row>
-    <row r="1098" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1098" s="6"/>
-    </row>
-    <row r="1099" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1099" s="6"/>
-    </row>
-    <row r="1100" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1100" s="6"/>
-    </row>
-    <row r="1101" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1101" s="6"/>
-    </row>
-    <row r="1102" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1102" s="6"/>
-    </row>
-    <row r="1103" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1103" s="6"/>
-    </row>
-    <row r="1104" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1104" s="6"/>
-    </row>
-    <row r="1105" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1105" s="6"/>
-    </row>
-    <row r="1106" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1106" s="6"/>
-    </row>
-    <row r="1107" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1107" s="6"/>
-    </row>
-    <row r="1108" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1108" s="6"/>
-    </row>
-    <row r="1109" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1109" s="6"/>
-    </row>
-    <row r="1110" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1110" s="6"/>
-    </row>
-    <row r="1111" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1111" s="6"/>
-    </row>
-    <row r="1112" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1112" s="6"/>
-    </row>
-    <row r="1113" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1113" s="6"/>
-    </row>
-    <row r="1114" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1114" s="6"/>
-    </row>
-    <row r="1115" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1115" s="6"/>
-    </row>
-    <row r="1116" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1116" s="6"/>
-    </row>
-    <row r="1117" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1117" s="6"/>
-    </row>
-    <row r="1118" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1118" s="6"/>
-    </row>
-    <row r="1119" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1119" s="6"/>
-    </row>
-    <row r="1120" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1120" s="6"/>
-    </row>
-    <row r="1121" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1121" s="6"/>
-    </row>
-    <row r="1122" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1122" s="6"/>
-    </row>
-    <row r="1123" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1123" s="6"/>
-    </row>
-    <row r="1124" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1124" s="6"/>
-    </row>
-    <row r="1125" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1125" s="6"/>
-    </row>
-    <row r="1126" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1126" s="6"/>
-    </row>
-    <row r="1127" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1127" s="6"/>
-    </row>
-    <row r="1128" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1128" s="6"/>
-    </row>
-    <row r="1129" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1129" s="6"/>
-    </row>
-    <row r="1130" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1130" s="6"/>
-    </row>
-    <row r="1131" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1131" s="6"/>
-    </row>
-    <row r="1132" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1132" s="6"/>
-    </row>
-    <row r="1133" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1133" s="6"/>
-    </row>
-    <row r="1134" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1134" s="6"/>
-    </row>
-    <row r="1135" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1135" s="6"/>
-    </row>
-    <row r="1136" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1136" s="6"/>
-    </row>
-    <row r="1137" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1137" s="6"/>
-    </row>
-    <row r="1138" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1138" s="6"/>
-    </row>
-    <row r="1139" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1139" s="6"/>
-    </row>
-    <row r="1140" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1140" s="6"/>
-    </row>
-    <row r="1141" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1141" s="6"/>
-    </row>
-    <row r="1142" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1142" s="6"/>
-    </row>
-    <row r="1143" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1143" s="6"/>
-    </row>
-    <row r="1144" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1144" s="6"/>
-    </row>
-    <row r="1145" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1145" s="6"/>
-    </row>
-    <row r="1146" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1146" s="6"/>
-    </row>
-    <row r="1147" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1147" s="6"/>
-    </row>
-    <row r="1148" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1148" s="6"/>
-    </row>
-    <row r="1149" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1149" s="6"/>
-    </row>
-    <row r="1150" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1150" s="6"/>
-    </row>
-    <row r="1151" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1151" s="6"/>
-    </row>
-    <row r="1152" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1152" s="6"/>
-    </row>
-    <row r="1153" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1153" s="6"/>
-    </row>
-    <row r="1154" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1154" s="6"/>
-    </row>
-    <row r="1155" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1155" s="6"/>
-    </row>
-    <row r="1156" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1156" s="6"/>
-    </row>
-    <row r="1157" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1157" s="6"/>
-    </row>
-    <row r="1158" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1158" s="6"/>
-    </row>
-    <row r="1159" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1159" s="6"/>
-    </row>
-    <row r="1160" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1160" s="6"/>
-    </row>
-    <row r="1161" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1161" s="6"/>
-    </row>
-    <row r="1162" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1162" s="6"/>
-    </row>
-    <row r="1163" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1163" s="6"/>
-    </row>
-    <row r="1164" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1164" s="6"/>
-    </row>
-    <row r="1165" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1165" s="6"/>
-    </row>
-    <row r="1166" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1166" s="6"/>
-    </row>
-    <row r="1167" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1167" s="6"/>
-    </row>
-    <row r="1168" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1168" s="6"/>
-    </row>
-    <row r="1169" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1169" s="6"/>
-    </row>
-    <row r="1170" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1170" s="6"/>
-    </row>
-    <row r="1171" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1171" s="6"/>
-    </row>
-    <row r="1172" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1172" s="6"/>
-    </row>
-    <row r="1173" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1173" s="6"/>
-    </row>
-    <row r="1174" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1174" s="6"/>
-    </row>
-    <row r="1175" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1175" s="6"/>
-    </row>
-    <row r="1176" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1176" s="6"/>
-    </row>
-    <row r="1177" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1177" s="6"/>
-    </row>
-    <row r="1178" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1178" s="6"/>
-    </row>
-    <row r="1179" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1179" s="6"/>
-    </row>
-    <row r="1180" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1180" s="6"/>
-    </row>
-    <row r="1181" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1181" s="6"/>
-    </row>
-    <row r="1182" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1182" s="6"/>
-    </row>
-    <row r="1183" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1183" s="6"/>
-    </row>
-    <row r="1184" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1184" s="6"/>
-    </row>
-    <row r="1185" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1185" s="6"/>
-    </row>
-    <row r="1186" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1186" s="6"/>
-    </row>
-    <row r="1187" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1187" s="6"/>
-    </row>
-    <row r="1188" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1188" s="6"/>
-    </row>
-    <row r="1189" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1189" s="6"/>
-    </row>
-    <row r="1190" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1190" s="6"/>
-    </row>
-    <row r="1191" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1191" s="6"/>
-    </row>
-    <row r="1192" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1192" s="6"/>
-    </row>
-    <row r="1193" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1193" s="6"/>
-    </row>
-    <row r="1194" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1194" s="6"/>
-    </row>
-    <row r="1195" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1195" s="6"/>
-    </row>
-    <row r="1196" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1196" s="6"/>
-    </row>
-    <row r="1197" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1197" s="6"/>
-    </row>
-    <row r="1198" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1198" s="6"/>
-    </row>
-    <row r="1199" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1199" s="6"/>
-    </row>
-    <row r="1200" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1200" s="6"/>
-    </row>
-    <row r="1201" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1201" s="6"/>
-    </row>
-    <row r="1202" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1202" s="6"/>
-    </row>
-    <row r="1203" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1203" s="6"/>
-    </row>
-    <row r="1204" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1204" s="6"/>
-    </row>
-    <row r="1205" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1205" s="6"/>
-    </row>
-    <row r="1206" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1206" s="6"/>
-    </row>
-    <row r="1207" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1207" s="6"/>
-    </row>
-    <row r="1208" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1208" s="6"/>
-    </row>
-    <row r="1209" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1209" s="6"/>
-    </row>
-    <row r="1210" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1210" s="6"/>
-    </row>
-    <row r="1211" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1211" s="6"/>
-    </row>
-    <row r="1212" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1212" s="6"/>
-    </row>
-    <row r="1213" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1213" s="6"/>
-    </row>
-    <row r="1214" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1214" s="6"/>
-    </row>
-    <row r="1215" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1215" s="6"/>
-    </row>
-    <row r="1216" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1216" s="6"/>
-    </row>
-    <row r="1217" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1217" s="6"/>
-    </row>
-    <row r="1218" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1218" s="6"/>
-    </row>
-    <row r="1219" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1219" s="6"/>
-    </row>
-    <row r="1220" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1220" s="6"/>
-    </row>
-    <row r="1221" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1221" s="6"/>
-    </row>
-    <row r="1222" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1222" s="6"/>
-    </row>
-    <row r="1223" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1223" s="6"/>
-    </row>
-    <row r="1224" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1224" s="6"/>
-    </row>
-    <row r="1225" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1225" s="6"/>
-    </row>
-    <row r="1226" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1226" s="6"/>
-    </row>
-    <row r="1227" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1227" s="6"/>
-    </row>
-    <row r="1228" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1228" s="6"/>
-    </row>
-    <row r="1229" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1229" s="6"/>
-    </row>
-    <row r="1230" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1230" s="6"/>
-    </row>
-    <row r="1231" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1231" s="6"/>
-    </row>
-    <row r="1232" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1232" s="6"/>
-    </row>
-    <row r="1233" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1233" s="6"/>
-    </row>
-    <row r="1234" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1234" s="6"/>
-    </row>
-    <row r="1235" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1235" s="6"/>
-    </row>
-    <row r="1236" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1236" s="6"/>
-    </row>
-    <row r="1237" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1237" s="6"/>
-    </row>
-    <row r="1238" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1238" s="6"/>
-    </row>
-    <row r="1239" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1239" s="6"/>
-    </row>
-    <row r="1240" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1240" s="6"/>
-    </row>
-    <row r="1241" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1241" s="6"/>
-    </row>
-    <row r="1242" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1242" s="6"/>
-    </row>
-    <row r="1243" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1243" s="6"/>
-    </row>
-    <row r="1244" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1244" s="6"/>
-    </row>
-    <row r="1245" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1245" s="6"/>
-    </row>
-    <row r="1246" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1246" s="6"/>
-    </row>
-    <row r="1247" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1247" s="6"/>
-    </row>
-    <row r="1248" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1248" s="6"/>
-    </row>
-    <row r="1249" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1249" s="6"/>
-    </row>
-    <row r="1250" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1250" s="6"/>
-    </row>
-    <row r="1251" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1251" s="6"/>
-    </row>
-    <row r="1252" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1252" s="6"/>
-    </row>
-    <row r="1253" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1253" s="6"/>
-    </row>
-    <row r="1254" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1254" s="6"/>
-    </row>
-    <row r="1255" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1255" s="6"/>
-    </row>
-    <row r="1256" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1256" s="6"/>
-    </row>
-    <row r="1257" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1257" s="6"/>
-    </row>
-    <row r="1258" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1258" s="6"/>
-    </row>
-    <row r="1259" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1259" s="6"/>
-    </row>
-    <row r="1260" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1260" s="6"/>
-    </row>
-    <row r="1261" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1261" s="6"/>
-    </row>
-    <row r="1262" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1262" s="6"/>
-    </row>
-    <row r="1263" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1263" s="6"/>
-    </row>
-    <row r="1264" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1264" s="6"/>
-    </row>
-    <row r="1265" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1265" s="6"/>
-    </row>
-    <row r="1266" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1266" s="6"/>
-    </row>
-    <row r="1267" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1267" s="6"/>
-    </row>
-    <row r="1268" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1268" s="6"/>
-    </row>
-    <row r="1269" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1269" s="6"/>
-    </row>
-    <row r="1270" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1270" s="6"/>
-    </row>
-    <row r="1271" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1271" s="6"/>
-    </row>
-    <row r="1272" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1272" s="6"/>
-    </row>
-    <row r="1273" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1273" s="6"/>
-    </row>
-    <row r="1274" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1274" s="6"/>
-    </row>
-    <row r="1275" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1275" s="6"/>
-    </row>
-    <row r="1276" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1276" s="6"/>
-    </row>
-    <row r="1277" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1277" s="6"/>
-    </row>
-    <row r="1278" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1278" s="6"/>
-    </row>
-    <row r="1279" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1279" s="6"/>
-    </row>
-    <row r="1280" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1280" s="6"/>
-    </row>
-    <row r="1281" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1281" s="6"/>
-    </row>
-    <row r="1282" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1282" s="6"/>
-    </row>
-    <row r="1283" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1283" s="6"/>
-    </row>
-    <row r="1284" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1284" s="6"/>
-    </row>
-    <row r="1285" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1285" s="6"/>
-    </row>
-    <row r="1286" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1286" s="6"/>
-    </row>
-    <row r="1287" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1287" s="6"/>
-    </row>
-    <row r="1288" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1288" s="6"/>
-    </row>
-    <row r="1289" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1289" s="6"/>
-    </row>
-    <row r="1290" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1290" s="6"/>
-    </row>
-    <row r="1291" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1291" s="6"/>
-    </row>
-    <row r="1292" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1292" s="6"/>
-    </row>
-    <row r="1293" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1293" s="6"/>
-    </row>
-    <row r="1294" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1294" s="6"/>
-    </row>
-    <row r="1295" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1295" s="6"/>
-    </row>
-    <row r="1296" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1296" s="6"/>
-    </row>
-    <row r="1297" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1297" s="6"/>
-    </row>
-    <row r="1298" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1298" s="6"/>
-    </row>
-    <row r="1299" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1299" s="6"/>
-    </row>
-    <row r="1300" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1300" s="6"/>
-    </row>
-    <row r="1301" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1301" s="6"/>
-    </row>
-    <row r="1302" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1302" s="6"/>
-    </row>
-    <row r="1303" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1303" s="6"/>
-    </row>
-    <row r="1304" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1304" s="6"/>
-    </row>
-    <row r="1305" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1305" s="6"/>
-    </row>
-    <row r="1306" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1306" s="6"/>
-    </row>
-    <row r="1307" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1307" s="6"/>
-    </row>
-    <row r="1308" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1308" s="6"/>
-    </row>
-    <row r="1309" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1309" s="6"/>
-    </row>
-    <row r="1310" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1310" s="6"/>
-    </row>
-    <row r="1311" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1311" s="6"/>
-    </row>
-    <row r="1312" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1312" s="6"/>
-    </row>
-    <row r="1313" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1313" s="6"/>
-    </row>
-    <row r="1314" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1314" s="6"/>
-    </row>
-    <row r="1315" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1315" s="6"/>
-    </row>
-    <row r="1316" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1316" s="6"/>
-    </row>
-    <row r="1317" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1317" s="6"/>
-    </row>
-    <row r="1318" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1318" s="6"/>
-    </row>
-    <row r="1319" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1319" s="6"/>
-    </row>
-    <row r="1320" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1320" s="6"/>
-    </row>
-    <row r="1321" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1321" s="6"/>
-    </row>
-    <row r="1322" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1322" s="6"/>
-    </row>
-    <row r="1323" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1323" s="6"/>
-    </row>
-    <row r="1324" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1324" s="6"/>
-    </row>
-    <row r="1325" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1325" s="6"/>
-    </row>
-    <row r="1326" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1326" s="6"/>
-    </row>
-    <row r="1327" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1327" s="6"/>
-    </row>
-    <row r="1328" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1328" s="6"/>
-    </row>
-    <row r="1329" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1329" s="6"/>
-    </row>
-    <row r="1330" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1330" s="6"/>
-    </row>
-    <row r="1331" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1331" s="6"/>
-    </row>
-    <row r="1332" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1332" s="6"/>
-    </row>
-    <row r="1333" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1333" s="6"/>
-    </row>
-    <row r="1334" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1334" s="6"/>
-    </row>
-    <row r="1335" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1335" s="6"/>
-    </row>
-    <row r="1336" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1336" s="6"/>
-    </row>
-    <row r="1337" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1337" s="6"/>
-    </row>
-    <row r="1338" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1338" s="6"/>
-    </row>
-    <row r="1339" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1339" s="6"/>
-    </row>
-    <row r="1340" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1340" s="6"/>
-    </row>
-    <row r="1341" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1341" s="6"/>
-    </row>
-    <row r="1342" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1342" s="6"/>
-    </row>
-    <row r="1343" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1343" s="6"/>
-    </row>
-    <row r="1344" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1344" s="6"/>
-    </row>
-    <row r="1345" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1345" s="6"/>
-    </row>
-    <row r="1346" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1346" s="6"/>
-    </row>
-    <row r="1347" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1347" s="6"/>
-    </row>
-    <row r="1348" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1348" s="6"/>
-    </row>
-    <row r="1349" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1349" s="6"/>
-    </row>
-    <row r="1350" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1350" s="6"/>
-    </row>
-    <row r="1351" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1351" s="6"/>
-    </row>
-    <row r="1352" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1352" s="6"/>
-    </row>
-    <row r="1353" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1353" s="6"/>
-    </row>
-    <row r="1354" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1354" s="6"/>
-    </row>
-    <row r="1355" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1355" s="6"/>
-    </row>
-    <row r="1356" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1356" s="6"/>
-    </row>
-    <row r="1357" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1357" s="6"/>
-    </row>
-    <row r="1358" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1358" s="6"/>
-    </row>
-    <row r="1359" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1359" s="6"/>
-    </row>
-    <row r="1360" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1360" s="6"/>
-    </row>
-    <row r="1361" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1361" s="6"/>
-    </row>
-    <row r="1362" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1362" s="6"/>
-    </row>
-    <row r="1363" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1363" s="6"/>
-    </row>
-    <row r="1364" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1364" s="6"/>
-    </row>
-    <row r="1365" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1365" s="6"/>
-    </row>
-    <row r="1366" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1366" s="6"/>
-    </row>
-    <row r="1367" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1367" s="6"/>
-    </row>
-    <row r="1368" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1368" s="6"/>
-    </row>
-    <row r="1369" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1369" s="6"/>
-    </row>
-    <row r="1370" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1370" s="6"/>
-    </row>
-    <row r="1371" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1371" s="6"/>
-    </row>
-    <row r="1372" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1372" s="6"/>
-    </row>
-    <row r="1373" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1373" s="6"/>
-    </row>
-    <row r="1374" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1374" s="6"/>
-    </row>
-    <row r="1375" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1375" s="6"/>
-    </row>
-    <row r="1376" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1376" s="6"/>
-    </row>
-    <row r="1377" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1377" s="6"/>
-    </row>
-    <row r="1378" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1378" s="6"/>
-    </row>
-    <row r="1379" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1379" s="6"/>
-    </row>
-    <row r="1380" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1380" s="6"/>
-    </row>
-    <row r="1381" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1381" s="6"/>
-    </row>
-    <row r="1382" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1382" s="6"/>
-    </row>
-    <row r="1383" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1383" s="6"/>
-    </row>
-    <row r="1384" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1384" s="6"/>
-    </row>
-    <row r="1385" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1385" s="6"/>
-    </row>
-    <row r="1386" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1386" s="6"/>
-    </row>
-    <row r="1387" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1387" s="6"/>
-    </row>
-    <row r="1388" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1388" s="6"/>
-    </row>
-    <row r="1389" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1389" s="6"/>
-    </row>
-    <row r="1390" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1390" s="6"/>
-    </row>
-    <row r="1391" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1391" s="6"/>
-    </row>
-    <row r="1392" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1392" s="6"/>
-    </row>
-    <row r="1393" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1393" s="6"/>
-    </row>
-    <row r="1394" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1394" s="6"/>
-    </row>
-    <row r="1395" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1395" s="6"/>
-    </row>
-    <row r="1396" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1396" s="6"/>
-    </row>
-    <row r="1397" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1397" s="6"/>
-    </row>
-    <row r="1398" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1398" s="6"/>
-    </row>
-    <row r="1399" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1399" s="6"/>
-    </row>
-    <row r="1400" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1400" s="6"/>
-    </row>
-    <row r="1401" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1401" s="6"/>
-    </row>
-    <row r="1402" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1402" s="6"/>
-    </row>
-    <row r="1403" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1403" s="6"/>
-    </row>
-    <row r="1404" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O1404" s="6"/>
-    </row>
+    <row r="913" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="914" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="915" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="916" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="917" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="918" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="919" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="920" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="921" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="922" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="923" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="924" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="925" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="926" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="927" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="928" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="929" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="930" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="931" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="932" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="933" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="934" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="935" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="936" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="937" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="938" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="939" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="940" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="941" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="942" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="943" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="944" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="945" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="946" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="947" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="948" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="949" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="950" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="951" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="952" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="953" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="954" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="955" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="956" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="957" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="958" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="959" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="960" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="961" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="962" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="963" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="964" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="965" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="966" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="967" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="968" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="969" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="970" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="971" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="972" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="973" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="974" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="975" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="976" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="977" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="978" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="979" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="980" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="981" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="982" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="983" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="984" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="985" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="986" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="987" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="988" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="989" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="990" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="991" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="992" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="993" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="994" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="995" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="996" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="997" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="998" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="999" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1000" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1001" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1002" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1003" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1004" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1005" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1006" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1007" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1008" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1009" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1010" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1011" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1012" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1013" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1014" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1015" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1016" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1017" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1018" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1019" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1020" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1021" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1022" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1023" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1024" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1025" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1026" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1027" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1028" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1029" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1030" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1031" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1032" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1033" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1034" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1035" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1036" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1037" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1038" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1039" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1040" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1041" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1042" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1043" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1044" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1045" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1046" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1047" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1048" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1049" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1050" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1051" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1052" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1053" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1054" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1055" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1056" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1057" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1058" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1059" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1060" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1061" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1062" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1063" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1064" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1065" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1066" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1067" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1068" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1069" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1070" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1071" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1072" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1073" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1074" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1075" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1076" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1077" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1078" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1079" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1080" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1081" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1082" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1083" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1084" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1085" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1086" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1087" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1088" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1089" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1090" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1091" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1092" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1093" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1094" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1095" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1096" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1097" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1098" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1099" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1100" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1101" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1102" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1103" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1104" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1105" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1106" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1107" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1108" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1109" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1110" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1111" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1112" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1113" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1114" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1115" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1116" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1117" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1118" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1119" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1120" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1121" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1122" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1123" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1124" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1125" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1126" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1127" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1128" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1129" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1130" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1131" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1132" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1133" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1134" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1135" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1136" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1137" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1138" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1139" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1140" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1141" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1142" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1143" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1144" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1145" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1146" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1147" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1148" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1149" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1150" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1151" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1152" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1153" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1154" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1155" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1156" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1157" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1158" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1159" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1160" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1161" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1162" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1163" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1164" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1165" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1166" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1167" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1168" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1169" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1170" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1171" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1172" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1173" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1174" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1175" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1176" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1177" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1178" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1179" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1180" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1181" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1182" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1183" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1184" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1185" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1186" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1187" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1188" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1189" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1190" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1191" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1192" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1193" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1194" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1195" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1196" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1197" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1198" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1199" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1200" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1201" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1202" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1203" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1204" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1205" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1206" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1207" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1208" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1209" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1210" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1211" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1212" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1213" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1214" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1215" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1216" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1217" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1218" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1219" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1220" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1221" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1222" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1223" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1224" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1225" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1226" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1227" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1228" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1229" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1230" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1231" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1232" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1233" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1234" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1235" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1236" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1237" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1238" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1239" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1240" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1241" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1242" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1243" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1244" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1245" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1246" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1247" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1248" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1249" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1250" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1251" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1252" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1253" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1254" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1255" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1256" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1257" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1258" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1259" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1260" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1261" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1262" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1263" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1264" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1265" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1266" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1267" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1268" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1269" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1270" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1271" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1272" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1273" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1274" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1275" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1276" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1277" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1278" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1279" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1280" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1281" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1282" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1283" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1284" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1285" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1286" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1287" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1288" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1289" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1290" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1291" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1292" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1293" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1294" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1295" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1296" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1297" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1298" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1299" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1300" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1301" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1302" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1303" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1304" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1305" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1306" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1307" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1308" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1309" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1310" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1311" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1312" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1313" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1314" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1315" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1316" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1317" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1318" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1319" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1320" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1321" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1322" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1323" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1324" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1325" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1326" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1327" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1328" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1329" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1330" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1331" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1332" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1333" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1334" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1335" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1336" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1337" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1338" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1339" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1340" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1341" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1342" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1343" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1344" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1345" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1346" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1347" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1348" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1349" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1350" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1351" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1352" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1353" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1354" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1355" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1356" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1357" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1358" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1359" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1360" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1361" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1362" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1363" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1364" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1365" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1366" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1367" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1368" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1369" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1370" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1371" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1372" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1373" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1374" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1375" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1376" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1377" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1378" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1379" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1380" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1381" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1382" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1383" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1384" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1385" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1386" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1387" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1388" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1389" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1390" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1391" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1392" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1393" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1394" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1395" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1396" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1397" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1398" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1399" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1400" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1401" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1402" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1403" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="1404" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <autoFilter ref="O1:O1107" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs\TheOtherUs-Edited\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E15F8B-AB10-4E46-92C2-34C85B09D4F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CF7153-B6AF-4389-88A9-9C11FF67B329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="3585" windowWidth="24570" windowHeight="12060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3645" yWindow="3495" windowWidth="24570" windowHeight="12060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="3" r:id="rId1"/>
@@ -2848,8 +2848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1404"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -6255,8 +6255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S83"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs\TheOtherUs-Edited\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91CF7153-B6AF-4389-88A9-9C11FF67B329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BCB327-D8B5-499E-BBDF-54DCB1E70779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3645" yWindow="3495" windowWidth="24570" windowHeight="12060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs\TheOtherUs-Edited\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BCB327-D8B5-499E-BBDF-54DCB1E70779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17D4127-0E8B-4F0F-8118-818B708F61C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3645" yWindow="3495" windowWidth="24570" windowHeight="12060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="1815" windowWidth="24570" windowHeight="12060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="3" r:id="rId1"/>
@@ -1962,17 +1962,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">&lt;align="center"&gt;&lt;b&gt;TheOtherUs-Edited Team:&lt;/b&gt;
-mxyx    Huier-Huang    haoren
-Imp2    FangKuaiYa
-&lt;b&gt;Former TheOtherUs Team Members:&lt;/b&gt;
-SpexGH    Xer    FangKuaiYa    mxyx    Huier-Huang
-Thanks to The Other Roles, The Other Roles CE, The Other Roles GM IA, Town of Us, Stellar Roles!
-Thanks to miniduikboot &amp; GD for hosting modded servers (and so much more)
-</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;size=80%&gt;模组修改：&lt;color=#FFB793&gt;沫夏悠轩&lt;/color&gt; 
 美工: &lt;color=#00FFFFFF&gt;方块&lt;/color&gt;&lt;/size&gt;
 &lt;size=70%&gt;基于TheOtherUs&lt;/size&gt;</t>
@@ -2018,6 +2007,202 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;size=130%&gt;&lt;color=#ff351f&gt;TheOtherUs-Edited&lt;/color&gt;&lt;/size&gt; </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻找尸体</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrackerCorpsesText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlacePortalText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TricksterPlaceText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LightsOutText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TerroristBombText1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TerroristBombText2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepairText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MorphText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>预设</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#CCCCCC&gt;关闭&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00&gt;开启&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵魂可见任务&amp;其他信息</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵魂可见投票</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵魂可以看到职业</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵魂可见附加职业</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示职业总结</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示颜色深浅</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用模组光标</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>启用模组音效</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在地图上显示管道</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>收集Debug日志</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghosts See Tasks &amp; Other Info</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghosts Can See Votes</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghosts Can See Roles</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ghosts Can Additionally See Modifier</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Show Role Summary</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Show Lighter / Darker</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Better Cursor</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable Sound Effects</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GhostsSeeInformationText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GhostsSeeVotesText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GhostsSeeRolesText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>GhostsSeeModifierText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowRoleSummaryText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowLighterDarkerText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ToggleCursorText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnableSoundEffectsText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowVentsOnMapText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnableDebugLogModeText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable Debug Log Mode</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>模组选项</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mod Options...</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TORMapOptionsButtonText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TORMapOptionsTitleText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>More Options...</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵媒信息: 有人死亡</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seer Info: Someone Died</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>seerShowInfoText</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2030,208 +2215,19 @@
 CN：沫夏悠轩
 &lt;b&gt;GitHub贡献者:&lt;/b&gt;
 沫夏悠轩    天寸梦初    Imp11
-&lt;b&gt;前 TheOtherUs 开发者:&lt;/b&gt;
-SpexGH    Xer    方块    沫夏悠轩    天寸梦初
 本模组使用了部分[https://github.com/dabao40/TheOtherRolesGMIA]TheOtherRolesGMIA[]的代码，感谢Imp11的支持！
-Thanks to The Other Roles, The Other Roles CE, The Other Roles GM IA, Town of Us, Stellar Roles!
+Thanks to The Other Roles, The Other Roles CE, The Other Roles GM IA, Town of Us, Stellar Roles , SuperNewRoles!
 Thanks to miniduikboot &amp; GD for hosting modded servers (and so much more)
 </t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>寻找尸体</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TrackerCorpsesText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>PlacePortalText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TricksterPlaceText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>LightsOutText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TerroristBombText1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TerroristBombText2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>RepairText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>MorphText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>预设</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#CCCCCC&gt;关闭&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#FFFF00&gt;开启&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵魂可见任务&amp;其他信息</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵魂可见投票</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵魂可以看到职业</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵魂可见附加职业</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示职业总结</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>显示颜色深浅</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>启用模组光标</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>启用模组音效</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>在地图上显示管道</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>收集Debug日志</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ghosts See Tasks &amp; Other Info</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ghosts Can See Votes</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ghosts Can See Roles</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ghosts Can Additionally See Modifier</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Show Role Summary</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Show Lighter / Darker</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Better Cursor</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enable Sound Effects</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>GhostsSeeInformationText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>GhostsSeeVotesText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>GhostsSeeRolesText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>GhostsSeeModifierText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShowRoleSummaryText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShowLighterDarkerText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ToggleCursorText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnableSoundEffectsText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShowVentsOnMapText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnableDebugLogModeText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enable Debug Log Mode</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>模组选项</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mod Options...</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TORMapOptionsButtonText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>TORMapOptionsTitleText</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>More Options...</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵媒信息: 有人死亡</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seer Info: Someone Died</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>seerShowInfoText</t>
+    <t xml:space="preserve">&lt;align="center"&gt;&lt;b&gt;TheOtherUs-Edited Team:&lt;/b&gt;
+mxyx    Huier-Huang    haoren
+Imp2    FangKuaiYa
+Thanks to The Other Roles, The Other Roles CE, The Other Roles GM IA, Town of Us, Stellar Roles, SuperNewRoles!
+Thanks to miniduikboot &amp; GD for hosting modded servers (and so much more)
+</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2848,8 +2844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1404"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -2932,10 +2928,10 @@
         <v>141</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1">
@@ -2943,10 +2939,10 @@
         <v>143</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="28.5">
@@ -3012,7 +3008,7 @@
         <v>183</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="42.75">
@@ -3023,7 +3019,7 @@
         <v>301</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="42.75">
@@ -3042,7 +3038,7 @@
         <v>526</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>527</v>
+        <v>588</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -3057,7 +3053,7 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8" t="s">
-        <v>539</v>
+        <v>587</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1">
@@ -3065,145 +3061,145 @@
     </row>
     <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3443,7 +3439,7 @@
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3466,7 +3462,7 @@
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -3491,7 +3487,7 @@
       </c>
       <c r="N42" s="7"/>
       <c r="O42" s="7" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4341,7 +4337,7 @@
         <v>513</v>
       </c>
       <c r="O115" s="7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4352,7 +4348,7 @@
         <v>514</v>
       </c>
       <c r="O116" s="7" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="117" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4363,7 +4359,7 @@
         <v>515</v>
       </c>
       <c r="O117" s="10" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="118" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4374,7 +4370,7 @@
         <v>516</v>
       </c>
       <c r="O118" s="7" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="119" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4385,7 +4381,7 @@
         <v>517</v>
       </c>
       <c r="O119" s="7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="120" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4396,7 +4392,7 @@
         <v>518</v>
       </c>
       <c r="O120" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="121" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -4407,7 +4403,7 @@
         <v>519</v>
       </c>
       <c r="O121" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="122" spans="1:15" ht="20.100000000000001" customHeight="1">
@@ -6611,7 +6607,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>21</v>
@@ -6636,7 +6632,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>21</v>
@@ -6686,7 +6682,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>21</v>
@@ -6711,7 +6707,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>21</v>
@@ -6936,7 +6932,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>21</v>
@@ -6954,7 +6950,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
@@ -7662,7 +7658,7 @@
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>21</v>
@@ -7673,7 +7669,7 @@
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="1" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>21</v>
@@ -7684,7 +7680,7 @@
     </row>
     <row r="81" spans="1:19">
       <c r="A81" s="1" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>21</v>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs\TheOtherUs-Edited\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17D4127-0E8B-4F0F-8118-818B708F61C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD56550-8824-4068-8C67-0BF14FC98B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="1815" windowWidth="24570" windowHeight="12060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Button Text" sheetId="8" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Text!$O$1:$O$1107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Text!$O$1:$O$1117</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="611">
   <si>
     <t>English</t>
   </si>
@@ -350,9 +350,6 @@
   </si>
   <si>
     <t>吞噬</t>
-  </si>
-  <si>
-    <t>MediumText</t>
   </si>
   <si>
     <t>通灵</t>
@@ -1572,9 +1569,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>addAirShipVents</t>
-  </si>
-  <si>
     <t>添加新管道\n (会议室-配电室)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1667,18 +1661,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Off</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>ON</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>On</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>presetSelection</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1783,9 +1769,6 @@
   <si>
     <t>No Cameras First Round</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Show Button Target</t>
   </si>
   <si>
     <t>Impostor Vision Ignores Night Vision Cams</t>
@@ -2228,6 +2211,114 @@
 Thanks to The Other Roles, The Other Roles CE, The Other Roles GM IA, Town of Us, Stellar Roles, SuperNewRoles!
 Thanks to miniduikboot &amp; GD for hosting modded servers (and so much more)
 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MediumText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Show Vents On Map</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Show Button Target</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>enableMapOptions</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map Options</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图设置</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add Vitals</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add New Vents</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>addAirShipVents</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsReactorDurationSetting</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整紧急破坏持续时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkeldLifeSuppTimeLimit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkeldReactorTimeLimit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiraLifeSuppTimeLimit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiraReactorTimeLimit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PolusReactorTimeLimit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirshipReactorTimeLimit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FungleReactorTimeLimit</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Skeld 核反应堆破坏持续时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Skeld 氧气破坏持续时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mira 核反应堆破坏持续时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mira 氧气破坏持续时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Polus 抗震器破坏持续时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>AirShip 撞毁路线破坏持续时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Fungle 核反应堆破坏持续时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00&gt;On&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#CCCCCC&gt;Off&lt;/color&gt;</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2842,13 +2933,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1404"/>
+  <dimension ref="A1:Q1414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="24.95" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="40.375" style="6" customWidth="1"/>
     <col min="2" max="2" width="71.5" style="6" customWidth="1"/>
@@ -2859,9 +2950,9 @@
     <col min="16" max="16384" width="7.875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:17" ht="24.95" customHeight="1">
       <c r="B1" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -2909,12 +3000,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:17" ht="24.95" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>17</v>
@@ -2923,81 +3014,81 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:17" ht="24.95" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="20.100000000000001" customHeight="1">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="24.95" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="28.5">
       <c r="A5" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="O5" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="O5" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="6" spans="1:17" ht="24.95" customHeight="1">
       <c r="A6" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="24.95" customHeight="1">
+      <c r="A7" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="O6" s="6" t="s">
+      <c r="B7" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="O7" s="6" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="6" t="s">
+    <row r="8" spans="1:17" ht="24.95" customHeight="1">
+      <c r="A8" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="O7" s="6" t="s">
+      <c r="B8" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="O8" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:17" ht="24.95" customHeight="1">
       <c r="A9" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="O9" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="42.75">
@@ -3005,40 +3096,40 @@
         <v>19</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="42.75">
       <c r="A11" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="42.75">
       <c r="A12" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="176.25" customHeight="1">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="313.5">
       <c r="A13" s="7" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -3053,167 +3144,167 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="20.100000000000001" customHeight="1">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="24.95" customHeight="1">
       <c r="B14" s="9"/>
     </row>
-    <row r="15" spans="1:17" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:17" ht="24.95" customHeight="1">
       <c r="A15" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="24.95" customHeight="1">
+      <c r="A16" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A17" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A18" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A19" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A20" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A21" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A22" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A23" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A24" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A25" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A26" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A28" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B28" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="O15" s="8" t="s">
+      <c r="O28" s="8" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="7" t="s">
-        <v>582</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>583</v>
-      </c>
-      <c r="O16" s="8" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="O17" s="8" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>569</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="O18" s="8" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="O19" s="8" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="O20" s="8" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="O21" s="8" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>565</v>
-      </c>
-      <c r="O22" s="8" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>566</v>
-      </c>
-      <c r="O23" s="8" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="7" t="s">
-        <v>575</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="O24" s="8" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="O25" s="8" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>578</v>
-      </c>
-      <c r="O26" s="8" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>585</v>
-      </c>
-      <c r="O28" s="8" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="1:15" ht="24.95" customHeight="1">
       <c r="A29" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="O29" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="O29" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="30" spans="1:15" ht="24.95" customHeight="1">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -3230,12 +3321,12 @@
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
     </row>
-    <row r="31" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="1:15" ht="24.95" customHeight="1">
       <c r="A31" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B31" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -3248,19 +3339,19 @@
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
       <c r="M31" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N31" s="7"/>
       <c r="O31" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A32" s="7" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="7" t="s">
+      <c r="B32" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -3273,19 +3364,19 @@
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
       <c r="M32" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N32" s="7"/>
       <c r="O32" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A33" s="7" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="7" t="s">
+      <c r="B33" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -3298,19 +3389,19 @@
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
       <c r="M33" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N33" s="7"/>
       <c r="O33" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A34" s="7" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="7" t="s">
+      <c r="B34" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -3325,15 +3416,15 @@
       <c r="M34" s="7"/>
       <c r="N34" s="7"/>
       <c r="O34" s="7" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="20.100000000000001" customHeight="1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="24.95" customHeight="1">
       <c r="A35" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -3348,15 +3439,15 @@
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="20.100000000000001" customHeight="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="24.95" customHeight="1">
       <c r="A36" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -3371,18 +3462,18 @@
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O37" s="6"/>
+    </row>
+    <row r="38" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A38" s="7" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O37" s="6"/>
-    </row>
-    <row r="38" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="7" t="s">
+      <c r="B38" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -3395,14 +3486,14 @@
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
       <c r="M38" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="N38" s="7"/>
       <c r="O38" s="7" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="20.100000000000001" customHeight="1">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="24.95" customHeight="1">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -3419,12 +3510,12 @@
       <c r="N39" s="7"/>
       <c r="O39" s="7"/>
     </row>
-    <row r="40" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="1:15" ht="24.95" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>451</v>
+        <v>610</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -3439,15 +3530,15 @@
       <c r="M40" s="7"/>
       <c r="N40" s="7"/>
       <c r="O40" s="7" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="20.100000000000001" customHeight="1">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="24.95" customHeight="1">
       <c r="A41" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>453</v>
+        <v>609</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -3462,15 +3553,15 @@
       <c r="M41" s="7"/>
       <c r="N41" s="7"/>
       <c r="O41" s="7" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="20.100000000000001" customHeight="1">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="24.95" customHeight="1">
       <c r="A42" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -3483,41 +3574,41 @@
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
       <c r="M42" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="N42" s="7"/>
       <c r="O42" s="7" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="20.100000000000001" customHeight="1">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="24.95" customHeight="1">
       <c r="A43" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="O43" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="O43" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="44" spans="1:15" ht="24.95" customHeight="1">
       <c r="A44" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A45" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B45" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="O44" s="7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -3532,15 +3623,15 @@
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
       <c r="O45" s="7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="20.100000000000001" customHeight="1">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="24.95" customHeight="1">
       <c r="A46" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -3555,15 +3646,15 @@
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A47" s="7" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="7" t="s">
+      <c r="B47" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -3578,15 +3669,15 @@
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
       <c r="O47" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A48" s="7" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="7" t="s">
+      <c r="B48" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -3601,15 +3692,15 @@
       <c r="M48" s="7"/>
       <c r="N48" s="7"/>
       <c r="O48" s="7" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="20.100000000000001" customHeight="1">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="24.95" customHeight="1">
       <c r="A49" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -3624,15 +3715,15 @@
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
       <c r="O49" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="20.100000000000001" customHeight="1">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="24.95" customHeight="1">
       <c r="A50" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -3647,15 +3738,15 @@
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
       <c r="O50" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="20.100000000000001" customHeight="1">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="24.95" customHeight="1">
       <c r="A51" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -3670,15 +3761,15 @@
       <c r="M51" s="7"/>
       <c r="N51" s="7"/>
       <c r="O51" s="7" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="20.100000000000001" customHeight="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="24.95" customHeight="1">
       <c r="A52" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -3693,2181 +3784,4695 @@
       <c r="M52" s="7"/>
       <c r="N52" s="7"/>
       <c r="O52" s="7" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="20.100000000000001" customHeight="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="24.95" customHeight="1">
       <c r="O53" s="6"/>
     </row>
-    <row r="54" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="54" spans="1:15" ht="24.95" customHeight="1">
       <c r="A54" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="O54" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A55" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="O55" s="7" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A56" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="O56" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="O54" s="7" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A55" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="O55" s="7" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A56" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="B56" s="7" t="s">
+    </row>
+    <row r="57" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A57" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="O57" s="7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A58" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="O58" s="7" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A59" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="O59" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A60" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="O60" s="6" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A61" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="O61" s="6" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A62" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="O62" s="6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A63" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="O63" s="7" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A64" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="O64" s="7" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A65" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="O65" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O66" s="6"/>
+    </row>
+    <row r="67" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A67" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="O56" s="7" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A57" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="O57" s="7" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A58" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="O58" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A59" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="O59" s="7" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A60" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="O60" s="6" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A61" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="O61" s="6" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A62" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="O62" s="6" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A63" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="O63" s="7" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A64" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="O64" s="7" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A65" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="O65" s="7" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O66" s="6"/>
-    </row>
-    <row r="67" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A67" s="7" t="s">
-        <v>352</v>
-      </c>
       <c r="O67" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A68" s="7" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A68" s="7" t="s">
+      <c r="B68" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="O68" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="B68" s="7" t="s">
+    </row>
+    <row r="69" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A69" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="O69" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A70" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="O70" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A71" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="O71" s="7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A72" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="O72" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A73" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="B73" s="7" t="s">
         <v>484</v>
       </c>
-      <c r="O68" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A69" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="B69" s="7" t="s">
+      <c r="O73" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A74" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="B74" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="O69" s="7" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A70" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="B70" s="7" t="s">
+      <c r="O74" s="6" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A75" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="O75" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A76" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="O76" s="7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A77" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="O77" s="7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A78" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="O78" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A79" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="O79" s="7" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A80" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="O80" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A81" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="O81" s="7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A82" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="B82" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="O70" s="7" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A71" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>488</v>
-      </c>
-      <c r="O71" s="7" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A72" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="O72" s="7" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A73" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="O73" s="6" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A74" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>490</v>
-      </c>
-      <c r="O74" s="6" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A75" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>481</v>
-      </c>
-      <c r="O75" s="7" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A76" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>492</v>
-      </c>
-      <c r="O76" s="7" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A77" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>497</v>
-      </c>
-      <c r="O77" s="7" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A78" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="O78" s="7" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A79" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="B79" s="7" t="s">
+      <c r="O82" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A83" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="O83" s="7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A84" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="O84" s="7" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A85" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="B85" s="7" t="s">
         <v>493</v>
       </c>
-      <c r="O79" s="7" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A80" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="B80" s="7" t="s">
+      <c r="O85" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A86" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B86" s="7" t="s">
         <v>494</v>
       </c>
-      <c r="O80" s="7" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A81" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="O81" s="7" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A82" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="O82" s="7" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A83" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="O83" s="7" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A84" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>498</v>
-      </c>
-      <c r="O84" s="7" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A85" s="7" t="s">
+      <c r="O86" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="B85" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="O85" s="7" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A86" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="O86" s="7" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="87" spans="1:15" ht="24.95" customHeight="1">
       <c r="A87" s="7" t="s">
-        <v>407</v>
+        <v>593</v>
       </c>
       <c r="B87" s="7"/>
       <c r="O87" s="7" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" ht="20.100000000000001" customHeight="1">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="24.95" customHeight="1">
       <c r="A88" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>410</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="B88" s="7"/>
       <c r="O88" s="7" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" ht="20.100000000000001" customHeight="1">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="24.95" customHeight="1">
       <c r="A89" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>461</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="B89" s="7"/>
       <c r="O89" s="7" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" ht="20.100000000000001" customHeight="1">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="24.95" customHeight="1">
       <c r="A90" s="7" t="s">
-        <v>414</v>
+        <v>597</v>
       </c>
       <c r="B90" s="7"/>
       <c r="O90" s="7" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A91" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c r="O91" s="7" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A92" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c r="O92" s="7" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A93" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c r="O93" s="7" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A94" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c r="O94" s="7" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A95" s="7"/>
+      <c r="B95" s="7"/>
+      <c r="O95" s="7"/>
+    </row>
+    <row r="96" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A96" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="O96" s="7" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A97" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="O97" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A98" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="O98" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A99" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="O99" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A100" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="O100" s="7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A101" s="7" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A91" s="7" t="s">
+      <c r="B101" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="O101" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="B91" s="7" t="s">
+    </row>
+    <row r="102" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A102" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="O102" s="7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A103" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="O103" s="7" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A104" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="O104" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A105" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="O105" s="7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A106" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="O106" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A107" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="O107" s="7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A108" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="O108" s="7" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A109" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="O109" s="7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A110" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="O110" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A111" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="O111" s="7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A112" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="O112" s="7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A113" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="O113" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A114" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="O114" s="8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A115" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="O91" s="7" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A92" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="B92" s="7" t="s">
+      <c r="B115" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="O115" s="7" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A116" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="O92" s="7" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A93" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="B93" s="7" t="s">
+      <c r="B116" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="O116" s="7" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A117" s="7" t="s">
         <v>464</v>
       </c>
-      <c r="O93" s="7" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A94" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="O94" s="7" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A95" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="O95" s="7" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A96" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="O96" s="7" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A97" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="O97" s="7" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A98" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="O98" s="7" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A99" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="O99" s="7" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A100" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="B100" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="O100" s="7" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A101" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="B101" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="O101" s="7" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A102" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="O102" s="7" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A103" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="O103" s="7" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A104" s="7" t="s">
+      <c r="B117" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="O117" s="7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A118" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B118" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="O118" s="7" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A119" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="B119" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="O104" s="8" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A105" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="O105" s="7" t="s">
+      <c r="O119" s="7" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A106" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>479</v>
-      </c>
-      <c r="O106" s="7" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A107" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="O107" s="7" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A108" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="O108" s="7" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A109" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>482</v>
-      </c>
-      <c r="O109" s="7" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A110" s="7" t="s">
+    <row r="120" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A120" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="O120" s="7" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A121" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="B121" s="7" t="s">
         <v>500</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="O121" s="7" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A123" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="O123" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A124" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="O124" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A125" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="O125" s="7" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A126" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="O126" s="7" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A127" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="O127" s="10" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A128" s="7" t="s">
         <v>504</v>
       </c>
-      <c r="O110" s="7" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A111" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="B111" s="7" t="s">
+      <c r="B128" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="O128" s="7" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A129" s="6" t="s">
         <v>505</v>
       </c>
-      <c r="O111" s="7" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A113" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="O113" s="7" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A114" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="O114" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A115" s="6" t="s">
+      <c r="B129" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="O129" s="7" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A130" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="B130" s="7" t="s">
         <v>513</v>
       </c>
-      <c r="O115" s="7" t="s">
+      <c r="O130" s="10" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A116" s="6" t="s">
+    <row r="131" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A131" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B131" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="O116" s="7" t="s">
+      <c r="O131" s="10" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A117" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="B117" s="7" t="s">
+    <row r="132" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O132" s="10"/>
+    </row>
+    <row r="133" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A133" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="O117" s="10" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A118" s="7" t="s">
-        <v>509</v>
-      </c>
-      <c r="B118" s="7" t="s">
+      <c r="B133" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="O133" s="10" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A134" s="7" t="s">
         <v>516</v>
       </c>
-      <c r="O118" s="7" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A119" s="6" t="s">
-        <v>510</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="O119" s="7" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A120" s="6" t="s">
-        <v>511</v>
-      </c>
-      <c r="B120" s="7" t="s">
+      <c r="B134" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="O134" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="O120" s="10" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A121" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="O121" s="10" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O122" s="10"/>
-    </row>
-    <row r="123" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A123" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>524</v>
-      </c>
-      <c r="O123" s="10" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A124" s="7" t="s">
-        <v>521</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>525</v>
-      </c>
-      <c r="O124" s="10" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O125" s="10"/>
-    </row>
-    <row r="126" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O126" s="10"/>
-    </row>
-    <row r="127" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O127" s="10"/>
-    </row>
-    <row r="128" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O128" s="6"/>
-    </row>
-    <row r="129" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O129" s="6"/>
-    </row>
-    <row r="130" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O130" s="6"/>
-    </row>
-    <row r="131" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O131" s="6"/>
-    </row>
-    <row r="132" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O132" s="6"/>
-    </row>
-    <row r="133" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O133" s="6"/>
-    </row>
-    <row r="134" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O134" s="6"/>
-    </row>
-    <row r="135" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O135" s="6"/>
-    </row>
-    <row r="136" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O136" s="6"/>
-    </row>
-    <row r="137" spans="15:15" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="135" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O135" s="10"/>
+    </row>
+    <row r="136" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O136" s="10"/>
+    </row>
+    <row r="137" spans="1:15" ht="24.95" customHeight="1">
       <c r="O137" s="10"/>
     </row>
-    <row r="138" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O138" s="10"/>
-    </row>
-    <row r="139" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O139" s="10"/>
-    </row>
-    <row r="140" spans="15:15" ht="20.100000000000001" customHeight="1">
+    <row r="138" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O138" s="6"/>
+    </row>
+    <row r="139" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O139" s="6"/>
+    </row>
+    <row r="140" spans="1:15" ht="24.95" customHeight="1">
       <c r="O140" s="6"/>
     </row>
-    <row r="141" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O141" s="10"/>
-    </row>
-    <row r="143" spans="15:15" ht="20.100000000000001" customHeight="1">
-      <c r="O143" s="10"/>
-    </row>
-    <row r="144" spans="15:15" ht="20.100000000000001" customHeight="1">
+    <row r="141" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O141" s="6"/>
+    </row>
+    <row r="142" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O142" s="6"/>
+    </row>
+    <row r="143" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O143" s="6"/>
+    </row>
+    <row r="144" spans="1:15" ht="24.95" customHeight="1">
       <c r="O144" s="6"/>
     </row>
-    <row r="145" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="145" spans="15:15" ht="24.95" customHeight="1">
       <c r="O145" s="6"/>
     </row>
-    <row r="146" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O146" s="10"/>
-    </row>
-    <row r="147" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="146" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O146" s="6"/>
+    </row>
+    <row r="147" spans="15:15" ht="24.95" customHeight="1">
       <c r="O147" s="10"/>
     </row>
-    <row r="148" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O148" s="6"/>
-    </row>
-    <row r="149" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="148" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O148" s="10"/>
+    </row>
+    <row r="149" spans="15:15" ht="24.95" customHeight="1">
       <c r="O149" s="10"/>
     </row>
-    <row r="150" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="150" spans="15:15" ht="24.95" customHeight="1">
       <c r="O150" s="6"/>
     </row>
-    <row r="151" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O151" s="6"/>
-    </row>
-    <row r="152" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O152" s="10"/>
-    </row>
-    <row r="153" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O153" s="6"/>
-    </row>
-    <row r="154" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O154" s="10"/>
-    </row>
-    <row r="155" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A155" s="7" t="s">
+    <row r="151" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O151" s="10"/>
+    </row>
+    <row r="153" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O153" s="10"/>
+    </row>
+    <row r="154" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O154" s="6"/>
+    </row>
+    <row r="155" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O155" s="6"/>
+    </row>
+    <row r="156" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O156" s="10"/>
+    </row>
+    <row r="157" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O157" s="10"/>
+    </row>
+    <row r="158" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O158" s="6"/>
+    </row>
+    <row r="159" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O159" s="10"/>
+    </row>
+    <row r="160" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O160" s="6"/>
+    </row>
+    <row r="161" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O161" s="6"/>
+    </row>
+    <row r="162" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O162" s="10"/>
+    </row>
+    <row r="163" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O163" s="6"/>
+    </row>
+    <row r="164" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O164" s="10"/>
+    </row>
+    <row r="165" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A165" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="O165" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="B155" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="O155" s="7" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="156" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O156" s="10"/>
-    </row>
-    <row r="157" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O157" s="10"/>
-    </row>
-    <row r="158" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O158" s="6"/>
-    </row>
-    <row r="159" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O159" s="6"/>
-    </row>
-    <row r="160" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O160" s="6"/>
-    </row>
-    <row r="161" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B161" s="9"/>
-      <c r="M161" s="9"/>
-    </row>
-    <row r="162" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="O162" s="6"/>
-    </row>
-    <row r="163" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B163" s="9"/>
-      <c r="M163" s="9"/>
-    </row>
-    <row r="164" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="O164" s="6"/>
-    </row>
-    <row r="165" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="O165" s="6"/>
-    </row>
-    <row r="166" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="O166" s="6"/>
-    </row>
-    <row r="167" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="O167" s="6"/>
-    </row>
-    <row r="168" spans="2:15" ht="20.100000000000001" customHeight="1">
+    </row>
+    <row r="166" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O166" s="10"/>
+    </row>
+    <row r="167" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O167" s="10"/>
+    </row>
+    <row r="168" spans="1:15" ht="24.95" customHeight="1">
       <c r="O168" s="6"/>
     </row>
-    <row r="169" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="169" spans="1:15" ht="24.95" customHeight="1">
       <c r="O169" s="6"/>
     </row>
-    <row r="170" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="170" spans="1:15" ht="24.95" customHeight="1">
       <c r="O170" s="6"/>
     </row>
-    <row r="171" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="O171" s="6"/>
-    </row>
-    <row r="172" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="171" spans="1:15" ht="24.95" customHeight="1">
+      <c r="B171" s="9"/>
+      <c r="M171" s="9"/>
+    </row>
+    <row r="172" spans="1:15" ht="24.95" customHeight="1">
       <c r="O172" s="6"/>
     </row>
-    <row r="173" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="O173" s="6"/>
-    </row>
-    <row r="174" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="173" spans="1:15" ht="24.95" customHeight="1">
+      <c r="B173" s="9"/>
+      <c r="M173" s="9"/>
+    </row>
+    <row r="174" spans="1:15" ht="24.95" customHeight="1">
       <c r="O174" s="6"/>
     </row>
-    <row r="175" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="175" spans="1:15" ht="24.95" customHeight="1">
       <c r="O175" s="6"/>
     </row>
-    <row r="176" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="176" spans="1:15" ht="24.95" customHeight="1">
       <c r="O176" s="6"/>
     </row>
-    <row r="177" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="178" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="179" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="180" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="181" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="182" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="183" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="184" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="185" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="186" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="187" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="188" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="189" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="190" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="191" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="192" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="193" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="194" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="195" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="196" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="197" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="198" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="199" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="200" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="201" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="202" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="203" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="204" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="205" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="206" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="207" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="208" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="209" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="210" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="211" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="212" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="213" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="214" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="215" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="216" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="217" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="218" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="219" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="220" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="221" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="222" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="223" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="224" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="225" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="226" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="227" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="228" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="229" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="230" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="231" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="232" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="233" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="234" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="235" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="236" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="237" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="238" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="239" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="240" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="241" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="242" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="243" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="244" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="245" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="246" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="247" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="248" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="249" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="250" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="251" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="252" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="253" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="254" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="255" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="256" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="257" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="258" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="259" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="260" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="261" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="262" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="263" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="264" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="265" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="266" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="267" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="268" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="269" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="270" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="271" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="272" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="273" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="274" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="275" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="276" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="277" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="278" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="279" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="280" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="281" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="282" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="283" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="284" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="285" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="286" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="287" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="288" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="289" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="290" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="291" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="292" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="293" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="294" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="295" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="296" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="297" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="298" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="299" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="300" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="301" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="302" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="303" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="304" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="305" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="306" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="307" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="308" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="309" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="310" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="311" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="312" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="313" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="314" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="315" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="316" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="317" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="318" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="319" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="320" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="321" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="322" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="323" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="324" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="325" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="326" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="327" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="328" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="329" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="330" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="331" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="332" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="333" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="334" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="335" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="336" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="337" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="338" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="339" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="340" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="341" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="342" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="343" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="344" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="345" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="346" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="347" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="348" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="349" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="350" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="351" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="352" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="353" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="354" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="355" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="356" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="357" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="358" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="359" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="360" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="361" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="362" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="363" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="364" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="365" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="366" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="367" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="368" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="369" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="370" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="371" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="372" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="373" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="374" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="375" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="376" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="377" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="378" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="379" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="380" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="381" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="382" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="383" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="384" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="385" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="386" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="387" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="388" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="389" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="390" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="391" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="392" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="393" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="394" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="395" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="396" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="397" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="398" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="399" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="400" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="401" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="402" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="403" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="404" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="405" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="406" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="407" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="408" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="409" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="410" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="411" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="412" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="413" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="414" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="415" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="416" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="417" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="418" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="419" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="420" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="421" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="422" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="423" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="424" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="425" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="426" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="427" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="428" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="429" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="430" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="431" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="432" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="433" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="434" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="435" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="436" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="437" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="438" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="439" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="440" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="441" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="442" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="443" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="444" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="445" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="446" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="447" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="448" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="449" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="450" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="451" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="452" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="453" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="454" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="455" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="456" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="457" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="458" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="459" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="460" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="461" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="462" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="463" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="464" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="465" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="466" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="467" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="468" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="469" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="470" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="471" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="472" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="473" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="474" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="475" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="476" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="477" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="478" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="479" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="480" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="481" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="482" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="483" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="484" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="485" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="486" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="487" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="488" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="489" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="490" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="491" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="492" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="493" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="494" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="495" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="496" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="497" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="498" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="499" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="500" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="501" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="502" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="503" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="504" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="506" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="507" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="508" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="509" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="510" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="511" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="512" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="513" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="514" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="515" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="516" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="517" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="518" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="519" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="520" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="521" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="522" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="523" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="524" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="525" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="526" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="527" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="528" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="529" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="530" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="531" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="532" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="533" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="534" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="535" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="536" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="537" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="538" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="539" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="540" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="541" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="542" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="543" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="544" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="545" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="546" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="547" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="548" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="549" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="550" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="551" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="552" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="553" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="554" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="555" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="556" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="557" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="558" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="559" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="560" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="561" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="562" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="563" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="564" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="565" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="566" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="567" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="568" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="569" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="570" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="571" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="572" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="573" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="574" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="575" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="576" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="577" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="578" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="579" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="580" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="581" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="582" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="583" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="584" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="585" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="586" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="587" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="588" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="589" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="590" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="591" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="592" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="593" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="594" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="595" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="596" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="597" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="598" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="599" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="600" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="601" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="602" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="603" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="604" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="605" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="606" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="607" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="608" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="609" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="610" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="611" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="612" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="613" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="614" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="615" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="616" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="617" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="618" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="619" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="620" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="621" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="622" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="623" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="624" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="625" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="626" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="627" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="628" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="629" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="630" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="631" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="632" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="633" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="634" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="635" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="636" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="637" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="638" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="639" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="640" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="641" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="642" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="643" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="644" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="645" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="646" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="647" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="648" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="649" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="650" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="651" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="652" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="653" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="654" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="655" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="656" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="657" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="658" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="659" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="660" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="661" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="662" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="663" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="664" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="665" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="666" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="667" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="668" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="669" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="670" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="671" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="672" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="673" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="674" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="675" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="676" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="677" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="678" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="679" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="680" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="681" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="682" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="683" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="684" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="685" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="686" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="687" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="688" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="689" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="690" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="691" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="692" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="693" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="694" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="695" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="696" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="697" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="698" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="699" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="700" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="701" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="702" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="703" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="704" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="705" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="706" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="707" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="708" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="709" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="710" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="711" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="712" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="713" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="714" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="715" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="716" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="717" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="718" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="719" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="720" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="721" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="722" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="723" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="724" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="725" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="726" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="727" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="728" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="729" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="730" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="731" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="732" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="733" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="734" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="735" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="736" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="737" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="738" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="739" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="740" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="741" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="742" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="743" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="744" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="745" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="746" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="747" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="748" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="749" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="750" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="751" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="752" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="753" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="754" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="755" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="756" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="757" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="758" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="759" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="760" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="761" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="762" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="763" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="764" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="765" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="766" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="767" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="768" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="769" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="770" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="771" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="772" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="773" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="774" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="775" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="776" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="777" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="778" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="779" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="780" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="781" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="782" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="783" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="784" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="785" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="786" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="787" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="788" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="789" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="790" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="791" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="792" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="793" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="794" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="795" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="796" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="797" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="798" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="799" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="800" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="801" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="802" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="803" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="804" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="805" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="806" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="807" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="808" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="809" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="810" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="811" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="812" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="813" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="814" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="815" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="816" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="817" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="818" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="819" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="820" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="821" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="822" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="823" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="824" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="825" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="826" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="827" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="828" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="829" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="830" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="831" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="832" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="833" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="834" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="835" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="836" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="837" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="838" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="839" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="840" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="841" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="842" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="843" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="844" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="845" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="846" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="847" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="848" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="849" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="850" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="851" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="852" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="853" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="854" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="855" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="856" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="857" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="858" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="859" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="860" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="861" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="862" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="863" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="864" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="865" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="866" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="867" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="868" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="869" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="870" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="871" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="872" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="873" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="874" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="875" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="876" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="877" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="878" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="879" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="880" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="881" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="882" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="883" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="884" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="885" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="886" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="887" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="888" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="889" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="890" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="891" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="892" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="893" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="894" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="895" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="896" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="897" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="177" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O177" s="6"/>
+    </row>
+    <row r="178" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O178" s="6"/>
+    </row>
+    <row r="179" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O179" s="6"/>
+    </row>
+    <row r="180" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O180" s="6"/>
+    </row>
+    <row r="181" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O181" s="6"/>
+    </row>
+    <row r="182" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O182" s="6"/>
+    </row>
+    <row r="183" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O183" s="6"/>
+    </row>
+    <row r="184" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O184" s="6"/>
+    </row>
+    <row r="185" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O185" s="6"/>
+    </row>
+    <row r="186" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O186" s="6"/>
+    </row>
+    <row r="187" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O187" s="6"/>
+    </row>
+    <row r="188" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O188" s="6"/>
+    </row>
+    <row r="189" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O189" s="6"/>
+    </row>
+    <row r="190" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O190" s="6"/>
+    </row>
+    <row r="191" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O191" s="6"/>
+    </row>
+    <row r="192" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O192" s="6"/>
+    </row>
+    <row r="193" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O193" s="6"/>
+    </row>
+    <row r="194" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O194" s="6"/>
+    </row>
+    <row r="195" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O195" s="6"/>
+    </row>
+    <row r="196" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O196" s="6"/>
+    </row>
+    <row r="197" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O197" s="6"/>
+    </row>
+    <row r="198" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O198" s="6"/>
+    </row>
+    <row r="199" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O199" s="6"/>
+    </row>
+    <row r="200" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O200" s="6"/>
+    </row>
+    <row r="201" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O201" s="6"/>
+    </row>
+    <row r="202" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O202" s="6"/>
+    </row>
+    <row r="203" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O203" s="6"/>
+    </row>
+    <row r="204" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O204" s="6"/>
+    </row>
+    <row r="205" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O205" s="6"/>
+    </row>
+    <row r="206" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O206" s="6"/>
+    </row>
+    <row r="207" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O207" s="6"/>
+    </row>
+    <row r="208" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O208" s="6"/>
+    </row>
+    <row r="209" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O209" s="6"/>
+    </row>
+    <row r="210" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O210" s="6"/>
+    </row>
+    <row r="211" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O211" s="6"/>
+    </row>
+    <row r="212" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O212" s="6"/>
+    </row>
+    <row r="213" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O213" s="6"/>
+    </row>
+    <row r="214" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O214" s="6"/>
+    </row>
+    <row r="215" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O215" s="6"/>
+    </row>
+    <row r="216" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O216" s="6"/>
+    </row>
+    <row r="217" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O217" s="6"/>
+    </row>
+    <row r="218" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O218" s="6"/>
+    </row>
+    <row r="219" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O219" s="6"/>
+    </row>
+    <row r="220" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O220" s="6"/>
+    </row>
+    <row r="221" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O221" s="6"/>
+    </row>
+    <row r="222" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O222" s="6"/>
+    </row>
+    <row r="223" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O223" s="6"/>
+    </row>
+    <row r="224" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O224" s="6"/>
+    </row>
+    <row r="225" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O225" s="6"/>
+    </row>
+    <row r="226" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O226" s="6"/>
+    </row>
+    <row r="227" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O227" s="6"/>
+    </row>
+    <row r="228" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O228" s="6"/>
+    </row>
+    <row r="229" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O229" s="6"/>
+    </row>
+    <row r="230" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O230" s="6"/>
+    </row>
+    <row r="231" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O231" s="6"/>
+    </row>
+    <row r="232" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O232" s="6"/>
+    </row>
+    <row r="233" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O233" s="6"/>
+    </row>
+    <row r="234" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O234" s="6"/>
+    </row>
+    <row r="235" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O235" s="6"/>
+    </row>
+    <row r="236" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O236" s="6"/>
+    </row>
+    <row r="237" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O237" s="6"/>
+    </row>
+    <row r="238" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O238" s="6"/>
+    </row>
+    <row r="239" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O239" s="6"/>
+    </row>
+    <row r="240" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O240" s="6"/>
+    </row>
+    <row r="241" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O241" s="6"/>
+    </row>
+    <row r="242" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O242" s="6"/>
+    </row>
+    <row r="243" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O243" s="6"/>
+    </row>
+    <row r="244" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O244" s="6"/>
+    </row>
+    <row r="245" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O245" s="6"/>
+    </row>
+    <row r="246" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O246" s="6"/>
+    </row>
+    <row r="247" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O247" s="6"/>
+    </row>
+    <row r="248" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O248" s="6"/>
+    </row>
+    <row r="249" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O249" s="6"/>
+    </row>
+    <row r="250" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O250" s="6"/>
+    </row>
+    <row r="251" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O251" s="6"/>
+    </row>
+    <row r="252" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O252" s="6"/>
+    </row>
+    <row r="253" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O253" s="6"/>
+    </row>
+    <row r="254" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O254" s="6"/>
+    </row>
+    <row r="255" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O255" s="6"/>
+    </row>
+    <row r="256" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O256" s="6"/>
+    </row>
+    <row r="257" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O257" s="6"/>
+    </row>
+    <row r="258" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O258" s="6"/>
+    </row>
+    <row r="259" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O259" s="6"/>
+    </row>
+    <row r="260" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O260" s="6"/>
+    </row>
+    <row r="261" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O261" s="6"/>
+    </row>
+    <row r="262" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O262" s="6"/>
+    </row>
+    <row r="263" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O263" s="6"/>
+    </row>
+    <row r="264" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O264" s="6"/>
+    </row>
+    <row r="265" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O265" s="6"/>
+    </row>
+    <row r="266" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O266" s="6"/>
+    </row>
+    <row r="267" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O267" s="6"/>
+    </row>
+    <row r="268" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O268" s="6"/>
+    </row>
+    <row r="269" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O269" s="6"/>
+    </row>
+    <row r="270" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O270" s="6"/>
+    </row>
+    <row r="271" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O271" s="6"/>
+    </row>
+    <row r="272" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O272" s="6"/>
+    </row>
+    <row r="273" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O273" s="6"/>
+    </row>
+    <row r="274" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O274" s="6"/>
+    </row>
+    <row r="275" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O275" s="6"/>
+    </row>
+    <row r="276" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O276" s="6"/>
+    </row>
+    <row r="277" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O277" s="6"/>
+    </row>
+    <row r="278" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O278" s="6"/>
+    </row>
+    <row r="279" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O279" s="6"/>
+    </row>
+    <row r="280" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O280" s="6"/>
+    </row>
+    <row r="281" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O281" s="6"/>
+    </row>
+    <row r="282" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O282" s="6"/>
+    </row>
+    <row r="283" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O283" s="6"/>
+    </row>
+    <row r="284" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O284" s="6"/>
+    </row>
+    <row r="285" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O285" s="6"/>
+    </row>
+    <row r="286" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O286" s="6"/>
+    </row>
+    <row r="287" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O287" s="6"/>
+    </row>
+    <row r="288" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O288" s="6"/>
+    </row>
+    <row r="289" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O289" s="6"/>
+    </row>
+    <row r="290" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O290" s="6"/>
+    </row>
+    <row r="291" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O291" s="6"/>
+    </row>
+    <row r="292" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O292" s="6"/>
+    </row>
+    <row r="293" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O293" s="6"/>
+    </row>
+    <row r="294" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O294" s="6"/>
+    </row>
+    <row r="295" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O295" s="6"/>
+    </row>
+    <row r="296" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O296" s="6"/>
+    </row>
+    <row r="297" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O297" s="6"/>
+    </row>
+    <row r="298" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O298" s="6"/>
+    </row>
+    <row r="299" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O299" s="6"/>
+    </row>
+    <row r="300" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O300" s="6"/>
+    </row>
+    <row r="301" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O301" s="6"/>
+    </row>
+    <row r="302" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O302" s="6"/>
+    </row>
+    <row r="303" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O303" s="6"/>
+    </row>
+    <row r="304" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O304" s="6"/>
+    </row>
+    <row r="305" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O305" s="6"/>
+    </row>
+    <row r="306" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O306" s="6"/>
+    </row>
+    <row r="307" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O307" s="6"/>
+    </row>
+    <row r="308" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O308" s="6"/>
+    </row>
+    <row r="309" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O309" s="6"/>
+    </row>
+    <row r="310" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O310" s="6"/>
+    </row>
+    <row r="311" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O311" s="6"/>
+    </row>
+    <row r="312" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O312" s="6"/>
+    </row>
+    <row r="313" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O313" s="6"/>
+    </row>
+    <row r="314" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O314" s="6"/>
+    </row>
+    <row r="315" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O315" s="6"/>
+    </row>
+    <row r="316" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O316" s="6"/>
+    </row>
+    <row r="317" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O317" s="6"/>
+    </row>
+    <row r="318" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O318" s="6"/>
+    </row>
+    <row r="319" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O319" s="6"/>
+    </row>
+    <row r="320" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O320" s="6"/>
+    </row>
+    <row r="321" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O321" s="6"/>
+    </row>
+    <row r="322" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O322" s="6"/>
+    </row>
+    <row r="323" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O323" s="6"/>
+    </row>
+    <row r="324" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O324" s="6"/>
+    </row>
+    <row r="325" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O325" s="6"/>
+    </row>
+    <row r="326" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O326" s="6"/>
+    </row>
+    <row r="327" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O327" s="6"/>
+    </row>
+    <row r="328" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O328" s="6"/>
+    </row>
+    <row r="329" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O329" s="6"/>
+    </row>
+    <row r="330" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O330" s="6"/>
+    </row>
+    <row r="331" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O331" s="6"/>
+    </row>
+    <row r="332" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O332" s="6"/>
+    </row>
+    <row r="333" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O333" s="6"/>
+    </row>
+    <row r="334" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O334" s="6"/>
+    </row>
+    <row r="335" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O335" s="6"/>
+    </row>
+    <row r="336" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O336" s="6"/>
+    </row>
+    <row r="337" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O337" s="6"/>
+    </row>
+    <row r="338" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O338" s="6"/>
+    </row>
+    <row r="339" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O339" s="6"/>
+    </row>
+    <row r="340" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O340" s="6"/>
+    </row>
+    <row r="341" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O341" s="6"/>
+    </row>
+    <row r="342" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O342" s="6"/>
+    </row>
+    <row r="343" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O343" s="6"/>
+    </row>
+    <row r="344" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O344" s="6"/>
+    </row>
+    <row r="345" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O345" s="6"/>
+    </row>
+    <row r="346" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O346" s="6"/>
+    </row>
+    <row r="347" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O347" s="6"/>
+    </row>
+    <row r="348" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O348" s="6"/>
+    </row>
+    <row r="349" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O349" s="6"/>
+    </row>
+    <row r="350" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O350" s="6"/>
+    </row>
+    <row r="351" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O351" s="6"/>
+    </row>
+    <row r="352" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O352" s="6"/>
+    </row>
+    <row r="353" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O353" s="6"/>
+    </row>
+    <row r="354" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O354" s="6"/>
+    </row>
+    <row r="355" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O355" s="6"/>
+    </row>
+    <row r="356" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O356" s="6"/>
+    </row>
+    <row r="357" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O357" s="6"/>
+    </row>
+    <row r="358" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O358" s="6"/>
+    </row>
+    <row r="359" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O359" s="6"/>
+    </row>
+    <row r="360" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O360" s="6"/>
+    </row>
+    <row r="361" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O361" s="6"/>
+    </row>
+    <row r="362" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O362" s="6"/>
+    </row>
+    <row r="363" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O363" s="6"/>
+    </row>
+    <row r="364" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O364" s="6"/>
+    </row>
+    <row r="365" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O365" s="6"/>
+    </row>
+    <row r="366" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O366" s="6"/>
+    </row>
+    <row r="367" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O367" s="6"/>
+    </row>
+    <row r="368" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O368" s="6"/>
+    </row>
+    <row r="369" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O369" s="6"/>
+    </row>
+    <row r="370" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O370" s="6"/>
+    </row>
+    <row r="371" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O371" s="6"/>
+    </row>
+    <row r="372" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O372" s="6"/>
+    </row>
+    <row r="373" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O373" s="6"/>
+    </row>
+    <row r="374" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O374" s="6"/>
+    </row>
+    <row r="375" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O375" s="6"/>
+    </row>
+    <row r="376" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O376" s="6"/>
+    </row>
+    <row r="377" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O377" s="6"/>
+    </row>
+    <row r="378" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O378" s="6"/>
+    </row>
+    <row r="379" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O379" s="6"/>
+    </row>
+    <row r="380" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O380" s="6"/>
+    </row>
+    <row r="381" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O381" s="6"/>
+    </row>
+    <row r="382" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O382" s="6"/>
+    </row>
+    <row r="383" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O383" s="6"/>
+    </row>
+    <row r="384" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O384" s="6"/>
+    </row>
+    <row r="385" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O385" s="6"/>
+    </row>
+    <row r="386" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O386" s="6"/>
+    </row>
+    <row r="387" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O387" s="6"/>
+    </row>
+    <row r="388" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O388" s="6"/>
+    </row>
+    <row r="389" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O389" s="6"/>
+    </row>
+    <row r="390" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O390" s="6"/>
+    </row>
+    <row r="391" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O391" s="6"/>
+    </row>
+    <row r="392" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O392" s="6"/>
+    </row>
+    <row r="393" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O393" s="6"/>
+    </row>
+    <row r="394" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O394" s="6"/>
+    </row>
+    <row r="395" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O395" s="6"/>
+    </row>
+    <row r="396" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O396" s="6"/>
+    </row>
+    <row r="397" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O397" s="6"/>
+    </row>
+    <row r="398" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O398" s="6"/>
+    </row>
+    <row r="399" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O399" s="6"/>
+    </row>
+    <row r="400" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O400" s="6"/>
+    </row>
+    <row r="401" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O401" s="6"/>
+    </row>
+    <row r="402" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O402" s="6"/>
+    </row>
+    <row r="403" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O403" s="6"/>
+    </row>
+    <row r="404" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O404" s="6"/>
+    </row>
+    <row r="405" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O405" s="6"/>
+    </row>
+    <row r="406" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O406" s="6"/>
+    </row>
+    <row r="407" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O407" s="6"/>
+    </row>
+    <row r="408" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O408" s="6"/>
+    </row>
+    <row r="409" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O409" s="6"/>
+    </row>
+    <row r="410" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O410" s="6"/>
+    </row>
+    <row r="411" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O411" s="6"/>
+    </row>
+    <row r="412" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O412" s="6"/>
+    </row>
+    <row r="413" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O413" s="6"/>
+    </row>
+    <row r="414" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O414" s="6"/>
+    </row>
+    <row r="415" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O415" s="6"/>
+    </row>
+    <row r="416" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O416" s="6"/>
+    </row>
+    <row r="417" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O417" s="6"/>
+    </row>
+    <row r="418" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O418" s="6"/>
+    </row>
+    <row r="419" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O419" s="6"/>
+    </row>
+    <row r="420" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O420" s="6"/>
+    </row>
+    <row r="421" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O421" s="6"/>
+    </row>
+    <row r="422" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O422" s="6"/>
+    </row>
+    <row r="423" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O423" s="6"/>
+    </row>
+    <row r="424" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O424" s="6"/>
+    </row>
+    <row r="425" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O425" s="6"/>
+    </row>
+    <row r="426" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O426" s="6"/>
+    </row>
+    <row r="427" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O427" s="6"/>
+    </row>
+    <row r="428" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O428" s="6"/>
+    </row>
+    <row r="429" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O429" s="6"/>
+    </row>
+    <row r="430" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O430" s="6"/>
+    </row>
+    <row r="431" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O431" s="6"/>
+    </row>
+    <row r="432" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O432" s="6"/>
+    </row>
+    <row r="433" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O433" s="6"/>
+    </row>
+    <row r="434" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O434" s="6"/>
+    </row>
+    <row r="435" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O435" s="6"/>
+    </row>
+    <row r="436" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O436" s="6"/>
+    </row>
+    <row r="437" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O437" s="6"/>
+    </row>
+    <row r="438" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O438" s="6"/>
+    </row>
+    <row r="439" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O439" s="6"/>
+    </row>
+    <row r="440" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O440" s="6"/>
+    </row>
+    <row r="441" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O441" s="6"/>
+    </row>
+    <row r="442" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O442" s="6"/>
+    </row>
+    <row r="443" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O443" s="6"/>
+    </row>
+    <row r="444" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O444" s="6"/>
+    </row>
+    <row r="445" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O445" s="6"/>
+    </row>
+    <row r="446" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O446" s="6"/>
+    </row>
+    <row r="447" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O447" s="6"/>
+    </row>
+    <row r="448" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O448" s="6"/>
+    </row>
+    <row r="449" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O449" s="6"/>
+    </row>
+    <row r="450" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O450" s="6"/>
+    </row>
+    <row r="451" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O451" s="6"/>
+    </row>
+    <row r="452" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O452" s="6"/>
+    </row>
+    <row r="453" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O453" s="6"/>
+    </row>
+    <row r="454" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O454" s="6"/>
+    </row>
+    <row r="455" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O455" s="6"/>
+    </row>
+    <row r="456" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O456" s="6"/>
+    </row>
+    <row r="457" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O457" s="6"/>
+    </row>
+    <row r="458" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O458" s="6"/>
+    </row>
+    <row r="459" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O459" s="6"/>
+    </row>
+    <row r="460" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O460" s="6"/>
+    </row>
+    <row r="461" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O461" s="6"/>
+    </row>
+    <row r="462" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O462" s="6"/>
+    </row>
+    <row r="463" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O463" s="6"/>
+    </row>
+    <row r="464" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O464" s="6"/>
+    </row>
+    <row r="465" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O465" s="6"/>
+    </row>
+    <row r="466" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O466" s="6"/>
+    </row>
+    <row r="467" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O467" s="6"/>
+    </row>
+    <row r="468" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O468" s="6"/>
+    </row>
+    <row r="469" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O469" s="6"/>
+    </row>
+    <row r="470" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O470" s="6"/>
+    </row>
+    <row r="471" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O471" s="6"/>
+    </row>
+    <row r="472" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O472" s="6"/>
+    </row>
+    <row r="473" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O473" s="6"/>
+    </row>
+    <row r="474" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O474" s="6"/>
+    </row>
+    <row r="475" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O475" s="6"/>
+    </row>
+    <row r="476" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O476" s="6"/>
+    </row>
+    <row r="477" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O477" s="6"/>
+    </row>
+    <row r="478" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O478" s="6"/>
+    </row>
+    <row r="479" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O479" s="6"/>
+    </row>
+    <row r="480" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O480" s="6"/>
+    </row>
+    <row r="481" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O481" s="6"/>
+    </row>
+    <row r="482" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O482" s="6"/>
+    </row>
+    <row r="483" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O483" s="6"/>
+    </row>
+    <row r="484" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O484" s="6"/>
+    </row>
+    <row r="485" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O485" s="6"/>
+    </row>
+    <row r="486" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O486" s="6"/>
+    </row>
+    <row r="487" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O487" s="6"/>
+    </row>
+    <row r="488" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O488" s="6"/>
+    </row>
+    <row r="489" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O489" s="6"/>
+    </row>
+    <row r="490" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O490" s="6"/>
+    </row>
+    <row r="491" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O491" s="6"/>
+    </row>
+    <row r="492" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O492" s="6"/>
+    </row>
+    <row r="493" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O493" s="6"/>
+    </row>
+    <row r="494" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O494" s="6"/>
+    </row>
+    <row r="495" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O495" s="6"/>
+    </row>
+    <row r="496" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O496" s="6"/>
+    </row>
+    <row r="497" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O497" s="6"/>
+    </row>
+    <row r="498" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O498" s="6"/>
+    </row>
+    <row r="499" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O499" s="6"/>
+    </row>
+    <row r="500" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O500" s="6"/>
+    </row>
+    <row r="501" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O501" s="6"/>
+    </row>
+    <row r="502" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O502" s="6"/>
+    </row>
+    <row r="503" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O503" s="6"/>
+    </row>
+    <row r="504" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O504" s="6"/>
+    </row>
+    <row r="505" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O505" s="6"/>
+    </row>
+    <row r="506" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O506" s="6"/>
+    </row>
+    <row r="507" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O507" s="6"/>
+    </row>
+    <row r="508" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O508" s="6"/>
+    </row>
+    <row r="509" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O509" s="6"/>
+    </row>
+    <row r="510" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O510" s="6"/>
+    </row>
+    <row r="511" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O511" s="6"/>
+    </row>
+    <row r="512" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O512" s="6"/>
+    </row>
+    <row r="513" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O513" s="6"/>
+    </row>
+    <row r="514" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O514" s="6"/>
+    </row>
+    <row r="516" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O516" s="6"/>
+    </row>
+    <row r="517" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O517" s="6"/>
+    </row>
+    <row r="518" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O518" s="6"/>
+    </row>
+    <row r="519" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O519" s="6"/>
+    </row>
+    <row r="520" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O520" s="6"/>
+    </row>
+    <row r="521" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O521" s="6"/>
+    </row>
+    <row r="522" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O522" s="6"/>
+    </row>
+    <row r="523" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O523" s="6"/>
+    </row>
+    <row r="524" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O524" s="6"/>
+    </row>
+    <row r="525" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O525" s="6"/>
+    </row>
+    <row r="526" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O526" s="6"/>
+    </row>
+    <row r="527" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O527" s="6"/>
+    </row>
+    <row r="528" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O528" s="6"/>
+    </row>
+    <row r="529" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O529" s="6"/>
+    </row>
+    <row r="530" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O530" s="6"/>
+    </row>
+    <row r="531" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O531" s="6"/>
+    </row>
+    <row r="532" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O532" s="6"/>
+    </row>
+    <row r="533" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O533" s="6"/>
+    </row>
+    <row r="534" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O534" s="6"/>
+    </row>
+    <row r="535" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O535" s="6"/>
+    </row>
+    <row r="536" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O536" s="6"/>
+    </row>
+    <row r="537" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O537" s="6"/>
+    </row>
+    <row r="538" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O538" s="6"/>
+    </row>
+    <row r="539" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O539" s="6"/>
+    </row>
+    <row r="540" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O540" s="6"/>
+    </row>
+    <row r="541" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O541" s="6"/>
+    </row>
+    <row r="542" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O542" s="6"/>
+    </row>
+    <row r="543" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O543" s="6"/>
+    </row>
+    <row r="544" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O544" s="6"/>
+    </row>
+    <row r="545" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O545" s="6"/>
+    </row>
+    <row r="546" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O546" s="6"/>
+    </row>
+    <row r="547" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O547" s="6"/>
+    </row>
+    <row r="548" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O548" s="6"/>
+    </row>
+    <row r="549" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O549" s="6"/>
+    </row>
+    <row r="550" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O550" s="6"/>
+    </row>
+    <row r="551" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O551" s="6"/>
+    </row>
+    <row r="552" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O552" s="6"/>
+    </row>
+    <row r="553" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O553" s="6"/>
+    </row>
+    <row r="554" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O554" s="6"/>
+    </row>
+    <row r="555" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O555" s="6"/>
+    </row>
+    <row r="556" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O556" s="6"/>
+    </row>
+    <row r="557" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O557" s="6"/>
+    </row>
+    <row r="558" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O558" s="6"/>
+    </row>
+    <row r="559" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O559" s="6"/>
+    </row>
+    <row r="560" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O560" s="6"/>
+    </row>
+    <row r="561" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O561" s="6"/>
+    </row>
+    <row r="562" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O562" s="6"/>
+    </row>
+    <row r="563" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O563" s="6"/>
+    </row>
+    <row r="564" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O564" s="6"/>
+    </row>
+    <row r="565" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O565" s="6"/>
+    </row>
+    <row r="566" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O566" s="6"/>
+    </row>
+    <row r="567" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O567" s="6"/>
+    </row>
+    <row r="568" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O568" s="6"/>
+    </row>
+    <row r="569" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O569" s="6"/>
+    </row>
+    <row r="570" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O570" s="6"/>
+    </row>
+    <row r="571" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O571" s="6"/>
+    </row>
+    <row r="572" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O572" s="6"/>
+    </row>
+    <row r="573" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O573" s="6"/>
+    </row>
+    <row r="574" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O574" s="6"/>
+    </row>
+    <row r="575" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O575" s="6"/>
+    </row>
+    <row r="576" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O576" s="6"/>
+    </row>
+    <row r="577" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O577" s="6"/>
+    </row>
+    <row r="578" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O578" s="6"/>
+    </row>
+    <row r="579" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O579" s="6"/>
+    </row>
+    <row r="580" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O580" s="6"/>
+    </row>
+    <row r="581" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O581" s="6"/>
+    </row>
+    <row r="582" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O582" s="6"/>
+    </row>
+    <row r="583" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O583" s="6"/>
+    </row>
+    <row r="584" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O584" s="6"/>
+    </row>
+    <row r="585" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O585" s="6"/>
+    </row>
+    <row r="586" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O586" s="6"/>
+    </row>
+    <row r="587" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O587" s="6"/>
+    </row>
+    <row r="588" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O588" s="6"/>
+    </row>
+    <row r="589" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O589" s="6"/>
+    </row>
+    <row r="590" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O590" s="6"/>
+    </row>
+    <row r="591" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O591" s="6"/>
+    </row>
+    <row r="592" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O592" s="6"/>
+    </row>
+    <row r="593" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O593" s="6"/>
+    </row>
+    <row r="594" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O594" s="6"/>
+    </row>
+    <row r="595" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O595" s="6"/>
+    </row>
+    <row r="596" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O596" s="6"/>
+    </row>
+    <row r="597" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O597" s="6"/>
+    </row>
+    <row r="598" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O598" s="6"/>
+    </row>
+    <row r="599" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O599" s="6"/>
+    </row>
+    <row r="600" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O600" s="6"/>
+    </row>
+    <row r="601" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O601" s="6"/>
+    </row>
+    <row r="602" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O602" s="6"/>
+    </row>
+    <row r="603" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O603" s="6"/>
+    </row>
+    <row r="604" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O604" s="6"/>
+    </row>
+    <row r="605" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O605" s="6"/>
+    </row>
+    <row r="606" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O606" s="6"/>
+    </row>
+    <row r="607" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O607" s="6"/>
+    </row>
+    <row r="608" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O608" s="6"/>
+    </row>
+    <row r="609" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O609" s="6"/>
+    </row>
+    <row r="610" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O610" s="6"/>
+    </row>
+    <row r="611" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O611" s="6"/>
+    </row>
+    <row r="612" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O612" s="6"/>
+    </row>
+    <row r="613" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O613" s="6"/>
+    </row>
+    <row r="614" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O614" s="6"/>
+    </row>
+    <row r="615" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O615" s="6"/>
+    </row>
+    <row r="616" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O616" s="6"/>
+    </row>
+    <row r="617" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O617" s="6"/>
+    </row>
+    <row r="618" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O618" s="6"/>
+    </row>
+    <row r="619" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O619" s="6"/>
+    </row>
+    <row r="620" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O620" s="6"/>
+    </row>
+    <row r="621" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O621" s="6"/>
+    </row>
+    <row r="622" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O622" s="6"/>
+    </row>
+    <row r="623" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O623" s="6"/>
+    </row>
+    <row r="624" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O624" s="6"/>
+    </row>
+    <row r="625" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O625" s="6"/>
+    </row>
+    <row r="626" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O626" s="6"/>
+    </row>
+    <row r="627" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O627" s="6"/>
+    </row>
+    <row r="628" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O628" s="6"/>
+    </row>
+    <row r="629" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O629" s="6"/>
+    </row>
+    <row r="630" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O630" s="6"/>
+    </row>
+    <row r="631" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O631" s="6"/>
+    </row>
+    <row r="632" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O632" s="6"/>
+    </row>
+    <row r="633" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O633" s="6"/>
+    </row>
+    <row r="634" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O634" s="6"/>
+    </row>
+    <row r="635" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O635" s="6"/>
+    </row>
+    <row r="636" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O636" s="6"/>
+    </row>
+    <row r="637" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O637" s="6"/>
+    </row>
+    <row r="638" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O638" s="6"/>
+    </row>
+    <row r="639" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O639" s="6"/>
+    </row>
+    <row r="640" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O640" s="6"/>
+    </row>
+    <row r="641" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O641" s="6"/>
+    </row>
+    <row r="642" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O642" s="6"/>
+    </row>
+    <row r="643" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O643" s="6"/>
+    </row>
+    <row r="644" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O644" s="6"/>
+    </row>
+    <row r="645" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O645" s="6"/>
+    </row>
+    <row r="646" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O646" s="6"/>
+    </row>
+    <row r="647" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O647" s="6"/>
+    </row>
+    <row r="648" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O648" s="6"/>
+    </row>
+    <row r="649" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O649" s="6"/>
+    </row>
+    <row r="650" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O650" s="6"/>
+    </row>
+    <row r="651" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O651" s="6"/>
+    </row>
+    <row r="652" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O652" s="6"/>
+    </row>
+    <row r="653" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O653" s="6"/>
+    </row>
+    <row r="654" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O654" s="6"/>
+    </row>
+    <row r="655" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O655" s="6"/>
+    </row>
+    <row r="656" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O656" s="6"/>
+    </row>
+    <row r="657" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O657" s="6"/>
+    </row>
+    <row r="658" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O658" s="6"/>
+    </row>
+    <row r="659" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O659" s="6"/>
+    </row>
+    <row r="660" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O660" s="6"/>
+    </row>
+    <row r="661" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O661" s="6"/>
+    </row>
+    <row r="662" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O662" s="6"/>
+    </row>
+    <row r="663" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O663" s="6"/>
+    </row>
+    <row r="664" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O664" s="6"/>
+    </row>
+    <row r="665" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O665" s="6"/>
+    </row>
+    <row r="666" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O666" s="6"/>
+    </row>
+    <row r="667" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O667" s="6"/>
+    </row>
+    <row r="668" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O668" s="6"/>
+    </row>
+    <row r="669" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O669" s="6"/>
+    </row>
+    <row r="670" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O670" s="6"/>
+    </row>
+    <row r="671" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O671" s="6"/>
+    </row>
+    <row r="672" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O672" s="6"/>
+    </row>
+    <row r="673" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O673" s="6"/>
+    </row>
+    <row r="674" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O674" s="6"/>
+    </row>
+    <row r="675" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O675" s="6"/>
+    </row>
+    <row r="676" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O676" s="6"/>
+    </row>
+    <row r="677" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O677" s="6"/>
+    </row>
+    <row r="678" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O678" s="6"/>
+    </row>
+    <row r="679" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O679" s="6"/>
+    </row>
+    <row r="680" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O680" s="6"/>
+    </row>
+    <row r="681" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O681" s="6"/>
+    </row>
+    <row r="682" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O682" s="6"/>
+    </row>
+    <row r="683" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O683" s="6"/>
+    </row>
+    <row r="684" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O684" s="6"/>
+    </row>
+    <row r="685" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O685" s="6"/>
+    </row>
+    <row r="686" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O686" s="6"/>
+    </row>
+    <row r="687" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O687" s="6"/>
+    </row>
+    <row r="688" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O688" s="6"/>
+    </row>
+    <row r="689" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O689" s="6"/>
+    </row>
+    <row r="690" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O690" s="6"/>
+    </row>
+    <row r="691" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O691" s="6"/>
+    </row>
+    <row r="692" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O692" s="6"/>
+    </row>
+    <row r="693" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O693" s="6"/>
+    </row>
+    <row r="694" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O694" s="6"/>
+    </row>
+    <row r="695" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O695" s="6"/>
+    </row>
+    <row r="696" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O696" s="6"/>
+    </row>
+    <row r="697" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O697" s="6"/>
+    </row>
+    <row r="698" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O698" s="6"/>
+    </row>
+    <row r="699" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O699" s="6"/>
+    </row>
+    <row r="700" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O700" s="6"/>
+    </row>
+    <row r="701" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O701" s="6"/>
+    </row>
+    <row r="702" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O702" s="6"/>
+    </row>
+    <row r="703" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O703" s="6"/>
+    </row>
+    <row r="704" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O704" s="6"/>
+    </row>
+    <row r="705" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O705" s="6"/>
+    </row>
+    <row r="706" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O706" s="6"/>
+    </row>
+    <row r="707" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O707" s="6"/>
+    </row>
+    <row r="708" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O708" s="6"/>
+    </row>
+    <row r="709" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O709" s="6"/>
+    </row>
+    <row r="710" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O710" s="6"/>
+    </row>
+    <row r="711" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O711" s="6"/>
+    </row>
+    <row r="712" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O712" s="6"/>
+    </row>
+    <row r="713" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O713" s="6"/>
+    </row>
+    <row r="714" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O714" s="6"/>
+    </row>
+    <row r="715" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O715" s="6"/>
+    </row>
+    <row r="716" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O716" s="6"/>
+    </row>
+    <row r="717" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O717" s="6"/>
+    </row>
+    <row r="718" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O718" s="6"/>
+    </row>
+    <row r="719" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O719" s="6"/>
+    </row>
+    <row r="720" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O720" s="6"/>
+    </row>
+    <row r="721" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O721" s="6"/>
+    </row>
+    <row r="722" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O722" s="6"/>
+    </row>
+    <row r="723" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O723" s="6"/>
+    </row>
+    <row r="724" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O724" s="6"/>
+    </row>
+    <row r="725" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O725" s="6"/>
+    </row>
+    <row r="726" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O726" s="6"/>
+    </row>
+    <row r="727" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O727" s="6"/>
+    </row>
+    <row r="728" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O728" s="6"/>
+    </row>
+    <row r="729" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O729" s="6"/>
+    </row>
+    <row r="730" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O730" s="6"/>
+    </row>
+    <row r="731" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O731" s="6"/>
+    </row>
+    <row r="732" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O732" s="6"/>
+    </row>
+    <row r="733" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O733" s="6"/>
+    </row>
+    <row r="734" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O734" s="6"/>
+    </row>
+    <row r="735" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O735" s="6"/>
+    </row>
+    <row r="736" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O736" s="6"/>
+    </row>
+    <row r="737" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O737" s="6"/>
+    </row>
+    <row r="738" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O738" s="6"/>
+    </row>
+    <row r="739" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O739" s="6"/>
+    </row>
+    <row r="740" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O740" s="6"/>
+    </row>
+    <row r="741" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O741" s="6"/>
+    </row>
+    <row r="742" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O742" s="6"/>
+    </row>
+    <row r="743" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O743" s="6"/>
+    </row>
+    <row r="744" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O744" s="6"/>
+    </row>
+    <row r="745" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O745" s="6"/>
+    </row>
+    <row r="746" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O746" s="6"/>
+    </row>
+    <row r="747" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O747" s="6"/>
+    </row>
+    <row r="748" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O748" s="6"/>
+    </row>
+    <row r="749" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O749" s="6"/>
+    </row>
+    <row r="750" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O750" s="6"/>
+    </row>
+    <row r="751" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O751" s="6"/>
+    </row>
+    <row r="752" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O752" s="6"/>
+    </row>
+    <row r="753" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O753" s="6"/>
+    </row>
+    <row r="754" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O754" s="6"/>
+    </row>
+    <row r="755" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O755" s="6"/>
+    </row>
+    <row r="756" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O756" s="6"/>
+    </row>
+    <row r="757" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O757" s="6"/>
+    </row>
+    <row r="758" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O758" s="6"/>
+    </row>
+    <row r="759" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O759" s="6"/>
+    </row>
+    <row r="760" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O760" s="6"/>
+    </row>
+    <row r="761" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O761" s="6"/>
+    </row>
+    <row r="762" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O762" s="6"/>
+    </row>
+    <row r="763" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O763" s="6"/>
+    </row>
+    <row r="764" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O764" s="6"/>
+    </row>
+    <row r="765" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O765" s="6"/>
+    </row>
+    <row r="766" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O766" s="6"/>
+    </row>
+    <row r="767" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O767" s="6"/>
+    </row>
+    <row r="768" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O768" s="6"/>
+    </row>
+    <row r="769" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O769" s="6"/>
+    </row>
+    <row r="770" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O770" s="6"/>
+    </row>
+    <row r="771" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O771" s="6"/>
+    </row>
+    <row r="772" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O772" s="6"/>
+    </row>
+    <row r="773" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O773" s="6"/>
+    </row>
+    <row r="774" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O774" s="6"/>
+    </row>
+    <row r="775" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O775" s="6"/>
+    </row>
+    <row r="776" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O776" s="6"/>
+    </row>
+    <row r="777" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O777" s="6"/>
+    </row>
+    <row r="778" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O778" s="6"/>
+    </row>
+    <row r="779" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O779" s="6"/>
+    </row>
+    <row r="780" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O780" s="6"/>
+    </row>
+    <row r="781" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O781" s="6"/>
+    </row>
+    <row r="782" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O782" s="6"/>
+    </row>
+    <row r="783" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O783" s="6"/>
+    </row>
+    <row r="784" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O784" s="6"/>
+    </row>
+    <row r="785" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O785" s="6"/>
+    </row>
+    <row r="786" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O786" s="6"/>
+    </row>
+    <row r="787" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O787" s="6"/>
+    </row>
+    <row r="788" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O788" s="6"/>
+    </row>
+    <row r="789" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O789" s="6"/>
+    </row>
+    <row r="790" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O790" s="6"/>
+    </row>
+    <row r="791" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O791" s="6"/>
+    </row>
+    <row r="792" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O792" s="6"/>
+    </row>
+    <row r="793" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O793" s="6"/>
+    </row>
+    <row r="794" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O794" s="6"/>
+    </row>
+    <row r="795" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O795" s="6"/>
+    </row>
+    <row r="796" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O796" s="6"/>
+    </row>
+    <row r="797" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O797" s="6"/>
+    </row>
+    <row r="798" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O798" s="6"/>
+    </row>
+    <row r="799" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O799" s="6"/>
+    </row>
+    <row r="800" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O800" s="6"/>
+    </row>
+    <row r="801" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O801" s="6"/>
+    </row>
+    <row r="802" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O802" s="6"/>
+    </row>
+    <row r="803" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O803" s="6"/>
+    </row>
+    <row r="804" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O804" s="6"/>
+    </row>
+    <row r="805" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O805" s="6"/>
+    </row>
+    <row r="806" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O806" s="6"/>
+    </row>
+    <row r="807" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O807" s="6"/>
+    </row>
+    <row r="808" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O808" s="6"/>
+    </row>
+    <row r="809" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O809" s="6"/>
+    </row>
+    <row r="810" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O810" s="6"/>
+    </row>
+    <row r="811" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O811" s="6"/>
+    </row>
+    <row r="812" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O812" s="6"/>
+    </row>
+    <row r="813" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O813" s="6"/>
+    </row>
+    <row r="814" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O814" s="6"/>
+    </row>
+    <row r="815" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O815" s="6"/>
+    </row>
+    <row r="816" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O816" s="6"/>
+    </row>
+    <row r="817" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O817" s="6"/>
+    </row>
+    <row r="818" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O818" s="6"/>
+    </row>
+    <row r="819" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O819" s="6"/>
+    </row>
+    <row r="820" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O820" s="6"/>
+    </row>
+    <row r="821" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O821" s="6"/>
+    </row>
+    <row r="822" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O822" s="6"/>
+    </row>
+    <row r="823" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O823" s="6"/>
+    </row>
+    <row r="824" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O824" s="6"/>
+    </row>
+    <row r="825" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O825" s="6"/>
+    </row>
+    <row r="826" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O826" s="6"/>
+    </row>
+    <row r="827" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O827" s="6"/>
+    </row>
+    <row r="828" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O828" s="6"/>
+    </row>
+    <row r="829" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O829" s="6"/>
+    </row>
+    <row r="830" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O830" s="6"/>
+    </row>
+    <row r="831" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O831" s="6"/>
+    </row>
+    <row r="832" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O832" s="6"/>
+    </row>
+    <row r="833" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O833" s="6"/>
+    </row>
+    <row r="834" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O834" s="6"/>
+    </row>
+    <row r="835" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O835" s="6"/>
+    </row>
+    <row r="836" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O836" s="6"/>
+    </row>
+    <row r="837" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O837" s="6"/>
+    </row>
+    <row r="838" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O838" s="6"/>
+    </row>
+    <row r="839" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O839" s="6"/>
+    </row>
+    <row r="840" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O840" s="6"/>
+    </row>
+    <row r="841" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O841" s="6"/>
+    </row>
+    <row r="842" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O842" s="6"/>
+    </row>
+    <row r="843" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O843" s="6"/>
+    </row>
+    <row r="844" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O844" s="6"/>
+    </row>
+    <row r="845" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O845" s="6"/>
+    </row>
+    <row r="846" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O846" s="6"/>
+    </row>
+    <row r="847" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O847" s="6"/>
+    </row>
+    <row r="848" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O848" s="6"/>
+    </row>
+    <row r="849" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O849" s="6"/>
+    </row>
+    <row r="850" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O850" s="6"/>
+    </row>
+    <row r="851" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O851" s="6"/>
+    </row>
+    <row r="852" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O852" s="6"/>
+    </row>
+    <row r="853" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O853" s="6"/>
+    </row>
+    <row r="854" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O854" s="6"/>
+    </row>
+    <row r="855" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O855" s="6"/>
+    </row>
+    <row r="856" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O856" s="6"/>
+    </row>
+    <row r="857" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O857" s="6"/>
+    </row>
+    <row r="858" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O858" s="6"/>
+    </row>
+    <row r="859" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O859" s="6"/>
+    </row>
+    <row r="860" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O860" s="6"/>
+    </row>
+    <row r="861" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O861" s="6"/>
+    </row>
+    <row r="862" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O862" s="6"/>
+    </row>
+    <row r="863" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O863" s="6"/>
+    </row>
+    <row r="864" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O864" s="6"/>
+    </row>
+    <row r="865" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O865" s="6"/>
+    </row>
+    <row r="866" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O866" s="6"/>
+    </row>
+    <row r="867" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O867" s="6"/>
+    </row>
+    <row r="868" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O868" s="6"/>
+    </row>
+    <row r="869" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O869" s="6"/>
+    </row>
+    <row r="870" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O870" s="6"/>
+    </row>
+    <row r="871" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O871" s="6"/>
+    </row>
+    <row r="872" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O872" s="6"/>
+    </row>
+    <row r="873" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O873" s="6"/>
+    </row>
+    <row r="874" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O874" s="6"/>
+    </row>
+    <row r="875" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O875" s="6"/>
+    </row>
+    <row r="876" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O876" s="6"/>
+    </row>
+    <row r="877" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O877" s="6"/>
+    </row>
+    <row r="878" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O878" s="6"/>
+    </row>
+    <row r="879" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O879" s="6"/>
+    </row>
+    <row r="880" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O880" s="6"/>
+    </row>
+    <row r="881" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O881" s="6"/>
+    </row>
+    <row r="882" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O882" s="6"/>
+    </row>
+    <row r="883" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O883" s="6"/>
+    </row>
+    <row r="884" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O884" s="6"/>
+    </row>
+    <row r="885" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O885" s="6"/>
+    </row>
+    <row r="886" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O886" s="6"/>
+    </row>
+    <row r="887" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O887" s="6"/>
+    </row>
+    <row r="888" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O888" s="6"/>
+    </row>
+    <row r="889" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O889" s="6"/>
+    </row>
+    <row r="890" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O890" s="6"/>
+    </row>
+    <row r="891" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O891" s="6"/>
+    </row>
+    <row r="892" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O892" s="6"/>
+    </row>
+    <row r="893" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O893" s="6"/>
+    </row>
+    <row r="894" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O894" s="6"/>
+    </row>
+    <row r="895" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O895" s="6"/>
+    </row>
+    <row r="896" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O896" s="6"/>
+    </row>
+    <row r="897" spans="1:15" ht="24.95" customHeight="1">
       <c r="O897" s="6"/>
     </row>
-    <row r="898" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="898" spans="1:15" ht="24.95" customHeight="1">
       <c r="O898" s="6"/>
     </row>
-    <row r="899" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="A899" s="11"/>
-      <c r="B899" s="11"/>
-      <c r="D899" s="11"/>
-      <c r="E899" s="11"/>
-      <c r="F899" s="11"/>
-      <c r="G899" s="11"/>
-      <c r="H899" s="11"/>
-      <c r="I899" s="11"/>
-      <c r="J899" s="11"/>
-      <c r="K899" s="11"/>
-      <c r="L899" s="11"/>
-      <c r="M899" s="11"/>
-      <c r="N899" s="11"/>
-      <c r="O899" s="12"/>
-    </row>
-    <row r="900" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="899" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O899" s="6"/>
+    </row>
+    <row r="900" spans="1:15" ht="24.95" customHeight="1">
       <c r="O900" s="6"/>
     </row>
-    <row r="901" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="901" spans="1:15" ht="24.95" customHeight="1">
       <c r="O901" s="6"/>
     </row>
-    <row r="902" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="902" spans="1:15" ht="24.95" customHeight="1">
       <c r="O902" s="6"/>
     </row>
-    <row r="903" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="903" spans="1:15" ht="24.95" customHeight="1">
       <c r="O903" s="6"/>
     </row>
-    <row r="904" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="904" spans="1:15" ht="24.95" customHeight="1">
       <c r="O904" s="6"/>
     </row>
-    <row r="905" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="905" spans="1:15" ht="24.95" customHeight="1">
       <c r="O905" s="6"/>
     </row>
-    <row r="906" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="906" spans="1:15" ht="24.95" customHeight="1">
       <c r="O906" s="6"/>
     </row>
-    <row r="907" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="907" spans="1:15" ht="24.95" customHeight="1">
       <c r="O907" s="6"/>
     </row>
-    <row r="908" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="908" spans="1:15" ht="24.95" customHeight="1">
       <c r="O908" s="6"/>
     </row>
-    <row r="909" spans="1:15" ht="20.100000000000001" customHeight="1">
-      <c r="O909" s="6"/>
-    </row>
-    <row r="910" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="909" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A909" s="11"/>
+      <c r="B909" s="11"/>
+      <c r="D909" s="11"/>
+      <c r="E909" s="11"/>
+      <c r="F909" s="11"/>
+      <c r="G909" s="11"/>
+      <c r="H909" s="11"/>
+      <c r="I909" s="11"/>
+      <c r="J909" s="11"/>
+      <c r="K909" s="11"/>
+      <c r="L909" s="11"/>
+      <c r="M909" s="11"/>
+      <c r="N909" s="11"/>
+      <c r="O909" s="12"/>
+    </row>
+    <row r="910" spans="1:15" ht="24.95" customHeight="1">
       <c r="O910" s="6"/>
     </row>
-    <row r="911" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="911" spans="1:15" ht="24.95" customHeight="1">
       <c r="O911" s="6"/>
     </row>
-    <row r="912" spans="1:15" ht="20.100000000000001" customHeight="1">
+    <row r="912" spans="1:15" ht="24.95" customHeight="1">
       <c r="O912" s="6"/>
     </row>
-    <row r="913" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="914" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="915" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="916" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="917" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="918" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="919" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="920" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="921" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="922" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="923" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="924" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="925" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="926" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="927" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="928" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="929" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="930" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="931" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="932" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="933" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="934" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="935" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="936" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="937" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="938" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="939" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="940" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="941" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="942" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="943" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="944" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="945" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="946" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="947" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="948" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="949" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="950" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="951" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="952" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="953" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="954" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="955" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="956" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="957" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="958" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="959" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="960" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="961" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="962" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="963" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="964" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="965" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="966" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="967" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="968" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="969" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="970" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="971" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="972" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="973" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="974" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="975" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="976" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="977" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="978" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="979" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="980" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="981" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="982" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="983" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="984" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="985" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="986" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="987" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="988" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="989" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="990" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="991" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="992" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="993" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="994" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="995" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="996" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="997" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="998" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="999" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1000" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1001" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1002" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1003" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1004" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1005" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1006" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1007" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1008" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1009" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1010" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1011" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1012" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1013" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1014" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1015" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1016" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1017" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1018" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1019" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1020" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1021" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1022" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1023" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1024" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1025" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1026" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1027" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1028" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1029" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1030" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1031" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1032" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1033" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1034" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1035" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1036" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1037" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1038" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1039" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1040" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1041" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1042" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1043" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1044" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1045" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1046" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1047" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1048" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1049" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1050" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1051" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1052" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1053" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1054" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1055" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1056" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1057" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1058" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1059" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1060" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1061" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1062" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1063" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1064" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1065" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1066" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1067" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1068" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1069" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1070" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1071" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1072" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1073" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1074" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1075" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1076" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1077" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1078" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1079" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1080" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1081" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1082" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1083" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1084" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1085" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1086" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1087" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1088" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1089" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1090" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1091" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1092" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1093" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1094" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1095" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1096" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1097" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1098" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1099" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1100" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1101" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1102" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1103" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1104" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1105" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1106" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1107" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1108" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1109" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1110" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1111" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1112" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1113" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1114" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1115" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1116" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1117" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1118" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1119" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1120" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1121" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1122" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1123" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1124" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1125" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1126" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1127" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1128" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1129" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1130" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1131" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1132" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1133" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1134" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1135" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1136" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1137" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1138" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1139" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1140" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1141" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1142" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1143" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1144" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1145" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1146" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1147" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1148" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1149" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1150" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1151" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1152" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1153" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1154" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1155" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1156" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1157" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1158" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1159" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1160" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1161" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1162" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1163" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1164" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1165" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1166" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1167" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1168" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1169" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1170" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1171" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1172" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1173" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1174" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1175" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1176" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1177" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1178" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1179" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1180" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1181" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1182" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1183" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1184" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1185" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1186" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1187" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1188" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1189" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1190" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1191" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1192" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1193" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1194" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1195" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1196" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1197" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1198" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1199" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1200" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1201" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1202" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1203" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1204" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1205" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1206" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1207" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1208" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1209" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1210" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1211" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1212" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1213" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1214" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1215" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1216" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1217" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1218" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1219" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1220" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1221" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1222" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1223" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1224" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1225" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1226" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1227" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1228" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1229" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1230" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1231" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1232" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1233" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1234" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1235" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1236" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1237" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1238" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1239" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1240" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1241" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1242" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1243" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1244" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1245" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1246" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1247" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1248" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1249" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1250" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1251" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1252" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1253" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1254" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1255" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1256" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1257" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1258" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1259" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1260" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1261" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1262" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1263" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1264" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1265" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1266" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1267" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1268" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1269" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1270" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1271" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1272" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1273" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1274" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1275" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1276" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1277" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1278" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1279" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1280" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1281" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1282" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1283" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1284" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1285" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1286" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1287" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1288" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1289" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1290" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1291" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1292" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1293" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1294" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1295" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1296" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1297" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1298" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1299" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1300" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1301" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1302" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1303" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1304" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1305" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1306" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1307" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1308" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1309" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1310" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1311" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1312" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1313" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1314" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1315" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1316" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1317" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1318" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1319" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1320" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1321" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1322" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1323" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1324" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1325" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1326" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1327" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1328" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1329" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1330" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1331" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1332" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1333" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1334" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1335" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1336" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1337" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1338" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1339" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1340" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1341" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1342" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1343" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1344" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1345" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1346" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1347" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1348" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1349" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1350" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1351" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1352" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1353" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1354" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1355" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1356" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1357" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1358" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1359" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1360" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1361" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1362" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1363" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1364" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1365" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1366" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1367" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1368" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1369" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1370" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1371" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1372" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1373" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1374" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1375" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1376" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1377" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1378" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1379" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1380" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1381" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1382" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1383" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1384" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1385" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1386" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1387" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1388" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1389" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1390" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1391" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1392" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1393" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1394" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1395" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1396" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1397" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1398" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1399" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1400" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1401" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1402" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1403" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
-    <row r="1404" s="6" customFormat="1" ht="20.100000000000001" customHeight="1"/>
+    <row r="913" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O913" s="6"/>
+    </row>
+    <row r="914" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O914" s="6"/>
+    </row>
+    <row r="915" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O915" s="6"/>
+    </row>
+    <row r="916" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O916" s="6"/>
+    </row>
+    <row r="917" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O917" s="6"/>
+    </row>
+    <row r="918" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O918" s="6"/>
+    </row>
+    <row r="919" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O919" s="6"/>
+    </row>
+    <row r="920" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O920" s="6"/>
+    </row>
+    <row r="921" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O921" s="6"/>
+    </row>
+    <row r="922" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O922" s="6"/>
+    </row>
+    <row r="923" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O923" s="6"/>
+    </row>
+    <row r="924" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O924" s="6"/>
+    </row>
+    <row r="925" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O925" s="6"/>
+    </row>
+    <row r="926" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O926" s="6"/>
+    </row>
+    <row r="927" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O927" s="6"/>
+    </row>
+    <row r="928" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O928" s="6"/>
+    </row>
+    <row r="929" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O929" s="6"/>
+    </row>
+    <row r="930" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O930" s="6"/>
+    </row>
+    <row r="931" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O931" s="6"/>
+    </row>
+    <row r="932" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O932" s="6"/>
+    </row>
+    <row r="933" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O933" s="6"/>
+    </row>
+    <row r="934" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O934" s="6"/>
+    </row>
+    <row r="935" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O935" s="6"/>
+    </row>
+    <row r="936" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O936" s="6"/>
+    </row>
+    <row r="937" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O937" s="6"/>
+    </row>
+    <row r="938" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O938" s="6"/>
+    </row>
+    <row r="939" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O939" s="6"/>
+    </row>
+    <row r="940" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O940" s="6"/>
+    </row>
+    <row r="941" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O941" s="6"/>
+    </row>
+    <row r="942" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O942" s="6"/>
+    </row>
+    <row r="943" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O943" s="6"/>
+    </row>
+    <row r="944" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O944" s="6"/>
+    </row>
+    <row r="945" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O945" s="6"/>
+    </row>
+    <row r="946" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O946" s="6"/>
+    </row>
+    <row r="947" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O947" s="6"/>
+    </row>
+    <row r="948" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O948" s="6"/>
+    </row>
+    <row r="949" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O949" s="6"/>
+    </row>
+    <row r="950" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O950" s="6"/>
+    </row>
+    <row r="951" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O951" s="6"/>
+    </row>
+    <row r="952" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O952" s="6"/>
+    </row>
+    <row r="953" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O953" s="6"/>
+    </row>
+    <row r="954" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O954" s="6"/>
+    </row>
+    <row r="955" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O955" s="6"/>
+    </row>
+    <row r="956" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O956" s="6"/>
+    </row>
+    <row r="957" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O957" s="6"/>
+    </row>
+    <row r="958" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O958" s="6"/>
+    </row>
+    <row r="959" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O959" s="6"/>
+    </row>
+    <row r="960" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O960" s="6"/>
+    </row>
+    <row r="961" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O961" s="6"/>
+    </row>
+    <row r="962" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O962" s="6"/>
+    </row>
+    <row r="963" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O963" s="6"/>
+    </row>
+    <row r="964" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O964" s="6"/>
+    </row>
+    <row r="965" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O965" s="6"/>
+    </row>
+    <row r="966" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O966" s="6"/>
+    </row>
+    <row r="967" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O967" s="6"/>
+    </row>
+    <row r="968" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O968" s="6"/>
+    </row>
+    <row r="969" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O969" s="6"/>
+    </row>
+    <row r="970" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O970" s="6"/>
+    </row>
+    <row r="971" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O971" s="6"/>
+    </row>
+    <row r="972" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O972" s="6"/>
+    </row>
+    <row r="973" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O973" s="6"/>
+    </row>
+    <row r="974" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O974" s="6"/>
+    </row>
+    <row r="975" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O975" s="6"/>
+    </row>
+    <row r="976" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O976" s="6"/>
+    </row>
+    <row r="977" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O977" s="6"/>
+    </row>
+    <row r="978" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O978" s="6"/>
+    </row>
+    <row r="979" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O979" s="6"/>
+    </row>
+    <row r="980" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O980" s="6"/>
+    </row>
+    <row r="981" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O981" s="6"/>
+    </row>
+    <row r="982" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O982" s="6"/>
+    </row>
+    <row r="983" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O983" s="6"/>
+    </row>
+    <row r="984" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O984" s="6"/>
+    </row>
+    <row r="985" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O985" s="6"/>
+    </row>
+    <row r="986" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O986" s="6"/>
+    </row>
+    <row r="987" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O987" s="6"/>
+    </row>
+    <row r="988" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O988" s="6"/>
+    </row>
+    <row r="989" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O989" s="6"/>
+    </row>
+    <row r="990" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O990" s="6"/>
+    </row>
+    <row r="991" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O991" s="6"/>
+    </row>
+    <row r="992" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O992" s="6"/>
+    </row>
+    <row r="993" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O993" s="6"/>
+    </row>
+    <row r="994" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O994" s="6"/>
+    </row>
+    <row r="995" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O995" s="6"/>
+    </row>
+    <row r="996" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O996" s="6"/>
+    </row>
+    <row r="997" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O997" s="6"/>
+    </row>
+    <row r="998" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O998" s="6"/>
+    </row>
+    <row r="999" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O999" s="6"/>
+    </row>
+    <row r="1000" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1000" s="6"/>
+    </row>
+    <row r="1001" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1001" s="6"/>
+    </row>
+    <row r="1002" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1002" s="6"/>
+    </row>
+    <row r="1003" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1003" s="6"/>
+    </row>
+    <row r="1004" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1004" s="6"/>
+    </row>
+    <row r="1005" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1005" s="6"/>
+    </row>
+    <row r="1006" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1006" s="6"/>
+    </row>
+    <row r="1007" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1007" s="6"/>
+    </row>
+    <row r="1008" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1008" s="6"/>
+    </row>
+    <row r="1009" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1009" s="6"/>
+    </row>
+    <row r="1010" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1010" s="6"/>
+    </row>
+    <row r="1011" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1011" s="6"/>
+    </row>
+    <row r="1012" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1012" s="6"/>
+    </row>
+    <row r="1013" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1013" s="6"/>
+    </row>
+    <row r="1014" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1014" s="6"/>
+    </row>
+    <row r="1015" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1015" s="6"/>
+    </row>
+    <row r="1016" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1016" s="6"/>
+    </row>
+    <row r="1017" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1017" s="6"/>
+    </row>
+    <row r="1018" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1018" s="6"/>
+    </row>
+    <row r="1019" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1019" s="6"/>
+    </row>
+    <row r="1020" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1020" s="6"/>
+    </row>
+    <row r="1021" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1021" s="6"/>
+    </row>
+    <row r="1022" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1022" s="6"/>
+    </row>
+    <row r="1023" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1023" s="6"/>
+    </row>
+    <row r="1024" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1024" s="6"/>
+    </row>
+    <row r="1025" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1025" s="6"/>
+    </row>
+    <row r="1026" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1026" s="6"/>
+    </row>
+    <row r="1027" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1027" s="6"/>
+    </row>
+    <row r="1028" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1028" s="6"/>
+    </row>
+    <row r="1029" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1029" s="6"/>
+    </row>
+    <row r="1030" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1030" s="6"/>
+    </row>
+    <row r="1031" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1031" s="6"/>
+    </row>
+    <row r="1032" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1032" s="6"/>
+    </row>
+    <row r="1033" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1033" s="6"/>
+    </row>
+    <row r="1034" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1034" s="6"/>
+    </row>
+    <row r="1035" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1035" s="6"/>
+    </row>
+    <row r="1036" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1036" s="6"/>
+    </row>
+    <row r="1037" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1037" s="6"/>
+    </row>
+    <row r="1038" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1038" s="6"/>
+    </row>
+    <row r="1039" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1039" s="6"/>
+    </row>
+    <row r="1040" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1040" s="6"/>
+    </row>
+    <row r="1041" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1041" s="6"/>
+    </row>
+    <row r="1042" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1042" s="6"/>
+    </row>
+    <row r="1043" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1043" s="6"/>
+    </row>
+    <row r="1044" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1044" s="6"/>
+    </row>
+    <row r="1045" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1045" s="6"/>
+    </row>
+    <row r="1046" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1046" s="6"/>
+    </row>
+    <row r="1047" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1047" s="6"/>
+    </row>
+    <row r="1048" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1048" s="6"/>
+    </row>
+    <row r="1049" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1049" s="6"/>
+    </row>
+    <row r="1050" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1050" s="6"/>
+    </row>
+    <row r="1051" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1051" s="6"/>
+    </row>
+    <row r="1052" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1052" s="6"/>
+    </row>
+    <row r="1053" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1053" s="6"/>
+    </row>
+    <row r="1054" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1054" s="6"/>
+    </row>
+    <row r="1055" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1055" s="6"/>
+    </row>
+    <row r="1056" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1056" s="6"/>
+    </row>
+    <row r="1057" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1057" s="6"/>
+    </row>
+    <row r="1058" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1058" s="6"/>
+    </row>
+    <row r="1059" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1059" s="6"/>
+    </row>
+    <row r="1060" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1060" s="6"/>
+    </row>
+    <row r="1061" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1061" s="6"/>
+    </row>
+    <row r="1062" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1062" s="6"/>
+    </row>
+    <row r="1063" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1063" s="6"/>
+    </row>
+    <row r="1064" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1064" s="6"/>
+    </row>
+    <row r="1065" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1065" s="6"/>
+    </row>
+    <row r="1066" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1066" s="6"/>
+    </row>
+    <row r="1067" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1067" s="6"/>
+    </row>
+    <row r="1068" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1068" s="6"/>
+    </row>
+    <row r="1069" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1069" s="6"/>
+    </row>
+    <row r="1070" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1070" s="6"/>
+    </row>
+    <row r="1071" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1071" s="6"/>
+    </row>
+    <row r="1072" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1072" s="6"/>
+    </row>
+    <row r="1073" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1073" s="6"/>
+    </row>
+    <row r="1074" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1074" s="6"/>
+    </row>
+    <row r="1075" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1075" s="6"/>
+    </row>
+    <row r="1076" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1076" s="6"/>
+    </row>
+    <row r="1077" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1077" s="6"/>
+    </row>
+    <row r="1078" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1078" s="6"/>
+    </row>
+    <row r="1079" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1079" s="6"/>
+    </row>
+    <row r="1080" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1080" s="6"/>
+    </row>
+    <row r="1081" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1081" s="6"/>
+    </row>
+    <row r="1082" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1082" s="6"/>
+    </row>
+    <row r="1083" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1083" s="6"/>
+    </row>
+    <row r="1084" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1084" s="6"/>
+    </row>
+    <row r="1085" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1085" s="6"/>
+    </row>
+    <row r="1086" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1086" s="6"/>
+    </row>
+    <row r="1087" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1087" s="6"/>
+    </row>
+    <row r="1088" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1088" s="6"/>
+    </row>
+    <row r="1089" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1089" s="6"/>
+    </row>
+    <row r="1090" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1090" s="6"/>
+    </row>
+    <row r="1091" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1091" s="6"/>
+    </row>
+    <row r="1092" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1092" s="6"/>
+    </row>
+    <row r="1093" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1093" s="6"/>
+    </row>
+    <row r="1094" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1094" s="6"/>
+    </row>
+    <row r="1095" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1095" s="6"/>
+    </row>
+    <row r="1096" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1096" s="6"/>
+    </row>
+    <row r="1097" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1097" s="6"/>
+    </row>
+    <row r="1098" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1098" s="6"/>
+    </row>
+    <row r="1099" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1099" s="6"/>
+    </row>
+    <row r="1100" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1100" s="6"/>
+    </row>
+    <row r="1101" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1101" s="6"/>
+    </row>
+    <row r="1102" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1102" s="6"/>
+    </row>
+    <row r="1103" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1103" s="6"/>
+    </row>
+    <row r="1104" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1104" s="6"/>
+    </row>
+    <row r="1105" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1105" s="6"/>
+    </row>
+    <row r="1106" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1106" s="6"/>
+    </row>
+    <row r="1107" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1107" s="6"/>
+    </row>
+    <row r="1108" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1108" s="6"/>
+    </row>
+    <row r="1109" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1109" s="6"/>
+    </row>
+    <row r="1110" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1110" s="6"/>
+    </row>
+    <row r="1111" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1111" s="6"/>
+    </row>
+    <row r="1112" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1112" s="6"/>
+    </row>
+    <row r="1113" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1113" s="6"/>
+    </row>
+    <row r="1114" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1114" s="6"/>
+    </row>
+    <row r="1115" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1115" s="6"/>
+    </row>
+    <row r="1116" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1116" s="6"/>
+    </row>
+    <row r="1117" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1117" s="6"/>
+    </row>
+    <row r="1118" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1118" s="6"/>
+    </row>
+    <row r="1119" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1119" s="6"/>
+    </row>
+    <row r="1120" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1120" s="6"/>
+    </row>
+    <row r="1121" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1121" s="6"/>
+    </row>
+    <row r="1122" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1122" s="6"/>
+    </row>
+    <row r="1123" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1123" s="6"/>
+    </row>
+    <row r="1124" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1124" s="6"/>
+    </row>
+    <row r="1125" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1125" s="6"/>
+    </row>
+    <row r="1126" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1126" s="6"/>
+    </row>
+    <row r="1127" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1127" s="6"/>
+    </row>
+    <row r="1128" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1128" s="6"/>
+    </row>
+    <row r="1129" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1129" s="6"/>
+    </row>
+    <row r="1130" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1130" s="6"/>
+    </row>
+    <row r="1131" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1131" s="6"/>
+    </row>
+    <row r="1132" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1132" s="6"/>
+    </row>
+    <row r="1133" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1133" s="6"/>
+    </row>
+    <row r="1134" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1134" s="6"/>
+    </row>
+    <row r="1135" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1135" s="6"/>
+    </row>
+    <row r="1136" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1136" s="6"/>
+    </row>
+    <row r="1137" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1137" s="6"/>
+    </row>
+    <row r="1138" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1138" s="6"/>
+    </row>
+    <row r="1139" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1139" s="6"/>
+    </row>
+    <row r="1140" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1140" s="6"/>
+    </row>
+    <row r="1141" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1141" s="6"/>
+    </row>
+    <row r="1142" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1142" s="6"/>
+    </row>
+    <row r="1143" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1143" s="6"/>
+    </row>
+    <row r="1144" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1144" s="6"/>
+    </row>
+    <row r="1145" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1145" s="6"/>
+    </row>
+    <row r="1146" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1146" s="6"/>
+    </row>
+    <row r="1147" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1147" s="6"/>
+    </row>
+    <row r="1148" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1148" s="6"/>
+    </row>
+    <row r="1149" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1149" s="6"/>
+    </row>
+    <row r="1150" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1150" s="6"/>
+    </row>
+    <row r="1151" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1151" s="6"/>
+    </row>
+    <row r="1152" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1152" s="6"/>
+    </row>
+    <row r="1153" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1153" s="6"/>
+    </row>
+    <row r="1154" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1154" s="6"/>
+    </row>
+    <row r="1155" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1155" s="6"/>
+    </row>
+    <row r="1156" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1156" s="6"/>
+    </row>
+    <row r="1157" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1157" s="6"/>
+    </row>
+    <row r="1158" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1158" s="6"/>
+    </row>
+    <row r="1159" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1159" s="6"/>
+    </row>
+    <row r="1160" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1160" s="6"/>
+    </row>
+    <row r="1161" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1161" s="6"/>
+    </row>
+    <row r="1162" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1162" s="6"/>
+    </row>
+    <row r="1163" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1163" s="6"/>
+    </row>
+    <row r="1164" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1164" s="6"/>
+    </row>
+    <row r="1165" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1165" s="6"/>
+    </row>
+    <row r="1166" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1166" s="6"/>
+    </row>
+    <row r="1167" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1167" s="6"/>
+    </row>
+    <row r="1168" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1168" s="6"/>
+    </row>
+    <row r="1169" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1169" s="6"/>
+    </row>
+    <row r="1170" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1170" s="6"/>
+    </row>
+    <row r="1171" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1171" s="6"/>
+    </row>
+    <row r="1172" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1172" s="6"/>
+    </row>
+    <row r="1173" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1173" s="6"/>
+    </row>
+    <row r="1174" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1174" s="6"/>
+    </row>
+    <row r="1175" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1175" s="6"/>
+    </row>
+    <row r="1176" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1176" s="6"/>
+    </row>
+    <row r="1177" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1177" s="6"/>
+    </row>
+    <row r="1178" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1178" s="6"/>
+    </row>
+    <row r="1179" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1179" s="6"/>
+    </row>
+    <row r="1180" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1180" s="6"/>
+    </row>
+    <row r="1181" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1181" s="6"/>
+    </row>
+    <row r="1182" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1182" s="6"/>
+    </row>
+    <row r="1183" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1183" s="6"/>
+    </row>
+    <row r="1184" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1184" s="6"/>
+    </row>
+    <row r="1185" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1185" s="6"/>
+    </row>
+    <row r="1186" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1186" s="6"/>
+    </row>
+    <row r="1187" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1187" s="6"/>
+    </row>
+    <row r="1188" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1188" s="6"/>
+    </row>
+    <row r="1189" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1189" s="6"/>
+    </row>
+    <row r="1190" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1190" s="6"/>
+    </row>
+    <row r="1191" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1191" s="6"/>
+    </row>
+    <row r="1192" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1192" s="6"/>
+    </row>
+    <row r="1193" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1193" s="6"/>
+    </row>
+    <row r="1194" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1194" s="6"/>
+    </row>
+    <row r="1195" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1195" s="6"/>
+    </row>
+    <row r="1196" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1196" s="6"/>
+    </row>
+    <row r="1197" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1197" s="6"/>
+    </row>
+    <row r="1198" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1198" s="6"/>
+    </row>
+    <row r="1199" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1199" s="6"/>
+    </row>
+    <row r="1200" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1200" s="6"/>
+    </row>
+    <row r="1201" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1201" s="6"/>
+    </row>
+    <row r="1202" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1202" s="6"/>
+    </row>
+    <row r="1203" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1203" s="6"/>
+    </row>
+    <row r="1204" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1204" s="6"/>
+    </row>
+    <row r="1205" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1205" s="6"/>
+    </row>
+    <row r="1206" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1206" s="6"/>
+    </row>
+    <row r="1207" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1207" s="6"/>
+    </row>
+    <row r="1208" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1208" s="6"/>
+    </row>
+    <row r="1209" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1209" s="6"/>
+    </row>
+    <row r="1210" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1210" s="6"/>
+    </row>
+    <row r="1211" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1211" s="6"/>
+    </row>
+    <row r="1212" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1212" s="6"/>
+    </row>
+    <row r="1213" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1213" s="6"/>
+    </row>
+    <row r="1214" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1214" s="6"/>
+    </row>
+    <row r="1215" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1215" s="6"/>
+    </row>
+    <row r="1216" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1216" s="6"/>
+    </row>
+    <row r="1217" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1217" s="6"/>
+    </row>
+    <row r="1218" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1218" s="6"/>
+    </row>
+    <row r="1219" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1219" s="6"/>
+    </row>
+    <row r="1220" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1220" s="6"/>
+    </row>
+    <row r="1221" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1221" s="6"/>
+    </row>
+    <row r="1222" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1222" s="6"/>
+    </row>
+    <row r="1223" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1223" s="6"/>
+    </row>
+    <row r="1224" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1224" s="6"/>
+    </row>
+    <row r="1225" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1225" s="6"/>
+    </row>
+    <row r="1226" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1226" s="6"/>
+    </row>
+    <row r="1227" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1227" s="6"/>
+    </row>
+    <row r="1228" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1228" s="6"/>
+    </row>
+    <row r="1229" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1229" s="6"/>
+    </row>
+    <row r="1230" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1230" s="6"/>
+    </row>
+    <row r="1231" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1231" s="6"/>
+    </row>
+    <row r="1232" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1232" s="6"/>
+    </row>
+    <row r="1233" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1233" s="6"/>
+    </row>
+    <row r="1234" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1234" s="6"/>
+    </row>
+    <row r="1235" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1235" s="6"/>
+    </row>
+    <row r="1236" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1236" s="6"/>
+    </row>
+    <row r="1237" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1237" s="6"/>
+    </row>
+    <row r="1238" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1238" s="6"/>
+    </row>
+    <row r="1239" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1239" s="6"/>
+    </row>
+    <row r="1240" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1240" s="6"/>
+    </row>
+    <row r="1241" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1241" s="6"/>
+    </row>
+    <row r="1242" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1242" s="6"/>
+    </row>
+    <row r="1243" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1243" s="6"/>
+    </row>
+    <row r="1244" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1244" s="6"/>
+    </row>
+    <row r="1245" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1245" s="6"/>
+    </row>
+    <row r="1246" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1246" s="6"/>
+    </row>
+    <row r="1247" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1247" s="6"/>
+    </row>
+    <row r="1248" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1248" s="6"/>
+    </row>
+    <row r="1249" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1249" s="6"/>
+    </row>
+    <row r="1250" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1250" s="6"/>
+    </row>
+    <row r="1251" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1251" s="6"/>
+    </row>
+    <row r="1252" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1252" s="6"/>
+    </row>
+    <row r="1253" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1253" s="6"/>
+    </row>
+    <row r="1254" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1254" s="6"/>
+    </row>
+    <row r="1255" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1255" s="6"/>
+    </row>
+    <row r="1256" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1256" s="6"/>
+    </row>
+    <row r="1257" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1257" s="6"/>
+    </row>
+    <row r="1258" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1258" s="6"/>
+    </row>
+    <row r="1259" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1259" s="6"/>
+    </row>
+    <row r="1260" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1260" s="6"/>
+    </row>
+    <row r="1261" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1261" s="6"/>
+    </row>
+    <row r="1262" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1262" s="6"/>
+    </row>
+    <row r="1263" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1263" s="6"/>
+    </row>
+    <row r="1264" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1264" s="6"/>
+    </row>
+    <row r="1265" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1265" s="6"/>
+    </row>
+    <row r="1266" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1266" s="6"/>
+    </row>
+    <row r="1267" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1267" s="6"/>
+    </row>
+    <row r="1268" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1268" s="6"/>
+    </row>
+    <row r="1269" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1269" s="6"/>
+    </row>
+    <row r="1270" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1270" s="6"/>
+    </row>
+    <row r="1271" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1271" s="6"/>
+    </row>
+    <row r="1272" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1272" s="6"/>
+    </row>
+    <row r="1273" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1273" s="6"/>
+    </row>
+    <row r="1274" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1274" s="6"/>
+    </row>
+    <row r="1275" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1275" s="6"/>
+    </row>
+    <row r="1276" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1276" s="6"/>
+    </row>
+    <row r="1277" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1277" s="6"/>
+    </row>
+    <row r="1278" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1278" s="6"/>
+    </row>
+    <row r="1279" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1279" s="6"/>
+    </row>
+    <row r="1280" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1280" s="6"/>
+    </row>
+    <row r="1281" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1281" s="6"/>
+    </row>
+    <row r="1282" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1282" s="6"/>
+    </row>
+    <row r="1283" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1283" s="6"/>
+    </row>
+    <row r="1284" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1284" s="6"/>
+    </row>
+    <row r="1285" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1285" s="6"/>
+    </row>
+    <row r="1286" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1286" s="6"/>
+    </row>
+    <row r="1287" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1287" s="6"/>
+    </row>
+    <row r="1288" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1288" s="6"/>
+    </row>
+    <row r="1289" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1289" s="6"/>
+    </row>
+    <row r="1290" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1290" s="6"/>
+    </row>
+    <row r="1291" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1291" s="6"/>
+    </row>
+    <row r="1292" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1292" s="6"/>
+    </row>
+    <row r="1293" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1293" s="6"/>
+    </row>
+    <row r="1294" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1294" s="6"/>
+    </row>
+    <row r="1295" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1295" s="6"/>
+    </row>
+    <row r="1296" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1296" s="6"/>
+    </row>
+    <row r="1297" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1297" s="6"/>
+    </row>
+    <row r="1298" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1298" s="6"/>
+    </row>
+    <row r="1299" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1299" s="6"/>
+    </row>
+    <row r="1300" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1300" s="6"/>
+    </row>
+    <row r="1301" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1301" s="6"/>
+    </row>
+    <row r="1302" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1302" s="6"/>
+    </row>
+    <row r="1303" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1303" s="6"/>
+    </row>
+    <row r="1304" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1304" s="6"/>
+    </row>
+    <row r="1305" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1305" s="6"/>
+    </row>
+    <row r="1306" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1306" s="6"/>
+    </row>
+    <row r="1307" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1307" s="6"/>
+    </row>
+    <row r="1308" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1308" s="6"/>
+    </row>
+    <row r="1309" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1309" s="6"/>
+    </row>
+    <row r="1310" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1310" s="6"/>
+    </row>
+    <row r="1311" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1311" s="6"/>
+    </row>
+    <row r="1312" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1312" s="6"/>
+    </row>
+    <row r="1313" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1313" s="6"/>
+    </row>
+    <row r="1314" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1314" s="6"/>
+    </row>
+    <row r="1315" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1315" s="6"/>
+    </row>
+    <row r="1316" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1316" s="6"/>
+    </row>
+    <row r="1317" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1317" s="6"/>
+    </row>
+    <row r="1318" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1318" s="6"/>
+    </row>
+    <row r="1319" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1319" s="6"/>
+    </row>
+    <row r="1320" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1320" s="6"/>
+    </row>
+    <row r="1321" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1321" s="6"/>
+    </row>
+    <row r="1322" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1322" s="6"/>
+    </row>
+    <row r="1323" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1323" s="6"/>
+    </row>
+    <row r="1324" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1324" s="6"/>
+    </row>
+    <row r="1325" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1325" s="6"/>
+    </row>
+    <row r="1326" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1326" s="6"/>
+    </row>
+    <row r="1327" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1327" s="6"/>
+    </row>
+    <row r="1328" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1328" s="6"/>
+    </row>
+    <row r="1329" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1329" s="6"/>
+    </row>
+    <row r="1330" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1330" s="6"/>
+    </row>
+    <row r="1331" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1331" s="6"/>
+    </row>
+    <row r="1332" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1332" s="6"/>
+    </row>
+    <row r="1333" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1333" s="6"/>
+    </row>
+    <row r="1334" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1334" s="6"/>
+    </row>
+    <row r="1335" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1335" s="6"/>
+    </row>
+    <row r="1336" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1336" s="6"/>
+    </row>
+    <row r="1337" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1337" s="6"/>
+    </row>
+    <row r="1338" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1338" s="6"/>
+    </row>
+    <row r="1339" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1339" s="6"/>
+    </row>
+    <row r="1340" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1340" s="6"/>
+    </row>
+    <row r="1341" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1341" s="6"/>
+    </row>
+    <row r="1342" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1342" s="6"/>
+    </row>
+    <row r="1343" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1343" s="6"/>
+    </row>
+    <row r="1344" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1344" s="6"/>
+    </row>
+    <row r="1345" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1345" s="6"/>
+    </row>
+    <row r="1346" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1346" s="6"/>
+    </row>
+    <row r="1347" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1347" s="6"/>
+    </row>
+    <row r="1348" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1348" s="6"/>
+    </row>
+    <row r="1349" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1349" s="6"/>
+    </row>
+    <row r="1350" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1350" s="6"/>
+    </row>
+    <row r="1351" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1351" s="6"/>
+    </row>
+    <row r="1352" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1352" s="6"/>
+    </row>
+    <row r="1353" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1353" s="6"/>
+    </row>
+    <row r="1354" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1354" s="6"/>
+    </row>
+    <row r="1355" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1355" s="6"/>
+    </row>
+    <row r="1356" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1356" s="6"/>
+    </row>
+    <row r="1357" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1357" s="6"/>
+    </row>
+    <row r="1358" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1358" s="6"/>
+    </row>
+    <row r="1359" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1359" s="6"/>
+    </row>
+    <row r="1360" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1360" s="6"/>
+    </row>
+    <row r="1361" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1361" s="6"/>
+    </row>
+    <row r="1362" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1362" s="6"/>
+    </row>
+    <row r="1363" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1363" s="6"/>
+    </row>
+    <row r="1364" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1364" s="6"/>
+    </row>
+    <row r="1365" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1365" s="6"/>
+    </row>
+    <row r="1366" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1366" s="6"/>
+    </row>
+    <row r="1367" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1367" s="6"/>
+    </row>
+    <row r="1368" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1368" s="6"/>
+    </row>
+    <row r="1369" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1369" s="6"/>
+    </row>
+    <row r="1370" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1370" s="6"/>
+    </row>
+    <row r="1371" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1371" s="6"/>
+    </row>
+    <row r="1372" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1372" s="6"/>
+    </row>
+    <row r="1373" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1373" s="6"/>
+    </row>
+    <row r="1374" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1374" s="6"/>
+    </row>
+    <row r="1375" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1375" s="6"/>
+    </row>
+    <row r="1376" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1376" s="6"/>
+    </row>
+    <row r="1377" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1377" s="6"/>
+    </row>
+    <row r="1378" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1378" s="6"/>
+    </row>
+    <row r="1379" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1379" s="6"/>
+    </row>
+    <row r="1380" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1380" s="6"/>
+    </row>
+    <row r="1381" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1381" s="6"/>
+    </row>
+    <row r="1382" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1382" s="6"/>
+    </row>
+    <row r="1383" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1383" s="6"/>
+    </row>
+    <row r="1384" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1384" s="6"/>
+    </row>
+    <row r="1385" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1385" s="6"/>
+    </row>
+    <row r="1386" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1386" s="6"/>
+    </row>
+    <row r="1387" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1387" s="6"/>
+    </row>
+    <row r="1388" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1388" s="6"/>
+    </row>
+    <row r="1389" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1389" s="6"/>
+    </row>
+    <row r="1390" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1390" s="6"/>
+    </row>
+    <row r="1391" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1391" s="6"/>
+    </row>
+    <row r="1392" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1392" s="6"/>
+    </row>
+    <row r="1393" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1393" s="6"/>
+    </row>
+    <row r="1394" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1394" s="6"/>
+    </row>
+    <row r="1395" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1395" s="6"/>
+    </row>
+    <row r="1396" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1396" s="6"/>
+    </row>
+    <row r="1397" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1397" s="6"/>
+    </row>
+    <row r="1398" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1398" s="6"/>
+    </row>
+    <row r="1399" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1399" s="6"/>
+    </row>
+    <row r="1400" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1400" s="6"/>
+    </row>
+    <row r="1401" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1401" s="6"/>
+    </row>
+    <row r="1402" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1402" s="6"/>
+    </row>
+    <row r="1403" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1403" s="6"/>
+    </row>
+    <row r="1404" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1404" s="6"/>
+    </row>
+    <row r="1405" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1405" s="6"/>
+    </row>
+    <row r="1406" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1406" s="6"/>
+    </row>
+    <row r="1407" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1407" s="6"/>
+    </row>
+    <row r="1408" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1408" s="6"/>
+    </row>
+    <row r="1409" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1409" s="6"/>
+    </row>
+    <row r="1410" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1410" s="6"/>
+    </row>
+    <row r="1411" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1411" s="6"/>
+    </row>
+    <row r="1412" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1412" s="6"/>
+    </row>
+    <row r="1413" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1413" s="6"/>
+    </row>
+    <row r="1414" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1414" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="O1:O1107" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="O1:O1117" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5973,7 +8578,7 @@
         <v>28</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="14.25">
@@ -5984,7 +8589,7 @@
         <v>30</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="14.25">
@@ -6028,7 +8633,7 @@
         <v>41</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="14.25">
@@ -6050,7 +8655,7 @@
         <v>46</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="14.25">
@@ -6143,101 +8748,101 @@
     </row>
     <row r="19" spans="1:15" ht="14.25">
       <c r="A19" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>154</v>
-      </c>
       <c r="O19" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="14.25">
       <c r="A20" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="14.25">
       <c r="A21" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="14.25">
       <c r="A22" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="14.25">
       <c r="A23" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="14.25">
       <c r="A24" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="14.25">
       <c r="A25" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="14.25">
       <c r="A26" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="14.25">
       <c r="A27" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -6251,8 +8856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S83"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -6355,7 +8960,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>21</v>
@@ -6405,7 +9010,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>21</v>
@@ -6423,14 +9028,14 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>21</v>
@@ -6455,7 +9060,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>21</v>
@@ -6480,7 +9085,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>21</v>
@@ -6505,7 +9110,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>21</v>
@@ -6523,7 +9128,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -6602,12 +9207,12 @@
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>21</v>
@@ -6632,7 +9237,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>21</v>
@@ -6682,7 +9287,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>21</v>
@@ -6700,14 +9305,14 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>21</v>
@@ -6757,7 +9362,7 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>21</v>
@@ -6782,7 +9387,7 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>21</v>
@@ -6807,7 +9412,7 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>21</v>
@@ -6832,7 +9437,7 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>21</v>
@@ -6882,7 +9487,7 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>21</v>
@@ -6932,7 +9537,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>21</v>
@@ -6950,7 +9555,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="3" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
@@ -6982,7 +9587,7 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>21</v>
@@ -7007,7 +9612,7 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>21</v>
@@ -7032,7 +9637,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2" t="s">
-        <v>104</v>
+        <v>584</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>21</v>
@@ -7050,14 +9655,14 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>21</v>
@@ -7075,14 +9680,14 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>21</v>
@@ -7100,14 +9705,14 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>21</v>
@@ -7125,14 +9730,14 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>21</v>
@@ -7150,14 +9755,14 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
     </row>
     <row r="35" spans="1:17">
       <c r="A35" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>21</v>
@@ -7175,58 +9780,58 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O36" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="37" spans="1:17">
       <c r="A37" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:17">
       <c r="A38" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:17">
       <c r="A39" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>21</v>
@@ -7237,7 +9842,7 @@
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>21</v>
@@ -7248,172 +9853,172 @@
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O42" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O43" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="A45" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="A48" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O48" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>21</v>
@@ -7424,230 +10029,230 @@
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O58" s="5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O59" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O62" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O63" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O70" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="72" spans="1:17">
       <c r="A72" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O72" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O73" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q73" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>21</v>
@@ -7658,40 +10263,40 @@
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="1" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="1" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="81" spans="1:19">
       <c r="A81" s="1" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="83" spans="1:19">
       <c r="S83" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs\TheOtherUs-Edited\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CD56550-8824-4068-8C67-0BF14FC98B6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724E1D0E-2593-4404-9211-5F26B87748A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Button Text" sheetId="8" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Text!$O$1:$O$1117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Text!$O$1:$O$1143</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="691">
   <si>
     <t>English</t>
   </si>
@@ -1654,14 +1654,6 @@
   </si>
   <si>
     <t>最大附加职业数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>OFF</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ON</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2030,14 +2022,6 @@
   </si>
   <si>
     <t>预设</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#CCCCCC&gt;关闭&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#FFFF00&gt;开启&lt;/color&gt;</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2314,11 +2298,328 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#FFFF00&gt;On&lt;/color&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#CCCCCC&gt;Off&lt;/color&gt;</t>
+    <t>optionOn</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>optionOff</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Very Short</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>非常短</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>KillDistancesVeryShort</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>船员阵营</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>中立阵营</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>伪装者阵营</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加能力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Modifiers</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Impostor Roles</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neutral Roles</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crewmate Roles</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrewmateRolesText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NeutralRolesText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ImpostorRolesText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ModifiersText</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>(Use scroll wheel if necessary)\n\n</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>(如有必要，请使用滚轮)\n\n</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n Press TAB or Page Number for more... ({0}/{1})</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>useScrollWheel</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>\n 按Tab键查看更多... ({0}/{1})</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>pressTabForMore</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Page 1: Vanilla Settings \n\n</t>
+  </si>
+  <si>
+    <t>Page 1: バニラの設定 ￤バニラの設定</t>
+  </si>
+  <si>
+    <t>第一页：游戏设置 \n\n</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Page 1: Hide N Seek Settings \n\n</t>
+  </si>
+  <si>
+    <t>Page 2: Hide N Seek Role Settings \n\n</t>
+  </si>
+  <si>
+    <t>PropHuntPage</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1页: 道具躲猫猫模式设置 \n\n</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1页：躲猫猫模式设置 \n\n</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2页：躲猫猫职业设置 \n\n</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>hideNSeekPage2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>hideNSeekPage1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Page 1: Prop Hunt Settings \n\n</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>page1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>page6</t>
+  </si>
+  <si>
+    <t>page7</t>
+  </si>
+  <si>
+    <t>第2页: 超多职业模组设置 \n</t>
+  </si>
+  <si>
+    <t>第3页: 职业和附加职业设置 \n</t>
+  </si>
+  <si>
+    <t>第4页: 伪装者职业设置 \n</t>
+  </si>
+  <si>
+    <t>第5页: 中立职业设置 \n</t>
+  </si>
+  <si>
+    <t>第6页: 船员职业设置 \n</t>
+  </si>
+  <si>
+    <t>第7页: 附加职业设置 \n</t>
+  </si>
+  <si>
+    <t>Page 2: The Other Us Settings \n</t>
+  </si>
+  <si>
+    <t>Page 3: Role and Modifier Rates \n</t>
+  </si>
+  <si>
+    <t>Page 4: Impostor Role Settings \n</t>
+  </si>
+  <si>
+    <t>Page 5: Neutral Role Settings \n</t>
+  </si>
+  <si>
+    <t>Page 6: Crewmate Role Settings \n</t>
+  </si>
+  <si>
+    <t>Page 7: Modifier Settings \n</t>
+  </si>
+  <si>
+    <t>附加职业</t>
+  </si>
+  <si>
+    <t>Impostors</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neutrals</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crewmates</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>crewmateRoles</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>neutralRoles</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>impostorRoles</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifiers</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>page2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>page3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>page4</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>page5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>theOtherRolesSettings</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>模组设置</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>hideNSeekSettings</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>躲猫猫模式设置</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具躲猫猫模式设置</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PropHuntSettings</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prop Hunt Settings</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hide 'N Seek Settings</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Other Us Settings</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>theOtherUsSettings</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>guesserSettings</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>impostorRolesSettings</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>neutralRolesSettings</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>crewmateRolesSettings</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>modifierSettings</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>赌怪模式设置</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>伪装者职业设置</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>中立职业设置</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>船员职业设置</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加职业设置</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#CCCCCCFF&gt;Off&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00FF&gt;On&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#FFFF00FF&gt;开启&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#CCCCCCFF&gt;关闭&lt;/color&gt;</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2933,10 +3234,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1414"/>
+  <dimension ref="A1:Q1440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="O65" sqref="O65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="24.95" customHeight="1"/>
@@ -3019,10 +3320,10 @@
         <v>140</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="24.95" customHeight="1">
@@ -3030,10 +3331,10 @@
         <v>142</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="28.5">
@@ -3099,7 +3400,7 @@
         <v>182</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="42.75">
@@ -3110,7 +3411,7 @@
         <v>300</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="42.75">
@@ -3126,10 +3427,10 @@
     </row>
     <row r="13" spans="1:17" ht="313.5">
       <c r="A13" s="7" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -3144,7 +3445,7 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="24.95" customHeight="1">
@@ -3152,1695 +3453,1941 @@
     </row>
     <row r="15" spans="1:17" ht="24.95" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="24.95" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="24.95" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="24.95" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="24.95" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="24.95" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="24.95" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="24.95" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="24.95" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="24.95" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="24.95" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="24.95" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>554</v>
-      </c>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="O27" s="8"/>
     </row>
     <row r="28" spans="1:15" ht="24.95" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>581</v>
+        <v>627</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>580</v>
+        <v>624</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>579</v>
+        <v>626</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="24.95" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="O29" s="6" t="s">
-        <v>188</v>
+        <v>625</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
+      <c r="A30" s="7" t="s">
+        <v>609</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>607</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="31" spans="1:15" ht="24.95" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7" t="s">
-        <v>274</v>
+        <v>667</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>675</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="24.95" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7" t="s">
-        <v>278</v>
+        <v>669</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="24.95" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7" t="s">
-        <v>282</v>
+        <v>672</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>673</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A34" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7" t="s">
-        <v>285</v>
-      </c>
+      <c r="A34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="O34" s="8"/>
     </row>
     <row r="35" spans="1:15" ht="24.95" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7" t="s">
-        <v>270</v>
+        <v>618</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="24.95" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="7"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7" t="s">
-        <v>288</v>
+        <v>619</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O37" s="6"/>
+      <c r="A37" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="38" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A38" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7" t="s">
-        <v>292</v>
+      <c r="A38" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7"/>
-      <c r="M39" s="7"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
+      <c r="O39" s="6"/>
     </row>
     <row r="40" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A40" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="B40" s="7" t="s">
+      <c r="A40" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A41" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A42" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="O42" s="8" t="s">
         <v>610</v>
       </c>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A41" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>609</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
-      <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A42" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7" t="s">
-        <v>542</v>
-      </c>
     </row>
     <row r="43" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A43" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="O43" s="7" t="s">
-        <v>330</v>
+      <c r="A43" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="O43" s="8" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A44" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="O44" s="7" t="s">
-        <v>307</v>
-      </c>
+      <c r="A44" s="8"/>
     </row>
     <row r="45" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A45" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
+      <c r="A45" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>629</v>
+      </c>
       <c r="O45" s="7" t="s">
-        <v>308</v>
+        <v>630</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A46" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7" t="s">
-        <v>309</v>
+      <c r="A46" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="O46" s="9" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A47" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7" t="s">
-        <v>312</v>
+      <c r="A47" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="O47" s="9" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A48" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="I48" s="7"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="7"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7" t="s">
-        <v>321</v>
+      <c r="A48" s="8" t="s">
+        <v>665</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="O48" s="9" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A49" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7"/>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="7"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7" t="s">
-        <v>322</v>
+      <c r="A49" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="O49" s="9" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="24.95" customHeight="1">
       <c r="A50" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="7"/>
-      <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
-      <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7" t="s">
-        <v>323</v>
+        <v>641</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="O50" s="9" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="24.95" customHeight="1">
       <c r="A51" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7"/>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7" t="s">
-        <v>324</v>
+        <v>642</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="O51" s="9" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="24.95" customHeight="1">
       <c r="A52" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="7"/>
-      <c r="J52" s="7"/>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7"/>
-      <c r="M52" s="7"/>
-      <c r="N52" s="7"/>
+        <v>638</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>631</v>
+      </c>
       <c r="O52" s="7" t="s">
-        <v>325</v>
+        <v>635</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O53" s="6"/>
+      <c r="A53" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>636</v>
+      </c>
     </row>
     <row r="54" spans="1:15" ht="24.95" customHeight="1">
       <c r="A54" s="7" t="s">
-        <v>339</v>
+        <v>633</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>334</v>
+        <v>639</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>333</v>
+        <v>634</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A55" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="O55" s="7" t="s">
-        <v>336</v>
-      </c>
+      <c r="O55" s="6"/>
     </row>
     <row r="56" spans="1:15" ht="24.95" customHeight="1">
       <c r="A56" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="O56" s="7" t="s">
-        <v>340</v>
+        <v>676</v>
+      </c>
+      <c r="O56" s="8" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="24.95" customHeight="1">
       <c r="A57" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="O57" s="7" t="s">
-        <v>439</v>
+        <v>677</v>
+      </c>
+      <c r="O57" s="8" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="24.95" customHeight="1">
       <c r="A58" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="O58" s="7" t="s">
-        <v>440</v>
+        <v>678</v>
+      </c>
+      <c r="O58" s="8" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="24.95" customHeight="1">
       <c r="A59" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="O59" s="7" t="s">
-        <v>441</v>
+        <v>679</v>
+      </c>
+      <c r="O59" s="8" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="24.95" customHeight="1">
       <c r="A60" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="O60" s="6" t="s">
-        <v>442</v>
+        <v>680</v>
+      </c>
+      <c r="O60" s="8" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="24.95" customHeight="1">
       <c r="A61" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="O61" s="6" t="s">
-        <v>443</v>
+        <v>681</v>
+      </c>
+      <c r="O61" s="8" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A62" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="O62" s="6" t="s">
-        <v>444</v>
-      </c>
+      <c r="O62" s="6"/>
     </row>
     <row r="63" spans="1:15" ht="24.95" customHeight="1">
       <c r="A63" s="7" t="s">
-        <v>347</v>
+        <v>289</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>358</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="N63" s="7"/>
       <c r="O63" s="7" t="s">
-        <v>445</v>
+        <v>292</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A64" s="7" t="s">
-        <v>348</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="O64" s="7" t="s">
-        <v>446</v>
-      </c>
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
     </row>
     <row r="65" spans="1:15" ht="24.95" customHeight="1">
       <c r="A65" s="7" t="s">
-        <v>349</v>
+        <v>606</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>360</v>
-      </c>
+        <v>687</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
       <c r="O65" s="7" t="s">
-        <v>447</v>
+        <v>690</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O66" s="6"/>
+      <c r="A66" s="7" t="s">
+        <v>605</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7" t="s">
+        <v>689</v>
+      </c>
     </row>
     <row r="67" spans="1:15" ht="24.95" customHeight="1">
       <c r="A67" s="7" t="s">
-        <v>351</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="N67" s="7"/>
       <c r="O67" s="7" t="s">
-        <v>367</v>
+        <v>540</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A68" s="7" t="s">
-        <v>368</v>
+      <c r="A68" s="6" t="s">
+        <v>328</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>479</v>
+        <v>329</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>369</v>
+        <v>330</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A69" s="7" t="s">
-        <v>370</v>
+      <c r="A69" s="6" t="s">
+        <v>301</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>480</v>
+        <v>304</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>371</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="24.95" customHeight="1">
       <c r="A70" s="7" t="s">
-        <v>372</v>
+        <v>302</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>481</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
       <c r="O70" s="7" t="s">
-        <v>373</v>
+        <v>308</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="24.95" customHeight="1">
       <c r="A71" s="7" t="s">
-        <v>374</v>
+        <v>303</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>483</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
       <c r="O71" s="7" t="s">
-        <v>375</v>
+        <v>309</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="24.95" customHeight="1">
       <c r="A72" s="7" t="s">
-        <v>376</v>
+        <v>310</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>482</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
       <c r="O72" s="7" t="s">
-        <v>377</v>
+        <v>312</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="24.95" customHeight="1">
       <c r="A73" s="7" t="s">
-        <v>378</v>
+        <v>313</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="O73" s="6" t="s">
-        <v>379</v>
+        <v>314</v>
+      </c>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="24.95" customHeight="1">
       <c r="A74" s="7" t="s">
-        <v>380</v>
+        <v>318</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="O74" s="6" t="s">
-        <v>381</v>
+        <v>315</v>
+      </c>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="24.95" customHeight="1">
       <c r="A75" s="7" t="s">
-        <v>382</v>
+        <v>319</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>586</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
       <c r="O75" s="7" t="s">
-        <v>383</v>
+        <v>323</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="24.95" customHeight="1">
       <c r="A76" s="7" t="s">
-        <v>384</v>
+        <v>326</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>487</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
       <c r="O76" s="7" t="s">
-        <v>385</v>
+        <v>324</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="24.95" customHeight="1">
       <c r="A77" s="7" t="s">
-        <v>386</v>
+        <v>320</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>492</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="C77" s="7"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
       <c r="O77" s="7" t="s">
-        <v>387</v>
+        <v>325</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A78" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>491</v>
-      </c>
-      <c r="O78" s="7" t="s">
-        <v>389</v>
-      </c>
+      <c r="O78" s="6"/>
     </row>
     <row r="79" spans="1:15" ht="24.95" customHeight="1">
       <c r="A79" s="7" t="s">
-        <v>390</v>
+        <v>339</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>488</v>
+        <v>334</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>391</v>
+        <v>333</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="24.95" customHeight="1">
       <c r="A80" s="7" t="s">
-        <v>392</v>
+        <v>335</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>489</v>
+        <v>337</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>393</v>
+        <v>336</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="24.95" customHeight="1">
       <c r="A81" s="7" t="s">
-        <v>394</v>
+        <v>338</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>490</v>
+        <v>350</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>395</v>
+        <v>340</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="24.95" customHeight="1">
       <c r="A82" s="7" t="s">
-        <v>396</v>
+        <v>341</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>486</v>
+        <v>352</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="24.95" customHeight="1">
       <c r="A83" s="7" t="s">
-        <v>398</v>
+        <v>342</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>353</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>399</v>
+        <v>440</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="24.95" customHeight="1">
       <c r="A84" s="7" t="s">
-        <v>587</v>
+        <v>343</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>588</v>
+        <v>354</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>589</v>
+        <v>441</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="24.95" customHeight="1">
       <c r="A85" s="7" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="O85" s="7" t="s">
-        <v>401</v>
+        <v>355</v>
+      </c>
+      <c r="O85" s="6" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="24.95" customHeight="1">
       <c r="A86" s="7" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>494</v>
-      </c>
-      <c r="O86" s="7" t="s">
-        <v>403</v>
+        <v>356</v>
+      </c>
+      <c r="O86" s="6" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="24.95" customHeight="1">
       <c r="A87" s="7" t="s">
-        <v>593</v>
-      </c>
-      <c r="B87" s="7"/>
-      <c r="O87" s="7" t="s">
-        <v>594</v>
+        <v>346</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="O87" s="6" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="24.95" customHeight="1">
       <c r="A88" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="B88" s="7"/>
+        <v>347</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>358</v>
+      </c>
       <c r="O88" s="7" t="s">
-        <v>602</v>
+        <v>445</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="24.95" customHeight="1">
       <c r="A89" s="7" t="s">
-        <v>596</v>
-      </c>
-      <c r="B89" s="7"/>
+        <v>348</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>359</v>
+      </c>
       <c r="O89" s="7" t="s">
-        <v>603</v>
+        <v>446</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="24.95" customHeight="1">
       <c r="A90" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="B90" s="7"/>
+        <v>349</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>360</v>
+      </c>
       <c r="O90" s="7" t="s">
-        <v>604</v>
+        <v>447</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A91" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="B91" s="7"/>
-      <c r="O91" s="7" t="s">
-        <v>605</v>
-      </c>
+      <c r="O91" s="6"/>
     </row>
     <row r="92" spans="1:15" ht="24.95" customHeight="1">
       <c r="A92" s="7" t="s">
-        <v>599</v>
-      </c>
-      <c r="B92" s="7"/>
+        <v>351</v>
+      </c>
       <c r="O92" s="7" t="s">
-        <v>606</v>
+        <v>367</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="24.95" customHeight="1">
       <c r="A93" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="B93" s="7"/>
+        <v>368</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>477</v>
+      </c>
       <c r="O93" s="7" t="s">
-        <v>607</v>
+        <v>369</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="24.95" customHeight="1">
       <c r="A94" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="B94" s="7"/>
+        <v>370</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>478</v>
+      </c>
       <c r="O94" s="7" t="s">
-        <v>608</v>
+        <v>371</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A95" s="7"/>
-      <c r="B95" s="7"/>
-      <c r="O95" s="7"/>
+      <c r="A95" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="O95" s="7" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="96" spans="1:15" ht="24.95" customHeight="1">
       <c r="A96" s="7" t="s">
-        <v>404</v>
+        <v>374</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>405</v>
+        <v>481</v>
       </c>
       <c r="O96" s="7" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="24.95" customHeight="1">
       <c r="A97" s="7" t="s">
-        <v>406</v>
+        <v>376</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>590</v>
+        <v>480</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>407</v>
+        <v>377</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="24.95" customHeight="1">
       <c r="A98" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="O98" s="7" t="s">
-        <v>410</v>
+        <v>378</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="O98" s="6" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="24.95" customHeight="1">
       <c r="A99" s="7" t="s">
-        <v>411</v>
+        <v>380</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="O99" s="7" t="s">
-        <v>412</v>
+        <v>483</v>
+      </c>
+      <c r="O99" s="6" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="24.95" customHeight="1">
       <c r="A100" s="7" t="s">
-        <v>413</v>
+        <v>382</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="O100" s="7" t="s">
-        <v>414</v>
+        <v>383</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="24.95" customHeight="1">
       <c r="A101" s="7" t="s">
-        <v>415</v>
+        <v>384</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="O101" s="7" t="s">
-        <v>416</v>
+        <v>385</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="24.95" customHeight="1">
       <c r="A102" s="7" t="s">
-        <v>417</v>
+        <v>386</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>459</v>
+        <v>490</v>
       </c>
       <c r="O102" s="7" t="s">
-        <v>418</v>
+        <v>387</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="24.95" customHeight="1">
       <c r="A103" s="7" t="s">
-        <v>419</v>
+        <v>388</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>460</v>
+        <v>489</v>
       </c>
       <c r="O103" s="7" t="s">
-        <v>420</v>
+        <v>389</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="24.95" customHeight="1">
       <c r="A104" s="7" t="s">
-        <v>421</v>
+        <v>390</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="O104" s="7" t="s">
-        <v>422</v>
+        <v>391</v>
       </c>
     </row>
     <row r="105" spans="1:15" ht="24.95" customHeight="1">
       <c r="A105" s="7" t="s">
-        <v>423</v>
+        <v>392</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>487</v>
       </c>
       <c r="O105" s="7" t="s">
-        <v>424</v>
+        <v>393</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="24.95" customHeight="1">
       <c r="A106" s="7" t="s">
-        <v>592</v>
+        <v>394</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>488</v>
       </c>
       <c r="O106" s="7" t="s">
-        <v>425</v>
+        <v>395</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="24.95" customHeight="1">
       <c r="A107" s="7" t="s">
-        <v>426</v>
+        <v>396</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>484</v>
       </c>
       <c r="O107" s="7" t="s">
-        <v>427</v>
+        <v>397</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="24.95" customHeight="1">
       <c r="A108" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>429</v>
+        <v>398</v>
       </c>
       <c r="O108" s="7" t="s">
-        <v>430</v>
+        <v>399</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="24.95" customHeight="1">
       <c r="A109" s="7" t="s">
-        <v>432</v>
+        <v>583</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>584</v>
       </c>
       <c r="O109" s="7" t="s">
-        <v>431</v>
+        <v>585</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="24.95" customHeight="1">
       <c r="A110" s="7" t="s">
-        <v>433</v>
+        <v>400</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>456</v>
+        <v>491</v>
       </c>
       <c r="O110" s="7" t="s">
-        <v>434</v>
+        <v>401</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="24.95" customHeight="1">
       <c r="A111" s="7" t="s">
-        <v>435</v>
+        <v>402</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>455</v>
+        <v>492</v>
       </c>
       <c r="O111" s="7" t="s">
-        <v>436</v>
+        <v>403</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="24.95" customHeight="1">
       <c r="A112" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>451</v>
-      </c>
+        <v>589</v>
+      </c>
+      <c r="B112" s="7"/>
       <c r="O112" s="7" t="s">
-        <v>437</v>
+        <v>590</v>
       </c>
     </row>
     <row r="113" spans="1:15" ht="24.95" customHeight="1">
       <c r="A113" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>452</v>
-      </c>
+        <v>591</v>
+      </c>
+      <c r="B113" s="7"/>
       <c r="O113" s="7" t="s">
-        <v>438</v>
+        <v>598</v>
       </c>
     </row>
     <row r="114" spans="1:15" ht="24.95" customHeight="1">
       <c r="A114" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="O114" s="8" t="s">
-        <v>467</v>
+        <v>592</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c r="O114" s="7" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="115" spans="1:15" ht="24.95" customHeight="1">
       <c r="A115" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="B115" s="7" t="s">
-        <v>474</v>
-      </c>
+        <v>593</v>
+      </c>
+      <c r="B115" s="7"/>
       <c r="O115" s="7" t="s">
-        <v>468</v>
+        <v>600</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="24.95" customHeight="1">
       <c r="A116" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="B116" s="7" t="s">
-        <v>475</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="B116" s="7"/>
       <c r="O116" s="7" t="s">
-        <v>469</v>
+        <v>601</v>
       </c>
     </row>
     <row r="117" spans="1:15" ht="24.95" customHeight="1">
       <c r="A117" s="7" t="s">
-        <v>464</v>
-      </c>
-      <c r="B117" s="7" t="s">
-        <v>476</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="B117" s="7"/>
       <c r="O117" s="7" t="s">
-        <v>470</v>
+        <v>602</v>
       </c>
     </row>
     <row r="118" spans="1:15" ht="24.95" customHeight="1">
       <c r="A118" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="B118" s="7" t="s">
-        <v>478</v>
-      </c>
+        <v>596</v>
+      </c>
+      <c r="B118" s="7"/>
       <c r="O118" s="7" t="s">
-        <v>471</v>
+        <v>603</v>
       </c>
     </row>
     <row r="119" spans="1:15" ht="24.95" customHeight="1">
       <c r="A119" s="7" t="s">
-        <v>466</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>477</v>
-      </c>
+        <v>597</v>
+      </c>
+      <c r="B119" s="7"/>
       <c r="O119" s="7" t="s">
-        <v>472</v>
+        <v>604</v>
       </c>
     </row>
     <row r="120" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A120" s="7" t="s">
-        <v>495</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="O120" s="7" t="s">
-        <v>498</v>
-      </c>
+      <c r="A120" s="7"/>
+      <c r="B120" s="7"/>
+      <c r="O120" s="7"/>
     </row>
     <row r="121" spans="1:15" ht="24.95" customHeight="1">
       <c r="A121" s="7" t="s">
-        <v>496</v>
+        <v>404</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>500</v>
+        <v>405</v>
       </c>
       <c r="O121" s="7" t="s">
-        <v>497</v>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A122" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="O122" s="7" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="123" spans="1:15" ht="24.95" customHeight="1">
       <c r="A123" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="B123" s="7" t="s">
-        <v>362</v>
+        <v>408</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>409</v>
       </c>
       <c r="O123" s="7" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
     </row>
     <row r="124" spans="1:15" ht="24.95" customHeight="1">
       <c r="A124" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="B124" s="6" t="s">
-        <v>364</v>
+        <v>411</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>455</v>
       </c>
       <c r="O124" s="7" t="s">
-        <v>366</v>
+        <v>412</v>
       </c>
     </row>
     <row r="125" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A125" s="6" t="s">
-        <v>501</v>
+      <c r="A125" s="7" t="s">
+        <v>413</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>508</v>
+        <v>587</v>
       </c>
       <c r="O125" s="7" t="s">
-        <v>524</v>
+        <v>414</v>
       </c>
     </row>
     <row r="126" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A126" s="6" t="s">
-        <v>502</v>
+      <c r="A126" s="7" t="s">
+        <v>415</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>509</v>
+        <v>456</v>
       </c>
       <c r="O126" s="7" t="s">
-        <v>525</v>
+        <v>416</v>
       </c>
     </row>
     <row r="127" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A127" s="6" t="s">
-        <v>503</v>
+      <c r="A127" s="7" t="s">
+        <v>417</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="O127" s="10" t="s">
-        <v>526</v>
+        <v>457</v>
+      </c>
+      <c r="O127" s="7" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="128" spans="1:15" ht="24.95" customHeight="1">
       <c r="A128" s="7" t="s">
-        <v>504</v>
+        <v>419</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>511</v>
+        <v>458</v>
       </c>
       <c r="O128" s="7" t="s">
-        <v>527</v>
+        <v>420</v>
       </c>
     </row>
     <row r="129" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A129" s="6" t="s">
-        <v>505</v>
+      <c r="A129" s="7" t="s">
+        <v>421</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>512</v>
+        <v>422</v>
       </c>
       <c r="O129" s="7" t="s">
-        <v>528</v>
+        <v>422</v>
       </c>
     </row>
     <row r="130" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A130" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="B130" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="O130" s="10" t="s">
-        <v>529</v>
+      <c r="A130" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="O130" s="7" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="131" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A131" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="B131" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="O131" s="10" t="s">
-        <v>530</v>
+      <c r="A131" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="O131" s="7" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="132" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O132" s="10"/>
+      <c r="A132" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="O132" s="7" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="133" spans="1:15" ht="24.95" customHeight="1">
       <c r="A133" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="B133" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="O133" s="10" t="s">
-        <v>517</v>
+        <v>428</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="O133" s="7" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="134" spans="1:15" ht="24.95" customHeight="1">
       <c r="A134" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="O134" s="7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A135" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="O135" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A136" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="O136" s="7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A137" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="O137" s="7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A138" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="O138" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A139" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="O139" s="8" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A140" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="O140" s="7" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A141" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="O141" s="7" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A142" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="O142" s="7" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A143" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="O143" s="7" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A144" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="O144" s="7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A145" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="O145" s="7" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A146" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="O146" s="7" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A148" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="O148" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A149" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="O149" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A150" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="O150" s="7" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A151" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="O151" s="7" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A152" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="O152" s="10" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A153" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="O153" s="7" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A154" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="O154" s="7" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A155" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="O155" s="10" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A156" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="O156" s="10" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O157" s="10"/>
+    </row>
+    <row r="158" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A158" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="O158" s="10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A159" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="O159" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="B134" s="7" t="s">
-        <v>520</v>
-      </c>
-      <c r="O134" s="10" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O135" s="10"/>
-    </row>
-    <row r="136" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O136" s="10"/>
-    </row>
-    <row r="137" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O137" s="10"/>
-    </row>
-    <row r="138" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O138" s="6"/>
-    </row>
-    <row r="139" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O139" s="6"/>
-    </row>
-    <row r="140" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O140" s="6"/>
-    </row>
-    <row r="141" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O141" s="6"/>
-    </row>
-    <row r="142" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O142" s="6"/>
-    </row>
-    <row r="143" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O143" s="6"/>
-    </row>
-    <row r="144" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O144" s="6"/>
-    </row>
-    <row r="145" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O145" s="6"/>
-    </row>
-    <row r="146" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O146" s="6"/>
-    </row>
-    <row r="147" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O147" s="10"/>
-    </row>
-    <row r="148" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O148" s="10"/>
-    </row>
-    <row r="149" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O149" s="10"/>
-    </row>
-    <row r="150" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O150" s="6"/>
-    </row>
-    <row r="151" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O151" s="10"/>
-    </row>
-    <row r="153" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O153" s="10"/>
-    </row>
-    <row r="154" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O154" s="6"/>
-    </row>
-    <row r="155" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O155" s="6"/>
-    </row>
-    <row r="156" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O156" s="10"/>
-    </row>
-    <row r="157" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O157" s="10"/>
-    </row>
-    <row r="158" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O158" s="6"/>
-    </row>
-    <row r="159" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O159" s="10"/>
-    </row>
-    <row r="160" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O160" s="6"/>
-    </row>
-    <row r="161" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O161" s="6"/>
-    </row>
-    <row r="162" spans="1:15" ht="24.95" customHeight="1">
+    </row>
+    <row r="160" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O160" s="10"/>
+    </row>
+    <row r="161" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O161" s="10"/>
+    </row>
+    <row r="162" spans="15:15" ht="24.95" customHeight="1">
       <c r="O162" s="10"/>
     </row>
-    <row r="163" spans="1:15" ht="24.95" customHeight="1">
+    <row r="163" spans="15:15" ht="24.95" customHeight="1">
       <c r="O163" s="6"/>
     </row>
-    <row r="164" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O164" s="10"/>
-    </row>
-    <row r="165" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A165" s="7" t="s">
+    <row r="164" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O164" s="6"/>
+    </row>
+    <row r="165" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O165" s="6"/>
+    </row>
+    <row r="166" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O166" s="6"/>
+    </row>
+    <row r="167" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O167" s="6"/>
+    </row>
+    <row r="168" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O168" s="6"/>
+    </row>
+    <row r="169" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O169" s="6"/>
+    </row>
+    <row r="170" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O170" s="6"/>
+    </row>
+    <row r="171" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O171" s="6"/>
+    </row>
+    <row r="172" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O172" s="10"/>
+    </row>
+    <row r="173" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O173" s="10"/>
+    </row>
+    <row r="174" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O174" s="10"/>
+    </row>
+    <row r="175" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O175" s="6"/>
+    </row>
+    <row r="176" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O176" s="10"/>
+    </row>
+    <row r="178" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O178" s="10"/>
+    </row>
+    <row r="179" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O179" s="6"/>
+    </row>
+    <row r="180" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O180" s="6"/>
+    </row>
+    <row r="181" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A181" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="O181" s="8" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A182" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="O182" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A183" s="7"/>
+      <c r="B183" s="7"/>
+      <c r="C183" s="7"/>
+      <c r="D183" s="7"/>
+      <c r="E183" s="7"/>
+      <c r="F183" s="7"/>
+      <c r="G183" s="7"/>
+      <c r="H183" s="7"/>
+      <c r="I183" s="7"/>
+      <c r="J183" s="7"/>
+      <c r="K183" s="7"/>
+      <c r="L183" s="7"/>
+      <c r="M183" s="7"/>
+      <c r="N183" s="7"/>
+      <c r="O183" s="7"/>
+    </row>
+    <row r="184" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A184" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C184" s="7"/>
+      <c r="D184" s="7"/>
+      <c r="E184" s="7"/>
+      <c r="F184" s="7"/>
+      <c r="G184" s="7"/>
+      <c r="H184" s="7"/>
+      <c r="I184" s="7"/>
+      <c r="J184" s="7"/>
+      <c r="K184" s="7"/>
+      <c r="L184" s="7"/>
+      <c r="M184" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="N184" s="7"/>
+      <c r="O184" s="7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A185" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="C185" s="7"/>
+      <c r="D185" s="7"/>
+      <c r="E185" s="7"/>
+      <c r="F185" s="7"/>
+      <c r="G185" s="7"/>
+      <c r="H185" s="7"/>
+      <c r="I185" s="7"/>
+      <c r="J185" s="7"/>
+      <c r="K185" s="7"/>
+      <c r="L185" s="7"/>
+      <c r="M185" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="N185" s="7"/>
+      <c r="O185" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A186" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C186" s="7"/>
+      <c r="D186" s="7"/>
+      <c r="E186" s="7"/>
+      <c r="F186" s="7"/>
+      <c r="G186" s="7"/>
+      <c r="H186" s="7"/>
+      <c r="I186" s="7"/>
+      <c r="J186" s="7"/>
+      <c r="K186" s="7"/>
+      <c r="L186" s="7"/>
+      <c r="M186" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="N186" s="7"/>
+      <c r="O186" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A187" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="C187" s="7"/>
+      <c r="D187" s="7"/>
+      <c r="E187" s="7"/>
+      <c r="F187" s="7"/>
+      <c r="G187" s="7"/>
+      <c r="H187" s="7"/>
+      <c r="I187" s="7"/>
+      <c r="J187" s="7"/>
+      <c r="K187" s="7"/>
+      <c r="L187" s="7"/>
+      <c r="M187" s="7"/>
+      <c r="N187" s="7"/>
+      <c r="O187" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A188" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="C188" s="7"/>
+      <c r="D188" s="7"/>
+      <c r="E188" s="7"/>
+      <c r="F188" s="7"/>
+      <c r="G188" s="7"/>
+      <c r="H188" s="7"/>
+      <c r="I188" s="7"/>
+      <c r="J188" s="7"/>
+      <c r="K188" s="7"/>
+      <c r="L188" s="7"/>
+      <c r="M188" s="7"/>
+      <c r="N188" s="7"/>
+      <c r="O188" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A189" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="C189" s="7"/>
+      <c r="D189" s="7"/>
+      <c r="E189" s="7"/>
+      <c r="F189" s="7"/>
+      <c r="G189" s="7"/>
+      <c r="H189" s="7"/>
+      <c r="I189" s="7"/>
+      <c r="J189" s="7"/>
+      <c r="K189" s="7"/>
+      <c r="L189" s="7"/>
+      <c r="M189" s="7"/>
+      <c r="N189" s="7"/>
+      <c r="O189" s="7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A190" s="7"/>
+      <c r="B190" s="7"/>
+      <c r="C190" s="7"/>
+      <c r="D190" s="7"/>
+      <c r="E190" s="7"/>
+      <c r="F190" s="7"/>
+      <c r="G190" s="7"/>
+      <c r="H190" s="7"/>
+      <c r="I190" s="7"/>
+      <c r="J190" s="7"/>
+      <c r="K190" s="7"/>
+      <c r="L190" s="7"/>
+      <c r="M190" s="7"/>
+      <c r="N190" s="7"/>
+      <c r="O190" s="7"/>
+    </row>
+    <row r="191" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A191" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="B165" s="7" t="s">
+      <c r="B191" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="O165" s="7" t="s">
+      <c r="O191" s="7" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O166" s="10"/>
-    </row>
-    <row r="167" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O167" s="10"/>
-    </row>
-    <row r="168" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O168" s="6"/>
-    </row>
-    <row r="169" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O169" s="6"/>
-    </row>
-    <row r="170" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O170" s="6"/>
-    </row>
-    <row r="171" spans="1:15" ht="24.95" customHeight="1">
-      <c r="B171" s="9"/>
-      <c r="M171" s="9"/>
-    </row>
-    <row r="172" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O172" s="6"/>
-    </row>
-    <row r="173" spans="1:15" ht="24.95" customHeight="1">
-      <c r="B173" s="9"/>
-      <c r="M173" s="9"/>
-    </row>
-    <row r="174" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O174" s="6"/>
-    </row>
-    <row r="175" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O175" s="6"/>
-    </row>
-    <row r="176" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O176" s="6"/>
-    </row>
-    <row r="177" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O177" s="6"/>
-    </row>
-    <row r="178" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O178" s="6"/>
-    </row>
-    <row r="179" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O179" s="6"/>
-    </row>
-    <row r="180" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O180" s="6"/>
-    </row>
-    <row r="181" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O181" s="6"/>
-    </row>
-    <row r="182" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O182" s="6"/>
-    </row>
-    <row r="183" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O183" s="6"/>
-    </row>
-    <row r="184" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O184" s="6"/>
-    </row>
-    <row r="185" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O185" s="6"/>
-    </row>
-    <row r="186" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O186" s="6"/>
-    </row>
-    <row r="187" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O187" s="6"/>
-    </row>
-    <row r="188" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O188" s="6"/>
-    </row>
-    <row r="189" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O189" s="6"/>
-    </row>
-    <row r="190" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O190" s="6"/>
-    </row>
-    <row r="191" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O191" s="6"/>
-    </row>
-    <row r="192" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O192" s="6"/>
-    </row>
-    <row r="193" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O193" s="6"/>
-    </row>
-    <row r="194" spans="15:15" ht="24.95" customHeight="1">
+    <row r="192" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O192" s="10"/>
+    </row>
+    <row r="193" spans="2:15" ht="24.95" customHeight="1">
+      <c r="O193" s="10"/>
+    </row>
+    <row r="194" spans="2:15" ht="24.95" customHeight="1">
       <c r="O194" s="6"/>
     </row>
-    <row r="195" spans="15:15" ht="24.95" customHeight="1">
+    <row r="195" spans="2:15" ht="24.95" customHeight="1">
       <c r="O195" s="6"/>
     </row>
-    <row r="196" spans="15:15" ht="24.95" customHeight="1">
+    <row r="196" spans="2:15" ht="24.95" customHeight="1">
       <c r="O196" s="6"/>
     </row>
-    <row r="197" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O197" s="6"/>
-    </row>
-    <row r="198" spans="15:15" ht="24.95" customHeight="1">
+    <row r="197" spans="2:15" ht="24.95" customHeight="1">
+      <c r="B197" s="9"/>
+      <c r="M197" s="9"/>
+    </row>
+    <row r="198" spans="2:15" ht="24.95" customHeight="1">
       <c r="O198" s="6"/>
     </row>
-    <row r="199" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O199" s="6"/>
-    </row>
-    <row r="200" spans="15:15" ht="24.95" customHeight="1">
+    <row r="199" spans="2:15" ht="24.95" customHeight="1">
+      <c r="B199" s="9"/>
+      <c r="M199" s="9"/>
+    </row>
+    <row r="200" spans="2:15" ht="24.95" customHeight="1">
       <c r="O200" s="6"/>
     </row>
-    <row r="201" spans="15:15" ht="24.95" customHeight="1">
+    <row r="201" spans="2:15" ht="24.95" customHeight="1">
       <c r="O201" s="6"/>
     </row>
-    <row r="202" spans="15:15" ht="24.95" customHeight="1">
+    <row r="202" spans="2:15" ht="24.95" customHeight="1">
       <c r="O202" s="6"/>
     </row>
-    <row r="203" spans="15:15" ht="24.95" customHeight="1">
+    <row r="203" spans="2:15" ht="24.95" customHeight="1">
       <c r="O203" s="6"/>
     </row>
-    <row r="204" spans="15:15" ht="24.95" customHeight="1">
+    <row r="204" spans="2:15" ht="24.95" customHeight="1">
       <c r="O204" s="6"/>
     </row>
-    <row r="205" spans="15:15" ht="24.95" customHeight="1">
+    <row r="205" spans="2:15" ht="24.95" customHeight="1">
       <c r="O205" s="6"/>
     </row>
-    <row r="206" spans="15:15" ht="24.95" customHeight="1">
+    <row r="206" spans="2:15" ht="24.95" customHeight="1">
       <c r="O206" s="6"/>
     </row>
-    <row r="207" spans="15:15" ht="24.95" customHeight="1">
+    <row r="207" spans="2:15" ht="24.95" customHeight="1">
       <c r="O207" s="6"/>
     </row>
-    <row r="208" spans="15:15" ht="24.95" customHeight="1">
+    <row r="208" spans="2:15" ht="24.95" customHeight="1">
       <c r="O208" s="6"/>
     </row>
     <row r="209" spans="15:15" ht="24.95" customHeight="1">
@@ -5761,6 +6308,9 @@
     <row r="514" spans="15:15" ht="24.95" customHeight="1">
       <c r="O514" s="6"/>
     </row>
+    <row r="515" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O515" s="6"/>
+    </row>
     <row r="516" spans="15:15" ht="24.95" customHeight="1">
       <c r="O516" s="6"/>
     </row>
@@ -5836,9 +6386,6 @@
     <row r="540" spans="15:15" ht="24.95" customHeight="1">
       <c r="O540" s="6"/>
     </row>
-    <row r="541" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O541" s="6"/>
-    </row>
     <row r="542" spans="15:15" ht="24.95" customHeight="1">
       <c r="O542" s="6"/>
     </row>
@@ -6904,65 +7451,52 @@
     <row r="896" spans="15:15" ht="24.95" customHeight="1">
       <c r="O896" s="6"/>
     </row>
-    <row r="897" spans="1:15" ht="24.95" customHeight="1">
+    <row r="897" spans="15:15" ht="24.95" customHeight="1">
       <c r="O897" s="6"/>
     </row>
-    <row r="898" spans="1:15" ht="24.95" customHeight="1">
+    <row r="898" spans="15:15" ht="24.95" customHeight="1">
       <c r="O898" s="6"/>
     </row>
-    <row r="899" spans="1:15" ht="24.95" customHeight="1">
+    <row r="899" spans="15:15" ht="24.95" customHeight="1">
       <c r="O899" s="6"/>
     </row>
-    <row r="900" spans="1:15" ht="24.95" customHeight="1">
+    <row r="900" spans="15:15" ht="24.95" customHeight="1">
       <c r="O900" s="6"/>
     </row>
-    <row r="901" spans="1:15" ht="24.95" customHeight="1">
+    <row r="901" spans="15:15" ht="24.95" customHeight="1">
       <c r="O901" s="6"/>
     </row>
-    <row r="902" spans="1:15" ht="24.95" customHeight="1">
+    <row r="902" spans="15:15" ht="24.95" customHeight="1">
       <c r="O902" s="6"/>
     </row>
-    <row r="903" spans="1:15" ht="24.95" customHeight="1">
+    <row r="903" spans="15:15" ht="24.95" customHeight="1">
       <c r="O903" s="6"/>
     </row>
-    <row r="904" spans="1:15" ht="24.95" customHeight="1">
+    <row r="904" spans="15:15" ht="24.95" customHeight="1">
       <c r="O904" s="6"/>
     </row>
-    <row r="905" spans="1:15" ht="24.95" customHeight="1">
+    <row r="905" spans="15:15" ht="24.95" customHeight="1">
       <c r="O905" s="6"/>
     </row>
-    <row r="906" spans="1:15" ht="24.95" customHeight="1">
+    <row r="906" spans="15:15" ht="24.95" customHeight="1">
       <c r="O906" s="6"/>
     </row>
-    <row r="907" spans="1:15" ht="24.95" customHeight="1">
+    <row r="907" spans="15:15" ht="24.95" customHeight="1">
       <c r="O907" s="6"/>
     </row>
-    <row r="908" spans="1:15" ht="24.95" customHeight="1">
+    <row r="908" spans="15:15" ht="24.95" customHeight="1">
       <c r="O908" s="6"/>
     </row>
-    <row r="909" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A909" s="11"/>
-      <c r="B909" s="11"/>
-      <c r="D909" s="11"/>
-      <c r="E909" s="11"/>
-      <c r="F909" s="11"/>
-      <c r="G909" s="11"/>
-      <c r="H909" s="11"/>
-      <c r="I909" s="11"/>
-      <c r="J909" s="11"/>
-      <c r="K909" s="11"/>
-      <c r="L909" s="11"/>
-      <c r="M909" s="11"/>
-      <c r="N909" s="11"/>
-      <c r="O909" s="12"/>
-    </row>
-    <row r="910" spans="1:15" ht="24.95" customHeight="1">
+    <row r="909" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O909" s="6"/>
+    </row>
+    <row r="910" spans="15:15" ht="24.95" customHeight="1">
       <c r="O910" s="6"/>
     </row>
-    <row r="911" spans="1:15" ht="24.95" customHeight="1">
+    <row r="911" spans="15:15" ht="24.95" customHeight="1">
       <c r="O911" s="6"/>
     </row>
-    <row r="912" spans="1:15" ht="24.95" customHeight="1">
+    <row r="912" spans="15:15" ht="24.95" customHeight="1">
       <c r="O912" s="6"/>
     </row>
     <row r="913" spans="15:15" ht="24.95" customHeight="1">
@@ -7013,52 +7547,65 @@
     <row r="928" spans="15:15" ht="24.95" customHeight="1">
       <c r="O928" s="6"/>
     </row>
-    <row r="929" spans="15:15" ht="24.95" customHeight="1">
+    <row r="929" spans="1:15" ht="24.95" customHeight="1">
       <c r="O929" s="6"/>
     </row>
-    <row r="930" spans="15:15" ht="24.95" customHeight="1">
+    <row r="930" spans="1:15" ht="24.95" customHeight="1">
       <c r="O930" s="6"/>
     </row>
-    <row r="931" spans="15:15" ht="24.95" customHeight="1">
+    <row r="931" spans="1:15" ht="24.95" customHeight="1">
       <c r="O931" s="6"/>
     </row>
-    <row r="932" spans="15:15" ht="24.95" customHeight="1">
+    <row r="932" spans="1:15" ht="24.95" customHeight="1">
       <c r="O932" s="6"/>
     </row>
-    <row r="933" spans="15:15" ht="24.95" customHeight="1">
+    <row r="933" spans="1:15" ht="24.95" customHeight="1">
       <c r="O933" s="6"/>
     </row>
-    <row r="934" spans="15:15" ht="24.95" customHeight="1">
+    <row r="934" spans="1:15" ht="24.95" customHeight="1">
       <c r="O934" s="6"/>
     </row>
-    <row r="935" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O935" s="6"/>
-    </row>
-    <row r="936" spans="15:15" ht="24.95" customHeight="1">
+    <row r="935" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A935" s="11"/>
+      <c r="B935" s="11"/>
+      <c r="D935" s="11"/>
+      <c r="E935" s="11"/>
+      <c r="F935" s="11"/>
+      <c r="G935" s="11"/>
+      <c r="H935" s="11"/>
+      <c r="I935" s="11"/>
+      <c r="J935" s="11"/>
+      <c r="K935" s="11"/>
+      <c r="L935" s="11"/>
+      <c r="M935" s="11"/>
+      <c r="N935" s="11"/>
+      <c r="O935" s="12"/>
+    </row>
+    <row r="936" spans="1:15" ht="24.95" customHeight="1">
       <c r="O936" s="6"/>
     </row>
-    <row r="937" spans="15:15" ht="24.95" customHeight="1">
+    <row r="937" spans="1:15" ht="24.95" customHeight="1">
       <c r="O937" s="6"/>
     </row>
-    <row r="938" spans="15:15" ht="24.95" customHeight="1">
+    <row r="938" spans="1:15" ht="24.95" customHeight="1">
       <c r="O938" s="6"/>
     </row>
-    <row r="939" spans="15:15" ht="24.95" customHeight="1">
+    <row r="939" spans="1:15" ht="24.95" customHeight="1">
       <c r="O939" s="6"/>
     </row>
-    <row r="940" spans="15:15" ht="24.95" customHeight="1">
+    <row r="940" spans="1:15" ht="24.95" customHeight="1">
       <c r="O940" s="6"/>
     </row>
-    <row r="941" spans="15:15" ht="24.95" customHeight="1">
+    <row r="941" spans="1:15" ht="24.95" customHeight="1">
       <c r="O941" s="6"/>
     </row>
-    <row r="942" spans="15:15" ht="24.95" customHeight="1">
+    <row r="942" spans="1:15" ht="24.95" customHeight="1">
       <c r="O942" s="6"/>
     </row>
-    <row r="943" spans="15:15" ht="24.95" customHeight="1">
+    <row r="943" spans="1:15" ht="24.95" customHeight="1">
       <c r="O943" s="6"/>
     </row>
-    <row r="944" spans="15:15" ht="24.95" customHeight="1">
+    <row r="944" spans="1:15" ht="24.95" customHeight="1">
       <c r="O944" s="6"/>
     </row>
     <row r="945" spans="15:15" ht="24.95" customHeight="1">
@@ -8471,8 +9018,86 @@
     <row r="1414" spans="15:15" ht="24.95" customHeight="1">
       <c r="O1414" s="6"/>
     </row>
+    <row r="1415" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1415" s="6"/>
+    </row>
+    <row r="1416" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1416" s="6"/>
+    </row>
+    <row r="1417" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1417" s="6"/>
+    </row>
+    <row r="1418" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1418" s="6"/>
+    </row>
+    <row r="1419" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1419" s="6"/>
+    </row>
+    <row r="1420" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1420" s="6"/>
+    </row>
+    <row r="1421" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1421" s="6"/>
+    </row>
+    <row r="1422" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1422" s="6"/>
+    </row>
+    <row r="1423" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1423" s="6"/>
+    </row>
+    <row r="1424" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1424" s="6"/>
+    </row>
+    <row r="1425" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1425" s="6"/>
+    </row>
+    <row r="1426" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1426" s="6"/>
+    </row>
+    <row r="1427" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1427" s="6"/>
+    </row>
+    <row r="1428" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1428" s="6"/>
+    </row>
+    <row r="1429" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1429" s="6"/>
+    </row>
+    <row r="1430" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1430" s="6"/>
+    </row>
+    <row r="1431" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1431" s="6"/>
+    </row>
+    <row r="1432" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1432" s="6"/>
+    </row>
+    <row r="1433" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1433" s="6"/>
+    </row>
+    <row r="1434" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1434" s="6"/>
+    </row>
+    <row r="1435" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1435" s="6"/>
+    </row>
+    <row r="1436" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1436" s="6"/>
+    </row>
+    <row r="1437" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1437" s="6"/>
+    </row>
+    <row r="1438" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1438" s="6"/>
+    </row>
+    <row r="1439" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1439" s="6"/>
+    </row>
+    <row r="1440" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1440" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="O1:O1117" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="O1:O1143" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9212,7 +9837,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>21</v>
@@ -9237,7 +9862,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>21</v>
@@ -9287,7 +9912,7 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>21</v>
@@ -9312,7 +9937,7 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>21</v>
@@ -9537,7 +10162,7 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>21</v>
@@ -9555,7 +10180,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
@@ -9637,7 +10262,7 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>21</v>
@@ -10263,7 +10888,7 @@
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>21</v>
@@ -10274,7 +10899,7 @@
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>21</v>
@@ -10285,7 +10910,7 @@
     </row>
     <row r="81" spans="1:19">
       <c r="A81" s="1" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>21</v>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs\TheOtherUs-Edited\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{724E1D0E-2593-4404-9211-5F26B87748A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB488E75-105E-47A8-9B2C-957D5F5289B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3236,8 +3236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="O65" sqref="O65"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="24.95" customHeight="1"/>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs\TheOtherUs-Edited\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB488E75-105E-47A8-9B2C-957D5F5289B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B5E395-09DC-4FB7-BD26-D81CE8F1BBF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="691">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="718">
   <si>
     <t>English</t>
   </si>
@@ -353,12 +353,6 @@
   </si>
   <si>
     <t>通灵</t>
-  </si>
-  <si>
-    <t>PathfindText</t>
-  </si>
-  <si>
-    <t>寻找</t>
   </si>
   <si>
     <t>空包弹</t>
@@ -2620,6 +2614,122 @@
   </si>
   <si>
     <t>&lt;color=#CCCCCCFF&gt;关闭&lt;/color&gt;</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAMO</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLEAN</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SEAL</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CURSE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>KILL</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOUSE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EARSE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>HARK</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LGNITE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIGET</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MORPH</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAM</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLACE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPAIR</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>REWIND</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAMPLE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>REVEAL</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIELD</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHIFT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SIDEKICK</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESHIELD</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>TRACK</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIND</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>VENT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BITE</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASK</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLANK</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPELL</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3236,8 +3346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="24.95" customHeight="1"/>
@@ -3253,7 +3363,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="24.95" customHeight="1">
       <c r="B1" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>1</v>
@@ -3306,7 +3416,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>17</v>
@@ -3317,79 +3427,79 @@
     </row>
     <row r="3" spans="1:17" ht="24.95" customHeight="1">
       <c r="A3" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="24.95" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="28.5">
       <c r="A5" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="O5" s="8" t="s">
         <v>183</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="O5" s="8" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="24.95" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="24.95" customHeight="1">
       <c r="A7" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="24.95" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="24.95" customHeight="1">
       <c r="A9" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="42.75">
@@ -3397,40 +3507,40 @@
         <v>19</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="42.75">
       <c r="A11" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="42.75">
       <c r="A12" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="O12" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="313.5">
       <c r="A13" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -3445,7 +3555,7 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="24.95" customHeight="1">
@@ -3453,134 +3563,134 @@
     </row>
     <row r="15" spans="1:17" ht="24.95" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="24.95" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="24.95" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="24.95" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="24.95" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="24.95" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="24.95" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="24.95" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="24.95" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="24.95" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="24.95" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="O25" s="8" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="24.95" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="O26" s="8" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="24.95" customHeight="1">
@@ -3590,68 +3700,68 @@
     </row>
     <row r="28" spans="1:15" ht="24.95" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="O28" s="8" t="s">
         <v>624</v>
-      </c>
-      <c r="O28" s="8" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="24.95" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="24.95" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="24.95" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="24.95" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="24.95" customHeight="1">
       <c r="A33" s="7" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="O33" s="8" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="24.95" customHeight="1">
@@ -3661,46 +3771,46 @@
     </row>
     <row r="35" spans="1:15" ht="24.95" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="O35" s="8" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="24.95" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="24.95" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="O37" s="8" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="24.95" customHeight="1">
       <c r="A38" s="8" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="O38" s="8" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="24.95" customHeight="1">
@@ -3708,46 +3818,46 @@
     </row>
     <row r="40" spans="1:15" ht="24.95" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="24.95" customHeight="1">
       <c r="A41" s="8" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="24.95" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="24.95" customHeight="1">
       <c r="A43" s="8" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="44" spans="1:15" ht="24.95" customHeight="1">
@@ -3755,115 +3865,115 @@
     </row>
     <row r="45" spans="1:15" ht="24.95" customHeight="1">
       <c r="A45" s="8" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B45" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="O45" s="7" t="s">
         <v>628</v>
-      </c>
-      <c r="M45" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="24.95" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="O46" s="9" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="24.95" customHeight="1">
       <c r="A47" s="8" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="O47" s="9" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="24.95" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="O48" s="9" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="24.95" customHeight="1">
       <c r="A49" s="8" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="24.95" customHeight="1">
       <c r="A50" s="7" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="O50" s="9" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="24.95" customHeight="1">
       <c r="A51" s="7" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="O51" s="9" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="24.95" customHeight="1">
       <c r="A52" s="7" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="24.95" customHeight="1">
       <c r="A53" s="7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="24.95" customHeight="1">
       <c r="A54" s="7" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="24.95" customHeight="1">
@@ -3871,50 +3981,50 @@
     </row>
     <row r="56" spans="1:15" ht="24.95" customHeight="1">
       <c r="A56" s="7" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="O56" s="8" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="24.95" customHeight="1">
       <c r="A57" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="O57" s="8" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="24.95" customHeight="1">
       <c r="A58" s="7" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="O58" s="8" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="24.95" customHeight="1">
       <c r="A59" s="7" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="O59" s="8" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="24.95" customHeight="1">
       <c r="A60" s="7" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="O60" s="8" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="24.95" customHeight="1">
       <c r="A61" s="7" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="O61" s="8" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="24.95" customHeight="1">
@@ -3922,10 +4032,10 @@
     </row>
     <row r="63" spans="1:15" ht="24.95" customHeight="1">
       <c r="A63" s="7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -3938,11 +4048,11 @@
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
       <c r="M63" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="N63" s="7"/>
       <c r="O63" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="24.95" customHeight="1">
@@ -3964,10 +4074,10 @@
     </row>
     <row r="65" spans="1:15" ht="24.95" customHeight="1">
       <c r="A65" s="7" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -3982,15 +4092,15 @@
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
       <c r="O65" s="7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="24.95" customHeight="1">
       <c r="A66" s="7" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -4005,15 +4115,15 @@
       <c r="M66" s="7"/>
       <c r="N66" s="7"/>
       <c r="O66" s="7" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="24.95" customHeight="1">
       <c r="A67" s="7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -4026,41 +4136,41 @@
       <c r="K67" s="7"/>
       <c r="L67" s="7"/>
       <c r="M67" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="N67" s="7"/>
       <c r="O67" s="7" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="24.95" customHeight="1">
       <c r="A68" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="O68" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="O68" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="24.95" customHeight="1">
       <c r="A69" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="24.95" customHeight="1">
       <c r="A70" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -4075,15 +4185,15 @@
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
       <c r="O70" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="24.95" customHeight="1">
       <c r="A71" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -4098,15 +4208,15 @@
       <c r="M71" s="7"/>
       <c r="N71" s="7"/>
       <c r="O71" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="24.95" customHeight="1">
       <c r="A72" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -4121,15 +4231,15 @@
       <c r="M72" s="7"/>
       <c r="N72" s="7"/>
       <c r="O72" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="24.95" customHeight="1">
       <c r="A73" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -4144,15 +4254,15 @@
       <c r="M73" s="7"/>
       <c r="N73" s="7"/>
       <c r="O73" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="24.95" customHeight="1">
       <c r="A74" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -4167,15 +4277,15 @@
       <c r="M74" s="7"/>
       <c r="N74" s="7"/>
       <c r="O74" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="24.95" customHeight="1">
       <c r="A75" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -4190,15 +4300,15 @@
       <c r="M75" s="7"/>
       <c r="N75" s="7"/>
       <c r="O75" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="24.95" customHeight="1">
       <c r="A76" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -4213,15 +4323,15 @@
       <c r="M76" s="7"/>
       <c r="N76" s="7"/>
       <c r="O76" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="24.95" customHeight="1">
       <c r="A77" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -4236,7 +4346,7 @@
       <c r="M77" s="7"/>
       <c r="N77" s="7"/>
       <c r="O77" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="78" spans="1:15" ht="24.95" customHeight="1">
@@ -4244,134 +4354,134 @@
     </row>
     <row r="79" spans="1:15" ht="24.95" customHeight="1">
       <c r="A79" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="24.95" customHeight="1">
       <c r="A80" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B80" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="B80" s="7" t="s">
-        <v>337</v>
-      </c>
       <c r="O80" s="7" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="24.95" customHeight="1">
       <c r="A81" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="O81" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="O81" s="7" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="24.95" customHeight="1">
       <c r="A82" s="7" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="24.95" customHeight="1">
       <c r="A83" s="7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="84" spans="1:15" ht="24.95" customHeight="1">
       <c r="A84" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="24.95" customHeight="1">
       <c r="A85" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="O85" s="6" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="24.95" customHeight="1">
       <c r="A86" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="O86" s="6" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="24.95" customHeight="1">
       <c r="A87" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="O87" s="6" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="24.95" customHeight="1">
       <c r="A88" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="O88" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="89" spans="1:15" ht="24.95" customHeight="1">
       <c r="A89" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="O89" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="24.95" customHeight="1">
       <c r="A90" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="O90" s="7" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="24.95" customHeight="1">
@@ -4379,288 +4489,288 @@
     </row>
     <row r="92" spans="1:15" ht="24.95" customHeight="1">
       <c r="A92" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="O92" s="7" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="24.95" customHeight="1">
       <c r="A93" s="7" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="O93" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="24.95" customHeight="1">
       <c r="A94" s="7" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="O94" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="24.95" customHeight="1">
       <c r="A95" s="7" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="O95" s="7" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="24.95" customHeight="1">
       <c r="A96" s="7" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="O96" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="24.95" customHeight="1">
       <c r="A97" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="24.95" customHeight="1">
       <c r="A98" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="O98" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="24.95" customHeight="1">
       <c r="A99" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="O99" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="24.95" customHeight="1">
       <c r="A100" s="7" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O100" s="7" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="24.95" customHeight="1">
       <c r="A101" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="O101" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="24.95" customHeight="1">
       <c r="A102" s="7" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="O102" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="24.95" customHeight="1">
       <c r="A103" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="O103" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="24.95" customHeight="1">
       <c r="A104" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="O104" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="105" spans="1:15" ht="24.95" customHeight="1">
       <c r="A105" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="O105" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="24.95" customHeight="1">
       <c r="A106" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="O106" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="24.95" customHeight="1">
       <c r="A107" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="O107" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="24.95" customHeight="1">
       <c r="A108" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="O108" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="24.95" customHeight="1">
       <c r="A109" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="O109" s="7" t="s">
         <v>583</v>
-      </c>
-      <c r="B109" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="O109" s="7" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="24.95" customHeight="1">
       <c r="A110" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="O110" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="24.95" customHeight="1">
       <c r="A111" s="7" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="O111" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="24.95" customHeight="1">
       <c r="A112" s="7" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B112" s="7"/>
       <c r="O112" s="7" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="113" spans="1:15" ht="24.95" customHeight="1">
       <c r="A113" s="7" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B113" s="7"/>
       <c r="O113" s="7" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="114" spans="1:15" ht="24.95" customHeight="1">
       <c r="A114" s="7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B114" s="7"/>
       <c r="O114" s="7" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="115" spans="1:15" ht="24.95" customHeight="1">
       <c r="A115" s="7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B115" s="7"/>
       <c r="O115" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="24.95" customHeight="1">
       <c r="A116" s="7" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B116" s="7"/>
       <c r="O116" s="7" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="117" spans="1:15" ht="24.95" customHeight="1">
       <c r="A117" s="7" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B117" s="7"/>
       <c r="O117" s="7" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="118" spans="1:15" ht="24.95" customHeight="1">
       <c r="A118" s="7" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B118" s="7"/>
       <c r="O118" s="7" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="119" spans="1:15" ht="24.95" customHeight="1">
       <c r="A119" s="7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B119" s="7"/>
       <c r="O119" s="7" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="120" spans="1:15" ht="24.95" customHeight="1">
@@ -4670,375 +4780,375 @@
     </row>
     <row r="121" spans="1:15" ht="24.95" customHeight="1">
       <c r="A121" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="O121" s="7" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="122" spans="1:15" ht="24.95" customHeight="1">
       <c r="A122" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O122" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="123" spans="1:15" ht="24.95" customHeight="1">
       <c r="A123" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="O123" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="O123" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="124" spans="1:15" ht="24.95" customHeight="1">
       <c r="A124" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="O124" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="125" spans="1:15" ht="24.95" customHeight="1">
       <c r="A125" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="O125" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="126" spans="1:15" ht="24.95" customHeight="1">
       <c r="A126" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="O126" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="127" spans="1:15" ht="24.95" customHeight="1">
       <c r="A127" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="O127" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="128" spans="1:15" ht="24.95" customHeight="1">
       <c r="A128" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="O128" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="129" spans="1:15" ht="24.95" customHeight="1">
       <c r="A129" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="O129" s="7" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="130" spans="1:15" ht="24.95" customHeight="1">
       <c r="A130" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="O130" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="131" spans="1:15" ht="24.95" customHeight="1">
       <c r="A131" s="7" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="O131" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="132" spans="1:15" ht="24.95" customHeight="1">
       <c r="A132" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="O132" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="133" spans="1:15" ht="24.95" customHeight="1">
       <c r="A133" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="O133" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="O133" s="7" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="134" spans="1:15" ht="24.95" customHeight="1">
       <c r="A134" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="O134" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="135" spans="1:15" ht="24.95" customHeight="1">
       <c r="A135" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="O135" s="7" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="136" spans="1:15" ht="24.95" customHeight="1">
       <c r="A136" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="O136" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="137" spans="1:15" ht="24.95" customHeight="1">
       <c r="A137" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="O137" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="138" spans="1:15" ht="24.95" customHeight="1">
       <c r="A138" s="7" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="O138" s="7" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="139" spans="1:15" ht="24.95" customHeight="1">
       <c r="A139" s="7" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="O139" s="8" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="140" spans="1:15" ht="24.95" customHeight="1">
       <c r="A140" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="O140" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="141" spans="1:15" ht="24.95" customHeight="1">
       <c r="A141" s="7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="O141" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="142" spans="1:15" ht="24.95" customHeight="1">
       <c r="A142" s="7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="O142" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="143" spans="1:15" ht="24.95" customHeight="1">
       <c r="A143" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="O143" s="7" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="144" spans="1:15" ht="24.95" customHeight="1">
       <c r="A144" s="7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="O144" s="7" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="145" spans="1:15" ht="24.95" customHeight="1">
       <c r="A145" s="7" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="O145" s="7" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="146" spans="1:15" ht="24.95" customHeight="1">
       <c r="A146" s="7" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="O146" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="148" spans="1:15" ht="24.95" customHeight="1">
       <c r="A148" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="O148" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="149" spans="1:15" ht="24.95" customHeight="1">
       <c r="A149" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B149" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="O149" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="O149" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="150" spans="1:15" ht="24.95" customHeight="1">
       <c r="A150" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="O150" s="7" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="151" spans="1:15" ht="24.95" customHeight="1">
       <c r="A151" s="6" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="O151" s="7" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="152" spans="1:15" ht="24.95" customHeight="1">
       <c r="A152" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="O152" s="10" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="153" spans="1:15" ht="24.95" customHeight="1">
       <c r="A153" s="7" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="O153" s="7" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="154" spans="1:15" ht="24.95" customHeight="1">
       <c r="A154" s="6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="O154" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="155" spans="1:15" ht="24.95" customHeight="1">
       <c r="A155" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="O155" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
     </row>
     <row r="156" spans="1:15" ht="24.95" customHeight="1">
       <c r="A156" s="6" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="O156" s="10" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="157" spans="1:15" ht="24.95" customHeight="1">
@@ -5046,24 +5156,24 @@
     </row>
     <row r="158" spans="1:15" ht="24.95" customHeight="1">
       <c r="A158" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>515</v>
+      </c>
+      <c r="O158" s="10" t="s">
         <v>513</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>517</v>
-      </c>
-      <c r="O158" s="10" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="159" spans="1:15" ht="24.95" customHeight="1">
       <c r="A159" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="O159" s="10" t="s">
         <v>514</v>
-      </c>
-      <c r="B159" s="7" t="s">
-        <v>518</v>
-      </c>
-      <c r="O159" s="10" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="160" spans="1:15" ht="24.95" customHeight="1">
@@ -5128,24 +5238,24 @@
     </row>
     <row r="181" spans="1:15" ht="24.95" customHeight="1">
       <c r="A181" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="O181" s="8" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="182" spans="1:15" ht="24.95" customHeight="1">
       <c r="A182" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B182" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="O182" s="6" t="s">
         <v>186</v>
-      </c>
-      <c r="O182" s="6" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="183" spans="1:15" ht="24.95" customHeight="1">
@@ -5167,10 +5277,10 @@
     </row>
     <row r="184" spans="1:15" ht="24.95" customHeight="1">
       <c r="A184" s="7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C184" s="7"/>
       <c r="D184" s="7"/>
@@ -5183,19 +5293,19 @@
       <c r="K184" s="7"/>
       <c r="L184" s="7"/>
       <c r="M184" s="7" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="N184" s="7"/>
       <c r="O184" s="7" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="185" spans="1:15" ht="24.95" customHeight="1">
       <c r="A185" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C185" s="7"/>
       <c r="D185" s="7"/>
@@ -5208,19 +5318,19 @@
       <c r="K185" s="7"/>
       <c r="L185" s="7"/>
       <c r="M185" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="N185" s="7"/>
       <c r="O185" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="186" spans="1:15" ht="24.95" customHeight="1">
       <c r="A186" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C186" s="7"/>
       <c r="D186" s="7"/>
@@ -5233,19 +5343,19 @@
       <c r="K186" s="7"/>
       <c r="L186" s="7"/>
       <c r="M186" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="N186" s="7"/>
       <c r="O186" s="7" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="187" spans="1:15" ht="24.95" customHeight="1">
       <c r="A187" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C187" s="7"/>
       <c r="D187" s="7"/>
@@ -5260,15 +5370,15 @@
       <c r="M187" s="7"/>
       <c r="N187" s="7"/>
       <c r="O187" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="188" spans="1:15" ht="24.95" customHeight="1">
       <c r="A188" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
@@ -5283,15 +5393,15 @@
       <c r="M188" s="7"/>
       <c r="N188" s="7"/>
       <c r="O188" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="189" spans="1:15" ht="24.95" customHeight="1">
       <c r="A189" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
@@ -5306,7 +5416,7 @@
       <c r="M189" s="7"/>
       <c r="N189" s="7"/>
       <c r="O189" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="190" spans="1:15" ht="24.95" customHeight="1">
@@ -5328,13 +5438,13 @@
     </row>
     <row r="191" spans="1:15" ht="24.95" customHeight="1">
       <c r="A191" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B191" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="O191" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="O191" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="192" spans="1:15" ht="24.95" customHeight="1">
@@ -9203,7 +9313,7 @@
         <v>28</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="14.25">
@@ -9214,7 +9324,7 @@
         <v>30</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="14.25">
@@ -9258,7 +9368,7 @@
         <v>41</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="14.25">
@@ -9280,7 +9390,7 @@
         <v>46</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="14.25">
@@ -9373,101 +9483,101 @@
     </row>
     <row r="19" spans="1:15" ht="14.25">
       <c r="A19" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="14.25">
       <c r="A20" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O20" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="14.25">
       <c r="A21" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="14.25">
       <c r="A22" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O22" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="14.25">
       <c r="A23" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="14.25">
       <c r="A24" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O24" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="14.25">
       <c r="A25" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="14.25">
       <c r="A26" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="14.25">
       <c r="A27" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -9479,10 +9589,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:S83"/>
+  <dimension ref="A1:S82"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -9563,7 +9673,7 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>689</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -9585,10 +9695,10 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>690</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -9613,7 +9723,7 @@
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>691</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -9635,10 +9745,10 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>692</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -9653,17 +9763,17 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>693</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -9685,10 +9795,10 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>694</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -9710,10 +9820,10 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>695</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -9735,7 +9845,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>21</v>
@@ -9753,7 +9863,7 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
@@ -9763,7 +9873,7 @@
         <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>696</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -9788,7 +9898,7 @@
         <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>697</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -9813,7 +9923,7 @@
         <v>83</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>698</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -9832,15 +9942,15 @@
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>698</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -9862,10 +9972,10 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>699</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -9890,7 +10000,7 @@
         <v>87</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>21</v>
+        <v>700</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -9912,10 +10022,10 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>701</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -9930,17 +10040,17 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>702</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -9965,7 +10075,7 @@
         <v>90</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>21</v>
+        <v>703</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -9987,10 +10097,10 @@
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>704</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -10012,10 +10122,10 @@
     </row>
     <row r="20" spans="1:17">
       <c r="A20" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>21</v>
+        <v>705</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -10037,10 +10147,10 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>21</v>
+        <v>706</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -10062,10 +10172,10 @@
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>21</v>
+        <v>707</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -10090,7 +10200,7 @@
         <v>95</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>21</v>
+        <v>708</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -10112,10 +10222,10 @@
     </row>
     <row r="24" spans="1:17">
       <c r="A24" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>21</v>
+        <v>709</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -10140,7 +10250,7 @@
         <v>98</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>21</v>
+        <v>710</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -10162,10 +10272,10 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>21</v>
+        <v>711</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -10180,7 +10290,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
@@ -10190,7 +10300,7 @@
         <v>100</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>21</v>
+        <v>712</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -10212,10 +10322,10 @@
     </row>
     <row r="28" spans="1:17">
       <c r="A28" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>21</v>
+        <v>713</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -10237,10 +10347,10 @@
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>21</v>
+        <v>714</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -10262,10 +10372,10 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>21</v>
+        <v>715</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -10287,10 +10397,10 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2" t="s">
-        <v>105</v>
+        <v>235</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>21</v>
+        <v>716</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -10305,17 +10415,17 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="1:17">
       <c r="A32" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>21</v>
+        <v>717</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -10330,14 +10440,14 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="3" t="s">
-        <v>107</v>
+        <v>237</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="1:17">
       <c r="A33" s="2" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>21</v>
@@ -10355,14 +10465,14 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="3" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
     </row>
     <row r="34" spans="1:17">
       <c r="A34" s="2" t="s">
-        <v>246</v>
+        <v>106</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>21</v>
@@ -10380,45 +10490,31 @@
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="3" t="s">
-        <v>247</v>
+        <v>107</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
     </row>
     <row r="35" spans="1:17">
-      <c r="A35" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B35" s="2" t="s">
+      <c r="A35" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
+      <c r="O35" s="5" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="36" spans="1:17">
       <c r="A36" s="1" t="s">
-        <v>204</v>
+        <v>108</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O36" s="5" t="s">
-        <v>192</v>
+      <c r="O36" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -10451,56 +10547,56 @@
         <v>21</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:17">
       <c r="A40" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O40" s="4" t="s">
-        <v>22</v>
+      <c r="O40" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="A41" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O41" s="1" t="s">
-        <v>20</v>
+      <c r="O41" s="5" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="A42" s="1" t="s">
-        <v>118</v>
+        <v>249</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O42" s="5" t="s">
-        <v>193</v>
+      <c r="O42" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="A43" s="1" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O43" s="4" t="s">
-        <v>119</v>
+      <c r="O43" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="A44" s="1" t="s">
-        <v>263</v>
+        <v>119</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>21</v>
@@ -10522,18 +10618,18 @@
     </row>
     <row r="46" spans="1:17">
       <c r="A46" s="1" t="s">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="A47" s="1" t="s">
-        <v>230</v>
+        <v>124</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>21</v>
@@ -10555,29 +10651,29 @@
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="1" t="s">
-        <v>128</v>
+        <v>206</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="1" t="s">
-        <v>209</v>
+        <v>130</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>21</v>
@@ -10599,68 +10695,68 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
-        <v>134</v>
+        <v>242</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>135</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="55" spans="1:15">
       <c r="A55" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O55" s="1" t="s">
-        <v>243</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="1" t="s">
-        <v>248</v>
+        <v>135</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O56" s="1" t="s">
-        <v>136</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O57" s="1" t="s">
-        <v>93</v>
+      <c r="O57" s="5" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="O58" s="5" t="s">
-        <v>191</v>
+      <c r="O58" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="59" spans="1:15">
@@ -10676,24 +10772,24 @@
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O60" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O61" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="62" spans="1:15">
@@ -10720,73 +10816,73 @@
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O64" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65" spans="1:17">
       <c r="A65" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O65" s="1" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="66" spans="1:17">
       <c r="A66" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67" spans="1:17">
       <c r="A67" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O67" s="1" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="68" spans="1:17">
       <c r="A68" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="69" spans="1:17">
       <c r="A69" s="1" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
     </row>
     <row r="70" spans="1:17">
       <c r="A70" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>21</v>
@@ -10797,13 +10893,13 @@
     </row>
     <row r="71" spans="1:17">
       <c r="A71" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O71" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -10816,6 +10912,9 @@
       <c r="O72" s="1" t="s">
         <v>255</v>
       </c>
+      <c r="Q72" s="1" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="73" spans="1:17">
       <c r="A73" s="1" t="s">
@@ -10827,9 +10926,6 @@
       <c r="O73" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="Q73" s="1" t="s">
-        <v>222</v>
-      </c>
     </row>
     <row r="74" spans="1:17">
       <c r="A74" s="1" t="s">
@@ -10844,46 +10940,46 @@
     </row>
     <row r="75" spans="1:17">
       <c r="A75" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
     </row>
     <row r="76" spans="1:17">
       <c r="A76" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>250</v>
+        <v>265</v>
       </c>
     </row>
     <row r="77" spans="1:17">
       <c r="A77" s="1" t="s">
-        <v>266</v>
+        <v>135</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O77" s="1" t="s">
-        <v>267</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="1" t="s">
-        <v>137</v>
+        <v>532</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>93</v>
+        <v>291</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -10894,34 +10990,23 @@
         <v>21</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>21</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19">
-      <c r="A81" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O81" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19">
-      <c r="S83" s="1" t="s">
-        <v>222</v>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="82" spans="19:19">
+      <c r="S82" s="1" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs\TheOtherUs-Edited\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B5E395-09DC-4FB7-BD26-D81CE8F1BBF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16034B4-DA60-473E-96B2-7ED74AAA6D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="2160" windowWidth="24570" windowHeight="12060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="3" r:id="rId1"/>
@@ -1476,10 +1476,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>随机出生在通风口上</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>enableMiraModify</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2048,10 +2044,6 @@
   </si>
   <si>
     <t>启用模组音效</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>在地图上显示管道</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2730,6 +2722,14 @@
   </si>
   <si>
     <t>SPELL</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机出生在通风口上\n(建议开启)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在地图上显示管道\n（无效设置）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3346,8 +3346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1440"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="24.95" customHeight="1"/>
@@ -3430,10 +3430,10 @@
         <v>138</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="24.95" customHeight="1">
@@ -3441,10 +3441,10 @@
         <v>140</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="28.5">
@@ -3510,7 +3510,7 @@
         <v>180</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="42.75">
@@ -3521,7 +3521,7 @@
         <v>298</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="42.75">
@@ -3537,10 +3537,10 @@
     </row>
     <row r="13" spans="1:17" ht="313.5">
       <c r="A13" s="7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -3555,7 +3555,7 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="24.95" customHeight="1">
@@ -3563,172 +3563,172 @@
     </row>
     <row r="15" spans="1:17" ht="24.95" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="24.95" customHeight="1">
       <c r="A16" s="7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="O16" s="8" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="24.95" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="24.95" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="24.95" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="24.95" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="24.95" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="24.95" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="24.95" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="24.95" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="24.95" customHeight="1">
       <c r="A25" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>565</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>579</v>
-      </c>
       <c r="O25" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A26" s="7" t="s">
-        <v>566</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="O26" s="8" t="s">
-        <v>548</v>
-      </c>
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="O26" s="8"/>
     </row>
     <row r="27" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="O27" s="8"/>
+      <c r="A27" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>622</v>
+      </c>
     </row>
     <row r="28" spans="1:15" ht="24.95" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="24.95" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>620</v>
+        <v>603</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>621</v>
+        <v>604</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="24.95" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>607</v>
+        <v>663</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>605</v>
+        <v>671</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>606</v>
+        <v>664</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="24.95" customHeight="1">
@@ -3736,7 +3736,7 @@
         <v>665</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="O31" s="8" t="s">
         <v>666</v>
@@ -3744,299 +3744,309 @@
     </row>
     <row r="32" spans="1:15" ht="24.95" customHeight="1">
       <c r="A32" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="O32" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>672</v>
-      </c>
-      <c r="O32" s="8" t="s">
-        <v>668</v>
-      </c>
     </row>
     <row r="33" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A33" s="7" t="s">
-        <v>670</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>671</v>
-      </c>
-      <c r="O33" s="8" t="s">
-        <v>669</v>
-      </c>
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="O33" s="8"/>
     </row>
     <row r="34" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8"/>
-      <c r="O34" s="8"/>
+      <c r="A34" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="35" spans="1:15" ht="24.95" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="O35" s="8" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="24.95" customHeight="1">
       <c r="A36" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A37" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>614</v>
-      </c>
-      <c r="O36" s="8" t="s">
+      <c r="B37" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="O37" s="8" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A37" s="7" t="s">
-        <v>618</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>613</v>
-      </c>
-      <c r="O37" s="8" t="s">
-        <v>610</v>
-      </c>
-    </row>
     <row r="38" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A38" s="8" t="s">
-        <v>619</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>612</v>
-      </c>
-      <c r="O38" s="8" t="s">
-        <v>611</v>
-      </c>
+      <c r="O38" s="6"/>
     </row>
     <row r="39" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O39" s="6"/>
+      <c r="A39" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="40" spans="1:15" ht="24.95" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="24.95" customHeight="1">
       <c r="A41" s="8" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="24.95" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>656</v>
+        <v>610</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>608</v>
+        <v>651</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A43" s="8" t="s">
-        <v>660</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>612</v>
-      </c>
-      <c r="O43" s="8" t="s">
-        <v>653</v>
-      </c>
+      <c r="A43" s="8"/>
     </row>
     <row r="44" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A44" s="8"/>
+      <c r="A44" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="O44" s="7" t="s">
+        <v>626</v>
+      </c>
     </row>
     <row r="45" spans="1:15" ht="24.95" customHeight="1">
       <c r="A45" s="8" t="s">
-        <v>638</v>
+        <v>659</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="M45" s="6" t="s">
-        <v>627</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>628</v>
+        <v>645</v>
+      </c>
+      <c r="O45" s="9" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="24.95" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="O46" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="24.95" customHeight="1">
       <c r="A47" s="8" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="O47" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="24.95" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B48" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="O48" s="9" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A49" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>649</v>
       </c>
-      <c r="O48" s="9" t="s">
+      <c r="O49" s="9" t="s">
         <v>643</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A49" s="8" t="s">
-        <v>664</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="O49" s="9" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="24.95" customHeight="1">
       <c r="A50" s="7" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="O50" s="9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="24.95" customHeight="1">
       <c r="A51" s="7" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="O51" s="9" t="s">
-        <v>646</v>
+        <v>627</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>631</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="24.95" customHeight="1">
       <c r="A52" s="7" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="24.95" customHeight="1">
       <c r="A53" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>635</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="O53" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="O53" s="7" t="s">
-        <v>634</v>
-      </c>
     </row>
     <row r="54" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A54" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="O54" s="7" t="s">
-        <v>632</v>
-      </c>
+      <c r="O54" s="6"/>
     </row>
     <row r="55" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O55" s="6"/>
+      <c r="A55" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="O55" s="8" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="56" spans="1:15" ht="24.95" customHeight="1">
       <c r="A56" s="7" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="O56" s="8" t="s">
-        <v>666</v>
+        <v>678</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="24.95" customHeight="1">
       <c r="A57" s="7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="O57" s="8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="24.95" customHeight="1">
       <c r="A58" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="O58" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="24.95" customHeight="1">
       <c r="A59" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="O59" s="8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="24.95" customHeight="1">
       <c r="A60" s="7" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="O60" s="8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A61" s="7" t="s">
-        <v>679</v>
-      </c>
-      <c r="O61" s="8" t="s">
-        <v>684</v>
-      </c>
+      <c r="O61" s="6"/>
     </row>
     <row r="62" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O62" s="6"/>
+      <c r="A62" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="63" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A63" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>288</v>
-      </c>
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
@@ -4047,17 +4057,17 @@
       <c r="J63" s="7"/>
       <c r="K63" s="7"/>
       <c r="L63" s="7"/>
-      <c r="M63" s="7" t="s">
-        <v>289</v>
-      </c>
+      <c r="M63" s="7"/>
       <c r="N63" s="7"/>
-      <c r="O63" s="7" t="s">
-        <v>290</v>
-      </c>
+      <c r="O63" s="7"/>
     </row>
     <row r="64" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
+      <c r="A64" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>683</v>
+      </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
@@ -4070,14 +4080,16 @@
       <c r="L64" s="7"/>
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
-      <c r="O64" s="7"/>
+      <c r="O64" s="7" t="s">
+        <v>686</v>
+      </c>
     </row>
     <row r="65" spans="1:15" ht="24.95" customHeight="1">
       <c r="A65" s="7" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -4092,15 +4104,15 @@
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
       <c r="O65" s="7" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="24.95" customHeight="1">
       <c r="A66" s="7" t="s">
-        <v>603</v>
+        <v>445</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>686</v>
+        <v>329</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -4112,65 +4124,65 @@
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
       <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
+      <c r="M66" s="7" t="s">
+        <v>330</v>
+      </c>
       <c r="N66" s="7"/>
       <c r="O66" s="7" t="s">
-        <v>687</v>
+        <v>537</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A67" s="7" t="s">
-        <v>446</v>
+      <c r="A67" s="6" t="s">
+        <v>326</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7"/>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="N67" s="7"/>
+        <v>327</v>
+      </c>
       <c r="O67" s="7" t="s">
-        <v>538</v>
+        <v>328</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="24.95" customHeight="1">
       <c r="A68" s="6" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A69" s="6" t="s">
-        <v>299</v>
+      <c r="A69" s="7" t="s">
+        <v>300</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>302</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
       <c r="O69" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="70" spans="1:15" ht="24.95" customHeight="1">
       <c r="A70" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -4185,15 +4197,15 @@
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
       <c r="O70" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="71" spans="1:15" ht="24.95" customHeight="1">
       <c r="A71" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -4208,15 +4220,15 @@
       <c r="M71" s="7"/>
       <c r="N71" s="7"/>
       <c r="O71" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="72" spans="1:15" ht="24.95" customHeight="1">
       <c r="A72" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -4231,15 +4243,15 @@
       <c r="M72" s="7"/>
       <c r="N72" s="7"/>
       <c r="O72" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
     </row>
     <row r="73" spans="1:15" ht="24.95" customHeight="1">
       <c r="A73" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -4254,15 +4266,15 @@
       <c r="M73" s="7"/>
       <c r="N73" s="7"/>
       <c r="O73" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="74" spans="1:15" ht="24.95" customHeight="1">
       <c r="A74" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -4277,15 +4289,15 @@
       <c r="M74" s="7"/>
       <c r="N74" s="7"/>
       <c r="O74" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="75" spans="1:15" ht="24.95" customHeight="1">
       <c r="A75" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -4300,15 +4312,15 @@
       <c r="M75" s="7"/>
       <c r="N75" s="7"/>
       <c r="O75" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="76" spans="1:15" ht="24.95" customHeight="1">
       <c r="A76" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -4323,74 +4335,62 @@
       <c r="M76" s="7"/>
       <c r="N76" s="7"/>
       <c r="O76" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="77" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A77" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="I77" s="7"/>
-      <c r="J77" s="7"/>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
-      <c r="N77" s="7"/>
-      <c r="O77" s="7" t="s">
-        <v>323</v>
-      </c>
+      <c r="O77" s="6"/>
     </row>
     <row r="78" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O78" s="6"/>
+      <c r="A78" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="O78" s="7" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="79" spans="1:15" ht="24.95" customHeight="1">
       <c r="A79" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="80" spans="1:15" ht="24.95" customHeight="1">
       <c r="A80" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="81" spans="1:15" ht="24.95" customHeight="1">
       <c r="A81" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="O81" s="7" t="s">
-        <v>338</v>
+        <v>436</v>
       </c>
     </row>
     <row r="82" spans="1:15" ht="24.95" customHeight="1">
       <c r="A82" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O82" s="7" t="s">
         <v>437</v>
@@ -4398,10 +4398,10 @@
     </row>
     <row r="83" spans="1:15" ht="24.95" customHeight="1">
       <c r="A83" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O83" s="7" t="s">
         <v>438</v>
@@ -4409,21 +4409,21 @@
     </row>
     <row r="84" spans="1:15" ht="24.95" customHeight="1">
       <c r="A84" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="O84" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="O84" s="6" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="85" spans="1:15" ht="24.95" customHeight="1">
       <c r="A85" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O85" s="6" t="s">
         <v>440</v>
@@ -4431,10 +4431,10 @@
     </row>
     <row r="86" spans="1:15" ht="24.95" customHeight="1">
       <c r="A86" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O86" s="6" t="s">
         <v>441</v>
@@ -4442,21 +4442,21 @@
     </row>
     <row r="87" spans="1:15" ht="24.95" customHeight="1">
       <c r="A87" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="O87" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="O87" s="7" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="24.95" customHeight="1">
       <c r="A88" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="O88" s="7" t="s">
         <v>443</v>
@@ -4464,241 +4464,239 @@
     </row>
     <row r="89" spans="1:15" ht="24.95" customHeight="1">
       <c r="A89" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O89" s="7" t="s">
         <v>444</v>
       </c>
     </row>
     <row r="90" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A90" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="O90" s="7" t="s">
-        <v>445</v>
-      </c>
+      <c r="O90" s="6"/>
     </row>
     <row r="91" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O91" s="6"/>
+      <c r="A91" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="O91" s="7" t="s">
+        <v>365</v>
+      </c>
     </row>
     <row r="92" spans="1:15" ht="24.95" customHeight="1">
       <c r="A92" s="7" t="s">
-        <v>349</v>
+        <v>366</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>474</v>
       </c>
       <c r="O92" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="93" spans="1:15" ht="24.95" customHeight="1">
       <c r="A93" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B93" s="7" t="s">
         <v>475</v>
       </c>
       <c r="O93" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="94" spans="1:15" ht="24.95" customHeight="1">
       <c r="A94" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>476</v>
       </c>
       <c r="O94" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="95" spans="1:15" ht="24.95" customHeight="1">
       <c r="A95" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O95" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="24.95" customHeight="1">
       <c r="A96" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="O96" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="24.95" customHeight="1">
       <c r="A97" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>478</v>
-      </c>
-      <c r="O97" s="7" t="s">
-        <v>375</v>
+        <v>479</v>
+      </c>
+      <c r="O97" s="6" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="24.95" customHeight="1">
       <c r="A98" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>480</v>
       </c>
       <c r="O98" s="6" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="24.95" customHeight="1">
       <c r="A99" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="O99" s="6" t="s">
-        <v>379</v>
+        <v>578</v>
+      </c>
+      <c r="O99" s="7" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="24.95" customHeight="1">
       <c r="A100" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>580</v>
+        <v>482</v>
       </c>
       <c r="O100" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="101" spans="1:15" ht="24.95" customHeight="1">
       <c r="A101" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="O101" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="102" spans="1:15" ht="24.95" customHeight="1">
       <c r="A102" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="O102" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="24.95" customHeight="1">
       <c r="A103" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="O103" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="24.95" customHeight="1">
       <c r="A104" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B104" s="7" t="s">
         <v>484</v>
       </c>
       <c r="O104" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="105" spans="1:15" ht="24.95" customHeight="1">
       <c r="A105" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B105" s="7" t="s">
         <v>485</v>
       </c>
       <c r="O105" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="24.95" customHeight="1">
       <c r="A106" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="O106" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="24.95" customHeight="1">
       <c r="A107" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>482</v>
+        <v>396</v>
       </c>
       <c r="O107" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="24.95" customHeight="1">
       <c r="A108" s="7" t="s">
-        <v>396</v>
+        <v>579</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>580</v>
       </c>
       <c r="O108" s="7" t="s">
-        <v>397</v>
+        <v>581</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="24.95" customHeight="1">
       <c r="A109" s="7" t="s">
-        <v>581</v>
+        <v>398</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>582</v>
+        <v>488</v>
       </c>
       <c r="O109" s="7" t="s">
-        <v>583</v>
+        <v>399</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="24.95" customHeight="1">
       <c r="A110" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B110" s="7" t="s">
         <v>489</v>
       </c>
       <c r="O110" s="7" t="s">
-        <v>399</v>
+        <v>716</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="24.95" customHeight="1">
       <c r="A111" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>490</v>
-      </c>
+        <v>585</v>
+      </c>
+      <c r="B111" s="7"/>
       <c r="O111" s="7" t="s">
-        <v>401</v>
+        <v>586</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="24.95" customHeight="1">
@@ -4707,70 +4705,72 @@
       </c>
       <c r="B112" s="7"/>
       <c r="O112" s="7" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="113" spans="1:15" ht="24.95" customHeight="1">
       <c r="A113" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B113" s="7"/>
       <c r="O113" s="7" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="114" spans="1:15" ht="24.95" customHeight="1">
       <c r="A114" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B114" s="7"/>
       <c r="O114" s="7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="115" spans="1:15" ht="24.95" customHeight="1">
       <c r="A115" s="7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B115" s="7"/>
       <c r="O115" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="24.95" customHeight="1">
       <c r="A116" s="7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B116" s="7"/>
       <c r="O116" s="7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="117" spans="1:15" ht="24.95" customHeight="1">
       <c r="A117" s="7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B117" s="7"/>
       <c r="O117" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="118" spans="1:15" ht="24.95" customHeight="1">
       <c r="A118" s="7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B118" s="7"/>
       <c r="O118" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="119" spans="1:15" ht="24.95" customHeight="1">
       <c r="A119" s="7" t="s">
-        <v>595</v>
-      </c>
-      <c r="B119" s="7"/>
-      <c r="O119" s="7" t="s">
-        <v>602</v>
+        <v>563</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="O119" s="8" t="s">
+        <v>717</v>
       </c>
     </row>
     <row r="120" spans="1:15" ht="24.95" customHeight="1">
@@ -4780,276 +4780,276 @@
     </row>
     <row r="121" spans="1:15" ht="24.95" customHeight="1">
       <c r="A121" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="B121" s="7" t="s">
         <v>402</v>
       </c>
-      <c r="B121" s="7" t="s">
-        <v>403</v>
-      </c>
       <c r="O121" s="7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="122" spans="1:15" ht="24.95" customHeight="1">
       <c r="A122" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="O122" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="B122" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="O122" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="123" spans="1:15" ht="24.95" customHeight="1">
       <c r="A123" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B123" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="O123" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="O123" s="7" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="124" spans="1:15" ht="24.95" customHeight="1">
       <c r="A124" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="O124" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>453</v>
-      </c>
-      <c r="O124" s="7" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="125" spans="1:15" ht="24.95" customHeight="1">
       <c r="A125" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="O125" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="B125" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="O125" s="7" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="126" spans="1:15" ht="24.95" customHeight="1">
       <c r="A126" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="O126" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="B126" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="O126" s="7" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="127" spans="1:15" ht="24.95" customHeight="1">
       <c r="A127" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="O127" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="B127" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="O127" s="7" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="128" spans="1:15" ht="24.95" customHeight="1">
       <c r="A128" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="O128" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="B128" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="O128" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="129" spans="1:15" ht="24.95" customHeight="1">
       <c r="A129" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="B129" s="7" t="s">
         <v>419</v>
       </c>
-      <c r="B129" s="7" t="s">
-        <v>420</v>
-      </c>
       <c r="O129" s="7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="130" spans="1:15" ht="24.95" customHeight="1">
       <c r="A130" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="O130" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="O130" s="7" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="131" spans="1:15" ht="24.95" customHeight="1">
       <c r="A131" s="7" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="O131" s="7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="132" spans="1:15" ht="24.95" customHeight="1">
       <c r="A132" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="O132" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="O132" s="7" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="133" spans="1:15" ht="24.95" customHeight="1">
       <c r="A133" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="B133" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="O133" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="O133" s="7" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="134" spans="1:15" ht="24.95" customHeight="1">
       <c r="A134" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O134" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="135" spans="1:15" ht="24.95" customHeight="1">
       <c r="A135" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="O135" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="O135" s="7" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="136" spans="1:15" ht="24.95" customHeight="1">
       <c r="A136" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="O136" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="O136" s="7" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="137" spans="1:15" ht="24.95" customHeight="1">
       <c r="A137" s="7" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="O137" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="138" spans="1:15" ht="24.95" customHeight="1">
       <c r="A138" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="O138" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="139" spans="1:15" ht="24.95" customHeight="1">
       <c r="A139" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="O139" s="8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="140" spans="1:15" ht="24.95" customHeight="1">
       <c r="A140" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="O140" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="141" spans="1:15" ht="24.95" customHeight="1">
       <c r="A141" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O141" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="142" spans="1:15" ht="24.95" customHeight="1">
       <c r="A142" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O142" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="143" spans="1:15" ht="24.95" customHeight="1">
       <c r="A143" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O143" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="144" spans="1:15" ht="24.95" customHeight="1">
       <c r="A144" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O144" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="145" spans="1:15" ht="24.95" customHeight="1">
       <c r="A145" s="7" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="O145" s="7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="146" spans="1:15" ht="24.95" customHeight="1">
       <c r="A146" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="O146" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="B146" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="O146" s="7" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="148" spans="1:15" ht="24.95" customHeight="1">
@@ -5076,79 +5076,79 @@
     </row>
     <row r="150" spans="1:15" ht="24.95" customHeight="1">
       <c r="A150" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="O150" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="151" spans="1:15" ht="24.95" customHeight="1">
       <c r="A151" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="O151" s="7" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="152" spans="1:15" ht="24.95" customHeight="1">
       <c r="A152" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="O152" s="10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="153" spans="1:15" ht="24.95" customHeight="1">
       <c r="A153" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="O153" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="154" spans="1:15" ht="24.95" customHeight="1">
       <c r="A154" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O154" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="155" spans="1:15" ht="24.95" customHeight="1">
       <c r="A155" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="O155" s="10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="156" spans="1:15" ht="24.95" customHeight="1">
       <c r="A156" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="O156" s="10" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="157" spans="1:15" ht="24.95" customHeight="1">
@@ -5156,24 +5156,24 @@
     </row>
     <row r="158" spans="1:15" ht="24.95" customHeight="1">
       <c r="A158" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="O158" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="159" spans="1:15" ht="24.95" customHeight="1">
       <c r="A159" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="O159" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="160" spans="1:15" ht="24.95" customHeight="1">
@@ -5238,13 +5238,13 @@
     </row>
     <row r="181" spans="1:15" ht="24.95" customHeight="1">
       <c r="A181" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="O181" s="8" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="182" spans="1:15" ht="24.95" customHeight="1">
@@ -9673,7 +9673,7 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -9698,7 +9698,7 @@
         <v>227</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -9723,7 +9723,7 @@
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -9748,7 +9748,7 @@
         <v>225</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -9773,7 +9773,7 @@
         <v>239</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -9798,7 +9798,7 @@
         <v>234</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -9823,7 +9823,7 @@
         <v>226</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -9873,7 +9873,7 @@
         <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -9898,7 +9898,7 @@
         <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -9923,7 +9923,7 @@
         <v>83</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -9947,10 +9947,10 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -9972,10 +9972,10 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -10000,7 +10000,7 @@
         <v>87</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -10022,10 +10022,10 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -10047,10 +10047,10 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -10075,7 +10075,7 @@
         <v>90</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -10100,7 +10100,7 @@
         <v>209</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -10125,7 +10125,7 @@
         <v>262</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -10150,7 +10150,7 @@
         <v>203</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -10175,7 +10175,7 @@
         <v>208</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -10200,7 +10200,7 @@
         <v>95</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -10225,7 +10225,7 @@
         <v>260</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -10250,7 +10250,7 @@
         <v>98</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -10272,10 +10272,10 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -10290,7 +10290,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
@@ -10300,7 +10300,7 @@
         <v>100</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -10325,7 +10325,7 @@
         <v>201</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -10350,7 +10350,7 @@
         <v>229</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -10372,10 +10372,10 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -10400,7 +10400,7 @@
         <v>235</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -10425,7 +10425,7 @@
         <v>236</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -10973,7 +10973,7 @@
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>21</v>
@@ -10984,7 +10984,7 @@
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>21</v>
@@ -10995,7 +10995,7 @@
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>21</v>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs\TheOtherUs-Edited\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16034B4-DA60-473E-96B2-7ED74AAA6D13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C44073D-9CBA-4D27-A5CC-DFC4E28C87E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="690" yWindow="2160" windowWidth="24570" windowHeight="12060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Button Text" sheetId="8" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Text!$O$1:$O$1143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Text!$O$1:$O$1147</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="724">
   <si>
     <t>English</t>
   </si>
@@ -2730,6 +2730,30 @@
   </si>
   <si>
     <t>在地图上显示管道\n（无效设置）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机分配修复配线的任务地点</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>修复配线任务总数</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>WireTaskIsRandomOption</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>WireTaskNumOption</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wire Task Random</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>WireTask Num</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3344,10 +3368,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1440"/>
+  <dimension ref="A1:Q1444"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="B137" sqref="B137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="24.95" customHeight="1"/>
@@ -4921,311 +4945,332 @@
       </c>
     </row>
     <row r="135" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A135" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="B135" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="O135" s="7" t="s">
-        <v>431</v>
-      </c>
+      <c r="A135" s="7"/>
+      <c r="O135" s="7"/>
     </row>
     <row r="136" spans="1:15" ht="24.95" customHeight="1">
       <c r="A136" s="7" t="s">
-        <v>432</v>
+        <v>720</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>450</v>
+        <v>722</v>
       </c>
       <c r="O136" s="7" t="s">
-        <v>433</v>
+        <v>718</v>
       </c>
     </row>
     <row r="137" spans="1:15" ht="24.95" customHeight="1">
       <c r="A137" s="7" t="s">
-        <v>448</v>
+        <v>721</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>446</v>
+        <v>723</v>
       </c>
       <c r="O137" s="7" t="s">
-        <v>434</v>
+        <v>719</v>
       </c>
     </row>
     <row r="138" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A138" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="O138" s="7" t="s">
-        <v>435</v>
-      </c>
+      <c r="A138" s="7"/>
+      <c r="O138" s="7"/>
     </row>
     <row r="139" spans="1:15" ht="24.95" customHeight="1">
       <c r="A139" s="7" t="s">
-        <v>456</v>
+        <v>430</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="O139" s="8" t="s">
-        <v>462</v>
+        <v>451</v>
+      </c>
+      <c r="O139" s="7" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="140" spans="1:15" ht="24.95" customHeight="1">
       <c r="A140" s="7" t="s">
-        <v>457</v>
+        <v>432</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="O140" s="7" t="s">
-        <v>463</v>
+        <v>433</v>
       </c>
     </row>
     <row r="141" spans="1:15" ht="24.95" customHeight="1">
       <c r="A141" s="7" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="O141" s="7" t="s">
-        <v>464</v>
+        <v>434</v>
       </c>
     </row>
     <row r="142" spans="1:15" ht="24.95" customHeight="1">
       <c r="A142" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="B142" s="7" t="s">
-        <v>471</v>
+        <v>449</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>447</v>
       </c>
       <c r="O142" s="7" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
     </row>
     <row r="143" spans="1:15" ht="24.95" customHeight="1">
       <c r="A143" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="O143" s="7" t="s">
-        <v>466</v>
+        <v>468</v>
+      </c>
+      <c r="O143" s="8" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="144" spans="1:15" ht="24.95" customHeight="1">
       <c r="A144" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="O144" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="145" spans="1:15" ht="24.95" customHeight="1">
       <c r="A145" s="7" t="s">
-        <v>490</v>
+        <v>458</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>494</v>
+        <v>470</v>
       </c>
       <c r="O145" s="7" t="s">
-        <v>493</v>
+        <v>464</v>
       </c>
     </row>
     <row r="146" spans="1:15" ht="24.95" customHeight="1">
       <c r="A146" s="7" t="s">
-        <v>491</v>
+        <v>459</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
       <c r="O146" s="7" t="s">
-        <v>492</v>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A147" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="O147" s="7" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="148" spans="1:15" ht="24.95" customHeight="1">
       <c r="A148" s="7" t="s">
-        <v>359</v>
+        <v>461</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>360</v>
+        <v>472</v>
       </c>
       <c r="O148" s="7" t="s">
-        <v>363</v>
+        <v>467</v>
       </c>
     </row>
     <row r="149" spans="1:15" ht="24.95" customHeight="1">
       <c r="A149" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>362</v>
+        <v>490</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>494</v>
       </c>
       <c r="O149" s="7" t="s">
-        <v>364</v>
+        <v>493</v>
       </c>
     </row>
     <row r="150" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A150" s="6" t="s">
-        <v>496</v>
+      <c r="A150" s="7" t="s">
+        <v>491</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="O150" s="7" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A151" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="B151" s="7" t="s">
-        <v>504</v>
-      </c>
-      <c r="O151" s="7" t="s">
-        <v>520</v>
+        <v>492</v>
       </c>
     </row>
     <row r="152" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A152" s="6" t="s">
-        <v>498</v>
+      <c r="A152" s="7" t="s">
+        <v>359</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>505</v>
-      </c>
-      <c r="O152" s="10" t="s">
-        <v>521</v>
+        <v>360</v>
+      </c>
+      <c r="O152" s="7" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="153" spans="1:15" ht="24.95" customHeight="1">
       <c r="A153" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="B153" s="7" t="s">
-        <v>506</v>
+        <v>361</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>362</v>
       </c>
       <c r="O153" s="7" t="s">
-        <v>522</v>
+        <v>364</v>
       </c>
     </row>
     <row r="154" spans="1:15" ht="24.95" customHeight="1">
       <c r="A154" s="6" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="O154" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="155" spans="1:15" ht="24.95" customHeight="1">
       <c r="A155" s="6" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="O155" s="10" t="s">
-        <v>524</v>
+        <v>504</v>
+      </c>
+      <c r="O155" s="7" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="156" spans="1:15" ht="24.95" customHeight="1">
       <c r="A156" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="O156" s="10" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A157" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="O157" s="7" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A158" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="O158" s="7" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A159" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="O159" s="10" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A160" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="B156" s="7" t="s">
+      <c r="B160" s="7" t="s">
         <v>509</v>
       </c>
-      <c r="O156" s="10" t="s">
+      <c r="O160" s="10" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O157" s="10"/>
-    </row>
-    <row r="158" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A158" s="7" t="s">
+    <row r="161" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O161" s="10"/>
+    </row>
+    <row r="162" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A162" s="7" t="s">
         <v>510</v>
       </c>
-      <c r="B158" s="7" t="s">
+      <c r="B162" s="7" t="s">
         <v>514</v>
       </c>
-      <c r="O158" s="10" t="s">
+      <c r="O162" s="10" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A159" s="7" t="s">
+    <row r="163" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A163" s="7" t="s">
         <v>511</v>
       </c>
-      <c r="B159" s="7" t="s">
+      <c r="B163" s="7" t="s">
         <v>515</v>
       </c>
-      <c r="O159" s="10" t="s">
+      <c r="O163" s="10" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O160" s="10"/>
-    </row>
-    <row r="161" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O161" s="10"/>
-    </row>
-    <row r="162" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O162" s="10"/>
-    </row>
-    <row r="163" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O163" s="6"/>
-    </row>
-    <row r="164" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O164" s="6"/>
-    </row>
-    <row r="165" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O165" s="6"/>
-    </row>
-    <row r="166" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O166" s="6"/>
-    </row>
-    <row r="167" spans="15:15" ht="24.95" customHeight="1">
+    <row r="164" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O164" s="10"/>
+    </row>
+    <row r="165" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O165" s="10"/>
+    </row>
+    <row r="166" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O166" s="10"/>
+    </row>
+    <row r="167" spans="1:15" ht="24.95" customHeight="1">
       <c r="O167" s="6"/>
     </row>
-    <row r="168" spans="15:15" ht="24.95" customHeight="1">
+    <row r="168" spans="1:15" ht="24.95" customHeight="1">
       <c r="O168" s="6"/>
     </row>
-    <row r="169" spans="15:15" ht="24.95" customHeight="1">
+    <row r="169" spans="1:15" ht="24.95" customHeight="1">
       <c r="O169" s="6"/>
     </row>
-    <row r="170" spans="15:15" ht="24.95" customHeight="1">
+    <row r="170" spans="1:15" ht="24.95" customHeight="1">
       <c r="O170" s="6"/>
     </row>
-    <row r="171" spans="15:15" ht="24.95" customHeight="1">
+    <row r="171" spans="1:15" ht="24.95" customHeight="1">
       <c r="O171" s="6"/>
     </row>
-    <row r="172" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O172" s="10"/>
-    </row>
-    <row r="173" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O173" s="10"/>
-    </row>
-    <row r="174" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O174" s="10"/>
-    </row>
-    <row r="175" spans="15:15" ht="24.95" customHeight="1">
+    <row r="172" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O172" s="6"/>
+    </row>
+    <row r="173" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O173" s="6"/>
+    </row>
+    <row r="174" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O174" s="6"/>
+    </row>
+    <row r="175" spans="1:15" ht="24.95" customHeight="1">
       <c r="O175" s="6"/>
     </row>
-    <row r="176" spans="15:15" ht="24.95" customHeight="1">
+    <row r="176" spans="1:15" ht="24.95" customHeight="1">
       <c r="O176" s="10"/>
+    </row>
+    <row r="177" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O177" s="10"/>
     </row>
     <row r="178" spans="1:15" ht="24.95" customHeight="1">
       <c r="O178" s="10"/>
@@ -5234,129 +5279,42 @@
       <c r="O179" s="6"/>
     </row>
     <row r="180" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O180" s="6"/>
-    </row>
-    <row r="181" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A181" s="7" t="s">
-        <v>573</v>
-      </c>
-      <c r="B181" s="8" t="s">
-        <v>572</v>
-      </c>
-      <c r="O181" s="8" t="s">
-        <v>571</v>
-      </c>
+      <c r="O180" s="10"/>
     </row>
     <row r="182" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A182" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B182" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="O182" s="6" t="s">
-        <v>186</v>
-      </c>
+      <c r="O182" s="10"/>
     </row>
     <row r="183" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A183" s="7"/>
-      <c r="B183" s="7"/>
-      <c r="C183" s="7"/>
-      <c r="D183" s="7"/>
-      <c r="E183" s="7"/>
-      <c r="F183" s="7"/>
-      <c r="G183" s="7"/>
-      <c r="H183" s="7"/>
-      <c r="I183" s="7"/>
-      <c r="J183" s="7"/>
-      <c r="K183" s="7"/>
-      <c r="L183" s="7"/>
-      <c r="M183" s="7"/>
-      <c r="N183" s="7"/>
-      <c r="O183" s="7"/>
+      <c r="O183" s="6"/>
     </row>
     <row r="184" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A184" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="B184" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="C184" s="7"/>
-      <c r="D184" s="7"/>
-      <c r="E184" s="7"/>
-      <c r="F184" s="7"/>
-      <c r="G184" s="7"/>
-      <c r="H184" s="7"/>
-      <c r="I184" s="7"/>
-      <c r="J184" s="7"/>
-      <c r="K184" s="7"/>
-      <c r="L184" s="7"/>
-      <c r="M184" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="N184" s="7"/>
-      <c r="O184" s="7" t="s">
-        <v>272</v>
-      </c>
+      <c r="O184" s="6"/>
     </row>
     <row r="185" spans="1:15" ht="24.95" customHeight="1">
       <c r="A185" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="B185" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C185" s="7"/>
-      <c r="D185" s="7"/>
-      <c r="E185" s="7"/>
-      <c r="F185" s="7"/>
-      <c r="G185" s="7"/>
-      <c r="H185" s="7"/>
-      <c r="I185" s="7"/>
-      <c r="J185" s="7"/>
-      <c r="K185" s="7"/>
-      <c r="L185" s="7"/>
-      <c r="M185" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="N185" s="7"/>
-      <c r="O185" s="7" t="s">
-        <v>276</v>
+        <v>573</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="O185" s="8" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="186" spans="1:15" ht="24.95" customHeight="1">
       <c r="A186" s="7" t="s">
-        <v>277</v>
+        <v>185</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="C186" s="7"/>
-      <c r="D186" s="7"/>
-      <c r="E186" s="7"/>
-      <c r="F186" s="7"/>
-      <c r="G186" s="7"/>
-      <c r="H186" s="7"/>
-      <c r="I186" s="7"/>
-      <c r="J186" s="7"/>
-      <c r="K186" s="7"/>
-      <c r="L186" s="7"/>
-      <c r="M186" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="N186" s="7"/>
-      <c r="O186" s="7" t="s">
-        <v>280</v>
+        <v>184</v>
+      </c>
+      <c r="O186" s="6" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="187" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A187" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="B187" s="7" t="s">
-        <v>282</v>
-      </c>
+      <c r="A187" s="7"/>
+      <c r="B187" s="7"/>
       <c r="C187" s="7"/>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
@@ -5369,16 +5327,14 @@
       <c r="L187" s="7"/>
       <c r="M187" s="7"/>
       <c r="N187" s="7"/>
-      <c r="O187" s="7" t="s">
-        <v>283</v>
-      </c>
+      <c r="O187" s="7"/>
     </row>
     <row r="188" spans="1:15" ht="24.95" customHeight="1">
       <c r="A188" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
@@ -5390,18 +5346,20 @@
       <c r="J188" s="7"/>
       <c r="K188" s="7"/>
       <c r="L188" s="7"/>
-      <c r="M188" s="7"/>
+      <c r="M188" s="7" t="s">
+        <v>271</v>
+      </c>
       <c r="N188" s="7"/>
       <c r="O188" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="189" spans="1:15" ht="24.95" customHeight="1">
       <c r="A189" s="7" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
@@ -5413,15 +5371,21 @@
       <c r="J189" s="7"/>
       <c r="K189" s="7"/>
       <c r="L189" s="7"/>
-      <c r="M189" s="7"/>
+      <c r="M189" s="7" t="s">
+        <v>275</v>
+      </c>
       <c r="N189" s="7"/>
       <c r="O189" s="7" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="190" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A190" s="7"/>
-      <c r="B190" s="7"/>
+      <c r="A190" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>278</v>
+      </c>
       <c r="C190" s="7"/>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
@@ -5432,72 +5396,150 @@
       <c r="J190" s="7"/>
       <c r="K190" s="7"/>
       <c r="L190" s="7"/>
-      <c r="M190" s="7"/>
+      <c r="M190" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="N190" s="7"/>
-      <c r="O190" s="7"/>
+      <c r="O190" s="7" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="191" spans="1:15" ht="24.95" customHeight="1">
       <c r="A191" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C191" s="7"/>
+      <c r="D191" s="7"/>
+      <c r="E191" s="7"/>
+      <c r="F191" s="7"/>
+      <c r="G191" s="7"/>
+      <c r="H191" s="7"/>
+      <c r="I191" s="7"/>
+      <c r="J191" s="7"/>
+      <c r="K191" s="7"/>
+      <c r="L191" s="7"/>
+      <c r="M191" s="7"/>
+      <c r="N191" s="7"/>
+      <c r="O191" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A192" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C192" s="7"/>
+      <c r="D192" s="7"/>
+      <c r="E192" s="7"/>
+      <c r="F192" s="7"/>
+      <c r="G192" s="7"/>
+      <c r="H192" s="7"/>
+      <c r="I192" s="7"/>
+      <c r="J192" s="7"/>
+      <c r="K192" s="7"/>
+      <c r="L192" s="7"/>
+      <c r="M192" s="7"/>
+      <c r="N192" s="7"/>
+      <c r="O192" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A193" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C193" s="7"/>
+      <c r="D193" s="7"/>
+      <c r="E193" s="7"/>
+      <c r="F193" s="7"/>
+      <c r="G193" s="7"/>
+      <c r="H193" s="7"/>
+      <c r="I193" s="7"/>
+      <c r="J193" s="7"/>
+      <c r="K193" s="7"/>
+      <c r="L193" s="7"/>
+      <c r="M193" s="7"/>
+      <c r="N193" s="7"/>
+      <c r="O193" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A194" s="7"/>
+      <c r="B194" s="7"/>
+      <c r="C194" s="7"/>
+      <c r="D194" s="7"/>
+      <c r="E194" s="7"/>
+      <c r="F194" s="7"/>
+      <c r="G194" s="7"/>
+      <c r="H194" s="7"/>
+      <c r="I194" s="7"/>
+      <c r="J194" s="7"/>
+      <c r="K194" s="7"/>
+      <c r="L194" s="7"/>
+      <c r="M194" s="7"/>
+      <c r="N194" s="7"/>
+      <c r="O194" s="7"/>
+    </row>
+    <row r="195" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A195" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B191" s="7" t="s">
+      <c r="B195" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="O191" s="7" t="s">
+      <c r="O195" s="7" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O192" s="10"/>
-    </row>
-    <row r="193" spans="2:15" ht="24.95" customHeight="1">
-      <c r="O193" s="10"/>
-    </row>
-    <row r="194" spans="2:15" ht="24.95" customHeight="1">
-      <c r="O194" s="6"/>
-    </row>
-    <row r="195" spans="2:15" ht="24.95" customHeight="1">
-      <c r="O195" s="6"/>
-    </row>
-    <row r="196" spans="2:15" ht="24.95" customHeight="1">
-      <c r="O196" s="6"/>
-    </row>
-    <row r="197" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B197" s="9"/>
-      <c r="M197" s="9"/>
-    </row>
-    <row r="198" spans="2:15" ht="24.95" customHeight="1">
+    <row r="196" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O196" s="10"/>
+    </row>
+    <row r="197" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O197" s="10"/>
+    </row>
+    <row r="198" spans="1:15" ht="24.95" customHeight="1">
       <c r="O198" s="6"/>
     </row>
-    <row r="199" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B199" s="9"/>
-      <c r="M199" s="9"/>
-    </row>
-    <row r="200" spans="2:15" ht="24.95" customHeight="1">
+    <row r="199" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O199" s="6"/>
+    </row>
+    <row r="200" spans="1:15" ht="24.95" customHeight="1">
       <c r="O200" s="6"/>
     </row>
-    <row r="201" spans="2:15" ht="24.95" customHeight="1">
-      <c r="O201" s="6"/>
-    </row>
-    <row r="202" spans="2:15" ht="24.95" customHeight="1">
+    <row r="201" spans="1:15" ht="24.95" customHeight="1">
+      <c r="B201" s="9"/>
+      <c r="M201" s="9"/>
+    </row>
+    <row r="202" spans="1:15" ht="24.95" customHeight="1">
       <c r="O202" s="6"/>
     </row>
-    <row r="203" spans="2:15" ht="24.95" customHeight="1">
-      <c r="O203" s="6"/>
-    </row>
-    <row r="204" spans="2:15" ht="24.95" customHeight="1">
+    <row r="203" spans="1:15" ht="24.95" customHeight="1">
+      <c r="B203" s="9"/>
+      <c r="M203" s="9"/>
+    </row>
+    <row r="204" spans="1:15" ht="24.95" customHeight="1">
       <c r="O204" s="6"/>
     </row>
-    <row r="205" spans="2:15" ht="24.95" customHeight="1">
+    <row r="205" spans="1:15" ht="24.95" customHeight="1">
       <c r="O205" s="6"/>
     </row>
-    <row r="206" spans="2:15" ht="24.95" customHeight="1">
+    <row r="206" spans="1:15" ht="24.95" customHeight="1">
       <c r="O206" s="6"/>
     </row>
-    <row r="207" spans="2:15" ht="24.95" customHeight="1">
+    <row r="207" spans="1:15" ht="24.95" customHeight="1">
       <c r="O207" s="6"/>
     </row>
-    <row r="208" spans="2:15" ht="24.95" customHeight="1">
+    <row r="208" spans="1:15" ht="24.95" customHeight="1">
       <c r="O208" s="6"/>
     </row>
     <row r="209" spans="15:15" ht="24.95" customHeight="1">
@@ -6496,6 +6538,9 @@
     <row r="540" spans="15:15" ht="24.95" customHeight="1">
       <c r="O540" s="6"/>
     </row>
+    <row r="541" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O541" s="6"/>
+    </row>
     <row r="542" spans="15:15" ht="24.95" customHeight="1">
       <c r="O542" s="6"/>
     </row>
@@ -6505,9 +6550,6 @@
     <row r="544" spans="15:15" ht="24.95" customHeight="1">
       <c r="O544" s="6"/>
     </row>
-    <row r="545" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O545" s="6"/>
-    </row>
     <row r="546" spans="15:15" ht="24.95" customHeight="1">
       <c r="O546" s="6"/>
     </row>
@@ -7676,20 +7718,7 @@
       <c r="O934" s="6"/>
     </row>
     <row r="935" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A935" s="11"/>
-      <c r="B935" s="11"/>
-      <c r="D935" s="11"/>
-      <c r="E935" s="11"/>
-      <c r="F935" s="11"/>
-      <c r="G935" s="11"/>
-      <c r="H935" s="11"/>
-      <c r="I935" s="11"/>
-      <c r="J935" s="11"/>
-      <c r="K935" s="11"/>
-      <c r="L935" s="11"/>
-      <c r="M935" s="11"/>
-      <c r="N935" s="11"/>
-      <c r="O935" s="12"/>
+      <c r="O935" s="6"/>
     </row>
     <row r="936" spans="1:15" ht="24.95" customHeight="1">
       <c r="O936" s="6"/>
@@ -7701,7 +7730,20 @@
       <c r="O938" s="6"/>
     </row>
     <row r="939" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O939" s="6"/>
+      <c r="A939" s="11"/>
+      <c r="B939" s="11"/>
+      <c r="D939" s="11"/>
+      <c r="E939" s="11"/>
+      <c r="F939" s="11"/>
+      <c r="G939" s="11"/>
+      <c r="H939" s="11"/>
+      <c r="I939" s="11"/>
+      <c r="J939" s="11"/>
+      <c r="K939" s="11"/>
+      <c r="L939" s="11"/>
+      <c r="M939" s="11"/>
+      <c r="N939" s="11"/>
+      <c r="O939" s="12"/>
     </row>
     <row r="940" spans="1:15" ht="24.95" customHeight="1">
       <c r="O940" s="6"/>
@@ -9206,8 +9248,20 @@
     <row r="1440" spans="15:15" ht="24.95" customHeight="1">
       <c r="O1440" s="6"/>
     </row>
+    <row r="1441" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1441" s="6"/>
+    </row>
+    <row r="1442" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1442" s="6"/>
+    </row>
+    <row r="1443" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1443" s="6"/>
+    </row>
+    <row r="1444" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1444" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="O1:O1143" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="O1:O1147" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs\TheOtherUs-Edited\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C44073D-9CBA-4D27-A5CC-DFC4E28C87E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DC5195-1D0A-414C-872A-FA721499CDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="690" yWindow="2160" windowWidth="24570" windowHeight="12060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1927,12 +1927,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;size=80%&gt;模组修改：&lt;color=#FFB793&gt;沫夏悠轩&lt;/color&gt; 
-美工: &lt;color=#00FFFFFF&gt;方块&lt;/color&gt;&lt;/size&gt;
-&lt;size=70%&gt;基于TheOtherUs&lt;/size&gt;</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;size=75%&gt;模组修改: &lt;color=#FFB793&gt;沫夏悠轩&lt;/color&gt; 
 美工: &lt;color=#00FFFFFF&gt;方块&lt;/color&gt;&lt;/size&gt;
 &lt;size=70%&gt;基于TheOtherUs&lt;/size&gt;</t>
@@ -2754,6 +2748,13 @@
   </si>
   <si>
     <t>WireTask Num</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;size=80%&gt;模组修改：&lt;color=#FFB793&gt;沫夏悠轩&lt;/color&gt; 
+美工: &lt;color=#00FFFFFF&gt;方块&lt;/color&gt;&lt;/size&gt;
+&lt;size=70%&gt;基于TheOtherUs&lt;/size&gt;
+</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3370,8 +3371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q1444"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A131" workbookViewId="0">
-      <selection activeCell="B137" sqref="B137"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="24.95" customHeight="1"/>
@@ -3454,10 +3455,10 @@
         <v>138</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="24.95" customHeight="1">
@@ -3465,10 +3466,10 @@
         <v>140</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="28.5">
@@ -3534,10 +3535,10 @@
         <v>180</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="42.75">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="57">
       <c r="A11" s="6" t="s">
         <v>136</v>
       </c>
@@ -3545,7 +3546,7 @@
         <v>298</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>517</v>
+        <v>723</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="42.75">
@@ -3564,7 +3565,7 @@
         <v>516</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -3579,7 +3580,7 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="24.95" customHeight="1">
@@ -3587,123 +3588,123 @@
     </row>
     <row r="15" spans="1:17" ht="24.95" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="24.95" customHeight="1">
       <c r="A16" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>569</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>570</v>
-      </c>
       <c r="O16" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="24.95" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="24.95" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="24.95" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="24.95" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="24.95" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="24.95" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="24.95" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="24.95" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="24.95" customHeight="1">
       <c r="A25" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>564</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>565</v>
-      </c>
       <c r="O25" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="24.95" customHeight="1">
@@ -3713,68 +3714,68 @@
     </row>
     <row r="27" spans="1:15" ht="24.95" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="O27" s="8" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="24.95" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="O28" s="8" t="s">
         <v>618</v>
-      </c>
-      <c r="O28" s="8" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="24.95" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>602</v>
+      </c>
+      <c r="O29" s="8" t="s">
         <v>603</v>
-      </c>
-      <c r="O29" s="8" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="24.95" customHeight="1">
       <c r="A30" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>670</v>
+      </c>
+      <c r="O30" s="8" t="s">
         <v>663</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>671</v>
-      </c>
-      <c r="O30" s="8" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="24.95" customHeight="1">
       <c r="A31" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="O31" s="8" t="s">
         <v>665</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>670</v>
-      </c>
-      <c r="O31" s="8" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="24.95" customHeight="1">
       <c r="A32" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="B32" s="8" t="s">
         <v>668</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>669</v>
-      </c>
       <c r="O32" s="8" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="24.95" customHeight="1">
@@ -3784,46 +3785,46 @@
     </row>
     <row r="34" spans="1:15" ht="24.95" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="24.95" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="O35" s="8" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="24.95" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="24.95" customHeight="1">
       <c r="A37" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="O37" s="8" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="24.95" customHeight="1">
@@ -3831,46 +3832,46 @@
     </row>
     <row r="39" spans="1:15" ht="24.95" customHeight="1">
       <c r="A39" s="8" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="24.95" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="24.95" customHeight="1">
       <c r="A41" s="8" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="24.95" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="24.95" customHeight="1">
@@ -3878,115 +3879,115 @@
     </row>
     <row r="44" spans="1:15" ht="24.95" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="M44" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="M44" s="6" t="s">
+      <c r="O44" s="7" t="s">
         <v>625</v>
-      </c>
-      <c r="O44" s="7" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="24.95" customHeight="1">
       <c r="A45" s="8" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="O45" s="9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="24.95" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="O46" s="9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="24.95" customHeight="1">
       <c r="A47" s="8" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="O47" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="24.95" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="O48" s="9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="24.95" customHeight="1">
       <c r="A49" s="7" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="24.95" customHeight="1">
       <c r="A50" s="7" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="O50" s="9" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="24.95" customHeight="1">
       <c r="A51" s="7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="24.95" customHeight="1">
       <c r="A52" s="7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="24.95" customHeight="1">
       <c r="A53" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="O53" s="7" t="s">
         <v>629</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>635</v>
-      </c>
-      <c r="O53" s="7" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="24.95" customHeight="1">
@@ -3994,50 +3995,50 @@
     </row>
     <row r="55" spans="1:15" ht="24.95" customHeight="1">
       <c r="A55" s="7" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="O55" s="8" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="24.95" customHeight="1">
       <c r="A56" s="7" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="O56" s="8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="24.95" customHeight="1">
       <c r="A57" s="7" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="O57" s="8" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="24.95" customHeight="1">
       <c r="A58" s="7" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="O58" s="8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="24.95" customHeight="1">
       <c r="A59" s="7" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="O59" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="24.95" customHeight="1">
       <c r="A60" s="7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="O60" s="8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="24.95" customHeight="1">
@@ -4087,10 +4088,10 @@
     </row>
     <row r="64" spans="1:15" ht="24.95" customHeight="1">
       <c r="A64" s="7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -4105,15 +4106,15 @@
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
       <c r="O64" s="7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="24.95" customHeight="1">
       <c r="A65" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -4128,7 +4129,7 @@
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
       <c r="O65" s="7" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="24.95" customHeight="1">
@@ -4153,7 +4154,7 @@
       </c>
       <c r="N66" s="7"/>
       <c r="O66" s="7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="24.95" customHeight="1">
@@ -4590,7 +4591,7 @@
         <v>380</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="O99" s="7" t="s">
         <v>381</v>
@@ -4683,13 +4684,13 @@
     </row>
     <row r="108" spans="1:15" ht="24.95" customHeight="1">
       <c r="A108" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="B108" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="O108" s="7" t="s">
         <v>580</v>
-      </c>
-      <c r="O108" s="7" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="24.95" customHeight="1">
@@ -4711,90 +4712,90 @@
         <v>489</v>
       </c>
       <c r="O110" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="24.95" customHeight="1">
       <c r="A111" s="7" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B111" s="7"/>
       <c r="O111" s="7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="24.95" customHeight="1">
       <c r="A112" s="7" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B112" s="7"/>
       <c r="O112" s="7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="113" spans="1:15" ht="24.95" customHeight="1">
       <c r="A113" s="7" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B113" s="7"/>
       <c r="O113" s="7" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="114" spans="1:15" ht="24.95" customHeight="1">
       <c r="A114" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B114" s="7"/>
       <c r="O114" s="7" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="115" spans="1:15" ht="24.95" customHeight="1">
       <c r="A115" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B115" s="7"/>
       <c r="O115" s="7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="24.95" customHeight="1">
       <c r="A116" s="7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B116" s="7"/>
       <c r="O116" s="7" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="117" spans="1:15" ht="24.95" customHeight="1">
       <c r="A117" s="7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B117" s="7"/>
       <c r="O117" s="7" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="118" spans="1:15" ht="24.95" customHeight="1">
       <c r="A118" s="7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B118" s="7"/>
       <c r="O118" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="119" spans="1:15" ht="24.95" customHeight="1">
       <c r="A119" s="7" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="O119" s="8" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="120" spans="1:15" ht="24.95" customHeight="1">
@@ -4818,7 +4819,7 @@
         <v>403</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="O122" s="7" t="s">
         <v>404</v>
@@ -4851,7 +4852,7 @@
         <v>410</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O125" s="7" t="s">
         <v>411</v>
@@ -4911,7 +4912,7 @@
     </row>
     <row r="131" spans="1:15" ht="24.95" customHeight="1">
       <c r="A131" s="7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="O131" s="7" t="s">
         <v>422</v>
@@ -4950,24 +4951,24 @@
     </row>
     <row r="136" spans="1:15" ht="24.95" customHeight="1">
       <c r="A136" s="7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="O136" s="7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="137" spans="1:15" ht="24.95" customHeight="1">
       <c r="A137" s="7" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="O137" s="7" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="138" spans="1:15" ht="24.95" customHeight="1">
@@ -5136,7 +5137,7 @@
         <v>503</v>
       </c>
       <c r="O154" s="7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="155" spans="1:15" ht="24.95" customHeight="1">
@@ -5147,7 +5148,7 @@
         <v>504</v>
       </c>
       <c r="O155" s="7" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="156" spans="1:15" ht="24.95" customHeight="1">
@@ -5158,7 +5159,7 @@
         <v>505</v>
       </c>
       <c r="O156" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="157" spans="1:15" ht="24.95" customHeight="1">
@@ -5169,7 +5170,7 @@
         <v>506</v>
       </c>
       <c r="O157" s="7" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="158" spans="1:15" ht="24.95" customHeight="1">
@@ -5180,7 +5181,7 @@
         <v>507</v>
       </c>
       <c r="O158" s="7" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="159" spans="1:15" ht="24.95" customHeight="1">
@@ -5191,7 +5192,7 @@
         <v>508</v>
       </c>
       <c r="O159" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="160" spans="1:15" ht="24.95" customHeight="1">
@@ -5202,7 +5203,7 @@
         <v>509</v>
       </c>
       <c r="O160" s="10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="161" spans="1:15" ht="24.95" customHeight="1">
@@ -5292,13 +5293,13 @@
     </row>
     <row r="185" spans="1:15" ht="24.95" customHeight="1">
       <c r="A185" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="O185" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="186" spans="1:15" ht="24.95" customHeight="1">
@@ -9727,7 +9728,7 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -9752,7 +9753,7 @@
         <v>227</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -9777,7 +9778,7 @@
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -9802,7 +9803,7 @@
         <v>225</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -9827,7 +9828,7 @@
         <v>239</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -9852,7 +9853,7 @@
         <v>234</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -9877,7 +9878,7 @@
         <v>226</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -9927,7 +9928,7 @@
         <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -9952,7 +9953,7 @@
         <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -9977,7 +9978,7 @@
         <v>83</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -10001,10 +10002,10 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -10026,10 +10027,10 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -10054,7 +10055,7 @@
         <v>87</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -10076,10 +10077,10 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -10101,10 +10102,10 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -10129,7 +10130,7 @@
         <v>90</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -10154,7 +10155,7 @@
         <v>209</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -10179,7 +10180,7 @@
         <v>262</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -10204,7 +10205,7 @@
         <v>203</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -10229,7 +10230,7 @@
         <v>208</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -10254,7 +10255,7 @@
         <v>95</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -10279,7 +10280,7 @@
         <v>260</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -10304,7 +10305,7 @@
         <v>98</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -10326,10 +10327,10 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -10344,7 +10345,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
@@ -10354,7 +10355,7 @@
         <v>100</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -10379,7 +10380,7 @@
         <v>201</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -10404,7 +10405,7 @@
         <v>229</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -10426,10 +10427,10 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -10454,7 +10455,7 @@
         <v>235</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -10479,7 +10480,7 @@
         <v>236</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -11027,7 +11028,7 @@
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>21</v>
@@ -11038,7 +11039,7 @@
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>21</v>
@@ -11049,7 +11050,7 @@
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>21</v>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs\TheOtherUs-Edited\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DC5195-1D0A-414C-872A-FA721499CDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BE14F8-E9A4-4150-B882-0947E3485785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="690" yWindow="2160" windowWidth="24570" windowHeight="12060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Button Text" sheetId="8" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Text!$O$1:$O$1147</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Text!$O$1:$O$1148</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="727">
   <si>
     <t>English</t>
   </si>
@@ -1818,10 +1818,6 @@
   </si>
   <si>
     <t>Random Spawn Location</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Spawn Location to vent</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2182,10 +2178,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>Show Vents On Map</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>Show Button Target</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2720,10 +2712,6 @@
   </si>
   <si>
     <t>随机出生在通风口上\n(建议开启)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>在地图上显示管道\n（无效设置）</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -2755,6 +2743,30 @@
 美工: &lt;color=#00FFFFFF&gt;方块&lt;/color&gt;&lt;/size&gt;
 &lt;size=70%&gt;基于TheOtherUs&lt;/size&gt;
 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>在地图上显示管道</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ShowVentsOnMeetingMap</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>只在会议中显示管道位置</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Show Only In Meetings</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Show Vent Positions On Minimap</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spawn Location to Vent</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -2762,7 +2774,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2828,6 +2840,14 @@
       <name val="游ゴシック"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2851,7 +2871,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2877,6 +2897,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3369,10 +3392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1444"/>
+  <dimension ref="A1:Q1445"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="24.95" customHeight="1"/>
@@ -3455,10 +3478,10 @@
         <v>138</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="O3" s="7" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="24.95" customHeight="1">
@@ -3466,10 +3489,10 @@
         <v>140</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="28.5">
@@ -3535,7 +3558,7 @@
         <v>180</v>
       </c>
       <c r="O10" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="57">
@@ -3546,7 +3569,7 @@
         <v>298</v>
       </c>
       <c r="O11" s="8" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="42.75">
@@ -3562,10 +3585,10 @@
     </row>
     <row r="13" spans="1:17" ht="313.5">
       <c r="A13" s="7" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -3580,7 +3603,7 @@
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="24.95" customHeight="1">
@@ -3588,123 +3611,123 @@
     </row>
     <row r="15" spans="1:17" ht="24.95" customHeight="1">
       <c r="A15" s="7" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="O15" s="8" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="24.95" customHeight="1">
       <c r="A16" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>569</v>
-      </c>
       <c r="O16" s="8" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="24.95" customHeight="1">
       <c r="A17" s="7" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="24.95" customHeight="1">
       <c r="A18" s="7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="24.95" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="O19" s="8" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="24.95" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="O20" s="8" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="24.95" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="O21" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="24.95" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="24.95" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="24.95" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="O24" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="24.95" customHeight="1">
       <c r="A25" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>563</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>564</v>
-      </c>
       <c r="O25" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="24.95" customHeight="1">
@@ -3714,68 +3737,68 @@
     </row>
     <row r="27" spans="1:15" ht="24.95" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="O27" s="8" t="s">
         <v>619</v>
-      </c>
-      <c r="O27" s="8" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="24.95" customHeight="1">
       <c r="A28" s="7" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="O28" s="8" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="24.95" customHeight="1">
       <c r="A29" s="7" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="O29" s="8" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="30" spans="1:15" ht="24.95" customHeight="1">
       <c r="A30" s="7" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="O30" s="8" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="24.95" customHeight="1">
       <c r="A31" s="7" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="O31" s="8" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="24.95" customHeight="1">
       <c r="A32" s="7" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
     </row>
     <row r="33" spans="1:15" ht="24.95" customHeight="1">
@@ -3785,46 +3808,46 @@
     </row>
     <row r="34" spans="1:15" ht="24.95" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="24.95" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="O35" s="8" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="24.95" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="O36" s="8" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="24.95" customHeight="1">
       <c r="A37" s="8" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="O37" s="8" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="24.95" customHeight="1">
@@ -3832,46 +3855,46 @@
     </row>
     <row r="39" spans="1:15" ht="24.95" customHeight="1">
       <c r="A39" s="8" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="24.95" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="O40" s="8" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="24.95" customHeight="1">
       <c r="A41" s="8" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="24.95" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="24.95" customHeight="1">
@@ -3879,115 +3902,115 @@
     </row>
     <row r="44" spans="1:15" ht="24.95" customHeight="1">
       <c r="A44" s="8" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B44" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="O44" s="7" t="s">
         <v>623</v>
-      </c>
-      <c r="M44" s="6" t="s">
-        <v>624</v>
-      </c>
-      <c r="O44" s="7" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="45" spans="1:15" ht="24.95" customHeight="1">
       <c r="A45" s="8" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="O45" s="9" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="46" spans="1:15" ht="24.95" customHeight="1">
       <c r="A46" s="8" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="O46" s="9" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="24.95" customHeight="1">
       <c r="A47" s="8" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="O47" s="9" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="24.95" customHeight="1">
       <c r="A48" s="8" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="O48" s="9" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="49" spans="1:15" ht="24.95" customHeight="1">
       <c r="A49" s="7" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="50" spans="1:15" ht="24.95" customHeight="1">
       <c r="A50" s="7" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="O50" s="9" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="51" spans="1:15" ht="24.95" customHeight="1">
       <c r="A51" s="7" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="24.95" customHeight="1">
       <c r="A52" s="7" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
     <row r="53" spans="1:15" ht="24.95" customHeight="1">
       <c r="A53" s="7" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="54" spans="1:15" ht="24.95" customHeight="1">
@@ -3995,50 +4018,50 @@
     </row>
     <row r="55" spans="1:15" ht="24.95" customHeight="1">
       <c r="A55" s="7" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="O55" s="8" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="24.95" customHeight="1">
       <c r="A56" s="7" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="O56" s="8" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="57" spans="1:15" ht="24.95" customHeight="1">
       <c r="A57" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="O57" s="8" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="24.95" customHeight="1">
       <c r="A58" s="7" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="O58" s="8" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="24.95" customHeight="1">
       <c r="A59" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="O59" s="8" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="60" spans="1:15" ht="24.95" customHeight="1">
       <c r="A60" s="7" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="O60" s="8" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="24.95" customHeight="1">
@@ -4088,10 +4111,10 @@
     </row>
     <row r="64" spans="1:15" ht="24.95" customHeight="1">
       <c r="A64" s="7" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -4106,15 +4129,15 @@
       <c r="M64" s="7"/>
       <c r="N64" s="7"/>
       <c r="O64" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="65" spans="1:15" ht="24.95" customHeight="1">
       <c r="A65" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -4129,7 +4152,7 @@
       <c r="M65" s="7"/>
       <c r="N65" s="7"/>
       <c r="O65" s="7" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="24.95" customHeight="1">
@@ -4154,7 +4177,7 @@
       </c>
       <c r="N66" s="7"/>
       <c r="O66" s="7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="24.95" customHeight="1">
@@ -4591,7 +4614,7 @@
         <v>380</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="O99" s="7" t="s">
         <v>381</v>
@@ -4684,13 +4707,13 @@
     </row>
     <row r="108" spans="1:15" ht="24.95" customHeight="1">
       <c r="A108" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="O108" s="7" t="s">
         <v>578</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="O108" s="7" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="24.95" customHeight="1">
@@ -4709,530 +4732,538 @@
         <v>400</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>489</v>
+        <v>726</v>
       </c>
       <c r="O110" s="7" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="24.95" customHeight="1">
       <c r="A111" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="B111" s="7"/>
-      <c r="O111" s="7" t="s">
-        <v>585</v>
+        <v>561</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="O111" s="8" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="24.95" customHeight="1">
       <c r="A112" s="7" t="s">
-        <v>586</v>
-      </c>
-      <c r="B112" s="7"/>
-      <c r="O112" s="7" t="s">
-        <v>593</v>
+        <v>722</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="O112" s="8" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="113" spans="1:15" ht="24.95" customHeight="1">
       <c r="A113" s="7" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B113" s="7"/>
       <c r="O113" s="7" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
     </row>
     <row r="114" spans="1:15" ht="24.95" customHeight="1">
       <c r="A114" s="7" t="s">
-        <v>588</v>
-      </c>
-      <c r="B114" s="7"/>
+        <v>584</v>
+      </c>
+      <c r="B114" s="13"/>
       <c r="O114" s="7" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="115" spans="1:15" ht="24.95" customHeight="1">
       <c r="A115" s="7" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B115" s="7"/>
       <c r="O115" s="7" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="116" spans="1:15" ht="24.95" customHeight="1">
       <c r="A116" s="7" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="B116" s="7"/>
       <c r="O116" s="7" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="117" spans="1:15" ht="24.95" customHeight="1">
       <c r="A117" s="7" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B117" s="7"/>
       <c r="O117" s="7" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="118" spans="1:15" ht="24.95" customHeight="1">
       <c r="A118" s="7" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B118" s="7"/>
       <c r="O118" s="7" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="119" spans="1:15" ht="24.95" customHeight="1">
       <c r="A119" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="O119" s="8" t="s">
-        <v>716</v>
+        <v>589</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c r="O119" s="7" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="120" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A120" s="7"/>
+      <c r="A120" s="7" t="s">
+        <v>590</v>
+      </c>
       <c r="B120" s="7"/>
-      <c r="O120" s="7"/>
+      <c r="O120" s="7" t="s">
+        <v>597</v>
+      </c>
     </row>
     <row r="121" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A121" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="O121" s="7" t="s">
-        <v>402</v>
-      </c>
+      <c r="A121" s="7"/>
+      <c r="B121" s="7"/>
+      <c r="O121" s="7"/>
     </row>
     <row r="122" spans="1:15" ht="24.95" customHeight="1">
       <c r="A122" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>581</v>
+        <v>402</v>
       </c>
       <c r="O122" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="123" spans="1:15" ht="24.95" customHeight="1">
       <c r="A123" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>406</v>
+        <v>403</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>579</v>
       </c>
       <c r="O123" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="124" spans="1:15" ht="24.95" customHeight="1">
       <c r="A124" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="B124" s="7" t="s">
-        <v>452</v>
+        <v>405</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>406</v>
       </c>
       <c r="O124" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="125" spans="1:15" ht="24.95" customHeight="1">
       <c r="A125" s="7" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>582</v>
+        <v>452</v>
       </c>
       <c r="O125" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="126" spans="1:15" ht="24.95" customHeight="1">
       <c r="A126" s="7" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>453</v>
+        <v>580</v>
       </c>
       <c r="O126" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="127" spans="1:15" ht="24.95" customHeight="1">
       <c r="A127" s="7" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="O127" s="7" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="128" spans="1:15" ht="24.95" customHeight="1">
       <c r="A128" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="O128" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="129" spans="1:15" ht="24.95" customHeight="1">
       <c r="A129" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>419</v>
+        <v>455</v>
       </c>
       <c r="O129" s="7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="130" spans="1:15" ht="24.95" customHeight="1">
       <c r="A130" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>419</v>
       </c>
       <c r="O130" s="7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="131" spans="1:15" ht="24.95" customHeight="1">
       <c r="A131" s="7" t="s">
-        <v>583</v>
+        <v>420</v>
       </c>
       <c r="O131" s="7" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="132" spans="1:15" ht="24.95" customHeight="1">
       <c r="A132" s="7" t="s">
-        <v>423</v>
+        <v>581</v>
       </c>
       <c r="O132" s="7" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="133" spans="1:15" ht="24.95" customHeight="1">
       <c r="A133" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="O133" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="134" spans="1:15" ht="24.95" customHeight="1">
       <c r="A134" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="O134" s="7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A135" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="O134" s="7" t="s">
+      <c r="O135" s="7" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A135" s="7"/>
-      <c r="O135" s="7"/>
-    </row>
     <row r="136" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A136" s="7" t="s">
-        <v>719</v>
-      </c>
-      <c r="B136" s="7" t="s">
-        <v>721</v>
-      </c>
-      <c r="O136" s="7" t="s">
-        <v>717</v>
-      </c>
+      <c r="A136" s="7"/>
+      <c r="O136" s="7"/>
     </row>
     <row r="137" spans="1:15" ht="24.95" customHeight="1">
       <c r="A137" s="7" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="O137" s="7" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="138" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A138" s="7"/>
-      <c r="O138" s="7"/>
+      <c r="A138" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="O138" s="7" t="s">
+        <v>715</v>
+      </c>
     </row>
     <row r="139" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A139" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="B139" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="O139" s="7" t="s">
-        <v>431</v>
-      </c>
+      <c r="A139" s="7"/>
+      <c r="O139" s="7"/>
     </row>
     <row r="140" spans="1:15" ht="24.95" customHeight="1">
       <c r="A140" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O140" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="141" spans="1:15" ht="24.95" customHeight="1">
       <c r="A141" s="7" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="O141" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="142" spans="1:15" ht="24.95" customHeight="1">
       <c r="A142" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>447</v>
+        <v>448</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>446</v>
       </c>
       <c r="O142" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="143" spans="1:15" ht="24.95" customHeight="1">
       <c r="A143" s="7" t="s">
-        <v>456</v>
-      </c>
-      <c r="B143" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="O143" s="8" t="s">
-        <v>462</v>
+        <v>449</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="O143" s="7" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="144" spans="1:15" ht="24.95" customHeight="1">
       <c r="A144" s="7" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="O144" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
+      </c>
+      <c r="O144" s="8" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="145" spans="1:15" ht="24.95" customHeight="1">
       <c r="A145" s="7" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="O145" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="146" spans="1:15" ht="24.95" customHeight="1">
       <c r="A146" s="7" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="O146" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="147" spans="1:15" ht="24.95" customHeight="1">
       <c r="A147" s="7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="O147" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="148" spans="1:15" ht="24.95" customHeight="1">
       <c r="A148" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O148" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="149" spans="1:15" ht="24.95" customHeight="1">
       <c r="A149" s="7" t="s">
-        <v>490</v>
+        <v>461</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>494</v>
+        <v>472</v>
       </c>
       <c r="O149" s="7" t="s">
-        <v>493</v>
+        <v>467</v>
       </c>
     </row>
     <row r="150" spans="1:15" ht="24.95" customHeight="1">
       <c r="A150" s="7" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="O150" s="7" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A152" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="B152" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="O152" s="7" t="s">
-        <v>363</v>
+    <row r="151" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A151" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="O151" s="7" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="153" spans="1:15" ht="24.95" customHeight="1">
       <c r="A153" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="O153" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A154" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B154" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="O153" s="7" t="s">
+      <c r="O154" s="7" t="s">
         <v>364</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A154" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>503</v>
-      </c>
-      <c r="O154" s="7" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="155" spans="1:15" ht="24.95" customHeight="1">
       <c r="A155" s="6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="O155" s="7" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
     </row>
     <row r="156" spans="1:15" ht="24.95" customHeight="1">
       <c r="A156" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="O156" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A157" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="O157" s="10" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A158" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="B156" s="7" t="s">
+      <c r="B158" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="O156" s="10" t="s">
+      <c r="O158" s="7" t="s">
         <v>520</v>
-      </c>
-    </row>
-    <row r="157" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A157" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="B157" s="7" t="s">
-        <v>506</v>
-      </c>
-      <c r="O157" s="7" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="158" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A158" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="B158" s="7" t="s">
-        <v>507</v>
-      </c>
-      <c r="O158" s="7" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="159" spans="1:15" ht="24.95" customHeight="1">
       <c r="A159" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>508</v>
-      </c>
-      <c r="O159" s="10" t="s">
-        <v>523</v>
+        <v>506</v>
+      </c>
+      <c r="O159" s="7" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="160" spans="1:15" ht="24.95" customHeight="1">
       <c r="A160" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="O160" s="10" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="161" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O161" s="10"/>
+      <c r="A161" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="O161" s="10" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="162" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A162" s="7" t="s">
-        <v>510</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>514</v>
-      </c>
-      <c r="O162" s="10" t="s">
-        <v>512</v>
-      </c>
+      <c r="O162" s="10"/>
     </row>
     <row r="163" spans="1:15" ht="24.95" customHeight="1">
       <c r="A163" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="O163" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="B163" s="7" t="s">
-        <v>515</v>
-      </c>
-      <c r="O163" s="10" t="s">
-        <v>513</v>
-      </c>
     </row>
     <row r="164" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O164" s="10"/>
+      <c r="A164" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="O164" s="10" t="s">
+        <v>512</v>
+      </c>
     </row>
     <row r="165" spans="1:15" ht="24.95" customHeight="1">
       <c r="O165" s="10"/>
@@ -5241,7 +5272,7 @@
       <c r="O166" s="10"/>
     </row>
     <row r="167" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O167" s="6"/>
+      <c r="O167" s="10"/>
     </row>
     <row r="168" spans="1:15" ht="24.95" customHeight="1">
       <c r="O168" s="6"/>
@@ -5268,7 +5299,7 @@
       <c r="O175" s="6"/>
     </row>
     <row r="176" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O176" s="10"/>
+      <c r="O176" s="6"/>
     </row>
     <row r="177" spans="1:15" ht="24.95" customHeight="1">
       <c r="O177" s="10"/>
@@ -5277,66 +5308,48 @@
       <c r="O178" s="10"/>
     </row>
     <row r="179" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O179" s="6"/>
+      <c r="O179" s="10"/>
     </row>
     <row r="180" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O180" s="10"/>
-    </row>
-    <row r="182" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O182" s="10"/>
+      <c r="O180" s="6"/>
+    </row>
+    <row r="181" spans="1:15" ht="24.95" customHeight="1">
+      <c r="O181" s="10"/>
     </row>
     <row r="183" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O183" s="6"/>
+      <c r="O183" s="10"/>
     </row>
     <row r="184" spans="1:15" ht="24.95" customHeight="1">
       <c r="O184" s="6"/>
     </row>
     <row r="185" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A185" s="7" t="s">
-        <v>572</v>
-      </c>
-      <c r="B185" s="8" t="s">
-        <v>571</v>
-      </c>
-      <c r="O185" s="8" t="s">
-        <v>570</v>
-      </c>
+      <c r="O185" s="6"/>
     </row>
     <row r="186" spans="1:15" ht="24.95" customHeight="1">
       <c r="A186" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="O186" s="8" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A187" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B186" s="7" t="s">
+      <c r="B187" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="O186" s="6" t="s">
+      <c r="O187" s="6" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A187" s="7"/>
-      <c r="B187" s="7"/>
-      <c r="C187" s="7"/>
-      <c r="D187" s="7"/>
-      <c r="E187" s="7"/>
-      <c r="F187" s="7"/>
-      <c r="G187" s="7"/>
-      <c r="H187" s="7"/>
-      <c r="I187" s="7"/>
-      <c r="J187" s="7"/>
-      <c r="K187" s="7"/>
-      <c r="L187" s="7"/>
-      <c r="M187" s="7"/>
-      <c r="N187" s="7"/>
-      <c r="O187" s="7"/>
-    </row>
     <row r="188" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A188" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="B188" s="7" t="s">
-        <v>270</v>
-      </c>
+      <c r="A188" s="7"/>
+      <c r="B188" s="7"/>
       <c r="C188" s="7"/>
       <c r="D188" s="7"/>
       <c r="E188" s="7"/>
@@ -5347,20 +5360,16 @@
       <c r="J188" s="7"/>
       <c r="K188" s="7"/>
       <c r="L188" s="7"/>
-      <c r="M188" s="7" t="s">
-        <v>271</v>
-      </c>
+      <c r="M188" s="7"/>
       <c r="N188" s="7"/>
-      <c r="O188" s="7" t="s">
-        <v>272</v>
-      </c>
+      <c r="O188" s="7"/>
     </row>
     <row r="189" spans="1:15" ht="24.95" customHeight="1">
       <c r="A189" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C189" s="7"/>
       <c r="D189" s="7"/>
@@ -5373,19 +5382,19 @@
       <c r="K189" s="7"/>
       <c r="L189" s="7"/>
       <c r="M189" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="N189" s="7"/>
       <c r="O189" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
     </row>
     <row r="190" spans="1:15" ht="24.95" customHeight="1">
       <c r="A190" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C190" s="7"/>
       <c r="D190" s="7"/>
@@ -5398,19 +5407,19 @@
       <c r="K190" s="7"/>
       <c r="L190" s="7"/>
       <c r="M190" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="N190" s="7"/>
       <c r="O190" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="191" spans="1:15" ht="24.95" customHeight="1">
       <c r="A191" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C191" s="7"/>
       <c r="D191" s="7"/>
@@ -5422,18 +5431,20 @@
       <c r="J191" s="7"/>
       <c r="K191" s="7"/>
       <c r="L191" s="7"/>
-      <c r="M191" s="7"/>
+      <c r="M191" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="N191" s="7"/>
       <c r="O191" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="192" spans="1:15" ht="24.95" customHeight="1">
       <c r="A192" s="7" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="C192" s="7"/>
       <c r="D192" s="7"/>
@@ -5448,15 +5459,15 @@
       <c r="M192" s="7"/>
       <c r="N192" s="7"/>
       <c r="O192" s="7" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
     </row>
     <row r="193" spans="1:15" ht="24.95" customHeight="1">
       <c r="A193" s="7" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
       <c r="C193" s="7"/>
       <c r="D193" s="7"/>
@@ -5471,12 +5482,16 @@
       <c r="M193" s="7"/>
       <c r="N193" s="7"/>
       <c r="O193" s="7" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
     </row>
     <row r="194" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A194" s="7"/>
-      <c r="B194" s="7"/>
+      <c r="A194" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>285</v>
+      </c>
       <c r="C194" s="7"/>
       <c r="D194" s="7"/>
       <c r="E194" s="7"/>
@@ -5489,27 +5504,43 @@
       <c r="L194" s="7"/>
       <c r="M194" s="7"/>
       <c r="N194" s="7"/>
-      <c r="O194" s="7"/>
+      <c r="O194" s="7" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="195" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A195" s="7" t="s">
+      <c r="A195" s="7"/>
+      <c r="B195" s="7"/>
+      <c r="C195" s="7"/>
+      <c r="D195" s="7"/>
+      <c r="E195" s="7"/>
+      <c r="F195" s="7"/>
+      <c r="G195" s="7"/>
+      <c r="H195" s="7"/>
+      <c r="I195" s="7"/>
+      <c r="J195" s="7"/>
+      <c r="K195" s="7"/>
+      <c r="L195" s="7"/>
+      <c r="M195" s="7"/>
+      <c r="N195" s="7"/>
+      <c r="O195" s="7"/>
+    </row>
+    <row r="196" spans="1:15" ht="24.95" customHeight="1">
+      <c r="A196" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B195" s="7" t="s">
+      <c r="B196" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="O195" s="7" t="s">
+      <c r="O196" s="7" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="196" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O196" s="10"/>
     </row>
     <row r="197" spans="1:15" ht="24.95" customHeight="1">
       <c r="O197" s="10"/>
     </row>
     <row r="198" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O198" s="6"/>
+      <c r="O198" s="10"/>
     </row>
     <row r="199" spans="1:15" ht="24.95" customHeight="1">
       <c r="O199" s="6"/>
@@ -5518,18 +5549,18 @@
       <c r="O200" s="6"/>
     </row>
     <row r="201" spans="1:15" ht="24.95" customHeight="1">
-      <c r="B201" s="9"/>
-      <c r="M201" s="9"/>
+      <c r="O201" s="6"/>
     </row>
     <row r="202" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O202" s="6"/>
+      <c r="B202" s="9"/>
+      <c r="M202" s="9"/>
     </row>
     <row r="203" spans="1:15" ht="24.95" customHeight="1">
-      <c r="B203" s="9"/>
-      <c r="M203" s="9"/>
+      <c r="O203" s="6"/>
     </row>
     <row r="204" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O204" s="6"/>
+      <c r="B204" s="9"/>
+      <c r="M204" s="9"/>
     </row>
     <row r="205" spans="1:15" ht="24.95" customHeight="1">
       <c r="O205" s="6"/>
@@ -6551,8 +6582,8 @@
     <row r="544" spans="15:15" ht="24.95" customHeight="1">
       <c r="O544" s="6"/>
     </row>
-    <row r="546" spans="15:15" ht="24.95" customHeight="1">
-      <c r="O546" s="6"/>
+    <row r="545" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O545" s="6"/>
     </row>
     <row r="547" spans="15:15" ht="24.95" customHeight="1">
       <c r="O547" s="6"/>
@@ -7731,23 +7762,23 @@
       <c r="O938" s="6"/>
     </row>
     <row r="939" spans="1:15" ht="24.95" customHeight="1">
-      <c r="A939" s="11"/>
-      <c r="B939" s="11"/>
-      <c r="D939" s="11"/>
-      <c r="E939" s="11"/>
-      <c r="F939" s="11"/>
-      <c r="G939" s="11"/>
-      <c r="H939" s="11"/>
-      <c r="I939" s="11"/>
-      <c r="J939" s="11"/>
-      <c r="K939" s="11"/>
-      <c r="L939" s="11"/>
-      <c r="M939" s="11"/>
-      <c r="N939" s="11"/>
-      <c r="O939" s="12"/>
+      <c r="O939" s="6"/>
     </row>
     <row r="940" spans="1:15" ht="24.95" customHeight="1">
-      <c r="O940" s="6"/>
+      <c r="A940" s="11"/>
+      <c r="B940" s="11"/>
+      <c r="D940" s="11"/>
+      <c r="E940" s="11"/>
+      <c r="F940" s="11"/>
+      <c r="G940" s="11"/>
+      <c r="H940" s="11"/>
+      <c r="I940" s="11"/>
+      <c r="J940" s="11"/>
+      <c r="K940" s="11"/>
+      <c r="L940" s="11"/>
+      <c r="M940" s="11"/>
+      <c r="N940" s="11"/>
+      <c r="O940" s="12"/>
     </row>
     <row r="941" spans="1:15" ht="24.95" customHeight="1">
       <c r="O941" s="6"/>
@@ -9261,8 +9292,11 @@
     <row r="1444" spans="15:15" ht="24.95" customHeight="1">
       <c r="O1444" s="6"/>
     </row>
+    <row r="1445" spans="15:15" ht="24.95" customHeight="1">
+      <c r="O1445" s="6"/>
+    </row>
   </sheetData>
-  <autoFilter ref="O1:O1147" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="O1:O1148" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9728,7 +9762,7 @@
         <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -9753,7 +9787,7 @@
         <v>227</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -9778,7 +9812,7 @@
         <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -9803,7 +9837,7 @@
         <v>225</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -9828,7 +9862,7 @@
         <v>239</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -9853,7 +9887,7 @@
         <v>234</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -9878,7 +9912,7 @@
         <v>226</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -9928,7 +9962,7 @@
         <v>79</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -9953,7 +9987,7 @@
         <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -9978,7 +10012,7 @@
         <v>83</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -10002,10 +10036,10 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -10027,10 +10061,10 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -10055,7 +10089,7 @@
         <v>87</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -10077,10 +10111,10 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -10102,10 +10136,10 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -10130,7 +10164,7 @@
         <v>90</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -10155,7 +10189,7 @@
         <v>209</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -10180,7 +10214,7 @@
         <v>262</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -10205,7 +10239,7 @@
         <v>203</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -10230,7 +10264,7 @@
         <v>208</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -10255,7 +10289,7 @@
         <v>95</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -10280,7 +10314,7 @@
         <v>260</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -10305,7 +10339,7 @@
         <v>98</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -10327,10 +10361,10 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -10345,7 +10379,7 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
@@ -10355,7 +10389,7 @@
         <v>100</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -10380,7 +10414,7 @@
         <v>201</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -10405,7 +10439,7 @@
         <v>229</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -10427,10 +10461,10 @@
     </row>
     <row r="30" spans="1:17">
       <c r="A30" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -10455,7 +10489,7 @@
         <v>235</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -10480,7 +10514,7 @@
         <v>236</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -11028,7 +11062,7 @@
     </row>
     <row r="78" spans="1:17">
       <c r="A78" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>21</v>
@@ -11039,7 +11073,7 @@
     </row>
     <row r="79" spans="1:17">
       <c r="A79" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>21</v>
@@ -11050,7 +11084,7 @@
     </row>
     <row r="80" spans="1:17">
       <c r="A80" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>21</v>

--- a/Strings.xlsx
+++ b/Strings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Among Us code\TheOtherUs\TheOtherUs-Edited\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2BE14F8-E9A4-4150-B882-0947E3485785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBFE9BAF-499B-4D2D-BB46-94234533FFF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="690" yWindow="2160" windowWidth="24570" windowHeight="12060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="Button Text" sheetId="8" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Text!$O$1:$O$1148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Text!$O$1:$O$1149</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="731">
   <si>
     <t>English</t>
   </si>
@@ -2767,6 +2767,22 @@
   </si>
   <si>
     <t>Spawn Location to Vent</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Irish</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>deadImpsBlockSabotage</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Block Dead Impostor From Sabotaging</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>伪装者死亡后不能破坏</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3392,10 +3408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1445"/>
+  <dimension ref="A1:Q1446"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="O99" sqref="O99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="24.95" customHeight="1"/>
@@ -3455,8 +3471,8 @@
       <c r="P1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="6" t="s">
-        <v>15</v>
+      <c r="Q1" s="7" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="24.95" customHeight="1">
@@ -4644,629 +4660,637 @@
     </row>
     <row r="102" spans="1:15" ht="24.95" customHeight="1">
       <c r="A102" s="7" t="s">
-        <v>386</v>
+        <v>728</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>486</v>
+        <v>729</v>
       </c>
       <c r="O102" s="7" t="s">
-        <v>387</v>
+        <v>730</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="24.95" customHeight="1">
       <c r="A103" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="O103" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="104" spans="1:15" ht="24.95" customHeight="1">
       <c r="A104" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="O104" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="105" spans="1:15" ht="24.95" customHeight="1">
       <c r="A105" s="7" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O105" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="24.95" customHeight="1">
       <c r="A106" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="O106" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="107" spans="1:15" ht="24.95" customHeight="1">
       <c r="A107" s="7" t="s">
-        <v>396</v>
+        <v>394</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>481</v>
       </c>
       <c r="O107" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="108" spans="1:15" ht="24.95" customHeight="1">
       <c r="A108" s="7" t="s">
-        <v>576</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>577</v>
+        <v>396</v>
       </c>
       <c r="O108" s="7" t="s">
-        <v>578</v>
+        <v>397</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="24.95" customHeight="1">
       <c r="A109" s="7" t="s">
-        <v>398</v>
+        <v>576</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>488</v>
+        <v>577</v>
       </c>
       <c r="O109" s="7" t="s">
-        <v>399</v>
+        <v>578</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="24.95" customHeight="1">
       <c r="A110" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>726</v>
+        <v>488</v>
       </c>
       <c r="O110" s="7" t="s">
-        <v>713</v>
+        <v>399</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="24.95" customHeight="1">
       <c r="A111" s="7" t="s">
-        <v>561</v>
+        <v>400</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>725</v>
-      </c>
-      <c r="O111" s="8" t="s">
-        <v>721</v>
+        <v>726</v>
+      </c>
+      <c r="O111" s="7" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="24.95" customHeight="1">
       <c r="A112" s="7" t="s">
-        <v>722</v>
+        <v>561</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="O112" s="8" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="113" spans="1:15" ht="24.95" customHeight="1">
       